--- a/tests/integration/out/ai-and-nanotech-applicants.xlsx
+++ b/tests/integration/out/ai-and-nanotech-applicants.xlsx
@@ -589,7 +589,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>WO;;US</t>
+          <t>US;;WO</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>CA;;KR;;WO;;JP;;SG;;CN;;EP;;AU;;US</t>
+          <t>KR;;SG;;US;;CA;;AU;;EP;;CN;;WO;;JP</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>AU;;US;;CA</t>
+          <t>US;;CA;;AU</t>
         </is>
       </c>
       <c r="K3" t="n">
@@ -708,7 +708,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>GOOGLE LLC;;グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;BARENDS RAMI;;ラミ・バレントス;;GOOGLE INC;;SMELYANSKIY VADIM;;CASTRILLO SERGIO BOIXO;;구글 엘엘씨;;NIU YUEZHEN;;グーグル エルエルシー;;NEVEN HARTMUT</t>
+          <t>グーグル エルエルシー;;グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;CASTRILLO SERGIO BOIXO;;SMELYANSKIY VADIM;;ラミ・バレントス;;GOOGLE LLC;;구글 엘엘씨;;GOOGLE INC;;NIU YUEZHEN;;NEVEN HARTMUT;;BARENDS RAMI</t>
         </is>
       </c>
       <c r="P3" t="b">
@@ -773,7 +773,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>DE;;WO;;JP;;CN;;GB;;US</t>
+          <t>GB;;US;;DE;;CN;;WO;;JP</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -800,7 +800,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>IBM UK;;インターナショナル・ビジネス・マシーンズ・コーポレーションＩＮＴＥＲＮＡＴＩＯＮＡＬ ＢＵＳＩＮＥＳＳ ＭＡＣＨＩＮＥＳ ＣＯＲＰＯＲＡＴＩＯＮ;;国际商业机器公司;;IBM (CHINA) INVEST COMPANY LTD;;IBM</t>
+          <t>IBM (CHINA) INVEST COMPANY LTD;;IBM UK;;インターナショナル・ビジネス・マシーンズ・コーポレーションＩＮＴＥＲＮＡＴＩＯＮＡＬ ＢＵＳＩＮＥＳＳ ＭＡＣＨＩＮＥＳ ＣＯＲＰＯＲＡＴＩＯＮ;;国际商业机器公司;;IBM</t>
         </is>
       </c>
       <c r="P4" t="b">
@@ -865,7 +865,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>WO;;US;;EP</t>
+          <t>EP;;US;;WO</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -957,7 +957,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>CN;;EP;;US</t>
+          <t>EP;;US;;CN</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -984,7 +984,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>D WAVE SYSTEMS INC;;YARKONI SHEIR</t>
+          <t>YARKONI SHEIR;;D WAVE SYSTEMS INC</t>
         </is>
       </c>
       <c r="P6" t="b">
@@ -1049,7 +1049,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>CN;;US</t>
+          <t>US;;CN</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>CN;;US</t>
+          <t>US;;CN</t>
         </is>
       </c>
       <c r="K7" t="n">
@@ -1076,7 +1076,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>中国科学院微电子研究所;;INST OF MICROELECTRONICS CAS;;INST MICROELECTRONICS CAS</t>
+          <t>INST OF MICROELECTRONICS CAS;;中国科学院微电子研究所;;INST MICROELECTRONICS CAS</t>
         </is>
       </c>
       <c r="P7" t="b">
@@ -1141,7 +1141,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>CA;;KR;;WO;;JP;;CN;;EP;;AU;;US</t>
+          <t>KR;;US;;AU;;JP;;EP;;CN;;WO;;CA</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -1151,7 +1151,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>AU;;US</t>
+          <t>US;;AU</t>
         </is>
       </c>
       <c r="K8" t="n">
@@ -1168,7 +1168,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>キンダイ、インコーポレイテッドＫＹＮＤＩ， ＩＮＣ．;;KYNDI INC;;킨디 인코포레이티드</t>
+          <t>KYNDI INC;;킨디 인코포레이티드;;キンダイ、インコーポレイテッドＫＹＮＤＩ， ＩＮＣ．</t>
         </is>
       </c>
       <c r="P8" t="b">
@@ -1229,7 +1229,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>WO;;EP;;CA;;US</t>
+          <t>EP;;WO;;CA;;US</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>WO;;TW;;EP;;US</t>
+          <t>EP;;WO;;TW;;US</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1409,7 +1409,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>WO;;US;;KR;;CA</t>
+          <t>KR;;WO;;CA;;US</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1497,7 +1497,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>WO;;US;;CA;;EP</t>
+          <t>EP;;WO;;CA;;US</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1585,7 +1585,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>KR;;CA;;WO;;EP;;AU;;US</t>
+          <t>WO;;US;;AU;;EP;;KR;;CA</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1704,7 +1704,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>CARROLL WILLIAM JOSEPH;;TIPTON THOMAS ANDREW;;BATTAGLINI JOSEPH S;;MOLINSKY BRADLEY DEAN;;DUNST MICHAEL J;;HARTFORD FIRE INSURANCE COMP</t>
+          <t>DUNST MICHAEL J;;BATTAGLINI JOSEPH S;;MOLINSKY BRADLEY DEAN;;CARROLL WILLIAM JOSEPH;;TIPTON THOMAS ANDREW;;HARTFORD FIRE INSURANCE COMP</t>
         </is>
       </c>
       <c r="P14" t="b">
@@ -1857,7 +1857,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>WO;;US;;CA</t>
+          <t>WO;;CA;;US</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1949,7 +1949,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>WO;;US;;KR;;CN</t>
+          <t>KR;;US;;WO;;CN</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -2041,7 +2041,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>KR;;WO;;JP;;CN;;TW;;EP;;US</t>
+          <t>WO;;US;;EP;;TW;;CN;;KR;;JP</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -2129,7 +2129,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>WO;;US;;EP;;CN</t>
+          <t>EP;;US;;WO;;CN</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -2221,7 +2221,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>KR;;CA;;JP;;CN;;EP;;US</t>
+          <t>US;;CA;;EP;;CN;;KR;;JP</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -2313,7 +2313,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>WO;;US</t>
+          <t>US;;WO</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -2401,7 +2401,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>WO;;US</t>
+          <t>US;;WO</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -2853,7 +2853,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>WO;;FR;;EP</t>
+          <t>EP;;WO;;FR</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2945,7 +2945,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>CA;;WO;;SG;;TW;;EP;;GB</t>
+          <t>SG;;GB;;EP;;TW;;WO;;CA</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -3037,7 +3037,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>WO;;US</t>
+          <t>US;;WO</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>IBM;;IBM UK;;IBM (CHINA) INVEST COMPANY LTD</t>
+          <t>IBM (CHINA) INVEST COMPANY LTD;;IBM;;IBM UK</t>
         </is>
       </c>
       <c r="P29" t="b">
@@ -3129,7 +3129,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>CN;;US</t>
+          <t>US;;CN</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -3156,7 +3156,7 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>中国科学院微电子研究所;;INST OF MICROELECTRONICS CAS;;INST MICROELECTRONICS CAS</t>
+          <t>INST OF MICROELECTRONICS CAS;;中国科学院微电子研究所;;INST MICROELECTRONICS CAS</t>
         </is>
       </c>
       <c r="P30" t="b">
@@ -3248,7 +3248,7 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>DODO OMNIDATA INC;;IRIDIA INC</t>
+          <t>IRIDIA INC;;DODO OMNIDATA INC</t>
         </is>
       </c>
       <c r="P31" t="b">
@@ -3340,7 +3340,7 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>D-WAVE SYSTEMS INC;;YARKONI SHEIR</t>
+          <t>YARKONI SHEIR;;D-WAVE SYSTEMS INC</t>
         </is>
       </c>
       <c r="P32" t="b">
@@ -3845,7 +3845,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>US;;KR</t>
+          <t>KR;;US</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -4109,7 +4109,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>CN;;US</t>
+          <t>US;;CN</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -4997,7 +4997,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>US;;KR</t>
+          <t>KR;;US</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -5204,7 +5204,7 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>D WAVE SYSTEMS INC;;D-WAVE SYSTEMS INC;;YARKONI SHEIR</t>
+          <t>YARKONI SHEIR;;D WAVE SYSTEMS INC;;D-WAVE SYSTEMS INC</t>
         </is>
       </c>
       <c r="P53" t="b">
@@ -5533,7 +5533,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>US;;KR</t>
+          <t>KR;;US</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -5805,7 +5805,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>CA;;KR;;WO;;JP;;SG;;CN;;EP;;AU;;US</t>
+          <t>WO;;SG;;US;;CA;;AU;;EP;;CN;;KR;;JP</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -5832,7 +5832,7 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>GOOGLE LLC;;グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;BARENDS RAMI;;ラミ・バレントス;;GOOGLE INC;;구글 엘엘씨;;グーグル エルエルシー</t>
+          <t>グーグル エルエルシー;;グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;ラミ・バレントス;;GOOGLE LLC;;구글 엘엘씨;;GOOGLE INC;;BARENDS RAMI</t>
         </is>
       </c>
       <c r="P60" t="b">
@@ -6069,7 +6069,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>CN;;JP;;US</t>
+          <t>US;;JP;;CN</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -6249,7 +6249,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>CA;;KR;;WO;;JP;;SG;;CN;;EP;;AU;;US</t>
+          <t>KR;;SG;;US;;AU;;JP;;EP;;CN;;WO;;CA</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -6276,7 +6276,7 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>GOOGLE LLC;;BARENDS RAMI;;グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;ラミ・バレントス;;GOOGLE INC;;SMELYANSKIY VADIM;;CASTRILLO SERGIO BOIXO;;구글 엘엘씨;;NIU YUEZHEN;;グーグル エルエルシー;;NEVEN HARTMUT</t>
+          <t>グーグル エルエルシー;;グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;CASTRILLO SERGIO BOIXO;;SMELYANSKIY VADIM;;ラミ・バレントス;;GOOGLE LLC;;구글 엘엘씨;;GOOGLE INC;;NIU YUEZHEN;;NEVEN HARTMUT;;BARENDS RAMI</t>
         </is>
       </c>
       <c r="P65" t="b">
@@ -6341,7 +6341,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>KR;;WO;;JP;;CN;;EP;;US</t>
+          <t>WO;;US;;EP;;CN;;KR;;JP</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -6368,7 +6368,7 @@
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>FOSTNER SHAWN;;THE UNIV OF CANTERBURY;;ザ ユニバーシティー オブ カンタベリー;;BOSE SAURABH KUMAR;;BROWN SIMON ANTHONY</t>
+          <t>FOSTNER SHAWN;;THE UNIV OF CANTERBURY;;ザ ユニバーシティー オブ カンタベリー;;BROWN SIMON ANTHONY;;BOSE SAURABH KUMAR</t>
         </is>
       </c>
       <c r="P66" t="b">
@@ -6460,7 +6460,7 @@
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>UNIV SOGANG RES FOUNDATION;;서강대학교산학협력단</t>
+          <t>서강대학교산학협력단;;UNIV SOGANG RES FOUNDATION</t>
         </is>
       </c>
       <c r="P67" t="b">
@@ -6705,7 +6705,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>CN;;EP</t>
+          <t>EP;;CN</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -6732,7 +6732,7 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>MICROSOFT TECHNOLOGY LICENSING LLC;;微软技术许可有限责任公司</t>
+          <t>微软技术许可有限责任公司;;MICROSOFT TECHNOLOGY LICENSING LLC</t>
         </is>
       </c>
       <c r="P70" t="b">
@@ -6793,7 +6793,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>JP;;US</t>
+          <t>US;;JP</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -6820,7 +6820,7 @@
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>株式会社日立製作所;;HITACHI LTD</t>
+          <t>HITACHI LTD;;株式会社日立製作所</t>
         </is>
       </c>
       <c r="P71" t="b">
@@ -6885,7 +6885,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>CN;;US</t>
+          <t>US;;CN</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -7061,7 +7061,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>CN;;JP;;KR;;EP</t>
+          <t>EP;;KR;;JP;;CN</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -7088,7 +7088,7 @@
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>ラム リサーチ コーポレーションＬＡＭ ＲＥＳＥＡＲＣＨ ＣＯＲＰＯＲＡＴＩＯＮ;;LAM RES CORP</t>
+          <t>LAM RES CORP;;ラム リサーチ コーポレーションＬＡＭ ＲＥＳＥＡＲＣＨ ＣＯＲＰＯＲＡＴＩＯＮ</t>
         </is>
       </c>
       <c r="P74" t="b">
@@ -7180,7 +7180,7 @@
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>UNIV SOGANG RES FOUNDATION;;서강대학교산학협력단</t>
+          <t>서강대학교산학협력단;;UNIV SOGANG RES FOUNDATION</t>
         </is>
       </c>
       <c r="P75" t="b">
@@ -7245,7 +7245,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>KR;;JP;;CN;;EP;;US</t>
+          <t>US;;EP;;CN;;KR;;JP</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -7337,7 +7337,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>KR;;CA;;JP;;CN;;EP</t>
+          <t>CA;;EP;;CN;;KR;;JP</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -7452,7 +7452,7 @@
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>ICLEAGUE TECH CO LTD;;YANGTZE DELTA REGION INST TSINGHUA UNIV ZHEJIANG</t>
+          <t>YANGTZE DELTA REGION INST TSINGHUA UNIV ZHEJIANG;;ICLEAGUE TECH CO LTD</t>
         </is>
       </c>
       <c r="P78" t="b">
@@ -7701,7 +7701,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>CN;;US</t>
+          <t>US;;CN</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -7789,7 +7789,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>CN;;TW;;US</t>
+          <t>US;;TW;;CN</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -7877,7 +7877,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>CN;;TW;;US</t>
+          <t>US;;TW;;CN</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -7965,7 +7965,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>AU;;KR;;EP;;CA</t>
+          <t>EP;;KR;;CA;;AU</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -8141,7 +8141,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>JP;;US</t>
+          <t>US;;JP</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
@@ -8168,7 +8168,7 @@
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>株式会社日立製作所;;HITACHI LTD</t>
+          <t>HITACHI LTD;;株式会社日立製作所</t>
         </is>
       </c>
       <c r="P86" t="b">
@@ -8256,7 +8256,7 @@
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>ICLEAGUE TECH CO LTD;;YANGTZE DELTA REGION INST TSINGHUA UNIV ZHEJIANG</t>
+          <t>YANGTZE DELTA REGION INST TSINGHUA UNIV ZHEJIANG;;ICLEAGUE TECH CO LTD</t>
         </is>
       </c>
       <c r="P87" t="b">
@@ -8321,7 +8321,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>CA;;KR;;WO;;JP;;CN;;EP;;AU;;US</t>
+          <t>WO;;US;;CA;;AU;;EP;;CN;;KR;;JP</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -8348,7 +8348,7 @@
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>GOOGLE LLC;;グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;SMELYANSKIY VADIM;;GOOGLE INC;;CASTRILLO SERGIO BOIXO;;NIU YUEZHEN;;グーグル エルエルシー;;NEVEN HARTMUT</t>
+          <t>グーグル エルエルシー;;グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;CASTRILLO SERGIO BOIXO;;SMELYANSKIY VADIM;;GOOGLE LLC;;GOOGLE INC;;NIU YUEZHEN;;NEVEN HARTMUT</t>
         </is>
       </c>
       <c r="P88" t="b">
@@ -8413,7 +8413,7 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>KR;;CA;;WO;;JP;;RU;;CN;;IL;;TW;;EP;;AU;;ZA;;US</t>
+          <t>WO;;ZA;;IL;;US;;AU;;JP;;EP;;TW;;RU;;CN;;KR;;CA</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
@@ -8440,7 +8440,7 @@
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>LANDIGRAD LTD LIABILITY CO;;SMIRNOV SERGEY NIKOLAYEVICH;;SMIRNOV SERGEY;;LANDIGRAD LLC;;SMIRNOV SERGEY NIIKOLAYEVICH;;란디그레드, 리미티드 라이어빌리티 컴퍼니;;OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD;;LANDIGRAD LIMITED LIABILITY COMPANY;;스미르노브, 세르게이 니콜라예비치</t>
+          <t>란디그레드, 리미티드 라이어빌리티 컴퍼니;;OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD;;SMIRNOV SERGEY NIKOLAYEVICH;;LANDIGRAD LIMITED LIABILITY COMPANY;;LANDIGRAD LLC;;스미르노브, 세르게이 니콜라예비치;;SMIRNOV SERGEY NIIKOLAYEVICH;;LANDIGRAD LTD LIABILITY CO;;SMIRNOV SERGEY</t>
         </is>
       </c>
       <c r="P89" t="b">
@@ -8505,7 +8505,7 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>CA;;KR;;WO;;JP;;RU;;CN;;IL;;TW;;EP;;AU;;ZA;;US</t>
+          <t>WO;;ZA;;IL;;US;;AU;;JP;;EP;;TW;;RU;;CN;;KR;;CA</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
@@ -8532,7 +8532,7 @@
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>LANDIGRAD LTD LIABILITY CO;;SMIRNOV SERGEY NIKOLAYEVICH;;SMIRNOV SERGEY;;LANDIGRAD LLC;;SMIRNOV SERGEY NIIKOLAYEVICH;;란디그레드, 리미티드 라이어빌리티 컴퍼니;;OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD;;LANDIGRAD LIMITED LIABILITY COMPANY;;스미르노브, 세르게이 니콜라예비치</t>
+          <t>란디그레드, 리미티드 라이어빌리티 컴퍼니;;OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD;;SMIRNOV SERGEY NIKOLAYEVICH;;LANDIGRAD LIMITED LIABILITY COMPANY;;LANDIGRAD LLC;;스미르노브, 세르게이 니콜라예비치;;SMIRNOV SERGEY NIIKOLAYEVICH;;LANDIGRAD LTD LIABILITY CO;;SMIRNOV SERGEY</t>
         </is>
       </c>
       <c r="P90" t="b">
@@ -8597,7 +8597,7 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>KR;;CA;;JP;;CN;;EP;;AU</t>
+          <t>CA;;AU;;EP;;CN;;KR;;JP</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
@@ -8624,7 +8624,7 @@
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>キンダイ、インコーポレイテッドＫＹＮＤＩ， ＩＮＣ．;;KYNDI INC;;킨디 인코포레이티드</t>
+          <t>キンダイ、インコーポレイテッドＫＹＮＤＩ， ＩＮＣ．;;킨디 인코포레이티드;;KYNDI INC</t>
         </is>
       </c>
       <c r="P91" t="b">
@@ -8777,7 +8777,7 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>WO;;US</t>
+          <t>US;;WO</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
@@ -8804,7 +8804,7 @@
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>IBM;;IBM UK;;IBM (CHINA) INVEST COMPANY LTD</t>
+          <t>IBM (CHINA) INVEST COMPANY LTD;;IBM;;IBM UK</t>
         </is>
       </c>
       <c r="P93" t="b">
@@ -8957,7 +8957,7 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>DE;;CN;;JP;;GB</t>
+          <t>GB;;JP;;DE;;CN</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
@@ -8984,7 +8984,7 @@
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>IBM;;インターナショナル・ビジネス・マシーンズ・コーポレーションＩＮＴＥＲＮＡＴＩＯＮＡＬ ＢＵＳＩＮＥＳＳ ＭＡＣＨＩＮＥＳ ＣＯＲＰＯＲＡＴＩＯＮ;;国际商业机器公司</t>
+          <t>インターナショナル・ビジネス・マシーンズ・コーポレーションＩＮＴＥＲＮＡＴＩＯＮＡＬ ＢＵＳＩＮＥＳＳ ＭＡＣＨＩＮＥＳ ＣＯＲＰＯＲＡＴＩＯＮ;;IBM;;国际商业机器公司</t>
         </is>
       </c>
       <c r="P95" t="b">
@@ -9049,7 +9049,7 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>KR;;CA;;JP;;CN;;EP;;AU</t>
+          <t>CA;;AU;;EP;;CN;;KR;;JP</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
@@ -9076,7 +9076,7 @@
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>キンダイ、インコーポレイテッドＫＹＮＤＩ， ＩＮＣ．;;KYNDI INC;;킨디 인코포레이티드</t>
+          <t>キンダイ、インコーポレイテッドＫＹＮＤＩ， ＩＮＣ．;;킨디 인코포레이티드;;KYNDI INC</t>
         </is>
       </c>
       <c r="P96" t="b">
@@ -9141,7 +9141,7 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>CN;;US</t>
+          <t>US;;CN</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
@@ -9168,7 +9168,7 @@
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>中国科学院微电子研究所;;INST OF MICROELECTRONICS CAS;;INST MICROELECTRONICS CAS</t>
+          <t>INST OF MICROELECTRONICS CAS;;中国科学院微电子研究所;;INST MICROELECTRONICS CAS</t>
         </is>
       </c>
       <c r="P97" t="b">
@@ -9233,7 +9233,7 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>DE;;CN;;JP;;GB</t>
+          <t>GB;;JP;;DE;;CN</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
@@ -9260,7 +9260,7 @@
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>IBM;;インターナショナル・ビジネス・マシーンズ・コーポレーションＩＮＴＥＲＮＡＴＩＯＮＡＬ ＢＵＳＩＮＥＳＳ ＭＡＣＨＩＮＥＳ ＣＯＲＰＯＲＡＴＩＯＮ;;国际商业机器公司</t>
+          <t>インターナショナル・ビジネス・マシーンズ・コーポレーションＩＮＴＥＲＮＡＴＩＯＮＡＬ ＢＵＳＩＮＥＳＳ ＭＡＣＨＩＮＥＳ ＣＯＲＰＯＲＡＴＩＯＮ;;IBM;;国际商业机器公司</t>
         </is>
       </c>
       <c r="P98" t="b">
@@ -9348,7 +9348,7 @@
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>란디그레드, 리미티드 라이어빌리티 컴퍼니;;LANDIGRAD LLC;;스미르노브, 세르게이 니콜라예비치;;SMIRNOV SERGEY NIKOLAYEVICH</t>
+          <t>LANDIGRAD LLC;;란디그레드, 리미티드 라이어빌리티 컴퍼니;;스미르노브, 세르게이 니콜라예비치;;SMIRNOV SERGEY NIKOLAYEVICH</t>
         </is>
       </c>
       <c r="P99" t="b">
@@ -9440,7 +9440,7 @@
       </c>
       <c r="O100" t="inlineStr">
         <is>
-          <t>THE UNIV OF CANTERBURY;;BOSE SAURABH KUMAR;;FOSTNER SHAWN;;BROWN SIMON ANTHONY</t>
+          <t>BROWN SIMON ANTHONY;;THE UNIV OF CANTERBURY;;BOSE SAURABH KUMAR;;FOSTNER SHAWN</t>
         </is>
       </c>
       <c r="P100" t="b">
@@ -9532,7 +9532,7 @@
       </c>
       <c r="O101" t="inlineStr">
         <is>
-          <t>THE UNIV OF CANTERBURY;;BOSE SAURABH KUMAR;;FOSTNER SHAWN;;BROWN SIMON ANTHONY</t>
+          <t>BROWN SIMON ANTHONY;;THE UNIV OF CANTERBURY;;BOSE SAURABH KUMAR;;FOSTNER SHAWN</t>
         </is>
       </c>
       <c r="P101" t="b">
@@ -9620,7 +9620,7 @@
       </c>
       <c r="O102" t="inlineStr">
         <is>
-          <t>란디그레드, 리미티드 라이어빌리티 컴퍼니;;LANDIGRAD LLC;;스미르노브, 세르게이 니콜라예비치;;SMIRNOV SERGEY NIKOLAYEVICH</t>
+          <t>LANDIGRAD LLC;;란디그레드, 리미티드 라이어빌리티 컴퍼니;;스미르노브, 세르게이 니콜라예비치;;SMIRNOV SERGEY NIKOLAYEVICH</t>
         </is>
       </c>
       <c r="P102" t="b">
@@ -9712,7 +9712,7 @@
       </c>
       <c r="O103" t="inlineStr">
         <is>
-          <t>THE UNIV OF CANTERBURY;;BOSE SAURABH KUMAR;;FOSTNER SHAWN;;BROWN SIMON ANTHONY</t>
+          <t>BROWN SIMON ANTHONY;;THE UNIV OF CANTERBURY;;BOSE SAURABH KUMAR;;FOSTNER SHAWN</t>
         </is>
       </c>
       <c r="P103" t="b">
@@ -9804,7 +9804,7 @@
       </c>
       <c r="O104" t="inlineStr">
         <is>
-          <t>CARROLL WILLIAM JOSEPH;;TIPTON THOMAS ANDREW;;BATTAGLINI JOSEPH S;;MOLINSKY BRADLEY DEAN;;DUNST MICHAEL J;;HARTFORD FIRE INSURANCE COMP</t>
+          <t>DUNST MICHAEL J;;BATTAGLINI JOSEPH S;;MOLINSKY BRADLEY DEAN;;CARROLL WILLIAM JOSEPH;;TIPTON THOMAS ANDREW;;HARTFORD FIRE INSURANCE COMP</t>
         </is>
       </c>
       <c r="P104" t="b">
@@ -9896,7 +9896,7 @@
       </c>
       <c r="O105" t="inlineStr">
         <is>
-          <t>CARROLL WILLIAM JOSEPH;;TIPTON THOMAS ANDREW;;BATTAGLINI JOSEPH S;;MOLINSKY BRADLEY DEAN;;DUNST MICHAEL J;;HARTFORD FIRE INSURANCE COMP</t>
+          <t>DUNST MICHAEL J;;BATTAGLINI JOSEPH S;;MOLINSKY BRADLEY DEAN;;CARROLL WILLIAM JOSEPH;;TIPTON THOMAS ANDREW;;HARTFORD FIRE INSURANCE COMP</t>
         </is>
       </c>
       <c r="P105" t="b">
@@ -9988,7 +9988,7 @@
       </c>
       <c r="O106" t="inlineStr">
         <is>
-          <t>CARROLL WILLIAM JOSEPH;;TIPTON THOMAS ANDREW;;BATTAGLINI JOSEPH S;;MOLINSKY BRADLEY DEAN;;DUNST MICHAEL J;;HARTFORD FIRE INSURANCE COMP</t>
+          <t>DUNST MICHAEL J;;BATTAGLINI JOSEPH S;;MOLINSKY BRADLEY DEAN;;CARROLL WILLIAM JOSEPH;;TIPTON THOMAS ANDREW;;HARTFORD FIRE INSURANCE COMP</t>
         </is>
       </c>
       <c r="P106" t="b">
@@ -10053,7 +10053,7 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>KR;;CA;;WO;;JP;;SG;;CN;;EP;;AU;;US</t>
+          <t>WO;;SG;;US;;CA;;AU;;EP;;CN;;KR;;JP</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
@@ -10080,7 +10080,7 @@
       </c>
       <c r="O107" t="inlineStr">
         <is>
-          <t>GOOGLE LLC;;BARENDS RAMI;;ラミ・バレントス;;GOOGLE INC;;구글 엘엘씨;;グーグル エルエルシー</t>
+          <t>グーグル エルエルシー;;ラミ・バレントス;;GOOGLE LLC;;구글 엘엘씨;;GOOGLE INC;;BARENDS RAMI</t>
         </is>
       </c>
       <c r="P107" t="b">
@@ -10145,7 +10145,7 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>KR;;CA;;WO;;JP;;SG;;CN;;EP;;AU;;US</t>
+          <t>WO;;SG;;US;;CA;;AU;;EP;;CN;;KR;;JP</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
@@ -10172,7 +10172,7 @@
       </c>
       <c r="O108" t="inlineStr">
         <is>
-          <t>GOOGLE LLC;;BARENDS RAMI;;ラミ・バレントス;;GOOGLE INC;;구글 엘엘씨;;グーグル エルエルシー</t>
+          <t>グーグル エルエルシー;;ラミ・バレントス;;GOOGLE LLC;;구글 엘엘씨;;GOOGLE INC;;BARENDS RAMI</t>
         </is>
       </c>
       <c r="P108" t="b">
@@ -10264,7 +10264,7 @@
       </c>
       <c r="O109" t="inlineStr">
         <is>
-          <t>CARROLL WILLIAM JOSEPH;;TIPTON THOMAS ANDREW;;BATTAGLINI JOSEPH S;;MOLINSKY BRADLEY DEAN;;DUNST MICHAEL J;;HARTFORD FIRE INSURANCE COMP</t>
+          <t>DUNST MICHAEL J;;BATTAGLINI JOSEPH S;;MOLINSKY BRADLEY DEAN;;CARROLL WILLIAM JOSEPH;;TIPTON THOMAS ANDREW;;HARTFORD FIRE INSURANCE COMP</t>
         </is>
       </c>
       <c r="P109" t="b">
@@ -10329,7 +10329,7 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>KR;;CA;;WO;;JP;;SG;;CN;;EP;;AU;;US</t>
+          <t>WO;;SG;;US;;CA;;AU;;EP;;CN;;KR;;JP</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
@@ -10356,7 +10356,7 @@
       </c>
       <c r="O110" t="inlineStr">
         <is>
-          <t>GOOGLE LLC;;BARENDS RAMI;;ラミ・バレントス;;GOOGLE INC;;구글 엘엘씨;;グーグル エルエルシー</t>
+          <t>グーグル エルエルシー;;ラミ・バレントス;;GOOGLE LLC;;구글 엘엘씨;;GOOGLE INC;;BARENDS RAMI</t>
         </is>
       </c>
       <c r="P110" t="b">
@@ -10448,7 +10448,7 @@
       </c>
       <c r="O111" t="inlineStr">
         <is>
-          <t>CARROLL WILLIAM JOSEPH;;TIPTON THOMAS ANDREW;;BATTAGLINI JOSEPH S;;MOLINSKY BRADLEY DEAN;;DUNST MICHAEL J;;HARTFORD FIRE INSURANCE COMP</t>
+          <t>DUNST MICHAEL J;;BATTAGLINI JOSEPH S;;MOLINSKY BRADLEY DEAN;;CARROLL WILLIAM JOSEPH;;TIPTON THOMAS ANDREW;;HARTFORD FIRE INSURANCE COMP</t>
         </is>
       </c>
       <c r="P111" t="b">
@@ -10513,7 +10513,7 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>KR;;CA;;WO;;JP;;RU;;CN;;IL;;TW;;EP;;AU;;ZA;;US</t>
+          <t>WO;;ZA;;IL;;US;;AU;;JP;;EP;;TW;;RU;;CN;;KR;;CA</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
@@ -10540,7 +10540,7 @@
       </c>
       <c r="O112" t="inlineStr">
         <is>
-          <t>LANDIGRAD LTD LIABILITY CO;;SMIRNOV SERGEY NIKOLAYEVICH;;SMIRNOV SERGEY;;LANDIGRAD LLC;;SMIRNOV SERGEY NIIKOLAYEVICH;;OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD;;LANDIGRAD LIMITED LIABILITY COMPANY</t>
+          <t>OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD;;SMIRNOV SERGEY NIKOLAYEVICH;;LANDIGRAD LIMITED LIABILITY COMPANY;;LANDIGRAD LLC;;SMIRNOV SERGEY NIIKOLAYEVICH;;LANDIGRAD LTD LIABILITY CO;;SMIRNOV SERGEY</t>
         </is>
       </c>
       <c r="P112" t="b">
@@ -10605,7 +10605,7 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>KR;;CA;;WO;;JP;;RU;;CN;;IL;;TW;;EP;;AU;;ZA;;US</t>
+          <t>WO;;ZA;;IL;;US;;AU;;JP;;EP;;TW;;RU;;CN;;KR;;CA</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
@@ -10632,7 +10632,7 @@
       </c>
       <c r="O113" t="inlineStr">
         <is>
-          <t>LANDIGRAD LTD LIABILITY CO;;SMIRNOV SERGEY NIKOLAYEVICH;;SMIRNOV SERGEY;;LANDIGRAD LLC;;SMIRNOV SERGEY NIIKOLAYEVICH;;OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD;;LANDIGRAD LIMITED LIABILITY COMPANY</t>
+          <t>OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD;;SMIRNOV SERGEY NIKOLAYEVICH;;LANDIGRAD LIMITED LIABILITY COMPANY;;LANDIGRAD LLC;;SMIRNOV SERGEY NIIKOLAYEVICH;;LANDIGRAD LTD LIABILITY CO;;SMIRNOV SERGEY</t>
         </is>
       </c>
       <c r="P113" t="b">
@@ -10697,7 +10697,7 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>KR;;CA;;WO;;JP;;RU;;CN;;IL;;TW;;EP;;AU;;ZA;;US</t>
+          <t>WO;;ZA;;IL;;US;;AU;;JP;;EP;;TW;;RU;;CN;;KR;;CA</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
@@ -10724,7 +10724,7 @@
       </c>
       <c r="O114" t="inlineStr">
         <is>
-          <t>LANDIGRAD LTD LIABILITY CO;;SMIRNOV SERGEY NIKOLAYEVICH;;SMIRNOV SERGEY;;LANDIGRAD LLC;;SMIRNOV SERGEY NIIKOLAYEVICH;;OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD;;LANDIGRAD LIMITED LIABILITY COMPANY</t>
+          <t>OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD;;SMIRNOV SERGEY NIKOLAYEVICH;;LANDIGRAD LIMITED LIABILITY COMPANY;;LANDIGRAD LLC;;SMIRNOV SERGEY NIIKOLAYEVICH;;LANDIGRAD LTD LIABILITY CO;;SMIRNOV SERGEY</t>
         </is>
       </c>
       <c r="P114" t="b">
@@ -10785,7 +10785,7 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>KR;;CA;;WO;;JP;;CN;;EP;;AU;;US</t>
+          <t>WO;;US;;CA;;AU;;EP;;CN;;KR;;JP</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
@@ -10812,7 +10812,7 @@
       </c>
       <c r="O115" t="inlineStr">
         <is>
-          <t>GOOGLE LLC;;グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;SMELYANSKIY VADIM;;GOOGLE INC;;CASTRILLO SERGIO BOIXO;;NIU YUEZHEN;;NEVEN HARTMUT</t>
+          <t>グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;CASTRILLO SERGIO BOIXO;;SMELYANSKIY VADIM;;GOOGLE LLC;;GOOGLE INC;;NIU YUEZHEN;;NEVEN HARTMUT</t>
         </is>
       </c>
       <c r="P115" t="b">
@@ -10873,7 +10873,7 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>KR;;CA;;WO;;JP;;CN;;EP;;AU;;US</t>
+          <t>WO;;US;;CA;;AU;;EP;;CN;;KR;;JP</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
@@ -10900,7 +10900,7 @@
       </c>
       <c r="O116" t="inlineStr">
         <is>
-          <t>GOOGLE LLC;;グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;SMELYANSKIY VADIM;;GOOGLE INC;;CASTRILLO SERGIO BOIXO;;NIU YUEZHEN;;NEVEN HARTMUT</t>
+          <t>グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;CASTRILLO SERGIO BOIXO;;SMELYANSKIY VADIM;;GOOGLE LLC;;GOOGLE INC;;NIU YUEZHEN;;NEVEN HARTMUT</t>
         </is>
       </c>
       <c r="P116" t="b">
@@ -10965,7 +10965,7 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>KR;;CA;;WO;;JP;;RU;;CN;;IL;;TW;;EP;;AU;;ZA;;US</t>
+          <t>WO;;ZA;;IL;;US;;AU;;JP;;EP;;TW;;RU;;CN;;KR;;CA</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
@@ -10992,7 +10992,7 @@
       </c>
       <c r="O117" t="inlineStr">
         <is>
-          <t>LANDIGRAD LTD LIABILITY CO;;SMIRNOV SERGEY NIKOLAYEVICH;;SMIRNOV SERGEY;;LANDIGRAD LLC;;SMIRNOV SERGEY NIIKOLAYEVICH;;OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD;;LANDIGRAD LIMITED LIABILITY COMPANY</t>
+          <t>OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD;;SMIRNOV SERGEY NIKOLAYEVICH;;LANDIGRAD LIMITED LIABILITY COMPANY;;LANDIGRAD LLC;;SMIRNOV SERGEY NIIKOLAYEVICH;;LANDIGRAD LTD LIABILITY CO;;SMIRNOV SERGEY</t>
         </is>
       </c>
       <c r="P117" t="b">
@@ -11053,7 +11053,7 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>KR;;CA;;WO;;JP;;CN;;EP;;AU;;US</t>
+          <t>WO;;US;;CA;;AU;;EP;;CN;;KR;;JP</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
@@ -11080,7 +11080,7 @@
       </c>
       <c r="O118" t="inlineStr">
         <is>
-          <t>GOOGLE LLC;;グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;SMELYANSKIY VADIM;;GOOGLE INC;;CASTRILLO SERGIO BOIXO;;NIU YUEZHEN;;NEVEN HARTMUT</t>
+          <t>グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;CASTRILLO SERGIO BOIXO;;SMELYANSKIY VADIM;;GOOGLE LLC;;GOOGLE INC;;NIU YUEZHEN;;NEVEN HARTMUT</t>
         </is>
       </c>
       <c r="P118" t="b">
@@ -11141,7 +11141,7 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>KR;;CA;;WO;;JP;;CN;;EP;;AU;;US</t>
+          <t>WO;;US;;CA;;AU;;EP;;CN;;KR;;JP</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
@@ -11168,7 +11168,7 @@
       </c>
       <c r="O119" t="inlineStr">
         <is>
-          <t>GOOGLE LLC;;グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;SMELYANSKIY VADIM;;GOOGLE INC;;CASTRILLO SERGIO BOIXO;;NIU YUEZHEN;;NEVEN HARTMUT</t>
+          <t>グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;CASTRILLO SERGIO BOIXO;;SMELYANSKIY VADIM;;GOOGLE LLC;;GOOGLE INC;;NIU YUEZHEN;;NEVEN HARTMUT</t>
         </is>
       </c>
       <c r="P119" t="b">
@@ -11233,7 +11233,7 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>KR;;CA;;WO;;JP;;RU;;CN;;IL;;TW;;EP;;AU;;ZA;;US</t>
+          <t>WO;;ZA;;IL;;US;;AU;;JP;;EP;;TW;;RU;;CN;;KR;;CA</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
@@ -11260,7 +11260,7 @@
       </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>LANDIGRAD LTD LIABILITY CO;;SMIRNOV SERGEY NIKOLAYEVICH;;SMIRNOV SERGEY;;LANDIGRAD LLC;;SMIRNOV SERGEY NIIKOLAYEVICH;;OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD;;LANDIGRAD LIMITED LIABILITY COMPANY</t>
+          <t>OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD;;SMIRNOV SERGEY NIKOLAYEVICH;;LANDIGRAD LIMITED LIABILITY COMPANY;;LANDIGRAD LLC;;SMIRNOV SERGEY NIIKOLAYEVICH;;LANDIGRAD LTD LIABILITY CO;;SMIRNOV SERGEY</t>
         </is>
       </c>
       <c r="P120" t="b">

--- a/tests/integration/out/ai-and-nanotech-applicants.xlsx
+++ b/tests/integration/out/ai-and-nanotech-applicants.xlsx
@@ -681,7 +681,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>KR;;SG;;US;;CA;;AU;;EP;;CN;;WO;;JP</t>
+          <t>SG;;EP;;CN;;US;;WO;;KR;;CA;;AU;;JP</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>US;;CA;;AU</t>
+          <t>CA;;US;;AU</t>
         </is>
       </c>
       <c r="K3" t="n">
@@ -708,7 +708,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>グーグル エルエルシー;;グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;CASTRILLO SERGIO BOIXO;;SMELYANSKIY VADIM;;ラミ・バレントス;;GOOGLE LLC;;구글 엘엘씨;;GOOGLE INC;;NIU YUEZHEN;;NEVEN HARTMUT;;BARENDS RAMI</t>
+          <t>ラミ・バレントス;;グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;BARENDS RAMI;;구글 엘엘씨;;GOOGLE LLC;;NEVEN HARTMUT;;NIU YUEZHEN;;GOOGLE INC;;グーグル エルエルシー;;CASTRILLO SERGIO BOIXO;;SMELYANSKIY VADIM</t>
         </is>
       </c>
       <c r="P3" t="b">
@@ -773,7 +773,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>GB;;US;;DE;;CN;;WO;;JP</t>
+          <t>CN;;US;;WO;;DE;;JP;;GB</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -800,7 +800,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>IBM (CHINA) INVEST COMPANY LTD;;IBM UK;;インターナショナル・ビジネス・マシーンズ・コーポレーションＩＮＴＥＲＮＡＴＩＯＮＡＬ ＢＵＳＩＮＥＳＳ ＭＡＣＨＩＮＥＳ ＣＯＲＰＯＲＡＴＩＯＮ;;国际商业机器公司;;IBM</t>
+          <t>国际商业机器公司;;IBM (CHINA) INVEST COMPANY LTD;;IBM;;インターナショナル・ビジネス・マシーンズ・コーポレーションＩＮＴＥＲＮＡＴＩＯＮＡＬ ＢＵＳＩＮＥＳＳ ＭＡＣＨＩＮＥＳ ＣＯＲＰＯＲＡＴＩＯＮ;;IBM UK</t>
         </is>
       </c>
       <c r="P4" t="b">
@@ -865,7 +865,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>EP;;US;;WO</t>
+          <t>US;;EP;;WO</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -957,7 +957,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>EP;;US;;CN</t>
+          <t>CN;;US;;EP</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -1049,7 +1049,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>US;;CN</t>
+          <t>CN;;US</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>US;;CN</t>
+          <t>CN;;US</t>
         </is>
       </c>
       <c r="K7" t="n">
@@ -1076,7 +1076,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>INST OF MICROELECTRONICS CAS;;中国科学院微电子研究所;;INST MICROELECTRONICS CAS</t>
+          <t>INST MICROELECTRONICS CAS;;INST OF MICROELECTRONICS CAS;;中国科学院微电子研究所</t>
         </is>
       </c>
       <c r="P7" t="b">
@@ -1141,7 +1141,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>KR;;US;;AU;;JP;;EP;;CN;;WO;;CA</t>
+          <t>EP;;CN;;US;;WO;;KR;;CA;;AU;;JP</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -1168,7 +1168,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>KYNDI INC;;킨디 인코포레이티드;;キンダイ、インコーポレイテッドＫＹＮＤＩ， ＩＮＣ．</t>
+          <t>킨디 인코포레이티드;;KYNDI INC;;キンダイ、インコーポレイテッドＫＹＮＤＩ， ＩＮＣ．</t>
         </is>
       </c>
       <c r="P8" t="b">
@@ -1229,7 +1229,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>EP;;WO;;CA;;US</t>
+          <t>CA;;US;;EP;;WO</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1239,7 +1239,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>IB;;US</t>
+          <t>US;;IB</t>
         </is>
       </c>
       <c r="K9" t="n">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>EP;;WO;;TW;;US</t>
+          <t>TW;;US;;EP;;WO</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1409,7 +1409,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>KR;;WO;;CA;;US</t>
+          <t>KR;;CA;;US;;WO</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1419,7 +1419,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>US;;CA</t>
+          <t>CA;;US</t>
         </is>
       </c>
       <c r="K11" t="n">
@@ -1497,7 +1497,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>EP;;WO;;CA;;US</t>
+          <t>CA;;US;;EP;;WO</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1585,7 +1585,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>WO;;US;;AU;;EP;;KR;;CA</t>
+          <t>EP;;US;;WO;;KR;;CA;;AU</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1612,7 +1612,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>CATALOG TECHNOLOGIES INC;;CATALOG TECH INC</t>
+          <t>CATALOG TECH INC;;CATALOG TECHNOLOGIES INC</t>
         </is>
       </c>
       <c r="P13" t="b">
@@ -1704,7 +1704,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>DUNST MICHAEL J;;BATTAGLINI JOSEPH S;;MOLINSKY BRADLEY DEAN;;CARROLL WILLIAM JOSEPH;;TIPTON THOMAS ANDREW;;HARTFORD FIRE INSURANCE COMP</t>
+          <t>BATTAGLINI JOSEPH S;;MOLINSKY BRADLEY DEAN;;DUNST MICHAEL J;;CARROLL WILLIAM JOSEPH;;HARTFORD FIRE INSURANCE COMP;;TIPTON THOMAS ANDREW</t>
         </is>
       </c>
       <c r="P14" t="b">
@@ -1857,7 +1857,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>WO;;CA;;US</t>
+          <t>CA;;US;;WO</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1949,7 +1949,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>KR;;US;;WO;;CN</t>
+          <t>KR;;CN;;US;;WO</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -2041,7 +2041,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>WO;;US;;EP;;TW;;CN;;KR;;JP</t>
+          <t>EP;;TW;;CN;;US;;WO;;KR;;JP</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -2129,7 +2129,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>EP;;US;;WO;;CN</t>
+          <t>CN;;US;;EP;;WO</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -2156,7 +2156,7 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>微软技术许可有限责任公司;;MICROSOFT TECHNOLOGY LICENSING LLC</t>
+          <t>MICROSOFT TECHNOLOGY LICENSING LLC;;微软技术许可有限责任公司</t>
         </is>
       </c>
       <c r="P19" t="b">
@@ -2221,7 +2221,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>US;;CA;;EP;;CN;;KR;;JP</t>
+          <t>EP;;CN;;US;;KR;;CA;;JP</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -2411,7 +2411,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>US;;CA</t>
+          <t>CA;;US</t>
         </is>
       </c>
       <c r="K22" t="n">
@@ -2577,7 +2577,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>WO;;US</t>
+          <t>US;;WO</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -2669,7 +2669,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>EP;;US</t>
+          <t>US;;EP</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -2761,7 +2761,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>WO;;US</t>
+          <t>US;;WO</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2853,7 +2853,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>EP;;WO;;FR</t>
+          <t>FR;;EP;;WO</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2863,7 +2863,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>FR;;EP</t>
+          <t>EP;;FR</t>
         </is>
       </c>
       <c r="K27" t="n">
@@ -2945,7 +2945,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>SG;;GB;;EP;;TW;;WO;;CA</t>
+          <t>SG;;EP;;TW;;WO;;CA;;GB</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>IBM (CHINA) INVEST COMPANY LTD;;IBM;;IBM UK</t>
+          <t>IBM UK;;IBM (CHINA) INVEST COMPANY LTD;;IBM</t>
         </is>
       </c>
       <c r="P29" t="b">
@@ -3129,7 +3129,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>US;;CN</t>
+          <t>CN;;US</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -3156,7 +3156,7 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>INST OF MICROELECTRONICS CAS;;中国科学院微电子研究所;;INST MICROELECTRONICS CAS</t>
+          <t>INST MICROELECTRONICS CAS;;INST OF MICROELECTRONICS CAS;;中国科学院微电子研究所</t>
         </is>
       </c>
       <c r="P30" t="b">
@@ -3221,7 +3221,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>WO;;US</t>
+          <t>US;;WO</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -3401,7 +3401,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>EP;;KR;;US</t>
+          <t>KR;;US;;EP</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -3872,7 +3872,7 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>서울시립대학교 산학협력단;;UNIV SEOUL IND COOP FOUND</t>
+          <t>UNIV SEOUL IND COOP FOUND;;서울시립대학교 산학협력단</t>
         </is>
       </c>
       <c r="P38" t="b">
@@ -4109,7 +4109,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>US;;CN</t>
+          <t>CN;;US</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -5177,7 +5177,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>WO;;US</t>
+          <t>US;;WO</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>서울시립대학교 산학협력단;;UNIV SEOUL IND COOP FOUND</t>
+          <t>UNIV SEOUL IND COOP FOUND;;서울시립대학교 산학협력단</t>
         </is>
       </c>
       <c r="P57" t="b">
@@ -5805,7 +5805,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>WO;;SG;;US;;CA;;AU;;EP;;CN;;KR;;JP</t>
+          <t>SG;;EP;;CN;;US;;WO;;KR;;CA;;AU;;JP</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -5832,7 +5832,7 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>グーグル エルエルシー;;グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;ラミ・バレントス;;GOOGLE LLC;;구글 엘엘씨;;GOOGLE INC;;BARENDS RAMI</t>
+          <t>ラミ・バレントス;;グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;BARENDS RAMI;;구글 엘엘씨;;GOOGLE LLC;;GOOGLE INC;;グーグル エルエルシー</t>
         </is>
       </c>
       <c r="P60" t="b">
@@ -5981,7 +5981,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>WO;;CA</t>
+          <t>CA;;WO</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -6069,7 +6069,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>US;;JP;;CN</t>
+          <t>JP;;CN;;US</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -6249,7 +6249,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>KR;;SG;;US;;AU;;JP;;EP;;CN;;WO;;CA</t>
+          <t>SG;;EP;;CN;;US;;WO;;KR;;CA;;AU;;JP</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -6276,7 +6276,7 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>グーグル エルエルシー;;グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;CASTRILLO SERGIO BOIXO;;SMELYANSKIY VADIM;;ラミ・バレントス;;GOOGLE LLC;;구글 엘엘씨;;GOOGLE INC;;NIU YUEZHEN;;NEVEN HARTMUT;;BARENDS RAMI</t>
+          <t>ラミ・バレントス;;グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;BARENDS RAMI;;구글 엘엘씨;;GOOGLE LLC;;NEVEN HARTMUT;;NIU YUEZHEN;;GOOGLE INC;;グーグル エルエルシー;;CASTRILLO SERGIO BOIXO;;SMELYANSKIY VADIM</t>
         </is>
       </c>
       <c r="P65" t="b">
@@ -6341,7 +6341,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>WO;;US;;EP;;CN;;KR;;JP</t>
+          <t>EP;;CN;;US;;WO;;KR;;JP</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -6368,7 +6368,7 @@
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>FOSTNER SHAWN;;THE UNIV OF CANTERBURY;;ザ ユニバーシティー オブ カンタベリー;;BROWN SIMON ANTHONY;;BOSE SAURABH KUMAR</t>
+          <t>BROWN SIMON ANTHONY;;BOSE SAURABH KUMAR;;THE UNIV OF CANTERBURY;;FOSTNER SHAWN;;ザ ユニバーシティー オブ カンタベリー</t>
         </is>
       </c>
       <c r="P66" t="b">
@@ -6552,7 +6552,7 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>东南大学;;UNIV SOUTHEAST</t>
+          <t>UNIV SOUTHEAST;;东南大学</t>
         </is>
       </c>
       <c r="P68" t="b">
@@ -6644,7 +6644,7 @@
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>东南大学;;UNIV SOUTHEAST</t>
+          <t>UNIV SOUTHEAST;;东南大学</t>
         </is>
       </c>
       <c r="P69" t="b">
@@ -6705,7 +6705,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>EP;;CN</t>
+          <t>CN;;EP</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -6732,7 +6732,7 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>微软技术许可有限责任公司;;MICROSOFT TECHNOLOGY LICENSING LLC</t>
+          <t>MICROSOFT TECHNOLOGY LICENSING LLC;;微软技术许可有限责任公司</t>
         </is>
       </c>
       <c r="P70" t="b">
@@ -6793,7 +6793,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>US;;JP</t>
+          <t>JP;;US</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -6885,7 +6885,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>US;;CN</t>
+          <t>CN;;US</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -7061,7 +7061,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>EP;;KR;;JP;;CN</t>
+          <t>EP;;KR;;CN;;JP</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -7245,7 +7245,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>US;;EP;;CN;;KR;;JP</t>
+          <t>EP;;CN;;US;;KR;;JP</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -7272,7 +7272,7 @@
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>THE UNIV OF CANTERBURY;;ザ ユニバーシティー オブ カンタベリー</t>
+          <t>ザ ユニバーシティー オブ カンタベリー;;THE UNIV OF CANTERBURY</t>
         </is>
       </c>
       <c r="P76" t="b">
@@ -7337,7 +7337,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>CA;;EP;;CN;;KR;;JP</t>
+          <t>EP;;CN;;KR;;CA;;JP</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -7452,7 +7452,7 @@
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>YANGTZE DELTA REGION INST TSINGHUA UNIV ZHEJIANG;;ICLEAGUE TECH CO LTD</t>
+          <t>ICLEAGUE TECH CO LTD;;YANGTZE DELTA REGION INST TSINGHUA UNIV ZHEJIANG</t>
         </is>
       </c>
       <c r="P78" t="b">
@@ -7701,7 +7701,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>US;;CN</t>
+          <t>CN;;US</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -7789,7 +7789,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>US;;TW;;CN</t>
+          <t>TW;;CN;;US</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -7816,7 +7816,7 @@
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>TAIWAN SEMICONDUCTOR MFG;;TAIWAN SEMICONDUCTOR MFG CO LTD</t>
+          <t>TAIWAN SEMICONDUCTOR MFG CO LTD;;TAIWAN SEMICONDUCTOR MFG</t>
         </is>
       </c>
       <c r="P82" t="b">
@@ -7877,7 +7877,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>US;;TW;;CN</t>
+          <t>TW;;CN;;US</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -7904,7 +7904,7 @@
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>TAIWAN SEMICONDUCTOR MFG;;TAIWAN SEMICONDUCTOR MFG CO LTD</t>
+          <t>TAIWAN SEMICONDUCTOR MFG CO LTD;;TAIWAN SEMICONDUCTOR MFG</t>
         </is>
       </c>
       <c r="P83" t="b">
@@ -7965,7 +7965,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>EP;;KR;;CA;;AU</t>
+          <t>KR;;CA;;EP;;AU</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -7992,7 +7992,7 @@
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>CATALOG TECHNOLOGIES INC;;CATALOG TECH INC</t>
+          <t>CATALOG TECH INC;;CATALOG TECHNOLOGIES INC</t>
         </is>
       </c>
       <c r="P84" t="b">
@@ -8141,7 +8141,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>US;;JP</t>
+          <t>JP;;US</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
@@ -8256,7 +8256,7 @@
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>YANGTZE DELTA REGION INST TSINGHUA UNIV ZHEJIANG;;ICLEAGUE TECH CO LTD</t>
+          <t>ICLEAGUE TECH CO LTD;;YANGTZE DELTA REGION INST TSINGHUA UNIV ZHEJIANG</t>
         </is>
       </c>
       <c r="P87" t="b">
@@ -8321,7 +8321,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>WO;;US;;CA;;AU;;EP;;CN;;KR;;JP</t>
+          <t>EP;;CN;;US;;WO;;KR;;CA;;AU;;JP</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -8348,7 +8348,7 @@
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>グーグル エルエルシー;;グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;CASTRILLO SERGIO BOIXO;;SMELYANSKIY VADIM;;GOOGLE LLC;;GOOGLE INC;;NIU YUEZHEN;;NEVEN HARTMUT</t>
+          <t>グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;GOOGLE LLC;;NEVEN HARTMUT;;NIU YUEZHEN;;GOOGLE INC;;グーグル エルエルシー;;CASTRILLO SERGIO BOIXO;;SMELYANSKIY VADIM</t>
         </is>
       </c>
       <c r="P88" t="b">
@@ -8413,7 +8413,7 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>WO;;ZA;;IL;;US;;AU;;JP;;EP;;TW;;RU;;CN;;KR;;CA</t>
+          <t>EP;;TW;;CN;;US;;WO;;KR;;RU;;CA;;AU;;ZA;;JP;;IL</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
@@ -8440,7 +8440,7 @@
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>란디그레드, 리미티드 라이어빌리티 컴퍼니;;OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD;;SMIRNOV SERGEY NIKOLAYEVICH;;LANDIGRAD LIMITED LIABILITY COMPANY;;LANDIGRAD LLC;;스미르노브, 세르게이 니콜라예비치;;SMIRNOV SERGEY NIIKOLAYEVICH;;LANDIGRAD LTD LIABILITY CO;;SMIRNOV SERGEY</t>
+          <t>SMIRNOV SERGEY NIIKOLAYEVICH;;란디그레드, 리미티드 라이어빌리티 컴퍼니;;LANDIGRAD LTD LIABILITY CO;;SMIRNOV SERGEY;;SMIRNOV SERGEY NIKOLAYEVICH;;LANDIGRAD LIMITED LIABILITY COMPANY;;LANDIGRAD LLC;;스미르노브, 세르게이 니콜라예비치;;OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD</t>
         </is>
       </c>
       <c r="P89" t="b">
@@ -8505,7 +8505,7 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>WO;;ZA;;IL;;US;;AU;;JP;;EP;;TW;;RU;;CN;;KR;;CA</t>
+          <t>EP;;TW;;CN;;US;;WO;;KR;;RU;;CA;;AU;;ZA;;JP;;IL</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
@@ -8532,7 +8532,7 @@
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>란디그레드, 리미티드 라이어빌리티 컴퍼니;;OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD;;SMIRNOV SERGEY NIKOLAYEVICH;;LANDIGRAD LIMITED LIABILITY COMPANY;;LANDIGRAD LLC;;스미르노브, 세르게이 니콜라예비치;;SMIRNOV SERGEY NIIKOLAYEVICH;;LANDIGRAD LTD LIABILITY CO;;SMIRNOV SERGEY</t>
+          <t>SMIRNOV SERGEY NIIKOLAYEVICH;;란디그레드, 리미티드 라이어빌리티 컴퍼니;;LANDIGRAD LTD LIABILITY CO;;SMIRNOV SERGEY;;SMIRNOV SERGEY NIKOLAYEVICH;;LANDIGRAD LIMITED LIABILITY COMPANY;;LANDIGRAD LLC;;스미르노브, 세르게이 니콜라예비치;;OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD</t>
         </is>
       </c>
       <c r="P90" t="b">
@@ -8597,7 +8597,7 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>CA;;AU;;EP;;CN;;KR;;JP</t>
+          <t>EP;;CN;;KR;;CA;;AU;;JP</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
@@ -8624,7 +8624,7 @@
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>キンダイ、インコーポレイテッドＫＹＮＤＩ， ＩＮＣ．;;킨디 인코포레이티드;;KYNDI INC</t>
+          <t>킨디 인코포레이티드;;KYNDI INC;;キンダイ、インコーポレイテッドＫＹＮＤＩ， ＩＮＣ．</t>
         </is>
       </c>
       <c r="P91" t="b">
@@ -8685,7 +8685,7 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>EP;;US</t>
+          <t>US;;EP</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
@@ -8804,7 +8804,7 @@
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>IBM (CHINA) INVEST COMPANY LTD;;IBM;;IBM UK</t>
+          <t>IBM UK;;IBM (CHINA) INVEST COMPANY LTD;;IBM</t>
         </is>
       </c>
       <c r="P93" t="b">
@@ -8865,7 +8865,7 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>EP;;US</t>
+          <t>US;;EP</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
@@ -8957,7 +8957,7 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>GB;;JP;;DE;;CN</t>
+          <t>JP;;CN;;GB;;DE</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
@@ -8967,7 +8967,7 @@
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>IB;;US</t>
+          <t>US;;IB</t>
         </is>
       </c>
       <c r="K95" t="n">
@@ -8984,7 +8984,7 @@
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>インターナショナル・ビジネス・マシーンズ・コーポレーションＩＮＴＥＲＮＡＴＩＯＮＡＬ ＢＵＳＩＮＥＳＳ ＭＡＣＨＩＮＥＳ ＣＯＲＰＯＲＡＴＩＯＮ;;IBM;;国际商业机器公司</t>
+          <t>国际商业机器公司;;IBM;;インターナショナル・ビジネス・マシーンズ・コーポレーションＩＮＴＥＲＮＡＴＩＯＮＡＬ ＢＵＳＩＮＥＳＳ ＭＡＣＨＩＮＥＳ ＣＯＲＰＯＲＡＴＩＯＮ</t>
         </is>
       </c>
       <c r="P95" t="b">
@@ -9049,7 +9049,7 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>CA;;AU;;EP;;CN;;KR;;JP</t>
+          <t>EP;;CN;;KR;;CA;;AU;;JP</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
@@ -9076,7 +9076,7 @@
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>キンダイ、インコーポレイテッドＫＹＮＤＩ， ＩＮＣ．;;킨디 인코포레이티드;;KYNDI INC</t>
+          <t>킨디 인코포레이티드;;KYNDI INC;;キンダイ、インコーポレイテッドＫＹＮＤＩ， ＩＮＣ．</t>
         </is>
       </c>
       <c r="P96" t="b">
@@ -9141,7 +9141,7 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>US;;CN</t>
+          <t>CN;;US</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
@@ -9168,7 +9168,7 @@
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>INST OF MICROELECTRONICS CAS;;中国科学院微电子研究所;;INST MICROELECTRONICS CAS</t>
+          <t>INST MICROELECTRONICS CAS;;INST OF MICROELECTRONICS CAS;;中国科学院微电子研究所</t>
         </is>
       </c>
       <c r="P97" t="b">
@@ -9233,7 +9233,7 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>GB;;JP;;DE;;CN</t>
+          <t>JP;;CN;;GB;;DE</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
@@ -9243,7 +9243,7 @@
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>IB;;US</t>
+          <t>US;;IB</t>
         </is>
       </c>
       <c r="K98" t="n">
@@ -9260,7 +9260,7 @@
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>インターナショナル・ビジネス・マシーンズ・コーポレーションＩＮＴＥＲＮＡＴＩＯＮＡＬ ＢＵＳＩＮＥＳＳ ＭＡＣＨＩＮＥＳ ＣＯＲＰＯＲＡＴＩＯＮ;;IBM;;国际商业机器公司</t>
+          <t>国际商业机器公司;;IBM;;インターナショナル・ビジネス・マシーンズ・コーポレーションＩＮＴＥＲＮＡＴＩＯＮＡＬ ＢＵＳＩＮＥＳＳ ＭＡＣＨＩＮＥＳ ＣＯＲＰＯＲＡＴＩＯＮ</t>
         </is>
       </c>
       <c r="P98" t="b">
@@ -9348,7 +9348,7 @@
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>LANDIGRAD LLC;;란디그레드, 리미티드 라이어빌리티 컴퍼니;;스미르노브, 세르게이 니콜라예비치;;SMIRNOV SERGEY NIKOLAYEVICH</t>
+          <t>SMIRNOV SERGEY NIKOLAYEVICH;;LANDIGRAD LLC;;스미르노브, 세르게이 니콜라예비치;;란디그레드, 리미티드 라이어빌리티 컴퍼니</t>
         </is>
       </c>
       <c r="P99" t="b">
@@ -9440,7 +9440,7 @@
       </c>
       <c r="O100" t="inlineStr">
         <is>
-          <t>BROWN SIMON ANTHONY;;THE UNIV OF CANTERBURY;;BOSE SAURABH KUMAR;;FOSTNER SHAWN</t>
+          <t>FOSTNER SHAWN;;BROWN SIMON ANTHONY;;THE UNIV OF CANTERBURY;;BOSE SAURABH KUMAR</t>
         </is>
       </c>
       <c r="P100" t="b">
@@ -9532,7 +9532,7 @@
       </c>
       <c r="O101" t="inlineStr">
         <is>
-          <t>BROWN SIMON ANTHONY;;THE UNIV OF CANTERBURY;;BOSE SAURABH KUMAR;;FOSTNER SHAWN</t>
+          <t>FOSTNER SHAWN;;BROWN SIMON ANTHONY;;THE UNIV OF CANTERBURY;;BOSE SAURABH KUMAR</t>
         </is>
       </c>
       <c r="P101" t="b">
@@ -9620,7 +9620,7 @@
       </c>
       <c r="O102" t="inlineStr">
         <is>
-          <t>LANDIGRAD LLC;;란디그레드, 리미티드 라이어빌리티 컴퍼니;;스미르노브, 세르게이 니콜라예비치;;SMIRNOV SERGEY NIKOLAYEVICH</t>
+          <t>SMIRNOV SERGEY NIKOLAYEVICH;;LANDIGRAD LLC;;스미르노브, 세르게이 니콜라예비치;;란디그레드, 리미티드 라이어빌리티 컴퍼니</t>
         </is>
       </c>
       <c r="P102" t="b">
@@ -9712,7 +9712,7 @@
       </c>
       <c r="O103" t="inlineStr">
         <is>
-          <t>BROWN SIMON ANTHONY;;THE UNIV OF CANTERBURY;;BOSE SAURABH KUMAR;;FOSTNER SHAWN</t>
+          <t>FOSTNER SHAWN;;BROWN SIMON ANTHONY;;THE UNIV OF CANTERBURY;;BOSE SAURABH KUMAR</t>
         </is>
       </c>
       <c r="P103" t="b">
@@ -9804,7 +9804,7 @@
       </c>
       <c r="O104" t="inlineStr">
         <is>
-          <t>DUNST MICHAEL J;;BATTAGLINI JOSEPH S;;MOLINSKY BRADLEY DEAN;;CARROLL WILLIAM JOSEPH;;TIPTON THOMAS ANDREW;;HARTFORD FIRE INSURANCE COMP</t>
+          <t>BATTAGLINI JOSEPH S;;MOLINSKY BRADLEY DEAN;;DUNST MICHAEL J;;CARROLL WILLIAM JOSEPH;;HARTFORD FIRE INSURANCE COMP;;TIPTON THOMAS ANDREW</t>
         </is>
       </c>
       <c r="P104" t="b">
@@ -9896,7 +9896,7 @@
       </c>
       <c r="O105" t="inlineStr">
         <is>
-          <t>DUNST MICHAEL J;;BATTAGLINI JOSEPH S;;MOLINSKY BRADLEY DEAN;;CARROLL WILLIAM JOSEPH;;TIPTON THOMAS ANDREW;;HARTFORD FIRE INSURANCE COMP</t>
+          <t>BATTAGLINI JOSEPH S;;MOLINSKY BRADLEY DEAN;;DUNST MICHAEL J;;CARROLL WILLIAM JOSEPH;;HARTFORD FIRE INSURANCE COMP;;TIPTON THOMAS ANDREW</t>
         </is>
       </c>
       <c r="P105" t="b">
@@ -9988,7 +9988,7 @@
       </c>
       <c r="O106" t="inlineStr">
         <is>
-          <t>DUNST MICHAEL J;;BATTAGLINI JOSEPH S;;MOLINSKY BRADLEY DEAN;;CARROLL WILLIAM JOSEPH;;TIPTON THOMAS ANDREW;;HARTFORD FIRE INSURANCE COMP</t>
+          <t>BATTAGLINI JOSEPH S;;MOLINSKY BRADLEY DEAN;;DUNST MICHAEL J;;CARROLL WILLIAM JOSEPH;;HARTFORD FIRE INSURANCE COMP;;TIPTON THOMAS ANDREW</t>
         </is>
       </c>
       <c r="P106" t="b">
@@ -10053,7 +10053,7 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>WO;;SG;;US;;CA;;AU;;EP;;CN;;KR;;JP</t>
+          <t>SG;;EP;;CN;;US;;WO;;KR;;CA;;AU;;JP</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
@@ -10080,7 +10080,7 @@
       </c>
       <c r="O107" t="inlineStr">
         <is>
-          <t>グーグル エルエルシー;;ラミ・バレントス;;GOOGLE LLC;;구글 엘엘씨;;GOOGLE INC;;BARENDS RAMI</t>
+          <t>ラミ・バレントス;;BARENDS RAMI;;구글 엘엘씨;;GOOGLE LLC;;GOOGLE INC;;グーグル エルエルシー</t>
         </is>
       </c>
       <c r="P107" t="b">
@@ -10145,7 +10145,7 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>WO;;SG;;US;;CA;;AU;;EP;;CN;;KR;;JP</t>
+          <t>SG;;EP;;CN;;US;;WO;;KR;;CA;;AU;;JP</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
@@ -10172,7 +10172,7 @@
       </c>
       <c r="O108" t="inlineStr">
         <is>
-          <t>グーグル エルエルシー;;ラミ・バレントス;;GOOGLE LLC;;구글 엘엘씨;;GOOGLE INC;;BARENDS RAMI</t>
+          <t>ラミ・バレントス;;BARENDS RAMI;;구글 엘엘씨;;GOOGLE LLC;;GOOGLE INC;;グーグル エルエルシー</t>
         </is>
       </c>
       <c r="P108" t="b">
@@ -10264,7 +10264,7 @@
       </c>
       <c r="O109" t="inlineStr">
         <is>
-          <t>DUNST MICHAEL J;;BATTAGLINI JOSEPH S;;MOLINSKY BRADLEY DEAN;;CARROLL WILLIAM JOSEPH;;TIPTON THOMAS ANDREW;;HARTFORD FIRE INSURANCE COMP</t>
+          <t>BATTAGLINI JOSEPH S;;MOLINSKY BRADLEY DEAN;;DUNST MICHAEL J;;CARROLL WILLIAM JOSEPH;;HARTFORD FIRE INSURANCE COMP;;TIPTON THOMAS ANDREW</t>
         </is>
       </c>
       <c r="P109" t="b">
@@ -10329,7 +10329,7 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>WO;;SG;;US;;CA;;AU;;EP;;CN;;KR;;JP</t>
+          <t>SG;;EP;;CN;;US;;WO;;KR;;CA;;AU;;JP</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
@@ -10356,7 +10356,7 @@
       </c>
       <c r="O110" t="inlineStr">
         <is>
-          <t>グーグル エルエルシー;;ラミ・バレントス;;GOOGLE LLC;;구글 엘엘씨;;GOOGLE INC;;BARENDS RAMI</t>
+          <t>ラミ・バレントス;;BARENDS RAMI;;구글 엘엘씨;;GOOGLE LLC;;GOOGLE INC;;グーグル エルエルシー</t>
         </is>
       </c>
       <c r="P110" t="b">
@@ -10448,7 +10448,7 @@
       </c>
       <c r="O111" t="inlineStr">
         <is>
-          <t>DUNST MICHAEL J;;BATTAGLINI JOSEPH S;;MOLINSKY BRADLEY DEAN;;CARROLL WILLIAM JOSEPH;;TIPTON THOMAS ANDREW;;HARTFORD FIRE INSURANCE COMP</t>
+          <t>BATTAGLINI JOSEPH S;;MOLINSKY BRADLEY DEAN;;DUNST MICHAEL J;;CARROLL WILLIAM JOSEPH;;HARTFORD FIRE INSURANCE COMP;;TIPTON THOMAS ANDREW</t>
         </is>
       </c>
       <c r="P111" t="b">
@@ -10513,7 +10513,7 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>WO;;ZA;;IL;;US;;AU;;JP;;EP;;TW;;RU;;CN;;KR;;CA</t>
+          <t>EP;;TW;;CN;;US;;WO;;KR;;RU;;CA;;AU;;ZA;;JP;;IL</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
@@ -10540,7 +10540,7 @@
       </c>
       <c r="O112" t="inlineStr">
         <is>
-          <t>OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD;;SMIRNOV SERGEY NIKOLAYEVICH;;LANDIGRAD LIMITED LIABILITY COMPANY;;LANDIGRAD LLC;;SMIRNOV SERGEY NIIKOLAYEVICH;;LANDIGRAD LTD LIABILITY CO;;SMIRNOV SERGEY</t>
+          <t>SMIRNOV SERGEY NIIKOLAYEVICH;;LANDIGRAD LTD LIABILITY CO;;SMIRNOV SERGEY;;SMIRNOV SERGEY NIKOLAYEVICH;;LANDIGRAD LIMITED LIABILITY COMPANY;;LANDIGRAD LLC;;OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD</t>
         </is>
       </c>
       <c r="P112" t="b">
@@ -10605,7 +10605,7 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>WO;;ZA;;IL;;US;;AU;;JP;;EP;;TW;;RU;;CN;;KR;;CA</t>
+          <t>EP;;TW;;CN;;US;;WO;;KR;;RU;;CA;;AU;;ZA;;JP;;IL</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
@@ -10632,7 +10632,7 @@
       </c>
       <c r="O113" t="inlineStr">
         <is>
-          <t>OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD;;SMIRNOV SERGEY NIKOLAYEVICH;;LANDIGRAD LIMITED LIABILITY COMPANY;;LANDIGRAD LLC;;SMIRNOV SERGEY NIIKOLAYEVICH;;LANDIGRAD LTD LIABILITY CO;;SMIRNOV SERGEY</t>
+          <t>SMIRNOV SERGEY NIIKOLAYEVICH;;LANDIGRAD LTD LIABILITY CO;;SMIRNOV SERGEY;;SMIRNOV SERGEY NIKOLAYEVICH;;LANDIGRAD LIMITED LIABILITY COMPANY;;LANDIGRAD LLC;;OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD</t>
         </is>
       </c>
       <c r="P113" t="b">
@@ -10697,7 +10697,7 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>WO;;ZA;;IL;;US;;AU;;JP;;EP;;TW;;RU;;CN;;KR;;CA</t>
+          <t>EP;;TW;;CN;;US;;WO;;KR;;RU;;CA;;AU;;ZA;;JP;;IL</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
@@ -10724,7 +10724,7 @@
       </c>
       <c r="O114" t="inlineStr">
         <is>
-          <t>OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD;;SMIRNOV SERGEY NIKOLAYEVICH;;LANDIGRAD LIMITED LIABILITY COMPANY;;LANDIGRAD LLC;;SMIRNOV SERGEY NIIKOLAYEVICH;;LANDIGRAD LTD LIABILITY CO;;SMIRNOV SERGEY</t>
+          <t>SMIRNOV SERGEY NIIKOLAYEVICH;;LANDIGRAD LTD LIABILITY CO;;SMIRNOV SERGEY;;SMIRNOV SERGEY NIKOLAYEVICH;;LANDIGRAD LIMITED LIABILITY COMPANY;;LANDIGRAD LLC;;OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD</t>
         </is>
       </c>
       <c r="P114" t="b">
@@ -10785,7 +10785,7 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>WO;;US;;CA;;AU;;EP;;CN;;KR;;JP</t>
+          <t>EP;;CN;;US;;WO;;KR;;CA;;AU;;JP</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
@@ -10812,7 +10812,7 @@
       </c>
       <c r="O115" t="inlineStr">
         <is>
-          <t>グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;CASTRILLO SERGIO BOIXO;;SMELYANSKIY VADIM;;GOOGLE LLC;;GOOGLE INC;;NIU YUEZHEN;;NEVEN HARTMUT</t>
+          <t>グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;GOOGLE LLC;;NEVEN HARTMUT;;NIU YUEZHEN;;GOOGLE INC;;SMELYANSKIY VADIM;;CASTRILLO SERGIO BOIXO</t>
         </is>
       </c>
       <c r="P115" t="b">
@@ -10873,7 +10873,7 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>WO;;US;;CA;;AU;;EP;;CN;;KR;;JP</t>
+          <t>EP;;CN;;US;;WO;;KR;;CA;;AU;;JP</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
@@ -10900,7 +10900,7 @@
       </c>
       <c r="O116" t="inlineStr">
         <is>
-          <t>グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;CASTRILLO SERGIO BOIXO;;SMELYANSKIY VADIM;;GOOGLE LLC;;GOOGLE INC;;NIU YUEZHEN;;NEVEN HARTMUT</t>
+          <t>グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;GOOGLE LLC;;NEVEN HARTMUT;;NIU YUEZHEN;;GOOGLE INC;;SMELYANSKIY VADIM;;CASTRILLO SERGIO BOIXO</t>
         </is>
       </c>
       <c r="P116" t="b">
@@ -10965,7 +10965,7 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>WO;;ZA;;IL;;US;;AU;;JP;;EP;;TW;;RU;;CN;;KR;;CA</t>
+          <t>EP;;TW;;CN;;US;;WO;;KR;;RU;;CA;;AU;;ZA;;JP;;IL</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
@@ -10992,7 +10992,7 @@
       </c>
       <c r="O117" t="inlineStr">
         <is>
-          <t>OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD;;SMIRNOV SERGEY NIKOLAYEVICH;;LANDIGRAD LIMITED LIABILITY COMPANY;;LANDIGRAD LLC;;SMIRNOV SERGEY NIIKOLAYEVICH;;LANDIGRAD LTD LIABILITY CO;;SMIRNOV SERGEY</t>
+          <t>SMIRNOV SERGEY NIIKOLAYEVICH;;LANDIGRAD LTD LIABILITY CO;;SMIRNOV SERGEY;;SMIRNOV SERGEY NIKOLAYEVICH;;LANDIGRAD LIMITED LIABILITY COMPANY;;LANDIGRAD LLC;;OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD</t>
         </is>
       </c>
       <c r="P117" t="b">
@@ -11053,7 +11053,7 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>WO;;US;;CA;;AU;;EP;;CN;;KR;;JP</t>
+          <t>EP;;CN;;US;;WO;;KR;;CA;;AU;;JP</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
@@ -11080,7 +11080,7 @@
       </c>
       <c r="O118" t="inlineStr">
         <is>
-          <t>グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;CASTRILLO SERGIO BOIXO;;SMELYANSKIY VADIM;;GOOGLE LLC;;GOOGLE INC;;NIU YUEZHEN;;NEVEN HARTMUT</t>
+          <t>グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;GOOGLE LLC;;NEVEN HARTMUT;;NIU YUEZHEN;;GOOGLE INC;;SMELYANSKIY VADIM;;CASTRILLO SERGIO BOIXO</t>
         </is>
       </c>
       <c r="P118" t="b">
@@ -11141,7 +11141,7 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>WO;;US;;CA;;AU;;EP;;CN;;KR;;JP</t>
+          <t>EP;;CN;;US;;WO;;KR;;CA;;AU;;JP</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
@@ -11168,7 +11168,7 @@
       </c>
       <c r="O119" t="inlineStr">
         <is>
-          <t>グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;CASTRILLO SERGIO BOIXO;;SMELYANSKIY VADIM;;GOOGLE LLC;;GOOGLE INC;;NIU YUEZHEN;;NEVEN HARTMUT</t>
+          <t>グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;GOOGLE LLC;;NEVEN HARTMUT;;NIU YUEZHEN;;GOOGLE INC;;SMELYANSKIY VADIM;;CASTRILLO SERGIO BOIXO</t>
         </is>
       </c>
       <c r="P119" t="b">
@@ -11233,7 +11233,7 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>WO;;ZA;;IL;;US;;AU;;JP;;EP;;TW;;RU;;CN;;KR;;CA</t>
+          <t>EP;;TW;;CN;;US;;WO;;KR;;RU;;CA;;AU;;ZA;;JP;;IL</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
@@ -11260,7 +11260,7 @@
       </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD;;SMIRNOV SERGEY NIKOLAYEVICH;;LANDIGRAD LIMITED LIABILITY COMPANY;;LANDIGRAD LLC;;SMIRNOV SERGEY NIIKOLAYEVICH;;LANDIGRAD LTD LIABILITY CO;;SMIRNOV SERGEY</t>
+          <t>SMIRNOV SERGEY NIIKOLAYEVICH;;LANDIGRAD LTD LIABILITY CO;;SMIRNOV SERGEY;;SMIRNOV SERGEY NIKOLAYEVICH;;LANDIGRAD LIMITED LIABILITY COMPANY;;LANDIGRAD LLC;;OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD</t>
         </is>
       </c>
       <c r="P120" t="b">

--- a/tests/integration/out/ai-and-nanotech-applicants.xlsx
+++ b/tests/integration/out/ai-and-nanotech-applicants.xlsx
@@ -589,7 +589,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>US;;WO</t>
+          <t>WO;;US</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>SG;;EP;;CN;;US;;WO;;KR;;CA;;AU;;JP</t>
+          <t>WO;;CN;;US;;EP;;SG;;AU;;KR;;CA;;JP</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -708,7 +708,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>ラミ・バレントス;;グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;BARENDS RAMI;;구글 엘엘씨;;GOOGLE LLC;;NEVEN HARTMUT;;NIU YUEZHEN;;GOOGLE INC;;グーグル エルエルシー;;CASTRILLO SERGIO BOIXO;;SMELYANSKIY VADIM</t>
+          <t>BARENDS RAMI;;SMELYANSKIY VADIM;;구글 엘엘씨;;グーグル エルエルシー;;CASTRILLO SERGIO BOIXO;;グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;NIU YUEZHEN;;GOOGLE LLC;;GOOGLE INC;;ラミ・バレントス;;NEVEN HARTMUT</t>
         </is>
       </c>
       <c r="P3" t="b">
@@ -773,7 +773,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>CN;;US;;WO;;DE;;JP;;GB</t>
+          <t>WO;;CN;;US;;GB;;DE;;JP</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -800,7 +800,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>国际商业机器公司;;IBM (CHINA) INVEST COMPANY LTD;;IBM;;インターナショナル・ビジネス・マシーンズ・コーポレーションＩＮＴＥＲＮＡＴＩＯＮＡＬ ＢＵＳＩＮＥＳＳ ＭＡＣＨＩＮＥＳ ＣＯＲＰＯＲＡＴＩＯＮ;;IBM UK</t>
+          <t>IBM (CHINA) INVEST COMPANY LTD;;インターナショナル・ビジネス・マシーンズ・コーポレーションＩＮＴＥＲＮＡＴＩＯＮＡＬ ＢＵＳＩＮＥＳＳ ＭＡＣＨＩＮＥＳ ＣＯＲＰＯＲＡＴＩＯＮ;;IBM UK;;国际商业机器公司;;IBM</t>
         </is>
       </c>
       <c r="P4" t="b">
@@ -865,7 +865,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>US;;EP;;WO</t>
+          <t>EP;;WO;;US</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -984,7 +984,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>YARKONI SHEIR;;D WAVE SYSTEMS INC</t>
+          <t>D WAVE SYSTEMS INC;;YARKONI SHEIR</t>
         </is>
       </c>
       <c r="P6" t="b">
@@ -1076,7 +1076,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>INST MICROELECTRONICS CAS;;INST OF MICROELECTRONICS CAS;;中国科学院微电子研究所</t>
+          <t>INST OF MICROELECTRONICS CAS;;INST MICROELECTRONICS CAS;;中国科学院微电子研究所</t>
         </is>
       </c>
       <c r="P7" t="b">
@@ -1141,7 +1141,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>EP;;CN;;US;;WO;;KR;;CA;;AU;;JP</t>
+          <t>WO;;CN;;US;;EP;;AU;;KR;;CA;;JP</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -1168,7 +1168,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>킨디 인코포레이티드;;KYNDI INC;;キンダイ、インコーポレイテッドＫＹＮＤＩ， ＩＮＣ．</t>
+          <t>キンダイ、インコーポレイテッドＫＹＮＤＩ， ＩＮＣ．;;킨디 인코포레이티드;;KYNDI INC</t>
         </is>
       </c>
       <c r="P8" t="b">
@@ -1229,7 +1229,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>CA;;US;;EP;;WO</t>
+          <t>CA;;US;;WO;;EP</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>TW;;US;;EP;;WO</t>
+          <t>TW;;WO;;EP;;US</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1409,7 +1409,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>KR;;CA;;US;;WO</t>
+          <t>KR;;WO;;CA;;US</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1497,7 +1497,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>CA;;US;;EP;;WO</t>
+          <t>CA;;EP;;WO;;US</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1585,7 +1585,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>EP;;US;;WO;;KR;;CA;;AU</t>
+          <t>WO;;EP;;US;;AU;;KR;;CA</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1704,7 +1704,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>BATTAGLINI JOSEPH S;;MOLINSKY BRADLEY DEAN;;DUNST MICHAEL J;;CARROLL WILLIAM JOSEPH;;HARTFORD FIRE INSURANCE COMP;;TIPTON THOMAS ANDREW</t>
+          <t>MOLINSKY BRADLEY DEAN;;TIPTON THOMAS ANDREW;;HARTFORD FIRE INSURANCE COMP;;DUNST MICHAEL J;;BATTAGLINI JOSEPH S;;CARROLL WILLIAM JOSEPH</t>
         </is>
       </c>
       <c r="P14" t="b">
@@ -1857,7 +1857,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>CA;;US;;WO</t>
+          <t>US;;WO;;CA</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1949,7 +1949,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>KR;;CN;;US;;WO</t>
+          <t>CN;;KR;;WO;;US</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -2041,7 +2041,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>EP;;TW;;CN;;US;;WO;;KR;;JP</t>
+          <t>TW;;WO;;CN;;US;;EP;;KR;;JP</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -2068,7 +2068,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>LAM RES CORP;;ラム リサーチ コーポレーションＬＡＭ ＲＥＳＥＡＲＣＨ ＣＯＲＰＯＲＡＴＩＯＮ</t>
+          <t>ラム リサーチ コーポレーションＬＡＭ ＲＥＳＥＡＲＣＨ ＣＯＲＰＯＲＡＴＩＯＮ;;LAM RES CORP</t>
         </is>
       </c>
       <c r="P18" t="b">
@@ -2129,7 +2129,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>CN;;US;;EP;;WO</t>
+          <t>CN;;EP;;WO;;US</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -2221,7 +2221,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>EP;;CN;;US;;KR;;CA;;JP</t>
+          <t>CN;;US;;EP;;KR;;CA;;JP</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>IRIDIA INC;;イリディア・インコーポレイテッドＩｒｉｄｉａ， Ｉｎｃ．;;DODO OMNIDATA INC</t>
+          <t>IRIDIA INC;;DODO OMNIDATA INC;;イリディア・インコーポレイテッドＩｒｉｄｉａ， Ｉｎｃ．</t>
         </is>
       </c>
       <c r="P20" t="b">
@@ -2313,7 +2313,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>US;;WO</t>
+          <t>WO;;US</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -2401,7 +2401,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>US;;WO</t>
+          <t>WO;;US</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -2577,7 +2577,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>US;;WO</t>
+          <t>WO;;US</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -2761,7 +2761,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>US;;WO</t>
+          <t>WO;;US</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2853,7 +2853,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>FR;;EP;;WO</t>
+          <t>FR;;WO;;EP</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2863,7 +2863,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>EP;;FR</t>
+          <t>FR;;EP</t>
         </is>
       </c>
       <c r="K27" t="n">
@@ -2945,7 +2945,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>SG;;EP;;TW;;WO;;CA;;GB</t>
+          <t>TW;;WO;;EP;;SG;;GB;;CA</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -3037,7 +3037,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>US;;WO</t>
+          <t>WO;;US</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>IBM UK;;IBM (CHINA) INVEST COMPANY LTD;;IBM</t>
+          <t>IBM (CHINA) INVEST COMPANY LTD;;IBM;;IBM UK</t>
         </is>
       </c>
       <c r="P29" t="b">
@@ -3156,7 +3156,7 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>INST MICROELECTRONICS CAS;;INST OF MICROELECTRONICS CAS;;中国科学院微电子研究所</t>
+          <t>INST OF MICROELECTRONICS CAS;;INST MICROELECTRONICS CAS;;中国科学院微电子研究所</t>
         </is>
       </c>
       <c r="P30" t="b">
@@ -3221,7 +3221,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>US;;WO</t>
+          <t>WO;;US</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -3340,7 +3340,7 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>YARKONI SHEIR;;D-WAVE SYSTEMS INC</t>
+          <t>D-WAVE SYSTEMS INC;;YARKONI SHEIR</t>
         </is>
       </c>
       <c r="P32" t="b">
@@ -3401,7 +3401,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>KR;;US;;EP</t>
+          <t>KR;;EP;;US</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -3428,7 +3428,7 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>KATHOLIEKE UNIV LEUVEN KU LEUVEN RESEARCH &amp; DEVELOPMENT;;UNIV LEUVEN KATH;;IMEC VZW</t>
+          <t>KATHOLIEKE UNIV LEUVEN KU LEUVEN RESEARCH &amp; DEVELOPMENT;;IMEC VZW;;UNIV LEUVEN KATH</t>
         </is>
       </c>
       <c r="P33" t="b">
@@ -5177,7 +5177,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>US;;WO</t>
+          <t>WO;;US</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -5204,7 +5204,7 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>YARKONI SHEIR;;D WAVE SYSTEMS INC;;D-WAVE SYSTEMS INC</t>
+          <t>D WAVE SYSTEMS INC;;D-WAVE SYSTEMS INC;;YARKONI SHEIR</t>
         </is>
       </c>
       <c r="P53" t="b">
@@ -5805,7 +5805,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>SG;;EP;;CN;;US;;WO;;KR;;CA;;AU;;JP</t>
+          <t>WO;;CN;;EP;;US;;SG;;AU;;KR;;CA;;JP</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -5832,7 +5832,7 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>ラミ・バレントス;;グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;BARENDS RAMI;;구글 엘엘씨;;GOOGLE LLC;;GOOGLE INC;;グーグル エルエルシー</t>
+          <t>BARENDS RAMI;;구글 엘엘씨;;グーグル エルエルシー;;グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;GOOGLE LLC;;GOOGLE INC;;ラミ・バレントス</t>
         </is>
       </c>
       <c r="P60" t="b">
@@ -5981,7 +5981,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>CA;;WO</t>
+          <t>WO;;CA</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -6069,7 +6069,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>JP;;CN;;US</t>
+          <t>CN;;US;;JP</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -6249,7 +6249,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>SG;;EP;;CN;;US;;WO;;KR;;CA;;AU;;JP</t>
+          <t>WO;;CN;;US;;EP;;SG;;AU;;KR;;CA;;JP</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -6276,7 +6276,7 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>ラミ・バレントス;;グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;BARENDS RAMI;;구글 엘엘씨;;GOOGLE LLC;;NEVEN HARTMUT;;NIU YUEZHEN;;GOOGLE INC;;グーグル エルエルシー;;CASTRILLO SERGIO BOIXO;;SMELYANSKIY VADIM</t>
+          <t>BARENDS RAMI;;SMELYANSKIY VADIM;;구글 엘엘씨;;グーグル エルエルシー;;CASTRILLO SERGIO BOIXO;;グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;NIU YUEZHEN;;GOOGLE LLC;;GOOGLE INC;;ラミ・バレントス;;NEVEN HARTMUT</t>
         </is>
       </c>
       <c r="P65" t="b">
@@ -6341,7 +6341,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>EP;;CN;;US;;WO;;KR;;JP</t>
+          <t>WO;;CN;;EP;;US;;KR;;JP</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -6368,7 +6368,7 @@
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>BROWN SIMON ANTHONY;;BOSE SAURABH KUMAR;;THE UNIV OF CANTERBURY;;FOSTNER SHAWN;;ザ ユニバーシティー オブ カンタベリー</t>
+          <t>FOSTNER SHAWN;;ザ ユニバーシティー オブ カンタベリー;;BROWN SIMON ANTHONY;;BOSE SAURABH KUMAR;;THE UNIV OF CANTERBURY</t>
         </is>
       </c>
       <c r="P66" t="b">
@@ -6460,7 +6460,7 @@
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>서강대학교산학협력단;;UNIV SOGANG RES FOUNDATION</t>
+          <t>UNIV SOGANG RES FOUNDATION;;서강대학교산학협력단</t>
         </is>
       </c>
       <c r="P67" t="b">
@@ -6793,7 +6793,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>JP;;US</t>
+          <t>US;;JP</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -6820,7 +6820,7 @@
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>HITACHI LTD;;株式会社日立製作所</t>
+          <t>株式会社日立製作所;;HITACHI LTD</t>
         </is>
       </c>
       <c r="P71" t="b">
@@ -6912,7 +6912,7 @@
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>UNIV ELECTRONIC SCI &amp; TECH CHINA;;电子科技大学</t>
+          <t>电子科技大学;;UNIV ELECTRONIC SCI &amp; TECH CHINA</t>
         </is>
       </c>
       <c r="P72" t="b">
@@ -7000,7 +7000,7 @@
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>경희대학교 산학협력단;;UNIV INDUSTRY COOPERATION GROUP KYUNG HEE UNIV</t>
+          <t>UNIV INDUSTRY COOPERATION GROUP KYUNG HEE UNIV;;경희대학교 산학협력단</t>
         </is>
       </c>
       <c r="P73" t="b">
@@ -7061,7 +7061,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>EP;;KR;;CN;;JP</t>
+          <t>CN;;KR;;EP;;JP</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -7088,7 +7088,7 @@
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>LAM RES CORP;;ラム リサーチ コーポレーションＬＡＭ ＲＥＳＥＡＲＣＨ ＣＯＲＰＯＲＡＴＩＯＮ</t>
+          <t>ラム リサーチ コーポレーションＬＡＭ ＲＥＳＥＡＲＣＨ ＣＯＲＰＯＲＡＴＩＯＮ;;LAM RES CORP</t>
         </is>
       </c>
       <c r="P74" t="b">
@@ -7180,7 +7180,7 @@
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>서강대학교산학협력단;;UNIV SOGANG RES FOUNDATION</t>
+          <t>UNIV SOGANG RES FOUNDATION;;서강대학교산학협력단</t>
         </is>
       </c>
       <c r="P75" t="b">
@@ -7245,7 +7245,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>EP;;CN;;US;;KR;;JP</t>
+          <t>CN;;EP;;US;;KR;;JP</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -7272,7 +7272,7 @@
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>ザ ユニバーシティー オブ カンタベリー;;THE UNIV OF CANTERBURY</t>
+          <t>THE UNIV OF CANTERBURY;;ザ ユニバーシティー オブ カンタベリー</t>
         </is>
       </c>
       <c r="P76" t="b">
@@ -7337,7 +7337,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>EP;;CN;;KR;;CA;;JP</t>
+          <t>CN;;EP;;KR;;CA;;JP</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -7452,7 +7452,7 @@
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>ICLEAGUE TECH CO LTD;;YANGTZE DELTA REGION INST TSINGHUA UNIV ZHEJIANG</t>
+          <t>YANGTZE DELTA REGION INST TSINGHUA UNIV ZHEJIANG;;ICLEAGUE TECH CO LTD</t>
         </is>
       </c>
       <c r="P78" t="b">
@@ -7728,7 +7728,7 @@
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>UNIV ELECTRONIC SCI &amp; TECH CHINA;;电子科技大学</t>
+          <t>电子科技大学;;UNIV ELECTRONIC SCI &amp; TECH CHINA</t>
         </is>
       </c>
       <c r="P81" t="b">
@@ -7789,7 +7789,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>TW;;CN;;US</t>
+          <t>CN;;TW;;US</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -7816,7 +7816,7 @@
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>TAIWAN SEMICONDUCTOR MFG CO LTD;;TAIWAN SEMICONDUCTOR MFG</t>
+          <t>TAIWAN SEMICONDUCTOR MFG;;TAIWAN SEMICONDUCTOR MFG CO LTD</t>
         </is>
       </c>
       <c r="P82" t="b">
@@ -7877,7 +7877,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>TW;;CN;;US</t>
+          <t>CN;;TW;;US</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -7904,7 +7904,7 @@
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>TAIWAN SEMICONDUCTOR MFG CO LTD;;TAIWAN SEMICONDUCTOR MFG</t>
+          <t>TAIWAN SEMICONDUCTOR MFG;;TAIWAN SEMICONDUCTOR MFG CO LTD</t>
         </is>
       </c>
       <c r="P83" t="b">
@@ -7965,7 +7965,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>KR;;CA;;EP;;AU</t>
+          <t>CA;;KR;;EP;;AU</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -8080,7 +8080,7 @@
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>경희대학교 산학협력단;;UNIV INDUSTRY COOPERATION GROUP KYUNG HEE UNIV</t>
+          <t>UNIV INDUSTRY COOPERATION GROUP KYUNG HEE UNIV;;경희대학교 산학협력단</t>
         </is>
       </c>
       <c r="P85" t="b">
@@ -8141,7 +8141,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>JP;;US</t>
+          <t>US;;JP</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
@@ -8168,7 +8168,7 @@
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>HITACHI LTD;;株式会社日立製作所</t>
+          <t>株式会社日立製作所;;HITACHI LTD</t>
         </is>
       </c>
       <c r="P86" t="b">
@@ -8256,7 +8256,7 @@
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>ICLEAGUE TECH CO LTD;;YANGTZE DELTA REGION INST TSINGHUA UNIV ZHEJIANG</t>
+          <t>YANGTZE DELTA REGION INST TSINGHUA UNIV ZHEJIANG;;ICLEAGUE TECH CO LTD</t>
         </is>
       </c>
       <c r="P87" t="b">
@@ -8321,7 +8321,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>EP;;CN;;US;;WO;;KR;;CA;;AU;;JP</t>
+          <t>WO;;CN;;EP;;US;;AU;;KR;;CA;;JP</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -8348,7 +8348,7 @@
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;GOOGLE LLC;;NEVEN HARTMUT;;NIU YUEZHEN;;GOOGLE INC;;グーグル エルエルシー;;CASTRILLO SERGIO BOIXO;;SMELYANSKIY VADIM</t>
+          <t>SMELYANSKIY VADIM;;GOOGLE INC;;CASTRILLO SERGIO BOIXO;;グーグル エルエルシー;;グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;GOOGLE LLC;;NIU YUEZHEN;;NEVEN HARTMUT</t>
         </is>
       </c>
       <c r="P88" t="b">
@@ -8413,7 +8413,7 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>EP;;TW;;CN;;US;;WO;;KR;;RU;;CA;;AU;;ZA;;JP;;IL</t>
+          <t>TW;;WO;;CN;;IL;;ZA;;US;;EP;;RU;;AU;;KR;;CA;;JP</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
@@ -8440,7 +8440,7 @@
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>SMIRNOV SERGEY NIIKOLAYEVICH;;란디그레드, 리미티드 라이어빌리티 컴퍼니;;LANDIGRAD LTD LIABILITY CO;;SMIRNOV SERGEY;;SMIRNOV SERGEY NIKOLAYEVICH;;LANDIGRAD LIMITED LIABILITY COMPANY;;LANDIGRAD LLC;;스미르노브, 세르게이 니콜라예비치;;OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD</t>
+          <t>LANDIGRAD LTD LIABILITY CO;;LANDIGRAD LLC;;SMIRNOV SERGEY NIKOLAYEVICH;;LANDIGRAD LIMITED LIABILITY COMPANY;;OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD;;SMIRNOV SERGEY NIIKOLAYEVICH;;란디그레드, 리미티드 라이어빌리티 컴퍼니;;SMIRNOV SERGEY;;스미르노브, 세르게이 니콜라예비치</t>
         </is>
       </c>
       <c r="P89" t="b">
@@ -8505,7 +8505,7 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>EP;;TW;;CN;;US;;WO;;KR;;RU;;CA;;AU;;ZA;;JP;;IL</t>
+          <t>TW;;WO;;CN;;IL;;ZA;;US;;EP;;RU;;AU;;KR;;CA;;JP</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
@@ -8532,7 +8532,7 @@
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>SMIRNOV SERGEY NIIKOLAYEVICH;;란디그레드, 리미티드 라이어빌리티 컴퍼니;;LANDIGRAD LTD LIABILITY CO;;SMIRNOV SERGEY;;SMIRNOV SERGEY NIKOLAYEVICH;;LANDIGRAD LIMITED LIABILITY COMPANY;;LANDIGRAD LLC;;스미르노브, 세르게이 니콜라예비치;;OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD</t>
+          <t>LANDIGRAD LTD LIABILITY CO;;LANDIGRAD LLC;;SMIRNOV SERGEY NIKOLAYEVICH;;LANDIGRAD LIMITED LIABILITY COMPANY;;OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD;;SMIRNOV SERGEY NIIKOLAYEVICH;;란디그레드, 리미티드 라이어빌리티 컴퍼니;;SMIRNOV SERGEY;;스미르노브, 세르게이 니콜라예비치</t>
         </is>
       </c>
       <c r="P90" t="b">
@@ -8597,7 +8597,7 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>EP;;CN;;KR;;CA;;AU;;JP</t>
+          <t>CN;;EP;;AU;;KR;;CA;;JP</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
@@ -8624,7 +8624,7 @@
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>킨디 인코포레이티드;;KYNDI INC;;キンダイ、インコーポレイテッドＫＹＮＤＩ， ＩＮＣ．</t>
+          <t>キンダイ、インコーポレイテッドＫＹＮＤＩ， ＩＮＣ．;;킨디 인코포레이티드;;KYNDI INC</t>
         </is>
       </c>
       <c r="P91" t="b">
@@ -8712,7 +8712,7 @@
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>KATHOLIEKE UNIV LEUVEN KU LEUVEN RESEARCH &amp; DEVELOPMENT;;UNIV LEUVEN KATH;;IMEC VZW</t>
+          <t>KATHOLIEKE UNIV LEUVEN KU LEUVEN RESEARCH &amp; DEVELOPMENT;;IMEC VZW;;UNIV LEUVEN KATH</t>
         </is>
       </c>
       <c r="P92" t="b">
@@ -8777,7 +8777,7 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>US;;WO</t>
+          <t>WO;;US</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
@@ -8804,7 +8804,7 @@
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>IBM UK;;IBM (CHINA) INVEST COMPANY LTD;;IBM</t>
+          <t>IBM (CHINA) INVEST COMPANY LTD;;IBM;;IBM UK</t>
         </is>
       </c>
       <c r="P93" t="b">
@@ -8892,7 +8892,7 @@
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>KATHOLIEKE UNIV LEUVEN KU LEUVEN RESEARCH &amp; DEVELOPMENT;;UNIV LEUVEN KATH;;IMEC VZW</t>
+          <t>KATHOLIEKE UNIV LEUVEN KU LEUVEN RESEARCH &amp; DEVELOPMENT;;IMEC VZW;;UNIV LEUVEN KATH</t>
         </is>
       </c>
       <c r="P94" t="b">
@@ -8957,7 +8957,7 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>JP;;CN;;GB;;DE</t>
+          <t>CN;;DE;;GB;;JP</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
@@ -8984,7 +8984,7 @@
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>国际商业机器公司;;IBM;;インターナショナル・ビジネス・マシーンズ・コーポレーションＩＮＴＥＲＮＡＴＩＯＮＡＬ ＢＵＳＩＮＥＳＳ ＭＡＣＨＩＮＥＳ ＣＯＲＰＯＲＡＴＩＯＮ</t>
+          <t>IBM;;インターナショナル・ビジネス・マシーンズ・コーポレーションＩＮＴＥＲＮＡＴＩＯＮＡＬ ＢＵＳＩＮＥＳＳ ＭＡＣＨＩＮＥＳ ＣＯＲＰＯＲＡＴＩＯＮ;;国际商业机器公司</t>
         </is>
       </c>
       <c r="P95" t="b">
@@ -9049,7 +9049,7 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>EP;;CN;;KR;;CA;;AU;;JP</t>
+          <t>CN;;EP;;AU;;KR;;CA;;JP</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
@@ -9076,7 +9076,7 @@
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>킨디 인코포레이티드;;KYNDI INC;;キンダイ、インコーポレイテッドＫＹＮＤＩ， ＩＮＣ．</t>
+          <t>キンダイ、インコーポレイテッドＫＹＮＤＩ， ＩＮＣ．;;킨디 인코포레이티드;;KYNDI INC</t>
         </is>
       </c>
       <c r="P96" t="b">
@@ -9168,7 +9168,7 @@
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>INST MICROELECTRONICS CAS;;INST OF MICROELECTRONICS CAS;;中国科学院微电子研究所</t>
+          <t>INST OF MICROELECTRONICS CAS;;INST MICROELECTRONICS CAS;;中国科学院微电子研究所</t>
         </is>
       </c>
       <c r="P97" t="b">
@@ -9233,7 +9233,7 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>JP;;CN;;GB;;DE</t>
+          <t>CN;;DE;;GB;;JP</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
@@ -9260,7 +9260,7 @@
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>国际商业机器公司;;IBM;;インターナショナル・ビジネス・マシーンズ・コーポレーションＩＮＴＥＲＮＡＴＩＯＮＡＬ ＢＵＳＩＮＥＳＳ ＭＡＣＨＩＮＥＳ ＣＯＲＰＯＲＡＴＩＯＮ</t>
+          <t>IBM;;インターナショナル・ビジネス・マシーンズ・コーポレーションＩＮＴＥＲＮＡＴＩＯＮＡＬ ＢＵＳＩＮＥＳＳ ＭＡＣＨＩＮＥＳ ＣＯＲＰＯＲＡＴＩＯＮ;;国际商业机器公司</t>
         </is>
       </c>
       <c r="P98" t="b">
@@ -9348,7 +9348,7 @@
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>SMIRNOV SERGEY NIKOLAYEVICH;;LANDIGRAD LLC;;스미르노브, 세르게이 니콜라예비치;;란디그레드, 리미티드 라이어빌리티 컴퍼니</t>
+          <t>LANDIGRAD LLC;;란디그레드, 리미티드 라이어빌리티 컴퍼니;;SMIRNOV SERGEY NIKOLAYEVICH;;스미르노브, 세르게이 니콜라예비치</t>
         </is>
       </c>
       <c r="P99" t="b">
@@ -9440,7 +9440,7 @@
       </c>
       <c r="O100" t="inlineStr">
         <is>
-          <t>FOSTNER SHAWN;;BROWN SIMON ANTHONY;;THE UNIV OF CANTERBURY;;BOSE SAURABH KUMAR</t>
+          <t>BROWN SIMON ANTHONY;;THE UNIV OF CANTERBURY;;BOSE SAURABH KUMAR;;FOSTNER SHAWN</t>
         </is>
       </c>
       <c r="P100" t="b">
@@ -9532,7 +9532,7 @@
       </c>
       <c r="O101" t="inlineStr">
         <is>
-          <t>FOSTNER SHAWN;;BROWN SIMON ANTHONY;;THE UNIV OF CANTERBURY;;BOSE SAURABH KUMAR</t>
+          <t>BROWN SIMON ANTHONY;;THE UNIV OF CANTERBURY;;BOSE SAURABH KUMAR;;FOSTNER SHAWN</t>
         </is>
       </c>
       <c r="P101" t="b">
@@ -9620,7 +9620,7 @@
       </c>
       <c r="O102" t="inlineStr">
         <is>
-          <t>SMIRNOV SERGEY NIKOLAYEVICH;;LANDIGRAD LLC;;스미르노브, 세르게이 니콜라예비치;;란디그레드, 리미티드 라이어빌리티 컴퍼니</t>
+          <t>LANDIGRAD LLC;;란디그레드, 리미티드 라이어빌리티 컴퍼니;;SMIRNOV SERGEY NIKOLAYEVICH;;스미르노브, 세르게이 니콜라예비치</t>
         </is>
       </c>
       <c r="P102" t="b">
@@ -9712,7 +9712,7 @@
       </c>
       <c r="O103" t="inlineStr">
         <is>
-          <t>FOSTNER SHAWN;;BROWN SIMON ANTHONY;;THE UNIV OF CANTERBURY;;BOSE SAURABH KUMAR</t>
+          <t>BROWN SIMON ANTHONY;;THE UNIV OF CANTERBURY;;BOSE SAURABH KUMAR;;FOSTNER SHAWN</t>
         </is>
       </c>
       <c r="P103" t="b">
@@ -9804,7 +9804,7 @@
       </c>
       <c r="O104" t="inlineStr">
         <is>
-          <t>BATTAGLINI JOSEPH S;;MOLINSKY BRADLEY DEAN;;DUNST MICHAEL J;;CARROLL WILLIAM JOSEPH;;HARTFORD FIRE INSURANCE COMP;;TIPTON THOMAS ANDREW</t>
+          <t>MOLINSKY BRADLEY DEAN;;TIPTON THOMAS ANDREW;;HARTFORD FIRE INSURANCE COMP;;DUNST MICHAEL J;;BATTAGLINI JOSEPH S;;CARROLL WILLIAM JOSEPH</t>
         </is>
       </c>
       <c r="P104" t="b">
@@ -9896,7 +9896,7 @@
       </c>
       <c r="O105" t="inlineStr">
         <is>
-          <t>BATTAGLINI JOSEPH S;;MOLINSKY BRADLEY DEAN;;DUNST MICHAEL J;;CARROLL WILLIAM JOSEPH;;HARTFORD FIRE INSURANCE COMP;;TIPTON THOMAS ANDREW</t>
+          <t>MOLINSKY BRADLEY DEAN;;TIPTON THOMAS ANDREW;;HARTFORD FIRE INSURANCE COMP;;DUNST MICHAEL J;;BATTAGLINI JOSEPH S;;CARROLL WILLIAM JOSEPH</t>
         </is>
       </c>
       <c r="P105" t="b">
@@ -9988,7 +9988,7 @@
       </c>
       <c r="O106" t="inlineStr">
         <is>
-          <t>BATTAGLINI JOSEPH S;;MOLINSKY BRADLEY DEAN;;DUNST MICHAEL J;;CARROLL WILLIAM JOSEPH;;HARTFORD FIRE INSURANCE COMP;;TIPTON THOMAS ANDREW</t>
+          <t>MOLINSKY BRADLEY DEAN;;TIPTON THOMAS ANDREW;;HARTFORD FIRE INSURANCE COMP;;DUNST MICHAEL J;;BATTAGLINI JOSEPH S;;CARROLL WILLIAM JOSEPH</t>
         </is>
       </c>
       <c r="P106" t="b">
@@ -10053,7 +10053,7 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>SG;;EP;;CN;;US;;WO;;KR;;CA;;AU;;JP</t>
+          <t>WO;;CN;;US;;EP;;SG;;AU;;KR;;CA;;JP</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
@@ -10080,7 +10080,7 @@
       </c>
       <c r="O107" t="inlineStr">
         <is>
-          <t>ラミ・バレントス;;BARENDS RAMI;;구글 엘엘씨;;GOOGLE LLC;;GOOGLE INC;;グーグル エルエルシー</t>
+          <t>BARENDS RAMI;;구글 엘엘씨;;グーグル エルエルシー;;GOOGLE LLC;;GOOGLE INC;;ラミ・バレントス</t>
         </is>
       </c>
       <c r="P107" t="b">
@@ -10145,7 +10145,7 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>SG;;EP;;CN;;US;;WO;;KR;;CA;;AU;;JP</t>
+          <t>WO;;CN;;US;;EP;;SG;;AU;;KR;;CA;;JP</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
@@ -10172,7 +10172,7 @@
       </c>
       <c r="O108" t="inlineStr">
         <is>
-          <t>ラミ・バレントス;;BARENDS RAMI;;구글 엘엘씨;;GOOGLE LLC;;GOOGLE INC;;グーグル エルエルシー</t>
+          <t>BARENDS RAMI;;구글 엘엘씨;;グーグル エルエルシー;;GOOGLE LLC;;GOOGLE INC;;ラミ・バレントス</t>
         </is>
       </c>
       <c r="P108" t="b">
@@ -10264,7 +10264,7 @@
       </c>
       <c r="O109" t="inlineStr">
         <is>
-          <t>BATTAGLINI JOSEPH S;;MOLINSKY BRADLEY DEAN;;DUNST MICHAEL J;;CARROLL WILLIAM JOSEPH;;HARTFORD FIRE INSURANCE COMP;;TIPTON THOMAS ANDREW</t>
+          <t>MOLINSKY BRADLEY DEAN;;TIPTON THOMAS ANDREW;;HARTFORD FIRE INSURANCE COMP;;DUNST MICHAEL J;;BATTAGLINI JOSEPH S;;CARROLL WILLIAM JOSEPH</t>
         </is>
       </c>
       <c r="P109" t="b">
@@ -10329,7 +10329,7 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>SG;;EP;;CN;;US;;WO;;KR;;CA;;AU;;JP</t>
+          <t>WO;;CN;;US;;EP;;SG;;AU;;KR;;CA;;JP</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
@@ -10356,7 +10356,7 @@
       </c>
       <c r="O110" t="inlineStr">
         <is>
-          <t>ラミ・バレントス;;BARENDS RAMI;;구글 엘엘씨;;GOOGLE LLC;;GOOGLE INC;;グーグル エルエルシー</t>
+          <t>BARENDS RAMI;;구글 엘엘씨;;グーグル エルエルシー;;GOOGLE LLC;;GOOGLE INC;;ラミ・バレントス</t>
         </is>
       </c>
       <c r="P110" t="b">
@@ -10448,7 +10448,7 @@
       </c>
       <c r="O111" t="inlineStr">
         <is>
-          <t>BATTAGLINI JOSEPH S;;MOLINSKY BRADLEY DEAN;;DUNST MICHAEL J;;CARROLL WILLIAM JOSEPH;;HARTFORD FIRE INSURANCE COMP;;TIPTON THOMAS ANDREW</t>
+          <t>MOLINSKY BRADLEY DEAN;;TIPTON THOMAS ANDREW;;HARTFORD FIRE INSURANCE COMP;;DUNST MICHAEL J;;BATTAGLINI JOSEPH S;;CARROLL WILLIAM JOSEPH</t>
         </is>
       </c>
       <c r="P111" t="b">
@@ -10513,7 +10513,7 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>EP;;TW;;CN;;US;;WO;;KR;;RU;;CA;;AU;;ZA;;JP;;IL</t>
+          <t>TW;;WO;;CN;;IL;;ZA;;US;;EP;;RU;;AU;;KR;;CA;;JP</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
@@ -10540,7 +10540,7 @@
       </c>
       <c r="O112" t="inlineStr">
         <is>
-          <t>SMIRNOV SERGEY NIIKOLAYEVICH;;LANDIGRAD LTD LIABILITY CO;;SMIRNOV SERGEY;;SMIRNOV SERGEY NIKOLAYEVICH;;LANDIGRAD LIMITED LIABILITY COMPANY;;LANDIGRAD LLC;;OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD</t>
+          <t>LANDIGRAD LTD LIABILITY CO;;LANDIGRAD LLC;;SMIRNOV SERGEY NIKOLAYEVICH;;LANDIGRAD LIMITED LIABILITY COMPANY;;OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD;;SMIRNOV SERGEY NIIKOLAYEVICH;;SMIRNOV SERGEY</t>
         </is>
       </c>
       <c r="P112" t="b">
@@ -10605,7 +10605,7 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>EP;;TW;;CN;;US;;WO;;KR;;RU;;CA;;AU;;ZA;;JP;;IL</t>
+          <t>TW;;WO;;CN;;IL;;ZA;;US;;EP;;RU;;AU;;KR;;CA;;JP</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
@@ -10632,7 +10632,7 @@
       </c>
       <c r="O113" t="inlineStr">
         <is>
-          <t>SMIRNOV SERGEY NIIKOLAYEVICH;;LANDIGRAD LTD LIABILITY CO;;SMIRNOV SERGEY;;SMIRNOV SERGEY NIKOLAYEVICH;;LANDIGRAD LIMITED LIABILITY COMPANY;;LANDIGRAD LLC;;OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD</t>
+          <t>LANDIGRAD LTD LIABILITY CO;;LANDIGRAD LLC;;SMIRNOV SERGEY NIKOLAYEVICH;;LANDIGRAD LIMITED LIABILITY COMPANY;;OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD;;SMIRNOV SERGEY NIIKOLAYEVICH;;SMIRNOV SERGEY</t>
         </is>
       </c>
       <c r="P113" t="b">
@@ -10697,7 +10697,7 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>EP;;TW;;CN;;US;;WO;;KR;;RU;;CA;;AU;;ZA;;JP;;IL</t>
+          <t>TW;;WO;;CN;;IL;;ZA;;US;;EP;;RU;;AU;;KR;;CA;;JP</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
@@ -10724,7 +10724,7 @@
       </c>
       <c r="O114" t="inlineStr">
         <is>
-          <t>SMIRNOV SERGEY NIIKOLAYEVICH;;LANDIGRAD LTD LIABILITY CO;;SMIRNOV SERGEY;;SMIRNOV SERGEY NIKOLAYEVICH;;LANDIGRAD LIMITED LIABILITY COMPANY;;LANDIGRAD LLC;;OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD</t>
+          <t>LANDIGRAD LTD LIABILITY CO;;LANDIGRAD LLC;;SMIRNOV SERGEY NIKOLAYEVICH;;LANDIGRAD LIMITED LIABILITY COMPANY;;OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD;;SMIRNOV SERGEY NIIKOLAYEVICH;;SMIRNOV SERGEY</t>
         </is>
       </c>
       <c r="P114" t="b">
@@ -10785,7 +10785,7 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>EP;;CN;;US;;WO;;KR;;CA;;AU;;JP</t>
+          <t>WO;;CN;;US;;EP;;AU;;KR;;CA;;JP</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
@@ -10812,7 +10812,7 @@
       </c>
       <c r="O115" t="inlineStr">
         <is>
-          <t>グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;GOOGLE LLC;;NEVEN HARTMUT;;NIU YUEZHEN;;GOOGLE INC;;SMELYANSKIY VADIM;;CASTRILLO SERGIO BOIXO</t>
+          <t>SMELYANSKIY VADIM;;GOOGLE INC;;CASTRILLO SERGIO BOIXO;;グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;GOOGLE LLC;;NIU YUEZHEN;;NEVEN HARTMUT</t>
         </is>
       </c>
       <c r="P115" t="b">
@@ -10873,7 +10873,7 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>EP;;CN;;US;;WO;;KR;;CA;;AU;;JP</t>
+          <t>WO;;CN;;US;;EP;;AU;;KR;;CA;;JP</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
@@ -10900,7 +10900,7 @@
       </c>
       <c r="O116" t="inlineStr">
         <is>
-          <t>グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;GOOGLE LLC;;NEVEN HARTMUT;;NIU YUEZHEN;;GOOGLE INC;;SMELYANSKIY VADIM;;CASTRILLO SERGIO BOIXO</t>
+          <t>SMELYANSKIY VADIM;;GOOGLE INC;;CASTRILLO SERGIO BOIXO;;グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;GOOGLE LLC;;NIU YUEZHEN;;NEVEN HARTMUT</t>
         </is>
       </c>
       <c r="P116" t="b">
@@ -10965,7 +10965,7 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>EP;;TW;;CN;;US;;WO;;KR;;RU;;CA;;AU;;ZA;;JP;;IL</t>
+          <t>TW;;WO;;CN;;IL;;ZA;;US;;EP;;RU;;AU;;KR;;CA;;JP</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
@@ -10992,7 +10992,7 @@
       </c>
       <c r="O117" t="inlineStr">
         <is>
-          <t>SMIRNOV SERGEY NIIKOLAYEVICH;;LANDIGRAD LTD LIABILITY CO;;SMIRNOV SERGEY;;SMIRNOV SERGEY NIKOLAYEVICH;;LANDIGRAD LIMITED LIABILITY COMPANY;;LANDIGRAD LLC;;OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD</t>
+          <t>LANDIGRAD LTD LIABILITY CO;;LANDIGRAD LLC;;SMIRNOV SERGEY NIKOLAYEVICH;;LANDIGRAD LIMITED LIABILITY COMPANY;;OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD;;SMIRNOV SERGEY NIIKOLAYEVICH;;SMIRNOV SERGEY</t>
         </is>
       </c>
       <c r="P117" t="b">
@@ -11053,7 +11053,7 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>EP;;CN;;US;;WO;;KR;;CA;;AU;;JP</t>
+          <t>WO;;CN;;US;;EP;;AU;;KR;;CA;;JP</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
@@ -11080,7 +11080,7 @@
       </c>
       <c r="O118" t="inlineStr">
         <is>
-          <t>グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;GOOGLE LLC;;NEVEN HARTMUT;;NIU YUEZHEN;;GOOGLE INC;;SMELYANSKIY VADIM;;CASTRILLO SERGIO BOIXO</t>
+          <t>SMELYANSKIY VADIM;;GOOGLE INC;;CASTRILLO SERGIO BOIXO;;グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;GOOGLE LLC;;NIU YUEZHEN;;NEVEN HARTMUT</t>
         </is>
       </c>
       <c r="P118" t="b">
@@ -11141,7 +11141,7 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>EP;;CN;;US;;WO;;KR;;CA;;AU;;JP</t>
+          <t>WO;;CN;;US;;EP;;AU;;KR;;CA;;JP</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
@@ -11168,7 +11168,7 @@
       </c>
       <c r="O119" t="inlineStr">
         <is>
-          <t>グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;GOOGLE LLC;;NEVEN HARTMUT;;NIU YUEZHEN;;GOOGLE INC;;SMELYANSKIY VADIM;;CASTRILLO SERGIO BOIXO</t>
+          <t>SMELYANSKIY VADIM;;GOOGLE INC;;CASTRILLO SERGIO BOIXO;;グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;GOOGLE LLC;;NIU YUEZHEN;;NEVEN HARTMUT</t>
         </is>
       </c>
       <c r="P119" t="b">
@@ -11233,7 +11233,7 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>EP;;TW;;CN;;US;;WO;;KR;;RU;;CA;;AU;;ZA;;JP;;IL</t>
+          <t>TW;;WO;;CN;;IL;;ZA;;US;;EP;;RU;;AU;;KR;;CA;;JP</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
@@ -11260,7 +11260,7 @@
       </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>SMIRNOV SERGEY NIIKOLAYEVICH;;LANDIGRAD LTD LIABILITY CO;;SMIRNOV SERGEY;;SMIRNOV SERGEY NIKOLAYEVICH;;LANDIGRAD LIMITED LIABILITY COMPANY;;LANDIGRAD LLC;;OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD</t>
+          <t>LANDIGRAD LTD LIABILITY CO;;LANDIGRAD LLC;;SMIRNOV SERGEY NIKOLAYEVICH;;LANDIGRAD LIMITED LIABILITY COMPANY;;OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD;;SMIRNOV SERGEY NIIKOLAYEVICH;;SMIRNOV SERGEY</t>
         </is>
       </c>
       <c r="P120" t="b">

--- a/tests/integration/out/ai-and-nanotech-applicants.xlsx
+++ b/tests/integration/out/ai-and-nanotech-applicants.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="339">
   <si>
     <t>Number of Simple Patent Families (Fractionally Counted)</t>
   </si>
@@ -475,16 +475,16 @@
     <t>US;;KR</t>
   </si>
   <si>
+    <t>WO;;US</t>
+  </si>
+  <si>
     <t>US;;WO</t>
   </si>
   <si>
-    <t>WO;;US</t>
-  </si>
-  <si>
     <t>EP;;FR;;WO</t>
   </si>
   <si>
-    <t>TW;;GB;;WO;;EP;;SG;;CA</t>
+    <t>GB;;WO;;TW;;CA;;SG;;EP</t>
   </si>
   <si>
     <t>CN</t>
@@ -499,139 +499,139 @@
     <t>CN;;US</t>
   </si>
   <si>
-    <t>AU;;CN;;CA;;JP;;EP</t>
+    <t>CA;;AU;;EP;;CN;;JP</t>
+  </si>
+  <si>
+    <t>CA;;WO</t>
+  </si>
+  <si>
+    <t>JP;;CN;;US</t>
+  </si>
+  <si>
+    <t>KR;;EP;;CN;;JP;;US;;WO</t>
+  </si>
+  <si>
+    <t>KR</t>
+  </si>
+  <si>
+    <t>CN;;EP</t>
+  </si>
+  <si>
+    <t>JP;;US</t>
+  </si>
+  <si>
+    <t>JP;;KR;;CN;;EP</t>
+  </si>
+  <si>
+    <t>KR;;EP;;CN;;JP;;US</t>
+  </si>
+  <si>
+    <t>KR;;CA;;EP;;CN;;JP</t>
+  </si>
+  <si>
+    <t>CN;;US;;TW</t>
+  </si>
+  <si>
+    <t>CA;;AU;;KR;;EP</t>
+  </si>
+  <si>
+    <t>KR;;CA;;AU;;EP;;CN;;JP</t>
+  </si>
+  <si>
+    <t>GB;;JP;;CN;;DE</t>
+  </si>
+  <si>
+    <t>KR;;CA;;AU;;EP;;SG;;WO;;CN;;JP;;US</t>
+  </si>
+  <si>
+    <t>ZA;;RU;;KR;;CA;;AU;;IL;;EP;;WO;;CN;;TW;;JP;;US</t>
+  </si>
+  <si>
+    <t>KR;;CA;;AU;;EP;;WO;;CN;;JP;;US</t>
+  </si>
+  <si>
+    <t>KR;;AU;;EP;;US;;CA;;CN;;JP;;SG;;WO</t>
+  </si>
+  <si>
+    <t>US;;CN;;DE;;JP;;WO;;GB</t>
+  </si>
+  <si>
+    <t>WO;;US;;EP</t>
+  </si>
+  <si>
+    <t>US;;CN;;EP</t>
+  </si>
+  <si>
+    <t>KR;;AU;;EP;;US;;CA;;CN;;JP;;WO</t>
+  </si>
+  <si>
+    <t>WO;;CA;;US;;EP</t>
+  </si>
+  <si>
+    <t>WO;;US;;EP;;TW</t>
+  </si>
+  <si>
+    <t>WO;;CA;;KR;;US</t>
+  </si>
+  <si>
+    <t>KR;;AU;;EP;;US;;CA;;WO</t>
+  </si>
+  <si>
+    <t>WO;;KR;;CN;;US</t>
+  </si>
+  <si>
+    <t>KR;;US;;EP;;TW;;CN;;JP;;WO</t>
+  </si>
+  <si>
+    <t>WO;;CN;;US;;EP</t>
+  </si>
+  <si>
+    <t>KR;;EP;;US;;CA;;CN;;JP</t>
+  </si>
+  <si>
+    <t>US;;EP</t>
+  </si>
+  <si>
+    <t>WO;;EP;;FR</t>
+  </si>
+  <si>
+    <t>EP;;TW;;CA;;SG;;WO;;GB</t>
+  </si>
+  <si>
+    <t>US;;KR;;EP</t>
   </si>
   <si>
     <t>WO;;CA</t>
   </si>
   <si>
-    <t>CN;;JP;;US</t>
-  </si>
-  <si>
-    <t>CN;;KR;;JP;;US;;EP;;WO</t>
-  </si>
-  <si>
-    <t>KR</t>
-  </si>
-  <si>
-    <t>CN;;EP</t>
-  </si>
-  <si>
-    <t>JP;;US</t>
-  </si>
-  <si>
-    <t>CN;;KR;;JP;;EP</t>
-  </si>
-  <si>
-    <t>CN;;KR;;JP;;US;;EP</t>
-  </si>
-  <si>
-    <t>CA;;CN;;KR;;JP;;EP</t>
-  </si>
-  <si>
-    <t>CN;;TW;;US</t>
-  </si>
-  <si>
-    <t>EP;;CA;;KR;;AU</t>
-  </si>
-  <si>
-    <t>CA;;CN;;AU;;JP;;EP</t>
-  </si>
-  <si>
-    <t>CA;;AU;;CN;;KR;;JP;;EP</t>
-  </si>
-  <si>
-    <t>CN;;DE;;JP;;GB</t>
-  </si>
-  <si>
-    <t>AU;;CA;;CN;;KR;;JP;;US;;WO;;EP;;SG</t>
-  </si>
-  <si>
-    <t>RU;;AU;;CA;;CN;;KR;;IL;;TW;;JP;;WO;;US;;EP;;ZA</t>
-  </si>
-  <si>
-    <t>AU;;CN;;CA;;KR;;JP;;US;;WO;;EP</t>
-  </si>
-  <si>
-    <t>CN;;CA;;KR;;AU;;EP;;US;;WO;;SG;;JP</t>
-  </si>
-  <si>
-    <t>GB;;CN;;US;;WO;;JP;;DE</t>
-  </si>
-  <si>
-    <t>US;;WO;;EP</t>
-  </si>
-  <si>
-    <t>CN;;US;;EP</t>
-  </si>
-  <si>
-    <t>CN;;CA;;KR;;AU;;EP;;US;;WO;;JP</t>
-  </si>
-  <si>
-    <t>CA;;US;;WO;;EP</t>
-  </si>
-  <si>
-    <t>US;;WO;;EP;;TW</t>
-  </si>
-  <si>
-    <t>CA;;KR;;US;;WO</t>
-  </si>
-  <si>
-    <t>CA;;KR;;AU;;EP;;US;;WO</t>
-  </si>
-  <si>
-    <t>CA;;US;;WO</t>
-  </si>
-  <si>
-    <t>CN;;KR;;US;;WO</t>
-  </si>
-  <si>
-    <t>CN;;KR;;EP;;US;;WO;;JP;;TW</t>
-  </si>
-  <si>
-    <t>CN;;US;;WO;;EP</t>
-  </si>
-  <si>
-    <t>CN;;CA;;KR;;EP;;US;;JP</t>
-  </si>
-  <si>
-    <t>US;;EP</t>
-  </si>
-  <si>
-    <t>FR;;WO;;EP</t>
-  </si>
-  <si>
-    <t>GB;;CA;;EP;;WO;;SG;;TW</t>
-  </si>
-  <si>
-    <t>KR;;US;;EP</t>
-  </si>
-  <si>
-    <t>CA;;WO</t>
-  </si>
-  <si>
-    <t>CN;;KR;;EP;;US;;WO;;JP</t>
-  </si>
-  <si>
-    <t>CN;;KR;;EP;;US;;JP</t>
-  </si>
-  <si>
-    <t>CN;;CA;;KR;;EP;;JP</t>
-  </si>
-  <si>
-    <t>CN;;US;;TW</t>
-  </si>
-  <si>
-    <t>AU;;CA;;KR;;EP</t>
-  </si>
-  <si>
-    <t>ZA;;CN;;CA;;KR;;AU;;EP;;US;;WO;;JP;;IL;;RU;;TW</t>
-  </si>
-  <si>
-    <t>CN;;CA;;KR;;AU;;EP;;JP</t>
-  </si>
-  <si>
-    <t>CN;;GB;;JP;;DE</t>
+    <t>KR;;AU;;US;;EP;;CA;;CN;;JP;;SG;;WO</t>
+  </si>
+  <si>
+    <t>KR;;US;;EP;;CN;;JP;;WO</t>
+  </si>
+  <si>
+    <t>JP;;CN;;KR;;EP</t>
+  </si>
+  <si>
+    <t>KR;;US;;EP;;CN;;JP</t>
+  </si>
+  <si>
+    <t>KR;;EP;;CA;;CN;;JP</t>
+  </si>
+  <si>
+    <t>TW;;CN;;US</t>
+  </si>
+  <si>
+    <t>CA;;KR;;AU;;EP</t>
+  </si>
+  <si>
+    <t>KR;;AU;;IL;;EP;;US;;TW;;CA;;ZA;;CN;;JP;;RU;;WO</t>
+  </si>
+  <si>
+    <t>KR;;AU;;EP;;CA;;CN;;JP</t>
+  </si>
+  <si>
+    <t>JP;;CN;;GB;;DE</t>
   </si>
   <si>
     <t>FR</t>
@@ -655,37 +655,34 @@
     <t>RU</t>
   </si>
   <si>
+    <t>US;;IB</t>
+  </si>
+  <si>
+    <t>CA;;AU;;US</t>
+  </si>
+  <si>
     <t>IB;;US</t>
   </si>
   <si>
-    <t>CA;;US;;AU</t>
-  </si>
-  <si>
-    <t>US;;IB</t>
-  </si>
-  <si>
-    <t>US;;AU</t>
-  </si>
-  <si>
     <t>CA;;US</t>
   </si>
   <si>
-    <t>IL;;US</t>
-  </si>
-  <si>
-    <t>FR;;EP</t>
-  </si>
-  <si>
-    <t>ラミ・バレントス;;CASTRILLO SERGIO BOIXO;;グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;SMELYANSKIY VADIM;;구글 엘엘씨;;GOOGLE INC;;NEVEN HARTMUT;;グーグル エルエルシー;;BARENDS RAMI;;GOOGLE LLC;;NIU YUEZHEN</t>
-  </si>
-  <si>
-    <t>IBM;;インターナショナル・ビジネス・マシーンズ・コーポレーションＩＮＴＥＲＮＡＴＩＯＮＡＬ ＢＵＳＩＮＥＳＳ ＭＡＣＨＩＮＥＳ ＣＯＲＰＯＲＡＴＩＯＮ;;IBM (CHINA) INVEST COMPANY LTD;;IBM UK;;国际商业机器公司</t>
+    <t>US;;IL</t>
+  </si>
+  <si>
+    <t>EP;;FR</t>
+  </si>
+  <si>
+    <t>NIU YUEZHEN;;SMELYANSKIY VADIM;;GOOGLE INC;;CASTRILLO SERGIO BOIXO;;ラミ・バレントス;;BARENDS RAMI;;구글 엘엘씨;;GOOGLE LLC;;グーグル エルエルシー;;グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;NEVEN HARTMUT</t>
+  </si>
+  <si>
+    <t>インターナショナル・ビジネス・マシーンズ・コーポレーションＩＮＴＥＲＮＡＴＩＯＮＡＬ ＢＵＳＩＮＥＳＳ ＭＡＣＨＩＮＥＳ ＣＯＲＰＯＲＡＴＩＯＮ;;IBM (CHINA) INVEST COMPANY LTD;;国际商业机器公司;;IBM;;IBM UK</t>
   </si>
   <si>
     <t>D WAVE SYSTEMS INC;;YARKONI SHEIR</t>
   </si>
   <si>
-    <t>中国科学院微电子研究所;;INST MICROELECTRONICS CAS;;INST OF MICROELECTRONICS CAS</t>
+    <t>INST MICROELECTRONICS CAS;;INST OF MICROELECTRONICS CAS;;中国科学院微电子研究所</t>
   </si>
   <si>
     <t>킨디 인코포레이티드;;KYNDI INC;;キンダイ、インコーポレイテッドＫＹＮＤＩ， ＩＮＣ．</t>
@@ -694,49 +691,46 @@
     <t>CATALOG TECH INC;;CATALOG TECHNOLOGIES INC</t>
   </si>
   <si>
-    <t>TIPTON THOMAS ANDREW;;DUNST MICHAEL J;;MOLINSKY BRADLEY DEAN;;HARTFORD FIRE INSURANCE COMP;;CARROLL WILLIAM JOSEPH;;BATTAGLINI JOSEPH S</t>
-  </si>
-  <si>
-    <t>ラム リサーチ コーポレーションＬＡＭ ＲＥＳＥＡＲＣＨ ＣＯＲＰＯＲＡＴＩＯＮ;;LAM RES CORP</t>
-  </si>
-  <si>
-    <t>微软技术许可有限责任公司;;MICROSOFT TECHNOLOGY LICENSING LLC</t>
-  </si>
-  <si>
-    <t>IRIDIA INC;;イリディア・インコーポレイテッドＩｒｉｄｉａ， Ｉｎｃ．;;DODO OMNIDATA INC</t>
-  </si>
-  <si>
-    <t>IBM;;IBM (CHINA) INVEST COMPANY LTD;;IBM UK</t>
-  </si>
-  <si>
-    <t>IRIDIA INC;;DODO OMNIDATA INC</t>
-  </si>
-  <si>
-    <t>YARKONI SHEIR;;D-WAVE SYSTEMS INC</t>
-  </si>
-  <si>
-    <t>UNIV LEUVEN KATH;;IMEC VZW;;KATHOLIEKE UNIV LEUVEN KU LEUVEN RESEARCH &amp; DEVELOPMENT</t>
+    <t>CARROLL WILLIAM JOSEPH;;MOLINSKY BRADLEY DEAN;;TIPTON THOMAS ANDREW;;BATTAGLINI JOSEPH S;;HARTFORD FIRE INSURANCE COMP;;DUNST MICHAEL J</t>
+  </si>
+  <si>
+    <t>LAM RES CORP;;ラム リサーチ コーポレーションＬＡＭ ＲＥＳＥＡＲＣＨ ＣＯＲＰＯＲＡＴＩＯＮ</t>
+  </si>
+  <si>
+    <t>MICROSOFT TECHNOLOGY LICENSING LLC;;微软技术许可有限责任公司</t>
+  </si>
+  <si>
+    <t>イリディア・インコーポレイテッドＩｒｉｄｉａ， Ｉｎｃ．;;DODO OMNIDATA INC;;IRIDIA INC</t>
+  </si>
+  <si>
+    <t>IBM (CHINA) INVEST COMPANY LTD;;IBM UK;;IBM</t>
+  </si>
+  <si>
+    <t>DODO OMNIDATA INC;;IRIDIA INC</t>
+  </si>
+  <si>
+    <t>D-WAVE SYSTEMS INC;;YARKONI SHEIR</t>
+  </si>
+  <si>
+    <t>KATHOLIEKE UNIV LEUVEN KU LEUVEN RESEARCH &amp; DEVELOPMENT;;IMEC VZW;;UNIV LEUVEN KATH</t>
   </si>
   <si>
     <t>서울시립대학교 산학협력단;;UNIV SEOUL IND COOP FOUND</t>
   </si>
   <si>
-    <t>D WAVE SYSTEMS INC;;D-WAVE SYSTEMS INC;;YARKONI SHEIR</t>
-  </si>
-  <si>
-    <t>ラミ・バレントス;;グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;구글 엘엘씨;;GOOGLE INC;;グーグル エルエルシー;;BARENDS RAMI;;GOOGLE LLC</t>
-  </si>
-  <si>
-    <t>FOSTNER SHAWN;;BOSE SAURABH KUMAR;;BROWN SIMON ANTHONY;;ザ ユニバーシティー オブ カンタベリー;;THE UNIV OF CANTERBURY</t>
+    <t>D-WAVE SYSTEMS INC;;D WAVE SYSTEMS INC;;YARKONI SHEIR</t>
+  </si>
+  <si>
+    <t>GOOGLE INC;;ラミ・バレントス;;BARENDS RAMI;;구글 엘엘씨;;GOOGLE LLC;;グーグル エルエルシー;;グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ</t>
+  </si>
+  <si>
+    <t>ザ ユニバーシティー オブ カンタベリー;;BOSE SAURABH KUMAR;;FOSTNER SHAWN;;THE UNIV OF CANTERBURY;;BROWN SIMON ANTHONY</t>
   </si>
   <si>
     <t>UNIV SOGANG RES FOUNDATION;;서강대학교산학협력단</t>
   </si>
   <si>
-    <t>UNIV SOUTHEAST;;东南大学</t>
-  </si>
-  <si>
-    <t>MICROSOFT TECHNOLOGY LICENSING LLC;;微软技术许可有限责任公司</t>
+    <t>东南大学;;UNIV SOUTHEAST</t>
   </si>
   <si>
     <t>株式会社日立製作所;;HITACHI LTD</t>
@@ -745,13 +739,13 @@
     <t>UNIV ELECTRONIC SCI &amp; TECH CHINA;;电子科技大学</t>
   </si>
   <si>
-    <t>UNIV INDUSTRY COOPERATION GROUP KYUNG HEE UNIV;;경희대학교 산학협력단</t>
+    <t>경희대학교 산학협력단;;UNIV INDUSTRY COOPERATION GROUP KYUNG HEE UNIV</t>
   </si>
   <si>
     <t>THE UNIV OF CANTERBURY;;ザ ユニバーシティー オブ カンタベリー</t>
   </si>
   <si>
-    <t>IRIDIA INC;;イリディア・インコーポレイテッドＩｒｉｄｉａ， Ｉｎｃ．</t>
+    <t>イリディア・インコーポレイテッドＩｒｉｄｉａ， Ｉｎｃ．;;IRIDIA INC</t>
   </si>
   <si>
     <t>ICLEAGUE TECH CO LTD;;YANGTZE DELTA REGION INST TSINGHUA UNIV ZHEJIANG</t>
@@ -760,136 +754,133 @@
     <t>한양대학교 산학협력단;;IUCF HYU</t>
   </si>
   <si>
-    <t>TAIWAN SEMICONDUCTOR MFG;;TAIWAN SEMICONDUCTOR MFG CO LTD</t>
-  </si>
-  <si>
-    <t>CASTRILLO SERGIO BOIXO;;グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;SMELYANSKIY VADIM;;GOOGLE INC;;NEVEN HARTMUT;;グーグル エルエルシー;;GOOGLE LLC;;NIU YUEZHEN</t>
-  </si>
-  <si>
-    <t>SMIRNOV SERGEY;;OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD;;SMIRNOV SERGEY NIIKOLAYEVICH;;LANDIGRAD LLC;;LANDIGRAD LIMITED LIABILITY COMPANY;;SMIRNOV SERGEY NIKOLAYEVICH;;LANDIGRAD LTD LIABILITY CO;;스미르노브, 세르게이 니콜라예비치;;란디그레드, 리미티드 라이어빌리티 컴퍼니</t>
-  </si>
-  <si>
-    <t>SMIRNOV SERGEY;;OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD;;SMIRNOV SERGEY NIIKOLAYEVICH;;LANDIGRAD LLC;;LANDIGRAD LIMITED LIABILITY COMPANY;;SMIRNOV SERGEY NIKOLAYEVICH;;스미르노브, 세르게이 니콜라예비치;;LANDIGRAD LTD LIABILITY CO;;란디그레드, 리미티드 라이어빌리티 컴퍼니</t>
-  </si>
-  <si>
-    <t>IBM;;インターナショナル・ビジネス・マシーンズ・コーポレーションＩＮＴＥＲＮＡＴＩＯＮＡＬ ＢＵＳＩＮＥＳＳ ＭＡＣＨＩＮＥＳ ＣＯＲＰＯＲＡＴＩＯＮ;;国际商业机器公司</t>
-  </si>
-  <si>
-    <t>LANDIGRAD LLC;;란디그레드, 리미티드 라이어빌리티 컴퍼니;;SMIRNOV SERGEY NIKOLAYEVICH;;스미르노브, 세르게이 니콜라예비치</t>
-  </si>
-  <si>
-    <t>BROWN SIMON ANTHONY;;FOSTNER SHAWN;;THE UNIV OF CANTERBURY;;BOSE SAURABH KUMAR</t>
-  </si>
-  <si>
-    <t>ラミ・バレントス;;구글 엘엘씨;;GOOGLE INC;;グーグル エルエルシー;;BARENDS RAMI;;GOOGLE LLC</t>
-  </si>
-  <si>
-    <t>SMIRNOV SERGEY;;OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD;;SMIRNOV SERGEY NIIKOLAYEVICH;;LANDIGRAD LLC;;LANDIGRAD LIMITED LIABILITY COMPANY;;SMIRNOV SERGEY NIKOLAYEVICH;;LANDIGRAD LTD LIABILITY CO</t>
-  </si>
-  <si>
-    <t>CASTRILLO SERGIO BOIXO;;グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;SMELYANSKIY VADIM;;GOOGLE INC;;NEVEN HARTMUT;;GOOGLE LLC;;NIU YUEZHEN</t>
+    <t>TAIWAN SEMICONDUCTOR MFG CO LTD;;TAIWAN SEMICONDUCTOR MFG</t>
+  </si>
+  <si>
+    <t>NIU YUEZHEN;;SMELYANSKIY VADIM;;GOOGLE INC;;CASTRILLO SERGIO BOIXO;;GOOGLE LLC;;グーグル エルエルシー;;グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;NEVEN HARTMUT</t>
+  </si>
+  <si>
+    <t>SMIRNOV SERGEY;;LANDIGRAD LLC;;LANDIGRAD LTD LIABILITY CO;;스미르노브, 세르게이 니콜라예비치;;란디그레드, 리미티드 라이어빌리티 컴퍼니;;SMIRNOV SERGEY NIKOLAYEVICH;;OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD;;LANDIGRAD LIMITED LIABILITY COMPANY;;SMIRNOV SERGEY NIIKOLAYEVICH</t>
+  </si>
+  <si>
+    <t>インターナショナル・ビジネス・マシーンズ・コーポレーションＩＮＴＥＲＮＡＴＩＯＮＡＬ ＢＵＳＩＮＥＳＳ ＭＡＣＨＩＮＥＳ ＣＯＲＰＯＲＡＴＩＯＮ;;IBM;;国际商业机器公司</t>
+  </si>
+  <si>
+    <t>스미르노브, 세르게이 니콜라예비치;;란디그레드, 리미티드 라이어빌리티 컴퍼니;;SMIRNOV SERGEY NIKOLAYEVICH;;LANDIGRAD LLC</t>
+  </si>
+  <si>
+    <t>BOSE SAURABH KUMAR;;THE UNIV OF CANTERBURY;;FOSTNER SHAWN;;BROWN SIMON ANTHONY</t>
+  </si>
+  <si>
+    <t>GOOGLE INC;;ラミ・バレントス;;BARENDS RAMI;;구글 엘엘씨;;GOOGLE LLC;;グーグル エルエルシー</t>
+  </si>
+  <si>
+    <t>SMIRNOV SERGEY;;LANDIGRAD LLC;;LANDIGRAD LTD LIABILITY CO;;OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD;;SMIRNOV SERGEY NIKOLAYEVICH;;LANDIGRAD LIMITED LIABILITY COMPANY;;SMIRNOV SERGEY NIIKOLAYEVICH</t>
+  </si>
+  <si>
+    <t>NIU YUEZHEN;;SMELYANSKIY VADIM;;GOOGLE INC;;CASTRILLO SERGIO BOIXO;;GOOGLE LLC;;グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;NEVEN HARTMUT</t>
   </si>
   <si>
     <t>ASKER MICHAEL ALBERT;;MAXIM GEORGE ADRIAN;;LEIPOLD DIRK ROBERT WALTER</t>
   </si>
   <si>
-    <t>NEVEN HELMUT;;ラミ・バレントス;;FARHI EDWARD HENRY;;エドワード・ヘンリー・ファーリ;;CASTRILLO SERGIO BOIXO;;セルジオ・バイショ・カストリージョ;;BOIXO CASTRILLO SERGIO;;ユエゼン・ニウ;;ヴァディム・スメリャンスキー;;ハルトムート・ネーフェン;;SMELYANSKIY VADIM;;바엔즈 라미;;NEVEN HARTMUT;;ライアン・バブシュ;;ハルトムート・ネーヴェン;;BARENDS RAMI;;NIU YUEZHEN;;BABBUSH RYAN</t>
-  </si>
-  <si>
-    <t>ANDO TAKASHI;;DOUGLAS TEMPLETON MCCLURE III;;LIU PENG;;FARO SERTAGE ISMAEL;;BISHOP LEV SAMUEL;;HASHEMI POUYA;;J·加姆贝塔;;PRISCO JOSEPH F;;NEUMAN-HORN DEBRA A;;PHAN ANNA;;ガンベッタ、ジェイ;;MATTHIAS STEFFEN;;GAMBETTA JAY M;;PRZYBYLSKI KEVIN J;;MCCLURE III DOUGLAS T;;REZNICEK ALEXANDER;;DIAL OLIVER;;MARTIN FERNANDEZ FRANCISCO JOSE;;OLIVADESE SALVATORE;;LEE CHOONGHYUN;;KUCZYNSKI JOSEPH;;JAVADIABHARI ALI;;ZHANG JINGYUN;;HEKMATSHOARTABARI BAHMAN;;ステファン、マティアス;;OLIVADESE SALVATORE BERNARDO;;CORCOLES-GONZALEZ ANTONIO;;PISTOIA MARCO;;MISGEN MARVIN M;;NANNICINI GIACOMO;;MCCLURE III DOUGLAS TEMPLETON;;PHAN ANNA T;;STEFFEN MATTHIAS;;JAY GAMBETTA;;OLIVER DIAL;;CHEN RICHARD;;TEMME PAUL KRISTAN;;マクルーア ザ サード、ダグラス、テンプルトン;;ダイアル、オリバー;;M·斯蒂芬;;GREENBERG DON;;D·T·麦克鲁尔三世;;O·蒂亚尔;;GAMBETTA JAY;;BISHOP LEV;;TEMME PAUL</t>
-  </si>
-  <si>
-    <t>SMITH ROBERT STANLEY;;SETE EYOB;;ZENG WILLIAM J;;DAVIS ERIK JOSEPH;;CURTIS MICHAEL;;PETERSON ERIC CHRISTOPHER;;OSBORN CHRISTOPHER BUTLER;;HEIDEL STEVEN;;ALAM MUHAMMAD SOHAIB;;ZENG WILLIAM;;SETE EYOB A;;TEZAK NIKOLAS ANTON;;RUST MICHAEL;;DESAI ANAND;;JONES GLENN;;LYNCH ADAM DAVID;;KARALEKAS PETER JONATHAN;;CURTIS MICHAEL J;;RIGETTI CHAD TYLER;;WILSON CHRISTOPHER MOGAN;;REAGOR MATTHEW J;;DA SILVA MARCUS PALMER;;MCKIERNAN KERI ANN;;JOHNSON BLAKE ROBERT</t>
-  </si>
-  <si>
-    <t>XUE YANBO;;LANTING TREVOR MICHAEL;;BOOTHBY THOMAS J;;ROLFE JASON;;ANDRIYASH EVGENY A;;KING ANDREW DOUGLAS;;ANDRIYASH EVGENY;;AMIN MOHAMMAD H;;BOOTHBY KELLY T R;;MACREADY WILLIAM G;;AMIN MOHAMMAD H S;;YARKONI SHEIR</t>
-  </si>
-  <si>
-    <t>朱慧珑;;WANG GUILEI;;ZHANG YANBO;;HENRY H ADAMSON;;ZHU HUILONG;;RADAMSON HENRY H;;王桂磊;;亨利·H·阿达姆松;;朱正勇;;张严波;;ZHU ZHENGYONG</t>
+    <t>NEVEN HELMUT;;NIU YUEZHEN;;BOIXO CASTRILLO SERGIO;;ハルトムート・ネーヴェン;;바엔즈 라미;;FARHI EDWARD HENRY;;SMELYANSKIY VADIM;;ユエゼン・ニウ;;CASTRILLO SERGIO BOIXO;;ラミ・バレントス;;BARENDS RAMI;;ライアン・バブシュ;;エドワード・ヘンリー・ファーリ;;BABBUSH RYAN;;ハルトムート・ネーフェン;;ヴァディム・スメリャンスキー;;NEVEN HARTMUT;;セルジオ・バイショ・カストリージョ</t>
+  </si>
+  <si>
+    <t>LEE CHOONGHYUN;;NANNICINI GIACOMO;;TEMME PAUL;;GAMBETTA JAY M;;MISGEN MARVIN M;;OLIVADESE SALVATORE;;マクルーア ザ サード、ダグラス、テンプルトン;;MARTIN FERNANDEZ FRANCISCO JOSE;;KUCZYNSKI JOSEPH;;MATTHIAS STEFFEN;;DIAL OLIVER;;CHEN RICHARD;;ガンベッタ、ジェイ;;J·加姆贝塔;;PRZYBYLSKI KEVIN J;;HEKMATSHOARTABARI BAHMAN;;ANDO TAKASHI;;ZHANG JINGYUN;;MCCLURE III DOUGLAS TEMPLETON;;O·蒂亚尔;;GAMBETTA JAY;;OLIVADESE SALVATORE BERNARDO;;PHAN ANNA T;;TEMME PAUL KRISTAN;;MCCLURE III DOUGLAS T;;PRISCO JOSEPH F;;JAVADIABHARI ALI;;M·斯蒂芬;;OLIVER DIAL;;ダイアル、オリバー;;PHAN ANNA;;FARO SERTAGE ISMAEL;;HASHEMI POUYA;;STEFFEN MATTHIAS;;REZNICEK ALEXANDER;;DOUGLAS TEMPLETON MCCLURE III;;ステファン、マティアス;;LIU PENG;;BISHOP LEV;;D·T·麦克鲁尔三世;;GREENBERG DON;;CORCOLES-GONZALEZ ANTONIO;;NEUMAN-HORN DEBRA A;;PISTOIA MARCO;;JAY GAMBETTA;;BISHOP LEV SAMUEL</t>
+  </si>
+  <si>
+    <t>REAGOR MATTHEW J;;MCKIERNAN KERI ANN;;RIGETTI CHAD TYLER;;DESAI ANAND;;DAVIS ERIK JOSEPH;;JONES GLENN;;SETE EYOB A;;TEZAK NIKOLAS ANTON;;ZENG WILLIAM J;;ALAM MUHAMMAD SOHAIB;;KARALEKAS PETER JONATHAN;;CURTIS MICHAEL J;;RUST MICHAEL;;JOHNSON BLAKE ROBERT;;WILSON CHRISTOPHER MOGAN;;LYNCH ADAM DAVID;;OSBORN CHRISTOPHER BUTLER;;HEIDEL STEVEN;;SMITH ROBERT STANLEY;;DA SILVA MARCUS PALMER;;PETERSON ERIC CHRISTOPHER;;ZENG WILLIAM;;SETE EYOB;;CURTIS MICHAEL</t>
+  </si>
+  <si>
+    <t>ROLFE JASON;;ANDRIYASH EVGENY;;BOOTHBY THOMAS J;;KING ANDREW DOUGLAS;;XUE YANBO;;MACREADY WILLIAM G;;AMIN MOHAMMAD H;;ANDRIYASH EVGENY A;;YARKONI SHEIR;;BOOTHBY KELLY T R;;AMIN MOHAMMAD H S;;LANTING TREVOR MICHAEL</t>
+  </si>
+  <si>
+    <t>ZHU HUILONG;;亨利·H·阿达姆松;;朱正勇;;HENRY H ADAMSON;;RADAMSON HENRY H;;WANG GUILEI;;ZHANG YANBO;;王桂磊;;张严波;;朱慧珑;;ZHU ZHENGYONG</t>
   </si>
   <si>
     <t>アルン、マジュムダール;;MAJUMDAR ARUN;;마줌다 아룬</t>
   </si>
   <si>
-    <t>MASILAMANI ASHOK PRABHU;;GOULD MATTHEW;;MASILAMANI ASHOK;;GOULD MATTHEW V;;GAHROOSI AMIR;;GAHROOSI AMIR BAHADOR;;KHOMAMI ABADI MOJTABA</t>
-  </si>
-  <si>
-    <t>SIGNAEVSKY MAXIM;;SIGNAEVSKI MAXIM M;;YAROSLAVSKY IGOR;;YAROSLAVSKY IGOR YEHUDA</t>
-  </si>
-  <si>
-    <t>WOLKOW ROBERT A;;LIVADARU LUCIAN;;RASHIDI MOHAMMAD;;RETALLICK JACOB;;CROSHAW JEREMIAH;;VINE WYATT;;WALUS CONRAD;;HUFF TALEANA;;WALUS KONRAD;;WOLKOW ROBERT;;DIENEL THOMAS</t>
-  </si>
-  <si>
-    <t>EVANS RUFFIN E;;SUKACHEV DENIS;;SIPAHIGIL ALP;;LUKIN MIKHAIL;;CHOI SOONWON;;ZHOU LEO;;ZHOU LEO XIANGYU;;NGUYEN CHRISTIAN THIEU;;BHASKAR MIHIR;;LUKIN MIKHAIL D;;SUKACHEV DENIS D;;WANG SHENGTAO;;PICHLER HANNES;;EVANS RUFFIN;;LUNKIN MIKHAIL;;BHASKAR MIHIR KESHAV;;NGUYEN CHRISTIAN</t>
-  </si>
-  <si>
-    <t>ROQUET NATHANIEL;;BHATIA SWAPNIL P;;LEAKE DEVIN;;BHATIA SWAPNIL;;PARK HYUNJUN</t>
-  </si>
-  <si>
-    <t>TIPTON THOMAS ANDREW;;DUNST MICHAEL J;;MOLINSKY BRADLEY DEAN;;CARROLL WILLIAM JOSEPH;;BATTAGLINI JOSEPH S</t>
+    <t>GOULD MATTHEW;;GAHROOSI AMIR;;MASILAMANI ASHOK PRABHU;;GAHROOSI AMIR BAHADOR;;KHOMAMI ABADI MOJTABA;;MASILAMANI ASHOK;;GOULD MATTHEW V</t>
+  </si>
+  <si>
+    <t>SIGNAEVSKI MAXIM M;;YAROSLAVSKY IGOR YEHUDA;;YAROSLAVSKY IGOR;;SIGNAEVSKY MAXIM</t>
+  </si>
+  <si>
+    <t>DIENEL THOMAS;;WALUS KONRAD;;LIVADARU LUCIAN;;RASHIDI MOHAMMAD;;HUFF TALEANA;;WOLKOW ROBERT A;;RETALLICK JACOB;;CROSHAW JEREMIAH;;WOLKOW ROBERT;;WALUS CONRAD;;VINE WYATT</t>
+  </si>
+  <si>
+    <t>SIPAHIGIL ALP;;WANG SHENGTAO;;LUKIN MIKHAIL;;ZHOU LEO;;EVANS RUFFIN E;;EVANS RUFFIN;;CHOI SOONWON;;SUKACHEV DENIS D;;PICHLER HANNES;;NGUYEN CHRISTIAN THIEU;;SUKACHEV DENIS;;BHASKAR MIHIR;;LUNKIN MIKHAIL;;BHASKAR MIHIR KESHAV;;ZHOU LEO XIANGYU;;LUKIN MIKHAIL D;;NGUYEN CHRISTIAN</t>
+  </si>
+  <si>
+    <t>PARK HYUNJUN;;LEAKE DEVIN;;BHATIA SWAPNIL;;ROQUET NATHANIEL;;BHATIA SWAPNIL P</t>
+  </si>
+  <si>
+    <t>CARROLL WILLIAM JOSEPH;;MOLINSKY BRADLEY DEAN;;TIPTON THOMAS ANDREW;;BATTAGLINI JOSEPH S;;DUNST MICHAEL J</t>
   </si>
   <si>
     <t>KAPIT ELIOT</t>
   </si>
   <si>
-    <t>LIM DOO-HYEOK;;CHO JIN SUN;;KIM SANG SIG;;WOO SOL A;;PARK YOUNG SOO;;PARK YOUNG-SOO;;CHO JIN-SUN;;WOO SOL-A;;SOHN IL KWON;;HEO JUN;;CHO KYOUNG-AH;;KIM SANG-SIK;;LIM DOO HYEOK;;CHO KYOUNG AH</t>
-  </si>
-  <si>
-    <t>グーハ・ジョイディープ;;VAHEDI VAHID;;GUHA JOYDEEP;;ダウガティ・ジョン;;バヘディ・バヘド;;ゴットショ・リチャード・アラン;;DAUGHERTY JOHN;;GOTTSCHO RICHARD ALAN</t>
-  </si>
-  <si>
-    <t>GAMBLE IV JOHN KING;;W·陈;;K·施特劳斯;;STRAUSS KARIN;;GAMBLE JOHN KING;;KOHLL ALEXANDER XAVIER CHRISTOF;;B·H·阮;;CHEN WEIDA;;NGUYEN BICHLIEN HOANG;;GRANADE CHRISTOPHER EVAN;;GRASS ROBERT;;A·X·C·科尔;;WIEBE NATHAN O;;R·格拉斯</t>
-  </si>
-  <si>
-    <t>PREDKI PAUL F;;マジャ・キャシディ;;ポール・エフ・プレドキ;;CASSIDY MAJA</t>
-  </si>
-  <si>
-    <t>NAGLER ACHIYA;;WOLF LIOR;;ARIELI URI;;MALKIEL ITZIK;;MREJEN MICHAEL;;SUCHOWSKI HAIM</t>
-  </si>
-  <si>
-    <t>ZHANG LIHONG;;NABAVI SEYEDFAKHREDDIN</t>
-  </si>
-  <si>
-    <t>JOHNSON PETER D;;DALLAIRE-DEMERS PIERRE-LUC;;GONTHIER JEROME FLORIAN;;KATABARWA AMARA;;CAO YUDONG;;ANSCHUETZ ERIC R</t>
-  </si>
-  <si>
-    <t>MCFARLAND KIRSTY;;HUANG HAIYAO;;MARKOVIC STACEY;;MAGYAR ANDREW;;MCFARLAND KIRSTY A;;KOTZ KENNETH;;FRANK IAN;;ROSENBERGER ERIN;;SPRACHMAN MELISSA;;BYRNES STEVEN J;;CAVANAGH PETER;;KOTZ KENNETH T;;FAVALORA GREGG E;;SPRACHMAN MELISSA M;;DUBAY RYAN;;FAVALORA GREGG;;FRANK IAN WARD;;BYRNES STEVEN;;VARGO EMMA;;MAGYAR ANDREW P;;DUBAY RYAN A</t>
+    <t>WOO SOL A;;WOO SOL-A;;PARK YOUNG SOO;;CHO KYOUNG-AH;;HEO JUN;;LIM DOO-HYEOK;;KIM SANG SIG;;CHO KYOUNG AH;;CHO JIN SUN;;PARK YOUNG-SOO;;CHO JIN-SUN;;SOHN IL KWON;;KIM SANG-SIK;;LIM DOO HYEOK</t>
+  </si>
+  <si>
+    <t>GUHA JOYDEEP;;GOTTSCHO RICHARD ALAN;;グーハ・ジョイディープ;;VAHEDI VAHID;;バヘディ・バヘド;;DAUGHERTY JOHN;;ゴットショ・リチャード・アラン;;ダウガティ・ジョン</t>
+  </si>
+  <si>
+    <t>WIEBE NATHAN O;;STRAUSS KARIN;;CHEN WEIDA;;R·格拉斯;;KOHLL ALEXANDER XAVIER CHRISTOF;;W·陈;;GAMBLE IV JOHN KING;;GRASS ROBERT;;A·X·C·科尔;;GRANADE CHRISTOPHER EVAN;;K·施特劳斯;;GAMBLE JOHN KING;;NGUYEN BICHLIEN HOANG;;B·H·阮</t>
+  </si>
+  <si>
+    <t>CASSIDY MAJA;;PREDKI PAUL F;;マジャ・キャシディ;;ポール・エフ・プレドキ</t>
+  </si>
+  <si>
+    <t>NAGLER ACHIYA;;SUCHOWSKI HAIM;;MREJEN MICHAEL;;MALKIEL ITZIK;;ARIELI URI;;WOLF LIOR</t>
+  </si>
+  <si>
+    <t>NABAVI SEYEDFAKHREDDIN;;ZHANG LIHONG</t>
+  </si>
+  <si>
+    <t>KATABARWA AMARA;;DALLAIRE-DEMERS PIERRE-LUC;;JOHNSON PETER D;;ANSCHUETZ ERIC R;;GONTHIER JEROME FLORIAN;;CAO YUDONG</t>
+  </si>
+  <si>
+    <t>MAGYAR ANDREW;;KOTZ KENNETH;;ROSENBERGER ERIN;;BYRNES STEVEN J;;KOTZ KENNETH T;;FAVALORA GREGG E;;MCFARLAND KIRSTY A;;MAGYAR ANDREW P;;MCFARLAND KIRSTY;;SPRACHMAN MELISSA M;;HUANG HAIYAO;;FAVALORA GREGG;;FRANK IAN;;DUBAY RYAN;;SPRACHMAN MELISSA;;DUBAY RYAN A;;BYRNES STEVEN;;FRANK IAN WARD;;CAVANAGH PETER;;VARGO EMMA;;MARKOVIC STACEY</t>
   </si>
   <si>
     <t>YOUNGNER DANIEL</t>
   </si>
   <si>
-    <t>GUILLOU DAVID;;SINHA RAJARISHI;;GUILLOU DAVID FRANCOIS</t>
-  </si>
-  <si>
-    <t>LANDIS STEPHAN;;CONSTANCIAS CHRISTOPHE;;LANDIS STÉPHAN</t>
+    <t>GUILLOU DAVID FRANCOIS;;GUILLOU DAVID;;SINHA RAJARISHI</t>
+  </si>
+  <si>
+    <t>CONSTANCIAS CHRISTOPHE;;LANDIS STÉPHAN;;LANDIS STEPHAN</t>
   </si>
   <si>
     <t>RAQUEL MARIA SANCHES-KUIPER;;HAYES MATTHEW JAMES;;SANCHES-KUIPER RAQUEL MARIA;;MATTHEW JAMES HAYES</t>
   </si>
   <si>
-    <t>BISHOP LEV SAMUEL;;PHAN ANNA;;GAMBETTA JAY M;;MCCLURE III DOUGLAS T;;DIAL OLIVER;;OLIVADESE SALVATORE;;OLIVADESE SALVATORE BERNARDO;;CORCOLES-GONZALEZ ANTONIO;;MCCLURE III DOUGLAS TEMPLETON;;PISTOIA MARCO;;NANNICINI GIACOMO;;PHAN ANNA T;;STEFFEN MATTHIAS;;CHEN RICHARD;;TEMME PAUL KRISTAN;;GREENBERG DON;;GAMBETTA JAY;;BISHOP LEV;;TEMME PAUL</t>
-  </si>
-  <si>
-    <t>朱慧珑;;WANG GUILEI;;HENRY H ADAMSON;;ZHANG YANBO;;ZHU HUILONG;;王桂磊;;亨利·H·阿达姆松;;朱正勇;;张严波;;ZHU ZHENGYONG</t>
-  </si>
-  <si>
-    <t>PREDKI PAUL F;;CASSIDY MAJA</t>
-  </si>
-  <si>
-    <t>LANTING TREVOR MICHAEL;;BOOTHBY THOMAS J;;ROLFE JASON;;ANDRIYASH EVGENY A;;KING ANDREW DOUGLAS;;ANDRIYASH EVGENY;;AMIN MOHAMMAD H;;AMIN MOHAMMAD H S;;YARKONI SHEIR</t>
-  </si>
-  <si>
-    <t>COSTA JOSE DIOGO;;CHEN CHANG;;STAKENBORG TIM;;CAI QING;;COVENS KRIS;;FAUVART MAARTEN;;CIUBOTARU FLORIN;;ADELMANN HANNS CHRISTOPH</t>
+    <t>TEMME PAUL;;NANNICINI GIACOMO;;GAMBETTA JAY M;;OLIVADESE SALVATORE;;DIAL OLIVER;;CHEN RICHARD;;MCCLURE III DOUGLAS TEMPLETON;;GAMBETTA JAY;;OLIVADESE SALVATORE BERNARDO;;PHAN ANNA T;;TEMME PAUL KRISTAN;;MCCLURE III DOUGLAS T;;PHAN ANNA;;STEFFEN MATTHIAS;;BISHOP LEV;;GREENBERG DON;;CORCOLES-GONZALEZ ANTONIO;;PISTOIA MARCO;;BISHOP LEV SAMUEL</t>
+  </si>
+  <si>
+    <t>ZHU HUILONG;;亨利·H·阿达姆松;;朱正勇;;HENRY H ADAMSON;;WANG GUILEI;;ZHANG YANBO;;王桂磊;;张严波;;朱慧珑;;ZHU ZHENGYONG</t>
+  </si>
+  <si>
+    <t>CASSIDY MAJA;;PREDKI PAUL F</t>
+  </si>
+  <si>
+    <t>ROLFE JASON;;ANDRIYASH EVGENY;;BOOTHBY THOMAS J;;KING ANDREW DOUGLAS;;AMIN MOHAMMAD H;;ANDRIYASH EVGENY A;;YARKONI SHEIR;;AMIN MOHAMMAD H S;;LANTING TREVOR MICHAEL</t>
+  </si>
+  <si>
+    <t>ADELMANN HANNS CHRISTOPH;;CHEN CHANG;;STAKENBORG TIM;;COVENS KRIS;;COSTA JOSE DIOGO;;CIUBOTARU FLORIN;;CAI QING;;FAUVART MAARTEN</t>
   </si>
   <si>
     <t>TRESP VOLKER;;MA YUNPU</t>
   </si>
   <si>
-    <t>LAWRIE BENJAMIN J;;POOSER RAPHAEL C;;MAKSYMOVYCH PETRO</t>
-  </si>
-  <si>
-    <t>DANIEL RAMEZ;;RIZIK LUNA</t>
+    <t>LAWRIE BENJAMIN J;;MAKSYMOVYCH PETRO;;POOSER RAPHAEL C</t>
+  </si>
+  <si>
+    <t>RIZIK LUNA;;DANIEL RAMEZ</t>
   </si>
   <si>
     <t>MILENKOVIC OLGICA;;GABRYS RYAN;;YAZDI S M HOSSEIN TABATABAEI</t>
@@ -901,148 +892,145 @@
     <t>GHOSH TAPABRATA</t>
   </si>
   <si>
-    <t>WANG YUNBO;;ZHU YU;;CHENG RUNHONG;;GAO JUNXIONG;;ZHOU WENLI;;WU SHUO;;CHEN CHANGSHENG</t>
-  </si>
-  <si>
-    <t>YAN XIAOBING;;WANG KAIYANG;;REN DELIANG</t>
-  </si>
-  <si>
-    <t>KONDASH COREY R;;SLINKER KEITH;;MAGAR KAMAN THAPA;;BAUR JEFFREY W;;PANKONIEN ALEXANDER M;;REICH GREGORY W;;DICKINSON BENJAMIN T</t>
+    <t>WANG YUNBO;;ZHOU WENLI;;ZHU YU;;CHEN CHANGSHENG;;WU SHUO;;CHENG RUNHONG;;GAO JUNXIONG</t>
+  </si>
+  <si>
+    <t>YAN XIAOBING;;REN DELIANG;;WANG KAIYANG</t>
+  </si>
+  <si>
+    <t>BAUR JEFFREY W;;KONDASH COREY R;;SLINKER KEITH;;DICKINSON BENJAMIN T;;MAGAR KAMAN THAPA;;PANKONIEN ALEXANDER M;;REICH GREGORY W</t>
   </si>
   <si>
     <t>NIVALA JEFFREY MATTHEW</t>
   </si>
   <si>
-    <t>WANG ZEHONG;;CHEN YIXIANG;;WANG WEI;;YU DAN</t>
-  </si>
-  <si>
-    <t>HERSAM MARK C;;LEE HONG-SUB;;SANGWAN VINOD K</t>
-  </si>
-  <si>
-    <t>FONG KIN CHUNG;;SIU MAN-HUNG;;JIANG ZHUOLIN</t>
-  </si>
-  <si>
-    <t>KORTEN TILL;;DIEZ STEFAN;;MANSSON ALF;;TAKATSUKI HIDEYO;;REUTHER CORDULA</t>
+    <t>WANG ZEHONG;;WANG WEI;;CHEN YIXIANG;;YU DAN</t>
+  </si>
+  <si>
+    <t>SANGWAN VINOD K;;LEE HONG-SUB;;HERSAM MARK C</t>
+  </si>
+  <si>
+    <t>JIANG ZHUOLIN;;FONG KIN CHUNG;;SIU MAN-HUNG</t>
+  </si>
+  <si>
+    <t>TAKATSUKI HIDEYO;;REUTHER CORDULA;;KORTEN TILL;;DIEZ STEFAN;;MANSSON ALF</t>
   </si>
   <si>
     <t>TAN WEE CHONG;;ANG KAH-WEE</t>
   </si>
   <si>
-    <t>LIANG RENRONG;;ZHAO LINYUAN;;LIU YU;;XU JUN</t>
+    <t>ZHAO LINYUAN;;LIU YU;;XU JUN;;LIANG RENRONG</t>
   </si>
   <si>
     <t>CHODAVARAPU VAMSY;;AGGARWAL PRIYANKA</t>
   </si>
   <si>
-    <t>CHOI YONG-SOO;;HEO KEUN;;LEE HYUNG-DONG;;CHOI YONG SOO;;LEE HYUNG DONG</t>
-  </si>
-  <si>
-    <t>YANG JIANHUA;;MCLEAN MARK;;XIA QIANGFEI;;WU QING</t>
-  </si>
-  <si>
-    <t>LANTING TREVOR MICHAEL;;BOOTHBY THOMAS J;;ANDRIYASH EVGENY A;;KING ANDREW DOUGLAS;;AMIN MOHAMMAD H;;BOOTHBY KELLY T R;;YARKONI SHEIR</t>
-  </si>
-  <si>
-    <t>WU JIAN;;ZHANG XIANGCHENG</t>
+    <t>CHOI YONG SOO;;LEE HYUNG DONG;;LEE HYUNG-DONG;;HEO KEUN;;CHOI YONG-SOO</t>
+  </si>
+  <si>
+    <t>XIA QIANGFEI;;WU QING;;YANG JIANHUA;;MCLEAN MARK</t>
+  </si>
+  <si>
+    <t>KING ANDREW DOUGLAS;;BOOTHBY THOMAS J;;AMIN MOHAMMAD H;;ANDRIYASH EVGENY A;;YARKONI SHEIR;;BOOTHBY KELLY T R;;LANTING TREVOR MICHAEL</t>
+  </si>
+  <si>
+    <t>ZHANG XIANGCHENG;;WU JIAN</t>
   </si>
   <si>
     <t>ZORNES DAVID</t>
   </si>
   <si>
-    <t>Huilong Zhu;;Zhengyong Zhu</t>
-  </si>
-  <si>
-    <t>NIKONOV DMITRI E;;YOUNG IAN A;;MANIPATRUNI SASIKANTH</t>
+    <t>Zhengyong Zhu;;Huilong Zhu</t>
+  </si>
+  <si>
+    <t>MANIPATRUNI SASIKANTH;;NIKONOV DMITRI E;;YOUNG IAN A</t>
   </si>
   <si>
     <t>ZHU HUILONG</t>
   </si>
   <si>
-    <t>ラミ・バレントス;;エドワード・ヘンリー・ファーリ;;FARHI EDWARD HENRY;;바엔즈 라미;;NEVEN HARTMUT;;ハルトムート・ネーヴェン;;ライアン・バブシュ;;BARENDS RAMI;;BABBUSH RYAN</t>
-  </si>
-  <si>
-    <t>MAHMOUDI MORTEZA;;FAROKHZAD OMID;;CORBO CLAUDIA</t>
-  </si>
-  <si>
-    <t>WANG GANG;;KAPOOR ANMOL SINGH;;BHAT SUMRITA;;VASTAREY NIKHIL SURESH;;SALAHANDISH RAZIEH;;WANG GANG (A K A JOSEPH);;KOUL RAMAN</t>
+    <t>ハルトムート・ネーヴェン;;바엔즈 라미;;FARHI EDWARD HENRY;;ラミ・バレントス;;ライアン・バブシュ;;エドワード・ヘンリー・ファーリ;;BARENDS RAMI;;BABBUSH RYAN;;NEVEN HARTMUT</t>
+  </si>
+  <si>
+    <t>CORBO CLAUDIA;;FAROKHZAD OMID;;MAHMOUDI MORTEZA</t>
+  </si>
+  <si>
+    <t>KOUL RAMAN;;VASTAREY NIKHIL SURESH;;KAPOOR ANMOL SINGH;;SALAHANDISH RAZIEH;;BHAT SUMRITA;;WANG GANG;;WANG GANG (A K A JOSEPH)</t>
   </si>
   <si>
     <t>SHIMA SHOHEI</t>
   </si>
   <si>
-    <t>RAMPRASAD RAMPI;;CHANDRASEKARAN ANAND;;KIM CHIHO</t>
-  </si>
-  <si>
-    <t>ラミ・バレントス;;BOIXO CASTRILLO SERGIO;;ハルトムート・ネーフェン;;CASTRILLO SERGIO BOIXO;;セルジオ・バイショ・カストリージョ;;ユエゼン・ニウ;;ヴァディム・スメリャンスキー;;SMELYANSKIY VADIM;;바엔즈 라미;;NEVEN HARTMUT;;BARENDS RAMI;;NIU YUEZHEN;;BABBUSH RYAN</t>
-  </si>
-  <si>
-    <t>ボーズ サウラブ クマー;;FOSTNER SHAWN;;BOSE SAURABH KUMAR;;BROWN SIMON ANTHONY;;ブラウン シモン アンソニー;;フォスナー ショーン</t>
-  </si>
-  <si>
-    <t>정용호;;최정우;;CHOI JEONG WOO;;CHUNG YONG HO</t>
-  </si>
-  <si>
-    <t>ZHANG HUI;;李源;;LI YUAN;;张辉;;张晋;;ZHANG JIN;;幸研;;XING YAN</t>
-  </si>
-  <si>
-    <t>W·陈;;K·施特劳斯;;STRAUSS KARIN;;KOHLL ALEXANDER XAVIER CHRISTOF;;B·H·阮;;CHEN WEIDA;;NGUYEN BICHLIEN HOANG;;GRASS ROBERT;;A·X·C·科尔;;R·格拉斯</t>
+    <t>KIM CHIHO;;RAMPRASAD RAMPI;;CHANDRASEKARAN ANAND</t>
+  </si>
+  <si>
+    <t>NIU YUEZHEN;;BOIXO CASTRILLO SERGIO;;바엔즈 라미;;SMELYANSKIY VADIM;;ユエゼン・ニウ;;CASTRILLO SERGIO BOIXO;;ラミ・バレントス;;BARENDS RAMI;;BABBUSH RYAN;;ハルトムート・ネーフェン;;ヴァディム・スメリャンスキー;;NEVEN HARTMUT;;セルジオ・バイショ・カストリージョ</t>
+  </si>
+  <si>
+    <t>ブラウン シモン アンソニー;;BOSE SAURABH KUMAR;;FOSTNER SHAWN;;フォスナー ショーン;;ボーズ サウラブ クマー;;BROWN SIMON ANTHONY</t>
+  </si>
+  <si>
+    <t>CHUNG YONG HO;;최정우;;CHOI JEONG WOO;;정용호</t>
+  </si>
+  <si>
+    <t>XING YAN;;幸研;;张辉;;李源;;ZHANG HUI;;张晋;;ZHANG JIN;;LI YUAN</t>
+  </si>
+  <si>
+    <t>STRAUSS KARIN;;CHEN WEIDA;;R·格拉斯;;W·陈;;KOHLL ALEXANDER XAVIER CHRISTOF;;GRASS ROBERT;;A·X·C·科尔;;K·施特劳斯;;NGUYEN BICHLIEN HOANG;;B·H·阮</t>
   </si>
   <si>
     <t>新海 剛;;SHINKAI GOU</t>
   </si>
   <si>
-    <t>GU DE'EN;;钟豪;;CHEN YICHENG;;蒋亚东;;LI WEI;;李东阳;;李伟;;ZHONG HAO;;顾德恩;;GU DEEN;;LI DONGYANG;;陈奕丞;;JIANG YADONG</t>
-  </si>
-  <si>
-    <t>신현동;;SHIN HYUN DONG;;파쿼 아마드;;정영민;;JEONG YOUNG MIN;;FAROOQ AHMAD</t>
-  </si>
-  <si>
-    <t>PREDKI PAUL F;;マジャ・キャシディ;;CASSIDY MAJA;;ポール・エフ・プレドキ</t>
+    <t>JIANG YADONG;;顾德恩;;GU DEEN;;钟豪;;ZHONG HAO;;陈奕丞;;LI DONGYANG;;CHEN YICHENG;;GU DE'EN;;蒋亚东;;LI WEI;;李伟;;李东阳</t>
+  </si>
+  <si>
+    <t>파쿼 아마드;;JEONG YOUNG MIN;;FAROOQ AHMAD;;정영민;;SHIN HYUN DONG;;신현동</t>
   </si>
   <si>
     <t>JIANG WEINAN;;YU XING</t>
   </si>
   <si>
-    <t>하키우;;KIM JIN BAE;;김진배;;YOON TAE HYUN;;HA KIEU MY;;TRINH XUAN TUNG;;트린수안텅;;윤태현</t>
-  </si>
-  <si>
-    <t>MAURICIO MANFRINI;;GERBEN DOORNBOS;;VAN DAL MARCUS JOHANNES HENRICUS;;MANFRINI MAURICIO;;MARCUS JOHANNES HENRICUS VAN DAL;;DOORNBOS GERBEN</t>
+    <t>YOON TAE HYUN;;하키우;;HA KIEU MY;;김진배;;윤태현;;트린수안텅;;TRINH XUAN TUNG;;KIM JIN BAE</t>
+  </si>
+  <si>
+    <t>DOORNBOS GERBEN;;VAN DAL MARCUS JOHANNES HENRICUS;;MARCUS JOHANNES HENRICUS VAN DAL;;MAURICIO MANFRINI;;MANFRINI MAURICIO;;GERBEN DOORNBOS</t>
   </si>
   <si>
     <t>BHATIA SWAPNIL P;;PARK HYUNJUN;;ROQUET NATHANIEL;;LEAKE DEVIN</t>
   </si>
   <si>
-    <t>FARHI EDWARD HENRY;;エドワード・ヘンリー・ファーリ;;CASTRILLO SERGIO BOIXO;;セルジオ・バイショ・カストリージョ;;BOIXO CASTRILLO SERGIO;;ユエゼン・ニウ;;ヴァディム・スメリャンスキー;;ハルトムート・ネーフェン;;SMELYANSKIY VADIM;;NEVEN HARTMUT;;ハルトムート・ネーヴェン;;NIU YUEZHEN</t>
-  </si>
-  <si>
-    <t>SMIRNOV SERGEJ NIKOLAEVICH;;스미르노브, 세르게이 니콜라예비치;;SMIRNOV SERGEY NIKOLAYEVICH;;SMIRNOV SERGEY NIIKOLAYEVICH</t>
-  </si>
-  <si>
-    <t>SMIRNOV SERGEJ NIKOLAEVICH;;SMIRNOV SERGEY NIIKOLAYEVICH;;SMIRNOV SERGEY NIKOLAYEVICH;;스미르노브, 세르게이 니콜라예비치</t>
+    <t>NIU YUEZHEN;;BOIXO CASTRILLO SERGIO;;ハルトムート・ネーヴェン;;FARHI EDWARD HENRY;;SMELYANSKIY VADIM;;ユエゼン・ニウ;;CASTRILLO SERGIO BOIXO;;エドワード・ヘンリー・ファーリ;;ハルトムート・ネーフェン;;ヴァディム・スメリャンスキー;;NEVEN HARTMUT;;セルジオ・バイショ・カストリージョ</t>
+  </si>
+  <si>
+    <t>SMIRNOV SERGEJ NIKOLAEVICH;;스미르노브, 세르게이 니콜라예비치;;SMIRNOV SERGEY NIIKOLAYEVICH;;SMIRNOV SERGEY NIKOLAYEVICH</t>
   </si>
   <si>
     <t>ADELMANN HANNS CHRISTOPH;;COSTA JOSE DIOGO;;CIUBOTARU FLORIN</t>
   </si>
   <si>
-    <t>MCCLURE III DOUGLAS T;;DIAL OLIVER;;MCCLURE III DOUGLAS TEMPLETON;;GAMBETTA JAY;;STEFFEN MATTHIAS;;GAMBETTA JAY M</t>
-  </si>
-  <si>
-    <t>DOUGLAS TEMPLETON MCCLURE III;;ステファン、マティアス;;J·加姆贝塔;;マクルーア ザ サード、ダグラス、テンプルトン;;ダイアル、オリバー;;M·斯蒂芬;;DIAL OLIVER;;MCCLURE III DOUGLAS TEMPLETON;;D·T·麦克鲁尔三世;;O·蒂亚尔;;ガンベッタ、ジェイ;;GAMBETTA JAY;;STEFFEN MATTHIAS;;JAY GAMBETTA;;MATTHIAS STEFFEN;;OLIVER DIAL</t>
-  </si>
-  <si>
-    <t>SMIRNOV SERGEY NIKOLAYEVICH;;스미르노브, 세르게이 니콜라예비치</t>
-  </si>
-  <si>
-    <t>BROWN SIMON ANTHONY;;FOSTNER SHAWN;;BOSE SAURABH KUMAR</t>
+    <t>GAMBETTA JAY M;;MCCLURE III DOUGLAS T;;MCCLURE III DOUGLAS TEMPLETON;;DIAL OLIVER;;GAMBETTA JAY;;STEFFEN MATTHIAS</t>
+  </si>
+  <si>
+    <t>ステファン、マティアス;;D·T·麦克鲁尔三世;;マクルーア ザ サード、ダグラス、テンプルトン;;MATTHIAS STEFFEN;;M·斯蒂芬;;MCCLURE III DOUGLAS TEMPLETON;;OLIVER DIAL;;ダイアル、オリバー;;DIAL OLIVER;;JAY GAMBETTA;;ガンベッタ、ジェイ;;O·蒂亚尔;;GAMBETTA JAY;;STEFFEN MATTHIAS;;J·加姆贝塔;;DOUGLAS TEMPLETON MCCLURE III</t>
+  </si>
+  <si>
+    <t>朱正勇;;亨利·H·阿达姆松;;ZHU HUILONG;;HENRY H ADAMSON;;WANG GUILEI;;ZHANG YANBO;;王桂磊;;张严波;;朱慧珑;;ZHU ZHENGYONG</t>
+  </si>
+  <si>
+    <t>스미르노브, 세르게이 니콜라예비치;;SMIRNOV SERGEY NIKOLAYEVICH</t>
+  </si>
+  <si>
+    <t>BOSE SAURABH KUMAR;;FOSTNER SHAWN;;BROWN SIMON ANTHONY</t>
   </si>
   <si>
     <t>ラミ・バレントス;;BARENDS RAMI;;바엔즈 라미</t>
   </si>
   <si>
-    <t>SMIRNOV SERGEJ NIKOLAEVICH;;SMIRNOV SERGEY NIKOLAYEVICH;;SMIRNOV SERGEY NIIKOLAYEVICH</t>
-  </si>
-  <si>
-    <t>BOIXO CASTRILLO SERGIO;;ハルトムート・ネーフェン;;CASTRILLO SERGIO BOIXO;;セルジオ・バイショ・カストリージョ;;ユエゼン・ニウ;;ヴァディム・スメリャンスキー;;SMELYANSKIY VADIM;;NEVEN HARTMUT;;NIU YUEZHEN</t>
+    <t>SMIRNOV SERGEJ NIKOLAEVICH;;SMIRNOV SERGEY NIIKOLAYEVICH;;SMIRNOV SERGEY NIKOLAYEVICH</t>
+  </si>
+  <si>
+    <t>NIU YUEZHEN;;BOIXO CASTRILLO SERGIO;;NEVEN HARTMUT;;SMELYANSKIY VADIM;;ユエゼン・ニウ;;CASTRILLO SERGIO BOIXO;;ハルトムート・ネーフェン;;ヴァディム・スメリャンスキー;;セルジオ・バイショ・カストリージョ</t>
   </si>
 </sst>
 </file>
@@ -1542,7 +1530,7 @@
         <v>29</v>
       </c>
       <c r="R2" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="S2" t="b">
         <v>0</v>
@@ -1607,7 +1595,7 @@
         <v>149</v>
       </c>
       <c r="J3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K3" t="s">
         <v>148</v>
@@ -1628,10 +1616,10 @@
         <v>6</v>
       </c>
       <c r="Q3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="R3" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="S3" t="b">
         <v>0</v>
@@ -1696,7 +1684,7 @@
         <v>148</v>
       </c>
       <c r="J4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K4" t="s">
         <v>148</v>
@@ -1717,10 +1705,10 @@
         <v>5</v>
       </c>
       <c r="Q4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="R4" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="S4" t="b">
         <v>0</v>
@@ -1785,7 +1773,7 @@
         <v>150</v>
       </c>
       <c r="J5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K5" t="s">
         <v>148</v>
@@ -1809,7 +1797,7 @@
         <v>32</v>
       </c>
       <c r="R5" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="S5" t="b">
         <v>0</v>
@@ -1874,7 +1862,7 @@
         <v>148</v>
       </c>
       <c r="J6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K6" t="s">
         <v>148</v>
@@ -1895,10 +1883,10 @@
         <v>2</v>
       </c>
       <c r="Q6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="R6" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="S6" t="b">
         <v>0</v>
@@ -1951,7 +1939,7 @@
         <v>4.152294121129596</v>
       </c>
       <c r="F7">
-        <v>0.9252161911539538</v>
+        <v>0.925216191153954</v>
       </c>
       <c r="G7">
         <v>6.807893293974177</v>
@@ -1984,10 +1972,10 @@
         <v>2</v>
       </c>
       <c r="Q7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="R7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="S7" t="b">
         <v>0</v>
@@ -2028,7 +2016,7 @@
         <v>35</v>
       </c>
       <c r="B8">
-        <v>4.333333333333333</v>
+        <v>4.333333333333334</v>
       </c>
       <c r="C8">
         <v>5</v>
@@ -2040,7 +2028,7 @@
         <v>1.781512605042017</v>
       </c>
       <c r="F8">
-        <v>0.7876372766401462</v>
+        <v>0.7876372766401459</v>
       </c>
       <c r="G8">
         <v>1.877367770637667</v>
@@ -2052,13 +2040,13 @@
         <v>149</v>
       </c>
       <c r="J8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K8" t="s">
         <v>148</v>
       </c>
       <c r="L8" t="s">
-        <v>216</v>
+        <v>149</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -2073,16 +2061,16 @@
         <v>3</v>
       </c>
       <c r="Q8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="R8" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="S8" t="b">
         <v>0</v>
       </c>
       <c r="T8">
-        <v>4.333333333333333</v>
+        <v>4.333333333333334</v>
       </c>
       <c r="U8">
         <v>0</v>
@@ -2135,7 +2123,7 @@
         <v>148</v>
       </c>
       <c r="J9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K9" t="s">
         <v>148</v>
@@ -2159,7 +2147,7 @@
         <v>36</v>
       </c>
       <c r="R9" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="S9" t="b">
         <v>0</v>
@@ -2224,7 +2212,7 @@
         <v>148</v>
       </c>
       <c r="J10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K10" t="s">
         <v>148</v>
@@ -2248,7 +2236,7 @@
         <v>37</v>
       </c>
       <c r="R10" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="S10" t="b">
         <v>0</v>
@@ -2307,13 +2295,13 @@
         <v>150</v>
       </c>
       <c r="J11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K11" t="s">
         <v>148</v>
       </c>
       <c r="L11" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -2331,7 +2319,7 @@
         <v>38</v>
       </c>
       <c r="R11" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="S11" t="b">
         <v>0</v>
@@ -2390,7 +2378,7 @@
         <v>150</v>
       </c>
       <c r="J12" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K12" t="s">
         <v>148</v>
@@ -2414,7 +2402,7 @@
         <v>39</v>
       </c>
       <c r="R12" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="S12" t="b">
         <v>0</v>
@@ -2473,7 +2461,7 @@
         <v>148</v>
       </c>
       <c r="J13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K13" t="s">
         <v>148</v>
@@ -2494,10 +2482,10 @@
         <v>0</v>
       </c>
       <c r="Q13" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="R13" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="S13" t="b">
         <v>0</v>
@@ -2583,10 +2571,10 @@
         <v>3</v>
       </c>
       <c r="Q14" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="R14" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="S14" t="b">
         <v>0</v>
@@ -2734,7 +2722,7 @@
         <v>151</v>
       </c>
       <c r="J16" t="s">
-        <v>188</v>
+        <v>151</v>
       </c>
       <c r="K16" t="s">
         <v>148</v>
@@ -2758,7 +2746,7 @@
         <v>43</v>
       </c>
       <c r="R16" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="S16" t="b">
         <v>0</v>
@@ -2823,7 +2811,7 @@
         <v>152</v>
       </c>
       <c r="J17" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K17" t="s">
         <v>165</v>
@@ -2847,7 +2835,7 @@
         <v>44</v>
       </c>
       <c r="R17" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="S17" t="b">
         <v>0</v>
@@ -2912,7 +2900,7 @@
         <v>148</v>
       </c>
       <c r="J18" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="K18" t="s">
         <v>148</v>
@@ -2933,10 +2921,10 @@
         <v>2</v>
       </c>
       <c r="Q18" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="R18" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="S18" t="b">
         <v>0</v>
@@ -2986,7 +2974,7 @@
         <v>14</v>
       </c>
       <c r="F19">
-        <v>1.047526829268292</v>
+        <v>1.047526829268293</v>
       </c>
       <c r="H19">
         <v>4.666666666666667</v>
@@ -2995,7 +2983,7 @@
         <v>153</v>
       </c>
       <c r="J19" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K19" t="s">
         <v>148</v>
@@ -3016,10 +3004,10 @@
         <v>0</v>
       </c>
       <c r="Q19" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="R19" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="S19" t="b">
         <v>0</v>
@@ -3084,7 +3072,7 @@
         <v>148</v>
       </c>
       <c r="J20" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K20" t="s">
         <v>148</v>
@@ -3105,10 +3093,10 @@
         <v>1</v>
       </c>
       <c r="Q20" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="R20" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="S20" t="b">
         <v>0</v>
@@ -3170,7 +3158,7 @@
         <v>3</v>
       </c>
       <c r="I21" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="J21" t="s">
         <v>153</v>
@@ -3179,7 +3167,7 @@
         <v>148</v>
       </c>
       <c r="L21" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -3197,7 +3185,7 @@
         <v>48</v>
       </c>
       <c r="R21" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="S21" t="b">
         <v>0</v>
@@ -3253,7 +3241,7 @@
         <v>1</v>
       </c>
       <c r="I22" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="J22" t="s">
         <v>153</v>
@@ -3262,7 +3250,7 @@
         <v>148</v>
       </c>
       <c r="L22" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -3280,7 +3268,7 @@
         <v>49</v>
       </c>
       <c r="R22" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="S22" t="b">
         <v>0</v>
@@ -3363,7 +3351,7 @@
         <v>50</v>
       </c>
       <c r="R23" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="S23" t="b">
         <v>0</v>
@@ -3419,7 +3407,7 @@
         <v>10.5</v>
       </c>
       <c r="I24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J24" t="s">
         <v>153</v>
@@ -3446,7 +3434,7 @@
         <v>51</v>
       </c>
       <c r="R24" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="S24" t="b">
         <v>0</v>
@@ -3511,7 +3499,7 @@
         <v>148</v>
       </c>
       <c r="J25" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="K25" t="s">
         <v>148</v>
@@ -3535,7 +3523,7 @@
         <v>52</v>
       </c>
       <c r="R25" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="S25" t="b">
         <v>0</v>
@@ -3597,7 +3585,7 @@
         <v>1.5</v>
       </c>
       <c r="I26" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J26" t="s">
         <v>153</v>
@@ -3624,7 +3612,7 @@
         <v>53</v>
       </c>
       <c r="R26" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="S26" t="b">
         <v>0</v>
@@ -3689,13 +3677,13 @@
         <v>155</v>
       </c>
       <c r="J27" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K27" t="s">
         <v>206</v>
       </c>
       <c r="L27" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="M27">
         <v>0</v>
@@ -3713,7 +3701,7 @@
         <v>54</v>
       </c>
       <c r="R27" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="S27" t="b">
         <v>0</v>
@@ -3778,7 +3766,7 @@
         <v>156</v>
       </c>
       <c r="J28" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K28" t="s">
         <v>207</v>
@@ -3802,7 +3790,7 @@
         <v>55</v>
       </c>
       <c r="R28" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="S28" t="b">
         <v>0</v>
@@ -3888,10 +3876,10 @@
         <v>1</v>
       </c>
       <c r="Q29" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="R29" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="S29" t="b">
         <v>0</v>
@@ -3977,10 +3965,10 @@
         <v>2</v>
       </c>
       <c r="Q30" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="R30" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="S30" t="b">
         <v>0</v>
@@ -4042,7 +4030,7 @@
         <v>1</v>
       </c>
       <c r="I31" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J31" t="s">
         <v>153</v>
@@ -4066,10 +4054,10 @@
         <v>1</v>
       </c>
       <c r="Q31" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="R31" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="S31" t="b">
         <v>0</v>
@@ -4155,10 +4143,10 @@
         <v>2</v>
       </c>
       <c r="Q32" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="R32" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="S32" t="b">
         <v>0</v>
@@ -4217,7 +4205,7 @@
         <v>158</v>
       </c>
       <c r="J33" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="K33" t="s">
         <v>208</v>
@@ -4238,10 +4226,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="R33" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="S33" t="b">
         <v>0</v>
@@ -4324,7 +4312,7 @@
         <v>61</v>
       </c>
       <c r="R34" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="S34" t="b">
         <v>0</v>
@@ -4407,7 +4395,7 @@
         <v>62</v>
       </c>
       <c r="R35" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="S35" t="b">
         <v>0</v>
@@ -4490,7 +4478,7 @@
         <v>63</v>
       </c>
       <c r="R36" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="S36" t="b">
         <v>0</v>
@@ -4573,7 +4561,7 @@
         <v>64</v>
       </c>
       <c r="R37" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="S37" t="b">
         <v>0</v>
@@ -4659,10 +4647,10 @@
         <v>2</v>
       </c>
       <c r="Q38" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="R38" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="S38" t="b">
         <v>0</v>
@@ -4745,7 +4733,7 @@
         <v>66</v>
       </c>
       <c r="R39" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="S39" t="b">
         <v>0</v>
@@ -4828,7 +4816,7 @@
         <v>67</v>
       </c>
       <c r="R40" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="S40" t="b">
         <v>0</v>
@@ -4911,7 +4899,7 @@
         <v>68</v>
       </c>
       <c r="R41" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="S41" t="b">
         <v>0</v>
@@ -4994,7 +4982,7 @@
         <v>69</v>
       </c>
       <c r="R42" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="S42" t="b">
         <v>0</v>
@@ -5077,7 +5065,7 @@
         <v>70</v>
       </c>
       <c r="R43" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="S43" t="b">
         <v>0</v>
@@ -5160,7 +5148,7 @@
         <v>71</v>
       </c>
       <c r="R44" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="S44" t="b">
         <v>0</v>
@@ -5243,7 +5231,7 @@
         <v>72</v>
       </c>
       <c r="R45" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="S45" t="b">
         <v>0</v>
@@ -5326,7 +5314,7 @@
         <v>73</v>
       </c>
       <c r="R46" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="S46" t="b">
         <v>0</v>
@@ -5415,7 +5403,7 @@
         <v>74</v>
       </c>
       <c r="R47" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="S47" t="b">
         <v>0</v>
@@ -5498,7 +5486,7 @@
         <v>75</v>
       </c>
       <c r="R48" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="S48" t="b">
         <v>0</v>
@@ -5581,7 +5569,7 @@
         <v>76</v>
       </c>
       <c r="R49" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="S49" t="b">
         <v>0</v>
@@ -5664,7 +5652,7 @@
         <v>77</v>
       </c>
       <c r="R50" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="S50" t="b">
         <v>0</v>
@@ -5753,7 +5741,7 @@
         <v>78</v>
       </c>
       <c r="R51" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="S51" t="b">
         <v>0</v>
@@ -5836,7 +5824,7 @@
         <v>79</v>
       </c>
       <c r="R52" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="S52" t="b">
         <v>0</v>
@@ -5922,10 +5910,10 @@
         <v>1</v>
       </c>
       <c r="Q53" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="R53" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="S53" t="b">
         <v>1</v>
@@ -6008,7 +5996,7 @@
         <v>81</v>
       </c>
       <c r="R54" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="S54" t="b">
         <v>0</v>
@@ -6091,7 +6079,7 @@
         <v>82</v>
       </c>
       <c r="R55" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="S55" t="b">
         <v>0</v>
@@ -6174,7 +6162,7 @@
         <v>83</v>
       </c>
       <c r="R56" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="S56" t="b">
         <v>0</v>
@@ -6260,10 +6248,10 @@
         <v>2</v>
       </c>
       <c r="Q57" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="R57" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="S57" t="b">
         <v>0</v>
@@ -6352,7 +6340,7 @@
         <v>85</v>
       </c>
       <c r="R58" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="S58" t="b">
         <v>0</v>
@@ -6435,7 +6423,7 @@
         <v>86</v>
       </c>
       <c r="R59" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="S59" t="b">
         <v>0</v>
@@ -6500,7 +6488,7 @@
         <v>161</v>
       </c>
       <c r="J60" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K60" t="s">
         <v>148</v>
@@ -6521,10 +6509,10 @@
         <v>3</v>
       </c>
       <c r="Q60" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="R60" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="S60" t="b">
         <v>0</v>
@@ -6607,7 +6595,7 @@
         <v>88</v>
       </c>
       <c r="R61" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="S61" t="b">
         <v>0</v>
@@ -6666,7 +6654,7 @@
         <v>162</v>
       </c>
       <c r="J62" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K62" t="s">
         <v>148</v>
@@ -6690,7 +6678,7 @@
         <v>89</v>
       </c>
       <c r="R62" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="S62" t="b">
         <v>0</v>
@@ -6773,7 +6761,7 @@
         <v>90</v>
       </c>
       <c r="R63" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="S63" t="b">
         <v>0</v>
@@ -6856,7 +6844,7 @@
         <v>91</v>
       </c>
       <c r="R64" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="S64" t="b">
         <v>0</v>
@@ -6921,7 +6909,7 @@
         <v>153</v>
       </c>
       <c r="J65" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="K65" t="s">
         <v>148</v>
@@ -6942,10 +6930,10 @@
         <v>2</v>
       </c>
       <c r="Q65" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="R65" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="S65" t="b">
         <v>0</v>
@@ -7010,7 +6998,7 @@
         <v>164</v>
       </c>
       <c r="J66" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K66" t="s">
         <v>211</v>
@@ -7031,10 +7019,10 @@
         <v>2</v>
       </c>
       <c r="Q66" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="R66" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="S66" t="b">
         <v>0</v>
@@ -7120,10 +7108,10 @@
         <v>1</v>
       </c>
       <c r="Q67" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="R67" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="S67" t="b">
         <v>0</v>
@@ -7209,10 +7197,10 @@
         <v>1</v>
       </c>
       <c r="Q68" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="R68" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="S68" t="b">
         <v>0</v>
@@ -7298,10 +7286,10 @@
         <v>1</v>
       </c>
       <c r="Q69" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="R69" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="S69" t="b">
         <v>0</v>
@@ -7381,10 +7369,10 @@
         <v>0</v>
       </c>
       <c r="Q70" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="R70" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="S70" t="b">
         <v>0</v>
@@ -7464,10 +7452,10 @@
         <v>0</v>
       </c>
       <c r="Q71" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="R71" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="S71" t="b">
         <v>0</v>
@@ -7553,10 +7541,10 @@
         <v>1</v>
       </c>
       <c r="Q72" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="R72" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="S72" t="b">
         <v>0</v>
@@ -7636,10 +7624,10 @@
         <v>0</v>
       </c>
       <c r="Q73" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="R73" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="S73" t="b">
         <v>0</v>
@@ -7698,7 +7686,7 @@
         <v>168</v>
       </c>
       <c r="J74" t="s">
-        <v>168</v>
+        <v>198</v>
       </c>
       <c r="K74" t="s">
         <v>148</v>
@@ -7719,10 +7707,10 @@
         <v>0</v>
       </c>
       <c r="Q74" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="R74" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="S74" t="b">
         <v>0</v>
@@ -7808,10 +7796,10 @@
         <v>1</v>
       </c>
       <c r="Q75" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="R75" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="S75" t="b">
         <v>0</v>
@@ -7897,10 +7885,10 @@
         <v>1</v>
       </c>
       <c r="Q76" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="R76" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="S76" t="b">
         <v>0</v>
@@ -7986,10 +7974,10 @@
         <v>1</v>
       </c>
       <c r="Q77" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="R77" t="s">
-        <v>327</v>
+        <v>272</v>
       </c>
       <c r="S77" t="b">
         <v>0</v>
@@ -8069,10 +8057,10 @@
         <v>0</v>
       </c>
       <c r="Q78" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="R78" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="S78" t="b">
         <v>0</v>
@@ -8158,10 +8146,10 @@
         <v>1</v>
       </c>
       <c r="Q79" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="R79" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="S79" t="b">
         <v>0</v>
@@ -8247,10 +8235,10 @@
         <v>1</v>
       </c>
       <c r="Q80" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="R80" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="S80" t="b">
         <v>0</v>
@@ -8336,10 +8324,10 @@
         <v>1</v>
       </c>
       <c r="Q81" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="R81" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="S81" t="b">
         <v>0</v>
@@ -8419,10 +8407,10 @@
         <v>0</v>
       </c>
       <c r="Q82" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="R82" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="S82" t="b">
         <v>0</v>
@@ -8502,10 +8490,10 @@
         <v>0</v>
       </c>
       <c r="Q83" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="R83" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="S83" t="b">
         <v>0</v>
@@ -8585,10 +8573,10 @@
         <v>0</v>
       </c>
       <c r="Q84" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="R84" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="S84" t="b">
         <v>0</v>
@@ -8668,10 +8656,10 @@
         <v>0</v>
       </c>
       <c r="Q85" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="R85" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="S85" t="b">
         <v>0</v>
@@ -8751,10 +8739,10 @@
         <v>0</v>
       </c>
       <c r="Q86" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="R86" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="S86" t="b">
         <v>0</v>
@@ -8834,10 +8822,10 @@
         <v>0</v>
       </c>
       <c r="Q87" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="R87" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="S87" t="b">
         <v>0</v>
@@ -8899,10 +8887,10 @@
         <v>6</v>
       </c>
       <c r="I88" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="J88" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K88" t="s">
         <v>148</v>
@@ -8923,10 +8911,10 @@
         <v>1</v>
       </c>
       <c r="Q88" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="R88" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="S88" t="b">
         <v>0</v>
@@ -9012,10 +9000,10 @@
         <v>1</v>
       </c>
       <c r="Q89" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="R89" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="S89" t="b">
         <v>0</v>
@@ -9101,10 +9089,10 @@
         <v>1</v>
       </c>
       <c r="Q90" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="R90" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="S90" t="b">
         <v>1</v>
@@ -9166,7 +9154,7 @@
         <v>3</v>
       </c>
       <c r="I91" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J91" t="s">
         <v>204</v>
@@ -9190,10 +9178,10 @@
         <v>1</v>
       </c>
       <c r="Q91" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="R91" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="S91" t="b">
         <v>0</v>
@@ -9252,7 +9240,7 @@
         <v>158</v>
       </c>
       <c r="J92" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="K92" t="s">
         <v>208</v>
@@ -9273,10 +9261,10 @@
         <v>0</v>
       </c>
       <c r="Q92" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="R92" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="S92" t="b">
         <v>0</v>
@@ -9362,10 +9350,10 @@
         <v>1</v>
       </c>
       <c r="Q93" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="R93" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="S93" t="b">
         <v>0</v>
@@ -9424,7 +9412,7 @@
         <v>158</v>
       </c>
       <c r="J94" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="K94" t="s">
         <v>208</v>
@@ -9445,10 +9433,10 @@
         <v>0</v>
       </c>
       <c r="Q94" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="R94" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="S94" t="b">
         <v>0</v>
@@ -9510,7 +9498,7 @@
         <v>16</v>
       </c>
       <c r="I95" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J95" t="s">
         <v>205</v>
@@ -9534,10 +9522,10 @@
         <v>1</v>
       </c>
       <c r="Q95" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="R95" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="S95" t="b">
         <v>0</v>
@@ -9599,7 +9587,7 @@
         <v>3</v>
       </c>
       <c r="I96" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J96" t="s">
         <v>204</v>
@@ -9623,10 +9611,10 @@
         <v>1</v>
       </c>
       <c r="Q96" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="R96" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="S96" t="b">
         <v>0</v>
@@ -9712,10 +9700,10 @@
         <v>1</v>
       </c>
       <c r="Q97" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="R97" t="s">
-        <v>285</v>
+        <v>333</v>
       </c>
       <c r="S97" t="b">
         <v>0</v>
@@ -9777,7 +9765,7 @@
         <v>16</v>
       </c>
       <c r="I98" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J98" t="s">
         <v>205</v>
@@ -9801,10 +9789,10 @@
         <v>1</v>
       </c>
       <c r="Q98" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="R98" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="S98" t="b">
         <v>0</v>
@@ -9884,10 +9872,10 @@
         <v>0</v>
       </c>
       <c r="Q99" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="R99" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="S99" t="b">
         <v>1</v>
@@ -9973,10 +9961,10 @@
         <v>1</v>
       </c>
       <c r="Q100" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="R100" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="S100" t="b">
         <v>1</v>
@@ -10062,10 +10050,10 @@
         <v>1</v>
       </c>
       <c r="Q101" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="R101" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="S101" t="b">
         <v>1</v>
@@ -10145,10 +10133,10 @@
         <v>0</v>
       </c>
       <c r="Q102" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="R102" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="S102" t="b">
         <v>0</v>
@@ -10234,10 +10222,10 @@
         <v>1</v>
       </c>
       <c r="Q103" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="R103" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="S103" t="b">
         <v>1</v>
@@ -10323,10 +10311,10 @@
         <v>1</v>
       </c>
       <c r="Q104" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="R104" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="S104" t="b">
         <v>1</v>
@@ -10412,10 +10400,10 @@
         <v>1</v>
       </c>
       <c r="Q105" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="R105" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="S105" t="b">
         <v>1</v>
@@ -10501,10 +10489,10 @@
         <v>1</v>
       </c>
       <c r="Q106" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="R106" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="S106" t="b">
         <v>1</v>
@@ -10566,10 +10554,10 @@
         <v>3</v>
       </c>
       <c r="I107" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J107" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K107" t="s">
         <v>148</v>
@@ -10590,10 +10578,10 @@
         <v>1</v>
       </c>
       <c r="Q107" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="R107" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="S107" t="b">
         <v>0</v>
@@ -10655,10 +10643,10 @@
         <v>3</v>
       </c>
       <c r="I108" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J108" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K108" t="s">
         <v>148</v>
@@ -10679,10 +10667,10 @@
         <v>1</v>
       </c>
       <c r="Q108" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="R108" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="S108" t="b">
         <v>1</v>
@@ -10768,10 +10756,10 @@
         <v>1</v>
       </c>
       <c r="Q109" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="R109" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="S109" t="b">
         <v>1</v>
@@ -10833,10 +10821,10 @@
         <v>3</v>
       </c>
       <c r="I110" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J110" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K110" t="s">
         <v>148</v>
@@ -10857,10 +10845,10 @@
         <v>1</v>
       </c>
       <c r="Q110" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="R110" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="S110" t="b">
         <v>1</v>
@@ -10946,10 +10934,10 @@
         <v>1</v>
       </c>
       <c r="Q111" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="R111" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="S111" t="b">
         <v>1</v>
@@ -11011,7 +10999,7 @@
         <v>3</v>
       </c>
       <c r="I112" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J112" t="s">
         <v>203</v>
@@ -11035,10 +11023,10 @@
         <v>1</v>
       </c>
       <c r="Q112" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="R112" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="S112" t="b">
         <v>0</v>
@@ -11100,7 +11088,7 @@
         <v>3</v>
       </c>
       <c r="I113" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J113" t="s">
         <v>203</v>
@@ -11124,10 +11112,10 @@
         <v>1</v>
       </c>
       <c r="Q113" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="R113" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="S113" t="b">
         <v>0</v>
@@ -11189,7 +11177,7 @@
         <v>3</v>
       </c>
       <c r="I114" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J114" t="s">
         <v>203</v>
@@ -11213,10 +11201,10 @@
         <v>1</v>
       </c>
       <c r="Q114" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="R114" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="S114" t="b">
         <v>1</v>
@@ -11272,10 +11260,10 @@
         <v>9</v>
       </c>
       <c r="I115" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J115" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K115" t="s">
         <v>148</v>
@@ -11296,10 +11284,10 @@
         <v>0</v>
       </c>
       <c r="Q115" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="R115" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="S115" t="b">
         <v>1</v>
@@ -11355,10 +11343,10 @@
         <v>9</v>
       </c>
       <c r="I116" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J116" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K116" t="s">
         <v>148</v>
@@ -11379,10 +11367,10 @@
         <v>0</v>
       </c>
       <c r="Q116" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="R116" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="S116" t="b">
         <v>1</v>
@@ -11444,7 +11432,7 @@
         <v>3</v>
       </c>
       <c r="I117" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J117" t="s">
         <v>203</v>
@@ -11468,10 +11456,10 @@
         <v>1</v>
       </c>
       <c r="Q117" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="R117" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="S117" t="b">
         <v>0</v>
@@ -11527,10 +11515,10 @@
         <v>9</v>
       </c>
       <c r="I118" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J118" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K118" t="s">
         <v>148</v>
@@ -11551,10 +11539,10 @@
         <v>0</v>
       </c>
       <c r="Q118" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="R118" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="S118" t="b">
         <v>1</v>
@@ -11610,10 +11598,10 @@
         <v>9</v>
       </c>
       <c r="I119" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J119" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K119" t="s">
         <v>148</v>
@@ -11634,10 +11622,10 @@
         <v>0</v>
       </c>
       <c r="Q119" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="R119" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="S119" t="b">
         <v>1</v>
@@ -11699,7 +11687,7 @@
         <v>3</v>
       </c>
       <c r="I120" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J120" t="s">
         <v>203</v>
@@ -11723,10 +11711,10 @@
         <v>1</v>
       </c>
       <c r="Q120" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="R120" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="S120" t="b">
         <v>0</v>

--- a/tests/integration/out/ai-and-nanotech-applicants.xlsx
+++ b/tests/integration/out/ai-and-nanotech-applicants.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="342">
   <si>
     <t>Number of Simple Patent Families (Fractionally Counted)</t>
   </si>
@@ -106,12 +106,12 @@
     <t>EQUAL1 LABS INC</t>
   </si>
   <si>
+    <t>IBM</t>
+  </si>
+  <si>
     <t>GOOGLE LLC</t>
   </si>
   <si>
-    <t>IBM</t>
-  </si>
-  <si>
     <t>RIGETTI &amp; CO INC</t>
   </si>
   <si>
@@ -463,12 +463,12 @@
     <t>US</t>
   </si>
   <si>
+    <t>WO</t>
+  </si>
+  <si>
     <t>AU;;US</t>
   </si>
   <si>
-    <t>WO</t>
-  </si>
-  <si>
     <t>WO;;CA;;US</t>
   </si>
   <si>
@@ -550,88 +550,91 @@
     <t>KR;;CA;;AU;;EP;;WO;;CN;;JP;;US</t>
   </si>
   <si>
-    <t>KR;;AU;;EP;;US;;CA;;CN;;JP;;SG;;WO</t>
-  </si>
-  <si>
-    <t>US;;CN;;DE;;JP;;WO;;GB</t>
-  </si>
-  <si>
-    <t>WO;;US;;EP</t>
-  </si>
-  <si>
-    <t>US;;CN;;EP</t>
-  </si>
-  <si>
-    <t>KR;;AU;;EP;;US;;CA;;CN;;JP;;WO</t>
-  </si>
-  <si>
-    <t>WO;;CA;;US;;EP</t>
-  </si>
-  <si>
-    <t>WO;;US;;EP;;TW</t>
-  </si>
-  <si>
-    <t>WO;;CA;;KR;;US</t>
-  </si>
-  <si>
-    <t>KR;;AU;;EP;;US;;CA;;WO</t>
-  </si>
-  <si>
-    <t>WO;;KR;;CN;;US</t>
-  </si>
-  <si>
-    <t>KR;;US;;EP;;TW;;CN;;JP;;WO</t>
-  </si>
-  <si>
-    <t>WO;;CN;;US;;EP</t>
-  </si>
-  <si>
-    <t>KR;;EP;;US;;CA;;CN;;JP</t>
-  </si>
-  <si>
-    <t>US;;EP</t>
-  </si>
-  <si>
-    <t>WO;;EP;;FR</t>
-  </si>
-  <si>
-    <t>EP;;TW;;CA;;SG;;WO;;GB</t>
-  </si>
-  <si>
-    <t>US;;KR;;EP</t>
+    <t>JP;;WO;;GB;;US;;DE;;CN</t>
+  </si>
+  <si>
+    <t>JP;;WO;;AU;;EP;;US;;KR;;SG;;CA;;CN</t>
+  </si>
+  <si>
+    <t>EP;;US;;WO</t>
+  </si>
+  <si>
+    <t>EP;;US;;CN</t>
+  </si>
+  <si>
+    <t>US;;CN</t>
+  </si>
+  <si>
+    <t>JP;;WO;;AU;;EP;;US;;KR;;CA;;CN</t>
+  </si>
+  <si>
+    <t>EP;;US;;WO;;CA</t>
+  </si>
+  <si>
+    <t>EP;;US;;WO;;TW</t>
+  </si>
+  <si>
+    <t>US;;KR;;WO;;CA</t>
+  </si>
+  <si>
+    <t>WO;;AU;;EP;;US;;KR;;CA</t>
+  </si>
+  <si>
+    <t>US;;WO;;CA</t>
+  </si>
+  <si>
+    <t>CN;;US;;WO;;KR</t>
+  </si>
+  <si>
+    <t>JP;;WO;;TW;;EP;;US;;KR;;CN</t>
+  </si>
+  <si>
+    <t>EP;;US;;WO;;CN</t>
+  </si>
+  <si>
+    <t>JP;;EP;;US;;KR;;CA;;CN</t>
+  </si>
+  <si>
+    <t>WO;;GB;;TW;;EP;;SG;;CA</t>
+  </si>
+  <si>
+    <t>EP;;US;;KR</t>
   </si>
   <si>
     <t>WO;;CA</t>
   </si>
   <si>
-    <t>KR;;AU;;US;;EP;;CA;;CN;;JP;;SG;;WO</t>
-  </si>
-  <si>
-    <t>KR;;US;;EP;;CN;;JP;;WO</t>
-  </si>
-  <si>
-    <t>JP;;CN;;KR;;EP</t>
-  </si>
-  <si>
-    <t>KR;;US;;EP;;CN;;JP</t>
-  </si>
-  <si>
-    <t>KR;;EP;;CA;;CN;;JP</t>
-  </si>
-  <si>
-    <t>TW;;CN;;US</t>
-  </si>
-  <si>
-    <t>CA;;KR;;AU;;EP</t>
-  </si>
-  <si>
-    <t>KR;;AU;;IL;;EP;;US;;TW;;CA;;ZA;;CN;;JP;;RU;;WO</t>
-  </si>
-  <si>
-    <t>KR;;AU;;EP;;CA;;CN;;JP</t>
-  </si>
-  <si>
-    <t>JP;;CN;;GB;;DE</t>
+    <t>JP;;US;;CN</t>
+  </si>
+  <si>
+    <t>JP;;WO;;EP;;US;;KR;;CN</t>
+  </si>
+  <si>
+    <t>EP;;CN</t>
+  </si>
+  <si>
+    <t>EP;;JP;;KR;;CN</t>
+  </si>
+  <si>
+    <t>JP;;EP;;US;;KR;;CN</t>
+  </si>
+  <si>
+    <t>JP;;EP;;KR;;CA;;CN</t>
+  </si>
+  <si>
+    <t>US;;TW;;CN</t>
+  </si>
+  <si>
+    <t>EP;;KR;;AU;;CA</t>
+  </si>
+  <si>
+    <t>IL;;JP;;WO;;AU;;RU;;TW;;EP;;US;;KR;;CA;;ZA;;CN</t>
+  </si>
+  <si>
+    <t>JP;;AU;;EP;;KR;;CA;;CN</t>
+  </si>
+  <si>
+    <t>CN;;JP;;DE;;GB</t>
   </si>
   <si>
     <t>FR</t>
@@ -658,73 +661,73 @@
     <t>US;;IB</t>
   </si>
   <si>
-    <t>CA;;AU;;US</t>
-  </si>
-  <si>
-    <t>IB;;US</t>
-  </si>
-  <si>
-    <t>CA;;US</t>
-  </si>
-  <si>
-    <t>US;;IL</t>
+    <t>US;;AU;;CA</t>
+  </si>
+  <si>
+    <t>US;;AU</t>
+  </si>
+  <si>
+    <t>US;;CA</t>
+  </si>
+  <si>
+    <t>IL;;US</t>
   </si>
   <si>
     <t>EP;;FR</t>
   </si>
   <si>
-    <t>NIU YUEZHEN;;SMELYANSKIY VADIM;;GOOGLE INC;;CASTRILLO SERGIO BOIXO;;ラミ・バレントス;;BARENDS RAMI;;구글 엘엘씨;;GOOGLE LLC;;グーグル エルエルシー;;グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;NEVEN HARTMUT</t>
-  </si>
-  <si>
-    <t>インターナショナル・ビジネス・マシーンズ・コーポレーションＩＮＴＥＲＮＡＴＩＯＮＡＬ ＢＵＳＩＮＥＳＳ ＭＡＣＨＩＮＥＳ ＣＯＲＰＯＲＡＴＩＯＮ;;IBM (CHINA) INVEST COMPANY LTD;;国际商业机器公司;;IBM;;IBM UK</t>
+    <t>国际商业机器公司;;インターナショナル・ビジネス・マシーンズ・コーポレーションＩＮＴＥＲＮＡＴＩＯＮＡＬ ＢＵＳＩＮＥＳＳ ＭＡＣＨＩＮＥＳ ＣＯＲＰＯＲＡＴＩＯＮ;;IBM (CHINA) INVEST COMPANY LTD;;IBM;;IBM UK</t>
+  </si>
+  <si>
+    <t>CASTRILLO SERGIO BOIXO;;グーグル エルエルシー;;NIU YUEZHEN;;GOOGLE INC;;GOOGLE LLC;;구글 엘엘씨;;BARENDS RAMI;;SMELYANSKIY VADIM;;NEVEN HARTMUT;;グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;ラミ・バレントス</t>
   </si>
   <si>
     <t>D WAVE SYSTEMS INC;;YARKONI SHEIR</t>
   </si>
   <si>
-    <t>INST MICROELECTRONICS CAS;;INST OF MICROELECTRONICS CAS;;中国科学院微电子研究所</t>
-  </si>
-  <si>
-    <t>킨디 인코포레이티드;;KYNDI INC;;キンダイ、インコーポレイテッドＫＹＮＤＩ， ＩＮＣ．</t>
-  </si>
-  <si>
-    <t>CATALOG TECH INC;;CATALOG TECHNOLOGIES INC</t>
-  </si>
-  <si>
-    <t>CARROLL WILLIAM JOSEPH;;MOLINSKY BRADLEY DEAN;;TIPTON THOMAS ANDREW;;BATTAGLINI JOSEPH S;;HARTFORD FIRE INSURANCE COMP;;DUNST MICHAEL J</t>
-  </si>
-  <si>
-    <t>LAM RES CORP;;ラム リサーチ コーポレーションＬＡＭ ＲＥＳＥＡＲＣＨ ＣＯＲＰＯＲＡＴＩＯＮ</t>
-  </si>
-  <si>
-    <t>MICROSOFT TECHNOLOGY LICENSING LLC;;微软技术许可有限责任公司</t>
-  </si>
-  <si>
-    <t>イリディア・インコーポレイテッドＩｒｉｄｉａ， Ｉｎｃ．;;DODO OMNIDATA INC;;IRIDIA INC</t>
-  </si>
-  <si>
-    <t>IBM (CHINA) INVEST COMPANY LTD;;IBM UK;;IBM</t>
+    <t>INST OF MICROELECTRONICS CAS;;中国科学院微电子研究所;;INST MICROELECTRONICS CAS</t>
+  </si>
+  <si>
+    <t>キンダイ、インコーポレイテッドＫＹＮＤＩ， ＩＮＣ．;;킨디 인코포레이티드;;KYNDI INC</t>
+  </si>
+  <si>
+    <t>CATALOG TECHNOLOGIES INC;;CATALOG TECH INC</t>
+  </si>
+  <si>
+    <t>CARROLL WILLIAM JOSEPH;;DUNST MICHAEL J;;HARTFORD FIRE INSURANCE COMP;;MOLINSKY BRADLEY DEAN;;TIPTON THOMAS ANDREW;;BATTAGLINI JOSEPH S</t>
+  </si>
+  <si>
+    <t>ラム リサーチ コーポレーションＬＡＭ ＲＥＳＥＡＲＣＨ ＣＯＲＰＯＲＡＴＩＯＮ;;LAM RES CORP</t>
+  </si>
+  <si>
+    <t>微软技术许可有限责任公司;;MICROSOFT TECHNOLOGY LICENSING LLC</t>
+  </si>
+  <si>
+    <t>DODO OMNIDATA INC;;イリディア・インコーポレイテッドＩｒｉｄｉａ， Ｉｎｃ．;;IRIDIA INC</t>
+  </si>
+  <si>
+    <t>IBM UK;;IBM;;IBM (CHINA) INVEST COMPANY LTD</t>
   </si>
   <si>
     <t>DODO OMNIDATA INC;;IRIDIA INC</t>
   </si>
   <si>
-    <t>D-WAVE SYSTEMS INC;;YARKONI SHEIR</t>
-  </si>
-  <si>
-    <t>KATHOLIEKE UNIV LEUVEN KU LEUVEN RESEARCH &amp; DEVELOPMENT;;IMEC VZW;;UNIV LEUVEN KATH</t>
-  </si>
-  <si>
-    <t>서울시립대학교 산학협력단;;UNIV SEOUL IND COOP FOUND</t>
-  </si>
-  <si>
-    <t>D-WAVE SYSTEMS INC;;D WAVE SYSTEMS INC;;YARKONI SHEIR</t>
-  </si>
-  <si>
-    <t>GOOGLE INC;;ラミ・バレントス;;BARENDS RAMI;;구글 엘엘씨;;GOOGLE LLC;;グーグル エルエルシー;;グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ</t>
-  </si>
-  <si>
-    <t>ザ ユニバーシティー オブ カンタベリー;;BOSE SAURABH KUMAR;;FOSTNER SHAWN;;THE UNIV OF CANTERBURY;;BROWN SIMON ANTHONY</t>
+    <t>YARKONI SHEIR;;D-WAVE SYSTEMS INC</t>
+  </si>
+  <si>
+    <t>UNIV LEUVEN KATH;;KATHOLIEKE UNIV LEUVEN KU LEUVEN RESEARCH &amp; DEVELOPMENT;;IMEC VZW</t>
+  </si>
+  <si>
+    <t>UNIV SEOUL IND COOP FOUND;;서울시립대학교 산학협력단</t>
+  </si>
+  <si>
+    <t>D WAVE SYSTEMS INC;;D-WAVE SYSTEMS INC;;YARKONI SHEIR</t>
+  </si>
+  <si>
+    <t>グーグル エルエルシー;;GOOGLE INC;;GOOGLE LLC;;구글 엘엘씨;;BARENDS RAMI;;グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;ラミ・バレントス</t>
+  </si>
+  <si>
+    <t>FOSTNER SHAWN;;BOSE SAURABH KUMAR;;THE UNIV OF CANTERBURY;;ザ ユニバーシティー オブ カンタベリー;;BROWN SIMON ANTHONY</t>
   </si>
   <si>
     <t>UNIV SOGANG RES FOUNDATION;;서강대학교산학협력단</t>
@@ -736,10 +739,10 @@
     <t>株式会社日立製作所;;HITACHI LTD</t>
   </si>
   <si>
-    <t>UNIV ELECTRONIC SCI &amp; TECH CHINA;;电子科技大学</t>
-  </si>
-  <si>
-    <t>경희대학교 산학협력단;;UNIV INDUSTRY COOPERATION GROUP KYUNG HEE UNIV</t>
+    <t>电子科技大学;;UNIV ELECTRONIC SCI &amp; TECH CHINA</t>
+  </si>
+  <si>
+    <t>UNIV INDUSTRY COOPERATION GROUP KYUNG HEE UNIV;;경희대학교 산학협력단</t>
   </si>
   <si>
     <t>THE UNIV OF CANTERBURY;;ザ ユニバーシティー オブ カンタベリー</t>
@@ -751,100 +754,106 @@
     <t>ICLEAGUE TECH CO LTD;;YANGTZE DELTA REGION INST TSINGHUA UNIV ZHEJIANG</t>
   </si>
   <si>
-    <t>한양대학교 산학협력단;;IUCF HYU</t>
-  </si>
-  <si>
-    <t>TAIWAN SEMICONDUCTOR MFG CO LTD;;TAIWAN SEMICONDUCTOR MFG</t>
-  </si>
-  <si>
-    <t>NIU YUEZHEN;;SMELYANSKIY VADIM;;GOOGLE INC;;CASTRILLO SERGIO BOIXO;;GOOGLE LLC;;グーグル エルエルシー;;グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;NEVEN HARTMUT</t>
-  </si>
-  <si>
-    <t>SMIRNOV SERGEY;;LANDIGRAD LLC;;LANDIGRAD LTD LIABILITY CO;;스미르노브, 세르게이 니콜라예비치;;란디그레드, 리미티드 라이어빌리티 컴퍼니;;SMIRNOV SERGEY NIKOLAYEVICH;;OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD;;LANDIGRAD LIMITED LIABILITY COMPANY;;SMIRNOV SERGEY NIIKOLAYEVICH</t>
-  </si>
-  <si>
-    <t>インターナショナル・ビジネス・マシーンズ・コーポレーションＩＮＴＥＲＮＡＴＩＯＮＡＬ ＢＵＳＩＮＥＳＳ ＭＡＣＨＩＮＥＳ ＣＯＲＰＯＲＡＴＩＯＮ;;IBM;;国际商业机器公司</t>
-  </si>
-  <si>
-    <t>스미르노브, 세르게이 니콜라예비치;;란디그레드, 리미티드 라이어빌리티 컴퍼니;;SMIRNOV SERGEY NIKOLAYEVICH;;LANDIGRAD LLC</t>
-  </si>
-  <si>
-    <t>BOSE SAURABH KUMAR;;THE UNIV OF CANTERBURY;;FOSTNER SHAWN;;BROWN SIMON ANTHONY</t>
-  </si>
-  <si>
-    <t>GOOGLE INC;;ラミ・バレントス;;BARENDS RAMI;;구글 엘엘씨;;GOOGLE LLC;;グーグル エルエルシー</t>
-  </si>
-  <si>
-    <t>SMIRNOV SERGEY;;LANDIGRAD LLC;;LANDIGRAD LTD LIABILITY CO;;OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD;;SMIRNOV SERGEY NIKOLAYEVICH;;LANDIGRAD LIMITED LIABILITY COMPANY;;SMIRNOV SERGEY NIIKOLAYEVICH</t>
-  </si>
-  <si>
-    <t>NIU YUEZHEN;;SMELYANSKIY VADIM;;GOOGLE INC;;CASTRILLO SERGIO BOIXO;;GOOGLE LLC;;グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;NEVEN HARTMUT</t>
-  </si>
-  <si>
-    <t>ASKER MICHAEL ALBERT;;MAXIM GEORGE ADRIAN;;LEIPOLD DIRK ROBERT WALTER</t>
-  </si>
-  <si>
-    <t>NEVEN HELMUT;;NIU YUEZHEN;;BOIXO CASTRILLO SERGIO;;ハルトムート・ネーヴェン;;바엔즈 라미;;FARHI EDWARD HENRY;;SMELYANSKIY VADIM;;ユエゼン・ニウ;;CASTRILLO SERGIO BOIXO;;ラミ・バレントス;;BARENDS RAMI;;ライアン・バブシュ;;エドワード・ヘンリー・ファーリ;;BABBUSH RYAN;;ハルトムート・ネーフェン;;ヴァディム・スメリャンスキー;;NEVEN HARTMUT;;セルジオ・バイショ・カストリージョ</t>
-  </si>
-  <si>
-    <t>LEE CHOONGHYUN;;NANNICINI GIACOMO;;TEMME PAUL;;GAMBETTA JAY M;;MISGEN MARVIN M;;OLIVADESE SALVATORE;;マクルーア ザ サード、ダグラス、テンプルトン;;MARTIN FERNANDEZ FRANCISCO JOSE;;KUCZYNSKI JOSEPH;;MATTHIAS STEFFEN;;DIAL OLIVER;;CHEN RICHARD;;ガンベッタ、ジェイ;;J·加姆贝塔;;PRZYBYLSKI KEVIN J;;HEKMATSHOARTABARI BAHMAN;;ANDO TAKASHI;;ZHANG JINGYUN;;MCCLURE III DOUGLAS TEMPLETON;;O·蒂亚尔;;GAMBETTA JAY;;OLIVADESE SALVATORE BERNARDO;;PHAN ANNA T;;TEMME PAUL KRISTAN;;MCCLURE III DOUGLAS T;;PRISCO JOSEPH F;;JAVADIABHARI ALI;;M·斯蒂芬;;OLIVER DIAL;;ダイアル、オリバー;;PHAN ANNA;;FARO SERTAGE ISMAEL;;HASHEMI POUYA;;STEFFEN MATTHIAS;;REZNICEK ALEXANDER;;DOUGLAS TEMPLETON MCCLURE III;;ステファン、マティアス;;LIU PENG;;BISHOP LEV;;D·T·麦克鲁尔三世;;GREENBERG DON;;CORCOLES-GONZALEZ ANTONIO;;NEUMAN-HORN DEBRA A;;PISTOIA MARCO;;JAY GAMBETTA;;BISHOP LEV SAMUEL</t>
-  </si>
-  <si>
-    <t>REAGOR MATTHEW J;;MCKIERNAN KERI ANN;;RIGETTI CHAD TYLER;;DESAI ANAND;;DAVIS ERIK JOSEPH;;JONES GLENN;;SETE EYOB A;;TEZAK NIKOLAS ANTON;;ZENG WILLIAM J;;ALAM MUHAMMAD SOHAIB;;KARALEKAS PETER JONATHAN;;CURTIS MICHAEL J;;RUST MICHAEL;;JOHNSON BLAKE ROBERT;;WILSON CHRISTOPHER MOGAN;;LYNCH ADAM DAVID;;OSBORN CHRISTOPHER BUTLER;;HEIDEL STEVEN;;SMITH ROBERT STANLEY;;DA SILVA MARCUS PALMER;;PETERSON ERIC CHRISTOPHER;;ZENG WILLIAM;;SETE EYOB;;CURTIS MICHAEL</t>
-  </si>
-  <si>
-    <t>ROLFE JASON;;ANDRIYASH EVGENY;;BOOTHBY THOMAS J;;KING ANDREW DOUGLAS;;XUE YANBO;;MACREADY WILLIAM G;;AMIN MOHAMMAD H;;ANDRIYASH EVGENY A;;YARKONI SHEIR;;BOOTHBY KELLY T R;;AMIN MOHAMMAD H S;;LANTING TREVOR MICHAEL</t>
-  </si>
-  <si>
-    <t>ZHU HUILONG;;亨利·H·阿达姆松;;朱正勇;;HENRY H ADAMSON;;RADAMSON HENRY H;;WANG GUILEI;;ZHANG YANBO;;王桂磊;;张严波;;朱慧珑;;ZHU ZHENGYONG</t>
-  </si>
-  <si>
-    <t>アルン、マジュムダール;;MAJUMDAR ARUN;;마줌다 아룬</t>
-  </si>
-  <si>
-    <t>GOULD MATTHEW;;GAHROOSI AMIR;;MASILAMANI ASHOK PRABHU;;GAHROOSI AMIR BAHADOR;;KHOMAMI ABADI MOJTABA;;MASILAMANI ASHOK;;GOULD MATTHEW V</t>
-  </si>
-  <si>
-    <t>SIGNAEVSKI MAXIM M;;YAROSLAVSKY IGOR YEHUDA;;YAROSLAVSKY IGOR;;SIGNAEVSKY MAXIM</t>
-  </si>
-  <si>
-    <t>DIENEL THOMAS;;WALUS KONRAD;;LIVADARU LUCIAN;;RASHIDI MOHAMMAD;;HUFF TALEANA;;WOLKOW ROBERT A;;RETALLICK JACOB;;CROSHAW JEREMIAH;;WOLKOW ROBERT;;WALUS CONRAD;;VINE WYATT</t>
-  </si>
-  <si>
-    <t>SIPAHIGIL ALP;;WANG SHENGTAO;;LUKIN MIKHAIL;;ZHOU LEO;;EVANS RUFFIN E;;EVANS RUFFIN;;CHOI SOONWON;;SUKACHEV DENIS D;;PICHLER HANNES;;NGUYEN CHRISTIAN THIEU;;SUKACHEV DENIS;;BHASKAR MIHIR;;LUNKIN MIKHAIL;;BHASKAR MIHIR KESHAV;;ZHOU LEO XIANGYU;;LUKIN MIKHAIL D;;NGUYEN CHRISTIAN</t>
-  </si>
-  <si>
-    <t>PARK HYUNJUN;;LEAKE DEVIN;;BHATIA SWAPNIL;;ROQUET NATHANIEL;;BHATIA SWAPNIL P</t>
-  </si>
-  <si>
-    <t>CARROLL WILLIAM JOSEPH;;MOLINSKY BRADLEY DEAN;;TIPTON THOMAS ANDREW;;BATTAGLINI JOSEPH S;;DUNST MICHAEL J</t>
+    <t>IUCF HYU;;한양대학교 산학협력단</t>
+  </si>
+  <si>
+    <t>TAIWAN SEMICONDUCTOR MFG;;TAIWAN SEMICONDUCTOR MFG CO LTD</t>
+  </si>
+  <si>
+    <t>CASTRILLO SERGIO BOIXO;;グーグル エルエルシー;;NIU YUEZHEN;;GOOGLE INC;;GOOGLE LLC;;SMELYANSKIY VADIM;;NEVEN HARTMUT;;グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ</t>
+  </si>
+  <si>
+    <t>OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD;;스미르노브, 세르게이 니콜라예비치;;LANDIGRAD LTD LIABILITY CO;;SMIRNOV SERGEY NIIKOLAYEVICH;;란디그레드, 리미티드 라이어빌리티 컴퍼니;;SMIRNOV SERGEY NIKOLAYEVICH;;LANDIGRAD LIMITED LIABILITY COMPANY;;SMIRNOV SERGEY;;LANDIGRAD LLC</t>
+  </si>
+  <si>
+    <t>IMEC VZW;;KATHOLIEKE UNIV LEUVEN KU LEUVEN RESEARCH &amp; DEVELOPMENT;;UNIV LEUVEN KATH</t>
+  </si>
+  <si>
+    <t>国际商业机器公司;;インターナショナル・ビジネス・マシーンズ・コーポレーションＩＮＴＥＲＮＡＴＩＯＮＡＬ ＢＵＳＩＮＥＳＳ ＭＡＣＨＩＮＥＳ ＣＯＲＰＯＲＡＴＩＯＮ;;IBM</t>
+  </si>
+  <si>
+    <t>中国科学院微电子研究所;;INST OF MICROELECTRONICS CAS;;INST MICROELECTRONICS CAS</t>
+  </si>
+  <si>
+    <t>SMIRNOV SERGEY NIKOLAYEVICH;;스미르노브, 세르게이 니콜라예비치;;란디그레드, 리미티드 라이어빌리티 컴퍼니;;LANDIGRAD LLC</t>
+  </si>
+  <si>
+    <t>FOSTNER SHAWN;;THE UNIV OF CANTERBURY;;BROWN SIMON ANTHONY;;BOSE SAURABH KUMAR</t>
+  </si>
+  <si>
+    <t>グーグル エルエルシー;;GOOGLE INC;;GOOGLE LLC;;구글 엘엘씨;;BARENDS RAMI;;ラミ・バレントス</t>
+  </si>
+  <si>
+    <t>OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD;;LANDIGRAD LLC;;SMIRNOV SERGEY NIIKOLAYEVICH;;SMIRNOV SERGEY NIKOLAYEVICH;;LANDIGRAD LIMITED LIABILITY COMPANY;;SMIRNOV SERGEY;;LANDIGRAD LTD LIABILITY CO</t>
+  </si>
+  <si>
+    <t>CASTRILLO SERGIO BOIXO;;NIU YUEZHEN;;GOOGLE INC;;GOOGLE LLC;;SMELYANSKIY VADIM;;NEVEN HARTMUT;;グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ</t>
+  </si>
+  <si>
+    <t>ASKER MICHAEL ALBERT;;LEIPOLD DIRK ROBERT WALTER;;MAXIM GEORGE ADRIAN</t>
+  </si>
+  <si>
+    <t>PHAN ANNA T;;M·斯蒂芬;;GREENBERG DON;;PISTOIA MARCO;;OLIVADESE SALVATORE;;CORCOLES-GONZALEZ ANTONIO;;JAVADIABHARI ALI;;J·加姆贝塔;;ANDO TAKASHI;;FARO SERTAGE ISMAEL;;HASHEMI POUYA;;LEE CHOONGHYUN;;MISGEN MARVIN M;;マクルーア ザ サード、ダグラス、テンプルトン;;HEKMATSHOARTABARI BAHMAN;;OLIVADESE SALVATORE BERNARDO;;MARTIN FERNANDEZ FRANCISCO JOSE;;ステファン、マティアス;;DIAL OLIVER;;MCCLURE III DOUGLAS TEMPLETON;;BISHOP LEV;;ZHANG JINGYUN;;DOUGLAS TEMPLETON MCCLURE III;;STEFFEN MATTHIAS;;BISHOP LEV SAMUEL;;GAMBETTA JAY;;PHAN ANNA;;ガンベッタ、ジェイ;;PRISCO JOSEPH F;;TEMME PAUL;;MATTHIAS STEFFEN;;REZNICEK ALEXANDER;;KUCZYNSKI JOSEPH;;D·T·麦克鲁尔三世;;NEUMAN-HORN DEBRA A;;CHEN RICHARD;;GAMBETTA JAY M;;OLIVER DIAL;;ダイアル、オリバー;;JAY GAMBETTA;;TEMME PAUL KRISTAN;;MCCLURE III DOUGLAS T;;PRZYBYLSKI KEVIN J;;NANNICINI GIACOMO;;O·蒂亚尔;;LIU PENG</t>
+  </si>
+  <si>
+    <t>CASTRILLO SERGIO BOIXO;;ライアン・バブシュ;;바엔즈 라미;;NIU YUEZHEN;;ハルトムート・ネーフェン;;ヴァディム・スメリャンスキー;;BOIXO CASTRILLO SERGIO;;ハルトムート・ネーヴェン;;FARHI EDWARD HENRY;;SMELYANSKIY VADIM;;NEVEN HARTMUT;;BARENDS RAMI;;ユエゼン・ニウ;;ラミ・バレントス;;BABBUSH RYAN;;セルジオ・バイショ・カストリージョ;;NEVEN HELMUT;;エドワード・ヘンリー・ファーリ</t>
+  </si>
+  <si>
+    <t>LYNCH ADAM DAVID;;ZENG WILLIAM;;DAVIS ERIK JOSEPH;;REAGOR MATTHEW J;;ALAM MUHAMMAD SOHAIB;;DA SILVA MARCUS PALMER;;WILSON CHRISTOPHER MOGAN;;SETE EYOB A;;KARALEKAS PETER JONATHAN;;HEIDEL STEVEN;;ZENG WILLIAM J;;RIGETTI CHAD TYLER;;RUST MICHAEL;;OSBORN CHRISTOPHER BUTLER;;CURTIS MICHAEL J;;JONES GLENN;;TEZAK NIKOLAS ANTON;;DESAI ANAND;;SMITH ROBERT STANLEY;;PETERSON ERIC CHRISTOPHER;;MCKIERNAN KERI ANN;;CURTIS MICHAEL;;JOHNSON BLAKE ROBERT;;SETE EYOB</t>
+  </si>
+  <si>
+    <t>ROLFE JASON;;AMIN MOHAMMAD H S;;BOOTHBY THOMAS J;;BOOTHBY KELLY T R;;MACREADY WILLIAM G;;XUE YANBO;;AMIN MOHAMMAD H;;ANDRIYASH EVGENY A;;KING ANDREW DOUGLAS;;YARKONI SHEIR;;LANTING TREVOR MICHAEL;;ANDRIYASH EVGENY</t>
+  </si>
+  <si>
+    <t>张严波;;王桂磊;;HENRY H ADAMSON;;亨利·H·阿达姆松;;朱慧珑;;朱正勇;;ZHANG YANBO;;ZHU ZHENGYONG;;ZHU HUILONG;;RADAMSON HENRY H;;WANG GUILEI</t>
+  </si>
+  <si>
+    <t>MAJUMDAR ARUN;;마줌다 아룬;;アルン、マジュムダール</t>
+  </si>
+  <si>
+    <t>KHOMAMI ABADI MOJTABA;;MASILAMANI ASHOK PRABHU;;MASILAMANI ASHOK;;GAHROOSI AMIR BAHADOR;;GOULD MATTHEW;;GOULD MATTHEW V;;GAHROOSI AMIR</t>
+  </si>
+  <si>
+    <t>YAROSLAVSKY IGOR;;SIGNAEVSKI MAXIM M;;YAROSLAVSKY IGOR YEHUDA;;SIGNAEVSKY MAXIM</t>
+  </si>
+  <si>
+    <t>WALUS CONRAD;;WOLKOW ROBERT;;WALUS KONRAD;;RASHIDI MOHAMMAD;;RETALLICK JACOB;;LIVADARU LUCIAN;;HUFF TALEANA;;VINE WYATT;;DIENEL THOMAS;;CROSHAW JEREMIAH;;WOLKOW ROBERT A</t>
+  </si>
+  <si>
+    <t>NGUYEN CHRISTIAN THIEU;;ZHOU LEO XIANGYU;;EVANS RUFFIN;;SUKACHEV DENIS;;SIPAHIGIL ALP;;LUKIN MIKHAIL D;;ZHOU LEO;;EVANS RUFFIN E;;SUKACHEV DENIS D;;BHASKAR MIHIR;;CHOI SOONWON;;BHASKAR MIHIR KESHAV;;WANG SHENGTAO;;PICHLER HANNES;;NGUYEN CHRISTIAN;;LUNKIN MIKHAIL;;LUKIN MIKHAIL</t>
+  </si>
+  <si>
+    <t>ROQUET NATHANIEL;;PARK HYUNJUN;;LEAKE DEVIN;;BHATIA SWAPNIL P;;BHATIA SWAPNIL</t>
+  </si>
+  <si>
+    <t>CARROLL WILLIAM JOSEPH;;DUNST MICHAEL J;;MOLINSKY BRADLEY DEAN;;TIPTON THOMAS ANDREW;;BATTAGLINI JOSEPH S</t>
   </si>
   <si>
     <t>KAPIT ELIOT</t>
   </si>
   <si>
-    <t>WOO SOL A;;WOO SOL-A;;PARK YOUNG SOO;;CHO KYOUNG-AH;;HEO JUN;;LIM DOO-HYEOK;;KIM SANG SIG;;CHO KYOUNG AH;;CHO JIN SUN;;PARK YOUNG-SOO;;CHO JIN-SUN;;SOHN IL KWON;;KIM SANG-SIK;;LIM DOO HYEOK</t>
-  </si>
-  <si>
-    <t>GUHA JOYDEEP;;GOTTSCHO RICHARD ALAN;;グーハ・ジョイディープ;;VAHEDI VAHID;;バヘディ・バヘド;;DAUGHERTY JOHN;;ゴットショ・リチャード・アラン;;ダウガティ・ジョン</t>
-  </si>
-  <si>
-    <t>WIEBE NATHAN O;;STRAUSS KARIN;;CHEN WEIDA;;R·格拉斯;;KOHLL ALEXANDER XAVIER CHRISTOF;;W·陈;;GAMBLE IV JOHN KING;;GRASS ROBERT;;A·X·C·科尔;;GRANADE CHRISTOPHER EVAN;;K·施特劳斯;;GAMBLE JOHN KING;;NGUYEN BICHLIEN HOANG;;B·H·阮</t>
-  </si>
-  <si>
-    <t>CASSIDY MAJA;;PREDKI PAUL F;;マジャ・キャシディ;;ポール・エフ・プレドキ</t>
-  </si>
-  <si>
-    <t>NAGLER ACHIYA;;SUCHOWSKI HAIM;;MREJEN MICHAEL;;MALKIEL ITZIK;;ARIELI URI;;WOLF LIOR</t>
+    <t>HEO JUN;;WOO SOL A;;CHO KYOUNG AH;;CHO JIN SUN;;CHO KYOUNG-AH;;CHO JIN-SUN;;LIM DOO HYEOK;;WOO SOL-A;;KIM SANG SIG;;SOHN IL KWON;;PARK YOUNG-SOO;;LIM DOO-HYEOK;;KIM SANG-SIK;;PARK YOUNG SOO</t>
+  </si>
+  <si>
+    <t>GUHA JOYDEEP;;DAUGHERTY JOHN;;バヘディ・バヘド;;グーハ・ジョイディープ;;ゴットショ・リチャード・アラン;;ダウガティ・ジョン;;GOTTSCHO RICHARD ALAN;;VAHEDI VAHID</t>
+  </si>
+  <si>
+    <t>GRANADE CHRISTOPHER EVAN;;STRAUSS KARIN;;GRASS ROBERT;;GAMBLE IV JOHN KING;;K·施特劳斯;;WIEBE NATHAN O;;CHEN WEIDA;;B·H·阮;;A·X·C·科尔;;W·陈;;GAMBLE JOHN KING;;R·格拉斯;;NGUYEN BICHLIEN HOANG;;KOHLL ALEXANDER XAVIER CHRISTOF</t>
+  </si>
+  <si>
+    <t>ポール・エフ・プレドキ;;CASSIDY MAJA;;マジャ・キャシディ;;PREDKI PAUL F</t>
+  </si>
+  <si>
+    <t>MALKIEL ITZIK;;WOLF LIOR;;MREJEN MICHAEL;;ARIELI URI;;NAGLER ACHIYA;;SUCHOWSKI HAIM</t>
   </si>
   <si>
     <t>NABAVI SEYEDFAKHREDDIN;;ZHANG LIHONG</t>
   </si>
   <si>
-    <t>KATABARWA AMARA;;DALLAIRE-DEMERS PIERRE-LUC;;JOHNSON PETER D;;ANSCHUETZ ERIC R;;GONTHIER JEROME FLORIAN;;CAO YUDONG</t>
-  </si>
-  <si>
-    <t>MAGYAR ANDREW;;KOTZ KENNETH;;ROSENBERGER ERIN;;BYRNES STEVEN J;;KOTZ KENNETH T;;FAVALORA GREGG E;;MCFARLAND KIRSTY A;;MAGYAR ANDREW P;;MCFARLAND KIRSTY;;SPRACHMAN MELISSA M;;HUANG HAIYAO;;FAVALORA GREGG;;FRANK IAN;;DUBAY RYAN;;SPRACHMAN MELISSA;;DUBAY RYAN A;;BYRNES STEVEN;;FRANK IAN WARD;;CAVANAGH PETER;;VARGO EMMA;;MARKOVIC STACEY</t>
+    <t>GONTHIER JEROME FLORIAN;;KATABARWA AMARA;;DALLAIRE-DEMERS PIERRE-LUC;;ANSCHUETZ ERIC R;;CAO YUDONG;;JOHNSON PETER D</t>
+  </si>
+  <si>
+    <t>HUANG HAIYAO;;DUBAY RYAN;;MAGYAR ANDREW P;;BYRNES STEVEN J;;CAVANAGH PETER;;KOTZ KENNETH T;;MARKOVIC STACEY;;FRANK IAN;;MCFARLAND KIRSTY A;;VARGO EMMA;;MCFARLAND KIRSTY;;BYRNES STEVEN;;FAVALORA GREGG;;SPRACHMAN MELISSA M;;SPRACHMAN MELISSA;;MAGYAR ANDREW;;ROSENBERGER ERIN;;FAVALORA GREGG E;;FRANK IAN WARD;;DUBAY RYAN A;;KOTZ KENNETH</t>
   </si>
   <si>
     <t>YOUNGNER DANIEL</t>
@@ -853,37 +862,37 @@
     <t>GUILLOU DAVID FRANCOIS;;GUILLOU DAVID;;SINHA RAJARISHI</t>
   </si>
   <si>
-    <t>CONSTANCIAS CHRISTOPHE;;LANDIS STÉPHAN;;LANDIS STEPHAN</t>
-  </si>
-  <si>
-    <t>RAQUEL MARIA SANCHES-KUIPER;;HAYES MATTHEW JAMES;;SANCHES-KUIPER RAQUEL MARIA;;MATTHEW JAMES HAYES</t>
-  </si>
-  <si>
-    <t>TEMME PAUL;;NANNICINI GIACOMO;;GAMBETTA JAY M;;OLIVADESE SALVATORE;;DIAL OLIVER;;CHEN RICHARD;;MCCLURE III DOUGLAS TEMPLETON;;GAMBETTA JAY;;OLIVADESE SALVATORE BERNARDO;;PHAN ANNA T;;TEMME PAUL KRISTAN;;MCCLURE III DOUGLAS T;;PHAN ANNA;;STEFFEN MATTHIAS;;BISHOP LEV;;GREENBERG DON;;CORCOLES-GONZALEZ ANTONIO;;PISTOIA MARCO;;BISHOP LEV SAMUEL</t>
-  </si>
-  <si>
-    <t>ZHU HUILONG;;亨利·H·阿达姆松;;朱正勇;;HENRY H ADAMSON;;WANG GUILEI;;ZHANG YANBO;;王桂磊;;张严波;;朱慧珑;;ZHU ZHENGYONG</t>
+    <t>LANDIS STÉPHAN;;CONSTANCIAS CHRISTOPHE;;LANDIS STEPHAN</t>
+  </si>
+  <si>
+    <t>MATTHEW JAMES HAYES;;SANCHES-KUIPER RAQUEL MARIA;;HAYES MATTHEW JAMES;;RAQUEL MARIA SANCHES-KUIPER</t>
+  </si>
+  <si>
+    <t>PHAN ANNA T;;GREENBERG DON;;OLIVADESE SALVATORE;;PISTOIA MARCO;;CORCOLES-GONZALEZ ANTONIO;;OLIVADESE SALVATORE BERNARDO;;MCCLURE III DOUGLAS TEMPLETON;;DIAL OLIVER;;BISHOP LEV;;STEFFEN MATTHIAS;;BISHOP LEV SAMUEL;;GAMBETTA JAY;;PHAN ANNA;;TEMME PAUL;;CHEN RICHARD;;GAMBETTA JAY M;;TEMME PAUL KRISTAN;;MCCLURE III DOUGLAS T;;NANNICINI GIACOMO</t>
+  </si>
+  <si>
+    <t>张严波;;王桂磊;;HENRY H ADAMSON;;亨利·H·阿达姆松;;朱慧珑;;朱正勇;;ZHANG YANBO;;ZHU ZHENGYONG;;ZHU HUILONG;;WANG GUILEI</t>
   </si>
   <si>
     <t>CASSIDY MAJA;;PREDKI PAUL F</t>
   </si>
   <si>
-    <t>ROLFE JASON;;ANDRIYASH EVGENY;;BOOTHBY THOMAS J;;KING ANDREW DOUGLAS;;AMIN MOHAMMAD H;;ANDRIYASH EVGENY A;;YARKONI SHEIR;;AMIN MOHAMMAD H S;;LANTING TREVOR MICHAEL</t>
-  </si>
-  <si>
-    <t>ADELMANN HANNS CHRISTOPH;;CHEN CHANG;;STAKENBORG TIM;;COVENS KRIS;;COSTA JOSE DIOGO;;CIUBOTARU FLORIN;;CAI QING;;FAUVART MAARTEN</t>
+    <t>ROLFE JASON;;AMIN MOHAMMAD H S;;BOOTHBY THOMAS J;;AMIN MOHAMMAD H;;ANDRIYASH EVGENY A;;KING ANDREW DOUGLAS;;YARKONI SHEIR;;LANTING TREVOR MICHAEL;;ANDRIYASH EVGENY</t>
+  </si>
+  <si>
+    <t>CAI QING;;CIUBOTARU FLORIN;;ADELMANN HANNS CHRISTOPH;;COVENS KRIS;;COSTA JOSE DIOGO;;STAKENBORG TIM;;FAUVART MAARTEN;;CHEN CHANG</t>
   </si>
   <si>
     <t>TRESP VOLKER;;MA YUNPU</t>
   </si>
   <si>
-    <t>LAWRIE BENJAMIN J;;MAKSYMOVYCH PETRO;;POOSER RAPHAEL C</t>
-  </si>
-  <si>
-    <t>RIZIK LUNA;;DANIEL RAMEZ</t>
-  </si>
-  <si>
-    <t>MILENKOVIC OLGICA;;GABRYS RYAN;;YAZDI S M HOSSEIN TABATABAEI</t>
+    <t>LAWRIE BENJAMIN J;;POOSER RAPHAEL C;;MAKSYMOVYCH PETRO</t>
+  </si>
+  <si>
+    <t>DANIEL RAMEZ;;RIZIK LUNA</t>
+  </si>
+  <si>
+    <t>GABRYS RYAN;;MILENKOVIC OLGICA;;YAZDI S M HOSSEIN TABATABAEI</t>
   </si>
   <si>
     <t>안도열;;AHN DO YEOL</t>
@@ -892,49 +901,49 @@
     <t>GHOSH TAPABRATA</t>
   </si>
   <si>
-    <t>WANG YUNBO;;ZHOU WENLI;;ZHU YU;;CHEN CHANGSHENG;;WU SHUO;;CHENG RUNHONG;;GAO JUNXIONG</t>
+    <t>WANG YUNBO;;CHEN CHANGSHENG;;GAO JUNXIONG;;ZHU YU;;ZHOU WENLI;;WU SHUO;;CHENG RUNHONG</t>
   </si>
   <si>
     <t>YAN XIAOBING;;REN DELIANG;;WANG KAIYANG</t>
   </si>
   <si>
-    <t>BAUR JEFFREY W;;KONDASH COREY R;;SLINKER KEITH;;DICKINSON BENJAMIN T;;MAGAR KAMAN THAPA;;PANKONIEN ALEXANDER M;;REICH GREGORY W</t>
+    <t>DICKINSON BENJAMIN T;;REICH GREGORY W;;PANKONIEN ALEXANDER M;;BAUR JEFFREY W;;MAGAR KAMAN THAPA;;KONDASH COREY R;;SLINKER KEITH</t>
   </si>
   <si>
     <t>NIVALA JEFFREY MATTHEW</t>
   </si>
   <si>
-    <t>WANG ZEHONG;;WANG WEI;;CHEN YIXIANG;;YU DAN</t>
-  </si>
-  <si>
-    <t>SANGWAN VINOD K;;LEE HONG-SUB;;HERSAM MARK C</t>
-  </si>
-  <si>
-    <t>JIANG ZHUOLIN;;FONG KIN CHUNG;;SIU MAN-HUNG</t>
-  </si>
-  <si>
-    <t>TAKATSUKI HIDEYO;;REUTHER CORDULA;;KORTEN TILL;;DIEZ STEFAN;;MANSSON ALF</t>
-  </si>
-  <si>
-    <t>TAN WEE CHONG;;ANG KAH-WEE</t>
-  </si>
-  <si>
-    <t>ZHAO LINYUAN;;LIU YU;;XU JUN;;LIANG RENRONG</t>
-  </si>
-  <si>
-    <t>CHODAVARAPU VAMSY;;AGGARWAL PRIYANKA</t>
-  </si>
-  <si>
-    <t>CHOI YONG SOO;;LEE HYUNG DONG;;LEE HYUNG-DONG;;HEO KEUN;;CHOI YONG-SOO</t>
-  </si>
-  <si>
-    <t>XIA QIANGFEI;;WU QING;;YANG JIANHUA;;MCLEAN MARK</t>
-  </si>
-  <si>
-    <t>KING ANDREW DOUGLAS;;BOOTHBY THOMAS J;;AMIN MOHAMMAD H;;ANDRIYASH EVGENY A;;YARKONI SHEIR;;BOOTHBY KELLY T R;;LANTING TREVOR MICHAEL</t>
-  </si>
-  <si>
-    <t>ZHANG XIANGCHENG;;WU JIAN</t>
+    <t>WANG WEI;;WANG ZEHONG;;YU DAN;;CHEN YIXIANG</t>
+  </si>
+  <si>
+    <t>LEE HONG-SUB;;HERSAM MARK C;;SANGWAN VINOD K</t>
+  </si>
+  <si>
+    <t>JIANG ZHUOLIN;;SIU MAN-HUNG;;FONG KIN CHUNG</t>
+  </si>
+  <si>
+    <t>DIEZ STEFAN;;TAKATSUKI HIDEYO;;KORTEN TILL;;MANSSON ALF;;REUTHER CORDULA</t>
+  </si>
+  <si>
+    <t>ANG KAH-WEE;;TAN WEE CHONG</t>
+  </si>
+  <si>
+    <t>LIU YU;;XU JUN;;ZHAO LINYUAN;;LIANG RENRONG</t>
+  </si>
+  <si>
+    <t>AGGARWAL PRIYANKA;;CHODAVARAPU VAMSY</t>
+  </si>
+  <si>
+    <t>LEE HYUNG DONG;;HEO KEUN;;CHOI YONG-SOO;;CHOI YONG SOO;;LEE HYUNG-DONG</t>
+  </si>
+  <si>
+    <t>XIA QIANGFEI;;YANG JIANHUA;;MCLEAN MARK;;WU QING</t>
+  </si>
+  <si>
+    <t>BOOTHBY THOMAS J;;BOOTHBY KELLY T R;;AMIN MOHAMMAD H;;ANDRIYASH EVGENY A;;KING ANDREW DOUGLAS;;YARKONI SHEIR;;LANTING TREVOR MICHAEL</t>
+  </si>
+  <si>
+    <t>WU JIAN;;ZHANG XIANGCHENG</t>
   </si>
   <si>
     <t>ZORNES DAVID</t>
@@ -943,94 +952,94 @@
     <t>Zhengyong Zhu;;Huilong Zhu</t>
   </si>
   <si>
-    <t>MANIPATRUNI SASIKANTH;;NIKONOV DMITRI E;;YOUNG IAN A</t>
+    <t>YOUNG IAN A;;NIKONOV DMITRI E;;MANIPATRUNI SASIKANTH</t>
   </si>
   <si>
     <t>ZHU HUILONG</t>
   </si>
   <si>
-    <t>ハルトムート・ネーヴェン;;바엔즈 라미;;FARHI EDWARD HENRY;;ラミ・バレントス;;ライアン・バブシュ;;エドワード・ヘンリー・ファーリ;;BARENDS RAMI;;BABBUSH RYAN;;NEVEN HARTMUT</t>
-  </si>
-  <si>
-    <t>CORBO CLAUDIA;;FAROKHZAD OMID;;MAHMOUDI MORTEZA</t>
-  </si>
-  <si>
-    <t>KOUL RAMAN;;VASTAREY NIKHIL SURESH;;KAPOOR ANMOL SINGH;;SALAHANDISH RAZIEH;;BHAT SUMRITA;;WANG GANG;;WANG GANG (A K A JOSEPH)</t>
+    <t>ライアン・バブシュ;;바엔즈 라미;;ハルトムート・ネーヴェン;;FARHI EDWARD HENRY;;BARENDS RAMI;;NEVEN HARTMUT;;ラミ・バレントス;;BABBUSH RYAN;;エドワード・ヘンリー・ファーリ</t>
+  </si>
+  <si>
+    <t>MAHMOUDI MORTEZA;;FAROKHZAD OMID;;CORBO CLAUDIA</t>
+  </si>
+  <si>
+    <t>WANG GANG (A K A JOSEPH);;KAPOOR ANMOL SINGH;;BHAT SUMRITA;;WANG GANG;;SALAHANDISH RAZIEH;;KOUL RAMAN;;VASTAREY NIKHIL SURESH</t>
   </si>
   <si>
     <t>SHIMA SHOHEI</t>
   </si>
   <si>
-    <t>KIM CHIHO;;RAMPRASAD RAMPI;;CHANDRASEKARAN ANAND</t>
-  </si>
-  <si>
-    <t>NIU YUEZHEN;;BOIXO CASTRILLO SERGIO;;바엔즈 라미;;SMELYANSKIY VADIM;;ユエゼン・ニウ;;CASTRILLO SERGIO BOIXO;;ラミ・バレントス;;BARENDS RAMI;;BABBUSH RYAN;;ハルトムート・ネーフェン;;ヴァディム・スメリャンスキー;;NEVEN HARTMUT;;セルジオ・バイショ・カストリージョ</t>
-  </si>
-  <si>
-    <t>ブラウン シモン アンソニー;;BOSE SAURABH KUMAR;;FOSTNER SHAWN;;フォスナー ショーン;;ボーズ サウラブ クマー;;BROWN SIMON ANTHONY</t>
-  </si>
-  <si>
-    <t>CHUNG YONG HO;;최정우;;CHOI JEONG WOO;;정용호</t>
-  </si>
-  <si>
-    <t>XING YAN;;幸研;;张辉;;李源;;ZHANG HUI;;张晋;;ZHANG JIN;;LI YUAN</t>
-  </si>
-  <si>
-    <t>STRAUSS KARIN;;CHEN WEIDA;;R·格拉斯;;W·陈;;KOHLL ALEXANDER XAVIER CHRISTOF;;GRASS ROBERT;;A·X·C·科尔;;K·施特劳斯;;NGUYEN BICHLIEN HOANG;;B·H·阮</t>
-  </si>
-  <si>
-    <t>新海 剛;;SHINKAI GOU</t>
-  </si>
-  <si>
-    <t>JIANG YADONG;;顾德恩;;GU DEEN;;钟豪;;ZHONG HAO;;陈奕丞;;LI DONGYANG;;CHEN YICHENG;;GU DE'EN;;蒋亚东;;LI WEI;;李伟;;李东阳</t>
-  </si>
-  <si>
-    <t>파쿼 아마드;;JEONG YOUNG MIN;;FAROOQ AHMAD;;정영민;;SHIN HYUN DONG;;신현동</t>
+    <t>RAMPRASAD RAMPI;;KIM CHIHO;;CHANDRASEKARAN ANAND</t>
+  </si>
+  <si>
+    <t>바엔즈 라미;;CASTRILLO SERGIO BOIXO;;ハルトムート・ネーフェン;;NIU YUEZHEN;;ヴァディム・スメリャンスキー;;SMELYANSKIY VADIM;;BARENDS RAMI;;NEVEN HARTMUT;;ユエゼン・ニウ;;ラミ・バレントス;;BABBUSH RYAN;;セルジオ・バイショ・カストリージョ;;BOIXO CASTRILLO SERGIO</t>
+  </si>
+  <si>
+    <t>ボーズ サウラブ クマー;;FOSTNER SHAWN;;フォスナー ショーン;;ブラウン シモン アンソニー;;BOSE SAURABH KUMAR;;BROWN SIMON ANTHONY</t>
+  </si>
+  <si>
+    <t>최정우;;CHUNG YONG HO;;CHOI JEONG WOO;;정용호</t>
+  </si>
+  <si>
+    <t>李源;;XING YAN;;LI YUAN;;张辉;;张晋;;ZHANG JIN;;幸研;;ZHANG HUI</t>
+  </si>
+  <si>
+    <t>GRASS ROBERT;;STRAUSS KARIN;;K·施特劳斯;;CHEN WEIDA;;A·X·C·科尔;;B·H·阮;;W·陈;;R·格拉斯;;NGUYEN BICHLIEN HOANG;;KOHLL ALEXANDER XAVIER CHRISTOF</t>
+  </si>
+  <si>
+    <t>SHINKAI GOU;;新海 剛</t>
+  </si>
+  <si>
+    <t>陈奕丞;;JIANG YADONG;;GU DEEN;;LI WEI;;ZHONG HAO;;顾德恩;;钟豪;;蒋亚东;;李东阳;;LI DONGYANG;;李伟;;GU DE'EN;;CHEN YICHENG</t>
+  </si>
+  <si>
+    <t>FAROOQ AHMAD;;신현동;;정영민;;JEONG YOUNG MIN;;SHIN HYUN DONG;;파쿼 아마드</t>
+  </si>
+  <si>
+    <t>PREDKI PAUL F;;ポール・エフ・プレドキ;;CASSIDY MAJA;;マジャ・キャシディ</t>
   </si>
   <si>
     <t>JIANG WEINAN;;YU XING</t>
   </si>
   <si>
-    <t>YOON TAE HYUN;;하키우;;HA KIEU MY;;김진배;;윤태현;;트린수안텅;;TRINH XUAN TUNG;;KIM JIN BAE</t>
-  </si>
-  <si>
-    <t>DOORNBOS GERBEN;;VAN DAL MARCUS JOHANNES HENRICUS;;MARCUS JOHANNES HENRICUS VAN DAL;;MAURICIO MANFRINI;;MANFRINI MAURICIO;;GERBEN DOORNBOS</t>
-  </si>
-  <si>
-    <t>BHATIA SWAPNIL P;;PARK HYUNJUN;;ROQUET NATHANIEL;;LEAKE DEVIN</t>
-  </si>
-  <si>
-    <t>NIU YUEZHEN;;BOIXO CASTRILLO SERGIO;;ハルトムート・ネーヴェン;;FARHI EDWARD HENRY;;SMELYANSKIY VADIM;;ユエゼン・ニウ;;CASTRILLO SERGIO BOIXO;;エドワード・ヘンリー・ファーリ;;ハルトムート・ネーフェン;;ヴァディム・スメリャンスキー;;NEVEN HARTMUT;;セルジオ・バイショ・カストリージョ</t>
-  </si>
-  <si>
-    <t>SMIRNOV SERGEJ NIKOLAEVICH;;스미르노브, 세르게이 니콜라예비치;;SMIRNOV SERGEY NIIKOLAYEVICH;;SMIRNOV SERGEY NIKOLAYEVICH</t>
-  </si>
-  <si>
-    <t>ADELMANN HANNS CHRISTOPH;;COSTA JOSE DIOGO;;CIUBOTARU FLORIN</t>
-  </si>
-  <si>
-    <t>GAMBETTA JAY M;;MCCLURE III DOUGLAS T;;MCCLURE III DOUGLAS TEMPLETON;;DIAL OLIVER;;GAMBETTA JAY;;STEFFEN MATTHIAS</t>
-  </si>
-  <si>
-    <t>ステファン、マティアス;;D·T·麦克鲁尔三世;;マクルーア ザ サード、ダグラス、テンプルトン;;MATTHIAS STEFFEN;;M·斯蒂芬;;MCCLURE III DOUGLAS TEMPLETON;;OLIVER DIAL;;ダイアル、オリバー;;DIAL OLIVER;;JAY GAMBETTA;;ガンベッタ、ジェイ;;O·蒂亚尔;;GAMBETTA JAY;;STEFFEN MATTHIAS;;J·加姆贝塔;;DOUGLAS TEMPLETON MCCLURE III</t>
-  </si>
-  <si>
-    <t>朱正勇;;亨利·H·阿达姆松;;ZHU HUILONG;;HENRY H ADAMSON;;WANG GUILEI;;ZHANG YANBO;;王桂磊;;张严波;;朱慧珑;;ZHU ZHENGYONG</t>
-  </si>
-  <si>
-    <t>스미르노브, 세르게이 니콜라예비치;;SMIRNOV SERGEY NIKOLAYEVICH</t>
-  </si>
-  <si>
-    <t>BOSE SAURABH KUMAR;;FOSTNER SHAWN;;BROWN SIMON ANTHONY</t>
-  </si>
-  <si>
-    <t>ラミ・バレントス;;BARENDS RAMI;;바엔즈 라미</t>
+    <t>하키우;;트린수안텅;;HA KIEU MY;;윤태현;;YOON TAE HYUN;;TRINH XUAN TUNG;;KIM JIN BAE;;김진배</t>
+  </si>
+  <si>
+    <t>MARCUS JOHANNES HENRICUS VAN DAL;;MANFRINI MAURICIO;;DOORNBOS GERBEN;;GERBEN DOORNBOS;;MAURICIO MANFRINI;;VAN DAL MARCUS JOHANNES HENRICUS</t>
+  </si>
+  <si>
+    <t>ROQUET NATHANIEL;;PARK HYUNJUN;;LEAKE DEVIN;;BHATIA SWAPNIL P</t>
+  </si>
+  <si>
+    <t>CASTRILLO SERGIO BOIXO;;ハルトムート・ネーフェン;;ヴァディム・スメリャンスキー;;NIU YUEZHEN;;ハルトムート・ネーヴェン;;FARHI EDWARD HENRY;;SMELYANSKIY VADIM;;NEVEN HARTMUT;;ユエゼン・ニウ;;セルジオ・バイショ・カストリージョ;;BOIXO CASTRILLO SERGIO;;エドワード・ヘンリー・ファーリ</t>
+  </si>
+  <si>
+    <t>SMIRNOV SERGEJ NIKOLAEVICH;;SMIRNOV SERGEY NIIKOLAYEVICH;;SMIRNOV SERGEY NIKOLAYEVICH;;스미르노브, 세르게이 니콜라예비치</t>
+  </si>
+  <si>
+    <t>CIUBOTARU FLORIN;;ADELMANN HANNS CHRISTOPH;;COSTA JOSE DIOGO</t>
+  </si>
+  <si>
+    <t>GAMBETTA JAY M;;MCCLURE III DOUGLAS TEMPLETON;;DIAL OLIVER;;MCCLURE III DOUGLAS T;;STEFFEN MATTHIAS;;GAMBETTA JAY</t>
+  </si>
+  <si>
+    <t>マクルーア ザ サード、ダグラス、テンプルトン;;ガンベッタ、ジェイ;;M·斯蒂芬;;OLIVER DIAL;;ステファン、マティアス;;MCCLURE III DOUGLAS TEMPLETON;;DIAL OLIVER;;MATTHIAS STEFFEN;;ダイアル、オリバー;;JAY GAMBETTA;;O·蒂亚尔;;DOUGLAS TEMPLETON MCCLURE III;;D·T·麦克鲁尔三世;;STEFFEN MATTHIAS;;J·加姆贝塔;;GAMBETTA JAY</t>
+  </si>
+  <si>
+    <t>SMIRNOV SERGEY NIKOLAYEVICH;;스미르노브, 세르게이 니콜라예비치</t>
+  </si>
+  <si>
+    <t>FOSTNER SHAWN;;BROWN SIMON ANTHONY;;BOSE SAURABH KUMAR</t>
+  </si>
+  <si>
+    <t>바엔즈 라미;;BARENDS RAMI;;ラミ・バレントス</t>
   </si>
   <si>
     <t>SMIRNOV SERGEJ NIKOLAEVICH;;SMIRNOV SERGEY NIIKOLAYEVICH;;SMIRNOV SERGEY NIKOLAYEVICH</t>
   </si>
   <si>
-    <t>NIU YUEZHEN;;BOIXO CASTRILLO SERGIO;;NEVEN HARTMUT;;SMELYANSKIY VADIM;;ユエゼン・ニウ;;CASTRILLO SERGIO BOIXO;;ハルトムート・ネーフェン;;ヴァディム・スメリャンスキー;;セルジオ・バイショ・カストリージョ</t>
+    <t>CASTRILLO SERGIO BOIXO;;ハルトムート・ネーフェン;;ヴァディム・スメリャンスキー;;NIU YUEZHEN;;SMELYANSKIY VADIM;;NEVEN HARTMUT;;ユエゼン・ニウ;;セルジオ・バイショ・カストリージョ;;BOIXO CASTRILLO SERGIO</t>
   </si>
 </sst>
 </file>
@@ -1506,7 +1515,7 @@
         <v>148</v>
       </c>
       <c r="J2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K2" t="s">
         <v>148</v>
@@ -1530,7 +1539,7 @@
         <v>29</v>
       </c>
       <c r="R2" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="S2" t="b">
         <v>0</v>
@@ -1571,28 +1580,28 @@
         <v>30</v>
       </c>
       <c r="B3">
-        <v>12.64285714285714</v>
+        <v>12.16666666666667</v>
       </c>
       <c r="C3">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D3">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="E3">
-        <v>0.8345949237548312</v>
+        <v>0.7190165822573612</v>
       </c>
       <c r="F3">
-        <v>0.7068096974450839</v>
+        <v>0.9571246241229535</v>
       </c>
       <c r="G3">
-        <v>1.116957279795512</v>
+        <v>0.751852436930621</v>
       </c>
       <c r="H3">
-        <v>1.125</v>
+        <v>3.066666666666667</v>
       </c>
       <c r="I3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J3" t="s">
         <v>178</v>
@@ -1604,55 +1613,55 @@
         <v>214</v>
       </c>
       <c r="M3">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>3.5</v>
+        <v>3.666666666666667</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P3">
+        <v>5</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>220</v>
+      </c>
+      <c r="R3" t="s">
+        <v>259</v>
+      </c>
+      <c r="S3" t="b">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>4.666666666666666</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>2.5</v>
+      </c>
+      <c r="X3">
+        <v>5</v>
+      </c>
+      <c r="Y3">
         <v>6</v>
       </c>
-      <c r="Q3" t="s">
-        <v>219</v>
-      </c>
-      <c r="R3" t="s">
-        <v>256</v>
-      </c>
-      <c r="S3" t="b">
-        <v>0</v>
-      </c>
-      <c r="T3">
-        <v>4.166666666666667</v>
-      </c>
-      <c r="U3">
-        <v>4</v>
-      </c>
-      <c r="V3">
-        <v>3.333333333333333</v>
-      </c>
-      <c r="W3">
-        <v>1.142857142857143</v>
-      </c>
-      <c r="X3">
-        <v>0</v>
-      </c>
-      <c r="Y3">
-        <v>5</v>
-      </c>
       <c r="Z3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC3">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -1660,25 +1669,25 @@
         <v>31</v>
       </c>
       <c r="B4">
-        <v>12.16666666666667</v>
+        <v>11.64285714285714</v>
       </c>
       <c r="C4">
         <v>15</v>
       </c>
       <c r="D4">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="E4">
-        <v>0.7190165822573612</v>
+        <v>0.8345949237548312</v>
       </c>
       <c r="F4">
-        <v>0.9571246241229535</v>
+        <v>0.7615259575578296</v>
       </c>
       <c r="G4">
-        <v>0.751852436930621</v>
+        <v>1.116957279795512</v>
       </c>
       <c r="H4">
-        <v>3.066666666666667</v>
+        <v>1.2</v>
       </c>
       <c r="I4" t="s">
         <v>148</v>
@@ -1693,55 +1702,55 @@
         <v>215</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="N4">
-        <v>3.666666666666667</v>
+        <v>3.5</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P4">
+        <v>6</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>221</v>
+      </c>
+      <c r="R4" t="s">
+        <v>260</v>
+      </c>
+      <c r="S4" t="b">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>3.166666666666667</v>
+      </c>
+      <c r="U4">
+        <v>4</v>
+      </c>
+      <c r="V4">
+        <v>3.333333333333333</v>
+      </c>
+      <c r="W4">
+        <v>1.142857142857143</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>4</v>
+      </c>
+      <c r="Z4">
         <v>5</v>
       </c>
-      <c r="Q4" t="s">
-        <v>220</v>
-      </c>
-      <c r="R4" t="s">
-        <v>257</v>
-      </c>
-      <c r="S4" t="b">
-        <v>0</v>
-      </c>
-      <c r="T4">
-        <v>4.666666666666666</v>
-      </c>
-      <c r="U4">
-        <v>0</v>
-      </c>
-      <c r="V4">
-        <v>0</v>
-      </c>
-      <c r="W4">
-        <v>2.5</v>
-      </c>
-      <c r="X4">
-        <v>5</v>
-      </c>
-      <c r="Y4">
-        <v>6</v>
-      </c>
-      <c r="Z4">
-        <v>0</v>
-      </c>
       <c r="AA4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AB4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC4">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -1770,7 +1779,7 @@
         <v>2.666666666666667</v>
       </c>
       <c r="I5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J5" t="s">
         <v>180</v>
@@ -1797,7 +1806,7 @@
         <v>32</v>
       </c>
       <c r="R5" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="S5" t="b">
         <v>0</v>
@@ -1883,10 +1892,10 @@
         <v>2</v>
       </c>
       <c r="Q6" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="R6" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="S6" t="b">
         <v>0</v>
@@ -1951,13 +1960,13 @@
         <v>148</v>
       </c>
       <c r="J7" t="s">
-        <v>160</v>
+        <v>182</v>
       </c>
       <c r="K7" t="s">
         <v>157</v>
       </c>
       <c r="L7" t="s">
-        <v>160</v>
+        <v>182</v>
       </c>
       <c r="M7">
         <v>0.8333333333333333</v>
@@ -1972,10 +1981,10 @@
         <v>2</v>
       </c>
       <c r="Q7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="R7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="S7" t="b">
         <v>0</v>
@@ -2037,16 +2046,16 @@
         <v>0.6</v>
       </c>
       <c r="I8" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="J8" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K8" t="s">
         <v>148</v>
       </c>
       <c r="L8" t="s">
-        <v>149</v>
+        <v>216</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -2061,10 +2070,10 @@
         <v>3</v>
       </c>
       <c r="Q8" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="R8" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="S8" t="b">
         <v>0</v>
@@ -2123,13 +2132,13 @@
         <v>148</v>
       </c>
       <c r="J9" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K9" t="s">
         <v>148</v>
       </c>
       <c r="L9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -2147,7 +2156,7 @@
         <v>36</v>
       </c>
       <c r="R9" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="S9" t="b">
         <v>0</v>
@@ -2212,7 +2221,7 @@
         <v>148</v>
       </c>
       <c r="J10" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K10" t="s">
         <v>148</v>
@@ -2236,7 +2245,7 @@
         <v>37</v>
       </c>
       <c r="R10" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="S10" t="b">
         <v>0</v>
@@ -2292,16 +2301,16 @@
         <v>2.75</v>
       </c>
       <c r="I11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J11" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="K11" t="s">
         <v>148</v>
       </c>
       <c r="L11" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -2319,7 +2328,7 @@
         <v>38</v>
       </c>
       <c r="R11" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="S11" t="b">
         <v>0</v>
@@ -2375,10 +2384,10 @@
         <v>4.25</v>
       </c>
       <c r="I12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J12" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K12" t="s">
         <v>148</v>
@@ -2402,7 +2411,7 @@
         <v>39</v>
       </c>
       <c r="R12" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="S12" t="b">
         <v>0</v>
@@ -2461,7 +2470,7 @@
         <v>148</v>
       </c>
       <c r="J13" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K13" t="s">
         <v>148</v>
@@ -2482,10 +2491,10 @@
         <v>0</v>
       </c>
       <c r="Q13" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="R13" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="S13" t="b">
         <v>0</v>
@@ -2571,10 +2580,10 @@
         <v>3</v>
       </c>
       <c r="Q14" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="R14" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="S14" t="b">
         <v>0</v>
@@ -2722,7 +2731,7 @@
         <v>151</v>
       </c>
       <c r="J16" t="s">
-        <v>151</v>
+        <v>188</v>
       </c>
       <c r="K16" t="s">
         <v>148</v>
@@ -2746,7 +2755,7 @@
         <v>43</v>
       </c>
       <c r="R16" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="S16" t="b">
         <v>0</v>
@@ -2811,7 +2820,7 @@
         <v>152</v>
       </c>
       <c r="J17" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="K17" t="s">
         <v>165</v>
@@ -2835,7 +2844,7 @@
         <v>44</v>
       </c>
       <c r="R17" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="S17" t="b">
         <v>0</v>
@@ -2900,7 +2909,7 @@
         <v>148</v>
       </c>
       <c r="J18" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="K18" t="s">
         <v>148</v>
@@ -2921,10 +2930,10 @@
         <v>2</v>
       </c>
       <c r="Q18" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="R18" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="S18" t="b">
         <v>0</v>
@@ -2983,7 +2992,7 @@
         <v>153</v>
       </c>
       <c r="J19" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="K19" t="s">
         <v>148</v>
@@ -3004,10 +3013,10 @@
         <v>0</v>
       </c>
       <c r="Q19" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="R19" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="S19" t="b">
         <v>0</v>
@@ -3072,7 +3081,7 @@
         <v>148</v>
       </c>
       <c r="J20" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="K20" t="s">
         <v>148</v>
@@ -3093,10 +3102,10 @@
         <v>1</v>
       </c>
       <c r="Q20" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="R20" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="S20" t="b">
         <v>0</v>
@@ -3161,13 +3170,13 @@
         <v>154</v>
       </c>
       <c r="J21" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K21" t="s">
         <v>148</v>
       </c>
       <c r="L21" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -3185,7 +3194,7 @@
         <v>48</v>
       </c>
       <c r="R21" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="S21" t="b">
         <v>0</v>
@@ -3244,13 +3253,13 @@
         <v>154</v>
       </c>
       <c r="J22" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K22" t="s">
         <v>148</v>
       </c>
       <c r="L22" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -3268,7 +3277,7 @@
         <v>49</v>
       </c>
       <c r="R22" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="S22" t="b">
         <v>0</v>
@@ -3324,10 +3333,10 @@
         <v>3</v>
       </c>
       <c r="I23" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J23" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K23" t="s">
         <v>148</v>
@@ -3351,7 +3360,7 @@
         <v>50</v>
       </c>
       <c r="R23" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="S23" t="b">
         <v>0</v>
@@ -3410,7 +3419,7 @@
         <v>153</v>
       </c>
       <c r="J24" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K24" t="s">
         <v>148</v>
@@ -3434,7 +3443,7 @@
         <v>51</v>
       </c>
       <c r="R24" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="S24" t="b">
         <v>0</v>
@@ -3499,7 +3508,7 @@
         <v>148</v>
       </c>
       <c r="J25" t="s">
-        <v>191</v>
+        <v>158</v>
       </c>
       <c r="K25" t="s">
         <v>148</v>
@@ -3523,7 +3532,7 @@
         <v>52</v>
       </c>
       <c r="R25" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="S25" t="b">
         <v>0</v>
@@ -3588,7 +3597,7 @@
         <v>153</v>
       </c>
       <c r="J26" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K26" t="s">
         <v>148</v>
@@ -3612,7 +3621,7 @@
         <v>53</v>
       </c>
       <c r="R26" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="S26" t="b">
         <v>0</v>
@@ -3677,13 +3686,13 @@
         <v>155</v>
       </c>
       <c r="J27" t="s">
-        <v>192</v>
+        <v>155</v>
       </c>
       <c r="K27" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L27" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M27">
         <v>0</v>
@@ -3701,7 +3710,7 @@
         <v>54</v>
       </c>
       <c r="R27" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="S27" t="b">
         <v>0</v>
@@ -3769,10 +3778,10 @@
         <v>193</v>
       </c>
       <c r="K28" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L28" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M28">
         <v>0</v>
@@ -3790,7 +3799,7 @@
         <v>55</v>
       </c>
       <c r="R28" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="S28" t="b">
         <v>0</v>
@@ -3855,7 +3864,7 @@
         <v>153</v>
       </c>
       <c r="J29" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K29" t="s">
         <v>148</v>
@@ -3876,10 +3885,10 @@
         <v>1</v>
       </c>
       <c r="Q29" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="R29" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="S29" t="b">
         <v>0</v>
@@ -3944,7 +3953,7 @@
         <v>157</v>
       </c>
       <c r="J30" t="s">
-        <v>160</v>
+        <v>182</v>
       </c>
       <c r="K30" t="s">
         <v>157</v>
@@ -3965,10 +3974,10 @@
         <v>2</v>
       </c>
       <c r="Q30" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="R30" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="S30" t="b">
         <v>0</v>
@@ -4033,7 +4042,7 @@
         <v>153</v>
       </c>
       <c r="J31" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K31" t="s">
         <v>148</v>
@@ -4054,10 +4063,10 @@
         <v>1</v>
       </c>
       <c r="Q31" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="R31" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="S31" t="b">
         <v>0</v>
@@ -4119,10 +4128,10 @@
         <v>4.5</v>
       </c>
       <c r="I32" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J32" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K32" t="s">
         <v>148</v>
@@ -4143,10 +4152,10 @@
         <v>2</v>
       </c>
       <c r="Q32" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="R32" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="S32" t="b">
         <v>0</v>
@@ -4208,10 +4217,10 @@
         <v>194</v>
       </c>
       <c r="K33" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L33" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M33">
         <v>0</v>
@@ -4226,10 +4235,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="R33" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="S33" t="b">
         <v>0</v>
@@ -4312,7 +4321,7 @@
         <v>61</v>
       </c>
       <c r="R34" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="S34" t="b">
         <v>0</v>
@@ -4395,7 +4404,7 @@
         <v>62</v>
       </c>
       <c r="R35" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="S35" t="b">
         <v>0</v>
@@ -4451,10 +4460,10 @@
         <v>2</v>
       </c>
       <c r="I36" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J36" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K36" t="s">
         <v>148</v>
@@ -4478,7 +4487,7 @@
         <v>63</v>
       </c>
       <c r="R36" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="S36" t="b">
         <v>0</v>
@@ -4561,7 +4570,7 @@
         <v>64</v>
       </c>
       <c r="R37" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="S37" t="b">
         <v>0</v>
@@ -4626,7 +4635,7 @@
         <v>159</v>
       </c>
       <c r="J38" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="K38" t="s">
         <v>165</v>
@@ -4647,10 +4656,10 @@
         <v>2</v>
       </c>
       <c r="Q38" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="R38" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="S38" t="b">
         <v>0</v>
@@ -4733,7 +4742,7 @@
         <v>66</v>
       </c>
       <c r="R39" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="S39" t="b">
         <v>0</v>
@@ -4816,7 +4825,7 @@
         <v>67</v>
       </c>
       <c r="R40" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="S40" t="b">
         <v>0</v>
@@ -4875,7 +4884,7 @@
         <v>160</v>
       </c>
       <c r="J41" t="s">
-        <v>160</v>
+        <v>182</v>
       </c>
       <c r="K41" t="s">
         <v>157</v>
@@ -4899,7 +4908,7 @@
         <v>68</v>
       </c>
       <c r="R41" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="S41" t="b">
         <v>0</v>
@@ -4982,7 +4991,7 @@
         <v>69</v>
       </c>
       <c r="R42" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="S42" t="b">
         <v>0</v>
@@ -5038,10 +5047,10 @@
         <v>1</v>
       </c>
       <c r="I43" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J43" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K43" t="s">
         <v>148</v>
@@ -5065,7 +5074,7 @@
         <v>70</v>
       </c>
       <c r="R43" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="S43" t="b">
         <v>0</v>
@@ -5148,7 +5157,7 @@
         <v>71</v>
       </c>
       <c r="R44" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="S44" t="b">
         <v>0</v>
@@ -5231,7 +5240,7 @@
         <v>72</v>
       </c>
       <c r="R45" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="S45" t="b">
         <v>0</v>
@@ -5314,7 +5323,7 @@
         <v>73</v>
       </c>
       <c r="R46" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="S46" t="b">
         <v>0</v>
@@ -5376,16 +5385,16 @@
         <v>5</v>
       </c>
       <c r="I47" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J47" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K47" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L47" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M47">
         <v>0</v>
@@ -5403,7 +5412,7 @@
         <v>74</v>
       </c>
       <c r="R47" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="S47" t="b">
         <v>0</v>
@@ -5459,16 +5468,16 @@
         <v>2</v>
       </c>
       <c r="I48" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J48" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K48" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L48" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M48">
         <v>0</v>
@@ -5486,7 +5495,7 @@
         <v>75</v>
       </c>
       <c r="R48" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="S48" t="b">
         <v>0</v>
@@ -5569,7 +5578,7 @@
         <v>76</v>
       </c>
       <c r="R49" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="S49" t="b">
         <v>0</v>
@@ -5652,7 +5661,7 @@
         <v>77</v>
       </c>
       <c r="R50" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="S50" t="b">
         <v>0</v>
@@ -5717,7 +5726,7 @@
         <v>159</v>
       </c>
       <c r="J51" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="K51" t="s">
         <v>165</v>
@@ -5741,7 +5750,7 @@
         <v>78</v>
       </c>
       <c r="R51" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="S51" t="b">
         <v>0</v>
@@ -5824,7 +5833,7 @@
         <v>79</v>
       </c>
       <c r="R52" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="S52" t="b">
         <v>0</v>
@@ -5889,7 +5898,7 @@
         <v>154</v>
       </c>
       <c r="J53" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K53" t="s">
         <v>148</v>
@@ -5910,10 +5919,10 @@
         <v>1</v>
       </c>
       <c r="Q53" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="R53" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="S53" t="b">
         <v>1</v>
@@ -5996,7 +6005,7 @@
         <v>81</v>
       </c>
       <c r="R54" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="S54" t="b">
         <v>0</v>
@@ -6052,10 +6061,10 @@
         <v>1</v>
       </c>
       <c r="I55" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J55" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K55" t="s">
         <v>148</v>
@@ -6079,7 +6088,7 @@
         <v>82</v>
       </c>
       <c r="R55" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="S55" t="b">
         <v>0</v>
@@ -6162,7 +6171,7 @@
         <v>83</v>
       </c>
       <c r="R56" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="S56" t="b">
         <v>0</v>
@@ -6227,7 +6236,7 @@
         <v>159</v>
       </c>
       <c r="J57" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="K57" t="s">
         <v>165</v>
@@ -6248,10 +6257,10 @@
         <v>2</v>
       </c>
       <c r="Q57" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="R57" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="S57" t="b">
         <v>0</v>
@@ -6313,10 +6322,10 @@
         <v>3</v>
       </c>
       <c r="I58" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J58" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K58" t="s">
         <v>148</v>
@@ -6340,7 +6349,7 @@
         <v>85</v>
       </c>
       <c r="R58" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="S58" t="b">
         <v>0</v>
@@ -6423,7 +6432,7 @@
         <v>86</v>
       </c>
       <c r="R59" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="S59" t="b">
         <v>0</v>
@@ -6488,7 +6497,7 @@
         <v>161</v>
       </c>
       <c r="J60" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K60" t="s">
         <v>148</v>
@@ -6509,10 +6518,10 @@
         <v>3</v>
       </c>
       <c r="Q60" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="R60" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="S60" t="b">
         <v>0</v>
@@ -6595,7 +6604,7 @@
         <v>88</v>
       </c>
       <c r="R61" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="S61" t="b">
         <v>0</v>
@@ -6678,7 +6687,7 @@
         <v>89</v>
       </c>
       <c r="R62" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="S62" t="b">
         <v>0</v>
@@ -6737,13 +6746,13 @@
         <v>163</v>
       </c>
       <c r="J63" t="s">
-        <v>163</v>
+        <v>196</v>
       </c>
       <c r="K63" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L63" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M63">
         <v>0</v>
@@ -6761,7 +6770,7 @@
         <v>90</v>
       </c>
       <c r="R63" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="S63" t="b">
         <v>0</v>
@@ -6817,10 +6826,10 @@
         <v>3</v>
       </c>
       <c r="I64" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J64" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K64" t="s">
         <v>148</v>
@@ -6844,7 +6853,7 @@
         <v>91</v>
       </c>
       <c r="R64" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="S64" t="b">
         <v>0</v>
@@ -6909,7 +6918,7 @@
         <v>153</v>
       </c>
       <c r="J65" t="s">
-        <v>196</v>
+        <v>179</v>
       </c>
       <c r="K65" t="s">
         <v>148</v>
@@ -6930,10 +6939,10 @@
         <v>2</v>
       </c>
       <c r="Q65" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="R65" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="S65" t="b">
         <v>0</v>
@@ -7001,10 +7010,10 @@
         <v>197</v>
       </c>
       <c r="K66" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L66" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M66">
         <v>0</v>
@@ -7019,10 +7028,10 @@
         <v>2</v>
       </c>
       <c r="Q66" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="R66" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="S66" t="b">
         <v>0</v>
@@ -7108,10 +7117,10 @@
         <v>1</v>
       </c>
       <c r="Q67" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="R67" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="S67" t="b">
         <v>0</v>
@@ -7197,10 +7206,10 @@
         <v>1</v>
       </c>
       <c r="Q68" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="R68" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="S68" t="b">
         <v>0</v>
@@ -7286,10 +7295,10 @@
         <v>1</v>
       </c>
       <c r="Q69" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="R69" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="S69" t="b">
         <v>0</v>
@@ -7348,7 +7357,7 @@
         <v>166</v>
       </c>
       <c r="J70" t="s">
-        <v>166</v>
+        <v>198</v>
       </c>
       <c r="K70" t="s">
         <v>148</v>
@@ -7369,10 +7378,10 @@
         <v>0</v>
       </c>
       <c r="Q70" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="R70" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="S70" t="b">
         <v>0</v>
@@ -7434,10 +7443,10 @@
         <v>167</v>
       </c>
       <c r="K71" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L71" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M71">
         <v>0</v>
@@ -7452,10 +7461,10 @@
         <v>0</v>
       </c>
       <c r="Q71" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="R71" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="S71" t="b">
         <v>0</v>
@@ -7520,7 +7529,7 @@
         <v>160</v>
       </c>
       <c r="J72" t="s">
-        <v>160</v>
+        <v>182</v>
       </c>
       <c r="K72" t="s">
         <v>157</v>
@@ -7541,10 +7550,10 @@
         <v>1</v>
       </c>
       <c r="Q72" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="R72" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="S72" t="b">
         <v>0</v>
@@ -7624,10 +7633,10 @@
         <v>0</v>
       </c>
       <c r="Q73" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="R73" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="S73" t="b">
         <v>0</v>
@@ -7686,7 +7695,7 @@
         <v>168</v>
       </c>
       <c r="J74" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="K74" t="s">
         <v>148</v>
@@ -7707,10 +7716,10 @@
         <v>0</v>
       </c>
       <c r="Q74" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="R74" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="S74" t="b">
         <v>0</v>
@@ -7796,10 +7805,10 @@
         <v>1</v>
       </c>
       <c r="Q75" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="R75" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="S75" t="b">
         <v>0</v>
@@ -7864,13 +7873,13 @@
         <v>169</v>
       </c>
       <c r="J76" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K76" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L76" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M76">
         <v>0</v>
@@ -7885,10 +7894,10 @@
         <v>1</v>
       </c>
       <c r="Q76" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="R76" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="S76" t="b">
         <v>0</v>
@@ -7953,7 +7962,7 @@
         <v>170</v>
       </c>
       <c r="J77" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="K77" t="s">
         <v>148</v>
@@ -7974,10 +7983,10 @@
         <v>1</v>
       </c>
       <c r="Q77" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="R77" t="s">
-        <v>272</v>
+        <v>327</v>
       </c>
       <c r="S77" t="b">
         <v>0</v>
@@ -8057,10 +8066,10 @@
         <v>0</v>
       </c>
       <c r="Q78" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R78" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="S78" t="b">
         <v>0</v>
@@ -8146,10 +8155,10 @@
         <v>1</v>
       </c>
       <c r="Q79" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="R79" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="S79" t="b">
         <v>0</v>
@@ -8235,10 +8244,10 @@
         <v>1</v>
       </c>
       <c r="Q80" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="R80" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="S80" t="b">
         <v>0</v>
@@ -8303,7 +8312,7 @@
         <v>160</v>
       </c>
       <c r="J81" t="s">
-        <v>160</v>
+        <v>182</v>
       </c>
       <c r="K81" t="s">
         <v>157</v>
@@ -8324,10 +8333,10 @@
         <v>1</v>
       </c>
       <c r="Q81" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="R81" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="S81" t="b">
         <v>0</v>
@@ -8386,7 +8395,7 @@
         <v>171</v>
       </c>
       <c r="J82" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="K82" t="s">
         <v>148</v>
@@ -8407,10 +8416,10 @@
         <v>0</v>
       </c>
       <c r="Q82" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="R82" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="S82" t="b">
         <v>0</v>
@@ -8469,7 +8478,7 @@
         <v>171</v>
       </c>
       <c r="J83" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="K83" t="s">
         <v>148</v>
@@ -8490,10 +8499,10 @@
         <v>0</v>
       </c>
       <c r="Q83" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="R83" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="S83" t="b">
         <v>0</v>
@@ -8552,7 +8561,7 @@
         <v>172</v>
       </c>
       <c r="J84" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="K84" t="s">
         <v>148</v>
@@ -8573,10 +8582,10 @@
         <v>0</v>
       </c>
       <c r="Q84" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="R84" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="S84" t="b">
         <v>0</v>
@@ -8656,10 +8665,10 @@
         <v>0</v>
       </c>
       <c r="Q85" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="R85" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="S85" t="b">
         <v>0</v>
@@ -8721,10 +8730,10 @@
         <v>167</v>
       </c>
       <c r="K86" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L86" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M86">
         <v>0</v>
@@ -8739,10 +8748,10 @@
         <v>0</v>
       </c>
       <c r="Q86" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="R86" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="S86" t="b">
         <v>0</v>
@@ -8822,10 +8831,10 @@
         <v>0</v>
       </c>
       <c r="Q87" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R87" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="S87" t="b">
         <v>0</v>
@@ -8890,7 +8899,7 @@
         <v>161</v>
       </c>
       <c r="J88" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K88" t="s">
         <v>148</v>
@@ -8911,10 +8920,10 @@
         <v>1</v>
       </c>
       <c r="Q88" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="R88" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="S88" t="b">
         <v>0</v>
@@ -8979,13 +8988,13 @@
         <v>165</v>
       </c>
       <c r="J89" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K89" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L89" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M89">
         <v>0</v>
@@ -9000,10 +9009,10 @@
         <v>1</v>
       </c>
       <c r="Q89" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="R89" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="S89" t="b">
         <v>0</v>
@@ -9068,13 +9077,13 @@
         <v>165</v>
       </c>
       <c r="J90" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K90" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L90" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M90">
         <v>0</v>
@@ -9089,10 +9098,10 @@
         <v>1</v>
       </c>
       <c r="Q90" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="R90" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="S90" t="b">
         <v>1</v>
@@ -9157,7 +9166,7 @@
         <v>173</v>
       </c>
       <c r="J91" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K91" t="s">
         <v>148</v>
@@ -9178,10 +9187,10 @@
         <v>1</v>
       </c>
       <c r="Q91" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="R91" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="S91" t="b">
         <v>0</v>
@@ -9240,13 +9249,13 @@
         <v>158</v>
       </c>
       <c r="J92" t="s">
-        <v>191</v>
+        <v>158</v>
       </c>
       <c r="K92" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L92" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M92">
         <v>0</v>
@@ -9261,10 +9270,10 @@
         <v>0</v>
       </c>
       <c r="Q92" t="s">
-        <v>232</v>
+        <v>250</v>
       </c>
       <c r="R92" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="S92" t="b">
         <v>0</v>
@@ -9329,7 +9338,7 @@
         <v>153</v>
       </c>
       <c r="J93" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K93" t="s">
         <v>148</v>
@@ -9350,10 +9359,10 @@
         <v>1</v>
       </c>
       <c r="Q93" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="R93" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="S93" t="b">
         <v>0</v>
@@ -9412,13 +9421,13 @@
         <v>158</v>
       </c>
       <c r="J94" t="s">
-        <v>191</v>
+        <v>158</v>
       </c>
       <c r="K94" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L94" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M94">
         <v>0</v>
@@ -9433,10 +9442,10 @@
         <v>0</v>
       </c>
       <c r="Q94" t="s">
-        <v>232</v>
+        <v>250</v>
       </c>
       <c r="R94" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="S94" t="b">
         <v>0</v>
@@ -9501,13 +9510,13 @@
         <v>174</v>
       </c>
       <c r="J95" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K95" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L95" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="M95">
         <v>0</v>
@@ -9522,10 +9531,10 @@
         <v>1</v>
       </c>
       <c r="Q95" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="R95" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="S95" t="b">
         <v>0</v>
@@ -9590,7 +9599,7 @@
         <v>173</v>
       </c>
       <c r="J96" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K96" t="s">
         <v>148</v>
@@ -9611,10 +9620,10 @@
         <v>1</v>
       </c>
       <c r="Q96" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="R96" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="S96" t="b">
         <v>0</v>
@@ -9679,7 +9688,7 @@
         <v>160</v>
       </c>
       <c r="J97" t="s">
-        <v>160</v>
+        <v>182</v>
       </c>
       <c r="K97" t="s">
         <v>157</v>
@@ -9700,10 +9709,10 @@
         <v>1</v>
       </c>
       <c r="Q97" t="s">
-        <v>222</v>
+        <v>252</v>
       </c>
       <c r="R97" t="s">
-        <v>333</v>
+        <v>285</v>
       </c>
       <c r="S97" t="b">
         <v>0</v>
@@ -9768,13 +9777,13 @@
         <v>174</v>
       </c>
       <c r="J98" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K98" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L98" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="M98">
         <v>0</v>
@@ -9789,10 +9798,10 @@
         <v>1</v>
       </c>
       <c r="Q98" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="R98" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="S98" t="b">
         <v>0</v>
@@ -9854,10 +9863,10 @@
         <v>165</v>
       </c>
       <c r="K99" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L99" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M99">
         <v>0</v>
@@ -9872,10 +9881,10 @@
         <v>0</v>
       </c>
       <c r="Q99" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="R99" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="S99" t="b">
         <v>1</v>
@@ -9937,16 +9946,16 @@
         <v>3</v>
       </c>
       <c r="I100" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J100" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K100" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L100" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M100">
         <v>0</v>
@@ -9961,10 +9970,10 @@
         <v>1</v>
       </c>
       <c r="Q100" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="R100" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="S100" t="b">
         <v>1</v>
@@ -10026,16 +10035,16 @@
         <v>3</v>
       </c>
       <c r="I101" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J101" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K101" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L101" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M101">
         <v>0</v>
@@ -10050,10 +10059,10 @@
         <v>1</v>
       </c>
       <c r="Q101" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="R101" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="S101" t="b">
         <v>1</v>
@@ -10115,10 +10124,10 @@
         <v>165</v>
       </c>
       <c r="K102" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L102" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M102">
         <v>0</v>
@@ -10133,10 +10142,10 @@
         <v>0</v>
       </c>
       <c r="Q102" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="R102" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="S102" t="b">
         <v>0</v>
@@ -10198,16 +10207,16 @@
         <v>3</v>
       </c>
       <c r="I103" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J103" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K103" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L103" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M103">
         <v>0</v>
@@ -10222,10 +10231,10 @@
         <v>1</v>
       </c>
       <c r="Q103" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="R103" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="S103" t="b">
         <v>1</v>
@@ -10311,10 +10320,10 @@
         <v>1</v>
       </c>
       <c r="Q104" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="R104" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="S104" t="b">
         <v>1</v>
@@ -10400,10 +10409,10 @@
         <v>1</v>
       </c>
       <c r="Q105" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="R105" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="S105" t="b">
         <v>1</v>
@@ -10489,10 +10498,10 @@
         <v>1</v>
       </c>
       <c r="Q106" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="R106" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="S106" t="b">
         <v>1</v>
@@ -10557,7 +10566,7 @@
         <v>175</v>
       </c>
       <c r="J107" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K107" t="s">
         <v>148</v>
@@ -10578,10 +10587,10 @@
         <v>1</v>
       </c>
       <c r="Q107" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="R107" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="S107" t="b">
         <v>0</v>
@@ -10646,7 +10655,7 @@
         <v>175</v>
       </c>
       <c r="J108" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K108" t="s">
         <v>148</v>
@@ -10667,10 +10676,10 @@
         <v>1</v>
       </c>
       <c r="Q108" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="R108" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="S108" t="b">
         <v>1</v>
@@ -10756,10 +10765,10 @@
         <v>1</v>
       </c>
       <c r="Q109" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="R109" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="S109" t="b">
         <v>1</v>
@@ -10824,7 +10833,7 @@
         <v>175</v>
       </c>
       <c r="J110" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K110" t="s">
         <v>148</v>
@@ -10845,10 +10854,10 @@
         <v>1</v>
       </c>
       <c r="Q110" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="R110" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="S110" t="b">
         <v>1</v>
@@ -10934,10 +10943,10 @@
         <v>1</v>
       </c>
       <c r="Q111" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="R111" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="S111" t="b">
         <v>1</v>
@@ -11002,13 +11011,13 @@
         <v>176</v>
       </c>
       <c r="J112" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K112" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L112" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M112">
         <v>0</v>
@@ -11023,10 +11032,10 @@
         <v>1</v>
       </c>
       <c r="Q112" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="R112" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="S112" t="b">
         <v>0</v>
@@ -11091,13 +11100,13 @@
         <v>176</v>
       </c>
       <c r="J113" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K113" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L113" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M113">
         <v>0</v>
@@ -11112,10 +11121,10 @@
         <v>1</v>
       </c>
       <c r="Q113" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="R113" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="S113" t="b">
         <v>0</v>
@@ -11180,13 +11189,13 @@
         <v>176</v>
       </c>
       <c r="J114" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K114" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L114" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M114">
         <v>0</v>
@@ -11201,10 +11210,10 @@
         <v>1</v>
       </c>
       <c r="Q114" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="R114" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="S114" t="b">
         <v>1</v>
@@ -11263,7 +11272,7 @@
         <v>177</v>
       </c>
       <c r="J115" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K115" t="s">
         <v>148</v>
@@ -11284,10 +11293,10 @@
         <v>0</v>
       </c>
       <c r="Q115" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="R115" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="S115" t="b">
         <v>1</v>
@@ -11346,7 +11355,7 @@
         <v>177</v>
       </c>
       <c r="J116" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K116" t="s">
         <v>148</v>
@@ -11367,10 +11376,10 @@
         <v>0</v>
       </c>
       <c r="Q116" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="R116" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="S116" t="b">
         <v>1</v>
@@ -11435,13 +11444,13 @@
         <v>176</v>
       </c>
       <c r="J117" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K117" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L117" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M117">
         <v>0</v>
@@ -11456,10 +11465,10 @@
         <v>1</v>
       </c>
       <c r="Q117" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="R117" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="S117" t="b">
         <v>0</v>
@@ -11518,7 +11527,7 @@
         <v>177</v>
       </c>
       <c r="J118" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K118" t="s">
         <v>148</v>
@@ -11539,10 +11548,10 @@
         <v>0</v>
       </c>
       <c r="Q118" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="R118" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="S118" t="b">
         <v>1</v>
@@ -11601,7 +11610,7 @@
         <v>177</v>
       </c>
       <c r="J119" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K119" t="s">
         <v>148</v>
@@ -11622,10 +11631,10 @@
         <v>0</v>
       </c>
       <c r="Q119" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="R119" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="S119" t="b">
         <v>1</v>
@@ -11690,13 +11699,13 @@
         <v>176</v>
       </c>
       <c r="J120" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K120" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L120" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M120">
         <v>0</v>
@@ -11711,10 +11720,10 @@
         <v>1</v>
       </c>
       <c r="Q120" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="R120" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="S120" t="b">
         <v>0</v>

--- a/tests/integration/out/ai-and-nanotech-applicants.xlsx
+++ b/tests/integration/out/ai-and-nanotech-applicants.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="346">
   <si>
     <t>Number of Simple Patent Families (Fractionally Counted)</t>
   </si>
@@ -550,91 +550,106 @@
     <t>KR;;CA;;AU;;EP;;WO;;CN;;JP;;US</t>
   </si>
   <si>
-    <t>JP;;WO;;GB;;US;;DE;;CN</t>
-  </si>
-  <si>
-    <t>JP;;WO;;AU;;EP;;US;;KR;;SG;;CA;;CN</t>
-  </si>
-  <si>
-    <t>EP;;US;;WO</t>
-  </si>
-  <si>
-    <t>EP;;US;;CN</t>
+    <t>JP;;CN;;US;;WO;;GB;;DE</t>
+  </si>
+  <si>
+    <t>CA;;CN;;JP;;EP;;US;;WO;;KR;;AU;;SG</t>
+  </si>
+  <si>
+    <t>WO;;US;;EP</t>
+  </si>
+  <si>
+    <t>US;;CN;;EP</t>
   </si>
   <si>
     <t>US;;CN</t>
   </si>
   <si>
-    <t>JP;;WO;;AU;;EP;;US;;KR;;CA;;CN</t>
-  </si>
-  <si>
-    <t>EP;;US;;WO;;CA</t>
-  </si>
-  <si>
-    <t>EP;;US;;WO;;TW</t>
+    <t>CA;;CN;;JP;;EP;;WO;;US;;KR;;AU</t>
+  </si>
+  <si>
+    <t>WO;;US;;EP;;CA</t>
+  </si>
+  <si>
+    <t>WO;;US;;EP;;TW</t>
   </si>
   <si>
     <t>US;;KR;;WO;;CA</t>
   </si>
   <si>
-    <t>WO;;AU;;EP;;US;;KR;;CA</t>
-  </si>
-  <si>
-    <t>US;;WO;;CA</t>
-  </si>
-  <si>
-    <t>CN;;US;;WO;;KR</t>
-  </si>
-  <si>
-    <t>JP;;WO;;TW;;EP;;US;;KR;;CN</t>
-  </si>
-  <si>
-    <t>EP;;US;;WO;;CN</t>
-  </si>
-  <si>
-    <t>JP;;EP;;US;;KR;;CA;;CN</t>
-  </si>
-  <si>
-    <t>WO;;GB;;TW;;EP;;SG;;CA</t>
-  </si>
-  <si>
-    <t>EP;;US;;KR</t>
+    <t>CA;;EP;;WO;;US;;KR;;AU</t>
+  </si>
+  <si>
+    <t>WO;;US;;CA</t>
+  </si>
+  <si>
+    <t>US;;CN;;KR;;WO</t>
+  </si>
+  <si>
+    <t>JP;;CN;;EP;;TW;;WO;;US;;KR</t>
+  </si>
+  <si>
+    <t>WO;;US;;CN;;EP</t>
+  </si>
+  <si>
+    <t>CA;;CN;;JP;;EP;;US;;KR</t>
+  </si>
+  <si>
+    <t>US;;EP</t>
+  </si>
+  <si>
+    <t>WO;;FR;;EP</t>
+  </si>
+  <si>
+    <t>CA;;EP;;TW;;WO;;GB;;SG</t>
+  </si>
+  <si>
+    <t>US;;EP;;KR</t>
+  </si>
+  <si>
+    <t>CA;;JP;;CN;;EP;;WO;;US;;KR;;AU;;SG</t>
   </si>
   <si>
     <t>WO;;CA</t>
   </si>
   <si>
-    <t>JP;;US;;CN</t>
-  </si>
-  <si>
-    <t>JP;;WO;;EP;;US;;KR;;CN</t>
-  </si>
-  <si>
-    <t>EP;;CN</t>
-  </si>
-  <si>
-    <t>EP;;JP;;KR;;CN</t>
-  </si>
-  <si>
-    <t>JP;;EP;;US;;KR;;CN</t>
-  </si>
-  <si>
-    <t>JP;;EP;;KR;;CA;;CN</t>
-  </si>
-  <si>
-    <t>US;;TW;;CN</t>
-  </si>
-  <si>
-    <t>EP;;KR;;AU;;CA</t>
-  </si>
-  <si>
-    <t>IL;;JP;;WO;;AU;;RU;;TW;;EP;;US;;KR;;CA;;ZA;;CN</t>
-  </si>
-  <si>
-    <t>JP;;AU;;EP;;KR;;CA;;CN</t>
-  </si>
-  <si>
-    <t>CN;;JP;;DE;;GB</t>
+    <t>CN;;JP;;US</t>
+  </si>
+  <si>
+    <t>CA;;CN;;JP;;EP;;WO;;US;;KR;;AU;;SG</t>
+  </si>
+  <si>
+    <t>CN;;JP;;EP;;US;;WO;;KR</t>
+  </si>
+  <si>
+    <t>US;;JP</t>
+  </si>
+  <si>
+    <t>CN;;JP;;KR;;EP</t>
+  </si>
+  <si>
+    <t>CN;;JP;;EP;;US;;KR</t>
+  </si>
+  <si>
+    <t>CA;;CN;;JP;;EP;;KR</t>
+  </si>
+  <si>
+    <t>US;;CN;;TW</t>
+  </si>
+  <si>
+    <t>EP;;AU;;KR;;CA</t>
+  </si>
+  <si>
+    <t>CA;;JP;;CN;;EP;;WO;;US;;KR;;AU</t>
+  </si>
+  <si>
+    <t>RU;;ZA;;CA;;CN;;JP;;EP;;TW;;WO;;US;;KR;;IL;;AU</t>
+  </si>
+  <si>
+    <t>CA;;CN;;JP;;EP;;KR;;AU</t>
+  </si>
+  <si>
+    <t>CN;;JP;;GB;;DE</t>
   </si>
   <si>
     <t>FR</t>
@@ -670,16 +685,16 @@
     <t>US;;CA</t>
   </si>
   <si>
-    <t>IL;;US</t>
-  </si>
-  <si>
-    <t>EP;;FR</t>
-  </si>
-  <si>
-    <t>国际商业机器公司;;インターナショナル・ビジネス・マシーンズ・コーポレーションＩＮＴＥＲＮＡＴＩＯＮＡＬ ＢＵＳＩＮＥＳＳ ＭＡＣＨＩＮＥＳ ＣＯＲＰＯＲＡＴＩＯＮ;;IBM (CHINA) INVEST COMPANY LTD;;IBM;;IBM UK</t>
-  </si>
-  <si>
-    <t>CASTRILLO SERGIO BOIXO;;グーグル エルエルシー;;NIU YUEZHEN;;GOOGLE INC;;GOOGLE LLC;;구글 엘엘씨;;BARENDS RAMI;;SMELYANSKIY VADIM;;NEVEN HARTMUT;;グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;ラミ・バレントス</t>
+    <t>US;;IL</t>
+  </si>
+  <si>
+    <t>FR;;EP</t>
+  </si>
+  <si>
+    <t>国际商业机器公司;;IBM (CHINA) INVEST COMPANY LTD;;IBM;;インターナショナル・ビジネス・マシーンズ・コーポレーションＩＮＴＥＲＮＡＴＩＯＮＡＬ ＢＵＳＩＮＥＳＳ ＭＡＣＨＩＮＥＳ ＣＯＲＰＯＲＡＴＩＯＮ;;IBM UK</t>
+  </si>
+  <si>
+    <t>CASTRILLO SERGIO BOIXO;;ラミ・バレントス;;GOOGLE LLC;;구글 엘엘씨;;SMELYANSKIY VADIM;;GOOGLE INC;;グーグル エルエルシー;;NIU YUEZHEN;;NEVEN HARTMUT;;グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;BARENDS RAMI</t>
   </si>
   <si>
     <t>D WAVE SYSTEMS INC;;YARKONI SHEIR</t>
@@ -688,13 +703,13 @@
     <t>INST OF MICROELECTRONICS CAS;;中国科学院微电子研究所;;INST MICROELECTRONICS CAS</t>
   </si>
   <si>
-    <t>キンダイ、インコーポレイテッドＫＹＮＤＩ， ＩＮＣ．;;킨디 인코포레이티드;;KYNDI INC</t>
-  </si>
-  <si>
-    <t>CATALOG TECHNOLOGIES INC;;CATALOG TECH INC</t>
-  </si>
-  <si>
-    <t>CARROLL WILLIAM JOSEPH;;DUNST MICHAEL J;;HARTFORD FIRE INSURANCE COMP;;MOLINSKY BRADLEY DEAN;;TIPTON THOMAS ANDREW;;BATTAGLINI JOSEPH S</t>
+    <t>킨디 인코포레이티드;;KYNDI INC;;キンダイ、インコーポレイテッドＫＹＮＤＩ， ＩＮＣ．</t>
+  </si>
+  <si>
+    <t>CATALOG TECH INC;;CATALOG TECHNOLOGIES INC</t>
+  </si>
+  <si>
+    <t>HARTFORD FIRE INSURANCE COMP;;MOLINSKY BRADLEY DEAN;;DUNST MICHAEL J;;CARROLL WILLIAM JOSEPH;;TIPTON THOMAS ANDREW;;BATTAGLINI JOSEPH S</t>
   </si>
   <si>
     <t>ラム リサーチ コーポレーションＬＡＭ ＲＥＳＥＡＲＣＨ ＣＯＲＰＯＲＡＴＩＯＮ;;LAM RES CORP</t>
@@ -703,31 +718,31 @@
     <t>微软技术许可有限责任公司;;MICROSOFT TECHNOLOGY LICENSING LLC</t>
   </si>
   <si>
-    <t>DODO OMNIDATA INC;;イリディア・インコーポレイテッドＩｒｉｄｉａ， Ｉｎｃ．;;IRIDIA INC</t>
+    <t>IRIDIA INC;;イリディア・インコーポレイテッドＩｒｉｄｉａ， Ｉｎｃ．;;DODO OMNIDATA INC</t>
   </si>
   <si>
     <t>IBM UK;;IBM;;IBM (CHINA) INVEST COMPANY LTD</t>
   </si>
   <si>
-    <t>DODO OMNIDATA INC;;IRIDIA INC</t>
-  </si>
-  <si>
-    <t>YARKONI SHEIR;;D-WAVE SYSTEMS INC</t>
-  </si>
-  <si>
-    <t>UNIV LEUVEN KATH;;KATHOLIEKE UNIV LEUVEN KU LEUVEN RESEARCH &amp; DEVELOPMENT;;IMEC VZW</t>
-  </si>
-  <si>
-    <t>UNIV SEOUL IND COOP FOUND;;서울시립대학교 산학협력단</t>
+    <t>IRIDIA INC;;DODO OMNIDATA INC</t>
+  </si>
+  <si>
+    <t>D-WAVE SYSTEMS INC;;YARKONI SHEIR</t>
+  </si>
+  <si>
+    <t>IMEC VZW;;UNIV LEUVEN KATH;;KATHOLIEKE UNIV LEUVEN KU LEUVEN RESEARCH &amp; DEVELOPMENT</t>
+  </si>
+  <si>
+    <t>서울시립대학교 산학협력단;;UNIV SEOUL IND COOP FOUND</t>
   </si>
   <si>
     <t>D WAVE SYSTEMS INC;;D-WAVE SYSTEMS INC;;YARKONI SHEIR</t>
   </si>
   <si>
-    <t>グーグル エルエルシー;;GOOGLE INC;;GOOGLE LLC;;구글 엘엘씨;;BARENDS RAMI;;グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;ラミ・バレントス</t>
-  </si>
-  <si>
-    <t>FOSTNER SHAWN;;BOSE SAURABH KUMAR;;THE UNIV OF CANTERBURY;;ザ ユニバーシティー オブ カンタベリー;;BROWN SIMON ANTHONY</t>
+    <t>ラミ・バレントス;;GOOGLE LLC;;구글 엘엘씨;;GOOGLE INC;;グーグル エルエルシー;;グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;BARENDS RAMI</t>
+  </si>
+  <si>
+    <t>THE UNIV OF CANTERBURY;;ザ ユニバーシティー オブ カンタベリー;;BOSE SAURABH KUMAR;;BROWN SIMON ANTHONY;;FOSTNER SHAWN</t>
   </si>
   <si>
     <t>UNIV SOGANG RES FOUNDATION;;서강대학교산학협력단</t>
@@ -736,151 +751,145 @@
     <t>东南大学;;UNIV SOUTHEAST</t>
   </si>
   <si>
-    <t>株式会社日立製作所;;HITACHI LTD</t>
+    <t>HITACHI LTD;;株式会社日立製作所</t>
   </si>
   <si>
     <t>电子科技大学;;UNIV ELECTRONIC SCI &amp; TECH CHINA</t>
   </si>
   <si>
-    <t>UNIV INDUSTRY COOPERATION GROUP KYUNG HEE UNIV;;경희대학교 산학협력단</t>
+    <t>경희대학교 산학협력단;;UNIV INDUSTRY COOPERATION GROUP KYUNG HEE UNIV</t>
   </si>
   <si>
     <t>THE UNIV OF CANTERBURY;;ザ ユニバーシティー オブ カンタベリー</t>
   </si>
   <si>
-    <t>イリディア・インコーポレイテッドＩｒｉｄｉａ， Ｉｎｃ．;;IRIDIA INC</t>
-  </si>
-  <si>
-    <t>ICLEAGUE TECH CO LTD;;YANGTZE DELTA REGION INST TSINGHUA UNIV ZHEJIANG</t>
-  </si>
-  <si>
-    <t>IUCF HYU;;한양대학교 산학협력단</t>
-  </si>
-  <si>
-    <t>TAIWAN SEMICONDUCTOR MFG;;TAIWAN SEMICONDUCTOR MFG CO LTD</t>
-  </si>
-  <si>
-    <t>CASTRILLO SERGIO BOIXO;;グーグル エルエルシー;;NIU YUEZHEN;;GOOGLE INC;;GOOGLE LLC;;SMELYANSKIY VADIM;;NEVEN HARTMUT;;グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ</t>
-  </si>
-  <si>
-    <t>OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD;;스미르노브, 세르게이 니콜라예비치;;LANDIGRAD LTD LIABILITY CO;;SMIRNOV SERGEY NIIKOLAYEVICH;;란디그레드, 리미티드 라이어빌리티 컴퍼니;;SMIRNOV SERGEY NIKOLAYEVICH;;LANDIGRAD LIMITED LIABILITY COMPANY;;SMIRNOV SERGEY;;LANDIGRAD LLC</t>
-  </si>
-  <si>
-    <t>IMEC VZW;;KATHOLIEKE UNIV LEUVEN KU LEUVEN RESEARCH &amp; DEVELOPMENT;;UNIV LEUVEN KATH</t>
+    <t>IRIDIA INC;;イリディア・インコーポレイテッドＩｒｉｄｉａ， Ｉｎｃ．</t>
+  </si>
+  <si>
+    <t>YANGTZE DELTA REGION INST TSINGHUA UNIV ZHEJIANG;;ICLEAGUE TECH CO LTD</t>
+  </si>
+  <si>
+    <t>한양대학교 산학협력단;;IUCF HYU</t>
+  </si>
+  <si>
+    <t>TAIWAN SEMICONDUCTOR MFG CO LTD;;TAIWAN SEMICONDUCTOR MFG</t>
+  </si>
+  <si>
+    <t>CASTRILLO SERGIO BOIXO;;GOOGLE LLC;;SMELYANSKIY VADIM;;GOOGLE INC;;NIU YUEZHEN;;グーグル エルエルシー;;NEVEN HARTMUT;;グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ</t>
+  </si>
+  <si>
+    <t>SMIRNOV SERGEY NIKOLAYEVICH;;SMIRNOV SERGEY;;LANDIGRAD LIMITED LIABILITY COMPANY;;LANDIGRAD LTD LIABILITY CO;;OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD;;란디그레드, 리미티드 라이어빌리티 컴퍼니;;LANDIGRAD LLC;;스미르노브, 세르게이 니콜라예비치;;SMIRNOV SERGEY NIIKOLAYEVICH</t>
   </si>
   <si>
     <t>国际商业机器公司;;インターナショナル・ビジネス・マシーンズ・コーポレーションＩＮＴＥＲＮＡＴＩＯＮＡＬ ＢＵＳＩＮＥＳＳ ＭＡＣＨＩＮＥＳ ＣＯＲＰＯＲＡＴＩＯＮ;;IBM</t>
   </si>
   <si>
-    <t>中国科学院微电子研究所;;INST OF MICROELECTRONICS CAS;;INST MICROELECTRONICS CAS</t>
-  </si>
-  <si>
-    <t>SMIRNOV SERGEY NIKOLAYEVICH;;스미르노브, 세르게이 니콜라예비치;;란디그레드, 리미티드 라이어빌리티 컴퍼니;;LANDIGRAD LLC</t>
-  </si>
-  <si>
-    <t>FOSTNER SHAWN;;THE UNIV OF CANTERBURY;;BROWN SIMON ANTHONY;;BOSE SAURABH KUMAR</t>
-  </si>
-  <si>
-    <t>グーグル エルエルシー;;GOOGLE INC;;GOOGLE LLC;;구글 엘엘씨;;BARENDS RAMI;;ラミ・バレントス</t>
-  </si>
-  <si>
-    <t>OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD;;LANDIGRAD LLC;;SMIRNOV SERGEY NIIKOLAYEVICH;;SMIRNOV SERGEY NIKOLAYEVICH;;LANDIGRAD LIMITED LIABILITY COMPANY;;SMIRNOV SERGEY;;LANDIGRAD LTD LIABILITY CO</t>
-  </si>
-  <si>
-    <t>CASTRILLO SERGIO BOIXO;;NIU YUEZHEN;;GOOGLE INC;;GOOGLE LLC;;SMELYANSKIY VADIM;;NEVEN HARTMUT;;グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ</t>
-  </si>
-  <si>
-    <t>ASKER MICHAEL ALBERT;;LEIPOLD DIRK ROBERT WALTER;;MAXIM GEORGE ADRIAN</t>
-  </si>
-  <si>
-    <t>PHAN ANNA T;;M·斯蒂芬;;GREENBERG DON;;PISTOIA MARCO;;OLIVADESE SALVATORE;;CORCOLES-GONZALEZ ANTONIO;;JAVADIABHARI ALI;;J·加姆贝塔;;ANDO TAKASHI;;FARO SERTAGE ISMAEL;;HASHEMI POUYA;;LEE CHOONGHYUN;;MISGEN MARVIN M;;マクルーア ザ サード、ダグラス、テンプルトン;;HEKMATSHOARTABARI BAHMAN;;OLIVADESE SALVATORE BERNARDO;;MARTIN FERNANDEZ FRANCISCO JOSE;;ステファン、マティアス;;DIAL OLIVER;;MCCLURE III DOUGLAS TEMPLETON;;BISHOP LEV;;ZHANG JINGYUN;;DOUGLAS TEMPLETON MCCLURE III;;STEFFEN MATTHIAS;;BISHOP LEV SAMUEL;;GAMBETTA JAY;;PHAN ANNA;;ガンベッタ、ジェイ;;PRISCO JOSEPH F;;TEMME PAUL;;MATTHIAS STEFFEN;;REZNICEK ALEXANDER;;KUCZYNSKI JOSEPH;;D·T·麦克鲁尔三世;;NEUMAN-HORN DEBRA A;;CHEN RICHARD;;GAMBETTA JAY M;;OLIVER DIAL;;ダイアル、オリバー;;JAY GAMBETTA;;TEMME PAUL KRISTAN;;MCCLURE III DOUGLAS T;;PRZYBYLSKI KEVIN J;;NANNICINI GIACOMO;;O·蒂亚尔;;LIU PENG</t>
-  </si>
-  <si>
-    <t>CASTRILLO SERGIO BOIXO;;ライアン・バブシュ;;바엔즈 라미;;NIU YUEZHEN;;ハルトムート・ネーフェン;;ヴァディム・スメリャンスキー;;BOIXO CASTRILLO SERGIO;;ハルトムート・ネーヴェン;;FARHI EDWARD HENRY;;SMELYANSKIY VADIM;;NEVEN HARTMUT;;BARENDS RAMI;;ユエゼン・ニウ;;ラミ・バレントス;;BABBUSH RYAN;;セルジオ・バイショ・カストリージョ;;NEVEN HELMUT;;エドワード・ヘンリー・ファーリ</t>
-  </si>
-  <si>
-    <t>LYNCH ADAM DAVID;;ZENG WILLIAM;;DAVIS ERIK JOSEPH;;REAGOR MATTHEW J;;ALAM MUHAMMAD SOHAIB;;DA SILVA MARCUS PALMER;;WILSON CHRISTOPHER MOGAN;;SETE EYOB A;;KARALEKAS PETER JONATHAN;;HEIDEL STEVEN;;ZENG WILLIAM J;;RIGETTI CHAD TYLER;;RUST MICHAEL;;OSBORN CHRISTOPHER BUTLER;;CURTIS MICHAEL J;;JONES GLENN;;TEZAK NIKOLAS ANTON;;DESAI ANAND;;SMITH ROBERT STANLEY;;PETERSON ERIC CHRISTOPHER;;MCKIERNAN KERI ANN;;CURTIS MICHAEL;;JOHNSON BLAKE ROBERT;;SETE EYOB</t>
-  </si>
-  <si>
-    <t>ROLFE JASON;;AMIN MOHAMMAD H S;;BOOTHBY THOMAS J;;BOOTHBY KELLY T R;;MACREADY WILLIAM G;;XUE YANBO;;AMIN MOHAMMAD H;;ANDRIYASH EVGENY A;;KING ANDREW DOUGLAS;;YARKONI SHEIR;;LANTING TREVOR MICHAEL;;ANDRIYASH EVGENY</t>
-  </si>
-  <si>
-    <t>张严波;;王桂磊;;HENRY H ADAMSON;;亨利·H·阿达姆松;;朱慧珑;;朱正勇;;ZHANG YANBO;;ZHU ZHENGYONG;;ZHU HUILONG;;RADAMSON HENRY H;;WANG GUILEI</t>
-  </si>
-  <si>
-    <t>MAJUMDAR ARUN;;마줌다 아룬;;アルン、マジュムダール</t>
-  </si>
-  <si>
-    <t>KHOMAMI ABADI MOJTABA;;MASILAMANI ASHOK PRABHU;;MASILAMANI ASHOK;;GAHROOSI AMIR BAHADOR;;GOULD MATTHEW;;GOULD MATTHEW V;;GAHROOSI AMIR</t>
-  </si>
-  <si>
-    <t>YAROSLAVSKY IGOR;;SIGNAEVSKI MAXIM M;;YAROSLAVSKY IGOR YEHUDA;;SIGNAEVSKY MAXIM</t>
-  </si>
-  <si>
-    <t>WALUS CONRAD;;WOLKOW ROBERT;;WALUS KONRAD;;RASHIDI MOHAMMAD;;RETALLICK JACOB;;LIVADARU LUCIAN;;HUFF TALEANA;;VINE WYATT;;DIENEL THOMAS;;CROSHAW JEREMIAH;;WOLKOW ROBERT A</t>
-  </si>
-  <si>
-    <t>NGUYEN CHRISTIAN THIEU;;ZHOU LEO XIANGYU;;EVANS RUFFIN;;SUKACHEV DENIS;;SIPAHIGIL ALP;;LUKIN MIKHAIL D;;ZHOU LEO;;EVANS RUFFIN E;;SUKACHEV DENIS D;;BHASKAR MIHIR;;CHOI SOONWON;;BHASKAR MIHIR KESHAV;;WANG SHENGTAO;;PICHLER HANNES;;NGUYEN CHRISTIAN;;LUNKIN MIKHAIL;;LUKIN MIKHAIL</t>
-  </si>
-  <si>
-    <t>ROQUET NATHANIEL;;PARK HYUNJUN;;LEAKE DEVIN;;BHATIA SWAPNIL P;;BHATIA SWAPNIL</t>
-  </si>
-  <si>
-    <t>CARROLL WILLIAM JOSEPH;;DUNST MICHAEL J;;MOLINSKY BRADLEY DEAN;;TIPTON THOMAS ANDREW;;BATTAGLINI JOSEPH S</t>
+    <t>LANDIGRAD LLC;;스미르노브, 세르게이 니콜라예비치;;SMIRNOV SERGEY NIKOLAYEVICH;;란디그레드, 리미티드 라이어빌리티 컴퍼니</t>
+  </si>
+  <si>
+    <t>THE UNIV OF CANTERBURY;;BOSE SAURABH KUMAR;;BROWN SIMON ANTHONY;;FOSTNER SHAWN</t>
+  </si>
+  <si>
+    <t>ラミ・バレントス;;GOOGLE LLC;;구글 엘엘씨;;GOOGLE INC;;グーグル エルエルシー;;BARENDS RAMI</t>
+  </si>
+  <si>
+    <t>LANDIGRAD LLC;;SMIRNOV SERGEY NIKOLAYEVICH;;SMIRNOV SERGEY;;LANDIGRAD LIMITED LIABILITY COMPANY;;LANDIGRAD LTD LIABILITY CO;;OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD;;SMIRNOV SERGEY NIIKOLAYEVICH</t>
+  </si>
+  <si>
+    <t>CASTRILLO SERGIO BOIXO;;GOOGLE LLC;;SMELYANSKIY VADIM;;GOOGLE INC;;NIU YUEZHEN;;NEVEN HARTMUT;;グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ</t>
+  </si>
+  <si>
+    <t>MAXIM GEORGE ADRIAN;;LEIPOLD DIRK ROBERT WALTER;;ASKER MICHAEL ALBERT</t>
+  </si>
+  <si>
+    <t>PHAN ANNA T;;MARTIN FERNANDEZ FRANCISCO JOSE;;OLIVADESE SALVATORE BERNARDO;;NEUMAN-HORN DEBRA A;;ZHANG JINGYUN;;OLIVADESE SALVATORE;;マクルーア ザ サード、ダグラス、テンプルトン;;KUCZYNSKI JOSEPH;;GAMBETTA JAY M;;HEKMATSHOARTABARI BAHMAN;;HASHEMI POUYA;;PISTOIA MARCO;;MATTHIAS STEFFEN;;PRISCO JOSEPH F;;LIU PENG;;DIAL OLIVER;;MCCLURE III DOUGLAS TEMPLETON;;BISHOP LEV SAMUEL;;MCCLURE III DOUGLAS T;;FARO SERTAGE ISMAEL;;GREENBERG DON;;ダイアル、オリバー;;TEMME PAUL;;PHAN ANNA;;J·加姆贝塔;;CHEN RICHARD;;O·蒂亚尔;;REZNICEK ALEXANDER;;BISHOP LEV;;CORCOLES-GONZALEZ ANTONIO;;NANNICINI GIACOMO;;GAMBETTA JAY;;MISGEN MARVIN M;;DOUGLAS TEMPLETON MCCLURE III;;D·T·麦克鲁尔三世;;ステファン、マティアス;;PRZYBYLSKI KEVIN J;;M·斯蒂芬;;TEMME PAUL KRISTAN;;ANDO TAKASHI;;STEFFEN MATTHIAS;;LEE CHOONGHYUN;;OLIVER DIAL;;ガンベッタ、ジェイ;;JAVADIABHARI ALI;;JAY GAMBETTA</t>
+  </si>
+  <si>
+    <t>BABBUSH RYAN;;CASTRILLO SERGIO BOIXO;;ハルトムート・ネーフェン;;ヴァディム・スメリャンスキー;;ラミ・バレントス;;BOIXO CASTRILLO SERGIO;;SMELYANSKIY VADIM;;NEVEN HELMUT;;FARHI EDWARD HENRY;;セルジオ・バイショ・カストリージョ;;エドワード・ヘンリー・ファーリ;;NIU YUEZHEN;;NEVEN HARTMUT;;ライアン・バブシュ;;ユエゼン・ニウ;;바엔즈 라미;;ハルトムート・ネーヴェン;;BARENDS RAMI</t>
+  </si>
+  <si>
+    <t>WILSON CHRISTOPHER MOGAN;;TEZAK NIKOLAS ANTON;;JOHNSON BLAKE ROBERT;;REAGOR MATTHEW J;;OSBORN CHRISTOPHER BUTLER;;ALAM MUHAMMAD SOHAIB;;CURTIS MICHAEL J;;SMITH ROBERT STANLEY;;CURTIS MICHAEL;;MCKIERNAN KERI ANN;;DAVIS ERIK JOSEPH;;RIGETTI CHAD TYLER;;SETE EYOB;;HEIDEL STEVEN;;LYNCH ADAM DAVID;;JONES GLENN;;DA SILVA MARCUS PALMER;;ZENG WILLIAM J;;PETERSON ERIC CHRISTOPHER;;RUST MICHAEL;;KARALEKAS PETER JONATHAN;;ZENG WILLIAM;;DESAI ANAND;;SETE EYOB A</t>
+  </si>
+  <si>
+    <t>ROLFE JASON;;AMIN MOHAMMAD H S;;BOOTHBY THOMAS J;;ANDRIYASH EVGENY;;KING ANDREW DOUGLAS;;BOOTHBY KELLY T R;;XUE YANBO;;MACREADY WILLIAM G;;AMIN MOHAMMAD H;;YARKONI SHEIR;;LANTING TREVOR MICHAEL;;ANDRIYASH EVGENY A</t>
+  </si>
+  <si>
+    <t>朱慧珑;;WANG GUILEI;;RADAMSON HENRY H;;ZHU ZHENGYONG;;朱正勇;;亨利·H·阿达姆松;;ZHU HUILONG;;ZHANG YANBO;;HENRY H ADAMSON;;王桂磊;;张严波</t>
+  </si>
+  <si>
+    <t>마줌다 아룬;;アルン、マジュムダール;;MAJUMDAR ARUN</t>
+  </si>
+  <si>
+    <t>MASILAMANI ASHOK PRABHU;;KHOMAMI ABADI MOJTABA;;GAHROOSI AMIR;;GAHROOSI AMIR BAHADOR;;GOULD MATTHEW V;;MASILAMANI ASHOK;;GOULD MATTHEW</t>
+  </si>
+  <si>
+    <t>SIGNAEVSKY MAXIM;;YAROSLAVSKY IGOR YEHUDA;;YAROSLAVSKY IGOR;;SIGNAEVSKI MAXIM M</t>
+  </si>
+  <si>
+    <t>WOLKOW ROBERT;;CROSHAW JEREMIAH;;DIENEL THOMAS;;VINE WYATT;;HUFF TALEANA;;RETALLICK JACOB;;WOLKOW ROBERT A;;LIVADARU LUCIAN;;WALUS CONRAD;;RASHIDI MOHAMMAD;;WALUS KONRAD</t>
+  </si>
+  <si>
+    <t>NGUYEN CHRISTIAN;;LUNKIN MIKHAIL;;BHASKAR MIHIR;;SUKACHEV DENIS D;;WANG SHENGTAO;;LUKIN MIKHAIL;;ZHOU LEO XIANGYU;;EVANS RUFFIN E;;BHASKAR MIHIR KESHAV;;PICHLER HANNES;;ZHOU LEO;;CHOI SOONWON;;LUKIN MIKHAIL D;;EVANS RUFFIN;;SUKACHEV DENIS;;NGUYEN CHRISTIAN THIEU;;SIPAHIGIL ALP</t>
+  </si>
+  <si>
+    <t>BHATIA SWAPNIL P;;ROQUET NATHANIEL;;PARK HYUNJUN;;LEAKE DEVIN;;BHATIA SWAPNIL</t>
+  </si>
+  <si>
+    <t>MOLINSKY BRADLEY DEAN;;DUNST MICHAEL J;;CARROLL WILLIAM JOSEPH;;BATTAGLINI JOSEPH S;;TIPTON THOMAS ANDREW</t>
   </si>
   <si>
     <t>KAPIT ELIOT</t>
   </si>
   <si>
-    <t>HEO JUN;;WOO SOL A;;CHO KYOUNG AH;;CHO JIN SUN;;CHO KYOUNG-AH;;CHO JIN-SUN;;LIM DOO HYEOK;;WOO SOL-A;;KIM SANG SIG;;SOHN IL KWON;;PARK YOUNG-SOO;;LIM DOO-HYEOK;;KIM SANG-SIK;;PARK YOUNG SOO</t>
-  </si>
-  <si>
-    <t>GUHA JOYDEEP;;DAUGHERTY JOHN;;バヘディ・バヘド;;グーハ・ジョイディープ;;ゴットショ・リチャード・アラン;;ダウガティ・ジョン;;GOTTSCHO RICHARD ALAN;;VAHEDI VAHID</t>
-  </si>
-  <si>
-    <t>GRANADE CHRISTOPHER EVAN;;STRAUSS KARIN;;GRASS ROBERT;;GAMBLE IV JOHN KING;;K·施特劳斯;;WIEBE NATHAN O;;CHEN WEIDA;;B·H·阮;;A·X·C·科尔;;W·陈;;GAMBLE JOHN KING;;R·格拉斯;;NGUYEN BICHLIEN HOANG;;KOHLL ALEXANDER XAVIER CHRISTOF</t>
-  </si>
-  <si>
-    <t>ポール・エフ・プレドキ;;CASSIDY MAJA;;マジャ・キャシディ;;PREDKI PAUL F</t>
-  </si>
-  <si>
-    <t>MALKIEL ITZIK;;WOLF LIOR;;MREJEN MICHAEL;;ARIELI URI;;NAGLER ACHIYA;;SUCHOWSKI HAIM</t>
-  </si>
-  <si>
-    <t>NABAVI SEYEDFAKHREDDIN;;ZHANG LIHONG</t>
-  </si>
-  <si>
-    <t>GONTHIER JEROME FLORIAN;;KATABARWA AMARA;;DALLAIRE-DEMERS PIERRE-LUC;;ANSCHUETZ ERIC R;;CAO YUDONG;;JOHNSON PETER D</t>
-  </si>
-  <si>
-    <t>HUANG HAIYAO;;DUBAY RYAN;;MAGYAR ANDREW P;;BYRNES STEVEN J;;CAVANAGH PETER;;KOTZ KENNETH T;;MARKOVIC STACEY;;FRANK IAN;;MCFARLAND KIRSTY A;;VARGO EMMA;;MCFARLAND KIRSTY;;BYRNES STEVEN;;FAVALORA GREGG;;SPRACHMAN MELISSA M;;SPRACHMAN MELISSA;;MAGYAR ANDREW;;ROSENBERGER ERIN;;FAVALORA GREGG E;;FRANK IAN WARD;;DUBAY RYAN A;;KOTZ KENNETH</t>
+    <t>PARK YOUNG-SOO;;CHO JIN SUN;;LIM DOO-HYEOK;;CHO KYOUNG AH;;KIM SANG SIG;;LIM DOO HYEOK;;KIM SANG-SIK;;CHO KYOUNG-AH;;WOO SOL A;;WOO SOL-A;;HEO JUN;;CHO JIN-SUN;;SOHN IL KWON;;PARK YOUNG SOO</t>
+  </si>
+  <si>
+    <t>グーハ・ジョイディープ;;VAHEDI VAHID;;DAUGHERTY JOHN;;GUHA JOYDEEP;;GOTTSCHO RICHARD ALAN;;ゴットショ・リチャード・アラン;;ダウガティ・ジョン;;バヘディ・バヘド</t>
+  </si>
+  <si>
+    <t>GRASS ROBERT;;K·施特劳斯;;KOHLL ALEXANDER XAVIER CHRISTOF;;W·陈;;GRANADE CHRISTOPHER EVAN;;CHEN WEIDA;;NGUYEN BICHLIEN HOANG;;R·格拉斯;;WIEBE NATHAN O;;GAMBLE IV JOHN KING;;STRAUSS KARIN;;A·X·C·科尔;;GAMBLE JOHN KING;;B·H·阮</t>
+  </si>
+  <si>
+    <t>マジャ・キャシディ;;PREDKI PAUL F;;ポール・エフ・プレドキ;;CASSIDY MAJA</t>
+  </si>
+  <si>
+    <t>ARIELI URI;;MALKIEL ITZIK;;NAGLER ACHIYA;;MREJEN MICHAEL;;SUCHOWSKI HAIM;;WOLF LIOR</t>
+  </si>
+  <si>
+    <t>ZHANG LIHONG;;NABAVI SEYEDFAKHREDDIN</t>
+  </si>
+  <si>
+    <t>GONTHIER JEROME FLORIAN;;ANSCHUETZ ERIC R;;KATABARWA AMARA;;CAO YUDONG;;JOHNSON PETER D;;DALLAIRE-DEMERS PIERRE-LUC</t>
+  </si>
+  <si>
+    <t>VARGO EMMA;;FAVALORA GREGG E;;SPRACHMAN MELISSA M;;MAGYAR ANDREW P;;SPRACHMAN MELISSA;;FRANK IAN WARD;;KOTZ KENNETH T;;BYRNES STEVEN;;HUANG HAIYAO;;FRANK IAN;;MAGYAR ANDREW;;DUBAY RYAN A;;ROSENBERGER ERIN;;MCFARLAND KIRSTY A;;CAVANAGH PETER;;FAVALORA GREGG;;MCFARLAND KIRSTY;;MARKOVIC STACEY;;DUBAY RYAN;;KOTZ KENNETH;;BYRNES STEVEN J</t>
   </si>
   <si>
     <t>YOUNGNER DANIEL</t>
   </si>
   <si>
-    <t>GUILLOU DAVID FRANCOIS;;GUILLOU DAVID;;SINHA RAJARISHI</t>
-  </si>
-  <si>
-    <t>LANDIS STÉPHAN;;CONSTANCIAS CHRISTOPHE;;LANDIS STEPHAN</t>
-  </si>
-  <si>
-    <t>MATTHEW JAMES HAYES;;SANCHES-KUIPER RAQUEL MARIA;;HAYES MATTHEW JAMES;;RAQUEL MARIA SANCHES-KUIPER</t>
-  </si>
-  <si>
-    <t>PHAN ANNA T;;GREENBERG DON;;OLIVADESE SALVATORE;;PISTOIA MARCO;;CORCOLES-GONZALEZ ANTONIO;;OLIVADESE SALVATORE BERNARDO;;MCCLURE III DOUGLAS TEMPLETON;;DIAL OLIVER;;BISHOP LEV;;STEFFEN MATTHIAS;;BISHOP LEV SAMUEL;;GAMBETTA JAY;;PHAN ANNA;;TEMME PAUL;;CHEN RICHARD;;GAMBETTA JAY M;;TEMME PAUL KRISTAN;;MCCLURE III DOUGLAS T;;NANNICINI GIACOMO</t>
-  </si>
-  <si>
-    <t>张严波;;王桂磊;;HENRY H ADAMSON;;亨利·H·阿达姆松;;朱慧珑;;朱正勇;;ZHANG YANBO;;ZHU ZHENGYONG;;ZHU HUILONG;;WANG GUILEI</t>
-  </si>
-  <si>
-    <t>CASSIDY MAJA;;PREDKI PAUL F</t>
-  </si>
-  <si>
-    <t>ROLFE JASON;;AMIN MOHAMMAD H S;;BOOTHBY THOMAS J;;AMIN MOHAMMAD H;;ANDRIYASH EVGENY A;;KING ANDREW DOUGLAS;;YARKONI SHEIR;;LANTING TREVOR MICHAEL;;ANDRIYASH EVGENY</t>
-  </si>
-  <si>
-    <t>CAI QING;;CIUBOTARU FLORIN;;ADELMANN HANNS CHRISTOPH;;COVENS KRIS;;COSTA JOSE DIOGO;;STAKENBORG TIM;;FAUVART MAARTEN;;CHEN CHANG</t>
+    <t>SINHA RAJARISHI;;GUILLOU DAVID;;GUILLOU DAVID FRANCOIS</t>
+  </si>
+  <si>
+    <t>CONSTANCIAS CHRISTOPHE;;LANDIS STÉPHAN;;LANDIS STEPHAN</t>
+  </si>
+  <si>
+    <t>MATTHEW JAMES HAYES;;RAQUEL MARIA SANCHES-KUIPER;;HAYES MATTHEW JAMES;;SANCHES-KUIPER RAQUEL MARIA</t>
+  </si>
+  <si>
+    <t>PHAN ANNA T;;OLIVADESE SALVATORE BERNARDO;;OLIVADESE SALVATORE;;GAMBETTA JAY M;;PISTOIA MARCO;;DIAL OLIVER;;MCCLURE III DOUGLAS TEMPLETON;;BISHOP LEV SAMUEL;;MCCLURE III DOUGLAS T;;GREENBERG DON;;TEMME PAUL;;PHAN ANNA;;CHEN RICHARD;;BISHOP LEV;;CORCOLES-GONZALEZ ANTONIO;;GAMBETTA JAY;;NANNICINI GIACOMO;;TEMME PAUL KRISTAN;;STEFFEN MATTHIAS</t>
+  </si>
+  <si>
+    <t>朱慧珑;;WANG GUILEI;;ZHU ZHENGYONG;;朱正勇;;亨利·H·阿达姆松;;ZHU HUILONG;;ZHANG YANBO;;HENRY H ADAMSON;;王桂磊;;张严波</t>
+  </si>
+  <si>
+    <t>PREDKI PAUL F;;CASSIDY MAJA</t>
+  </si>
+  <si>
+    <t>ROLFE JASON;;AMIN MOHAMMAD H S;;BOOTHBY THOMAS J;;ANDRIYASH EVGENY;;KING ANDREW DOUGLAS;;AMIN MOHAMMAD H;;YARKONI SHEIR;;LANTING TREVOR MICHAEL;;ANDRIYASH EVGENY A</t>
+  </si>
+  <si>
+    <t>COSTA JOSE DIOGO;;ADELMANN HANNS CHRISTOPH;;CHEN CHANG;;COVENS KRIS;;STAKENBORG TIM;;FAUVART MAARTEN;;CAI QING;;CIUBOTARU FLORIN</t>
   </si>
   <si>
     <t>TRESP VOLKER;;MA YUNPU</t>
@@ -892,7 +901,7 @@
     <t>DANIEL RAMEZ;;RIZIK LUNA</t>
   </si>
   <si>
-    <t>GABRYS RYAN;;MILENKOVIC OLGICA;;YAZDI S M HOSSEIN TABATABAEI</t>
+    <t>GABRYS RYAN;;YAZDI S M HOSSEIN TABATABAEI;;MILENKOVIC OLGICA</t>
   </si>
   <si>
     <t>안도열;;AHN DO YEOL</t>
@@ -901,70 +910,70 @@
     <t>GHOSH TAPABRATA</t>
   </si>
   <si>
-    <t>WANG YUNBO;;CHEN CHANGSHENG;;GAO JUNXIONG;;ZHU YU;;ZHOU WENLI;;WU SHUO;;CHENG RUNHONG</t>
+    <t>WANG YUNBO;;ZHOU WENLI;;GAO JUNXIONG;;WU SHUO;;CHENG RUNHONG;;CHEN CHANGSHENG;;ZHU YU</t>
   </si>
   <si>
     <t>YAN XIAOBING;;REN DELIANG;;WANG KAIYANG</t>
   </si>
   <si>
-    <t>DICKINSON BENJAMIN T;;REICH GREGORY W;;PANKONIEN ALEXANDER M;;BAUR JEFFREY W;;MAGAR KAMAN THAPA;;KONDASH COREY R;;SLINKER KEITH</t>
+    <t>SLINKER KEITH;;REICH GREGORY W;;DICKINSON BENJAMIN T;;KONDASH COREY R;;BAUR JEFFREY W;;MAGAR KAMAN THAPA;;PANKONIEN ALEXANDER M</t>
   </si>
   <si>
     <t>NIVALA JEFFREY MATTHEW</t>
   </si>
   <si>
-    <t>WANG WEI;;WANG ZEHONG;;YU DAN;;CHEN YIXIANG</t>
-  </si>
-  <si>
-    <t>LEE HONG-SUB;;HERSAM MARK C;;SANGWAN VINOD K</t>
+    <t>WANG WEI;;CHEN YIXIANG;;WANG ZEHONG;;YU DAN</t>
+  </si>
+  <si>
+    <t>SANGWAN VINOD K;;HERSAM MARK C;;LEE HONG-SUB</t>
   </si>
   <si>
     <t>JIANG ZHUOLIN;;SIU MAN-HUNG;;FONG KIN CHUNG</t>
   </si>
   <si>
-    <t>DIEZ STEFAN;;TAKATSUKI HIDEYO;;KORTEN TILL;;MANSSON ALF;;REUTHER CORDULA</t>
+    <t>TAKATSUKI HIDEYO;;REUTHER CORDULA;;MANSSON ALF;;KORTEN TILL;;DIEZ STEFAN</t>
   </si>
   <si>
     <t>ANG KAH-WEE;;TAN WEE CHONG</t>
   </si>
   <si>
-    <t>LIU YU;;XU JUN;;ZHAO LINYUAN;;LIANG RENRONG</t>
+    <t>ZHAO LINYUAN;;LIU YU;;XU JUN;;LIANG RENRONG</t>
   </si>
   <si>
     <t>AGGARWAL PRIYANKA;;CHODAVARAPU VAMSY</t>
   </si>
   <si>
-    <t>LEE HYUNG DONG;;HEO KEUN;;CHOI YONG-SOO;;CHOI YONG SOO;;LEE HYUNG-DONG</t>
-  </si>
-  <si>
-    <t>XIA QIANGFEI;;YANG JIANHUA;;MCLEAN MARK;;WU QING</t>
-  </si>
-  <si>
-    <t>BOOTHBY THOMAS J;;BOOTHBY KELLY T R;;AMIN MOHAMMAD H;;ANDRIYASH EVGENY A;;KING ANDREW DOUGLAS;;YARKONI SHEIR;;LANTING TREVOR MICHAEL</t>
-  </si>
-  <si>
-    <t>WU JIAN;;ZHANG XIANGCHENG</t>
+    <t>HEO KEUN;;LEE HYUNG-DONG;;CHOI YONG SOO;;LEE HYUNG DONG;;CHOI YONG-SOO</t>
+  </si>
+  <si>
+    <t>WU QING;;XIA QIANGFEI;;YANG JIANHUA;;MCLEAN MARK</t>
+  </si>
+  <si>
+    <t>BOOTHBY THOMAS J;;KING ANDREW DOUGLAS;;BOOTHBY KELLY T R;;AMIN MOHAMMAD H;;YARKONI SHEIR;;LANTING TREVOR MICHAEL;;ANDRIYASH EVGENY A</t>
+  </si>
+  <si>
+    <t>ZHANG XIANGCHENG;;WU JIAN</t>
   </si>
   <si>
     <t>ZORNES DAVID</t>
   </si>
   <si>
-    <t>Zhengyong Zhu;;Huilong Zhu</t>
-  </si>
-  <si>
-    <t>YOUNG IAN A;;NIKONOV DMITRI E;;MANIPATRUNI SASIKANTH</t>
+    <t>Huilong Zhu;;Zhengyong Zhu</t>
+  </si>
+  <si>
+    <t>MANIPATRUNI SASIKANTH;;NIKONOV DMITRI E;;YOUNG IAN A</t>
   </si>
   <si>
     <t>ZHU HUILONG</t>
   </si>
   <si>
-    <t>ライアン・バブシュ;;바엔즈 라미;;ハルトムート・ネーヴェン;;FARHI EDWARD HENRY;;BARENDS RAMI;;NEVEN HARTMUT;;ラミ・バレントス;;BABBUSH RYAN;;エドワード・ヘンリー・ファーリ</t>
-  </si>
-  <si>
-    <t>MAHMOUDI MORTEZA;;FAROKHZAD OMID;;CORBO CLAUDIA</t>
-  </si>
-  <si>
-    <t>WANG GANG (A K A JOSEPH);;KAPOOR ANMOL SINGH;;BHAT SUMRITA;;WANG GANG;;SALAHANDISH RAZIEH;;KOUL RAMAN;;VASTAREY NIKHIL SURESH</t>
+    <t>BABBUSH RYAN;;ラミ・バレントス;;FARHI EDWARD HENRY;;エドワード・ヘンリー・ファーリ;;ライアン・バブシュ;;NEVEN HARTMUT;;바엔즈 라미;;ハルトムート・ネーヴェン;;BARENDS RAMI</t>
+  </si>
+  <si>
+    <t>CORBO CLAUDIA;;MAHMOUDI MORTEZA;;FAROKHZAD OMID</t>
+  </si>
+  <si>
+    <t>WANG GANG;;VASTAREY NIKHIL SURESH;;KAPOOR ANMOL SINGH;;BHAT SUMRITA;;KOUL RAMAN;;WANG GANG (A K A JOSEPH);;SALAHANDISH RAZIEH</t>
   </si>
   <si>
     <t>SHIMA SHOHEI</t>
@@ -973,73 +982,76 @@
     <t>RAMPRASAD RAMPI;;KIM CHIHO;;CHANDRASEKARAN ANAND</t>
   </si>
   <si>
-    <t>바엔즈 라미;;CASTRILLO SERGIO BOIXO;;ハルトムート・ネーフェン;;NIU YUEZHEN;;ヴァディム・スメリャンスキー;;SMELYANSKIY VADIM;;BARENDS RAMI;;NEVEN HARTMUT;;ユエゼン・ニウ;;ラミ・バレントス;;BABBUSH RYAN;;セルジオ・バイショ・カストリージョ;;BOIXO CASTRILLO SERGIO</t>
-  </si>
-  <si>
-    <t>ボーズ サウラブ クマー;;FOSTNER SHAWN;;フォスナー ショーン;;ブラウン シモン アンソニー;;BOSE SAURABH KUMAR;;BROWN SIMON ANTHONY</t>
-  </si>
-  <si>
-    <t>최정우;;CHUNG YONG HO;;CHOI JEONG WOO;;정용호</t>
-  </si>
-  <si>
-    <t>李源;;XING YAN;;LI YUAN;;张辉;;张晋;;ZHANG JIN;;幸研;;ZHANG HUI</t>
-  </si>
-  <si>
-    <t>GRASS ROBERT;;STRAUSS KARIN;;K·施特劳斯;;CHEN WEIDA;;A·X·C·科尔;;B·H·阮;;W·陈;;R·格拉斯;;NGUYEN BICHLIEN HOANG;;KOHLL ALEXANDER XAVIER CHRISTOF</t>
+    <t>BABBUSH RYAN;;CASTRILLO SERGIO BOIXO;;ハルトムート・ネーフェン;;ヴァディム・スメリャンスキー;;ラミ・バレントス;;BOIXO CASTRILLO SERGIO;;SMELYANSKIY VADIM;;セルジオ・バイショ・カストリージョ;;NIU YUEZHEN;;NEVEN HARTMUT;;ユエゼン・ニウ;;바엔즈 라미;;BARENDS RAMI</t>
+  </si>
+  <si>
+    <t>フォスナー ショーン;;ブラウン シモン アンソニー;;BOSE SAURABH KUMAR;;ボーズ サウラブ クマー;;BROWN SIMON ANTHONY;;FOSTNER SHAWN</t>
+  </si>
+  <si>
+    <t>CHUNG YONG HO;;최정우;;CHOI JEONG WOO;;정용호</t>
+  </si>
+  <si>
+    <t>张辉;;ZHANG HUI;;ZHANG JIN;;幸研;;XING YAN;;李源;;张晋;;LI YUAN</t>
+  </si>
+  <si>
+    <t>GRASS ROBERT;;K·施特劳斯;;KOHLL ALEXANDER XAVIER CHRISTOF;;W·陈;;CHEN WEIDA;;NGUYEN BICHLIEN HOANG;;R·格拉斯;;STRAUSS KARIN;;A·X·C·科尔;;B·H·阮</t>
   </si>
   <si>
     <t>SHINKAI GOU;;新海 剛</t>
   </si>
   <si>
-    <t>陈奕丞;;JIANG YADONG;;GU DEEN;;LI WEI;;ZHONG HAO;;顾德恩;;钟豪;;蒋亚东;;李东阳;;LI DONGYANG;;李伟;;GU DE'EN;;CHEN YICHENG</t>
-  </si>
-  <si>
-    <t>FAROOQ AHMAD;;신현동;;정영민;;JEONG YOUNG MIN;;SHIN HYUN DONG;;파쿼 아마드</t>
-  </si>
-  <si>
-    <t>PREDKI PAUL F;;ポール・エフ・プレドキ;;CASSIDY MAJA;;マジャ・キャシディ</t>
-  </si>
-  <si>
-    <t>JIANG WEINAN;;YU XING</t>
-  </si>
-  <si>
-    <t>하키우;;트린수안텅;;HA KIEU MY;;윤태현;;YOON TAE HYUN;;TRINH XUAN TUNG;;KIM JIN BAE;;김진배</t>
-  </si>
-  <si>
-    <t>MARCUS JOHANNES HENRICUS VAN DAL;;MANFRINI MAURICIO;;DOORNBOS GERBEN;;GERBEN DOORNBOS;;MAURICIO MANFRINI;;VAN DAL MARCUS JOHANNES HENRICUS</t>
+    <t>LI DONGYANG;;JIANG YADONG;;顾德恩;;蒋亚东;;LI WEI;;李伟;;钟豪;;CHEN YICHENG;;李东阳;;GU DEEN;;陈奕丞;;ZHONG HAO;;GU DE'EN</t>
+  </si>
+  <si>
+    <t>파쿼 아마드;;SHIN HYUN DONG;;정영민;;FAROOQ AHMAD;;JEONG YOUNG MIN;;신현동</t>
+  </si>
+  <si>
+    <t>グーハ・ジョイディープ;;VAHEDI VAHID;;DAUGHERTY JOHN;;GOTTSCHO RICHARD ALAN;;ダウガティ・ジョン;;ゴットショ・リチャード・アラン;;GUHA JOYDEEP;;バヘディ・バヘド</t>
+  </si>
+  <si>
+    <t>PREDKI PAUL F;;ポール・エフ・プレドキ;;マジャ・キャシディ;;CASSIDY MAJA</t>
+  </si>
+  <si>
+    <t>YU XING;;JIANG WEINAN</t>
+  </si>
+  <si>
+    <t>트린수안텅;;HA KIEU MY;;하키우;;YOON TAE HYUN;;윤태현;;KIM JIN BAE;;김진배;;TRINH XUAN TUNG</t>
+  </si>
+  <si>
+    <t>MANFRINI MAURICIO;;MARCUS JOHANNES HENRICUS VAN DAL;;DOORNBOS GERBEN;;MAURICIO MANFRINI;;GERBEN DOORNBOS;;VAN DAL MARCUS JOHANNES HENRICUS</t>
   </si>
   <si>
     <t>ROQUET NATHANIEL;;PARK HYUNJUN;;LEAKE DEVIN;;BHATIA SWAPNIL P</t>
   </si>
   <si>
-    <t>CASTRILLO SERGIO BOIXO;;ハルトムート・ネーフェン;;ヴァディム・スメリャンスキー;;NIU YUEZHEN;;ハルトムート・ネーヴェン;;FARHI EDWARD HENRY;;SMELYANSKIY VADIM;;NEVEN HARTMUT;;ユエゼン・ニウ;;セルジオ・バイショ・カストリージョ;;BOIXO CASTRILLO SERGIO;;エドワード・ヘンリー・ファーリ</t>
-  </si>
-  <si>
-    <t>SMIRNOV SERGEJ NIKOLAEVICH;;SMIRNOV SERGEY NIIKOLAYEVICH;;SMIRNOV SERGEY NIKOLAYEVICH;;스미르노브, 세르게이 니콜라예비치</t>
-  </si>
-  <si>
-    <t>CIUBOTARU FLORIN;;ADELMANN HANNS CHRISTOPH;;COSTA JOSE DIOGO</t>
-  </si>
-  <si>
-    <t>GAMBETTA JAY M;;MCCLURE III DOUGLAS TEMPLETON;;DIAL OLIVER;;MCCLURE III DOUGLAS T;;STEFFEN MATTHIAS;;GAMBETTA JAY</t>
-  </si>
-  <si>
-    <t>マクルーア ザ サード、ダグラス、テンプルトン;;ガンベッタ、ジェイ;;M·斯蒂芬;;OLIVER DIAL;;ステファン、マティアス;;MCCLURE III DOUGLAS TEMPLETON;;DIAL OLIVER;;MATTHIAS STEFFEN;;ダイアル、オリバー;;JAY GAMBETTA;;O·蒂亚尔;;DOUGLAS TEMPLETON MCCLURE III;;D·T·麦克鲁尔三世;;STEFFEN MATTHIAS;;J·加姆贝塔;;GAMBETTA JAY</t>
-  </si>
-  <si>
-    <t>SMIRNOV SERGEY NIKOLAYEVICH;;스미르노브, 세르게이 니콜라예비치</t>
-  </si>
-  <si>
-    <t>FOSTNER SHAWN;;BROWN SIMON ANTHONY;;BOSE SAURABH KUMAR</t>
+    <t>CASTRILLO SERGIO BOIXO;;ハルトムート・ネーフェン;;ヴァディム・スメリャンスキー;;SMELYANSKIY VADIM;;FARHI EDWARD HENRY;;セルジオ・バイショ・カストリージョ;;エドワード・ヘンリー・ファーリ;;NIU YUEZHEN;;NEVEN HARTMUT;;ユエゼン・ニウ;;ハルトムート・ネーヴェン;;BOIXO CASTRILLO SERGIO</t>
+  </si>
+  <si>
+    <t>스미르노브, 세르게이 니콜라예비치;;SMIRNOV SERGEY NIKOLAYEVICH;;SMIRNOV SERGEJ NIKOLAEVICH;;SMIRNOV SERGEY NIIKOLAYEVICH</t>
+  </si>
+  <si>
+    <t>COSTA JOSE DIOGO;;ADELMANN HANNS CHRISTOPH;;CIUBOTARU FLORIN</t>
+  </si>
+  <si>
+    <t>STEFFEN MATTHIAS;;GAMBETTA JAY M;;GAMBETTA JAY;;DIAL OLIVER;;MCCLURE III DOUGLAS TEMPLETON;;MCCLURE III DOUGLAS T</t>
+  </si>
+  <si>
+    <t>DIAL OLIVER;;M·斯蒂芬;;STEFFEN MATTHIAS;;マクルーア ザ サード、ダグラス、テンプルトン;;ダイアル、オリバー;;OLIVER DIAL;;ガンベッタ、ジェイ;;DOUGLAS TEMPLETON MCCLURE III;;GAMBETTA JAY;;J·加姆贝塔;;D·T·麦克鲁尔三世;;MATTHIAS STEFFEN;;O·蒂亚尔;;ステファン、マティアス;;MCCLURE III DOUGLAS TEMPLETON;;JAY GAMBETTA</t>
+  </si>
+  <si>
+    <t>스미르노브, 세르게이 니콜라예비치;;SMIRNOV SERGEY NIKOLAYEVICH</t>
+  </si>
+  <si>
+    <t>BOSE SAURABH KUMAR;;BROWN SIMON ANTHONY;;FOSTNER SHAWN</t>
   </si>
   <si>
     <t>바엔즈 라미;;BARENDS RAMI;;ラミ・バレントス</t>
   </si>
   <si>
-    <t>SMIRNOV SERGEJ NIKOLAEVICH;;SMIRNOV SERGEY NIIKOLAYEVICH;;SMIRNOV SERGEY NIKOLAYEVICH</t>
-  </si>
-  <si>
-    <t>CASTRILLO SERGIO BOIXO;;ハルトムート・ネーフェン;;ヴァディム・スメリャンスキー;;NIU YUEZHEN;;SMELYANSKIY VADIM;;NEVEN HARTMUT;;ユエゼン・ニウ;;セルジオ・バイショ・カストリージョ;;BOIXO CASTRILLO SERGIO</t>
+    <t>SMIRNOV SERGEY NIKOLAYEVICH;;SMIRNOV SERGEJ NIKOLAEVICH;;SMIRNOV SERGEY NIIKOLAYEVICH</t>
+  </si>
+  <si>
+    <t>CASTRILLO SERGIO BOIXO;;ハルトムート・ネーフェン;;ヴァディム・スメリャンスキー;;SMELYANSKIY VADIM;;セルジオ・バイショ・カストリージョ;;NIU YUEZHEN;;NEVEN HARTMUT;;ユエゼン・ニウ;;BOIXO CASTRILLO SERGIO</t>
   </si>
 </sst>
 </file>
@@ -1539,7 +1551,7 @@
         <v>29</v>
       </c>
       <c r="R2" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="S2" t="b">
         <v>0</v>
@@ -1610,7 +1622,7 @@
         <v>148</v>
       </c>
       <c r="L3" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -1625,10 +1637,10 @@
         <v>5</v>
       </c>
       <c r="Q3" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="R3" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="S3" t="b">
         <v>0</v>
@@ -1699,7 +1711,7 @@
         <v>148</v>
       </c>
       <c r="L4" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="M4">
         <v>0.1666666666666667</v>
@@ -1714,10 +1726,10 @@
         <v>6</v>
       </c>
       <c r="Q4" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="R4" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="S4" t="b">
         <v>0</v>
@@ -1806,7 +1818,7 @@
         <v>32</v>
       </c>
       <c r="R5" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="S5" t="b">
         <v>0</v>
@@ -1892,10 +1904,10 @@
         <v>2</v>
       </c>
       <c r="Q6" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="R6" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="S6" t="b">
         <v>0</v>
@@ -1981,10 +1993,10 @@
         <v>2</v>
       </c>
       <c r="Q7" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="R7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="S7" t="b">
         <v>0</v>
@@ -2055,7 +2067,7 @@
         <v>148</v>
       </c>
       <c r="L8" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -2070,10 +2082,10 @@
         <v>3</v>
       </c>
       <c r="Q8" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="R8" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="S8" t="b">
         <v>0</v>
@@ -2138,7 +2150,7 @@
         <v>148</v>
       </c>
       <c r="L9" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -2156,7 +2168,7 @@
         <v>36</v>
       </c>
       <c r="R9" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="S9" t="b">
         <v>0</v>
@@ -2245,7 +2257,7 @@
         <v>37</v>
       </c>
       <c r="R10" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="S10" t="b">
         <v>0</v>
@@ -2310,7 +2322,7 @@
         <v>148</v>
       </c>
       <c r="L11" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -2328,7 +2340,7 @@
         <v>38</v>
       </c>
       <c r="R11" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="S11" t="b">
         <v>0</v>
@@ -2411,7 +2423,7 @@
         <v>39</v>
       </c>
       <c r="R12" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="S12" t="b">
         <v>0</v>
@@ -2491,10 +2503,10 @@
         <v>0</v>
       </c>
       <c r="Q13" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="R13" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="S13" t="b">
         <v>0</v>
@@ -2580,10 +2592,10 @@
         <v>3</v>
       </c>
       <c r="Q14" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="R14" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="S14" t="b">
         <v>0</v>
@@ -2755,7 +2767,7 @@
         <v>43</v>
       </c>
       <c r="R16" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="S16" t="b">
         <v>0</v>
@@ -2844,7 +2856,7 @@
         <v>44</v>
       </c>
       <c r="R17" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="S17" t="b">
         <v>0</v>
@@ -2930,10 +2942,10 @@
         <v>2</v>
       </c>
       <c r="Q18" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="R18" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="S18" t="b">
         <v>0</v>
@@ -3013,10 +3025,10 @@
         <v>0</v>
       </c>
       <c r="Q19" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="R19" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="S19" t="b">
         <v>0</v>
@@ -3102,10 +3114,10 @@
         <v>1</v>
       </c>
       <c r="Q20" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="R20" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="S20" t="b">
         <v>0</v>
@@ -3176,7 +3188,7 @@
         <v>148</v>
       </c>
       <c r="L21" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -3194,7 +3206,7 @@
         <v>48</v>
       </c>
       <c r="R21" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="S21" t="b">
         <v>0</v>
@@ -3259,7 +3271,7 @@
         <v>148</v>
       </c>
       <c r="L22" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -3277,7 +3289,7 @@
         <v>49</v>
       </c>
       <c r="R22" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="S22" t="b">
         <v>0</v>
@@ -3360,7 +3372,7 @@
         <v>50</v>
       </c>
       <c r="R23" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="S23" t="b">
         <v>0</v>
@@ -3419,7 +3431,7 @@
         <v>153</v>
       </c>
       <c r="J24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K24" t="s">
         <v>148</v>
@@ -3443,7 +3455,7 @@
         <v>51</v>
       </c>
       <c r="R24" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="S24" t="b">
         <v>0</v>
@@ -3508,7 +3520,7 @@
         <v>148</v>
       </c>
       <c r="J25" t="s">
-        <v>158</v>
+        <v>193</v>
       </c>
       <c r="K25" t="s">
         <v>148</v>
@@ -3532,7 +3544,7 @@
         <v>52</v>
       </c>
       <c r="R25" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="S25" t="b">
         <v>0</v>
@@ -3597,7 +3609,7 @@
         <v>153</v>
       </c>
       <c r="J26" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K26" t="s">
         <v>148</v>
@@ -3621,7 +3633,7 @@
         <v>53</v>
       </c>
       <c r="R26" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="S26" t="b">
         <v>0</v>
@@ -3686,13 +3698,13 @@
         <v>155</v>
       </c>
       <c r="J27" t="s">
-        <v>155</v>
+        <v>194</v>
       </c>
       <c r="K27" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="L27" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="M27">
         <v>0</v>
@@ -3710,7 +3722,7 @@
         <v>54</v>
       </c>
       <c r="R27" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="S27" t="b">
         <v>0</v>
@@ -3775,13 +3787,13 @@
         <v>156</v>
       </c>
       <c r="J28" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="K28" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="L28" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="M28">
         <v>0</v>
@@ -3799,7 +3811,7 @@
         <v>55</v>
       </c>
       <c r="R28" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="S28" t="b">
         <v>0</v>
@@ -3864,7 +3876,7 @@
         <v>153</v>
       </c>
       <c r="J29" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K29" t="s">
         <v>148</v>
@@ -3885,10 +3897,10 @@
         <v>1</v>
       </c>
       <c r="Q29" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="R29" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="S29" t="b">
         <v>0</v>
@@ -3974,10 +3986,10 @@
         <v>2</v>
       </c>
       <c r="Q30" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="R30" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="S30" t="b">
         <v>0</v>
@@ -4042,7 +4054,7 @@
         <v>153</v>
       </c>
       <c r="J31" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K31" t="s">
         <v>148</v>
@@ -4063,10 +4075,10 @@
         <v>1</v>
       </c>
       <c r="Q31" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="R31" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="S31" t="b">
         <v>0</v>
@@ -4152,10 +4164,10 @@
         <v>2</v>
       </c>
       <c r="Q32" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="R32" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="S32" t="b">
         <v>0</v>
@@ -4214,13 +4226,13 @@
         <v>158</v>
       </c>
       <c r="J33" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="K33" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="L33" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="M33">
         <v>0</v>
@@ -4235,10 +4247,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="R33" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="S33" t="b">
         <v>0</v>
@@ -4321,7 +4333,7 @@
         <v>61</v>
       </c>
       <c r="R34" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="S34" t="b">
         <v>0</v>
@@ -4404,7 +4416,7 @@
         <v>62</v>
       </c>
       <c r="R35" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="S35" t="b">
         <v>0</v>
@@ -4487,7 +4499,7 @@
         <v>63</v>
       </c>
       <c r="R36" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="S36" t="b">
         <v>0</v>
@@ -4570,7 +4582,7 @@
         <v>64</v>
       </c>
       <c r="R37" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="S37" t="b">
         <v>0</v>
@@ -4656,10 +4668,10 @@
         <v>2</v>
       </c>
       <c r="Q38" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="R38" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="S38" t="b">
         <v>0</v>
@@ -4742,7 +4754,7 @@
         <v>66</v>
       </c>
       <c r="R39" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="S39" t="b">
         <v>0</v>
@@ -4825,7 +4837,7 @@
         <v>67</v>
       </c>
       <c r="R40" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="S40" t="b">
         <v>0</v>
@@ -4908,7 +4920,7 @@
         <v>68</v>
       </c>
       <c r="R41" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="S41" t="b">
         <v>0</v>
@@ -4991,7 +5003,7 @@
         <v>69</v>
       </c>
       <c r="R42" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="S42" t="b">
         <v>0</v>
@@ -5074,7 +5086,7 @@
         <v>70</v>
       </c>
       <c r="R43" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="S43" t="b">
         <v>0</v>
@@ -5157,7 +5169,7 @@
         <v>71</v>
       </c>
       <c r="R44" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="S44" t="b">
         <v>0</v>
@@ -5240,7 +5252,7 @@
         <v>72</v>
       </c>
       <c r="R45" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="S45" t="b">
         <v>0</v>
@@ -5323,7 +5335,7 @@
         <v>73</v>
       </c>
       <c r="R46" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="S46" t="b">
         <v>0</v>
@@ -5391,10 +5403,10 @@
         <v>149</v>
       </c>
       <c r="K47" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="L47" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="M47">
         <v>0</v>
@@ -5412,7 +5424,7 @@
         <v>74</v>
       </c>
       <c r="R47" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="S47" t="b">
         <v>0</v>
@@ -5474,10 +5486,10 @@
         <v>149</v>
       </c>
       <c r="K48" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="L48" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="M48">
         <v>0</v>
@@ -5495,7 +5507,7 @@
         <v>75</v>
       </c>
       <c r="R48" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="S48" t="b">
         <v>0</v>
@@ -5578,7 +5590,7 @@
         <v>76</v>
       </c>
       <c r="R49" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="S49" t="b">
         <v>0</v>
@@ -5661,7 +5673,7 @@
         <v>77</v>
       </c>
       <c r="R50" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="S50" t="b">
         <v>0</v>
@@ -5750,7 +5762,7 @@
         <v>78</v>
       </c>
       <c r="R51" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="S51" t="b">
         <v>0</v>
@@ -5833,7 +5845,7 @@
         <v>79</v>
       </c>
       <c r="R52" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="S52" t="b">
         <v>0</v>
@@ -5919,10 +5931,10 @@
         <v>1</v>
       </c>
       <c r="Q53" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="R53" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="S53" t="b">
         <v>1</v>
@@ -6005,7 +6017,7 @@
         <v>81</v>
       </c>
       <c r="R54" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="S54" t="b">
         <v>0</v>
@@ -6088,7 +6100,7 @@
         <v>82</v>
       </c>
       <c r="R55" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="S55" t="b">
         <v>0</v>
@@ -6171,7 +6183,7 @@
         <v>83</v>
       </c>
       <c r="R56" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="S56" t="b">
         <v>0</v>
@@ -6257,10 +6269,10 @@
         <v>2</v>
       </c>
       <c r="Q57" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="R57" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="S57" t="b">
         <v>0</v>
@@ -6349,7 +6361,7 @@
         <v>85</v>
       </c>
       <c r="R58" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="S58" t="b">
         <v>0</v>
@@ -6432,7 +6444,7 @@
         <v>86</v>
       </c>
       <c r="R59" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="S59" t="b">
         <v>0</v>
@@ -6497,7 +6509,7 @@
         <v>161</v>
       </c>
       <c r="J60" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
       <c r="K60" t="s">
         <v>148</v>
@@ -6518,10 +6530,10 @@
         <v>3</v>
       </c>
       <c r="Q60" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="R60" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="S60" t="b">
         <v>0</v>
@@ -6604,7 +6616,7 @@
         <v>88</v>
       </c>
       <c r="R61" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="S61" t="b">
         <v>0</v>
@@ -6663,7 +6675,7 @@
         <v>162</v>
       </c>
       <c r="J62" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="K62" t="s">
         <v>148</v>
@@ -6687,7 +6699,7 @@
         <v>89</v>
       </c>
       <c r="R62" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="S62" t="b">
         <v>0</v>
@@ -6746,13 +6758,13 @@
         <v>163</v>
       </c>
       <c r="J63" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="K63" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="L63" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="M63">
         <v>0</v>
@@ -6770,7 +6782,7 @@
         <v>90</v>
       </c>
       <c r="R63" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="S63" t="b">
         <v>0</v>
@@ -6853,7 +6865,7 @@
         <v>91</v>
       </c>
       <c r="R64" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="S64" t="b">
         <v>0</v>
@@ -6918,7 +6930,7 @@
         <v>153</v>
       </c>
       <c r="J65" t="s">
-        <v>179</v>
+        <v>200</v>
       </c>
       <c r="K65" t="s">
         <v>148</v>
@@ -6939,10 +6951,10 @@
         <v>2</v>
       </c>
       <c r="Q65" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="R65" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="S65" t="b">
         <v>0</v>
@@ -7007,13 +7019,13 @@
         <v>164</v>
       </c>
       <c r="J66" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="K66" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="L66" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="M66">
         <v>0</v>
@@ -7028,10 +7040,10 @@
         <v>2</v>
       </c>
       <c r="Q66" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="R66" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="S66" t="b">
         <v>0</v>
@@ -7117,10 +7129,10 @@
         <v>1</v>
       </c>
       <c r="Q67" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="R67" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="S67" t="b">
         <v>0</v>
@@ -7206,10 +7218,10 @@
         <v>1</v>
       </c>
       <c r="Q68" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="R68" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="S68" t="b">
         <v>0</v>
@@ -7295,10 +7307,10 @@
         <v>1</v>
       </c>
       <c r="Q69" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="R69" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="S69" t="b">
         <v>0</v>
@@ -7357,7 +7369,7 @@
         <v>166</v>
       </c>
       <c r="J70" t="s">
-        <v>198</v>
+        <v>166</v>
       </c>
       <c r="K70" t="s">
         <v>148</v>
@@ -7378,10 +7390,10 @@
         <v>0</v>
       </c>
       <c r="Q70" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="R70" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="S70" t="b">
         <v>0</v>
@@ -7440,13 +7452,13 @@
         <v>167</v>
       </c>
       <c r="J71" t="s">
-        <v>167</v>
+        <v>202</v>
       </c>
       <c r="K71" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="L71" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="M71">
         <v>0</v>
@@ -7461,10 +7473,10 @@
         <v>0</v>
       </c>
       <c r="Q71" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="R71" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="S71" t="b">
         <v>0</v>
@@ -7550,10 +7562,10 @@
         <v>1</v>
       </c>
       <c r="Q72" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="R72" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="S72" t="b">
         <v>0</v>
@@ -7633,10 +7645,10 @@
         <v>0</v>
       </c>
       <c r="Q73" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="R73" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="S73" t="b">
         <v>0</v>
@@ -7695,7 +7707,7 @@
         <v>168</v>
       </c>
       <c r="J74" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="K74" t="s">
         <v>148</v>
@@ -7716,10 +7728,10 @@
         <v>0</v>
       </c>
       <c r="Q74" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="R74" t="s">
-        <v>273</v>
+        <v>330</v>
       </c>
       <c r="S74" t="b">
         <v>0</v>
@@ -7805,10 +7817,10 @@
         <v>1</v>
       </c>
       <c r="Q75" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="R75" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="S75" t="b">
         <v>0</v>
@@ -7873,13 +7885,13 @@
         <v>169</v>
       </c>
       <c r="J76" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="K76" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="L76" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="M76">
         <v>0</v>
@@ -7894,10 +7906,10 @@
         <v>1</v>
       </c>
       <c r="Q76" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="R76" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="S76" t="b">
         <v>0</v>
@@ -7962,7 +7974,7 @@
         <v>170</v>
       </c>
       <c r="J77" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="K77" t="s">
         <v>148</v>
@@ -7983,10 +7995,10 @@
         <v>1</v>
       </c>
       <c r="Q77" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="R77" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="S77" t="b">
         <v>0</v>
@@ -8066,10 +8078,10 @@
         <v>0</v>
       </c>
       <c r="Q78" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="R78" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="S78" t="b">
         <v>0</v>
@@ -8155,10 +8167,10 @@
         <v>1</v>
       </c>
       <c r="Q79" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="R79" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="S79" t="b">
         <v>0</v>
@@ -8244,10 +8256,10 @@
         <v>1</v>
       </c>
       <c r="Q80" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="R80" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="S80" t="b">
         <v>0</v>
@@ -8333,10 +8345,10 @@
         <v>1</v>
       </c>
       <c r="Q81" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="R81" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="S81" t="b">
         <v>0</v>
@@ -8395,7 +8407,7 @@
         <v>171</v>
       </c>
       <c r="J82" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="K82" t="s">
         <v>148</v>
@@ -8416,10 +8428,10 @@
         <v>0</v>
       </c>
       <c r="Q82" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="R82" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="S82" t="b">
         <v>0</v>
@@ -8478,7 +8490,7 @@
         <v>171</v>
       </c>
       <c r="J83" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="K83" t="s">
         <v>148</v>
@@ -8499,10 +8511,10 @@
         <v>0</v>
       </c>
       <c r="Q83" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="R83" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="S83" t="b">
         <v>0</v>
@@ -8561,7 +8573,7 @@
         <v>172</v>
       </c>
       <c r="J84" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="K84" t="s">
         <v>148</v>
@@ -8582,10 +8594,10 @@
         <v>0</v>
       </c>
       <c r="Q84" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="R84" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="S84" t="b">
         <v>0</v>
@@ -8665,10 +8677,10 @@
         <v>0</v>
       </c>
       <c r="Q85" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="R85" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="S85" t="b">
         <v>0</v>
@@ -8727,13 +8739,13 @@
         <v>167</v>
       </c>
       <c r="J86" t="s">
-        <v>167</v>
+        <v>202</v>
       </c>
       <c r="K86" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="L86" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="M86">
         <v>0</v>
@@ -8748,10 +8760,10 @@
         <v>0</v>
       </c>
       <c r="Q86" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="R86" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="S86" t="b">
         <v>0</v>
@@ -8831,10 +8843,10 @@
         <v>0</v>
       </c>
       <c r="Q87" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="R87" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="S87" t="b">
         <v>0</v>
@@ -8899,7 +8911,7 @@
         <v>161</v>
       </c>
       <c r="J88" t="s">
-        <v>183</v>
+        <v>208</v>
       </c>
       <c r="K88" t="s">
         <v>148</v>
@@ -8920,10 +8932,10 @@
         <v>1</v>
       </c>
       <c r="Q88" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="R88" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="S88" t="b">
         <v>0</v>
@@ -8988,13 +9000,13 @@
         <v>165</v>
       </c>
       <c r="J89" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="K89" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="L89" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="M89">
         <v>0</v>
@@ -9009,10 +9021,10 @@
         <v>1</v>
       </c>
       <c r="Q89" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="R89" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="S89" t="b">
         <v>0</v>
@@ -9077,13 +9089,13 @@
         <v>165</v>
       </c>
       <c r="J90" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="K90" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="L90" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="M90">
         <v>0</v>
@@ -9098,10 +9110,10 @@
         <v>1</v>
       </c>
       <c r="Q90" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="R90" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="S90" t="b">
         <v>1</v>
@@ -9166,7 +9178,7 @@
         <v>173</v>
       </c>
       <c r="J91" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="K91" t="s">
         <v>148</v>
@@ -9187,10 +9199,10 @@
         <v>1</v>
       </c>
       <c r="Q91" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="R91" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="S91" t="b">
         <v>0</v>
@@ -9249,13 +9261,13 @@
         <v>158</v>
       </c>
       <c r="J92" t="s">
-        <v>158</v>
+        <v>193</v>
       </c>
       <c r="K92" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="L92" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="M92">
         <v>0</v>
@@ -9270,10 +9282,10 @@
         <v>0</v>
       </c>
       <c r="Q92" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="R92" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="S92" t="b">
         <v>0</v>
@@ -9338,7 +9350,7 @@
         <v>153</v>
       </c>
       <c r="J93" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K93" t="s">
         <v>148</v>
@@ -9359,10 +9371,10 @@
         <v>1</v>
       </c>
       <c r="Q93" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="R93" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="S93" t="b">
         <v>0</v>
@@ -9421,13 +9433,13 @@
         <v>158</v>
       </c>
       <c r="J94" t="s">
-        <v>158</v>
+        <v>193</v>
       </c>
       <c r="K94" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="L94" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="M94">
         <v>0</v>
@@ -9442,10 +9454,10 @@
         <v>0</v>
       </c>
       <c r="Q94" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="R94" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="S94" t="b">
         <v>0</v>
@@ -9510,13 +9522,13 @@
         <v>174</v>
       </c>
       <c r="J95" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="K95" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="L95" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="M95">
         <v>0</v>
@@ -9531,10 +9543,10 @@
         <v>1</v>
       </c>
       <c r="Q95" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="R95" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="S95" t="b">
         <v>0</v>
@@ -9599,7 +9611,7 @@
         <v>173</v>
       </c>
       <c r="J96" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="K96" t="s">
         <v>148</v>
@@ -9620,10 +9632,10 @@
         <v>1</v>
       </c>
       <c r="Q96" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="R96" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="S96" t="b">
         <v>0</v>
@@ -9709,10 +9721,10 @@
         <v>1</v>
       </c>
       <c r="Q97" t="s">
-        <v>252</v>
+        <v>228</v>
       </c>
       <c r="R97" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="S97" t="b">
         <v>0</v>
@@ -9777,13 +9789,13 @@
         <v>174</v>
       </c>
       <c r="J98" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="K98" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="L98" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="M98">
         <v>0</v>
@@ -9798,10 +9810,10 @@
         <v>1</v>
       </c>
       <c r="Q98" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="R98" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="S98" t="b">
         <v>0</v>
@@ -9863,10 +9875,10 @@
         <v>165</v>
       </c>
       <c r="K99" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="L99" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="M99">
         <v>0</v>
@@ -9881,10 +9893,10 @@
         <v>0</v>
       </c>
       <c r="Q99" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="R99" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="S99" t="b">
         <v>1</v>
@@ -9952,10 +9964,10 @@
         <v>149</v>
       </c>
       <c r="K100" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="L100" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="M100">
         <v>0</v>
@@ -9970,10 +9982,10 @@
         <v>1</v>
       </c>
       <c r="Q100" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="R100" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="S100" t="b">
         <v>1</v>
@@ -10041,10 +10053,10 @@
         <v>149</v>
       </c>
       <c r="K101" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="L101" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="M101">
         <v>0</v>
@@ -10059,10 +10071,10 @@
         <v>1</v>
       </c>
       <c r="Q101" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="R101" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="S101" t="b">
         <v>1</v>
@@ -10124,10 +10136,10 @@
         <v>165</v>
       </c>
       <c r="K102" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="L102" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="M102">
         <v>0</v>
@@ -10142,10 +10154,10 @@
         <v>0</v>
       </c>
       <c r="Q102" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="R102" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="S102" t="b">
         <v>0</v>
@@ -10213,10 +10225,10 @@
         <v>149</v>
       </c>
       <c r="K103" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="L103" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="M103">
         <v>0</v>
@@ -10231,10 +10243,10 @@
         <v>1</v>
       </c>
       <c r="Q103" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="R103" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="S103" t="b">
         <v>1</v>
@@ -10320,10 +10332,10 @@
         <v>1</v>
       </c>
       <c r="Q104" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="R104" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="S104" t="b">
         <v>1</v>
@@ -10409,10 +10421,10 @@
         <v>1</v>
       </c>
       <c r="Q105" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="R105" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="S105" t="b">
         <v>1</v>
@@ -10498,10 +10510,10 @@
         <v>1</v>
       </c>
       <c r="Q106" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="R106" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="S106" t="b">
         <v>1</v>
@@ -10566,7 +10578,7 @@
         <v>175</v>
       </c>
       <c r="J107" t="s">
-        <v>179</v>
+        <v>200</v>
       </c>
       <c r="K107" t="s">
         <v>148</v>
@@ -10587,10 +10599,10 @@
         <v>1</v>
       </c>
       <c r="Q107" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="R107" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="S107" t="b">
         <v>0</v>
@@ -10655,7 +10667,7 @@
         <v>175</v>
       </c>
       <c r="J108" t="s">
-        <v>179</v>
+        <v>200</v>
       </c>
       <c r="K108" t="s">
         <v>148</v>
@@ -10676,10 +10688,10 @@
         <v>1</v>
       </c>
       <c r="Q108" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="R108" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="S108" t="b">
         <v>1</v>
@@ -10765,10 +10777,10 @@
         <v>1</v>
       </c>
       <c r="Q109" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="R109" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="S109" t="b">
         <v>1</v>
@@ -10833,7 +10845,7 @@
         <v>175</v>
       </c>
       <c r="J110" t="s">
-        <v>179</v>
+        <v>200</v>
       </c>
       <c r="K110" t="s">
         <v>148</v>
@@ -10854,10 +10866,10 @@
         <v>1</v>
       </c>
       <c r="Q110" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="R110" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="S110" t="b">
         <v>1</v>
@@ -10943,10 +10955,10 @@
         <v>1</v>
       </c>
       <c r="Q111" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="R111" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="S111" t="b">
         <v>1</v>
@@ -11011,13 +11023,13 @@
         <v>176</v>
       </c>
       <c r="J112" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="K112" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="L112" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="M112">
         <v>0</v>
@@ -11032,10 +11044,10 @@
         <v>1</v>
       </c>
       <c r="Q112" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="R112" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="S112" t="b">
         <v>0</v>
@@ -11100,13 +11112,13 @@
         <v>176</v>
       </c>
       <c r="J113" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="K113" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="L113" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="M113">
         <v>0</v>
@@ -11121,10 +11133,10 @@
         <v>1</v>
       </c>
       <c r="Q113" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="R113" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="S113" t="b">
         <v>0</v>
@@ -11189,13 +11201,13 @@
         <v>176</v>
       </c>
       <c r="J114" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="K114" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="L114" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="M114">
         <v>0</v>
@@ -11210,10 +11222,10 @@
         <v>1</v>
       </c>
       <c r="Q114" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="R114" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="S114" t="b">
         <v>1</v>
@@ -11293,10 +11305,10 @@
         <v>0</v>
       </c>
       <c r="Q115" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="R115" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="S115" t="b">
         <v>1</v>
@@ -11376,10 +11388,10 @@
         <v>0</v>
       </c>
       <c r="Q116" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="R116" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="S116" t="b">
         <v>1</v>
@@ -11444,13 +11456,13 @@
         <v>176</v>
       </c>
       <c r="J117" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="K117" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="L117" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="M117">
         <v>0</v>
@@ -11465,10 +11477,10 @@
         <v>1</v>
       </c>
       <c r="Q117" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="R117" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="S117" t="b">
         <v>0</v>
@@ -11548,10 +11560,10 @@
         <v>0</v>
       </c>
       <c r="Q118" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="R118" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="S118" t="b">
         <v>1</v>
@@ -11631,10 +11643,10 @@
         <v>0</v>
       </c>
       <c r="Q119" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="R119" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="S119" t="b">
         <v>1</v>
@@ -11699,13 +11711,13 @@
         <v>176</v>
       </c>
       <c r="J120" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="K120" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="L120" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="M120">
         <v>0</v>
@@ -11720,10 +11732,10 @@
         <v>1</v>
       </c>
       <c r="Q120" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="R120" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="S120" t="b">
         <v>0</v>

--- a/tests/integration/out/ai-and-nanotech-applicants.xlsx
+++ b/tests/integration/out/ai-and-nanotech-applicants.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="341">
   <si>
     <t>Number of Simple Patent Families (Fractionally Counted)</t>
   </si>
@@ -550,106 +550,91 @@
     <t>KR;;CA;;AU;;EP;;WO;;CN;;JP;;US</t>
   </si>
   <si>
-    <t>JP;;CN;;US;;WO;;GB;;DE</t>
-  </si>
-  <si>
-    <t>CA;;CN;;JP;;EP;;US;;WO;;KR;;AU;;SG</t>
-  </si>
-  <si>
-    <t>WO;;US;;EP</t>
-  </si>
-  <si>
-    <t>US;;CN;;EP</t>
-  </si>
-  <si>
-    <t>US;;CN</t>
-  </si>
-  <si>
-    <t>CA;;CN;;JP;;EP;;WO;;US;;KR;;AU</t>
-  </si>
-  <si>
-    <t>WO;;US;;EP;;CA</t>
-  </si>
-  <si>
-    <t>WO;;US;;EP;;TW</t>
+    <t>GB;;WO;;CN;;JP;;US;;DE</t>
+  </si>
+  <si>
+    <t>WO;;CA;;SG;;CN;;JP;;US;;KR;;AU;;EP</t>
+  </si>
+  <si>
+    <t>EP;;US;;WO</t>
+  </si>
+  <si>
+    <t>CN;;EP;;US</t>
+  </si>
+  <si>
+    <t>WO;;CA;;CN;;JP;;US;;KR;;AU;;EP</t>
+  </si>
+  <si>
+    <t>EP;;US;;WO;;CA</t>
+  </si>
+  <si>
+    <t>EP;;US;;WO;;TW</t>
   </si>
   <si>
     <t>US;;KR;;WO;;CA</t>
   </si>
   <si>
-    <t>CA;;EP;;WO;;US;;KR;;AU</t>
-  </si>
-  <si>
-    <t>WO;;US;;CA</t>
-  </si>
-  <si>
-    <t>US;;CN;;KR;;WO</t>
-  </si>
-  <si>
-    <t>JP;;CN;;EP;;TW;;WO;;US;;KR</t>
-  </si>
-  <si>
-    <t>WO;;US;;CN;;EP</t>
-  </si>
-  <si>
-    <t>CA;;CN;;JP;;EP;;US;;KR</t>
-  </si>
-  <si>
-    <t>US;;EP</t>
-  </si>
-  <si>
-    <t>WO;;FR;;EP</t>
-  </si>
-  <si>
-    <t>CA;;EP;;TW;;WO;;GB;;SG</t>
-  </si>
-  <si>
-    <t>US;;EP;;KR</t>
-  </si>
-  <si>
-    <t>CA;;JP;;CN;;EP;;WO;;US;;KR;;AU;;SG</t>
+    <t>WO;;CA;;US;;KR;;AU;;EP</t>
+  </si>
+  <si>
+    <t>US;;WO;;CA</t>
+  </si>
+  <si>
+    <t>CN;;US;;KR;;WO</t>
+  </si>
+  <si>
+    <t>WO;;TW;;CN;;JP;;US;;KR;;EP</t>
+  </si>
+  <si>
+    <t>CN;;EP;;US;;WO</t>
+  </si>
+  <si>
+    <t>CA;;CN;;JP;;US;;KR;;EP</t>
+  </si>
+  <si>
+    <t>EP;;WO;;FR</t>
+  </si>
+  <si>
+    <t>GB;;WO;;SG;;CA;;TW;;EP</t>
+  </si>
+  <si>
+    <t>EP;;US;;KR</t>
   </si>
   <si>
     <t>WO;;CA</t>
   </si>
   <si>
-    <t>CN;;JP;;US</t>
-  </si>
-  <si>
-    <t>CA;;CN;;JP;;EP;;WO;;US;;KR;;AU;;SG</t>
-  </si>
-  <si>
-    <t>CN;;JP;;EP;;US;;WO;;KR</t>
+    <t>CN;;US;;JP</t>
+  </si>
+  <si>
+    <t>WO;;CN;;JP;;US;;KR;;EP</t>
   </si>
   <si>
     <t>US;;JP</t>
   </si>
   <si>
-    <t>CN;;JP;;KR;;EP</t>
-  </si>
-  <si>
-    <t>CN;;JP;;EP;;US;;KR</t>
-  </si>
-  <si>
-    <t>CA;;CN;;JP;;EP;;KR</t>
-  </si>
-  <si>
-    <t>US;;CN;;TW</t>
-  </si>
-  <si>
-    <t>EP;;AU;;KR;;CA</t>
-  </si>
-  <si>
-    <t>CA;;JP;;CN;;EP;;WO;;US;;KR;;AU</t>
-  </si>
-  <si>
-    <t>RU;;ZA;;CA;;CN;;JP;;EP;;TW;;WO;;US;;KR;;IL;;AU</t>
-  </si>
-  <si>
-    <t>CA;;CN;;JP;;EP;;KR;;AU</t>
-  </si>
-  <si>
-    <t>CN;;JP;;GB;;DE</t>
+    <t>CN;;EP;;KR;;JP</t>
+  </si>
+  <si>
+    <t>CN;;JP;;US;;KR;;EP</t>
+  </si>
+  <si>
+    <t>CA;;CN;;JP;;KR;;EP</t>
+  </si>
+  <si>
+    <t>EP;;KR;;CA;;AU</t>
+  </si>
+  <si>
+    <t>WO;;CA;;TW;;CN;;RU;;JP;;ZA;;IL;;KR;;US;;AU;;EP</t>
+  </si>
+  <si>
+    <t>CA;;CN;;JP;;KR;;AU;;EP</t>
+  </si>
+  <si>
+    <t>CN;;GB;;JP;;DE</t>
+  </si>
+  <si>
+    <t>WO;;SG;;CA;;CN;;JP;;US;;KR;;AU;;EP</t>
   </si>
   <si>
     <t>FR</t>
@@ -676,7 +661,10 @@
     <t>US;;IB</t>
   </si>
   <si>
-    <t>US;;AU;;CA</t>
+    <t>IB;;US</t>
+  </si>
+  <si>
+    <t>US;;CA;;AU</t>
   </si>
   <si>
     <t>US;;AU</t>
@@ -685,223 +673,226 @@
     <t>US;;CA</t>
   </si>
   <si>
-    <t>US;;IL</t>
-  </si>
-  <si>
-    <t>FR;;EP</t>
-  </si>
-  <si>
-    <t>国际商业机器公司;;IBM (CHINA) INVEST COMPANY LTD;;IBM;;インターナショナル・ビジネス・マシーンズ・コーポレーションＩＮＴＥＲＮＡＴＩＯＮＡＬ ＢＵＳＩＮＥＳＳ ＭＡＣＨＩＮＥＳ ＣＯＲＰＯＲＡＴＩＯＮ;;IBM UK</t>
-  </si>
-  <si>
-    <t>CASTRILLO SERGIO BOIXO;;ラミ・バレントス;;GOOGLE LLC;;구글 엘엘씨;;SMELYANSKIY VADIM;;GOOGLE INC;;グーグル エルエルシー;;NIU YUEZHEN;;NEVEN HARTMUT;;グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;BARENDS RAMI</t>
+    <t>IL;;US</t>
+  </si>
+  <si>
+    <t>EP;;FR</t>
+  </si>
+  <si>
+    <t>IBM;;国际商业机器公司;;IBM (CHINA) INVEST COMPANY LTD;;IBM UK;;インターナショナル・ビジネス・マシーンズ・コーポレーションＩＮＴＥＲＮＡＴＩＯＮＡＬ ＢＵＳＩＮＥＳＳ ＭＡＣＨＩＮＥＳ ＣＯＲＰＯＲＡＴＩＯＮ</t>
+  </si>
+  <si>
+    <t>GOOGLE LLC;;GOOGLE INC;;NIU YUEZHEN;;グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;グーグル エルエルシー;;NEVEN HARTMUT;;ラミ・バレントス;;CASTRILLO SERGIO BOIXO;;구글 엘엘씨;;SMELYANSKIY VADIM;;BARENDS RAMI</t>
   </si>
   <si>
     <t>D WAVE SYSTEMS INC;;YARKONI SHEIR</t>
   </si>
   <si>
-    <t>INST OF MICROELECTRONICS CAS;;中国科学院微电子研究所;;INST MICROELECTRONICS CAS</t>
-  </si>
-  <si>
-    <t>킨디 인코포레이티드;;KYNDI INC;;キンダイ、インコーポレイテッドＫＹＮＤＩ， ＩＮＣ．</t>
-  </si>
-  <si>
-    <t>CATALOG TECH INC;;CATALOG TECHNOLOGIES INC</t>
-  </si>
-  <si>
-    <t>HARTFORD FIRE INSURANCE COMP;;MOLINSKY BRADLEY DEAN;;DUNST MICHAEL J;;CARROLL WILLIAM JOSEPH;;TIPTON THOMAS ANDREW;;BATTAGLINI JOSEPH S</t>
+    <t>中国科学院微电子研究所;;INST MICROELECTRONICS CAS;;INST OF MICROELECTRONICS CAS</t>
+  </si>
+  <si>
+    <t>킨디 인코포레이티드;;キンダイ、インコーポレイテッドＫＹＮＤＩ， ＩＮＣ．;;KYNDI INC</t>
+  </si>
+  <si>
+    <t>CATALOG TECHNOLOGIES INC;;CATALOG TECH INC</t>
+  </si>
+  <si>
+    <t>DUNST MICHAEL J;;MOLINSKY BRADLEY DEAN;;CARROLL WILLIAM JOSEPH;;TIPTON THOMAS ANDREW;;BATTAGLINI JOSEPH S;;HARTFORD FIRE INSURANCE COMP</t>
   </si>
   <si>
     <t>ラム リサーチ コーポレーションＬＡＭ ＲＥＳＥＡＲＣＨ ＣＯＲＰＯＲＡＴＩＯＮ;;LAM RES CORP</t>
   </si>
   <si>
-    <t>微软技术许可有限责任公司;;MICROSOFT TECHNOLOGY LICENSING LLC</t>
-  </si>
-  <si>
-    <t>IRIDIA INC;;イリディア・インコーポレイテッドＩｒｉｄｉａ， Ｉｎｃ．;;DODO OMNIDATA INC</t>
-  </si>
-  <si>
-    <t>IBM UK;;IBM;;IBM (CHINA) INVEST COMPANY LTD</t>
+    <t>MICROSOFT TECHNOLOGY LICENSING LLC;;微软技术许可有限责任公司</t>
+  </si>
+  <si>
+    <t>イリディア・インコーポレイテッドＩｒｉｄｉａ， Ｉｎｃ．;;IRIDIA INC;;DODO OMNIDATA INC</t>
+  </si>
+  <si>
+    <t>IBM;;IBM UK;;IBM (CHINA) INVEST COMPANY LTD</t>
   </si>
   <si>
     <t>IRIDIA INC;;DODO OMNIDATA INC</t>
   </si>
   <si>
-    <t>D-WAVE SYSTEMS INC;;YARKONI SHEIR</t>
+    <t>YARKONI SHEIR;;D-WAVE SYSTEMS INC</t>
+  </si>
+  <si>
+    <t>UNIV LEUVEN KATH;;IMEC VZW;;KATHOLIEKE UNIV LEUVEN KU LEUVEN RESEARCH &amp; DEVELOPMENT</t>
+  </si>
+  <si>
+    <t>서울시립대학교 산학협력단;;UNIV SEOUL IND COOP FOUND</t>
+  </si>
+  <si>
+    <t>D WAVE SYSTEMS INC;;YARKONI SHEIR;;D-WAVE SYSTEMS INC</t>
+  </si>
+  <si>
+    <t>GOOGLE LLC;;GOOGLE INC;;グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;グーグル エルエルシー;;ラミ・バレントス;;구글 엘엘씨;;BARENDS RAMI</t>
+  </si>
+  <si>
+    <t>BOSE SAURABH KUMAR;;ザ ユニバーシティー オブ カンタベリー;;BROWN SIMON ANTHONY;;FOSTNER SHAWN;;THE UNIV OF CANTERBURY</t>
+  </si>
+  <si>
+    <t>서강대학교산학협력단;;UNIV SOGANG RES FOUNDATION</t>
+  </si>
+  <si>
+    <t>UNIV SOUTHEAST;;东南大学</t>
+  </si>
+  <si>
+    <t>HITACHI LTD;;株式会社日立製作所</t>
+  </si>
+  <si>
+    <t>电子科技大学;;UNIV ELECTRONIC SCI &amp; TECH CHINA</t>
+  </si>
+  <si>
+    <t>UNIV INDUSTRY COOPERATION GROUP KYUNG HEE UNIV;;경희대학교 산학협력단</t>
+  </si>
+  <si>
+    <t>ザ ユニバーシティー オブ カンタベリー;;THE UNIV OF CANTERBURY</t>
+  </si>
+  <si>
+    <t>イリディア・インコーポレイテッドＩｒｉｄｉａ， Ｉｎｃ．;;IRIDIA INC</t>
+  </si>
+  <si>
+    <t>YANGTZE DELTA REGION INST TSINGHUA UNIV ZHEJIANG;;ICLEAGUE TECH CO LTD</t>
+  </si>
+  <si>
+    <t>한양대학교 산학협력단;;IUCF HYU</t>
+  </si>
+  <si>
+    <t>TAIWAN SEMICONDUCTOR MFG;;TAIWAN SEMICONDUCTOR MFG CO LTD</t>
+  </si>
+  <si>
+    <t>GOOGLE LLC;;GOOGLE INC;;NIU YUEZHEN;;グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;グーグル エルエルシー;;NEVEN HARTMUT;;CASTRILLO SERGIO BOIXO;;SMELYANSKIY VADIM</t>
+  </si>
+  <si>
+    <t>스미르노브, 세르게이 니콜라예비치;;LANDIGRAD LLC;;SMIRNOV SERGEY NIIKOLAYEVICH;;LANDIGRAD LIMITED LIABILITY COMPANY;;SMIRNOV SERGEY NIKOLAYEVICH;;LANDIGRAD LTD LIABILITY CO;;SMIRNOV SERGEY;;OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD;;란디그레드, 리미티드 라이어빌리티 컴퍼니</t>
   </si>
   <si>
     <t>IMEC VZW;;UNIV LEUVEN KATH;;KATHOLIEKE UNIV LEUVEN KU LEUVEN RESEARCH &amp; DEVELOPMENT</t>
   </si>
   <si>
-    <t>서울시립대학교 산학협력단;;UNIV SEOUL IND COOP FOUND</t>
-  </si>
-  <si>
-    <t>D WAVE SYSTEMS INC;;D-WAVE SYSTEMS INC;;YARKONI SHEIR</t>
-  </si>
-  <si>
-    <t>ラミ・バレントス;;GOOGLE LLC;;구글 엘엘씨;;GOOGLE INC;;グーグル エルエルシー;;グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;BARENDS RAMI</t>
-  </si>
-  <si>
-    <t>THE UNIV OF CANTERBURY;;ザ ユニバーシティー オブ カンタベリー;;BOSE SAURABH KUMAR;;BROWN SIMON ANTHONY;;FOSTNER SHAWN</t>
-  </si>
-  <si>
-    <t>UNIV SOGANG RES FOUNDATION;;서강대학교산학협력단</t>
-  </si>
-  <si>
-    <t>东南大学;;UNIV SOUTHEAST</t>
-  </si>
-  <si>
-    <t>HITACHI LTD;;株式会社日立製作所</t>
-  </si>
-  <si>
-    <t>电子科技大学;;UNIV ELECTRONIC SCI &amp; TECH CHINA</t>
-  </si>
-  <si>
-    <t>경희대학교 산학협력단;;UNIV INDUSTRY COOPERATION GROUP KYUNG HEE UNIV</t>
-  </si>
-  <si>
-    <t>THE UNIV OF CANTERBURY;;ザ ユニバーシティー オブ カンタベリー</t>
-  </si>
-  <si>
-    <t>IRIDIA INC;;イリディア・インコーポレイテッドＩｒｉｄｉａ， Ｉｎｃ．</t>
-  </si>
-  <si>
-    <t>YANGTZE DELTA REGION INST TSINGHUA UNIV ZHEJIANG;;ICLEAGUE TECH CO LTD</t>
-  </si>
-  <si>
-    <t>한양대학교 산학협력단;;IUCF HYU</t>
-  </si>
-  <si>
-    <t>TAIWAN SEMICONDUCTOR MFG CO LTD;;TAIWAN SEMICONDUCTOR MFG</t>
-  </si>
-  <si>
-    <t>CASTRILLO SERGIO BOIXO;;GOOGLE LLC;;SMELYANSKIY VADIM;;GOOGLE INC;;NIU YUEZHEN;;グーグル エルエルシー;;NEVEN HARTMUT;;グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ</t>
-  </si>
-  <si>
-    <t>SMIRNOV SERGEY NIKOLAYEVICH;;SMIRNOV SERGEY;;LANDIGRAD LIMITED LIABILITY COMPANY;;LANDIGRAD LTD LIABILITY CO;;OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD;;란디그레드, 리미티드 라이어빌리티 컴퍼니;;LANDIGRAD LLC;;스미르노브, 세르게이 니콜라예비치;;SMIRNOV SERGEY NIIKOLAYEVICH</t>
-  </si>
-  <si>
     <t>国际商业机器公司;;インターナショナル・ビジネス・マシーンズ・コーポレーションＩＮＴＥＲＮＡＴＩＯＮＡＬ ＢＵＳＩＮＥＳＳ ＭＡＣＨＩＮＥＳ ＣＯＲＰＯＲＡＴＩＯＮ;;IBM</t>
   </si>
   <si>
-    <t>LANDIGRAD LLC;;스미르노브, 세르게이 니콜라예비치;;SMIRNOV SERGEY NIKOLAYEVICH;;란디그레드, 리미티드 라이어빌리티 컴퍼니</t>
-  </si>
-  <si>
-    <t>THE UNIV OF CANTERBURY;;BOSE SAURABH KUMAR;;BROWN SIMON ANTHONY;;FOSTNER SHAWN</t>
-  </si>
-  <si>
-    <t>ラミ・バレントス;;GOOGLE LLC;;구글 엘엘씨;;GOOGLE INC;;グーグル エルエルシー;;BARENDS RAMI</t>
-  </si>
-  <si>
-    <t>LANDIGRAD LLC;;SMIRNOV SERGEY NIKOLAYEVICH;;SMIRNOV SERGEY;;LANDIGRAD LIMITED LIABILITY COMPANY;;LANDIGRAD LTD LIABILITY CO;;OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD;;SMIRNOV SERGEY NIIKOLAYEVICH</t>
-  </si>
-  <si>
-    <t>CASTRILLO SERGIO BOIXO;;GOOGLE LLC;;SMELYANSKIY VADIM;;GOOGLE INC;;NIU YUEZHEN;;NEVEN HARTMUT;;グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ</t>
-  </si>
-  <si>
-    <t>MAXIM GEORGE ADRIAN;;LEIPOLD DIRK ROBERT WALTER;;ASKER MICHAEL ALBERT</t>
-  </si>
-  <si>
-    <t>PHAN ANNA T;;MARTIN FERNANDEZ FRANCISCO JOSE;;OLIVADESE SALVATORE BERNARDO;;NEUMAN-HORN DEBRA A;;ZHANG JINGYUN;;OLIVADESE SALVATORE;;マクルーア ザ サード、ダグラス、テンプルトン;;KUCZYNSKI JOSEPH;;GAMBETTA JAY M;;HEKMATSHOARTABARI BAHMAN;;HASHEMI POUYA;;PISTOIA MARCO;;MATTHIAS STEFFEN;;PRISCO JOSEPH F;;LIU PENG;;DIAL OLIVER;;MCCLURE III DOUGLAS TEMPLETON;;BISHOP LEV SAMUEL;;MCCLURE III DOUGLAS T;;FARO SERTAGE ISMAEL;;GREENBERG DON;;ダイアル、オリバー;;TEMME PAUL;;PHAN ANNA;;J·加姆贝塔;;CHEN RICHARD;;O·蒂亚尔;;REZNICEK ALEXANDER;;BISHOP LEV;;CORCOLES-GONZALEZ ANTONIO;;NANNICINI GIACOMO;;GAMBETTA JAY;;MISGEN MARVIN M;;DOUGLAS TEMPLETON MCCLURE III;;D·T·麦克鲁尔三世;;ステファン、マティアス;;PRZYBYLSKI KEVIN J;;M·斯蒂芬;;TEMME PAUL KRISTAN;;ANDO TAKASHI;;STEFFEN MATTHIAS;;LEE CHOONGHYUN;;OLIVER DIAL;;ガンベッタ、ジェイ;;JAVADIABHARI ALI;;JAY GAMBETTA</t>
-  </si>
-  <si>
-    <t>BABBUSH RYAN;;CASTRILLO SERGIO BOIXO;;ハルトムート・ネーフェン;;ヴァディム・スメリャンスキー;;ラミ・バレントス;;BOIXO CASTRILLO SERGIO;;SMELYANSKIY VADIM;;NEVEN HELMUT;;FARHI EDWARD HENRY;;セルジオ・バイショ・カストリージョ;;エドワード・ヘンリー・ファーリ;;NIU YUEZHEN;;NEVEN HARTMUT;;ライアン・バブシュ;;ユエゼン・ニウ;;바엔즈 라미;;ハルトムート・ネーヴェン;;BARENDS RAMI</t>
-  </si>
-  <si>
-    <t>WILSON CHRISTOPHER MOGAN;;TEZAK NIKOLAS ANTON;;JOHNSON BLAKE ROBERT;;REAGOR MATTHEW J;;OSBORN CHRISTOPHER BUTLER;;ALAM MUHAMMAD SOHAIB;;CURTIS MICHAEL J;;SMITH ROBERT STANLEY;;CURTIS MICHAEL;;MCKIERNAN KERI ANN;;DAVIS ERIK JOSEPH;;RIGETTI CHAD TYLER;;SETE EYOB;;HEIDEL STEVEN;;LYNCH ADAM DAVID;;JONES GLENN;;DA SILVA MARCUS PALMER;;ZENG WILLIAM J;;PETERSON ERIC CHRISTOPHER;;RUST MICHAEL;;KARALEKAS PETER JONATHAN;;ZENG WILLIAM;;DESAI ANAND;;SETE EYOB A</t>
-  </si>
-  <si>
-    <t>ROLFE JASON;;AMIN MOHAMMAD H S;;BOOTHBY THOMAS J;;ANDRIYASH EVGENY;;KING ANDREW DOUGLAS;;BOOTHBY KELLY T R;;XUE YANBO;;MACREADY WILLIAM G;;AMIN MOHAMMAD H;;YARKONI SHEIR;;LANTING TREVOR MICHAEL;;ANDRIYASH EVGENY A</t>
-  </si>
-  <si>
-    <t>朱慧珑;;WANG GUILEI;;RADAMSON HENRY H;;ZHU ZHENGYONG;;朱正勇;;亨利·H·阿达姆松;;ZHU HUILONG;;ZHANG YANBO;;HENRY H ADAMSON;;王桂磊;;张严波</t>
+    <t>스미르노브, 세르게이 니콜라예비치;;LANDIGRAD LLC;;SMIRNOV SERGEY NIKOLAYEVICH;;란디그레드, 리미티드 라이어빌리티 컴퍼니</t>
+  </si>
+  <si>
+    <t>BOSE SAURABH KUMAR;;BROWN SIMON ANTHONY;;FOSTNER SHAWN;;THE UNIV OF CANTERBURY</t>
+  </si>
+  <si>
+    <t>GOOGLE LLC;;GOOGLE INC;;グーグル エルエルシー;;ラミ・バレントス;;구글 엘엘씨;;BARENDS RAMI</t>
+  </si>
+  <si>
+    <t>LANDIGRAD LLC;;SMIRNOV SERGEY NIIKOLAYEVICH;;LANDIGRAD LIMITED LIABILITY COMPANY;;SMIRNOV SERGEY NIKOLAYEVICH;;LANDIGRAD LTD LIABILITY CO;;SMIRNOV SERGEY;;OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD</t>
+  </si>
+  <si>
+    <t>GOOGLE LLC;;GOOGLE INC;;NIU YUEZHEN;;グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;NEVEN HARTMUT;;CASTRILLO SERGIO BOIXO;;SMELYANSKIY VADIM</t>
+  </si>
+  <si>
+    <t>ASKER MICHAEL ALBERT;;LEIPOLD DIRK ROBERT WALTER;;MAXIM GEORGE ADRIAN</t>
+  </si>
+  <si>
+    <t>CHEN RICHARD;;OLIVADESE SALVATORE BERNARDO;;DIAL OLIVER;;HASHEMI POUYA;;LIU PENG;;MCCLURE III DOUGLAS TEMPLETON;;M·斯蒂芬;;LEE CHOONGHYUN;;REZNICEK ALEXANDER;;PRISCO JOSEPH F;;ステファン、マティアス;;GREENBERG DON;;NANNICINI GIACOMO;;MATTHIAS STEFFEN;;DOUGLAS TEMPLETON MCCLURE III;;D·T·麦克鲁尔三世;;JAY GAMBETTA;;OLIVADESE SALVATORE;;ガンベッタ、ジェイ;;O·蒂亚尔;;BISHOP LEV SAMUEL;;BISHOP LEV;;GAMBETTA JAY M;;GAMBETTA JAY;;マクルーア ザ サード、ダグラス、テンプルトン;;MCCLURE III DOUGLAS T;;OLIVER DIAL;;ZHANG JINGYUN;;HEKMATSHOARTABARI BAHMAN;;STEFFEN MATTHIAS;;PISTOIA MARCO;;ダイアル、オリバー;;PHAN ANNA;;MISGEN MARVIN M;;NEUMAN-HORN DEBRA A;;JAVADIABHARI ALI;;ANDO TAKASHI;;MARTIN FERNANDEZ FRANCISCO JOSE;;CORCOLES-GONZALEZ ANTONIO;;FARO SERTAGE ISMAEL;;J·加姆贝塔;;TEMME PAUL;;PRZYBYLSKI KEVIN J;;PHAN ANNA T;;TEMME PAUL KRISTAN;;KUCZYNSKI JOSEPH</t>
+  </si>
+  <si>
+    <t>ヴァディム・スメリャンスキー;;FARHI EDWARD HENRY;;NIU YUEZHEN;;セルジオ・バイショ・カストリージョ;;BOIXO CASTRILLO SERGIO;;ライアン・バブシュ;;NEVEN HARTMUT;;エドワード・ヘンリー・ファーリ;;ハルトムート・ネーヴェン;;ラミ・バレントス;;NEVEN HELMUT;;ユエゼン・ニウ;;BABBUSH RYAN;;CASTRILLO SERGIO BOIXO;;바엔즈 라미;;SMELYANSKIY VADIM;;BARENDS RAMI;;ハルトムート・ネーフェン</t>
+  </si>
+  <si>
+    <t>DAVIS ERIK JOSEPH;;DESAI ANAND;;SETE EYOB A;;ALAM MUHAMMAD SOHAIB;;WILSON CHRISTOPHER MOGAN;;TEZAK NIKOLAS ANTON;;DA SILVA MARCUS PALMER;;OSBORN CHRISTOPHER BUTLER;;JOHNSON BLAKE ROBERT;;RIGETTI CHAD TYLER;;ZENG WILLIAM;;SMITH ROBERT STANLEY;;HEIDEL STEVEN;;KARALEKAS PETER JONATHAN;;REAGOR MATTHEW J;;PETERSON ERIC CHRISTOPHER;;LYNCH ADAM DAVID;;CURTIS MICHAEL J;;JONES GLENN;;RUST MICHAEL;;CURTIS MICHAEL;;MCKIERNAN KERI ANN;;SETE EYOB;;ZENG WILLIAM J</t>
+  </si>
+  <si>
+    <t>AMIN MOHAMMAD H;;MACREADY WILLIAM G;;ANDRIYASH EVGENY;;BOOTHBY THOMAS J;;KING ANDREW DOUGLAS;;LANTING TREVOR MICHAEL;;BOOTHBY KELLY T R;;ROLFE JASON;;AMIN MOHAMMAD H S;;XUE YANBO;;ANDRIYASH EVGENY A;;YARKONI SHEIR</t>
+  </si>
+  <si>
+    <t>ZHU ZHENGYONG;;RADAMSON HENRY H;;ZHU HUILONG;;朱正勇;;张严波;;王桂磊;;朱慧珑;;ZHANG YANBO;;HENRY H ADAMSON;;亨利·H·阿达姆松;;WANG GUILEI</t>
   </si>
   <si>
     <t>마줌다 아룬;;アルン、マジュムダール;;MAJUMDAR ARUN</t>
   </si>
   <si>
-    <t>MASILAMANI ASHOK PRABHU;;KHOMAMI ABADI MOJTABA;;GAHROOSI AMIR;;GAHROOSI AMIR BAHADOR;;GOULD MATTHEW V;;MASILAMANI ASHOK;;GOULD MATTHEW</t>
-  </si>
-  <si>
-    <t>SIGNAEVSKY MAXIM;;YAROSLAVSKY IGOR YEHUDA;;YAROSLAVSKY IGOR;;SIGNAEVSKI MAXIM M</t>
-  </si>
-  <si>
-    <t>WOLKOW ROBERT;;CROSHAW JEREMIAH;;DIENEL THOMAS;;VINE WYATT;;HUFF TALEANA;;RETALLICK JACOB;;WOLKOW ROBERT A;;LIVADARU LUCIAN;;WALUS CONRAD;;RASHIDI MOHAMMAD;;WALUS KONRAD</t>
-  </si>
-  <si>
-    <t>NGUYEN CHRISTIAN;;LUNKIN MIKHAIL;;BHASKAR MIHIR;;SUKACHEV DENIS D;;WANG SHENGTAO;;LUKIN MIKHAIL;;ZHOU LEO XIANGYU;;EVANS RUFFIN E;;BHASKAR MIHIR KESHAV;;PICHLER HANNES;;ZHOU LEO;;CHOI SOONWON;;LUKIN MIKHAIL D;;EVANS RUFFIN;;SUKACHEV DENIS;;NGUYEN CHRISTIAN THIEU;;SIPAHIGIL ALP</t>
-  </si>
-  <si>
-    <t>BHATIA SWAPNIL P;;ROQUET NATHANIEL;;PARK HYUNJUN;;LEAKE DEVIN;;BHATIA SWAPNIL</t>
-  </si>
-  <si>
-    <t>MOLINSKY BRADLEY DEAN;;DUNST MICHAEL J;;CARROLL WILLIAM JOSEPH;;BATTAGLINI JOSEPH S;;TIPTON THOMAS ANDREW</t>
+    <t>GAHROOSI AMIR;;KHOMAMI ABADI MOJTABA;;GOULD MATTHEW;;MASILAMANI ASHOK PRABHU;;GOULD MATTHEW V;;GAHROOSI AMIR BAHADOR;;MASILAMANI ASHOK</t>
+  </si>
+  <si>
+    <t>SIGNAEVSKY MAXIM;;SIGNAEVSKI MAXIM M;;YAROSLAVSKY IGOR YEHUDA;;YAROSLAVSKY IGOR</t>
+  </si>
+  <si>
+    <t>RETALLICK JACOB;;CROSHAW JEREMIAH;;WOLKOW ROBERT;;VINE WYATT;;DIENEL THOMAS;;WALUS CONRAD;;HUFF TALEANA;;WALUS KONRAD;;WOLKOW ROBERT A;;RASHIDI MOHAMMAD;;LIVADARU LUCIAN</t>
+  </si>
+  <si>
+    <t>NGUYEN CHRISTIAN;;EVANS RUFFIN;;LUKIN MIKHAIL D;;EVANS RUFFIN E;;WANG SHENGTAO;;PICHLER HANNES;;ZHOU LEO;;CHOI SOONWON;;NGUYEN CHRISTIAN THIEU;;SIPAHIGIL ALP;;BHASKAR MIHIR;;ZHOU LEO XIANGYU;;SUKACHEV DENIS D;;LUKIN MIKHAIL;;SUKACHEV DENIS;;LUNKIN MIKHAIL;;BHASKAR MIHIR KESHAV</t>
+  </si>
+  <si>
+    <t>BHATIA SWAPNIL;;LEAKE DEVIN;;ROQUET NATHANIEL;;BHATIA SWAPNIL P;;PARK HYUNJUN</t>
+  </si>
+  <si>
+    <t>DUNST MICHAEL J;;MOLINSKY BRADLEY DEAN;;CARROLL WILLIAM JOSEPH;;TIPTON THOMAS ANDREW;;BATTAGLINI JOSEPH S</t>
   </si>
   <si>
     <t>KAPIT ELIOT</t>
   </si>
   <si>
-    <t>PARK YOUNG-SOO;;CHO JIN SUN;;LIM DOO-HYEOK;;CHO KYOUNG AH;;KIM SANG SIG;;LIM DOO HYEOK;;KIM SANG-SIK;;CHO KYOUNG-AH;;WOO SOL A;;WOO SOL-A;;HEO JUN;;CHO JIN-SUN;;SOHN IL KWON;;PARK YOUNG SOO</t>
-  </si>
-  <si>
-    <t>グーハ・ジョイディープ;;VAHEDI VAHID;;DAUGHERTY JOHN;;GUHA JOYDEEP;;GOTTSCHO RICHARD ALAN;;ゴットショ・リチャード・アラン;;ダウガティ・ジョン;;バヘディ・バヘド</t>
-  </si>
-  <si>
-    <t>GRASS ROBERT;;K·施特劳斯;;KOHLL ALEXANDER XAVIER CHRISTOF;;W·陈;;GRANADE CHRISTOPHER EVAN;;CHEN WEIDA;;NGUYEN BICHLIEN HOANG;;R·格拉斯;;WIEBE NATHAN O;;GAMBLE IV JOHN KING;;STRAUSS KARIN;;A·X·C·科尔;;GAMBLE JOHN KING;;B·H·阮</t>
-  </si>
-  <si>
-    <t>マジャ・キャシディ;;PREDKI PAUL F;;ポール・エフ・プレドキ;;CASSIDY MAJA</t>
-  </si>
-  <si>
-    <t>ARIELI URI;;MALKIEL ITZIK;;NAGLER ACHIYA;;MREJEN MICHAEL;;SUCHOWSKI HAIM;;WOLF LIOR</t>
-  </si>
-  <si>
-    <t>ZHANG LIHONG;;NABAVI SEYEDFAKHREDDIN</t>
-  </si>
-  <si>
-    <t>GONTHIER JEROME FLORIAN;;ANSCHUETZ ERIC R;;KATABARWA AMARA;;CAO YUDONG;;JOHNSON PETER D;;DALLAIRE-DEMERS PIERRE-LUC</t>
-  </si>
-  <si>
-    <t>VARGO EMMA;;FAVALORA GREGG E;;SPRACHMAN MELISSA M;;MAGYAR ANDREW P;;SPRACHMAN MELISSA;;FRANK IAN WARD;;KOTZ KENNETH T;;BYRNES STEVEN;;HUANG HAIYAO;;FRANK IAN;;MAGYAR ANDREW;;DUBAY RYAN A;;ROSENBERGER ERIN;;MCFARLAND KIRSTY A;;CAVANAGH PETER;;FAVALORA GREGG;;MCFARLAND KIRSTY;;MARKOVIC STACEY;;DUBAY RYAN;;KOTZ KENNETH;;BYRNES STEVEN J</t>
+    <t>PARK YOUNG SOO;;CHO JIN-SUN;;CHO JIN SUN;;CHO KYOUNG-AH;;KIM SANG SIG;;WOO SOL A;;SOHN IL KWON;;LIM DOO HYEOK;;PARK YOUNG-SOO;;WOO SOL-A;;CHO KYOUNG AH;;LIM DOO-HYEOK;;KIM SANG-SIK;;HEO JUN</t>
+  </si>
+  <si>
+    <t>GOTTSCHO RICHARD ALAN;;ゴットショ・リチャード・アラン;;バヘディ・バヘド;;グーハ・ジョイディープ;;DAUGHERTY JOHN;;ダウガティ・ジョン;;GUHA JOYDEEP;;VAHEDI VAHID</t>
+  </si>
+  <si>
+    <t>CHEN WEIDA;;GRANADE CHRISTOPHER EVAN;;GAMBLE JOHN KING;;A·X·C·科尔;;B·H·阮;;NGUYEN BICHLIEN HOANG;;WIEBE NATHAN O;;GAMBLE IV JOHN KING;;KOHLL ALEXANDER XAVIER CHRISTOF;;GRASS ROBERT;;W·陈;;R·格拉斯;;K·施特劳斯;;STRAUSS KARIN</t>
+  </si>
+  <si>
+    <t>マジャ・キャシディ;;CASSIDY MAJA;;ポール・エフ・プレドキ;;PREDKI PAUL F</t>
+  </si>
+  <si>
+    <t>WOLF LIOR;;MALKIEL ITZIK;;ARIELI URI;;MREJEN MICHAEL;;NAGLER ACHIYA;;SUCHOWSKI HAIM</t>
+  </si>
+  <si>
+    <t>NABAVI SEYEDFAKHREDDIN;;ZHANG LIHONG</t>
+  </si>
+  <si>
+    <t>CAO YUDONG;;JOHNSON PETER D;;DALLAIRE-DEMERS PIERRE-LUC;;KATABARWA AMARA;;GONTHIER JEROME FLORIAN;;ANSCHUETZ ERIC R</t>
+  </si>
+  <si>
+    <t>VARGO EMMA;;SPRACHMAN MELISSA M;;FAVALORA GREGG E;;FRANK IAN WARD;;HUANG HAIYAO;;SPRACHMAN MELISSA;;DUBAY RYAN A;;ROSENBERGER ERIN;;KOTZ KENNETH;;FRANK IAN;;BYRNES STEVEN J;;MARKOVIC STACEY;;MCFARLAND KIRSTY A;;MCFARLAND KIRSTY;;DUBAY RYAN;;FAVALORA GREGG;;MAGYAR ANDREW P;;MAGYAR ANDREW;;CAVANAGH PETER;;BYRNES STEVEN;;KOTZ KENNETH T</t>
   </si>
   <si>
     <t>YOUNGNER DANIEL</t>
   </si>
   <si>
-    <t>SINHA RAJARISHI;;GUILLOU DAVID;;GUILLOU DAVID FRANCOIS</t>
-  </si>
-  <si>
-    <t>CONSTANCIAS CHRISTOPHE;;LANDIS STÉPHAN;;LANDIS STEPHAN</t>
-  </si>
-  <si>
-    <t>MATTHEW JAMES HAYES;;RAQUEL MARIA SANCHES-KUIPER;;HAYES MATTHEW JAMES;;SANCHES-KUIPER RAQUEL MARIA</t>
-  </si>
-  <si>
-    <t>PHAN ANNA T;;OLIVADESE SALVATORE BERNARDO;;OLIVADESE SALVATORE;;GAMBETTA JAY M;;PISTOIA MARCO;;DIAL OLIVER;;MCCLURE III DOUGLAS TEMPLETON;;BISHOP LEV SAMUEL;;MCCLURE III DOUGLAS T;;GREENBERG DON;;TEMME PAUL;;PHAN ANNA;;CHEN RICHARD;;BISHOP LEV;;CORCOLES-GONZALEZ ANTONIO;;GAMBETTA JAY;;NANNICINI GIACOMO;;TEMME PAUL KRISTAN;;STEFFEN MATTHIAS</t>
-  </si>
-  <si>
-    <t>朱慧珑;;WANG GUILEI;;ZHU ZHENGYONG;;朱正勇;;亨利·H·阿达姆松;;ZHU HUILONG;;ZHANG YANBO;;HENRY H ADAMSON;;王桂磊;;张严波</t>
-  </si>
-  <si>
-    <t>PREDKI PAUL F;;CASSIDY MAJA</t>
-  </si>
-  <si>
-    <t>ROLFE JASON;;AMIN MOHAMMAD H S;;BOOTHBY THOMAS J;;ANDRIYASH EVGENY;;KING ANDREW DOUGLAS;;AMIN MOHAMMAD H;;YARKONI SHEIR;;LANTING TREVOR MICHAEL;;ANDRIYASH EVGENY A</t>
-  </si>
-  <si>
-    <t>COSTA JOSE DIOGO;;ADELMANN HANNS CHRISTOPH;;CHEN CHANG;;COVENS KRIS;;STAKENBORG TIM;;FAUVART MAARTEN;;CAI QING;;CIUBOTARU FLORIN</t>
-  </si>
-  <si>
-    <t>TRESP VOLKER;;MA YUNPU</t>
-  </si>
-  <si>
-    <t>LAWRIE BENJAMIN J;;POOSER RAPHAEL C;;MAKSYMOVYCH PETRO</t>
+    <t>GUILLOU DAVID;;GUILLOU DAVID FRANCOIS;;SINHA RAJARISHI</t>
+  </si>
+  <si>
+    <t>CONSTANCIAS CHRISTOPHE;;LANDIS STEPHAN;;LANDIS STÉPHAN</t>
+  </si>
+  <si>
+    <t>HAYES MATTHEW JAMES;;RAQUEL MARIA SANCHES-KUIPER;;MATTHEW JAMES HAYES;;SANCHES-KUIPER RAQUEL MARIA</t>
+  </si>
+  <si>
+    <t>CHEN RICHARD;;OLIVADESE SALVATORE BERNARDO;;DIAL OLIVER;;MCCLURE III DOUGLAS TEMPLETON;;GREENBERG DON;;NANNICINI GIACOMO;;OLIVADESE SALVATORE;;BISHOP LEV;;BISHOP LEV SAMUEL;;GAMBETTA JAY M;;GAMBETTA JAY;;MCCLURE III DOUGLAS T;;STEFFEN MATTHIAS;;PISTOIA MARCO;;PHAN ANNA;;CORCOLES-GONZALEZ ANTONIO;;TEMME PAUL;;PHAN ANNA T;;TEMME PAUL KRISTAN</t>
+  </si>
+  <si>
+    <t>ZHU ZHENGYONG;;ZHU HUILONG;;朱正勇;;张严波;;王桂磊;;朱慧珑;;ZHANG YANBO;;HENRY H ADAMSON;;亨利·H·阿达姆松;;WANG GUILEI</t>
+  </si>
+  <si>
+    <t>CASSIDY MAJA;;PREDKI PAUL F</t>
+  </si>
+  <si>
+    <t>AMIN MOHAMMAD H;;ANDRIYASH EVGENY;;BOOTHBY THOMAS J;;KING ANDREW DOUGLAS;;LANTING TREVOR MICHAEL;;ROLFE JASON;;AMIN MOHAMMAD H S;;ANDRIYASH EVGENY A;;YARKONI SHEIR</t>
+  </si>
+  <si>
+    <t>CHEN CHANG;;COVENS KRIS;;COSTA JOSE DIOGO;;CIUBOTARU FLORIN;;ADELMANN HANNS CHRISTOPH;;FAUVART MAARTEN;;STAKENBORG TIM;;CAI QING</t>
+  </si>
+  <si>
+    <t>MA YUNPU;;TRESP VOLKER</t>
+  </si>
+  <si>
+    <t>MAKSYMOVYCH PETRO;;LAWRIE BENJAMIN J;;POOSER RAPHAEL C</t>
   </si>
   <si>
     <t>DANIEL RAMEZ;;RIZIK LUNA</t>
   </si>
   <si>
-    <t>GABRYS RYAN;;YAZDI S M HOSSEIN TABATABAEI;;MILENKOVIC OLGICA</t>
+    <t>YAZDI S M HOSSEIN TABATABAEI;;MILENKOVIC OLGICA;;GABRYS RYAN</t>
   </si>
   <si>
     <t>안도열;;AHN DO YEOL</t>
@@ -910,46 +901,46 @@
     <t>GHOSH TAPABRATA</t>
   </si>
   <si>
-    <t>WANG YUNBO;;ZHOU WENLI;;GAO JUNXIONG;;WU SHUO;;CHENG RUNHONG;;CHEN CHANGSHENG;;ZHU YU</t>
+    <t>WU SHUO;;GAO JUNXIONG;;CHENG RUNHONG;;ZHOU WENLI;;CHEN CHANGSHENG;;WANG YUNBO;;ZHU YU</t>
   </si>
   <si>
     <t>YAN XIAOBING;;REN DELIANG;;WANG KAIYANG</t>
   </si>
   <si>
-    <t>SLINKER KEITH;;REICH GREGORY W;;DICKINSON BENJAMIN T;;KONDASH COREY R;;BAUR JEFFREY W;;MAGAR KAMAN THAPA;;PANKONIEN ALEXANDER M</t>
+    <t>REICH GREGORY W;;KONDASH COREY R;;BAUR JEFFREY W;;DICKINSON BENJAMIN T;;PANKONIEN ALEXANDER M;;SLINKER KEITH;;MAGAR KAMAN THAPA</t>
   </si>
   <si>
     <t>NIVALA JEFFREY MATTHEW</t>
   </si>
   <si>
-    <t>WANG WEI;;CHEN YIXIANG;;WANG ZEHONG;;YU DAN</t>
-  </si>
-  <si>
-    <t>SANGWAN VINOD K;;HERSAM MARK C;;LEE HONG-SUB</t>
-  </si>
-  <si>
-    <t>JIANG ZHUOLIN;;SIU MAN-HUNG;;FONG KIN CHUNG</t>
-  </si>
-  <si>
-    <t>TAKATSUKI HIDEYO;;REUTHER CORDULA;;MANSSON ALF;;KORTEN TILL;;DIEZ STEFAN</t>
-  </si>
-  <si>
-    <t>ANG KAH-WEE;;TAN WEE CHONG</t>
-  </si>
-  <si>
-    <t>ZHAO LINYUAN;;LIU YU;;XU JUN;;LIANG RENRONG</t>
-  </si>
-  <si>
-    <t>AGGARWAL PRIYANKA;;CHODAVARAPU VAMSY</t>
-  </si>
-  <si>
-    <t>HEO KEUN;;LEE HYUNG-DONG;;CHOI YONG SOO;;LEE HYUNG DONG;;CHOI YONG-SOO</t>
-  </si>
-  <si>
-    <t>WU QING;;XIA QIANGFEI;;YANG JIANHUA;;MCLEAN MARK</t>
-  </si>
-  <si>
-    <t>BOOTHBY THOMAS J;;KING ANDREW DOUGLAS;;BOOTHBY KELLY T R;;AMIN MOHAMMAD H;;YARKONI SHEIR;;LANTING TREVOR MICHAEL;;ANDRIYASH EVGENY A</t>
+    <t>YU DAN;;WANG WEI;;WANG ZEHONG;;CHEN YIXIANG</t>
+  </si>
+  <si>
+    <t>LEE HONG-SUB;;SANGWAN VINOD K;;HERSAM MARK C</t>
+  </si>
+  <si>
+    <t>SIU MAN-HUNG;;FONG KIN CHUNG;;JIANG ZHUOLIN</t>
+  </si>
+  <si>
+    <t>KORTEN TILL;;DIEZ STEFAN;;MANSSON ALF;;TAKATSUKI HIDEYO;;REUTHER CORDULA</t>
+  </si>
+  <si>
+    <t>TAN WEE CHONG;;ANG KAH-WEE</t>
+  </si>
+  <si>
+    <t>ZHAO LINYUAN;;LIANG RENRONG;;XU JUN;;LIU YU</t>
+  </si>
+  <si>
+    <t>CHODAVARAPU VAMSY;;AGGARWAL PRIYANKA</t>
+  </si>
+  <si>
+    <t>LEE HYUNG-DONG;;CHOI YONG SOO;;CHOI YONG-SOO;;LEE HYUNG DONG;;HEO KEUN</t>
+  </si>
+  <si>
+    <t>MCLEAN MARK;;XIA QIANGFEI;;YANG JIANHUA;;WU QING</t>
+  </si>
+  <si>
+    <t>AMIN MOHAMMAD H;;BOOTHBY THOMAS J;;KING ANDREW DOUGLAS;;BOOTHBY KELLY T R;;LANTING TREVOR MICHAEL;;ANDRIYASH EVGENY A;;YARKONI SHEIR</t>
   </si>
   <si>
     <t>ZHANG XIANGCHENG;;WU JIAN</t>
@@ -967,76 +958,70 @@
     <t>ZHU HUILONG</t>
   </si>
   <si>
-    <t>BABBUSH RYAN;;ラミ・バレントス;;FARHI EDWARD HENRY;;エドワード・ヘンリー・ファーリ;;ライアン・バブシュ;;NEVEN HARTMUT;;바엔즈 라미;;ハルトムート・ネーヴェン;;BARENDS RAMI</t>
-  </si>
-  <si>
-    <t>CORBO CLAUDIA;;MAHMOUDI MORTEZA;;FAROKHZAD OMID</t>
-  </si>
-  <si>
-    <t>WANG GANG;;VASTAREY NIKHIL SURESH;;KAPOOR ANMOL SINGH;;BHAT SUMRITA;;KOUL RAMAN;;WANG GANG (A K A JOSEPH);;SALAHANDISH RAZIEH</t>
+    <t>FARHI EDWARD HENRY;;ライアン・バブシュ;;NEVEN HARTMUT;;エドワード・ヘンリー・ファーリ;;ハルトムート・ネーヴェン;;ラミ・バレントス;;BABBUSH RYAN;;바엔즈 라미;;BARENDS RAMI</t>
+  </si>
+  <si>
+    <t>FAROKHZAD OMID;;MAHMOUDI MORTEZA;;CORBO CLAUDIA</t>
+  </si>
+  <si>
+    <t>BHAT SUMRITA;;KAPOOR ANMOL SINGH;;SALAHANDISH RAZIEH;;KOUL RAMAN;;WANG GANG (A K A JOSEPH);;WANG GANG;;VASTAREY NIKHIL SURESH</t>
   </si>
   <si>
     <t>SHIMA SHOHEI</t>
   </si>
   <si>
-    <t>RAMPRASAD RAMPI;;KIM CHIHO;;CHANDRASEKARAN ANAND</t>
-  </si>
-  <si>
-    <t>BABBUSH RYAN;;CASTRILLO SERGIO BOIXO;;ハルトムート・ネーフェン;;ヴァディム・スメリャンスキー;;ラミ・バレントス;;BOIXO CASTRILLO SERGIO;;SMELYANSKIY VADIM;;セルジオ・バイショ・カストリージョ;;NIU YUEZHEN;;NEVEN HARTMUT;;ユエゼン・ニウ;;바엔즈 라미;;BARENDS RAMI</t>
-  </si>
-  <si>
-    <t>フォスナー ショーン;;ブラウン シモン アンソニー;;BOSE SAURABH KUMAR;;ボーズ サウラブ クマー;;BROWN SIMON ANTHONY;;FOSTNER SHAWN</t>
-  </si>
-  <si>
-    <t>CHUNG YONG HO;;최정우;;CHOI JEONG WOO;;정용호</t>
-  </si>
-  <si>
-    <t>张辉;;ZHANG HUI;;ZHANG JIN;;幸研;;XING YAN;;李源;;张晋;;LI YUAN</t>
-  </si>
-  <si>
-    <t>GRASS ROBERT;;K·施特劳斯;;KOHLL ALEXANDER XAVIER CHRISTOF;;W·陈;;CHEN WEIDA;;NGUYEN BICHLIEN HOANG;;R·格拉斯;;STRAUSS KARIN;;A·X·C·科尔;;B·H·阮</t>
+    <t>RAMPRASAD RAMPI;;CHANDRASEKARAN ANAND;;KIM CHIHO</t>
+  </si>
+  <si>
+    <t>ヴァディム・スメリャンスキー;;セルジオ・バイショ・カストリージョ;;NIU YUEZHEN;;BOIXO CASTRILLO SERGIO;;NEVEN HARTMUT;;ユエゼン・ニウ;;ラミ・バレントス;;BABBUSH RYAN;;CASTRILLO SERGIO BOIXO;;바엔즈 라미;;SMELYANSKIY VADIM;;BARENDS RAMI;;ハルトムート・ネーフェン</t>
+  </si>
+  <si>
+    <t>BOSE SAURABH KUMAR;;フォスナー ショーン;;ボーズ サウラブ クマー;;FOSTNER SHAWN;;BROWN SIMON ANTHONY;;ブラウン シモン アンソニー</t>
+  </si>
+  <si>
+    <t>정용호;;CHUNG YONG HO;;CHOI JEONG WOO;;최정우</t>
+  </si>
+  <si>
+    <t>XING YAN;;LI YUAN;;ZHANG JIN;;ZHANG HUI;;张辉;;幸研;;张晋;;李源</t>
+  </si>
+  <si>
+    <t>CHEN WEIDA;;A·X·C·科尔;;B·H·阮;;NGUYEN BICHLIEN HOANG;;GRASS ROBERT;;KOHLL ALEXANDER XAVIER CHRISTOF;;W·陈;;R·格拉斯;;STRAUSS KARIN;;K·施特劳斯</t>
   </si>
   <si>
     <t>SHINKAI GOU;;新海 剛</t>
   </si>
   <si>
-    <t>LI DONGYANG;;JIANG YADONG;;顾德恩;;蒋亚东;;LI WEI;;李伟;;钟豪;;CHEN YICHENG;;李东阳;;GU DEEN;;陈奕丞;;ZHONG HAO;;GU DE'EN</t>
-  </si>
-  <si>
-    <t>파쿼 아마드;;SHIN HYUN DONG;;정영민;;FAROOQ AHMAD;;JEONG YOUNG MIN;;신현동</t>
-  </si>
-  <si>
-    <t>グーハ・ジョイディープ;;VAHEDI VAHID;;DAUGHERTY JOHN;;GOTTSCHO RICHARD ALAN;;ダウガティ・ジョン;;ゴットショ・リチャード・アラン;;GUHA JOYDEEP;;バヘディ・バヘド</t>
-  </si>
-  <si>
-    <t>PREDKI PAUL F;;ポール・エフ・プレドキ;;マジャ・キャシディ;;CASSIDY MAJA</t>
+    <t>ZHONG HAO;;陈奕丞;;蒋亚东;;李伟;;李东阳;;LI WEI;;LI DONGYANG;;GU DEEN;;钟豪;;顾德恩;;CHEN YICHENG;;JIANG YADONG;;GU DE'EN</t>
+  </si>
+  <si>
+    <t>JEONG YOUNG MIN;;파쿼 아마드;;신현동;;SHIN HYUN DONG;;정영민;;FAROOQ AHMAD</t>
   </si>
   <si>
     <t>YU XING;;JIANG WEINAN</t>
   </si>
   <si>
-    <t>트린수안텅;;HA KIEU MY;;하키우;;YOON TAE HYUN;;윤태현;;KIM JIN BAE;;김진배;;TRINH XUAN TUNG</t>
-  </si>
-  <si>
-    <t>MANFRINI MAURICIO;;MARCUS JOHANNES HENRICUS VAN DAL;;DOORNBOS GERBEN;;MAURICIO MANFRINI;;GERBEN DOORNBOS;;VAN DAL MARCUS JOHANNES HENRICUS</t>
-  </si>
-  <si>
-    <t>ROQUET NATHANIEL;;PARK HYUNJUN;;LEAKE DEVIN;;BHATIA SWAPNIL P</t>
-  </si>
-  <si>
-    <t>CASTRILLO SERGIO BOIXO;;ハルトムート・ネーフェン;;ヴァディム・スメリャンスキー;;SMELYANSKIY VADIM;;FARHI EDWARD HENRY;;セルジオ・バイショ・カストリージョ;;エドワード・ヘンリー・ファーリ;;NIU YUEZHEN;;NEVEN HARTMUT;;ユエゼン・ニウ;;ハルトムート・ネーヴェン;;BOIXO CASTRILLO SERGIO</t>
-  </si>
-  <si>
-    <t>스미르노브, 세르게이 니콜라예비치;;SMIRNOV SERGEY NIKOLAYEVICH;;SMIRNOV SERGEJ NIKOLAEVICH;;SMIRNOV SERGEY NIIKOLAYEVICH</t>
-  </si>
-  <si>
-    <t>COSTA JOSE DIOGO;;ADELMANN HANNS CHRISTOPH;;CIUBOTARU FLORIN</t>
-  </si>
-  <si>
-    <t>STEFFEN MATTHIAS;;GAMBETTA JAY M;;GAMBETTA JAY;;DIAL OLIVER;;MCCLURE III DOUGLAS TEMPLETON;;MCCLURE III DOUGLAS T</t>
-  </si>
-  <si>
-    <t>DIAL OLIVER;;M·斯蒂芬;;STEFFEN MATTHIAS;;マクルーア ザ サード、ダグラス、テンプルトン;;ダイアル、オリバー;;OLIVER DIAL;;ガンベッタ、ジェイ;;DOUGLAS TEMPLETON MCCLURE III;;GAMBETTA JAY;;J·加姆贝塔;;D·T·麦克鲁尔三世;;MATTHIAS STEFFEN;;O·蒂亚尔;;ステファン、マティアス;;MCCLURE III DOUGLAS TEMPLETON;;JAY GAMBETTA</t>
+    <t>YOON TAE HYUN;;트린수안텅;;KIM JIN BAE;;TRINH XUAN TUNG;;하키우;;윤태현;;HA KIEU MY;;김진배</t>
+  </si>
+  <si>
+    <t>GERBEN DOORNBOS;;MAURICIO MANFRINI;;VAN DAL MARCUS JOHANNES HENRICUS;;DOORNBOS GERBEN;;MARCUS JOHANNES HENRICUS VAN DAL;;MANFRINI MAURICIO</t>
+  </si>
+  <si>
+    <t>ROQUET NATHANIEL;;BHATIA SWAPNIL P;;PARK HYUNJUN;;LEAKE DEVIN</t>
+  </si>
+  <si>
+    <t>ヴァディム・スメリャンスキー;;FARHI EDWARD HENRY;;セルジオ・バイショ・カストリージョ;;NIU YUEZHEN;;BOIXO CASTRILLO SERGIO;;エドワード・ヘンリー・ファーリ;;NEVEN HARTMUT;;ハルトムート・ネーヴェン;;ユエゼン・ニウ;;CASTRILLO SERGIO BOIXO;;SMELYANSKIY VADIM;;ハルトムート・ネーフェン</t>
+  </si>
+  <si>
+    <t>SMIRNOV SERGEY NIIKOLAYEVICH;;스미르노브, 세르게이 니콜라예비치;;SMIRNOV SERGEJ NIKOLAEVICH;;SMIRNOV SERGEY NIKOLAYEVICH</t>
+  </si>
+  <si>
+    <t>CIUBOTARU FLORIN;;COSTA JOSE DIOGO;;ADELMANN HANNS CHRISTOPH</t>
+  </si>
+  <si>
+    <t>DIAL OLIVER;;GAMBETTA JAY M;;GAMBETTA JAY;;MCCLURE III DOUGLAS TEMPLETON;;MCCLURE III DOUGLAS T;;STEFFEN MATTHIAS</t>
+  </si>
+  <si>
+    <t>MATTHIAS STEFFEN;;DIAL OLIVER;;D·T·麦克鲁尔三世;;マクルーア ザ サード、ダグラス、テンプルトン;;GAMBETTA JAY;;J·加姆贝塔;;MCCLURE III DOUGLAS TEMPLETON;;JAY GAMBETTA;;M·斯蒂芬;;OLIVER DIAL;;STEFFEN MATTHIAS;;ダイアル、オリバー;;ガンベッタ、ジェイ;;ステファン、マティアス;;O·蒂亚尔;;DOUGLAS TEMPLETON MCCLURE III</t>
   </si>
   <si>
     <t>스미르노브, 세르게이 니콜라예비치;;SMIRNOV SERGEY NIKOLAYEVICH</t>
@@ -1048,10 +1033,10 @@
     <t>바엔즈 라미;;BARENDS RAMI;;ラミ・バレントス</t>
   </si>
   <si>
-    <t>SMIRNOV SERGEY NIKOLAYEVICH;;SMIRNOV SERGEJ NIKOLAEVICH;;SMIRNOV SERGEY NIIKOLAYEVICH</t>
-  </si>
-  <si>
-    <t>CASTRILLO SERGIO BOIXO;;ハルトムート・ネーフェン;;ヴァディム・スメリャンスキー;;SMELYANSKIY VADIM;;セルジオ・バイショ・カストリージョ;;NIU YUEZHEN;;NEVEN HARTMUT;;ユエゼン・ニウ;;BOIXO CASTRILLO SERGIO</t>
+    <t>SMIRNOV SERGEY NIIKOLAYEVICH;;SMIRNOV SERGEJ NIKOLAEVICH;;SMIRNOV SERGEY NIKOLAYEVICH</t>
+  </si>
+  <si>
+    <t>ヴァディム・スメリャンスキー;;セルジオ・バイショ・カストリージョ;;NIU YUEZHEN;;BOIXO CASTRILLO SERGIO;;ユエゼン・ニウ;;NEVEN HARTMUT;;CASTRILLO SERGIO BOIXO;;SMELYANSKIY VADIM;;ハルトムート・ネーフェン</t>
   </si>
 </sst>
 </file>
@@ -1551,7 +1536,7 @@
         <v>29</v>
       </c>
       <c r="R2" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="S2" t="b">
         <v>0</v>
@@ -1622,7 +1607,7 @@
         <v>148</v>
       </c>
       <c r="L3" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -1637,10 +1622,10 @@
         <v>5</v>
       </c>
       <c r="Q3" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="R3" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="S3" t="b">
         <v>0</v>
@@ -1711,7 +1696,7 @@
         <v>148</v>
       </c>
       <c r="L4" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="M4">
         <v>0.1666666666666667</v>
@@ -1726,10 +1711,10 @@
         <v>6</v>
       </c>
       <c r="Q4" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="R4" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="S4" t="b">
         <v>0</v>
@@ -1818,7 +1803,7 @@
         <v>32</v>
       </c>
       <c r="R5" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="S5" t="b">
         <v>0</v>
@@ -1904,10 +1889,10 @@
         <v>2</v>
       </c>
       <c r="Q6" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="R6" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="S6" t="b">
         <v>0</v>
@@ -1972,13 +1957,13 @@
         <v>148</v>
       </c>
       <c r="J7" t="s">
-        <v>182</v>
+        <v>160</v>
       </c>
       <c r="K7" t="s">
         <v>157</v>
       </c>
       <c r="L7" t="s">
-        <v>182</v>
+        <v>160</v>
       </c>
       <c r="M7">
         <v>0.8333333333333333</v>
@@ -1993,10 +1978,10 @@
         <v>2</v>
       </c>
       <c r="Q7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="R7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="S7" t="b">
         <v>0</v>
@@ -2061,13 +2046,13 @@
         <v>150</v>
       </c>
       <c r="J8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K8" t="s">
         <v>148</v>
       </c>
       <c r="L8" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -2082,10 +2067,10 @@
         <v>3</v>
       </c>
       <c r="Q8" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="R8" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="S8" t="b">
         <v>0</v>
@@ -2144,13 +2129,13 @@
         <v>148</v>
       </c>
       <c r="J9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K9" t="s">
         <v>148</v>
       </c>
       <c r="L9" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -2168,7 +2153,7 @@
         <v>36</v>
       </c>
       <c r="R9" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="S9" t="b">
         <v>0</v>
@@ -2233,7 +2218,7 @@
         <v>148</v>
       </c>
       <c r="J10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K10" t="s">
         <v>148</v>
@@ -2257,7 +2242,7 @@
         <v>37</v>
       </c>
       <c r="R10" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="S10" t="b">
         <v>0</v>
@@ -2316,13 +2301,13 @@
         <v>149</v>
       </c>
       <c r="J11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K11" t="s">
         <v>148</v>
       </c>
       <c r="L11" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -2340,7 +2325,7 @@
         <v>38</v>
       </c>
       <c r="R11" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="S11" t="b">
         <v>0</v>
@@ -2399,7 +2384,7 @@
         <v>149</v>
       </c>
       <c r="J12" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K12" t="s">
         <v>148</v>
@@ -2423,7 +2408,7 @@
         <v>39</v>
       </c>
       <c r="R12" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="S12" t="b">
         <v>0</v>
@@ -2482,7 +2467,7 @@
         <v>148</v>
       </c>
       <c r="J13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K13" t="s">
         <v>148</v>
@@ -2503,10 +2488,10 @@
         <v>0</v>
       </c>
       <c r="Q13" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="R13" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="S13" t="b">
         <v>0</v>
@@ -2592,10 +2577,10 @@
         <v>3</v>
       </c>
       <c r="Q14" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="R14" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="S14" t="b">
         <v>0</v>
@@ -2743,7 +2728,7 @@
         <v>151</v>
       </c>
       <c r="J16" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K16" t="s">
         <v>148</v>
@@ -2767,7 +2752,7 @@
         <v>43</v>
       </c>
       <c r="R16" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="S16" t="b">
         <v>0</v>
@@ -2832,7 +2817,7 @@
         <v>152</v>
       </c>
       <c r="J17" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K17" t="s">
         <v>165</v>
@@ -2856,7 +2841,7 @@
         <v>44</v>
       </c>
       <c r="R17" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="S17" t="b">
         <v>0</v>
@@ -2921,7 +2906,7 @@
         <v>148</v>
       </c>
       <c r="J18" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K18" t="s">
         <v>148</v>
@@ -2942,10 +2927,10 @@
         <v>2</v>
       </c>
       <c r="Q18" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="R18" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="S18" t="b">
         <v>0</v>
@@ -3004,7 +2989,7 @@
         <v>153</v>
       </c>
       <c r="J19" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K19" t="s">
         <v>148</v>
@@ -3025,10 +3010,10 @@
         <v>0</v>
       </c>
       <c r="Q19" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="R19" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="S19" t="b">
         <v>0</v>
@@ -3093,7 +3078,7 @@
         <v>148</v>
       </c>
       <c r="J20" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K20" t="s">
         <v>148</v>
@@ -3114,10 +3099,10 @@
         <v>1</v>
       </c>
       <c r="Q20" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="R20" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="S20" t="b">
         <v>0</v>
@@ -3188,7 +3173,7 @@
         <v>148</v>
       </c>
       <c r="L21" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -3206,7 +3191,7 @@
         <v>48</v>
       </c>
       <c r="R21" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="S21" t="b">
         <v>0</v>
@@ -3271,7 +3256,7 @@
         <v>148</v>
       </c>
       <c r="L22" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -3289,7 +3274,7 @@
         <v>49</v>
       </c>
       <c r="R22" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="S22" t="b">
         <v>0</v>
@@ -3372,7 +3357,7 @@
         <v>50</v>
       </c>
       <c r="R23" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="S23" t="b">
         <v>0</v>
@@ -3431,7 +3416,7 @@
         <v>153</v>
       </c>
       <c r="J24" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K24" t="s">
         <v>148</v>
@@ -3455,7 +3440,7 @@
         <v>51</v>
       </c>
       <c r="R24" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="S24" t="b">
         <v>0</v>
@@ -3520,7 +3505,7 @@
         <v>148</v>
       </c>
       <c r="J25" t="s">
-        <v>193</v>
+        <v>158</v>
       </c>
       <c r="K25" t="s">
         <v>148</v>
@@ -3544,7 +3529,7 @@
         <v>52</v>
       </c>
       <c r="R25" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="S25" t="b">
         <v>0</v>
@@ -3609,7 +3594,7 @@
         <v>153</v>
       </c>
       <c r="J26" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K26" t="s">
         <v>148</v>
@@ -3633,7 +3618,7 @@
         <v>53</v>
       </c>
       <c r="R26" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="S26" t="b">
         <v>0</v>
@@ -3698,13 +3683,13 @@
         <v>155</v>
       </c>
       <c r="J27" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K27" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="L27" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="M27">
         <v>0</v>
@@ -3722,7 +3707,7 @@
         <v>54</v>
       </c>
       <c r="R27" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="S27" t="b">
         <v>0</v>
@@ -3787,13 +3772,13 @@
         <v>156</v>
       </c>
       <c r="J28" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K28" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="L28" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="M28">
         <v>0</v>
@@ -3811,7 +3796,7 @@
         <v>55</v>
       </c>
       <c r="R28" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="S28" t="b">
         <v>0</v>
@@ -3876,7 +3861,7 @@
         <v>153</v>
       </c>
       <c r="J29" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K29" t="s">
         <v>148</v>
@@ -3897,10 +3882,10 @@
         <v>1</v>
       </c>
       <c r="Q29" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="R29" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="S29" t="b">
         <v>0</v>
@@ -3965,7 +3950,7 @@
         <v>157</v>
       </c>
       <c r="J30" t="s">
-        <v>182</v>
+        <v>160</v>
       </c>
       <c r="K30" t="s">
         <v>157</v>
@@ -3986,10 +3971,10 @@
         <v>2</v>
       </c>
       <c r="Q30" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="R30" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="S30" t="b">
         <v>0</v>
@@ -4054,7 +4039,7 @@
         <v>153</v>
       </c>
       <c r="J31" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K31" t="s">
         <v>148</v>
@@ -4075,10 +4060,10 @@
         <v>1</v>
       </c>
       <c r="Q31" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="R31" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="S31" t="b">
         <v>0</v>
@@ -4164,10 +4149,10 @@
         <v>2</v>
       </c>
       <c r="Q32" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="R32" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="S32" t="b">
         <v>0</v>
@@ -4226,13 +4211,13 @@
         <v>158</v>
       </c>
       <c r="J33" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="K33" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="L33" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="M33">
         <v>0</v>
@@ -4247,10 +4232,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="R33" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="S33" t="b">
         <v>0</v>
@@ -4333,7 +4318,7 @@
         <v>61</v>
       </c>
       <c r="R34" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="S34" t="b">
         <v>0</v>
@@ -4416,7 +4401,7 @@
         <v>62</v>
       </c>
       <c r="R35" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="S35" t="b">
         <v>0</v>
@@ -4499,7 +4484,7 @@
         <v>63</v>
       </c>
       <c r="R36" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="S36" t="b">
         <v>0</v>
@@ -4582,7 +4567,7 @@
         <v>64</v>
       </c>
       <c r="R37" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="S37" t="b">
         <v>0</v>
@@ -4668,10 +4653,10 @@
         <v>2</v>
       </c>
       <c r="Q38" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="R38" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="S38" t="b">
         <v>0</v>
@@ -4754,7 +4739,7 @@
         <v>66</v>
       </c>
       <c r="R39" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="S39" t="b">
         <v>0</v>
@@ -4837,7 +4822,7 @@
         <v>67</v>
       </c>
       <c r="R40" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="S40" t="b">
         <v>0</v>
@@ -4896,7 +4881,7 @@
         <v>160</v>
       </c>
       <c r="J41" t="s">
-        <v>182</v>
+        <v>160</v>
       </c>
       <c r="K41" t="s">
         <v>157</v>
@@ -4920,7 +4905,7 @@
         <v>68</v>
       </c>
       <c r="R41" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="S41" t="b">
         <v>0</v>
@@ -5003,7 +4988,7 @@
         <v>69</v>
       </c>
       <c r="R42" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="S42" t="b">
         <v>0</v>
@@ -5086,7 +5071,7 @@
         <v>70</v>
       </c>
       <c r="R43" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="S43" t="b">
         <v>0</v>
@@ -5169,7 +5154,7 @@
         <v>71</v>
       </c>
       <c r="R44" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="S44" t="b">
         <v>0</v>
@@ -5252,7 +5237,7 @@
         <v>72</v>
       </c>
       <c r="R45" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="S45" t="b">
         <v>0</v>
@@ -5335,7 +5320,7 @@
         <v>73</v>
       </c>
       <c r="R46" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="S46" t="b">
         <v>0</v>
@@ -5403,10 +5388,10 @@
         <v>149</v>
       </c>
       <c r="K47" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="L47" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="M47">
         <v>0</v>
@@ -5424,7 +5409,7 @@
         <v>74</v>
       </c>
       <c r="R47" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="S47" t="b">
         <v>0</v>
@@ -5486,10 +5471,10 @@
         <v>149</v>
       </c>
       <c r="K48" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="L48" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="M48">
         <v>0</v>
@@ -5507,7 +5492,7 @@
         <v>75</v>
       </c>
       <c r="R48" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="S48" t="b">
         <v>0</v>
@@ -5590,7 +5575,7 @@
         <v>76</v>
       </c>
       <c r="R49" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="S49" t="b">
         <v>0</v>
@@ -5673,7 +5658,7 @@
         <v>77</v>
       </c>
       <c r="R50" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="S50" t="b">
         <v>0</v>
@@ -5762,7 +5747,7 @@
         <v>78</v>
       </c>
       <c r="R51" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="S51" t="b">
         <v>0</v>
@@ -5845,7 +5830,7 @@
         <v>79</v>
       </c>
       <c r="R52" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="S52" t="b">
         <v>0</v>
@@ -5931,10 +5916,10 @@
         <v>1</v>
       </c>
       <c r="Q53" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="R53" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="S53" t="b">
         <v>1</v>
@@ -6017,7 +6002,7 @@
         <v>81</v>
       </c>
       <c r="R54" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="S54" t="b">
         <v>0</v>
@@ -6100,7 +6085,7 @@
         <v>82</v>
       </c>
       <c r="R55" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="S55" t="b">
         <v>0</v>
@@ -6183,7 +6168,7 @@
         <v>83</v>
       </c>
       <c r="R56" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="S56" t="b">
         <v>0</v>
@@ -6269,10 +6254,10 @@
         <v>2</v>
       </c>
       <c r="Q57" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="R57" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="S57" t="b">
         <v>0</v>
@@ -6361,7 +6346,7 @@
         <v>85</v>
       </c>
       <c r="R58" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="S58" t="b">
         <v>0</v>
@@ -6444,7 +6429,7 @@
         <v>86</v>
       </c>
       <c r="R59" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="S59" t="b">
         <v>0</v>
@@ -6509,7 +6494,7 @@
         <v>161</v>
       </c>
       <c r="J60" t="s">
-        <v>197</v>
+        <v>179</v>
       </c>
       <c r="K60" t="s">
         <v>148</v>
@@ -6530,10 +6515,10 @@
         <v>3</v>
       </c>
       <c r="Q60" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="R60" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="S60" t="b">
         <v>0</v>
@@ -6616,7 +6601,7 @@
         <v>88</v>
       </c>
       <c r="R61" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="S61" t="b">
         <v>0</v>
@@ -6675,7 +6660,7 @@
         <v>162</v>
       </c>
       <c r="J62" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="K62" t="s">
         <v>148</v>
@@ -6699,7 +6684,7 @@
         <v>89</v>
       </c>
       <c r="R62" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="S62" t="b">
         <v>0</v>
@@ -6758,13 +6743,13 @@
         <v>163</v>
       </c>
       <c r="J63" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="K63" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="L63" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="M63">
         <v>0</v>
@@ -6782,7 +6767,7 @@
         <v>90</v>
       </c>
       <c r="R63" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="S63" t="b">
         <v>0</v>
@@ -6865,7 +6850,7 @@
         <v>91</v>
       </c>
       <c r="R64" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="S64" t="b">
         <v>0</v>
@@ -6930,7 +6915,7 @@
         <v>153</v>
       </c>
       <c r="J65" t="s">
-        <v>200</v>
+        <v>179</v>
       </c>
       <c r="K65" t="s">
         <v>148</v>
@@ -6951,10 +6936,10 @@
         <v>2</v>
       </c>
       <c r="Q65" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="R65" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="S65" t="b">
         <v>0</v>
@@ -7019,13 +7004,13 @@
         <v>164</v>
       </c>
       <c r="J66" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="K66" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="L66" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="M66">
         <v>0</v>
@@ -7040,10 +7025,10 @@
         <v>2</v>
       </c>
       <c r="Q66" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="R66" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="S66" t="b">
         <v>0</v>
@@ -7129,10 +7114,10 @@
         <v>1</v>
       </c>
       <c r="Q67" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="R67" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="S67" t="b">
         <v>0</v>
@@ -7218,10 +7203,10 @@
         <v>1</v>
       </c>
       <c r="Q68" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="R68" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="S68" t="b">
         <v>0</v>
@@ -7307,10 +7292,10 @@
         <v>1</v>
       </c>
       <c r="Q69" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="R69" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="S69" t="b">
         <v>0</v>
@@ -7390,10 +7375,10 @@
         <v>0</v>
       </c>
       <c r="Q70" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="R70" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="S70" t="b">
         <v>0</v>
@@ -7452,13 +7437,13 @@
         <v>167</v>
       </c>
       <c r="J71" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="K71" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="L71" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="M71">
         <v>0</v>
@@ -7473,10 +7458,10 @@
         <v>0</v>
       </c>
       <c r="Q71" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="R71" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="S71" t="b">
         <v>0</v>
@@ -7541,7 +7526,7 @@
         <v>160</v>
       </c>
       <c r="J72" t="s">
-        <v>182</v>
+        <v>160</v>
       </c>
       <c r="K72" t="s">
         <v>157</v>
@@ -7562,10 +7547,10 @@
         <v>1</v>
       </c>
       <c r="Q72" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="R72" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="S72" t="b">
         <v>0</v>
@@ -7645,10 +7630,10 @@
         <v>0</v>
       </c>
       <c r="Q73" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="R73" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="S73" t="b">
         <v>0</v>
@@ -7707,7 +7692,7 @@
         <v>168</v>
       </c>
       <c r="J74" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="K74" t="s">
         <v>148</v>
@@ -7728,10 +7713,10 @@
         <v>0</v>
       </c>
       <c r="Q74" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="R74" t="s">
-        <v>330</v>
+        <v>273</v>
       </c>
       <c r="S74" t="b">
         <v>0</v>
@@ -7817,10 +7802,10 @@
         <v>1</v>
       </c>
       <c r="Q75" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="R75" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="S75" t="b">
         <v>0</v>
@@ -7885,13 +7870,13 @@
         <v>169</v>
       </c>
       <c r="J76" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="K76" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="L76" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="M76">
         <v>0</v>
@@ -7906,10 +7891,10 @@
         <v>1</v>
       </c>
       <c r="Q76" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="R76" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="S76" t="b">
         <v>0</v>
@@ -7974,7 +7959,7 @@
         <v>170</v>
       </c>
       <c r="J77" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="K77" t="s">
         <v>148</v>
@@ -7995,10 +7980,10 @@
         <v>1</v>
       </c>
       <c r="Q77" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="R77" t="s">
-        <v>331</v>
+        <v>275</v>
       </c>
       <c r="S77" t="b">
         <v>0</v>
@@ -8078,10 +8063,10 @@
         <v>0</v>
       </c>
       <c r="Q78" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="R78" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="S78" t="b">
         <v>0</v>
@@ -8167,10 +8152,10 @@
         <v>1</v>
       </c>
       <c r="Q79" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="R79" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="S79" t="b">
         <v>0</v>
@@ -8256,10 +8241,10 @@
         <v>1</v>
       </c>
       <c r="Q80" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="R80" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="S80" t="b">
         <v>0</v>
@@ -8324,7 +8309,7 @@
         <v>160</v>
       </c>
       <c r="J81" t="s">
-        <v>182</v>
+        <v>160</v>
       </c>
       <c r="K81" t="s">
         <v>157</v>
@@ -8345,10 +8330,10 @@
         <v>1</v>
       </c>
       <c r="Q81" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="R81" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="S81" t="b">
         <v>0</v>
@@ -8407,7 +8392,7 @@
         <v>171</v>
       </c>
       <c r="J82" t="s">
-        <v>206</v>
+        <v>171</v>
       </c>
       <c r="K82" t="s">
         <v>148</v>
@@ -8428,10 +8413,10 @@
         <v>0</v>
       </c>
       <c r="Q82" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="R82" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="S82" t="b">
         <v>0</v>
@@ -8490,7 +8475,7 @@
         <v>171</v>
       </c>
       <c r="J83" t="s">
-        <v>206</v>
+        <v>171</v>
       </c>
       <c r="K83" t="s">
         <v>148</v>
@@ -8511,10 +8496,10 @@
         <v>0</v>
       </c>
       <c r="Q83" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="R83" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="S83" t="b">
         <v>0</v>
@@ -8573,7 +8558,7 @@
         <v>172</v>
       </c>
       <c r="J84" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="K84" t="s">
         <v>148</v>
@@ -8594,10 +8579,10 @@
         <v>0</v>
       </c>
       <c r="Q84" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="R84" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="S84" t="b">
         <v>0</v>
@@ -8677,10 +8662,10 @@
         <v>0</v>
       </c>
       <c r="Q85" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="R85" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="S85" t="b">
         <v>0</v>
@@ -8739,13 +8724,13 @@
         <v>167</v>
       </c>
       <c r="J86" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="K86" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="L86" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="M86">
         <v>0</v>
@@ -8760,10 +8745,10 @@
         <v>0</v>
       </c>
       <c r="Q86" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="R86" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="S86" t="b">
         <v>0</v>
@@ -8843,10 +8828,10 @@
         <v>0</v>
       </c>
       <c r="Q87" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="R87" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="S87" t="b">
         <v>0</v>
@@ -8911,7 +8896,7 @@
         <v>161</v>
       </c>
       <c r="J88" t="s">
-        <v>208</v>
+        <v>182</v>
       </c>
       <c r="K88" t="s">
         <v>148</v>
@@ -8932,10 +8917,10 @@
         <v>1</v>
       </c>
       <c r="Q88" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="R88" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="S88" t="b">
         <v>0</v>
@@ -9000,13 +8985,13 @@
         <v>165</v>
       </c>
       <c r="J89" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="K89" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="L89" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="M89">
         <v>0</v>
@@ -9021,10 +9006,10 @@
         <v>1</v>
       </c>
       <c r="Q89" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="R89" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="S89" t="b">
         <v>0</v>
@@ -9089,13 +9074,13 @@
         <v>165</v>
       </c>
       <c r="J90" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="K90" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="L90" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="M90">
         <v>0</v>
@@ -9110,10 +9095,10 @@
         <v>1</v>
       </c>
       <c r="Q90" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="R90" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="S90" t="b">
         <v>1</v>
@@ -9178,7 +9163,7 @@
         <v>173</v>
       </c>
       <c r="J91" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="K91" t="s">
         <v>148</v>
@@ -9199,10 +9184,10 @@
         <v>1</v>
       </c>
       <c r="Q91" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="R91" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="S91" t="b">
         <v>0</v>
@@ -9261,13 +9246,13 @@
         <v>158</v>
       </c>
       <c r="J92" t="s">
-        <v>193</v>
+        <v>158</v>
       </c>
       <c r="K92" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="L92" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="M92">
         <v>0</v>
@@ -9282,10 +9267,10 @@
         <v>0</v>
       </c>
       <c r="Q92" t="s">
-        <v>238</v>
+        <v>251</v>
       </c>
       <c r="R92" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="S92" t="b">
         <v>0</v>
@@ -9350,7 +9335,7 @@
         <v>153</v>
       </c>
       <c r="J93" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K93" t="s">
         <v>148</v>
@@ -9371,10 +9356,10 @@
         <v>1</v>
       </c>
       <c r="Q93" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="R93" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="S93" t="b">
         <v>0</v>
@@ -9433,13 +9418,13 @@
         <v>158</v>
       </c>
       <c r="J94" t="s">
-        <v>193</v>
+        <v>158</v>
       </c>
       <c r="K94" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="L94" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="M94">
         <v>0</v>
@@ -9454,10 +9439,10 @@
         <v>0</v>
       </c>
       <c r="Q94" t="s">
-        <v>238</v>
+        <v>251</v>
       </c>
       <c r="R94" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="S94" t="b">
         <v>0</v>
@@ -9522,13 +9507,13 @@
         <v>174</v>
       </c>
       <c r="J95" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="K95" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="L95" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="M95">
         <v>0</v>
@@ -9543,10 +9528,10 @@
         <v>1</v>
       </c>
       <c r="Q95" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="R95" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="S95" t="b">
         <v>0</v>
@@ -9611,7 +9596,7 @@
         <v>173</v>
       </c>
       <c r="J96" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="K96" t="s">
         <v>148</v>
@@ -9632,10 +9617,10 @@
         <v>1</v>
       </c>
       <c r="Q96" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="R96" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="S96" t="b">
         <v>0</v>
@@ -9700,7 +9685,7 @@
         <v>160</v>
       </c>
       <c r="J97" t="s">
-        <v>182</v>
+        <v>160</v>
       </c>
       <c r="K97" t="s">
         <v>157</v>
@@ -9721,10 +9706,10 @@
         <v>1</v>
       </c>
       <c r="Q97" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="R97" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="S97" t="b">
         <v>0</v>
@@ -9789,13 +9774,13 @@
         <v>174</v>
       </c>
       <c r="J98" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="K98" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="L98" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="M98">
         <v>0</v>
@@ -9810,10 +9795,10 @@
         <v>1</v>
       </c>
       <c r="Q98" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="R98" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="S98" t="b">
         <v>0</v>
@@ -9875,10 +9860,10 @@
         <v>165</v>
       </c>
       <c r="K99" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="L99" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="M99">
         <v>0</v>
@@ -9893,10 +9878,10 @@
         <v>0</v>
       </c>
       <c r="Q99" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="R99" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="S99" t="b">
         <v>1</v>
@@ -9964,10 +9949,10 @@
         <v>149</v>
       </c>
       <c r="K100" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="L100" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="M100">
         <v>0</v>
@@ -9982,10 +9967,10 @@
         <v>1</v>
       </c>
       <c r="Q100" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="R100" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="S100" t="b">
         <v>1</v>
@@ -10053,10 +10038,10 @@
         <v>149</v>
       </c>
       <c r="K101" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="L101" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="M101">
         <v>0</v>
@@ -10071,10 +10056,10 @@
         <v>1</v>
       </c>
       <c r="Q101" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="R101" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="S101" t="b">
         <v>1</v>
@@ -10136,10 +10121,10 @@
         <v>165</v>
       </c>
       <c r="K102" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="L102" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="M102">
         <v>0</v>
@@ -10154,10 +10139,10 @@
         <v>0</v>
       </c>
       <c r="Q102" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="R102" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="S102" t="b">
         <v>0</v>
@@ -10225,10 +10210,10 @@
         <v>149</v>
       </c>
       <c r="K103" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="L103" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="M103">
         <v>0</v>
@@ -10243,10 +10228,10 @@
         <v>1</v>
       </c>
       <c r="Q103" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="R103" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="S103" t="b">
         <v>1</v>
@@ -10332,10 +10317,10 @@
         <v>1</v>
       </c>
       <c r="Q104" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="R104" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="S104" t="b">
         <v>1</v>
@@ -10421,10 +10406,10 @@
         <v>1</v>
       </c>
       <c r="Q105" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="R105" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="S105" t="b">
         <v>1</v>
@@ -10510,10 +10495,10 @@
         <v>1</v>
       </c>
       <c r="Q106" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="R106" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="S106" t="b">
         <v>1</v>
@@ -10578,7 +10563,7 @@
         <v>175</v>
       </c>
       <c r="J107" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="K107" t="s">
         <v>148</v>
@@ -10599,10 +10584,10 @@
         <v>1</v>
       </c>
       <c r="Q107" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="R107" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="S107" t="b">
         <v>0</v>
@@ -10667,7 +10652,7 @@
         <v>175</v>
       </c>
       <c r="J108" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="K108" t="s">
         <v>148</v>
@@ -10688,10 +10673,10 @@
         <v>1</v>
       </c>
       <c r="Q108" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="R108" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="S108" t="b">
         <v>1</v>
@@ -10777,10 +10762,10 @@
         <v>1</v>
       </c>
       <c r="Q109" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="R109" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="S109" t="b">
         <v>1</v>
@@ -10845,7 +10830,7 @@
         <v>175</v>
       </c>
       <c r="J110" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="K110" t="s">
         <v>148</v>
@@ -10866,10 +10851,10 @@
         <v>1</v>
       </c>
       <c r="Q110" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="R110" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="S110" t="b">
         <v>1</v>
@@ -10955,10 +10940,10 @@
         <v>1</v>
       </c>
       <c r="Q111" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="R111" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="S111" t="b">
         <v>1</v>
@@ -11023,13 +11008,13 @@
         <v>176</v>
       </c>
       <c r="J112" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="K112" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="L112" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="M112">
         <v>0</v>
@@ -11044,10 +11029,10 @@
         <v>1</v>
       </c>
       <c r="Q112" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="R112" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="S112" t="b">
         <v>0</v>
@@ -11112,13 +11097,13 @@
         <v>176</v>
       </c>
       <c r="J113" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="K113" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="L113" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="M113">
         <v>0</v>
@@ -11133,10 +11118,10 @@
         <v>1</v>
       </c>
       <c r="Q113" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="R113" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="S113" t="b">
         <v>0</v>
@@ -11201,13 +11186,13 @@
         <v>176</v>
       </c>
       <c r="J114" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="K114" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="L114" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="M114">
         <v>0</v>
@@ -11222,10 +11207,10 @@
         <v>1</v>
       </c>
       <c r="Q114" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="R114" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="S114" t="b">
         <v>1</v>
@@ -11284,7 +11269,7 @@
         <v>177</v>
       </c>
       <c r="J115" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K115" t="s">
         <v>148</v>
@@ -11305,10 +11290,10 @@
         <v>0</v>
       </c>
       <c r="Q115" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="R115" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="S115" t="b">
         <v>1</v>
@@ -11367,7 +11352,7 @@
         <v>177</v>
       </c>
       <c r="J116" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K116" t="s">
         <v>148</v>
@@ -11388,10 +11373,10 @@
         <v>0</v>
       </c>
       <c r="Q116" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="R116" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="S116" t="b">
         <v>1</v>
@@ -11456,13 +11441,13 @@
         <v>176</v>
       </c>
       <c r="J117" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="K117" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="L117" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="M117">
         <v>0</v>
@@ -11477,10 +11462,10 @@
         <v>1</v>
       </c>
       <c r="Q117" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="R117" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="S117" t="b">
         <v>0</v>
@@ -11539,7 +11524,7 @@
         <v>177</v>
       </c>
       <c r="J118" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K118" t="s">
         <v>148</v>
@@ -11560,10 +11545,10 @@
         <v>0</v>
       </c>
       <c r="Q118" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="R118" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="S118" t="b">
         <v>1</v>
@@ -11622,7 +11607,7 @@
         <v>177</v>
       </c>
       <c r="J119" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K119" t="s">
         <v>148</v>
@@ -11643,10 +11628,10 @@
         <v>0</v>
       </c>
       <c r="Q119" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="R119" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="S119" t="b">
         <v>1</v>
@@ -11711,13 +11696,13 @@
         <v>176</v>
       </c>
       <c r="J120" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="K120" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="L120" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="M120">
         <v>0</v>
@@ -11732,10 +11717,10 @@
         <v>1</v>
       </c>
       <c r="Q120" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="R120" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="S120" t="b">
         <v>0</v>

--- a/tests/integration/out/ai-and-nanotech-applicants.xlsx
+++ b/tests/integration/out/ai-and-nanotech-applicants.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="344">
   <si>
     <t>Number of Simple Patent Families (Fractionally Counted)</t>
   </si>
@@ -550,91 +550,94 @@
     <t>KR;;CA;;AU;;EP;;WO;;CN;;JP;;US</t>
   </si>
   <si>
-    <t>GB;;WO;;CN;;JP;;US;;DE</t>
-  </si>
-  <si>
-    <t>WO;;CA;;SG;;CN;;JP;;US;;KR;;AU;;EP</t>
-  </si>
-  <si>
-    <t>EP;;US;;WO</t>
+    <t>CN;;WO;;US;;GB;;DE;;JP</t>
+  </si>
+  <si>
+    <t>AU;;KR;;SG;;EP;;CN;;WO;;US;;CA;;JP</t>
+  </si>
+  <si>
+    <t>EP;;WO;;US</t>
   </si>
   <si>
     <t>CN;;EP;;US</t>
   </si>
   <si>
-    <t>WO;;CA;;CN;;JP;;US;;KR;;AU;;EP</t>
-  </si>
-  <si>
-    <t>EP;;US;;WO;;CA</t>
-  </si>
-  <si>
-    <t>EP;;US;;WO;;TW</t>
-  </si>
-  <si>
-    <t>US;;KR;;WO;;CA</t>
-  </si>
-  <si>
-    <t>WO;;CA;;US;;KR;;AU;;EP</t>
-  </si>
-  <si>
-    <t>US;;WO;;CA</t>
-  </si>
-  <si>
-    <t>CN;;US;;KR;;WO</t>
-  </si>
-  <si>
-    <t>WO;;TW;;CN;;JP;;US;;KR;;EP</t>
-  </si>
-  <si>
-    <t>CN;;EP;;US;;WO</t>
-  </si>
-  <si>
-    <t>CA;;CN;;JP;;US;;KR;;EP</t>
-  </si>
-  <si>
-    <t>EP;;WO;;FR</t>
-  </si>
-  <si>
-    <t>GB;;WO;;SG;;CA;;TW;;EP</t>
-  </si>
-  <si>
-    <t>EP;;US;;KR</t>
-  </si>
-  <si>
-    <t>WO;;CA</t>
-  </si>
-  <si>
-    <t>CN;;US;;JP</t>
-  </si>
-  <si>
-    <t>WO;;CN;;JP;;US;;KR;;EP</t>
-  </si>
-  <si>
-    <t>US;;JP</t>
-  </si>
-  <si>
-    <t>CN;;EP;;KR;;JP</t>
-  </si>
-  <si>
-    <t>CN;;JP;;US;;KR;;EP</t>
-  </si>
-  <si>
-    <t>CA;;CN;;JP;;KR;;EP</t>
-  </si>
-  <si>
-    <t>EP;;KR;;CA;;AU</t>
-  </si>
-  <si>
-    <t>WO;;CA;;TW;;CN;;RU;;JP;;ZA;;IL;;KR;;US;;AU;;EP</t>
-  </si>
-  <si>
-    <t>CA;;CN;;JP;;KR;;AU;;EP</t>
-  </si>
-  <si>
-    <t>CN;;GB;;JP;;DE</t>
-  </si>
-  <si>
-    <t>WO;;SG;;CA;;CN;;JP;;US;;KR;;AU;;EP</t>
+    <t>AU;;EP;;CN;;WO;;KR;;US;;CA;;JP</t>
+  </si>
+  <si>
+    <t>WO;;CA;;EP;;US</t>
+  </si>
+  <si>
+    <t>US;;EP;;WO;;TW</t>
+  </si>
+  <si>
+    <t>US;;CA;;WO;;KR</t>
+  </si>
+  <si>
+    <t>EP;;CA;;WO;;US</t>
+  </si>
+  <si>
+    <t>AU;;EP;;WO;;KR;;US;;CA</t>
+  </si>
+  <si>
+    <t>CA;;WO;;US</t>
+  </si>
+  <si>
+    <t>KR;;CN;;WO;;US</t>
+  </si>
+  <si>
+    <t>KR;;EP;;TW;;CN;;WO;;US;;JP</t>
+  </si>
+  <si>
+    <t>EP;;CN;;WO;;US</t>
+  </si>
+  <si>
+    <t>EP;;CN;;KR;;US;;CA;;JP</t>
+  </si>
+  <si>
+    <t>WO;;FR;;EP</t>
+  </si>
+  <si>
+    <t>SG;;EP;;TW;;WO;;GB;;CA</t>
+  </si>
+  <si>
+    <t>US;;EP;;KR</t>
+  </si>
+  <si>
+    <t>AU;;SG;;EP;;CN;;WO;;KR;;US;;CA;;JP</t>
+  </si>
+  <si>
+    <t>CN;;JP;;US</t>
+  </si>
+  <si>
+    <t>KR;;EP;;CN;;WO;;US;;JP</t>
+  </si>
+  <si>
+    <t>EP;;CN;;JP;;KR</t>
+  </si>
+  <si>
+    <t>KR;;EP;;CN;;US;;JP</t>
+  </si>
+  <si>
+    <t>EP;;CN;;KR;;CA;;JP</t>
+  </si>
+  <si>
+    <t>TW;;CN;;US</t>
+  </si>
+  <si>
+    <t>AU;;CA;;EP;;KR</t>
+  </si>
+  <si>
+    <t>IL;;AU;;KR;;EP;;TW;;CN;;WO;;RU;;US;;CA;;ZA;;JP</t>
+  </si>
+  <si>
+    <t>AU;;EP;;CN;;KR;;CA;;JP</t>
+  </si>
+  <si>
+    <t>GB;;DE;;CN;;JP</t>
+  </si>
+  <si>
+    <t>IL;;AU;;EP;;TW;;RU;;CN;;WO;;KR;;US;;CA;;ZA;;JP</t>
   </si>
   <si>
     <t>FR</t>
@@ -664,43 +667,40 @@
     <t>IB;;US</t>
   </si>
   <si>
-    <t>US;;CA;;AU</t>
-  </si>
-  <si>
-    <t>US;;AU</t>
-  </si>
-  <si>
-    <t>US;;CA</t>
-  </si>
-  <si>
-    <t>IL;;US</t>
-  </si>
-  <si>
-    <t>EP;;FR</t>
-  </si>
-  <si>
-    <t>IBM;;国际商业机器公司;;IBM (CHINA) INVEST COMPANY LTD;;IBM UK;;インターナショナル・ビジネス・マシーンズ・コーポレーションＩＮＴＥＲＮＡＴＩＯＮＡＬ ＢＵＳＩＮＥＳＳ ＭＡＣＨＩＮＥＳ ＣＯＲＰＯＲＡＴＩＯＮ</t>
-  </si>
-  <si>
-    <t>GOOGLE LLC;;GOOGLE INC;;NIU YUEZHEN;;グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;グーグル エルエルシー;;NEVEN HARTMUT;;ラミ・バレントス;;CASTRILLO SERGIO BOIXO;;구글 엘엘씨;;SMELYANSKIY VADIM;;BARENDS RAMI</t>
-  </si>
-  <si>
-    <t>D WAVE SYSTEMS INC;;YARKONI SHEIR</t>
+    <t>AU;;CA;;US</t>
+  </si>
+  <si>
+    <t>CA;;US</t>
+  </si>
+  <si>
+    <t>US;;IL</t>
+  </si>
+  <si>
+    <t>FR;;EP</t>
+  </si>
+  <si>
+    <t>インターナショナル・ビジネス・マシーンズ・コーポレーションＩＮＴＥＲＮＡＴＩＯＮＡＬ ＢＵＳＩＮＥＳＳ ＭＡＣＨＩＮＥＳ ＣＯＲＰＯＲＡＴＩＯＮ;;IBM (CHINA) INVEST COMPANY LTD;;国际商业机器公司;;IBM;;IBM UK</t>
+  </si>
+  <si>
+    <t>NEVEN HARTMUT;;GOOGLE LLC;;グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;SMELYANSKIY VADIM;;CASTRILLO SERGIO BOIXO;;グーグル エルエルシー;;BARENDS RAMI;;NIU YUEZHEN;;ラミ・バレントス;;GOOGLE INC;;구글 엘엘씨</t>
+  </si>
+  <si>
+    <t>YARKONI SHEIR;;D WAVE SYSTEMS INC</t>
   </si>
   <si>
     <t>中国科学院微电子研究所;;INST MICROELECTRONICS CAS;;INST OF MICROELECTRONICS CAS</t>
   </si>
   <si>
-    <t>킨디 인코포레이티드;;キンダイ、インコーポレイテッドＫＹＮＤＩ， ＩＮＣ．;;KYNDI INC</t>
-  </si>
-  <si>
-    <t>CATALOG TECHNOLOGIES INC;;CATALOG TECH INC</t>
-  </si>
-  <si>
-    <t>DUNST MICHAEL J;;MOLINSKY BRADLEY DEAN;;CARROLL WILLIAM JOSEPH;;TIPTON THOMAS ANDREW;;BATTAGLINI JOSEPH S;;HARTFORD FIRE INSURANCE COMP</t>
-  </si>
-  <si>
-    <t>ラム リサーチ コーポレーションＬＡＭ ＲＥＳＥＡＲＣＨ ＣＯＲＰＯＲＡＴＩＯＮ;;LAM RES CORP</t>
+    <t>KYNDI INC;;キンダイ、インコーポレイテッドＫＹＮＤＩ， ＩＮＣ．;;킨디 인코포레이티드</t>
+  </si>
+  <si>
+    <t>CATALOG TECH INC;;CATALOG TECHNOLOGIES INC</t>
+  </si>
+  <si>
+    <t>BATTAGLINI JOSEPH S;;TIPTON THOMAS ANDREW;;CARROLL WILLIAM JOSEPH;;DUNST MICHAEL J;;HARTFORD FIRE INSURANCE COMP;;MOLINSKY BRADLEY DEAN</t>
+  </si>
+  <si>
+    <t>LAM RES CORP;;ラム リサーチ コーポレーションＬＡＭ ＲＥＳＥＡＲＣＨ ＣＯＲＰＯＲＡＴＩＯＮ</t>
   </si>
   <si>
     <t>MICROSOFT TECHNOLOGY LICENSING LLC;;微软技术许可有限责任公司</t>
@@ -709,7 +709,7 @@
     <t>イリディア・インコーポレイテッドＩｒｉｄｉａ， Ｉｎｃ．;;IRIDIA INC;;DODO OMNIDATA INC</t>
   </si>
   <si>
-    <t>IBM;;IBM UK;;IBM (CHINA) INVEST COMPANY LTD</t>
+    <t>IBM;;IBM (CHINA) INVEST COMPANY LTD;;IBM UK</t>
   </si>
   <si>
     <t>IRIDIA INC;;DODO OMNIDATA INC</t>
@@ -718,22 +718,25 @@
     <t>YARKONI SHEIR;;D-WAVE SYSTEMS INC</t>
   </si>
   <si>
-    <t>UNIV LEUVEN KATH;;IMEC VZW;;KATHOLIEKE UNIV LEUVEN KU LEUVEN RESEARCH &amp; DEVELOPMENT</t>
+    <t>IMEC VZW;;KATHOLIEKE UNIV LEUVEN KU LEUVEN RESEARCH &amp; DEVELOPMENT;;UNIV LEUVEN KATH</t>
   </si>
   <si>
     <t>서울시립대학교 산학협력단;;UNIV SEOUL IND COOP FOUND</t>
   </si>
   <si>
-    <t>D WAVE SYSTEMS INC;;YARKONI SHEIR;;D-WAVE SYSTEMS INC</t>
-  </si>
-  <si>
-    <t>GOOGLE LLC;;GOOGLE INC;;グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;グーグル エルエルシー;;ラミ・バレントス;;구글 엘엘씨;;BARENDS RAMI</t>
-  </si>
-  <si>
-    <t>BOSE SAURABH KUMAR;;ザ ユニバーシティー オブ カンタベリー;;BROWN SIMON ANTHONY;;FOSTNER SHAWN;;THE UNIV OF CANTERBURY</t>
-  </si>
-  <si>
-    <t>서강대학교산학협력단;;UNIV SOGANG RES FOUNDATION</t>
+    <t>YARKONI SHEIR;;D-WAVE SYSTEMS INC;;D WAVE SYSTEMS INC</t>
+  </si>
+  <si>
+    <t>GOOGLE LLC;;グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;구글 엘엘씨;;グーグル エルエルシー;;BARENDS RAMI;;GOOGLE INC;;ラミ・バレントス</t>
+  </si>
+  <si>
+    <t>NEVEN HARTMUT;;GOOGLE LLC;;グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;구글 엘엘씨;;SMELYANSKIY VADIM;;CASTRILLO SERGIO BOIXO;;グーグル エルエルシー;;BARENDS RAMI;;NIU YUEZHEN;;GOOGLE INC;;ラミ・バレントス</t>
+  </si>
+  <si>
+    <t>THE UNIV OF CANTERBURY;;ザ ユニバーシティー オブ カンタベリー;;FOSTNER SHAWN;;BOSE SAURABH KUMAR;;BROWN SIMON ANTHONY</t>
+  </si>
+  <si>
+    <t>UNIV SOGANG RES FOUNDATION;;서강대학교산학협력단</t>
   </si>
   <si>
     <t>UNIV SOUTHEAST;;东南大学</t>
@@ -748,7 +751,7 @@
     <t>UNIV INDUSTRY COOPERATION GROUP KYUNG HEE UNIV;;경희대학교 산학협력단</t>
   </si>
   <si>
-    <t>ザ ユニバーシティー オブ カンタベリー;;THE UNIV OF CANTERBURY</t>
+    <t>THE UNIV OF CANTERBURY;;ザ ユニバーシティー オブ カンタベリー</t>
   </si>
   <si>
     <t>イリディア・インコーポレイテッドＩｒｉｄｉａ， Ｉｎｃ．;;IRIDIA INC</t>
@@ -757,139 +760,139 @@
     <t>YANGTZE DELTA REGION INST TSINGHUA UNIV ZHEJIANG;;ICLEAGUE TECH CO LTD</t>
   </si>
   <si>
-    <t>한양대학교 산학협력단;;IUCF HYU</t>
-  </si>
-  <si>
-    <t>TAIWAN SEMICONDUCTOR MFG;;TAIWAN SEMICONDUCTOR MFG CO LTD</t>
-  </si>
-  <si>
-    <t>GOOGLE LLC;;GOOGLE INC;;NIU YUEZHEN;;グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;グーグル エルエルシー;;NEVEN HARTMUT;;CASTRILLO SERGIO BOIXO;;SMELYANSKIY VADIM</t>
-  </si>
-  <si>
-    <t>스미르노브, 세르게이 니콜라예비치;;LANDIGRAD LLC;;SMIRNOV SERGEY NIIKOLAYEVICH;;LANDIGRAD LIMITED LIABILITY COMPANY;;SMIRNOV SERGEY NIKOLAYEVICH;;LANDIGRAD LTD LIABILITY CO;;SMIRNOV SERGEY;;OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD;;란디그레드, 리미티드 라이어빌리티 컴퍼니</t>
-  </si>
-  <si>
-    <t>IMEC VZW;;UNIV LEUVEN KATH;;KATHOLIEKE UNIV LEUVEN KU LEUVEN RESEARCH &amp; DEVELOPMENT</t>
+    <t>IUCF HYU;;한양대학교 산학협력단</t>
+  </si>
+  <si>
+    <t>TAIWAN SEMICONDUCTOR MFG CO LTD;;TAIWAN SEMICONDUCTOR MFG</t>
+  </si>
+  <si>
+    <t>NEVEN HARTMUT;;GOOGLE LLC;;グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;SMELYANSKIY VADIM;;グーグル エルエルシー;;NIU YUEZHEN;;GOOGLE INC;;CASTRILLO SERGIO BOIXO</t>
+  </si>
+  <si>
+    <t>LANDIGRAD LTD LIABILITY CO;;란디그레드, 리미티드 라이어빌리티 컴퍼니;;SMIRNOV SERGEY NIIKOLAYEVICH;;SMIRNOV SERGEY;;LANDIGRAD LIMITED LIABILITY COMPANY;;LANDIGRAD LLC;;OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD;;스미르노브, 세르게이 니콜라예비치;;SMIRNOV SERGEY NIKOLAYEVICH</t>
   </si>
   <si>
     <t>国际商业机器公司;;インターナショナル・ビジネス・マシーンズ・コーポレーションＩＮＴＥＲＮＡＴＩＯＮＡＬ ＢＵＳＩＮＥＳＳ ＭＡＣＨＩＮＥＳ ＣＯＲＰＯＲＡＴＩＯＮ;;IBM</t>
   </si>
   <si>
-    <t>스미르노브, 세르게이 니콜라예비치;;LANDIGRAD LLC;;SMIRNOV SERGEY NIKOLAYEVICH;;란디그레드, 리미티드 라이어빌리티 컴퍼니</t>
-  </si>
-  <si>
-    <t>BOSE SAURABH KUMAR;;BROWN SIMON ANTHONY;;FOSTNER SHAWN;;THE UNIV OF CANTERBURY</t>
-  </si>
-  <si>
-    <t>GOOGLE LLC;;GOOGLE INC;;グーグル エルエルシー;;ラミ・バレントス;;구글 엘엘씨;;BARENDS RAMI</t>
-  </si>
-  <si>
-    <t>LANDIGRAD LLC;;SMIRNOV SERGEY NIIKOLAYEVICH;;LANDIGRAD LIMITED LIABILITY COMPANY;;SMIRNOV SERGEY NIKOLAYEVICH;;LANDIGRAD LTD LIABILITY CO;;SMIRNOV SERGEY;;OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD</t>
-  </si>
-  <si>
-    <t>GOOGLE LLC;;GOOGLE INC;;NIU YUEZHEN;;グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;NEVEN HARTMUT;;CASTRILLO SERGIO BOIXO;;SMELYANSKIY VADIM</t>
-  </si>
-  <si>
-    <t>ASKER MICHAEL ALBERT;;LEIPOLD DIRK ROBERT WALTER;;MAXIM GEORGE ADRIAN</t>
-  </si>
-  <si>
-    <t>CHEN RICHARD;;OLIVADESE SALVATORE BERNARDO;;DIAL OLIVER;;HASHEMI POUYA;;LIU PENG;;MCCLURE III DOUGLAS TEMPLETON;;M·斯蒂芬;;LEE CHOONGHYUN;;REZNICEK ALEXANDER;;PRISCO JOSEPH F;;ステファン、マティアス;;GREENBERG DON;;NANNICINI GIACOMO;;MATTHIAS STEFFEN;;DOUGLAS TEMPLETON MCCLURE III;;D·T·麦克鲁尔三世;;JAY GAMBETTA;;OLIVADESE SALVATORE;;ガンベッタ、ジェイ;;O·蒂亚尔;;BISHOP LEV SAMUEL;;BISHOP LEV;;GAMBETTA JAY M;;GAMBETTA JAY;;マクルーア ザ サード、ダグラス、テンプルトン;;MCCLURE III DOUGLAS T;;OLIVER DIAL;;ZHANG JINGYUN;;HEKMATSHOARTABARI BAHMAN;;STEFFEN MATTHIAS;;PISTOIA MARCO;;ダイアル、オリバー;;PHAN ANNA;;MISGEN MARVIN M;;NEUMAN-HORN DEBRA A;;JAVADIABHARI ALI;;ANDO TAKASHI;;MARTIN FERNANDEZ FRANCISCO JOSE;;CORCOLES-GONZALEZ ANTONIO;;FARO SERTAGE ISMAEL;;J·加姆贝塔;;TEMME PAUL;;PRZYBYLSKI KEVIN J;;PHAN ANNA T;;TEMME PAUL KRISTAN;;KUCZYNSKI JOSEPH</t>
-  </si>
-  <si>
-    <t>ヴァディム・スメリャンスキー;;FARHI EDWARD HENRY;;NIU YUEZHEN;;セルジオ・バイショ・カストリージョ;;BOIXO CASTRILLO SERGIO;;ライアン・バブシュ;;NEVEN HARTMUT;;エドワード・ヘンリー・ファーリ;;ハルトムート・ネーヴェン;;ラミ・バレントス;;NEVEN HELMUT;;ユエゼン・ニウ;;BABBUSH RYAN;;CASTRILLO SERGIO BOIXO;;바엔즈 라미;;SMELYANSKIY VADIM;;BARENDS RAMI;;ハルトムート・ネーフェン</t>
-  </si>
-  <si>
-    <t>DAVIS ERIK JOSEPH;;DESAI ANAND;;SETE EYOB A;;ALAM MUHAMMAD SOHAIB;;WILSON CHRISTOPHER MOGAN;;TEZAK NIKOLAS ANTON;;DA SILVA MARCUS PALMER;;OSBORN CHRISTOPHER BUTLER;;JOHNSON BLAKE ROBERT;;RIGETTI CHAD TYLER;;ZENG WILLIAM;;SMITH ROBERT STANLEY;;HEIDEL STEVEN;;KARALEKAS PETER JONATHAN;;REAGOR MATTHEW J;;PETERSON ERIC CHRISTOPHER;;LYNCH ADAM DAVID;;CURTIS MICHAEL J;;JONES GLENN;;RUST MICHAEL;;CURTIS MICHAEL;;MCKIERNAN KERI ANN;;SETE EYOB;;ZENG WILLIAM J</t>
-  </si>
-  <si>
-    <t>AMIN MOHAMMAD H;;MACREADY WILLIAM G;;ANDRIYASH EVGENY;;BOOTHBY THOMAS J;;KING ANDREW DOUGLAS;;LANTING TREVOR MICHAEL;;BOOTHBY KELLY T R;;ROLFE JASON;;AMIN MOHAMMAD H S;;XUE YANBO;;ANDRIYASH EVGENY A;;YARKONI SHEIR</t>
-  </si>
-  <si>
-    <t>ZHU ZHENGYONG;;RADAMSON HENRY H;;ZHU HUILONG;;朱正勇;;张严波;;王桂磊;;朱慧珑;;ZHANG YANBO;;HENRY H ADAMSON;;亨利·H·阿达姆松;;WANG GUILEI</t>
+    <t>INST MICROELECTRONICS CAS;;中国科学院微电子研究所;;INST OF MICROELECTRONICS CAS</t>
+  </si>
+  <si>
+    <t>스미르노브, 세르게이 니콜라예비치;;LANDIGRAD LLC;;란디그레드, 리미티드 라이어빌리티 컴퍼니;;SMIRNOV SERGEY NIKOLAYEVICH</t>
+  </si>
+  <si>
+    <t>THE UNIV OF CANTERBURY;;FOSTNER SHAWN;;BOSE SAURABH KUMAR;;BROWN SIMON ANTHONY</t>
+  </si>
+  <si>
+    <t>GOOGLE LLC;;구글 엘엘씨;;グーグル エルエルシー;;BARENDS RAMI;;GOOGLE INC;;ラミ・バレントス</t>
+  </si>
+  <si>
+    <t>LANDIGRAD LTD LIABILITY CO;;SMIRNOV SERGEY NIIKOLAYEVICH;;SMIRNOV SERGEY;;LANDIGRAD LLC;;OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD;;LANDIGRAD LIMITED LIABILITY COMPANY;;SMIRNOV SERGEY NIKOLAYEVICH</t>
+  </si>
+  <si>
+    <t>NEVEN HARTMUT;;GOOGLE LLC;;グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;SMELYANSKIY VADIM;;NIU YUEZHEN;;GOOGLE INC;;CASTRILLO SERGIO BOIXO</t>
+  </si>
+  <si>
+    <t>LEIPOLD DIRK ROBERT WALTER;;MAXIM GEORGE ADRIAN;;ASKER MICHAEL ALBERT</t>
+  </si>
+  <si>
+    <t>GAMBETTA JAY;;D·T·麦克鲁尔三世;;LEE CHOONGHYUN;;OLIVADESE SALVATORE;;マクルーア ザ サード、ダグラス、テンプルトン;;ガンベッタ、ジェイ;;M·斯蒂芬;;NEUMAN-HORN DEBRA A;;PISTOIA MARCO;;MATTHIAS STEFFEN;;PHAN ANNA;;KUCZYNSKI JOSEPH;;BISHOP LEV SAMUEL;;CORCOLES-GONZALEZ ANTONIO;;GAMBETTA JAY M;;JAVADIABHARI ALI;;OLIVADESE SALVATORE BERNARDO;;CHEN RICHARD;;HEKMATSHOARTABARI BAHMAN;;J·加姆贝塔;;HASHEMI POUYA;;JAY GAMBETTA;;MARTIN FERNANDEZ FRANCISCO JOSE;;STEFFEN MATTHIAS;;ステファン、マティアス;;ダイアル、オリバー;;GREENBERG DON;;NANNICINI GIACOMO;;FARO SERTAGE ISMAEL;;DIAL OLIVER;;LIU PENG;;DOUGLAS TEMPLETON MCCLURE III;;O·蒂亚尔;;MCCLURE III DOUGLAS T;;PRISCO JOSEPH F;;REZNICEK ALEXANDER;;MISGEN MARVIN M;;PHAN ANNA T;;TEMME PAUL KRISTAN;;PRZYBYLSKI KEVIN J;;ANDO TAKASHI;;OLIVER DIAL;;MCCLURE III DOUGLAS TEMPLETON;;TEMME PAUL;;ZHANG JINGYUN;;BISHOP LEV</t>
+  </si>
+  <si>
+    <t>NEVEN HARTMUT;;BOIXO CASTRILLO SERGIO;;セルジオ・バイショ・カストリージョ;;SMELYANSKIY VADIM;;ハルトムート・ネーヴェン;;ユエゼン・ニウ;;ライアン・バブシュ;;エドワード・ヘンリー・ファーリ;;ハルトムート・ネーフェン;;ヴァディム・スメリャンスキー;;NEVEN HELMUT;;FARHI EDWARD HENRY;;BARENDS RAMI;;바엔즈 라미;;BABBUSH RYAN;;NIU YUEZHEN;;ラミ・バレントス;;CASTRILLO SERGIO BOIXO</t>
+  </si>
+  <si>
+    <t>JONES GLENN;;DA SILVA MARCUS PALMER;;REAGOR MATTHEW J;;HEIDEL STEVEN;;DAVIS ERIK JOSEPH;;ZENG WILLIAM J;;PETERSON ERIC CHRISTOPHER;;LYNCH ADAM DAVID;;SETE EYOB A;;OSBORN CHRISTOPHER BUTLER;;ALAM MUHAMMAD SOHAIB;;WILSON CHRISTOPHER MOGAN;;RIGETTI CHAD TYLER;;TEZAK NIKOLAS ANTON;;KARALEKAS PETER JONATHAN;;RUST MICHAEL;;ZENG WILLIAM;;CURTIS MICHAEL;;SMITH ROBERT STANLEY;;JOHNSON BLAKE ROBERT;;DESAI ANAND;;SETE EYOB;;MCKIERNAN KERI ANN;;CURTIS MICHAEL J</t>
+  </si>
+  <si>
+    <t>BOOTHBY KELLY T R;;MACREADY WILLIAM G;;ANDRIYASH EVGENY A;;BOOTHBY THOMAS J;;KING ANDREW DOUGLAS;;ROLFE JASON;;XUE YANBO;;ANDRIYASH EVGENY;;AMIN MOHAMMAD H;;YARKONI SHEIR;;LANTING TREVOR MICHAEL;;AMIN MOHAMMAD H S</t>
+  </si>
+  <si>
+    <t>ZHU HUILONG;;张严波;;HENRY H ADAMSON;;ZHANG YANBO;;ZHU ZHENGYONG;;WANG GUILEI;;王桂磊;;朱慧珑;;亨利·H·阿达姆松;;RADAMSON HENRY H;;朱正勇</t>
   </si>
   <si>
     <t>마줌다 아룬;;アルン、マジュムダール;;MAJUMDAR ARUN</t>
   </si>
   <si>
-    <t>GAHROOSI AMIR;;KHOMAMI ABADI MOJTABA;;GOULD MATTHEW;;MASILAMANI ASHOK PRABHU;;GOULD MATTHEW V;;GAHROOSI AMIR BAHADOR;;MASILAMANI ASHOK</t>
-  </si>
-  <si>
-    <t>SIGNAEVSKY MAXIM;;SIGNAEVSKI MAXIM M;;YAROSLAVSKY IGOR YEHUDA;;YAROSLAVSKY IGOR</t>
-  </si>
-  <si>
-    <t>RETALLICK JACOB;;CROSHAW JEREMIAH;;WOLKOW ROBERT;;VINE WYATT;;DIENEL THOMAS;;WALUS CONRAD;;HUFF TALEANA;;WALUS KONRAD;;WOLKOW ROBERT A;;RASHIDI MOHAMMAD;;LIVADARU LUCIAN</t>
-  </si>
-  <si>
-    <t>NGUYEN CHRISTIAN;;EVANS RUFFIN;;LUKIN MIKHAIL D;;EVANS RUFFIN E;;WANG SHENGTAO;;PICHLER HANNES;;ZHOU LEO;;CHOI SOONWON;;NGUYEN CHRISTIAN THIEU;;SIPAHIGIL ALP;;BHASKAR MIHIR;;ZHOU LEO XIANGYU;;SUKACHEV DENIS D;;LUKIN MIKHAIL;;SUKACHEV DENIS;;LUNKIN MIKHAIL;;BHASKAR MIHIR KESHAV</t>
-  </si>
-  <si>
-    <t>BHATIA SWAPNIL;;LEAKE DEVIN;;ROQUET NATHANIEL;;BHATIA SWAPNIL P;;PARK HYUNJUN</t>
-  </si>
-  <si>
-    <t>DUNST MICHAEL J;;MOLINSKY BRADLEY DEAN;;CARROLL WILLIAM JOSEPH;;TIPTON THOMAS ANDREW;;BATTAGLINI JOSEPH S</t>
+    <t>GOULD MATTHEW V;;GOULD MATTHEW;;GAHROOSI AMIR BAHADOR;;KHOMAMI ABADI MOJTABA;;GAHROOSI AMIR;;MASILAMANI ASHOK PRABHU;;MASILAMANI ASHOK</t>
+  </si>
+  <si>
+    <t>YAROSLAVSKY IGOR;;SIGNAEVSKY MAXIM;;SIGNAEVSKI MAXIM M;;YAROSLAVSKY IGOR YEHUDA</t>
+  </si>
+  <si>
+    <t>HUFF TALEANA;;RETALLICK JACOB;;WALUS CONRAD;;RASHIDI MOHAMMAD;;WOLKOW ROBERT A;;CROSHAW JEREMIAH;;WOLKOW ROBERT;;WALUS KONRAD;;VINE WYATT;;DIENEL THOMAS;;LIVADARU LUCIAN</t>
+  </si>
+  <si>
+    <t>BHASKAR MIHIR;;NGUYEN CHRISTIAN THIEU;;BHASKAR MIHIR KESHAV;;SIPAHIGIL ALP;;LUKIN MIKHAIL;;LUKIN MIKHAIL D;;NGUYEN CHRISTIAN;;CHOI SOONWON;;EVANS RUFFIN;;LUNKIN MIKHAIL;;WANG SHENGTAO;;EVANS RUFFIN E;;ZHOU LEO;;PICHLER HANNES;;ZHOU LEO XIANGYU;;SUKACHEV DENIS D;;SUKACHEV DENIS</t>
+  </si>
+  <si>
+    <t>BHATIA SWAPNIL;;PARK HYUNJUN;;LEAKE DEVIN;;BHATIA SWAPNIL P;;ROQUET NATHANIEL</t>
+  </si>
+  <si>
+    <t>BATTAGLINI JOSEPH S;;TIPTON THOMAS ANDREW;;CARROLL WILLIAM JOSEPH;;DUNST MICHAEL J;;MOLINSKY BRADLEY DEAN</t>
   </si>
   <si>
     <t>KAPIT ELIOT</t>
   </si>
   <si>
-    <t>PARK YOUNG SOO;;CHO JIN-SUN;;CHO JIN SUN;;CHO KYOUNG-AH;;KIM SANG SIG;;WOO SOL A;;SOHN IL KWON;;LIM DOO HYEOK;;PARK YOUNG-SOO;;WOO SOL-A;;CHO KYOUNG AH;;LIM DOO-HYEOK;;KIM SANG-SIK;;HEO JUN</t>
-  </si>
-  <si>
-    <t>GOTTSCHO RICHARD ALAN;;ゴットショ・リチャード・アラン;;バヘディ・バヘド;;グーハ・ジョイディープ;;DAUGHERTY JOHN;;ダウガティ・ジョン;;GUHA JOYDEEP;;VAHEDI VAHID</t>
-  </si>
-  <si>
-    <t>CHEN WEIDA;;GRANADE CHRISTOPHER EVAN;;GAMBLE JOHN KING;;A·X·C·科尔;;B·H·阮;;NGUYEN BICHLIEN HOANG;;WIEBE NATHAN O;;GAMBLE IV JOHN KING;;KOHLL ALEXANDER XAVIER CHRISTOF;;GRASS ROBERT;;W·陈;;R·格拉斯;;K·施特劳斯;;STRAUSS KARIN</t>
-  </si>
-  <si>
-    <t>マジャ・キャシディ;;CASSIDY MAJA;;ポール・エフ・プレドキ;;PREDKI PAUL F</t>
-  </si>
-  <si>
-    <t>WOLF LIOR;;MALKIEL ITZIK;;ARIELI URI;;MREJEN MICHAEL;;NAGLER ACHIYA;;SUCHOWSKI HAIM</t>
-  </si>
-  <si>
-    <t>NABAVI SEYEDFAKHREDDIN;;ZHANG LIHONG</t>
-  </si>
-  <si>
-    <t>CAO YUDONG;;JOHNSON PETER D;;DALLAIRE-DEMERS PIERRE-LUC;;KATABARWA AMARA;;GONTHIER JEROME FLORIAN;;ANSCHUETZ ERIC R</t>
-  </si>
-  <si>
-    <t>VARGO EMMA;;SPRACHMAN MELISSA M;;FAVALORA GREGG E;;FRANK IAN WARD;;HUANG HAIYAO;;SPRACHMAN MELISSA;;DUBAY RYAN A;;ROSENBERGER ERIN;;KOTZ KENNETH;;FRANK IAN;;BYRNES STEVEN J;;MARKOVIC STACEY;;MCFARLAND KIRSTY A;;MCFARLAND KIRSTY;;DUBAY RYAN;;FAVALORA GREGG;;MAGYAR ANDREW P;;MAGYAR ANDREW;;CAVANAGH PETER;;BYRNES STEVEN;;KOTZ KENNETH T</t>
+    <t>KIM SANG-SIK;;CHO JIN-SUN;;SOHN IL KWON;;CHO KYOUNG-AH;;KIM SANG SIG;;WOO SOL A;;LIM DOO-HYEOK;;HEO JUN;;LIM DOO HYEOK;;PARK YOUNG-SOO;;CHO JIN SUN;;PARK YOUNG SOO;;WOO SOL-A;;CHO KYOUNG AH</t>
+  </si>
+  <si>
+    <t>VAHEDI VAHID;;バヘディ・バヘド;;GUHA JOYDEEP;;グーハ・ジョイディープ;;ダウガティ・ジョン;;GOTTSCHO RICHARD ALAN;;ゴットショ・リチャード・アラン;;DAUGHERTY JOHN</t>
+  </si>
+  <si>
+    <t>WIEBE NATHAN O;;NGUYEN BICHLIEN HOANG;;GRANADE CHRISTOPHER EVAN;;CHEN WEIDA;;KOHLL ALEXANDER XAVIER CHRISTOF;;B·H·阮;;GAMBLE JOHN KING;;STRAUSS KARIN;;GAMBLE IV JOHN KING;;A·X·C·科尔;;GRASS ROBERT;;R·格拉斯;;W·陈;;K·施特劳斯</t>
+  </si>
+  <si>
+    <t>ポール・エフ・プレドキ;;マジャ・キャシディ;;CASSIDY MAJA;;PREDKI PAUL F</t>
+  </si>
+  <si>
+    <t>ARIELI URI;;MREJEN MICHAEL;;NAGLER ACHIYA;;MALKIEL ITZIK;;WOLF LIOR;;SUCHOWSKI HAIM</t>
+  </si>
+  <si>
+    <t>ZHANG LIHONG;;NABAVI SEYEDFAKHREDDIN</t>
+  </si>
+  <si>
+    <t>DALLAIRE-DEMERS PIERRE-LUC;;KATABARWA AMARA;;JOHNSON PETER D;;GONTHIER JEROME FLORIAN;;CAO YUDONG;;ANSCHUETZ ERIC R</t>
+  </si>
+  <si>
+    <t>VARGO EMMA;;MARKOVIC STACEY;;HUANG HAIYAO;;FRANK IAN WARD;;SPRACHMAN MELISSA M;;FAVALORA GREGG E;;FAVALORA GREGG;;KOTZ KENNETH;;MCFARLAND KIRSTY;;MAGYAR ANDREW P;;ROSENBERGER ERIN;;KOTZ KENNETH T;;BYRNES STEVEN;;MCFARLAND KIRSTY A;;SPRACHMAN MELISSA;;MAGYAR ANDREW;;BYRNES STEVEN J;;CAVANAGH PETER;;DUBAY RYAN A;;FRANK IAN;;DUBAY RYAN</t>
   </si>
   <si>
     <t>YOUNGNER DANIEL</t>
   </si>
   <si>
-    <t>GUILLOU DAVID;;GUILLOU DAVID FRANCOIS;;SINHA RAJARISHI</t>
-  </si>
-  <si>
-    <t>CONSTANCIAS CHRISTOPHE;;LANDIS STEPHAN;;LANDIS STÉPHAN</t>
-  </si>
-  <si>
-    <t>HAYES MATTHEW JAMES;;RAQUEL MARIA SANCHES-KUIPER;;MATTHEW JAMES HAYES;;SANCHES-KUIPER RAQUEL MARIA</t>
-  </si>
-  <si>
-    <t>CHEN RICHARD;;OLIVADESE SALVATORE BERNARDO;;DIAL OLIVER;;MCCLURE III DOUGLAS TEMPLETON;;GREENBERG DON;;NANNICINI GIACOMO;;OLIVADESE SALVATORE;;BISHOP LEV;;BISHOP LEV SAMUEL;;GAMBETTA JAY M;;GAMBETTA JAY;;MCCLURE III DOUGLAS T;;STEFFEN MATTHIAS;;PISTOIA MARCO;;PHAN ANNA;;CORCOLES-GONZALEZ ANTONIO;;TEMME PAUL;;PHAN ANNA T;;TEMME PAUL KRISTAN</t>
-  </si>
-  <si>
-    <t>ZHU ZHENGYONG;;ZHU HUILONG;;朱正勇;;张严波;;王桂磊;;朱慧珑;;ZHANG YANBO;;HENRY H ADAMSON;;亨利·H·阿达姆松;;WANG GUILEI</t>
+    <t>GUILLOU DAVID FRANCOIS;;GUILLOU DAVID;;SINHA RAJARISHI</t>
+  </si>
+  <si>
+    <t>LANDIS STEPHAN;;CONSTANCIAS CHRISTOPHE;;LANDIS STÉPHAN</t>
+  </si>
+  <si>
+    <t>RAQUEL MARIA SANCHES-KUIPER;;HAYES MATTHEW JAMES;;SANCHES-KUIPER RAQUEL MARIA;;MATTHEW JAMES HAYES</t>
+  </si>
+  <si>
+    <t>GAMBETTA JAY;;OLIVADESE SALVATORE;;PISTOIA MARCO;;PHAN ANNA;;BISHOP LEV SAMUEL;;CORCOLES-GONZALEZ ANTONIO;;GAMBETTA JAY M;;CHEN RICHARD;;OLIVADESE SALVATORE BERNARDO;;STEFFEN MATTHIAS;;NANNICINI GIACOMO;;GREENBERG DON;;DIAL OLIVER;;MCCLURE III DOUGLAS T;;PHAN ANNA T;;TEMME PAUL KRISTAN;;MCCLURE III DOUGLAS TEMPLETON;;TEMME PAUL;;BISHOP LEV</t>
+  </si>
+  <si>
+    <t>张严波;;HENRY H ADAMSON;;ZHANG YANBO;;ZHU ZHENGYONG;;WANG GUILEI;;王桂磊;;朱慧珑;;亨利·H·阿达姆松;;ZHU HUILONG;;朱正勇</t>
   </si>
   <si>
     <t>CASSIDY MAJA;;PREDKI PAUL F</t>
   </si>
   <si>
-    <t>AMIN MOHAMMAD H;;ANDRIYASH EVGENY;;BOOTHBY THOMAS J;;KING ANDREW DOUGLAS;;LANTING TREVOR MICHAEL;;ROLFE JASON;;AMIN MOHAMMAD H S;;ANDRIYASH EVGENY A;;YARKONI SHEIR</t>
-  </si>
-  <si>
-    <t>CHEN CHANG;;COVENS KRIS;;COSTA JOSE DIOGO;;CIUBOTARU FLORIN;;ADELMANN HANNS CHRISTOPH;;FAUVART MAARTEN;;STAKENBORG TIM;;CAI QING</t>
-  </si>
-  <si>
-    <t>MA YUNPU;;TRESP VOLKER</t>
-  </si>
-  <si>
-    <t>MAKSYMOVYCH PETRO;;LAWRIE BENJAMIN J;;POOSER RAPHAEL C</t>
-  </si>
-  <si>
-    <t>DANIEL RAMEZ;;RIZIK LUNA</t>
+    <t>ANDRIYASH EVGENY A;;BOOTHBY THOMAS J;;KING ANDREW DOUGLAS;;ROLFE JASON;;ANDRIYASH EVGENY;;AMIN MOHAMMAD H;;YARKONI SHEIR;;LANTING TREVOR MICHAEL;;AMIN MOHAMMAD H S</t>
+  </si>
+  <si>
+    <t>FAUVART MAARTEN;;COVENS KRIS;;CAI QING;;ADELMANN HANNS CHRISTOPH;;CHEN CHANG;;CIUBOTARU FLORIN;;STAKENBORG TIM;;COSTA JOSE DIOGO</t>
+  </si>
+  <si>
+    <t>TRESP VOLKER;;MA YUNPU</t>
+  </si>
+  <si>
+    <t>POOSER RAPHAEL C;;LAWRIE BENJAMIN J;;MAKSYMOVYCH PETRO</t>
+  </si>
+  <si>
+    <t>RIZIK LUNA;;DANIEL RAMEZ</t>
   </si>
   <si>
     <t>YAZDI S M HOSSEIN TABATABAEI;;MILENKOVIC OLGICA;;GABRYS RYAN</t>
@@ -901,46 +904,46 @@
     <t>GHOSH TAPABRATA</t>
   </si>
   <si>
-    <t>WU SHUO;;GAO JUNXIONG;;CHENG RUNHONG;;ZHOU WENLI;;CHEN CHANGSHENG;;WANG YUNBO;;ZHU YU</t>
-  </si>
-  <si>
-    <t>YAN XIAOBING;;REN DELIANG;;WANG KAIYANG</t>
-  </si>
-  <si>
-    <t>REICH GREGORY W;;KONDASH COREY R;;BAUR JEFFREY W;;DICKINSON BENJAMIN T;;PANKONIEN ALEXANDER M;;SLINKER KEITH;;MAGAR KAMAN THAPA</t>
+    <t>GAO JUNXIONG;;ZHU YU;;ZHOU WENLI;;CHENG RUNHONG;;WU SHUO;;WANG YUNBO;;CHEN CHANGSHENG</t>
+  </si>
+  <si>
+    <t>REN DELIANG;;YAN XIAOBING;;WANG KAIYANG</t>
+  </si>
+  <si>
+    <t>SLINKER KEITH;;MAGAR KAMAN THAPA;;DICKINSON BENJAMIN T;;BAUR JEFFREY W;;KONDASH COREY R;;REICH GREGORY W;;PANKONIEN ALEXANDER M</t>
   </si>
   <si>
     <t>NIVALA JEFFREY MATTHEW</t>
   </si>
   <si>
-    <t>YU DAN;;WANG WEI;;WANG ZEHONG;;CHEN YIXIANG</t>
-  </si>
-  <si>
-    <t>LEE HONG-SUB;;SANGWAN VINOD K;;HERSAM MARK C</t>
-  </si>
-  <si>
-    <t>SIU MAN-HUNG;;FONG KIN CHUNG;;JIANG ZHUOLIN</t>
-  </si>
-  <si>
-    <t>KORTEN TILL;;DIEZ STEFAN;;MANSSON ALF;;TAKATSUKI HIDEYO;;REUTHER CORDULA</t>
+    <t>WANG WEI;;WANG ZEHONG;;CHEN YIXIANG;;YU DAN</t>
+  </si>
+  <si>
+    <t>SANGWAN VINOD K;;LEE HONG-SUB;;HERSAM MARK C</t>
+  </si>
+  <si>
+    <t>JIANG ZHUOLIN;;SIU MAN-HUNG;;FONG KIN CHUNG</t>
+  </si>
+  <si>
+    <t>TAKATSUKI HIDEYO;;REUTHER CORDULA;;DIEZ STEFAN;;MANSSON ALF;;KORTEN TILL</t>
   </si>
   <si>
     <t>TAN WEE CHONG;;ANG KAH-WEE</t>
   </si>
   <si>
-    <t>ZHAO LINYUAN;;LIANG RENRONG;;XU JUN;;LIU YU</t>
-  </si>
-  <si>
-    <t>CHODAVARAPU VAMSY;;AGGARWAL PRIYANKA</t>
-  </si>
-  <si>
-    <t>LEE HYUNG-DONG;;CHOI YONG SOO;;CHOI YONG-SOO;;LEE HYUNG DONG;;HEO KEUN</t>
-  </si>
-  <si>
-    <t>MCLEAN MARK;;XIA QIANGFEI;;YANG JIANHUA;;WU QING</t>
-  </si>
-  <si>
-    <t>AMIN MOHAMMAD H;;BOOTHBY THOMAS J;;KING ANDREW DOUGLAS;;BOOTHBY KELLY T R;;LANTING TREVOR MICHAEL;;ANDRIYASH EVGENY A;;YARKONI SHEIR</t>
+    <t>XU JUN;;LIU YU;;LIANG RENRONG;;ZHAO LINYUAN</t>
+  </si>
+  <si>
+    <t>AGGARWAL PRIYANKA;;CHODAVARAPU VAMSY</t>
+  </si>
+  <si>
+    <t>HEO KEUN;;LEE HYUNG DONG;;CHOI YONG SOO;;CHOI YONG-SOO;;LEE HYUNG-DONG</t>
+  </si>
+  <si>
+    <t>WU QING;;XIA QIANGFEI;;MCLEAN MARK;;YANG JIANHUA</t>
+  </si>
+  <si>
+    <t>BOOTHBY KELLY T R;;ANDRIYASH EVGENY A;;KING ANDREW DOUGLAS;;BOOTHBY THOMAS J;;AMIN MOHAMMAD H;;YARKONI SHEIR;;LANTING TREVOR MICHAEL</t>
   </si>
   <si>
     <t>ZHANG XIANGCHENG;;WU JIAN</t>
@@ -952,91 +955,97 @@
     <t>Huilong Zhu;;Zhengyong Zhu</t>
   </si>
   <si>
-    <t>MANIPATRUNI SASIKANTH;;NIKONOV DMITRI E;;YOUNG IAN A</t>
+    <t>YOUNG IAN A;;NIKONOV DMITRI E;;MANIPATRUNI SASIKANTH</t>
   </si>
   <si>
     <t>ZHU HUILONG</t>
   </si>
   <si>
-    <t>FARHI EDWARD HENRY;;ライアン・バブシュ;;NEVEN HARTMUT;;エドワード・ヘンリー・ファーリ;;ハルトムート・ネーヴェン;;ラミ・バレントス;;BABBUSH RYAN;;바엔즈 라미;;BARENDS RAMI</t>
-  </si>
-  <si>
-    <t>FAROKHZAD OMID;;MAHMOUDI MORTEZA;;CORBO CLAUDIA</t>
-  </si>
-  <si>
-    <t>BHAT SUMRITA;;KAPOOR ANMOL SINGH;;SALAHANDISH RAZIEH;;KOUL RAMAN;;WANG GANG (A K A JOSEPH);;WANG GANG;;VASTAREY NIKHIL SURESH</t>
+    <t>NEVEN HARTMUT;;ハルトムート・ネーヴェン;;ライアン・バブシュ;;エドワード・ヘンリー・ファーリ;;FARHI EDWARD HENRY;;BARENDS RAMI;;바엔즈 라미;;BABBUSH RYAN;;ラミ・バレントス</t>
+  </si>
+  <si>
+    <t>FAROKHZAD OMID;;CORBO CLAUDIA;;MAHMOUDI MORTEZA</t>
+  </si>
+  <si>
+    <t>SALAHANDISH RAZIEH;;WANG GANG;;KOUL RAMAN;;KAPOOR ANMOL SINGH;;VASTAREY NIKHIL SURESH;;BHAT SUMRITA;;WANG GANG (A K A JOSEPH)</t>
   </si>
   <si>
     <t>SHIMA SHOHEI</t>
   </si>
   <si>
-    <t>RAMPRASAD RAMPI;;CHANDRASEKARAN ANAND;;KIM CHIHO</t>
-  </si>
-  <si>
-    <t>ヴァディム・スメリャンスキー;;セルジオ・バイショ・カストリージョ;;NIU YUEZHEN;;BOIXO CASTRILLO SERGIO;;NEVEN HARTMUT;;ユエゼン・ニウ;;ラミ・バレントス;;BABBUSH RYAN;;CASTRILLO SERGIO BOIXO;;바엔즈 라미;;SMELYANSKIY VADIM;;BARENDS RAMI;;ハルトムート・ネーフェン</t>
-  </si>
-  <si>
-    <t>BOSE SAURABH KUMAR;;フォスナー ショーン;;ボーズ サウラブ クマー;;FOSTNER SHAWN;;BROWN SIMON ANTHONY;;ブラウン シモン アンソニー</t>
-  </si>
-  <si>
-    <t>정용호;;CHUNG YONG HO;;CHOI JEONG WOO;;최정우</t>
-  </si>
-  <si>
-    <t>XING YAN;;LI YUAN;;ZHANG JIN;;ZHANG HUI;;张辉;;幸研;;张晋;;李源</t>
-  </si>
-  <si>
-    <t>CHEN WEIDA;;A·X·C·科尔;;B·H·阮;;NGUYEN BICHLIEN HOANG;;GRASS ROBERT;;KOHLL ALEXANDER XAVIER CHRISTOF;;W·陈;;R·格拉斯;;STRAUSS KARIN;;K·施特劳斯</t>
+    <t>KIM CHIHO;;RAMPRASAD RAMPI;;CHANDRASEKARAN ANAND</t>
+  </si>
+  <si>
+    <t>NEVEN HARTMUT;;BOIXO CASTRILLO SERGIO;;セルジオ・バイショ・カストリージョ;;SMELYANSKIY VADIM;;ユエゼン・ニウ;;CASTRILLO SERGIO BOIXO;;ハルトムート・ネーフェン;;ヴァディム・スメリャンスキー;;BARENDS RAMI;;바엔즈 라미;;BABBUSH RYAN;;NIU YUEZHEN;;ラミ・バレントス</t>
+  </si>
+  <si>
+    <t>フォスナー ショーン;;ブラウン シモン アンソニー;;ボーズ サウラブ クマー;;FOSTNER SHAWN;;BOSE SAURABH KUMAR;;BROWN SIMON ANTHONY</t>
+  </si>
+  <si>
+    <t>CHOI JEONG WOO;;최정우;;정용호;;CHUNG YONG HO</t>
+  </si>
+  <si>
+    <t>李源;;LI YUAN;;张辉;;ZHANG JIN;;幸研;;XING YAN;;张晋;;ZHANG HUI</t>
+  </si>
+  <si>
+    <t>NGUYEN BICHLIEN HOANG;;CHEN WEIDA;;KOHLL ALEXANDER XAVIER CHRISTOF;;B·H·阮;;STRAUSS KARIN;;A·X·C·科尔;;GRASS ROBERT;;R·格拉斯;;W·陈;;K·施特劳斯</t>
   </si>
   <si>
     <t>SHINKAI GOU;;新海 剛</t>
   </si>
   <si>
-    <t>ZHONG HAO;;陈奕丞;;蒋亚东;;李伟;;李东阳;;LI WEI;;LI DONGYANG;;GU DEEN;;钟豪;;顾德恩;;CHEN YICHENG;;JIANG YADONG;;GU DE'EN</t>
-  </si>
-  <si>
-    <t>JEONG YOUNG MIN;;파쿼 아마드;;신현동;;SHIN HYUN DONG;;정영민;;FAROOQ AHMAD</t>
-  </si>
-  <si>
-    <t>YU XING;;JIANG WEINAN</t>
-  </si>
-  <si>
-    <t>YOON TAE HYUN;;트린수안텅;;KIM JIN BAE;;TRINH XUAN TUNG;;하키우;;윤태현;;HA KIEU MY;;김진배</t>
-  </si>
-  <si>
-    <t>GERBEN DOORNBOS;;MAURICIO MANFRINI;;VAN DAL MARCUS JOHANNES HENRICUS;;DOORNBOS GERBEN;;MARCUS JOHANNES HENRICUS VAN DAL;;MANFRINI MAURICIO</t>
-  </si>
-  <si>
-    <t>ROQUET NATHANIEL;;BHATIA SWAPNIL P;;PARK HYUNJUN;;LEAKE DEVIN</t>
-  </si>
-  <si>
-    <t>ヴァディム・スメリャンスキー;;FARHI EDWARD HENRY;;セルジオ・バイショ・カストリージョ;;NIU YUEZHEN;;BOIXO CASTRILLO SERGIO;;エドワード・ヘンリー・ファーリ;;NEVEN HARTMUT;;ハルトムート・ネーヴェン;;ユエゼン・ニウ;;CASTRILLO SERGIO BOIXO;;SMELYANSKIY VADIM;;ハルトムート・ネーフェン</t>
-  </si>
-  <si>
-    <t>SMIRNOV SERGEY NIIKOLAYEVICH;;스미르노브, 세르게이 니콜라예비치;;SMIRNOV SERGEJ NIKOLAEVICH;;SMIRNOV SERGEY NIKOLAYEVICH</t>
-  </si>
-  <si>
-    <t>CIUBOTARU FLORIN;;COSTA JOSE DIOGO;;ADELMANN HANNS CHRISTOPH</t>
-  </si>
-  <si>
-    <t>DIAL OLIVER;;GAMBETTA JAY M;;GAMBETTA JAY;;MCCLURE III DOUGLAS TEMPLETON;;MCCLURE III DOUGLAS T;;STEFFEN MATTHIAS</t>
-  </si>
-  <si>
-    <t>MATTHIAS STEFFEN;;DIAL OLIVER;;D·T·麦克鲁尔三世;;マクルーア ザ サード、ダグラス、テンプルトン;;GAMBETTA JAY;;J·加姆贝塔;;MCCLURE III DOUGLAS TEMPLETON;;JAY GAMBETTA;;M·斯蒂芬;;OLIVER DIAL;;STEFFEN MATTHIAS;;ダイアル、オリバー;;ガンベッタ、ジェイ;;ステファン、マティアス;;O·蒂亚尔;;DOUGLAS TEMPLETON MCCLURE III</t>
+    <t>李伟;;LI WEI;;钟豪;;LI DONGYANG;;GU DEEN;;顾德恩;;李东阳;;CHEN YICHENG;;ZHONG HAO;;JIANG YADONG;;蒋亚东;;陈奕丞;;GU DE'EN</t>
+  </si>
+  <si>
+    <t>FAROOQ AHMAD;;정영민;;JEONG YOUNG MIN;;SHIN HYUN DONG;;파쿼 아마드;;신현동</t>
+  </si>
+  <si>
+    <t>PREDKI PAUL F;;ポール・エフ・プレドキ;;CASSIDY MAJA;;マジャ・キャシディ</t>
+  </si>
+  <si>
+    <t>JIANG WEINAN;;YU XING</t>
+  </si>
+  <si>
+    <t>TRINH XUAN TUNG;;김진배;;HA KIEU MY;;윤태현;;YOON TAE HYUN;;하키우;;트린수안텅;;KIM JIN BAE</t>
+  </si>
+  <si>
+    <t>DOORNBOS GERBEN;;MAURICIO MANFRINI;;MANFRINI MAURICIO;;VAN DAL MARCUS JOHANNES HENRICUS;;GERBEN DOORNBOS;;MARCUS JOHANNES HENRICUS VAN DAL</t>
+  </si>
+  <si>
+    <t>BHATIA SWAPNIL P;;ROQUET NATHANIEL;;PARK HYUNJUN;;LEAKE DEVIN</t>
+  </si>
+  <si>
+    <t>NEVEN HARTMUT;;BOIXO CASTRILLO SERGIO;;セルジオ・バイショ・カストリージョ;;ハルトムート・ネーヴェン;;SMELYANSKIY VADIM;;ユエゼン・ニウ;;エドワード・ヘンリー・ファーリ;;ハルトムート・ネーフェン;;FARHI EDWARD HENRY;;ヴァディム・スメリャンスキー;;NIU YUEZHEN;;CASTRILLO SERGIO BOIXO</t>
+  </si>
+  <si>
+    <t>스미르노브, 세르게이 니콜라예비치;;SMIRNOV SERGEJ NIKOLAEVICH;;SMIRNOV SERGEY NIIKOLAYEVICH;;SMIRNOV SERGEY NIKOLAYEVICH</t>
+  </si>
+  <si>
+    <t>마줌다 아룬;;MAJUMDAR ARUN;;アルン、マジュムダール</t>
+  </si>
+  <si>
+    <t>ADELMANN HANNS CHRISTOPH;;COSTA JOSE DIOGO;;CIUBOTARU FLORIN</t>
+  </si>
+  <si>
+    <t>GAMBETTA JAY;;DIAL OLIVER;;GAMBETTA JAY M;;MCCLURE III DOUGLAS TEMPLETON;;MCCLURE III DOUGLAS T;;STEFFEN MATTHIAS</t>
+  </si>
+  <si>
+    <t>GAMBETTA JAY;;OLIVER DIAL;;D·T·麦克鲁尔三世;;DIAL OLIVER;;DOUGLAS TEMPLETON MCCLURE III;;J·加姆贝塔;;MCCLURE III DOUGLAS TEMPLETON;;O·蒂亚尔;;マクルーア ザ サード、ダグラス、テンプルトン;;JAY GAMBETTA;;ガンベッタ、ジェイ;;STEFFEN MATTHIAS;;ステファン、マティアス;;M·斯蒂芬;;ダイアル、オリバー;;MATTHIAS STEFFEN</t>
   </si>
   <si>
     <t>스미르노브, 세르게이 니콜라예비치;;SMIRNOV SERGEY NIKOLAYEVICH</t>
   </si>
   <si>
-    <t>BOSE SAURABH KUMAR;;BROWN SIMON ANTHONY;;FOSTNER SHAWN</t>
-  </si>
-  <si>
-    <t>바엔즈 라미;;BARENDS RAMI;;ラミ・バレントス</t>
-  </si>
-  <si>
-    <t>SMIRNOV SERGEY NIIKOLAYEVICH;;SMIRNOV SERGEJ NIKOLAEVICH;;SMIRNOV SERGEY NIKOLAYEVICH</t>
-  </si>
-  <si>
-    <t>ヴァディム・スメリャンスキー;;セルジオ・バイショ・カストリージョ;;NIU YUEZHEN;;BOIXO CASTRILLO SERGIO;;ユエゼン・ニウ;;NEVEN HARTMUT;;CASTRILLO SERGIO BOIXO;;SMELYANSKIY VADIM;;ハルトムート・ネーフェン</t>
+    <t>FOSTNER SHAWN;;BOSE SAURABH KUMAR;;BROWN SIMON ANTHONY</t>
+  </si>
+  <si>
+    <t>BARENDS RAMI;;바엔즈 라미;;ラミ・バレントス</t>
+  </si>
+  <si>
+    <t>SMIRNOV SERGEJ NIKOLAEVICH;;SMIRNOV SERGEY NIIKOLAYEVICH;;SMIRNOV SERGEY NIKOLAYEVICH</t>
+  </si>
+  <si>
+    <t>NEVEN HARTMUT;;BOIXO CASTRILLO SERGIO;;セルジオ・バイショ・カストリージョ;;SMELYANSKIY VADIM;;ユエゼン・ニウ;;ハルトムート・ネーフェン;;ヴァディム・スメリャンスキー;;NIU YUEZHEN;;CASTRILLO SERGIO BOIXO</t>
   </si>
 </sst>
 </file>
@@ -1512,7 +1521,7 @@
         <v>148</v>
       </c>
       <c r="J2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K2" t="s">
         <v>148</v>
@@ -1536,7 +1545,7 @@
         <v>29</v>
       </c>
       <c r="R2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="S2" t="b">
         <v>0</v>
@@ -1607,7 +1616,7 @@
         <v>148</v>
       </c>
       <c r="L3" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -1625,7 +1634,7 @@
         <v>221</v>
       </c>
       <c r="R3" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="S3" t="b">
         <v>0</v>
@@ -1696,7 +1705,7 @@
         <v>148</v>
       </c>
       <c r="L4" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M4">
         <v>0.1666666666666667</v>
@@ -1714,7 +1723,7 @@
         <v>222</v>
       </c>
       <c r="R4" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="S4" t="b">
         <v>0</v>
@@ -1803,7 +1812,7 @@
         <v>32</v>
       </c>
       <c r="R5" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="S5" t="b">
         <v>0</v>
@@ -1892,7 +1901,7 @@
         <v>223</v>
       </c>
       <c r="R6" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="S6" t="b">
         <v>0</v>
@@ -1981,7 +1990,7 @@
         <v>224</v>
       </c>
       <c r="R7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="S7" t="b">
         <v>0</v>
@@ -2052,7 +2061,7 @@
         <v>148</v>
       </c>
       <c r="L8" t="s">
-        <v>217</v>
+        <v>150</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -2070,7 +2079,7 @@
         <v>225</v>
       </c>
       <c r="R8" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="S8" t="b">
         <v>0</v>
@@ -2135,7 +2144,7 @@
         <v>148</v>
       </c>
       <c r="L9" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -2153,7 +2162,7 @@
         <v>36</v>
       </c>
       <c r="R9" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="S9" t="b">
         <v>0</v>
@@ -2242,7 +2251,7 @@
         <v>37</v>
       </c>
       <c r="R10" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="S10" t="b">
         <v>0</v>
@@ -2325,7 +2334,7 @@
         <v>38</v>
       </c>
       <c r="R11" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="S11" t="b">
         <v>0</v>
@@ -2384,7 +2393,7 @@
         <v>149</v>
       </c>
       <c r="J12" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="K12" t="s">
         <v>148</v>
@@ -2408,7 +2417,7 @@
         <v>39</v>
       </c>
       <c r="R12" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="S12" t="b">
         <v>0</v>
@@ -2467,7 +2476,7 @@
         <v>148</v>
       </c>
       <c r="J13" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K13" t="s">
         <v>148</v>
@@ -2491,7 +2500,7 @@
         <v>226</v>
       </c>
       <c r="R13" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="S13" t="b">
         <v>0</v>
@@ -2580,7 +2589,7 @@
         <v>227</v>
       </c>
       <c r="R14" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="S14" t="b">
         <v>0</v>
@@ -2728,7 +2737,7 @@
         <v>151</v>
       </c>
       <c r="J16" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K16" t="s">
         <v>148</v>
@@ -2752,7 +2761,7 @@
         <v>43</v>
       </c>
       <c r="R16" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="S16" t="b">
         <v>0</v>
@@ -2817,7 +2826,7 @@
         <v>152</v>
       </c>
       <c r="J17" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K17" t="s">
         <v>165</v>
@@ -2841,7 +2850,7 @@
         <v>44</v>
       </c>
       <c r="R17" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="S17" t="b">
         <v>0</v>
@@ -2906,7 +2915,7 @@
         <v>148</v>
       </c>
       <c r="J18" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K18" t="s">
         <v>148</v>
@@ -2930,7 +2939,7 @@
         <v>228</v>
       </c>
       <c r="R18" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="S18" t="b">
         <v>0</v>
@@ -2989,7 +2998,7 @@
         <v>153</v>
       </c>
       <c r="J19" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K19" t="s">
         <v>148</v>
@@ -3013,7 +3022,7 @@
         <v>229</v>
       </c>
       <c r="R19" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="S19" t="b">
         <v>0</v>
@@ -3078,7 +3087,7 @@
         <v>148</v>
       </c>
       <c r="J20" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K20" t="s">
         <v>148</v>
@@ -3102,7 +3111,7 @@
         <v>230</v>
       </c>
       <c r="R20" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="S20" t="b">
         <v>0</v>
@@ -3167,7 +3176,7 @@
         <v>154</v>
       </c>
       <c r="J21" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K21" t="s">
         <v>148</v>
@@ -3191,7 +3200,7 @@
         <v>48</v>
       </c>
       <c r="R21" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="S21" t="b">
         <v>0</v>
@@ -3250,7 +3259,7 @@
         <v>154</v>
       </c>
       <c r="J22" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K22" t="s">
         <v>148</v>
@@ -3274,7 +3283,7 @@
         <v>49</v>
       </c>
       <c r="R22" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="S22" t="b">
         <v>0</v>
@@ -3357,7 +3366,7 @@
         <v>50</v>
       </c>
       <c r="R23" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="S23" t="b">
         <v>0</v>
@@ -3416,7 +3425,7 @@
         <v>153</v>
       </c>
       <c r="J24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K24" t="s">
         <v>148</v>
@@ -3440,7 +3449,7 @@
         <v>51</v>
       </c>
       <c r="R24" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="S24" t="b">
         <v>0</v>
@@ -3529,7 +3538,7 @@
         <v>52</v>
       </c>
       <c r="R25" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="S25" t="b">
         <v>0</v>
@@ -3594,7 +3603,7 @@
         <v>153</v>
       </c>
       <c r="J26" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K26" t="s">
         <v>148</v>
@@ -3618,7 +3627,7 @@
         <v>53</v>
       </c>
       <c r="R26" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="S26" t="b">
         <v>0</v>
@@ -3683,10 +3692,10 @@
         <v>155</v>
       </c>
       <c r="J27" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K27" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L27" t="s">
         <v>220</v>
@@ -3707,7 +3716,7 @@
         <v>54</v>
       </c>
       <c r="R27" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="S27" t="b">
         <v>0</v>
@@ -3772,13 +3781,13 @@
         <v>156</v>
       </c>
       <c r="J28" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K28" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L28" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M28">
         <v>0</v>
@@ -3796,7 +3805,7 @@
         <v>55</v>
       </c>
       <c r="R28" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="S28" t="b">
         <v>0</v>
@@ -3861,7 +3870,7 @@
         <v>153</v>
       </c>
       <c r="J29" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K29" t="s">
         <v>148</v>
@@ -3885,7 +3894,7 @@
         <v>231</v>
       </c>
       <c r="R29" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="S29" t="b">
         <v>0</v>
@@ -3974,7 +3983,7 @@
         <v>224</v>
       </c>
       <c r="R30" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="S30" t="b">
         <v>0</v>
@@ -4039,7 +4048,7 @@
         <v>153</v>
       </c>
       <c r="J31" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K31" t="s">
         <v>148</v>
@@ -4063,7 +4072,7 @@
         <v>232</v>
       </c>
       <c r="R31" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="S31" t="b">
         <v>0</v>
@@ -4152,7 +4161,7 @@
         <v>233</v>
       </c>
       <c r="R32" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="S32" t="b">
         <v>0</v>
@@ -4211,13 +4220,13 @@
         <v>158</v>
       </c>
       <c r="J33" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K33" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L33" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M33">
         <v>0</v>
@@ -4235,7 +4244,7 @@
         <v>234</v>
       </c>
       <c r="R33" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="S33" t="b">
         <v>0</v>
@@ -4318,7 +4327,7 @@
         <v>61</v>
       </c>
       <c r="R34" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="S34" t="b">
         <v>0</v>
@@ -4401,7 +4410,7 @@
         <v>62</v>
       </c>
       <c r="R35" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="S35" t="b">
         <v>0</v>
@@ -4484,7 +4493,7 @@
         <v>63</v>
       </c>
       <c r="R36" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S36" t="b">
         <v>0</v>
@@ -4567,7 +4576,7 @@
         <v>64</v>
       </c>
       <c r="R37" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="S37" t="b">
         <v>0</v>
@@ -4656,7 +4665,7 @@
         <v>235</v>
       </c>
       <c r="R38" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="S38" t="b">
         <v>0</v>
@@ -4739,7 +4748,7 @@
         <v>66</v>
       </c>
       <c r="R39" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="S39" t="b">
         <v>0</v>
@@ -4822,7 +4831,7 @@
         <v>67</v>
       </c>
       <c r="R40" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="S40" t="b">
         <v>0</v>
@@ -4905,7 +4914,7 @@
         <v>68</v>
       </c>
       <c r="R41" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="S41" t="b">
         <v>0</v>
@@ -4988,7 +4997,7 @@
         <v>69</v>
       </c>
       <c r="R42" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="S42" t="b">
         <v>0</v>
@@ -5071,7 +5080,7 @@
         <v>70</v>
       </c>
       <c r="R43" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="S43" t="b">
         <v>0</v>
@@ -5154,7 +5163,7 @@
         <v>71</v>
       </c>
       <c r="R44" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="S44" t="b">
         <v>0</v>
@@ -5237,7 +5246,7 @@
         <v>72</v>
       </c>
       <c r="R45" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="S45" t="b">
         <v>0</v>
@@ -5320,7 +5329,7 @@
         <v>73</v>
       </c>
       <c r="R46" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="S46" t="b">
         <v>0</v>
@@ -5388,10 +5397,10 @@
         <v>149</v>
       </c>
       <c r="K47" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L47" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M47">
         <v>0</v>
@@ -5409,7 +5418,7 @@
         <v>74</v>
       </c>
       <c r="R47" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="S47" t="b">
         <v>0</v>
@@ -5471,10 +5480,10 @@
         <v>149</v>
       </c>
       <c r="K48" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L48" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M48">
         <v>0</v>
@@ -5492,7 +5501,7 @@
         <v>75</v>
       </c>
       <c r="R48" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="S48" t="b">
         <v>0</v>
@@ -5575,7 +5584,7 @@
         <v>76</v>
       </c>
       <c r="R49" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="S49" t="b">
         <v>0</v>
@@ -5658,7 +5667,7 @@
         <v>77</v>
       </c>
       <c r="R50" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="S50" t="b">
         <v>0</v>
@@ -5747,7 +5756,7 @@
         <v>78</v>
       </c>
       <c r="R51" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="S51" t="b">
         <v>0</v>
@@ -5830,7 +5839,7 @@
         <v>79</v>
       </c>
       <c r="R52" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="S52" t="b">
         <v>0</v>
@@ -5895,7 +5904,7 @@
         <v>154</v>
       </c>
       <c r="J53" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K53" t="s">
         <v>148</v>
@@ -5919,7 +5928,7 @@
         <v>236</v>
       </c>
       <c r="R53" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="S53" t="b">
         <v>1</v>
@@ -6002,7 +6011,7 @@
         <v>81</v>
       </c>
       <c r="R54" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="S54" t="b">
         <v>0</v>
@@ -6085,7 +6094,7 @@
         <v>82</v>
       </c>
       <c r="R55" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="S55" t="b">
         <v>0</v>
@@ -6168,7 +6177,7 @@
         <v>83</v>
       </c>
       <c r="R56" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="S56" t="b">
         <v>0</v>
@@ -6257,7 +6266,7 @@
         <v>235</v>
       </c>
       <c r="R57" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="S57" t="b">
         <v>0</v>
@@ -6346,7 +6355,7 @@
         <v>85</v>
       </c>
       <c r="R58" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="S58" t="b">
         <v>0</v>
@@ -6429,7 +6438,7 @@
         <v>86</v>
       </c>
       <c r="R59" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="S59" t="b">
         <v>0</v>
@@ -6494,7 +6503,7 @@
         <v>161</v>
       </c>
       <c r="J60" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="K60" t="s">
         <v>148</v>
@@ -6518,7 +6527,7 @@
         <v>237</v>
       </c>
       <c r="R60" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="S60" t="b">
         <v>0</v>
@@ -6601,7 +6610,7 @@
         <v>88</v>
       </c>
       <c r="R61" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="S61" t="b">
         <v>0</v>
@@ -6660,7 +6669,7 @@
         <v>162</v>
       </c>
       <c r="J62" t="s">
-        <v>195</v>
+        <v>162</v>
       </c>
       <c r="K62" t="s">
         <v>148</v>
@@ -6684,7 +6693,7 @@
         <v>89</v>
       </c>
       <c r="R62" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="S62" t="b">
         <v>0</v>
@@ -6743,13 +6752,13 @@
         <v>163</v>
       </c>
       <c r="J63" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K63" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L63" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M63">
         <v>0</v>
@@ -6767,7 +6776,7 @@
         <v>90</v>
       </c>
       <c r="R63" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="S63" t="b">
         <v>0</v>
@@ -6850,7 +6859,7 @@
         <v>91</v>
       </c>
       <c r="R64" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="S64" t="b">
         <v>0</v>
@@ -6915,7 +6924,7 @@
         <v>153</v>
       </c>
       <c r="J65" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="K65" t="s">
         <v>148</v>
@@ -6936,10 +6945,10 @@
         <v>2</v>
       </c>
       <c r="Q65" t="s">
-        <v>222</v>
+        <v>238</v>
       </c>
       <c r="R65" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="S65" t="b">
         <v>0</v>
@@ -7004,13 +7013,13 @@
         <v>164</v>
       </c>
       <c r="J66" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K66" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L66" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M66">
         <v>0</v>
@@ -7025,10 +7034,10 @@
         <v>2</v>
       </c>
       <c r="Q66" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="R66" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="S66" t="b">
         <v>0</v>
@@ -7114,10 +7123,10 @@
         <v>1</v>
       </c>
       <c r="Q67" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="R67" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="S67" t="b">
         <v>0</v>
@@ -7203,10 +7212,10 @@
         <v>1</v>
       </c>
       <c r="Q68" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="R68" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="S68" t="b">
         <v>0</v>
@@ -7292,10 +7301,10 @@
         <v>1</v>
       </c>
       <c r="Q69" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="R69" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="S69" t="b">
         <v>0</v>
@@ -7378,7 +7387,7 @@
         <v>229</v>
       </c>
       <c r="R70" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="S70" t="b">
         <v>0</v>
@@ -7437,13 +7446,13 @@
         <v>167</v>
       </c>
       <c r="J71" t="s">
-        <v>198</v>
+        <v>167</v>
       </c>
       <c r="K71" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L71" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M71">
         <v>0</v>
@@ -7458,10 +7467,10 @@
         <v>0</v>
       </c>
       <c r="Q71" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="R71" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="S71" t="b">
         <v>0</v>
@@ -7547,10 +7556,10 @@
         <v>1</v>
       </c>
       <c r="Q72" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="R72" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="S72" t="b">
         <v>0</v>
@@ -7630,10 +7639,10 @@
         <v>0</v>
       </c>
       <c r="Q73" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="R73" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="S73" t="b">
         <v>0</v>
@@ -7716,7 +7725,7 @@
         <v>228</v>
       </c>
       <c r="R74" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="S74" t="b">
         <v>0</v>
@@ -7802,10 +7811,10 @@
         <v>1</v>
       </c>
       <c r="Q75" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="R75" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="S75" t="b">
         <v>0</v>
@@ -7873,10 +7882,10 @@
         <v>200</v>
       </c>
       <c r="K76" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L76" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M76">
         <v>0</v>
@@ -7891,10 +7900,10 @@
         <v>1</v>
       </c>
       <c r="Q76" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R76" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="S76" t="b">
         <v>0</v>
@@ -7980,10 +7989,10 @@
         <v>1</v>
       </c>
       <c r="Q77" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="R77" t="s">
-        <v>275</v>
+        <v>328</v>
       </c>
       <c r="S77" t="b">
         <v>0</v>
@@ -8063,10 +8072,10 @@
         <v>0</v>
       </c>
       <c r="Q78" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="R78" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="S78" t="b">
         <v>0</v>
@@ -8152,10 +8161,10 @@
         <v>1</v>
       </c>
       <c r="Q79" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="R79" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="S79" t="b">
         <v>0</v>
@@ -8241,10 +8250,10 @@
         <v>1</v>
       </c>
       <c r="Q80" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="R80" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="S80" t="b">
         <v>0</v>
@@ -8330,10 +8339,10 @@
         <v>1</v>
       </c>
       <c r="Q81" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="R81" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="S81" t="b">
         <v>0</v>
@@ -8392,7 +8401,7 @@
         <v>171</v>
       </c>
       <c r="J82" t="s">
-        <v>171</v>
+        <v>202</v>
       </c>
       <c r="K82" t="s">
         <v>148</v>
@@ -8413,10 +8422,10 @@
         <v>0</v>
       </c>
       <c r="Q82" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="R82" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="S82" t="b">
         <v>0</v>
@@ -8475,7 +8484,7 @@
         <v>171</v>
       </c>
       <c r="J83" t="s">
-        <v>171</v>
+        <v>202</v>
       </c>
       <c r="K83" t="s">
         <v>148</v>
@@ -8496,10 +8505,10 @@
         <v>0</v>
       </c>
       <c r="Q83" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="R83" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="S83" t="b">
         <v>0</v>
@@ -8558,7 +8567,7 @@
         <v>172</v>
       </c>
       <c r="J84" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="K84" t="s">
         <v>148</v>
@@ -8582,7 +8591,7 @@
         <v>226</v>
       </c>
       <c r="R84" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="S84" t="b">
         <v>0</v>
@@ -8662,10 +8671,10 @@
         <v>0</v>
       </c>
       <c r="Q85" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="R85" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="S85" t="b">
         <v>0</v>
@@ -8724,13 +8733,13 @@
         <v>167</v>
       </c>
       <c r="J86" t="s">
-        <v>198</v>
+        <v>167</v>
       </c>
       <c r="K86" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L86" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M86">
         <v>0</v>
@@ -8745,10 +8754,10 @@
         <v>0</v>
       </c>
       <c r="Q86" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="R86" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="S86" t="b">
         <v>0</v>
@@ -8828,10 +8837,10 @@
         <v>0</v>
       </c>
       <c r="Q87" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="R87" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="S87" t="b">
         <v>0</v>
@@ -8917,10 +8926,10 @@
         <v>1</v>
       </c>
       <c r="Q88" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="R88" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="S88" t="b">
         <v>0</v>
@@ -8985,13 +8994,13 @@
         <v>165</v>
       </c>
       <c r="J89" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K89" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L89" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M89">
         <v>0</v>
@@ -9006,10 +9015,10 @@
         <v>1</v>
       </c>
       <c r="Q89" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="R89" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="S89" t="b">
         <v>0</v>
@@ -9074,13 +9083,13 @@
         <v>165</v>
       </c>
       <c r="J90" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K90" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L90" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M90">
         <v>0</v>
@@ -9095,10 +9104,10 @@
         <v>1</v>
       </c>
       <c r="Q90" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="R90" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="S90" t="b">
         <v>1</v>
@@ -9163,7 +9172,7 @@
         <v>173</v>
       </c>
       <c r="J91" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K91" t="s">
         <v>148</v>
@@ -9187,7 +9196,7 @@
         <v>225</v>
       </c>
       <c r="R91" t="s">
-        <v>264</v>
+        <v>335</v>
       </c>
       <c r="S91" t="b">
         <v>0</v>
@@ -9249,10 +9258,10 @@
         <v>158</v>
       </c>
       <c r="K92" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L92" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M92">
         <v>0</v>
@@ -9267,10 +9276,10 @@
         <v>0</v>
       </c>
       <c r="Q92" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
       <c r="R92" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="S92" t="b">
         <v>0</v>
@@ -9335,7 +9344,7 @@
         <v>153</v>
       </c>
       <c r="J93" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K93" t="s">
         <v>148</v>
@@ -9359,7 +9368,7 @@
         <v>231</v>
       </c>
       <c r="R93" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="S93" t="b">
         <v>0</v>
@@ -9421,10 +9430,10 @@
         <v>158</v>
       </c>
       <c r="K94" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L94" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M94">
         <v>0</v>
@@ -9439,10 +9448,10 @@
         <v>0</v>
       </c>
       <c r="Q94" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
       <c r="R94" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="S94" t="b">
         <v>0</v>
@@ -9507,13 +9516,13 @@
         <v>174</v>
       </c>
       <c r="J95" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K95" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L95" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M95">
         <v>0</v>
@@ -9531,7 +9540,7 @@
         <v>252</v>
       </c>
       <c r="R95" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="S95" t="b">
         <v>0</v>
@@ -9596,7 +9605,7 @@
         <v>173</v>
       </c>
       <c r="J96" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K96" t="s">
         <v>148</v>
@@ -9620,7 +9629,7 @@
         <v>225</v>
       </c>
       <c r="R96" t="s">
-        <v>264</v>
+        <v>335</v>
       </c>
       <c r="S96" t="b">
         <v>0</v>
@@ -9706,10 +9715,10 @@
         <v>1</v>
       </c>
       <c r="Q97" t="s">
-        <v>224</v>
+        <v>253</v>
       </c>
       <c r="R97" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="S97" t="b">
         <v>0</v>
@@ -9774,13 +9783,13 @@
         <v>174</v>
       </c>
       <c r="J98" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K98" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L98" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M98">
         <v>0</v>
@@ -9798,7 +9807,7 @@
         <v>252</v>
       </c>
       <c r="R98" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="S98" t="b">
         <v>0</v>
@@ -9860,10 +9869,10 @@
         <v>165</v>
       </c>
       <c r="K99" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L99" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M99">
         <v>0</v>
@@ -9878,10 +9887,10 @@
         <v>0</v>
       </c>
       <c r="Q99" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="R99" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="S99" t="b">
         <v>1</v>
@@ -9949,10 +9958,10 @@
         <v>149</v>
       </c>
       <c r="K100" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L100" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M100">
         <v>0</v>
@@ -9967,10 +9976,10 @@
         <v>1</v>
       </c>
       <c r="Q100" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="R100" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="S100" t="b">
         <v>1</v>
@@ -10038,10 +10047,10 @@
         <v>149</v>
       </c>
       <c r="K101" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L101" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M101">
         <v>0</v>
@@ -10056,10 +10065,10 @@
         <v>1</v>
       </c>
       <c r="Q101" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="R101" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="S101" t="b">
         <v>1</v>
@@ -10121,10 +10130,10 @@
         <v>165</v>
       </c>
       <c r="K102" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L102" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M102">
         <v>0</v>
@@ -10139,10 +10148,10 @@
         <v>0</v>
       </c>
       <c r="Q102" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="R102" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="S102" t="b">
         <v>0</v>
@@ -10210,10 +10219,10 @@
         <v>149</v>
       </c>
       <c r="K103" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L103" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M103">
         <v>0</v>
@@ -10228,10 +10237,10 @@
         <v>1</v>
       </c>
       <c r="Q103" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="R103" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="S103" t="b">
         <v>1</v>
@@ -10320,7 +10329,7 @@
         <v>227</v>
       </c>
       <c r="R104" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="S104" t="b">
         <v>1</v>
@@ -10409,7 +10418,7 @@
         <v>227</v>
       </c>
       <c r="R105" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="S105" t="b">
         <v>1</v>
@@ -10498,7 +10507,7 @@
         <v>227</v>
       </c>
       <c r="R106" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="S106" t="b">
         <v>1</v>
@@ -10563,7 +10572,7 @@
         <v>175</v>
       </c>
       <c r="J107" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="K107" t="s">
         <v>148</v>
@@ -10584,10 +10593,10 @@
         <v>1</v>
       </c>
       <c r="Q107" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="R107" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="S107" t="b">
         <v>0</v>
@@ -10652,7 +10661,7 @@
         <v>175</v>
       </c>
       <c r="J108" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="K108" t="s">
         <v>148</v>
@@ -10673,10 +10682,10 @@
         <v>1</v>
       </c>
       <c r="Q108" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="R108" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="S108" t="b">
         <v>1</v>
@@ -10765,7 +10774,7 @@
         <v>227</v>
       </c>
       <c r="R109" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="S109" t="b">
         <v>1</v>
@@ -10830,7 +10839,7 @@
         <v>175</v>
       </c>
       <c r="J110" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="K110" t="s">
         <v>148</v>
@@ -10851,10 +10860,10 @@
         <v>1</v>
       </c>
       <c r="Q110" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="R110" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="S110" t="b">
         <v>1</v>
@@ -10943,7 +10952,7 @@
         <v>227</v>
       </c>
       <c r="R111" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="S111" t="b">
         <v>1</v>
@@ -11008,13 +11017,13 @@
         <v>176</v>
       </c>
       <c r="J112" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="K112" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L112" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M112">
         <v>0</v>
@@ -11029,10 +11038,10 @@
         <v>1</v>
       </c>
       <c r="Q112" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="R112" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="S112" t="b">
         <v>0</v>
@@ -11097,13 +11106,13 @@
         <v>176</v>
       </c>
       <c r="J113" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="K113" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L113" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M113">
         <v>0</v>
@@ -11118,10 +11127,10 @@
         <v>1</v>
       </c>
       <c r="Q113" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="R113" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="S113" t="b">
         <v>0</v>
@@ -11186,13 +11195,13 @@
         <v>176</v>
       </c>
       <c r="J114" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="K114" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L114" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M114">
         <v>0</v>
@@ -11207,10 +11216,10 @@
         <v>1</v>
       </c>
       <c r="Q114" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="R114" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="S114" t="b">
         <v>1</v>
@@ -11290,10 +11299,10 @@
         <v>0</v>
       </c>
       <c r="Q115" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="R115" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="S115" t="b">
         <v>1</v>
@@ -11373,10 +11382,10 @@
         <v>0</v>
       </c>
       <c r="Q116" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="R116" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="S116" t="b">
         <v>1</v>
@@ -11441,13 +11450,13 @@
         <v>176</v>
       </c>
       <c r="J117" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="K117" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L117" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M117">
         <v>0</v>
@@ -11462,10 +11471,10 @@
         <v>1</v>
       </c>
       <c r="Q117" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="R117" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="S117" t="b">
         <v>0</v>
@@ -11545,10 +11554,10 @@
         <v>0</v>
       </c>
       <c r="Q118" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="R118" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="S118" t="b">
         <v>1</v>
@@ -11628,10 +11637,10 @@
         <v>0</v>
       </c>
       <c r="Q119" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="R119" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="S119" t="b">
         <v>1</v>
@@ -11696,13 +11705,13 @@
         <v>176</v>
       </c>
       <c r="J120" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="K120" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L120" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M120">
         <v>0</v>
@@ -11717,10 +11726,10 @@
         <v>1</v>
       </c>
       <c r="Q120" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="R120" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="S120" t="b">
         <v>0</v>

--- a/tests/integration/out/ai-and-nanotech-applicants.xlsx
+++ b/tests/integration/out/ai-and-nanotech-applicants.xlsx
@@ -550,94 +550,109 @@
     <t>KR;;CA;;AU;;EP;;WO;;CN;;JP;;US</t>
   </si>
   <si>
-    <t>CN;;WO;;US;;GB;;DE;;JP</t>
-  </si>
-  <si>
-    <t>AU;;KR;;SG;;EP;;CN;;WO;;US;;CA;;JP</t>
-  </si>
-  <si>
-    <t>EP;;WO;;US</t>
-  </si>
-  <si>
-    <t>CN;;EP;;US</t>
-  </si>
-  <si>
-    <t>AU;;EP;;CN;;WO;;KR;;US;;CA;;JP</t>
-  </si>
-  <si>
-    <t>WO;;CA;;EP;;US</t>
-  </si>
-  <si>
-    <t>US;;EP;;WO;;TW</t>
-  </si>
-  <si>
-    <t>US;;CA;;WO;;KR</t>
-  </si>
-  <si>
-    <t>EP;;CA;;WO;;US</t>
-  </si>
-  <si>
-    <t>AU;;EP;;WO;;KR;;US;;CA</t>
-  </si>
-  <si>
-    <t>CA;;WO;;US</t>
-  </si>
-  <si>
-    <t>KR;;CN;;WO;;US</t>
-  </si>
-  <si>
-    <t>KR;;EP;;TW;;CN;;WO;;US;;JP</t>
-  </si>
-  <si>
-    <t>EP;;CN;;WO;;US</t>
-  </si>
-  <si>
-    <t>EP;;CN;;KR;;US;;CA;;JP</t>
-  </si>
-  <si>
-    <t>WO;;FR;;EP</t>
-  </si>
-  <si>
-    <t>SG;;EP;;TW;;WO;;GB;;CA</t>
+    <t>US;;GB;;CN;;WO;;DE;;JP</t>
+  </si>
+  <si>
+    <t>US;;CN;;CA;;EP;;WO;;SG;;JP;;AU;;KR</t>
+  </si>
+  <si>
+    <t>US;;WO;;EP</t>
+  </si>
+  <si>
+    <t>US;;CN;;EP</t>
+  </si>
+  <si>
+    <t>US;;CN</t>
+  </si>
+  <si>
+    <t>US;;CN;;CA;;WO;;EP;;JP;;AU;;KR</t>
+  </si>
+  <si>
+    <t>WO;;CA;;US;;EP</t>
+  </si>
+  <si>
+    <t>US;;WO;;TW;;EP</t>
+  </si>
+  <si>
+    <t>CA;;US;;WO;;KR</t>
+  </si>
+  <si>
+    <t>CA;;US;;WO;;EP</t>
+  </si>
+  <si>
+    <t>US;;AU;;WO;;EP;;CA;;KR</t>
+  </si>
+  <si>
+    <t>CA;;US;;WO</t>
+  </si>
+  <si>
+    <t>US;;CN;;WO;;KR</t>
+  </si>
+  <si>
+    <t>US;;TW;;CN;;WO;;EP;;JP;;KR</t>
+  </si>
+  <si>
+    <t>US;;CN;;WO;;EP</t>
+  </si>
+  <si>
+    <t>US;;CN;;EP;;JP;;CA;;KR</t>
+  </si>
+  <si>
+    <t>US;;EP</t>
+  </si>
+  <si>
+    <t>WO;;EP;;FR</t>
+  </si>
+  <si>
+    <t>GB;;WO;;SG;;EP;;CA;;TW</t>
   </si>
   <si>
     <t>US;;EP;;KR</t>
   </si>
   <si>
-    <t>AU;;SG;;EP;;CN;;WO;;KR;;US;;CA;;JP</t>
-  </si>
-  <si>
-    <t>CN;;JP;;US</t>
-  </si>
-  <si>
-    <t>KR;;EP;;CN;;WO;;US;;JP</t>
-  </si>
-  <si>
-    <t>EP;;CN;;JP;;KR</t>
-  </si>
-  <si>
-    <t>KR;;EP;;CN;;US;;JP</t>
-  </si>
-  <si>
-    <t>EP;;CN;;KR;;CA;;JP</t>
-  </si>
-  <si>
-    <t>TW;;CN;;US</t>
-  </si>
-  <si>
-    <t>AU;;CA;;EP;;KR</t>
-  </si>
-  <si>
-    <t>IL;;AU;;KR;;EP;;TW;;CN;;WO;;RU;;US;;CA;;ZA;;JP</t>
-  </si>
-  <si>
-    <t>AU;;EP;;CN;;KR;;CA;;JP</t>
-  </si>
-  <si>
-    <t>GB;;DE;;CN;;JP</t>
-  </si>
-  <si>
-    <t>IL;;AU;;EP;;TW;;RU;;CN;;WO;;KR;;US;;CA;;ZA;;JP</t>
+    <t>US;;AU;;CN;;EP;;SG;;WO;;JP;;CA;;KR</t>
+  </si>
+  <si>
+    <t>US;;CN;;JP</t>
+  </si>
+  <si>
+    <t>US;;AU;;CN;;WO;;EP;;SG;;JP;;CA;;KR</t>
+  </si>
+  <si>
+    <t>US;;CN;;EP;;WO;;JP;;KR</t>
+  </si>
+  <si>
+    <t>US;;JP</t>
+  </si>
+  <si>
+    <t>CN;;EP;;KR;;JP</t>
+  </si>
+  <si>
+    <t>US;;CN;;EP;;JP;;KR</t>
+  </si>
+  <si>
+    <t>CN;;EP;;JP;;CA;;KR</t>
+  </si>
+  <si>
+    <t>US;;CN;;TW</t>
+  </si>
+  <si>
+    <t>US;;AU;;CN;;EP;;WO;;JP;;CA;;KR</t>
+  </si>
+  <si>
+    <t>RU;;TW;;US;;AU;;CN;;EP;;WO;;IL;;JP;;CA;;ZA;;KR</t>
+  </si>
+  <si>
+    <t>AU;;CN;;EP;;JP;;CA;;KR</t>
+  </si>
+  <si>
+    <t>DE;;GB;;CN;;JP</t>
+  </si>
+  <si>
+    <t>US;;AU;;CN;;SG;;EP;;WO;;JP;;CA;;KR</t>
+  </si>
+  <si>
+    <t>US;;AU;;CN;;WO;;EP;;JP;;CA;;KR</t>
   </si>
   <si>
     <t>FR</t>
@@ -664,76 +679,70 @@
     <t>US;;IB</t>
   </si>
   <si>
-    <t>IB;;US</t>
-  </si>
-  <si>
-    <t>AU;;CA;;US</t>
+    <t>AU;;US;;CA</t>
   </si>
   <si>
     <t>CA;;US</t>
   </si>
   <si>
-    <t>US;;IL</t>
-  </si>
-  <si>
-    <t>FR;;EP</t>
-  </si>
-  <si>
-    <t>インターナショナル・ビジネス・マシーンズ・コーポレーションＩＮＴＥＲＮＡＴＩＯＮＡＬ ＢＵＳＩＮＥＳＳ ＭＡＣＨＩＮＥＳ ＣＯＲＰＯＲＡＴＩＯＮ;;IBM (CHINA) INVEST COMPANY LTD;;国际商业机器公司;;IBM;;IBM UK</t>
-  </si>
-  <si>
-    <t>NEVEN HARTMUT;;GOOGLE LLC;;グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;SMELYANSKIY VADIM;;CASTRILLO SERGIO BOIXO;;グーグル エルエルシー;;BARENDS RAMI;;NIU YUEZHEN;;ラミ・バレントス;;GOOGLE INC;;구글 엘엘씨</t>
-  </si>
-  <si>
-    <t>YARKONI SHEIR;;D WAVE SYSTEMS INC</t>
+    <t>IL;;US</t>
+  </si>
+  <si>
+    <t>EP;;FR</t>
+  </si>
+  <si>
+    <t>インターナショナル・ビジネス・マシーンズ・コーポレーションＩＮＴＥＲＮＡＴＩＯＮＡＬ ＢＵＳＩＮＥＳＳ ＭＡＣＨＩＮＥＳ ＣＯＲＰＯＲＡＴＩＯＮ;;国际商业机器公司;;IBM UK;;IBM;;IBM (CHINA) INVEST COMPANY LTD</t>
+  </si>
+  <si>
+    <t>グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;NIU YUEZHEN;;グーグル エルエルシー;;SMELYANSKIY VADIM;;NEVEN HARTMUT;;BARENDS RAMI;;구글 엘엘씨;;GOOGLE LLC;;CASTRILLO SERGIO BOIXO;;GOOGLE INC;;ラミ・バレントス</t>
+  </si>
+  <si>
+    <t>D WAVE SYSTEMS INC;;YARKONI SHEIR</t>
   </si>
   <si>
     <t>中国科学院微电子研究所;;INST MICROELECTRONICS CAS;;INST OF MICROELECTRONICS CAS</t>
   </si>
   <si>
-    <t>KYNDI INC;;キンダイ、インコーポレイテッドＫＹＮＤＩ， ＩＮＣ．;;킨디 인코포레이티드</t>
-  </si>
-  <si>
-    <t>CATALOG TECH INC;;CATALOG TECHNOLOGIES INC</t>
-  </si>
-  <si>
-    <t>BATTAGLINI JOSEPH S;;TIPTON THOMAS ANDREW;;CARROLL WILLIAM JOSEPH;;DUNST MICHAEL J;;HARTFORD FIRE INSURANCE COMP;;MOLINSKY BRADLEY DEAN</t>
+    <t>킨디 인코포레이티드;;キンダイ、インコーポレイテッドＫＹＮＤＩ， ＩＮＣ．;;KYNDI INC</t>
+  </si>
+  <si>
+    <t>CATALOG TECHNOLOGIES INC;;CATALOG TECH INC</t>
+  </si>
+  <si>
+    <t>MOLINSKY BRADLEY DEAN;;DUNST MICHAEL J;;HARTFORD FIRE INSURANCE COMP;;CARROLL WILLIAM JOSEPH;;BATTAGLINI JOSEPH S;;TIPTON THOMAS ANDREW</t>
   </si>
   <si>
     <t>LAM RES CORP;;ラム リサーチ コーポレーションＬＡＭ ＲＥＳＥＡＲＣＨ ＣＯＲＰＯＲＡＴＩＯＮ</t>
   </si>
   <si>
-    <t>MICROSOFT TECHNOLOGY LICENSING LLC;;微软技术许可有限责任公司</t>
-  </si>
-  <si>
-    <t>イリディア・インコーポレイテッドＩｒｉｄｉａ， Ｉｎｃ．;;IRIDIA INC;;DODO OMNIDATA INC</t>
-  </si>
-  <si>
-    <t>IBM;;IBM (CHINA) INVEST COMPANY LTD;;IBM UK</t>
-  </si>
-  <si>
-    <t>IRIDIA INC;;DODO OMNIDATA INC</t>
-  </si>
-  <si>
-    <t>YARKONI SHEIR;;D-WAVE SYSTEMS INC</t>
-  </si>
-  <si>
-    <t>IMEC VZW;;KATHOLIEKE UNIV LEUVEN KU LEUVEN RESEARCH &amp; DEVELOPMENT;;UNIV LEUVEN KATH</t>
-  </si>
-  <si>
-    <t>서울시립대학교 산학협력단;;UNIV SEOUL IND COOP FOUND</t>
-  </si>
-  <si>
-    <t>YARKONI SHEIR;;D-WAVE SYSTEMS INC;;D WAVE SYSTEMS INC</t>
-  </si>
-  <si>
-    <t>GOOGLE LLC;;グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;구글 엘엘씨;;グーグル エルエルシー;;BARENDS RAMI;;GOOGLE INC;;ラミ・バレントス</t>
-  </si>
-  <si>
-    <t>NEVEN HARTMUT;;GOOGLE LLC;;グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;구글 엘엘씨;;SMELYANSKIY VADIM;;CASTRILLO SERGIO BOIXO;;グーグル エルエルシー;;BARENDS RAMI;;NIU YUEZHEN;;GOOGLE INC;;ラミ・バレントス</t>
-  </si>
-  <si>
-    <t>THE UNIV OF CANTERBURY;;ザ ユニバーシティー オブ カンタベリー;;FOSTNER SHAWN;;BOSE SAURABH KUMAR;;BROWN SIMON ANTHONY</t>
+    <t>微软技术许可有限责任公司;;MICROSOFT TECHNOLOGY LICENSING LLC</t>
+  </si>
+  <si>
+    <t>DODO OMNIDATA INC;;イリディア・インコーポレイテッドＩｒｉｄｉａ， Ｉｎｃ．;;IRIDIA INC</t>
+  </si>
+  <si>
+    <t>IBM UK;;IBM;;IBM (CHINA) INVEST COMPANY LTD</t>
+  </si>
+  <si>
+    <t>DODO OMNIDATA INC;;IRIDIA INC</t>
+  </si>
+  <si>
+    <t>D-WAVE SYSTEMS INC;;YARKONI SHEIR</t>
+  </si>
+  <si>
+    <t>IMEC VZW;;UNIV LEUVEN KATH;;KATHOLIEKE UNIV LEUVEN KU LEUVEN RESEARCH &amp; DEVELOPMENT</t>
+  </si>
+  <si>
+    <t>UNIV SEOUL IND COOP FOUND;;서울시립대학교 산학협력단</t>
+  </si>
+  <si>
+    <t>D-WAVE SYSTEMS INC;;D WAVE SYSTEMS INC;;YARKONI SHEIR</t>
+  </si>
+  <si>
+    <t>グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;グーグル エルエルシー;;BARENDS RAMI;;구글 엘엘씨;;GOOGLE LLC;;GOOGLE INC;;ラミ・バレントス</t>
+  </si>
+  <si>
+    <t>BROWN SIMON ANTHONY;;FOSTNER SHAWN;;THE UNIV OF CANTERBURY;;BOSE SAURABH KUMAR;;ザ ユニバーシティー オブ カンタベリー</t>
   </si>
   <si>
     <t>UNIV SOGANG RES FOUNDATION;;서강대학교산학협력단</t>
@@ -742,16 +751,16 @@
     <t>UNIV SOUTHEAST;;东南大学</t>
   </si>
   <si>
-    <t>HITACHI LTD;;株式会社日立製作所</t>
-  </si>
-  <si>
-    <t>电子科技大学;;UNIV ELECTRONIC SCI &amp; TECH CHINA</t>
+    <t>株式会社日立製作所;;HITACHI LTD</t>
+  </si>
+  <si>
+    <t>UNIV ELECTRONIC SCI &amp; TECH CHINA;;电子科技大学</t>
   </si>
   <si>
     <t>UNIV INDUSTRY COOPERATION GROUP KYUNG HEE UNIV;;경희대학교 산학협력단</t>
   </si>
   <si>
-    <t>THE UNIV OF CANTERBURY;;ザ ユニバーシティー オブ カンタベリー</t>
+    <t>ザ ユニバーシティー オブ カンタベリー;;THE UNIV OF CANTERBURY</t>
   </si>
   <si>
     <t>イリディア・インコーポレイテッドＩｒｉｄｉａ， Ｉｎｃ．;;IRIDIA INC</t>
@@ -763,139 +772,136 @@
     <t>IUCF HYU;;한양대학교 산학협력단</t>
   </si>
   <si>
-    <t>TAIWAN SEMICONDUCTOR MFG CO LTD;;TAIWAN SEMICONDUCTOR MFG</t>
-  </si>
-  <si>
-    <t>NEVEN HARTMUT;;GOOGLE LLC;;グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;SMELYANSKIY VADIM;;グーグル エルエルシー;;NIU YUEZHEN;;GOOGLE INC;;CASTRILLO SERGIO BOIXO</t>
-  </si>
-  <si>
-    <t>LANDIGRAD LTD LIABILITY CO;;란디그레드, 리미티드 라이어빌리티 컴퍼니;;SMIRNOV SERGEY NIIKOLAYEVICH;;SMIRNOV SERGEY;;LANDIGRAD LIMITED LIABILITY COMPANY;;LANDIGRAD LLC;;OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD;;스미르노브, 세르게이 니콜라예비치;;SMIRNOV SERGEY NIKOLAYEVICH</t>
-  </si>
-  <si>
-    <t>国际商业机器公司;;インターナショナル・ビジネス・マシーンズ・コーポレーションＩＮＴＥＲＮＡＴＩＯＮＡＬ ＢＵＳＩＮＥＳＳ ＭＡＣＨＩＮＥＳ ＣＯＲＰＯＲＡＴＩＯＮ;;IBM</t>
-  </si>
-  <si>
-    <t>INST MICROELECTRONICS CAS;;中国科学院微电子研究所;;INST OF MICROELECTRONICS CAS</t>
-  </si>
-  <si>
-    <t>스미르노브, 세르게이 니콜라예비치;;LANDIGRAD LLC;;란디그레드, 리미티드 라이어빌리티 컴퍼니;;SMIRNOV SERGEY NIKOLAYEVICH</t>
-  </si>
-  <si>
-    <t>THE UNIV OF CANTERBURY;;FOSTNER SHAWN;;BOSE SAURABH KUMAR;;BROWN SIMON ANTHONY</t>
-  </si>
-  <si>
-    <t>GOOGLE LLC;;구글 엘엘씨;;グーグル エルエルシー;;BARENDS RAMI;;GOOGLE INC;;ラミ・バレントス</t>
-  </si>
-  <si>
-    <t>LANDIGRAD LTD LIABILITY CO;;SMIRNOV SERGEY NIIKOLAYEVICH;;SMIRNOV SERGEY;;LANDIGRAD LLC;;OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD;;LANDIGRAD LIMITED LIABILITY COMPANY;;SMIRNOV SERGEY NIKOLAYEVICH</t>
-  </si>
-  <si>
-    <t>NEVEN HARTMUT;;GOOGLE LLC;;グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;SMELYANSKIY VADIM;;NIU YUEZHEN;;GOOGLE INC;;CASTRILLO SERGIO BOIXO</t>
-  </si>
-  <si>
-    <t>LEIPOLD DIRK ROBERT WALTER;;MAXIM GEORGE ADRIAN;;ASKER MICHAEL ALBERT</t>
-  </si>
-  <si>
-    <t>GAMBETTA JAY;;D·T·麦克鲁尔三世;;LEE CHOONGHYUN;;OLIVADESE SALVATORE;;マクルーア ザ サード、ダグラス、テンプルトン;;ガンベッタ、ジェイ;;M·斯蒂芬;;NEUMAN-HORN DEBRA A;;PISTOIA MARCO;;MATTHIAS STEFFEN;;PHAN ANNA;;KUCZYNSKI JOSEPH;;BISHOP LEV SAMUEL;;CORCOLES-GONZALEZ ANTONIO;;GAMBETTA JAY M;;JAVADIABHARI ALI;;OLIVADESE SALVATORE BERNARDO;;CHEN RICHARD;;HEKMATSHOARTABARI BAHMAN;;J·加姆贝塔;;HASHEMI POUYA;;JAY GAMBETTA;;MARTIN FERNANDEZ FRANCISCO JOSE;;STEFFEN MATTHIAS;;ステファン、マティアス;;ダイアル、オリバー;;GREENBERG DON;;NANNICINI GIACOMO;;FARO SERTAGE ISMAEL;;DIAL OLIVER;;LIU PENG;;DOUGLAS TEMPLETON MCCLURE III;;O·蒂亚尔;;MCCLURE III DOUGLAS T;;PRISCO JOSEPH F;;REZNICEK ALEXANDER;;MISGEN MARVIN M;;PHAN ANNA T;;TEMME PAUL KRISTAN;;PRZYBYLSKI KEVIN J;;ANDO TAKASHI;;OLIVER DIAL;;MCCLURE III DOUGLAS TEMPLETON;;TEMME PAUL;;ZHANG JINGYUN;;BISHOP LEV</t>
-  </si>
-  <si>
-    <t>NEVEN HARTMUT;;BOIXO CASTRILLO SERGIO;;セルジオ・バイショ・カストリージョ;;SMELYANSKIY VADIM;;ハルトムート・ネーヴェン;;ユエゼン・ニウ;;ライアン・バブシュ;;エドワード・ヘンリー・ファーリ;;ハルトムート・ネーフェン;;ヴァディム・スメリャンスキー;;NEVEN HELMUT;;FARHI EDWARD HENRY;;BARENDS RAMI;;바엔즈 라미;;BABBUSH RYAN;;NIU YUEZHEN;;ラミ・バレントス;;CASTRILLO SERGIO BOIXO</t>
-  </si>
-  <si>
-    <t>JONES GLENN;;DA SILVA MARCUS PALMER;;REAGOR MATTHEW J;;HEIDEL STEVEN;;DAVIS ERIK JOSEPH;;ZENG WILLIAM J;;PETERSON ERIC CHRISTOPHER;;LYNCH ADAM DAVID;;SETE EYOB A;;OSBORN CHRISTOPHER BUTLER;;ALAM MUHAMMAD SOHAIB;;WILSON CHRISTOPHER MOGAN;;RIGETTI CHAD TYLER;;TEZAK NIKOLAS ANTON;;KARALEKAS PETER JONATHAN;;RUST MICHAEL;;ZENG WILLIAM;;CURTIS MICHAEL;;SMITH ROBERT STANLEY;;JOHNSON BLAKE ROBERT;;DESAI ANAND;;SETE EYOB;;MCKIERNAN KERI ANN;;CURTIS MICHAEL J</t>
-  </si>
-  <si>
-    <t>BOOTHBY KELLY T R;;MACREADY WILLIAM G;;ANDRIYASH EVGENY A;;BOOTHBY THOMAS J;;KING ANDREW DOUGLAS;;ROLFE JASON;;XUE YANBO;;ANDRIYASH EVGENY;;AMIN MOHAMMAD H;;YARKONI SHEIR;;LANTING TREVOR MICHAEL;;AMIN MOHAMMAD H S</t>
-  </si>
-  <si>
-    <t>ZHU HUILONG;;张严波;;HENRY H ADAMSON;;ZHANG YANBO;;ZHU ZHENGYONG;;WANG GUILEI;;王桂磊;;朱慧珑;;亨利·H·阿达姆松;;RADAMSON HENRY H;;朱正勇</t>
-  </si>
-  <si>
-    <t>마줌다 아룬;;アルン、マジュムダール;;MAJUMDAR ARUN</t>
-  </si>
-  <si>
-    <t>GOULD MATTHEW V;;GOULD MATTHEW;;GAHROOSI AMIR BAHADOR;;KHOMAMI ABADI MOJTABA;;GAHROOSI AMIR;;MASILAMANI ASHOK PRABHU;;MASILAMANI ASHOK</t>
-  </si>
-  <si>
-    <t>YAROSLAVSKY IGOR;;SIGNAEVSKY MAXIM;;SIGNAEVSKI MAXIM M;;YAROSLAVSKY IGOR YEHUDA</t>
-  </si>
-  <si>
-    <t>HUFF TALEANA;;RETALLICK JACOB;;WALUS CONRAD;;RASHIDI MOHAMMAD;;WOLKOW ROBERT A;;CROSHAW JEREMIAH;;WOLKOW ROBERT;;WALUS KONRAD;;VINE WYATT;;DIENEL THOMAS;;LIVADARU LUCIAN</t>
-  </si>
-  <si>
-    <t>BHASKAR MIHIR;;NGUYEN CHRISTIAN THIEU;;BHASKAR MIHIR KESHAV;;SIPAHIGIL ALP;;LUKIN MIKHAIL;;LUKIN MIKHAIL D;;NGUYEN CHRISTIAN;;CHOI SOONWON;;EVANS RUFFIN;;LUNKIN MIKHAIL;;WANG SHENGTAO;;EVANS RUFFIN E;;ZHOU LEO;;PICHLER HANNES;;ZHOU LEO XIANGYU;;SUKACHEV DENIS D;;SUKACHEV DENIS</t>
-  </si>
-  <si>
-    <t>BHATIA SWAPNIL;;PARK HYUNJUN;;LEAKE DEVIN;;BHATIA SWAPNIL P;;ROQUET NATHANIEL</t>
-  </si>
-  <si>
-    <t>BATTAGLINI JOSEPH S;;TIPTON THOMAS ANDREW;;CARROLL WILLIAM JOSEPH;;DUNST MICHAEL J;;MOLINSKY BRADLEY DEAN</t>
+    <t>TAIWAN SEMICONDUCTOR MFG;;TAIWAN SEMICONDUCTOR MFG CO LTD</t>
+  </si>
+  <si>
+    <t>グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;NIU YUEZHEN;;グーグル エルエルシー;;SMELYANSKIY VADIM;;NEVEN HARTMUT;;GOOGLE LLC;;CASTRILLO SERGIO BOIXO;;GOOGLE INC</t>
+  </si>
+  <si>
+    <t>란디그레드, 리미티드 라이어빌리티 컴퍼니;;LANDIGRAD LIMITED LIABILITY COMPANY;;LANDIGRAD LTD LIABILITY CO;;SMIRNOV SERGEY NIIKOLAYEVICH;;LANDIGRAD LLC;;OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD;;스미르노브, 세르게이 니콜라예비치;;SMIRNOV SERGEY;;SMIRNOV SERGEY NIKOLAYEVICH</t>
+  </si>
+  <si>
+    <t>国际商业机器公司;;IBM;;インターナショナル・ビジネス・マシーンズ・コーポレーションＩＮＴＥＲＮＡＴＩＯＮＡＬ ＢＵＳＩＮＥＳＳ ＭＡＣＨＩＮＥＳ ＣＯＲＰＯＲＡＴＩＯＮ</t>
+  </si>
+  <si>
+    <t>스미르노브, 세르게이 니콜라예비치;;LANDIGRAD LLC;;SMIRNOV SERGEY NIKOLAYEVICH;;란디그레드, 리미티드 라이어빌리티 컴퍼니</t>
+  </si>
+  <si>
+    <t>BROWN SIMON ANTHONY;;BOSE SAURABH KUMAR;;FOSTNER SHAWN;;THE UNIV OF CANTERBURY</t>
+  </si>
+  <si>
+    <t>グーグル エルエルシー;;BARENDS RAMI;;구글 엘엘씨;;GOOGLE LLC;;GOOGLE INC;;ラミ・バレントス</t>
+  </si>
+  <si>
+    <t>LANDIGRAD LIMITED LIABILITY COMPANY;;SMIRNOV SERGEY NIIKOLAYEVICH;;LANDIGRAD LTD LIABILITY CO;;LANDIGRAD LLC;;OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD;;SMIRNOV SERGEY;;SMIRNOV SERGEY NIKOLAYEVICH</t>
+  </si>
+  <si>
+    <t>グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;NIU YUEZHEN;;SMELYANSKIY VADIM;;NEVEN HARTMUT;;GOOGLE LLC;;CASTRILLO SERGIO BOIXO;;GOOGLE INC</t>
+  </si>
+  <si>
+    <t>MAXIM GEORGE ADRIAN;;ASKER MICHAEL ALBERT;;LEIPOLD DIRK ROBERT WALTER</t>
+  </si>
+  <si>
+    <t>STEFFEN MATTHIAS;;CHEN RICHARD;;MCCLURE III DOUGLAS TEMPLETON;;BISHOP LEV SAMUEL;;CORCOLES-GONZALEZ ANTONIO;;MARTIN FERNANDEZ FRANCISCO JOSE;;O·蒂亚尔;;ダイアル、オリバー;;マクルーア ザ サード、ダグラス、テンプルトン;;HASHEMI POUYA;;PHAN ANNA;;J·加姆贝塔;;GAMBETTA JAY M;;BISHOP LEV;;OLIVER DIAL;;ZHANG JINGYUN;;PRISCO JOSEPH F;;MATTHIAS STEFFEN;;NANNICINI GIACOMO;;DIAL OLIVER;;REZNICEK ALEXANDER;;PRZYBYLSKI KEVIN J;;HEKMATSHOARTABARI BAHMAN;;FARO SERTAGE ISMAEL;;JAY GAMBETTA;;DOUGLAS TEMPLETON MCCLURE III;;GAMBETTA JAY;;TEMME PAUL;;MISGEN MARVIN M;;M·斯蒂芬;;OLIVADESE SALVATORE;;JAVADIABHARI ALI;;KUCZYNSKI JOSEPH;;LIU PENG;;ANDO TAKASHI;;GREENBERG DON;;LEE CHOONGHYUN;;ガンベッタ、ジェイ;;D·T·麦克鲁尔三世;;TEMME PAUL KRISTAN;;OLIVADESE SALVATORE BERNARDO;;NEUMAN-HORN DEBRA A;;PISTOIA MARCO;;PHAN ANNA T;;MCCLURE III DOUGLAS T;;ステファン、マティアス</t>
+  </si>
+  <si>
+    <t>エドワード・ヘンリー・ファーリ;;ヴァディム・スメリャンスキー;;BABBUSH RYAN;;SMELYANSKIY VADIM;;NIU YUEZHEN;;NEVEN HARTMUT;;セルジオ・バイショ・カストリージョ;;BOIXO CASTRILLO SERGIO;;바엔즈 라미;;BARENDS RAMI;;ハルトムート・ネーフェン;;ユエゼン・ニウ;;ラミ・バレントス;;CASTRILLO SERGIO BOIXO;;NEVEN HELMUT;;ハルトムート・ネーヴェン;;FARHI EDWARD HENRY;;ライアン・バブシュ</t>
+  </si>
+  <si>
+    <t>JOHNSON BLAKE ROBERT;;TEZAK NIKOLAS ANTON;;SETE EYOB A;;OSBORN CHRISTOPHER BUTLER;;ZENG WILLIAM J;;DA SILVA MARCUS PALMER;;DAVIS ERIK JOSEPH;;CURTIS MICHAEL;;SETE EYOB;;SMITH ROBERT STANLEY;;LYNCH ADAM DAVID;;CURTIS MICHAEL J;;DESAI ANAND;;RIGETTI CHAD TYLER;;WILSON CHRISTOPHER MOGAN;;RUST MICHAEL;;JONES GLENN;;REAGOR MATTHEW J;;PETERSON ERIC CHRISTOPHER;;MCKIERNAN KERI ANN;;ZENG WILLIAM;;KARALEKAS PETER JONATHAN;;ALAM MUHAMMAD SOHAIB;;HEIDEL STEVEN</t>
+  </si>
+  <si>
+    <t>ANDRIYASH EVGENY A;;ROLFE JASON;;YARKONI SHEIR;;XUE YANBO;;BOOTHBY THOMAS J;;BOOTHBY KELLY T R;;MACREADY WILLIAM G;;AMIN MOHAMMAD H;;ANDRIYASH EVGENY;;AMIN MOHAMMAD H S;;KING ANDREW DOUGLAS;;LANTING TREVOR MICHAEL</t>
+  </si>
+  <si>
+    <t>王桂磊;;张严波;;RADAMSON HENRY H;;ZHU HUILONG;;朱慧珑;;朱正勇;;ZHANG YANBO;;WANG GUILEI;;HENRY H ADAMSON;;ZHU ZHENGYONG;;亨利·H·阿达姆松</t>
+  </si>
+  <si>
+    <t>마줌다 아룬;;MAJUMDAR ARUN;;アルン、マジュムダール</t>
+  </si>
+  <si>
+    <t>GAHROOSI AMIR BAHADOR;;MASILAMANI ASHOK PRABHU;;GOULD MATTHEW V;;GAHROOSI AMIR;;MASILAMANI ASHOK;;GOULD MATTHEW;;KHOMAMI ABADI MOJTABA</t>
+  </si>
+  <si>
+    <t>SIGNAEVSKI MAXIM M;;YAROSLAVSKY IGOR;;SIGNAEVSKY MAXIM;;YAROSLAVSKY IGOR YEHUDA</t>
+  </si>
+  <si>
+    <t>DIENEL THOMAS;;LIVADARU LUCIAN;;HUFF TALEANA;;VINE WYATT;;WALUS KONRAD;;CROSHAW JEREMIAH;;WOLKOW ROBERT;;RASHIDI MOHAMMAD;;RETALLICK JACOB;;WALUS CONRAD;;WOLKOW ROBERT A</t>
+  </si>
+  <si>
+    <t>EVANS RUFFIN;;ZHOU LEO XIANGYU;;WANG SHENGTAO;;EVANS RUFFIN E;;CHOI SOONWON;;SUKACHEV DENIS D;;LUNKIN MIKHAIL;;BHASKAR MIHIR KESHAV;;LUKIN MIKHAIL;;SUKACHEV DENIS;;PICHLER HANNES;;BHASKAR MIHIR;;LUKIN MIKHAIL D;;ZHOU LEO;;SIPAHIGIL ALP;;NGUYEN CHRISTIAN;;NGUYEN CHRISTIAN THIEU</t>
+  </si>
+  <si>
+    <t>LEAKE DEVIN;;ROQUET NATHANIEL;;BHATIA SWAPNIL P;;PARK HYUNJUN;;BHATIA SWAPNIL</t>
+  </si>
+  <si>
+    <t>MOLINSKY BRADLEY DEAN;;DUNST MICHAEL J;;CARROLL WILLIAM JOSEPH;;BATTAGLINI JOSEPH S;;TIPTON THOMAS ANDREW</t>
   </si>
   <si>
     <t>KAPIT ELIOT</t>
   </si>
   <si>
-    <t>KIM SANG-SIK;;CHO JIN-SUN;;SOHN IL KWON;;CHO KYOUNG-AH;;KIM SANG SIG;;WOO SOL A;;LIM DOO-HYEOK;;HEO JUN;;LIM DOO HYEOK;;PARK YOUNG-SOO;;CHO JIN SUN;;PARK YOUNG SOO;;WOO SOL-A;;CHO KYOUNG AH</t>
-  </si>
-  <si>
-    <t>VAHEDI VAHID;;バヘディ・バヘド;;GUHA JOYDEEP;;グーハ・ジョイディープ;;ダウガティ・ジョン;;GOTTSCHO RICHARD ALAN;;ゴットショ・リチャード・アラン;;DAUGHERTY JOHN</t>
-  </si>
-  <si>
-    <t>WIEBE NATHAN O;;NGUYEN BICHLIEN HOANG;;GRANADE CHRISTOPHER EVAN;;CHEN WEIDA;;KOHLL ALEXANDER XAVIER CHRISTOF;;B·H·阮;;GAMBLE JOHN KING;;STRAUSS KARIN;;GAMBLE IV JOHN KING;;A·X·C·科尔;;GRASS ROBERT;;R·格拉斯;;W·陈;;K·施特劳斯</t>
-  </si>
-  <si>
-    <t>ポール・エフ・プレドキ;;マジャ・キャシディ;;CASSIDY MAJA;;PREDKI PAUL F</t>
-  </si>
-  <si>
-    <t>ARIELI URI;;MREJEN MICHAEL;;NAGLER ACHIYA;;MALKIEL ITZIK;;WOLF LIOR;;SUCHOWSKI HAIM</t>
-  </si>
-  <si>
-    <t>ZHANG LIHONG;;NABAVI SEYEDFAKHREDDIN</t>
-  </si>
-  <si>
-    <t>DALLAIRE-DEMERS PIERRE-LUC;;KATABARWA AMARA;;JOHNSON PETER D;;GONTHIER JEROME FLORIAN;;CAO YUDONG;;ANSCHUETZ ERIC R</t>
-  </si>
-  <si>
-    <t>VARGO EMMA;;MARKOVIC STACEY;;HUANG HAIYAO;;FRANK IAN WARD;;SPRACHMAN MELISSA M;;FAVALORA GREGG E;;FAVALORA GREGG;;KOTZ KENNETH;;MCFARLAND KIRSTY;;MAGYAR ANDREW P;;ROSENBERGER ERIN;;KOTZ KENNETH T;;BYRNES STEVEN;;MCFARLAND KIRSTY A;;SPRACHMAN MELISSA;;MAGYAR ANDREW;;BYRNES STEVEN J;;CAVANAGH PETER;;DUBAY RYAN A;;FRANK IAN;;DUBAY RYAN</t>
+    <t>HEO JUN;;CHO JIN-SUN;;LIM DOO-HYEOK;;CHO KYOUNG AH;;KIM SANG SIG;;KIM SANG-SIK;;CHO JIN SUN;;PARK YOUNG SOO;;WOO SOL-A;;PARK YOUNG-SOO;;LIM DOO HYEOK;;CHO KYOUNG-AH;;SOHN IL KWON;;WOO SOL A</t>
+  </si>
+  <si>
+    <t>VAHEDI VAHID;;GOTTSCHO RICHARD ALAN;;ゴットショ・リチャード・アラン;;DAUGHERTY JOHN;;ダウガティ・ジョン;;GUHA JOYDEEP;;グーハ・ジョイディープ;;バヘディ・バヘド</t>
+  </si>
+  <si>
+    <t>GRASS ROBERT;;GAMBLE IV JOHN KING;;GAMBLE JOHN KING;;STRAUSS KARIN;;A·X·C·科尔;;GRANADE CHRISTOPHER EVAN;;B·H·阮;;R·格拉斯;;CHEN WEIDA;;KOHLL ALEXANDER XAVIER CHRISTOF;;WIEBE NATHAN O;;NGUYEN BICHLIEN HOANG;;W·陈;;K·施特劳斯</t>
+  </si>
+  <si>
+    <t>PREDKI PAUL F;;マジャ・キャシディ;;ポール・エフ・プレドキ;;CASSIDY MAJA</t>
+  </si>
+  <si>
+    <t>NAGLER ACHIYA;;WOLF LIOR;;MREJEN MICHAEL;;ARIELI URI;;SUCHOWSKI HAIM;;MALKIEL ITZIK</t>
+  </si>
+  <si>
+    <t>NABAVI SEYEDFAKHREDDIN;;ZHANG LIHONG</t>
+  </si>
+  <si>
+    <t>CAO YUDONG;;GONTHIER JEROME FLORIAN;;JOHNSON PETER D;;KATABARWA AMARA;;DALLAIRE-DEMERS PIERRE-LUC;;ANSCHUETZ ERIC R</t>
+  </si>
+  <si>
+    <t>KOTZ KENNETH T;;BYRNES STEVEN J;;MCFARLAND KIRSTY A;;MARKOVIC STACEY;;ROSENBERGER ERIN;;HUANG HAIYAO;;BYRNES STEVEN;;VARGO EMMA;;FRANK IAN;;KOTZ KENNETH;;CAVANAGH PETER;;DUBAY RYAN;;MAGYAR ANDREW;;MAGYAR ANDREW P;;DUBAY RYAN A;;FAVALORA GREGG;;FAVALORA GREGG E;;SPRACHMAN MELISSA M;;SPRACHMAN MELISSA;;FRANK IAN WARD;;MCFARLAND KIRSTY</t>
   </si>
   <si>
     <t>YOUNGNER DANIEL</t>
   </si>
   <si>
-    <t>GUILLOU DAVID FRANCOIS;;GUILLOU DAVID;;SINHA RAJARISHI</t>
-  </si>
-  <si>
-    <t>LANDIS STEPHAN;;CONSTANCIAS CHRISTOPHE;;LANDIS STÉPHAN</t>
-  </si>
-  <si>
-    <t>RAQUEL MARIA SANCHES-KUIPER;;HAYES MATTHEW JAMES;;SANCHES-KUIPER RAQUEL MARIA;;MATTHEW JAMES HAYES</t>
-  </si>
-  <si>
-    <t>GAMBETTA JAY;;OLIVADESE SALVATORE;;PISTOIA MARCO;;PHAN ANNA;;BISHOP LEV SAMUEL;;CORCOLES-GONZALEZ ANTONIO;;GAMBETTA JAY M;;CHEN RICHARD;;OLIVADESE SALVATORE BERNARDO;;STEFFEN MATTHIAS;;NANNICINI GIACOMO;;GREENBERG DON;;DIAL OLIVER;;MCCLURE III DOUGLAS T;;PHAN ANNA T;;TEMME PAUL KRISTAN;;MCCLURE III DOUGLAS TEMPLETON;;TEMME PAUL;;BISHOP LEV</t>
-  </si>
-  <si>
-    <t>张严波;;HENRY H ADAMSON;;ZHANG YANBO;;ZHU ZHENGYONG;;WANG GUILEI;;王桂磊;;朱慧珑;;亨利·H·阿达姆松;;ZHU HUILONG;;朱正勇</t>
-  </si>
-  <si>
-    <t>CASSIDY MAJA;;PREDKI PAUL F</t>
-  </si>
-  <si>
-    <t>ANDRIYASH EVGENY A;;BOOTHBY THOMAS J;;KING ANDREW DOUGLAS;;ROLFE JASON;;ANDRIYASH EVGENY;;AMIN MOHAMMAD H;;YARKONI SHEIR;;LANTING TREVOR MICHAEL;;AMIN MOHAMMAD H S</t>
-  </si>
-  <si>
-    <t>FAUVART MAARTEN;;COVENS KRIS;;CAI QING;;ADELMANN HANNS CHRISTOPH;;CHEN CHANG;;CIUBOTARU FLORIN;;STAKENBORG TIM;;COSTA JOSE DIOGO</t>
-  </si>
-  <si>
-    <t>TRESP VOLKER;;MA YUNPU</t>
-  </si>
-  <si>
-    <t>POOSER RAPHAEL C;;LAWRIE BENJAMIN J;;MAKSYMOVYCH PETRO</t>
+    <t>GUILLOU DAVID FRANCOIS;;SINHA RAJARISHI;;GUILLOU DAVID</t>
+  </si>
+  <si>
+    <t>CONSTANCIAS CHRISTOPHE;;LANDIS STEPHAN;;LANDIS STÉPHAN</t>
+  </si>
+  <si>
+    <t>MATTHEW JAMES HAYES;;SANCHES-KUIPER RAQUEL MARIA;;RAQUEL MARIA SANCHES-KUIPER;;HAYES MATTHEW JAMES</t>
+  </si>
+  <si>
+    <t>STEFFEN MATTHIAS;;CHEN RICHARD;;MCCLURE III DOUGLAS TEMPLETON;;BISHOP LEV SAMUEL;;CORCOLES-GONZALEZ ANTONIO;;PHAN ANNA;;GAMBETTA JAY M;;BISHOP LEV;;NANNICINI GIACOMO;;DIAL OLIVER;;GAMBETTA JAY;;TEMME PAUL;;OLIVADESE SALVATORE;;GREENBERG DON;;TEMME PAUL KRISTAN;;OLIVADESE SALVATORE BERNARDO;;PISTOIA MARCO;;PHAN ANNA T;;MCCLURE III DOUGLAS T</t>
+  </si>
+  <si>
+    <t>王桂磊;;张严波;;ZHU HUILONG;;朱慧珑;;朱正勇;;ZHANG YANBO;;WANG GUILEI;;HENRY H ADAMSON;;ZHU ZHENGYONG;;亨利·H·阿达姆松</t>
+  </si>
+  <si>
+    <t>PREDKI PAUL F;;CASSIDY MAJA</t>
+  </si>
+  <si>
+    <t>ANDRIYASH EVGENY A;;ROLFE JASON;;YARKONI SHEIR;;BOOTHBY THOMAS J;;AMIN MOHAMMAD H;;ANDRIYASH EVGENY;;AMIN MOHAMMAD H S;;KING ANDREW DOUGLAS;;LANTING TREVOR MICHAEL</t>
+  </si>
+  <si>
+    <t>CIUBOTARU FLORIN;;ADELMANN HANNS CHRISTOPH;;CAI QING;;FAUVART MAARTEN;;COVENS KRIS;;STAKENBORG TIM;;CHEN CHANG;;COSTA JOSE DIOGO</t>
+  </si>
+  <si>
+    <t>MA YUNPU;;TRESP VOLKER</t>
+  </si>
+  <si>
+    <t>MAKSYMOVYCH PETRO;;POOSER RAPHAEL C;;LAWRIE BENJAMIN J</t>
   </si>
   <si>
     <t>RIZIK LUNA;;DANIEL RAMEZ</t>
   </si>
   <si>
-    <t>YAZDI S M HOSSEIN TABATABAEI;;MILENKOVIC OLGICA;;GABRYS RYAN</t>
+    <t>MILENKOVIC OLGICA;;GABRYS RYAN;;YAZDI S M HOSSEIN TABATABAEI</t>
   </si>
   <si>
     <t>안도열;;AHN DO YEOL</t>
@@ -904,46 +910,46 @@
     <t>GHOSH TAPABRATA</t>
   </si>
   <si>
-    <t>GAO JUNXIONG;;ZHU YU;;ZHOU WENLI;;CHENG RUNHONG;;WU SHUO;;WANG YUNBO;;CHEN CHANGSHENG</t>
-  </si>
-  <si>
-    <t>REN DELIANG;;YAN XIAOBING;;WANG KAIYANG</t>
-  </si>
-  <si>
-    <t>SLINKER KEITH;;MAGAR KAMAN THAPA;;DICKINSON BENJAMIN T;;BAUR JEFFREY W;;KONDASH COREY R;;REICH GREGORY W;;PANKONIEN ALEXANDER M</t>
+    <t>ZHOU WENLI;;GAO JUNXIONG;;WU SHUO;;ZHU YU;;CHEN CHANGSHENG;;WANG YUNBO;;CHENG RUNHONG</t>
+  </si>
+  <si>
+    <t>YAN XIAOBING;;REN DELIANG;;WANG KAIYANG</t>
+  </si>
+  <si>
+    <t>BAUR JEFFREY W;;KONDASH COREY R;;DICKINSON BENJAMIN T;;SLINKER KEITH;;PANKONIEN ALEXANDER M;;REICH GREGORY W;;MAGAR KAMAN THAPA</t>
   </si>
   <si>
     <t>NIVALA JEFFREY MATTHEW</t>
   </si>
   <si>
-    <t>WANG WEI;;WANG ZEHONG;;CHEN YIXIANG;;YU DAN</t>
-  </si>
-  <si>
-    <t>SANGWAN VINOD K;;LEE HONG-SUB;;HERSAM MARK C</t>
-  </si>
-  <si>
-    <t>JIANG ZHUOLIN;;SIU MAN-HUNG;;FONG KIN CHUNG</t>
-  </si>
-  <si>
-    <t>TAKATSUKI HIDEYO;;REUTHER CORDULA;;DIEZ STEFAN;;MANSSON ALF;;KORTEN TILL</t>
-  </si>
-  <si>
-    <t>TAN WEE CHONG;;ANG KAH-WEE</t>
-  </si>
-  <si>
-    <t>XU JUN;;LIU YU;;LIANG RENRONG;;ZHAO LINYUAN</t>
+    <t>CHEN YIXIANG;;WANG ZEHONG;;WANG WEI;;YU DAN</t>
+  </si>
+  <si>
+    <t>HERSAM MARK C;;SANGWAN VINOD K;;LEE HONG-SUB</t>
+  </si>
+  <si>
+    <t>FONG KIN CHUNG;;JIANG ZHUOLIN;;SIU MAN-HUNG</t>
+  </si>
+  <si>
+    <t>REUTHER CORDULA;;KORTEN TILL;;DIEZ STEFAN;;MANSSON ALF;;TAKATSUKI HIDEYO</t>
+  </si>
+  <si>
+    <t>ANG KAH-WEE;;TAN WEE CHONG</t>
+  </si>
+  <si>
+    <t>ZHAO LINYUAN;;LIU YU;;XU JUN;;LIANG RENRONG</t>
   </si>
   <si>
     <t>AGGARWAL PRIYANKA;;CHODAVARAPU VAMSY</t>
   </si>
   <si>
-    <t>HEO KEUN;;LEE HYUNG DONG;;CHOI YONG SOO;;CHOI YONG-SOO;;LEE HYUNG-DONG</t>
-  </si>
-  <si>
-    <t>WU QING;;XIA QIANGFEI;;MCLEAN MARK;;YANG JIANHUA</t>
-  </si>
-  <si>
-    <t>BOOTHBY KELLY T R;;ANDRIYASH EVGENY A;;KING ANDREW DOUGLAS;;BOOTHBY THOMAS J;;AMIN MOHAMMAD H;;YARKONI SHEIR;;LANTING TREVOR MICHAEL</t>
+    <t>CHOI YONG SOO;;LEE HYUNG-DONG;;CHOI YONG-SOO;;LEE HYUNG DONG;;HEO KEUN</t>
+  </si>
+  <si>
+    <t>XIA QIANGFEI;;WU QING;;YANG JIANHUA;;MCLEAN MARK</t>
+  </si>
+  <si>
+    <t>ANDRIYASH EVGENY A;;YARKONI SHEIR;;BOOTHBY THOMAS J;;BOOTHBY KELLY T R;;AMIN MOHAMMAD H;;KING ANDREW DOUGLAS;;LANTING TREVOR MICHAEL</t>
   </si>
   <si>
     <t>ZHANG XIANGCHENG;;WU JIAN</t>
@@ -952,22 +958,22 @@
     <t>ZORNES DAVID</t>
   </si>
   <si>
-    <t>Huilong Zhu;;Zhengyong Zhu</t>
-  </si>
-  <si>
-    <t>YOUNG IAN A;;NIKONOV DMITRI E;;MANIPATRUNI SASIKANTH</t>
+    <t>Zhengyong Zhu;;Huilong Zhu</t>
+  </si>
+  <si>
+    <t>NIKONOV DMITRI E;;YOUNG IAN A;;MANIPATRUNI SASIKANTH</t>
   </si>
   <si>
     <t>ZHU HUILONG</t>
   </si>
   <si>
-    <t>NEVEN HARTMUT;;ハルトムート・ネーヴェン;;ライアン・バブシュ;;エドワード・ヘンリー・ファーリ;;FARHI EDWARD HENRY;;BARENDS RAMI;;바엔즈 라미;;BABBUSH RYAN;;ラミ・バレントス</t>
-  </si>
-  <si>
-    <t>FAROKHZAD OMID;;CORBO CLAUDIA;;MAHMOUDI MORTEZA</t>
-  </si>
-  <si>
-    <t>SALAHANDISH RAZIEH;;WANG GANG;;KOUL RAMAN;;KAPOOR ANMOL SINGH;;VASTAREY NIKHIL SURESH;;BHAT SUMRITA;;WANG GANG (A K A JOSEPH)</t>
+    <t>エドワード・ヘンリー・ファーリ;;BABBUSH RYAN;;NEVEN HARTMUT;;BARENDS RAMI;;ラミ・バレントス;;바엔즈 라미;;ハルトムート・ネーヴェン;;FARHI EDWARD HENRY;;ライアン・バブシュ</t>
+  </si>
+  <si>
+    <t>MAHMOUDI MORTEZA;;FAROKHZAD OMID;;CORBO CLAUDIA</t>
+  </si>
+  <si>
+    <t>BHAT SUMRITA;;KAPOOR ANMOL SINGH;;VASTAREY NIKHIL SURESH;;WANG GANG;;SALAHANDISH RAZIEH;;KOUL RAMAN;;WANG GANG (A K A JOSEPH)</t>
   </si>
   <si>
     <t>SHIMA SHOHEI</t>
@@ -976,76 +982,70 @@
     <t>KIM CHIHO;;RAMPRASAD RAMPI;;CHANDRASEKARAN ANAND</t>
   </si>
   <si>
-    <t>NEVEN HARTMUT;;BOIXO CASTRILLO SERGIO;;セルジオ・バイショ・カストリージョ;;SMELYANSKIY VADIM;;ユエゼン・ニウ;;CASTRILLO SERGIO BOIXO;;ハルトムート・ネーフェン;;ヴァディム・スメリャンスキー;;BARENDS RAMI;;바엔즈 라미;;BABBUSH RYAN;;NIU YUEZHEN;;ラミ・バレントス</t>
-  </si>
-  <si>
-    <t>フォスナー ショーン;;ブラウン シモン アンソニー;;ボーズ サウラブ クマー;;FOSTNER SHAWN;;BOSE SAURABH KUMAR;;BROWN SIMON ANTHONY</t>
-  </si>
-  <si>
-    <t>CHOI JEONG WOO;;최정우;;정용호;;CHUNG YONG HO</t>
-  </si>
-  <si>
-    <t>李源;;LI YUAN;;张辉;;ZHANG JIN;;幸研;;XING YAN;;张晋;;ZHANG HUI</t>
-  </si>
-  <si>
-    <t>NGUYEN BICHLIEN HOANG;;CHEN WEIDA;;KOHLL ALEXANDER XAVIER CHRISTOF;;B·H·阮;;STRAUSS KARIN;;A·X·C·科尔;;GRASS ROBERT;;R·格拉斯;;W·陈;;K·施特劳斯</t>
+    <t>ヴァディム・スメリャンスキー;;BABBUSH RYAN;;NIU YUEZHEN;;SMELYANSKIY VADIM;;NEVEN HARTMUT;;セルジオ・バイショ・カストリージョ;;BOIXO CASTRILLO SERGIO;;ハルトムート・ネーフェン;;ユエゼン・ニウ;;ラミ・バレントス;;CASTRILLO SERGIO BOIXO;;바엔즈 라미;;BARENDS RAMI</t>
+  </si>
+  <si>
+    <t>BROWN SIMON ANTHONY;;FOSTNER SHAWN;;BOSE SAURABH KUMAR;;フォスナー ショーン;;ボーズ サウラブ クマー;;ブラウン シモン アンソニー</t>
+  </si>
+  <si>
+    <t>정용호;;최정우;;CHOI JEONG WOO;;CHUNG YONG HO</t>
+  </si>
+  <si>
+    <t>LI YUAN;;ZHANG HUI;;张辉;;幸研;;XING YAN;;ZHANG JIN;;李源;;张晋</t>
+  </si>
+  <si>
+    <t>GRASS ROBERT;;STRAUSS KARIN;;A·X·C·科尔;;B·H·阮;;R·格拉斯;;CHEN WEIDA;;KOHLL ALEXANDER XAVIER CHRISTOF;;NGUYEN BICHLIEN HOANG;;W·陈;;K·施特劳斯</t>
   </si>
   <si>
     <t>SHINKAI GOU;;新海 剛</t>
   </si>
   <si>
-    <t>李伟;;LI WEI;;钟豪;;LI DONGYANG;;GU DEEN;;顾德恩;;李东阳;;CHEN YICHENG;;ZHONG HAO;;JIANG YADONG;;蒋亚东;;陈奕丞;;GU DE'EN</t>
-  </si>
-  <si>
-    <t>FAROOQ AHMAD;;정영민;;JEONG YOUNG MIN;;SHIN HYUN DONG;;파쿼 아마드;;신현동</t>
-  </si>
-  <si>
-    <t>PREDKI PAUL F;;ポール・エフ・プレドキ;;CASSIDY MAJA;;マジャ・キャシディ</t>
-  </si>
-  <si>
-    <t>JIANG WEINAN;;YU XING</t>
-  </si>
-  <si>
-    <t>TRINH XUAN TUNG;;김진배;;HA KIEU MY;;윤태현;;YOON TAE HYUN;;하키우;;트린수안텅;;KIM JIN BAE</t>
-  </si>
-  <si>
-    <t>DOORNBOS GERBEN;;MAURICIO MANFRINI;;MANFRINI MAURICIO;;VAN DAL MARCUS JOHANNES HENRICUS;;GERBEN DOORNBOS;;MARCUS JOHANNES HENRICUS VAN DAL</t>
-  </si>
-  <si>
-    <t>BHATIA SWAPNIL P;;ROQUET NATHANIEL;;PARK HYUNJUN;;LEAKE DEVIN</t>
-  </si>
-  <si>
-    <t>NEVEN HARTMUT;;BOIXO CASTRILLO SERGIO;;セルジオ・バイショ・カストリージョ;;ハルトムート・ネーヴェン;;SMELYANSKIY VADIM;;ユエゼン・ニウ;;エドワード・ヘンリー・ファーリ;;ハルトムート・ネーフェン;;FARHI EDWARD HENRY;;ヴァディム・スメリャンスキー;;NIU YUEZHEN;;CASTRILLO SERGIO BOIXO</t>
-  </si>
-  <si>
-    <t>스미르노브, 세르게이 니콜라예비치;;SMIRNOV SERGEJ NIKOLAEVICH;;SMIRNOV SERGEY NIIKOLAYEVICH;;SMIRNOV SERGEY NIKOLAYEVICH</t>
-  </si>
-  <si>
-    <t>마줌다 아룬;;MAJUMDAR ARUN;;アルン、マジュムダール</t>
-  </si>
-  <si>
-    <t>ADELMANN HANNS CHRISTOPH;;COSTA JOSE DIOGO;;CIUBOTARU FLORIN</t>
-  </si>
-  <si>
-    <t>GAMBETTA JAY;;DIAL OLIVER;;GAMBETTA JAY M;;MCCLURE III DOUGLAS TEMPLETON;;MCCLURE III DOUGLAS T;;STEFFEN MATTHIAS</t>
-  </si>
-  <si>
-    <t>GAMBETTA JAY;;OLIVER DIAL;;D·T·麦克鲁尔三世;;DIAL OLIVER;;DOUGLAS TEMPLETON MCCLURE III;;J·加姆贝塔;;MCCLURE III DOUGLAS TEMPLETON;;O·蒂亚尔;;マクルーア ザ サード、ダグラス、テンプルトン;;JAY GAMBETTA;;ガンベッタ、ジェイ;;STEFFEN MATTHIAS;;ステファン、マティアス;;M·斯蒂芬;;ダイアル、オリバー;;MATTHIAS STEFFEN</t>
-  </si>
-  <si>
-    <t>스미르노브, 세르게이 니콜라예비치;;SMIRNOV SERGEY NIKOLAYEVICH</t>
-  </si>
-  <si>
-    <t>FOSTNER SHAWN;;BOSE SAURABH KUMAR;;BROWN SIMON ANTHONY</t>
-  </si>
-  <si>
-    <t>BARENDS RAMI;;바엔즈 라미;;ラミ・バレントス</t>
-  </si>
-  <si>
-    <t>SMIRNOV SERGEJ NIKOLAEVICH;;SMIRNOV SERGEY NIIKOLAYEVICH;;SMIRNOV SERGEY NIKOLAYEVICH</t>
-  </si>
-  <si>
-    <t>NEVEN HARTMUT;;BOIXO CASTRILLO SERGIO;;セルジオ・バイショ・カストリージョ;;SMELYANSKIY VADIM;;ユエゼン・ニウ;;ハルトムート・ネーフェン;;ヴァディム・スメリャンスキー;;NIU YUEZHEN;;CASTRILLO SERGIO BOIXO</t>
+    <t>JIANG YADONG;;ZHONG HAO;;LI WEI;;钟豪;;CHEN YICHENG;;陈奕丞;;蒋亚东;;李东阳;;GU DE'EN;;李伟;;顾德恩;;GU DEEN;;LI DONGYANG</t>
+  </si>
+  <si>
+    <t>파쿼 아마드;;JEONG YOUNG MIN;;정영민;;SHIN HYUN DONG;;FAROOQ AHMAD;;신현동</t>
+  </si>
+  <si>
+    <t>YU XING;;JIANG WEINAN</t>
+  </si>
+  <si>
+    <t>윤태현;;TRINH XUAN TUNG;;하키우;;HA KIEU MY;;김진배;;YOON TAE HYUN;;KIM JIN BAE;;트린수안텅</t>
+  </si>
+  <si>
+    <t>MANFRINI MAURICIO;;VAN DAL MARCUS JOHANNES HENRICUS;;DOORNBOS GERBEN;;MAURICIO MANFRINI;;GERBEN DOORNBOS;;MARCUS JOHANNES HENRICUS VAN DAL</t>
+  </si>
+  <si>
+    <t>PARK HYUNJUN;;LEAKE DEVIN;;ROQUET NATHANIEL;;BHATIA SWAPNIL P</t>
+  </si>
+  <si>
+    <t>エドワード・ヘンリー・ファーリ;;ヴァディム・スメリャンスキー;;NIU YUEZHEN;;SMELYANSKIY VADIM;;NEVEN HARTMUT;;セルジオ・バイショ・カストリージョ;;BOIXO CASTRILLO SERGIO;;ハルトムート・ネーフェン;;ユエゼン・ニウ;;CASTRILLO SERGIO BOIXO;;ハルトムート・ネーヴェン;;FARHI EDWARD HENRY</t>
+  </si>
+  <si>
+    <t>SMIRNOV SERGEY NIIKOLAYEVICH;;SMIRNOV SERGEY NIKOLAYEVICH;;스미르노브, 세르게이 니콜라예비치;;SMIRNOV SERGEJ NIKOLAEVICH</t>
+  </si>
+  <si>
+    <t>CIUBOTARU FLORIN;;COSTA JOSE DIOGO;;ADELMANN HANNS CHRISTOPH</t>
+  </si>
+  <si>
+    <t>STEFFEN MATTHIAS;;GAMBETTA JAY M;;MCCLURE III DOUGLAS TEMPLETON;;GAMBETTA JAY;;DIAL OLIVER;;MCCLURE III DOUGLAS T</t>
+  </si>
+  <si>
+    <t>STEFFEN MATTHIAS;;JAY GAMBETTA;;MCCLURE III DOUGLAS TEMPLETON;;OLIVER DIAL;;MATTHIAS STEFFEN;;DOUGLAS TEMPLETON MCCLURE III;;ガンベッタ、ジェイ;;GAMBETTA JAY;;D·T·麦克鲁尔三世;;O·蒂亚尔;;M·斯蒂芬;;DIAL OLIVER;;ダイアル、オリバー;;マクルーア ザ サード、ダグラス、テンプルトン;;ステファン、マティアス;;J·加姆贝塔</t>
+  </si>
+  <si>
+    <t>SMIRNOV SERGEY NIKOLAYEVICH;;스미르노브, 세르게이 니콜라예비치</t>
+  </si>
+  <si>
+    <t>BROWN SIMON ANTHONY;;BOSE SAURABH KUMAR;;FOSTNER SHAWN</t>
+  </si>
+  <si>
+    <t>바엔즈 라미;;BARENDS RAMI;;ラミ・バレントス</t>
+  </si>
+  <si>
+    <t>SMIRNOV SERGEY NIKOLAYEVICH;;SMIRNOV SERGEY NIIKOLAYEVICH;;SMIRNOV SERGEJ NIKOLAEVICH</t>
+  </si>
+  <si>
+    <t>ヴァディム・スメリャンスキー;;NIU YUEZHEN;;SMELYANSKIY VADIM;;セルジオ・バイショ・カストリージョ;;NEVEN HARTMUT;;BOIXO CASTRILLO SERGIO;;ハルトムート・ネーフェン;;ユエゼン・ニウ;;CASTRILLO SERGIO BOIXO</t>
   </si>
 </sst>
 </file>
@@ -1521,7 +1521,7 @@
         <v>148</v>
       </c>
       <c r="J2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K2" t="s">
         <v>148</v>
@@ -1545,7 +1545,7 @@
         <v>29</v>
       </c>
       <c r="R2" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="S2" t="b">
         <v>0</v>
@@ -1616,7 +1616,7 @@
         <v>148</v>
       </c>
       <c r="L3" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -1631,10 +1631,10 @@
         <v>5</v>
       </c>
       <c r="Q3" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="R3" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="S3" t="b">
         <v>0</v>
@@ -1705,7 +1705,7 @@
         <v>148</v>
       </c>
       <c r="L4" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="M4">
         <v>0.1666666666666667</v>
@@ -1720,10 +1720,10 @@
         <v>6</v>
       </c>
       <c r="Q4" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="R4" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="S4" t="b">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>32</v>
       </c>
       <c r="R5" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="S5" t="b">
         <v>0</v>
@@ -1898,10 +1898,10 @@
         <v>2</v>
       </c>
       <c r="Q6" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="R6" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="S6" t="b">
         <v>0</v>
@@ -1966,13 +1966,13 @@
         <v>148</v>
       </c>
       <c r="J7" t="s">
-        <v>160</v>
+        <v>182</v>
       </c>
       <c r="K7" t="s">
         <v>157</v>
       </c>
       <c r="L7" t="s">
-        <v>160</v>
+        <v>182</v>
       </c>
       <c r="M7">
         <v>0.8333333333333333</v>
@@ -1987,10 +1987,10 @@
         <v>2</v>
       </c>
       <c r="Q7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="R7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="S7" t="b">
         <v>0</v>
@@ -2055,7 +2055,7 @@
         <v>150</v>
       </c>
       <c r="J8" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K8" t="s">
         <v>148</v>
@@ -2076,10 +2076,10 @@
         <v>3</v>
       </c>
       <c r="Q8" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="R8" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="S8" t="b">
         <v>0</v>
@@ -2138,13 +2138,13 @@
         <v>148</v>
       </c>
       <c r="J9" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K9" t="s">
         <v>148</v>
       </c>
       <c r="L9" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -2162,7 +2162,7 @@
         <v>36</v>
       </c>
       <c r="R9" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="S9" t="b">
         <v>0</v>
@@ -2227,7 +2227,7 @@
         <v>148</v>
       </c>
       <c r="J10" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K10" t="s">
         <v>148</v>
@@ -2251,7 +2251,7 @@
         <v>37</v>
       </c>
       <c r="R10" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="S10" t="b">
         <v>0</v>
@@ -2310,13 +2310,13 @@
         <v>149</v>
       </c>
       <c r="J11" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="K11" t="s">
         <v>148</v>
       </c>
       <c r="L11" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -2334,7 +2334,7 @@
         <v>38</v>
       </c>
       <c r="R11" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="S11" t="b">
         <v>0</v>
@@ -2393,7 +2393,7 @@
         <v>149</v>
       </c>
       <c r="J12" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K12" t="s">
         <v>148</v>
@@ -2417,7 +2417,7 @@
         <v>39</v>
       </c>
       <c r="R12" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="S12" t="b">
         <v>0</v>
@@ -2476,7 +2476,7 @@
         <v>148</v>
       </c>
       <c r="J13" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K13" t="s">
         <v>148</v>
@@ -2497,10 +2497,10 @@
         <v>0</v>
       </c>
       <c r="Q13" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="R13" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="S13" t="b">
         <v>0</v>
@@ -2586,10 +2586,10 @@
         <v>3</v>
       </c>
       <c r="Q14" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="R14" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="S14" t="b">
         <v>0</v>
@@ -2737,7 +2737,7 @@
         <v>151</v>
       </c>
       <c r="J16" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K16" t="s">
         <v>148</v>
@@ -2761,7 +2761,7 @@
         <v>43</v>
       </c>
       <c r="R16" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="S16" t="b">
         <v>0</v>
@@ -2826,7 +2826,7 @@
         <v>152</v>
       </c>
       <c r="J17" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K17" t="s">
         <v>165</v>
@@ -2850,7 +2850,7 @@
         <v>44</v>
       </c>
       <c r="R17" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="S17" t="b">
         <v>0</v>
@@ -2915,7 +2915,7 @@
         <v>148</v>
       </c>
       <c r="J18" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K18" t="s">
         <v>148</v>
@@ -2936,10 +2936,10 @@
         <v>2</v>
       </c>
       <c r="Q18" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="R18" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="S18" t="b">
         <v>0</v>
@@ -2998,7 +2998,7 @@
         <v>153</v>
       </c>
       <c r="J19" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K19" t="s">
         <v>148</v>
@@ -3019,10 +3019,10 @@
         <v>0</v>
       </c>
       <c r="Q19" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="R19" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="S19" t="b">
         <v>0</v>
@@ -3087,7 +3087,7 @@
         <v>148</v>
       </c>
       <c r="J20" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K20" t="s">
         <v>148</v>
@@ -3108,10 +3108,10 @@
         <v>1</v>
       </c>
       <c r="Q20" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="R20" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="S20" t="b">
         <v>0</v>
@@ -3176,13 +3176,13 @@
         <v>154</v>
       </c>
       <c r="J21" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K21" t="s">
         <v>148</v>
       </c>
       <c r="L21" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -3200,7 +3200,7 @@
         <v>48</v>
       </c>
       <c r="R21" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="S21" t="b">
         <v>0</v>
@@ -3259,13 +3259,13 @@
         <v>154</v>
       </c>
       <c r="J22" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K22" t="s">
         <v>148</v>
       </c>
       <c r="L22" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -3283,7 +3283,7 @@
         <v>49</v>
       </c>
       <c r="R22" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="S22" t="b">
         <v>0</v>
@@ -3366,7 +3366,7 @@
         <v>50</v>
       </c>
       <c r="R23" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="S23" t="b">
         <v>0</v>
@@ -3425,7 +3425,7 @@
         <v>153</v>
       </c>
       <c r="J24" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K24" t="s">
         <v>148</v>
@@ -3449,7 +3449,7 @@
         <v>51</v>
       </c>
       <c r="R24" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="S24" t="b">
         <v>0</v>
@@ -3514,7 +3514,7 @@
         <v>148</v>
       </c>
       <c r="J25" t="s">
-        <v>158</v>
+        <v>194</v>
       </c>
       <c r="K25" t="s">
         <v>148</v>
@@ -3538,7 +3538,7 @@
         <v>52</v>
       </c>
       <c r="R25" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="S25" t="b">
         <v>0</v>
@@ -3603,7 +3603,7 @@
         <v>153</v>
       </c>
       <c r="J26" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K26" t="s">
         <v>148</v>
@@ -3627,7 +3627,7 @@
         <v>53</v>
       </c>
       <c r="R26" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="S26" t="b">
         <v>0</v>
@@ -3692,13 +3692,13 @@
         <v>155</v>
       </c>
       <c r="J27" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="K27" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="L27" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="M27">
         <v>0</v>
@@ -3716,7 +3716,7 @@
         <v>54</v>
       </c>
       <c r="R27" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="S27" t="b">
         <v>0</v>
@@ -3781,13 +3781,13 @@
         <v>156</v>
       </c>
       <c r="J28" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="K28" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="L28" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="M28">
         <v>0</v>
@@ -3805,7 +3805,7 @@
         <v>55</v>
       </c>
       <c r="R28" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="S28" t="b">
         <v>0</v>
@@ -3870,7 +3870,7 @@
         <v>153</v>
       </c>
       <c r="J29" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K29" t="s">
         <v>148</v>
@@ -3891,10 +3891,10 @@
         <v>1</v>
       </c>
       <c r="Q29" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="R29" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="S29" t="b">
         <v>0</v>
@@ -3959,7 +3959,7 @@
         <v>157</v>
       </c>
       <c r="J30" t="s">
-        <v>160</v>
+        <v>182</v>
       </c>
       <c r="K30" t="s">
         <v>157</v>
@@ -3980,10 +3980,10 @@
         <v>2</v>
       </c>
       <c r="Q30" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="R30" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="S30" t="b">
         <v>0</v>
@@ -4048,7 +4048,7 @@
         <v>153</v>
       </c>
       <c r="J31" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K31" t="s">
         <v>148</v>
@@ -4069,10 +4069,10 @@
         <v>1</v>
       </c>
       <c r="Q31" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="R31" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="S31" t="b">
         <v>0</v>
@@ -4158,10 +4158,10 @@
         <v>2</v>
       </c>
       <c r="Q32" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="R32" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="S32" t="b">
         <v>0</v>
@@ -4220,13 +4220,13 @@
         <v>158</v>
       </c>
       <c r="J33" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="K33" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="L33" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="M33">
         <v>0</v>
@@ -4241,10 +4241,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="R33" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="S33" t="b">
         <v>0</v>
@@ -4327,7 +4327,7 @@
         <v>61</v>
       </c>
       <c r="R34" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="S34" t="b">
         <v>0</v>
@@ -4410,7 +4410,7 @@
         <v>62</v>
       </c>
       <c r="R35" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="S35" t="b">
         <v>0</v>
@@ -4493,7 +4493,7 @@
         <v>63</v>
       </c>
       <c r="R36" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="S36" t="b">
         <v>0</v>
@@ -4576,7 +4576,7 @@
         <v>64</v>
       </c>
       <c r="R37" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="S37" t="b">
         <v>0</v>
@@ -4662,10 +4662,10 @@
         <v>2</v>
       </c>
       <c r="Q38" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="R38" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="S38" t="b">
         <v>0</v>
@@ -4748,7 +4748,7 @@
         <v>66</v>
       </c>
       <c r="R39" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="S39" t="b">
         <v>0</v>
@@ -4831,7 +4831,7 @@
         <v>67</v>
       </c>
       <c r="R40" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="S40" t="b">
         <v>0</v>
@@ -4890,7 +4890,7 @@
         <v>160</v>
       </c>
       <c r="J41" t="s">
-        <v>160</v>
+        <v>182</v>
       </c>
       <c r="K41" t="s">
         <v>157</v>
@@ -4914,7 +4914,7 @@
         <v>68</v>
       </c>
       <c r="R41" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="S41" t="b">
         <v>0</v>
@@ -4997,7 +4997,7 @@
         <v>69</v>
       </c>
       <c r="R42" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="S42" t="b">
         <v>0</v>
@@ -5080,7 +5080,7 @@
         <v>70</v>
       </c>
       <c r="R43" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="S43" t="b">
         <v>0</v>
@@ -5163,7 +5163,7 @@
         <v>71</v>
       </c>
       <c r="R44" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="S44" t="b">
         <v>0</v>
@@ -5246,7 +5246,7 @@
         <v>72</v>
       </c>
       <c r="R45" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="S45" t="b">
         <v>0</v>
@@ -5329,7 +5329,7 @@
         <v>73</v>
       </c>
       <c r="R46" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="S46" t="b">
         <v>0</v>
@@ -5397,10 +5397,10 @@
         <v>149</v>
       </c>
       <c r="K47" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="L47" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="M47">
         <v>0</v>
@@ -5418,7 +5418,7 @@
         <v>74</v>
       </c>
       <c r="R47" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="S47" t="b">
         <v>0</v>
@@ -5480,10 +5480,10 @@
         <v>149</v>
       </c>
       <c r="K48" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="L48" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="M48">
         <v>0</v>
@@ -5501,7 +5501,7 @@
         <v>75</v>
       </c>
       <c r="R48" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="S48" t="b">
         <v>0</v>
@@ -5584,7 +5584,7 @@
         <v>76</v>
       </c>
       <c r="R49" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="S49" t="b">
         <v>0</v>
@@ -5667,7 +5667,7 @@
         <v>77</v>
       </c>
       <c r="R50" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="S50" t="b">
         <v>0</v>
@@ -5756,7 +5756,7 @@
         <v>78</v>
       </c>
       <c r="R51" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="S51" t="b">
         <v>0</v>
@@ -5839,7 +5839,7 @@
         <v>79</v>
       </c>
       <c r="R52" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="S52" t="b">
         <v>0</v>
@@ -5904,7 +5904,7 @@
         <v>154</v>
       </c>
       <c r="J53" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K53" t="s">
         <v>148</v>
@@ -5925,10 +5925,10 @@
         <v>1</v>
       </c>
       <c r="Q53" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="R53" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="S53" t="b">
         <v>1</v>
@@ -6011,7 +6011,7 @@
         <v>81</v>
       </c>
       <c r="R54" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="S54" t="b">
         <v>0</v>
@@ -6094,7 +6094,7 @@
         <v>82</v>
       </c>
       <c r="R55" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="S55" t="b">
         <v>0</v>
@@ -6177,7 +6177,7 @@
         <v>83</v>
       </c>
       <c r="R56" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="S56" t="b">
         <v>0</v>
@@ -6263,10 +6263,10 @@
         <v>2</v>
       </c>
       <c r="Q57" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="R57" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="S57" t="b">
         <v>0</v>
@@ -6355,7 +6355,7 @@
         <v>85</v>
       </c>
       <c r="R58" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="S58" t="b">
         <v>0</v>
@@ -6438,7 +6438,7 @@
         <v>86</v>
       </c>
       <c r="R59" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="S59" t="b">
         <v>0</v>
@@ -6503,7 +6503,7 @@
         <v>161</v>
       </c>
       <c r="J60" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="K60" t="s">
         <v>148</v>
@@ -6524,10 +6524,10 @@
         <v>3</v>
       </c>
       <c r="Q60" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="R60" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="S60" t="b">
         <v>0</v>
@@ -6610,7 +6610,7 @@
         <v>88</v>
       </c>
       <c r="R61" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="S61" t="b">
         <v>0</v>
@@ -6693,7 +6693,7 @@
         <v>89</v>
       </c>
       <c r="R62" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="S62" t="b">
         <v>0</v>
@@ -6752,13 +6752,13 @@
         <v>163</v>
       </c>
       <c r="J63" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="K63" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="L63" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="M63">
         <v>0</v>
@@ -6776,7 +6776,7 @@
         <v>90</v>
       </c>
       <c r="R63" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="S63" t="b">
         <v>0</v>
@@ -6859,7 +6859,7 @@
         <v>91</v>
       </c>
       <c r="R64" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="S64" t="b">
         <v>0</v>
@@ -6924,7 +6924,7 @@
         <v>153</v>
       </c>
       <c r="J65" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="K65" t="s">
         <v>148</v>
@@ -6945,10 +6945,10 @@
         <v>2</v>
       </c>
       <c r="Q65" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="R65" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="S65" t="b">
         <v>0</v>
@@ -7013,13 +7013,13 @@
         <v>164</v>
       </c>
       <c r="J66" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="K66" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="L66" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="M66">
         <v>0</v>
@@ -7034,10 +7034,10 @@
         <v>2</v>
       </c>
       <c r="Q66" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="R66" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="S66" t="b">
         <v>0</v>
@@ -7123,10 +7123,10 @@
         <v>1</v>
       </c>
       <c r="Q67" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="R67" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="S67" t="b">
         <v>0</v>
@@ -7212,10 +7212,10 @@
         <v>1</v>
       </c>
       <c r="Q68" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="R68" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="S68" t="b">
         <v>0</v>
@@ -7301,10 +7301,10 @@
         <v>1</v>
       </c>
       <c r="Q69" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="R69" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="S69" t="b">
         <v>0</v>
@@ -7384,10 +7384,10 @@
         <v>0</v>
       </c>
       <c r="Q70" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="R70" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="S70" t="b">
         <v>0</v>
@@ -7446,13 +7446,13 @@
         <v>167</v>
       </c>
       <c r="J71" t="s">
-        <v>167</v>
+        <v>202</v>
       </c>
       <c r="K71" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="L71" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="M71">
         <v>0</v>
@@ -7467,10 +7467,10 @@
         <v>0</v>
       </c>
       <c r="Q71" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="R71" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="S71" t="b">
         <v>0</v>
@@ -7535,7 +7535,7 @@
         <v>160</v>
       </c>
       <c r="J72" t="s">
-        <v>160</v>
+        <v>182</v>
       </c>
       <c r="K72" t="s">
         <v>157</v>
@@ -7556,10 +7556,10 @@
         <v>1</v>
       </c>
       <c r="Q72" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="R72" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="S72" t="b">
         <v>0</v>
@@ -7639,10 +7639,10 @@
         <v>0</v>
       </c>
       <c r="Q73" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="R73" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="S73" t="b">
         <v>0</v>
@@ -7701,7 +7701,7 @@
         <v>168</v>
       </c>
       <c r="J74" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="K74" t="s">
         <v>148</v>
@@ -7722,10 +7722,10 @@
         <v>0</v>
       </c>
       <c r="Q74" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="R74" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="S74" t="b">
         <v>0</v>
@@ -7811,10 +7811,10 @@
         <v>1</v>
       </c>
       <c r="Q75" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="R75" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="S75" t="b">
         <v>0</v>
@@ -7879,13 +7879,13 @@
         <v>169</v>
       </c>
       <c r="J76" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="K76" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="L76" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="M76">
         <v>0</v>
@@ -7900,10 +7900,10 @@
         <v>1</v>
       </c>
       <c r="Q76" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="R76" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="S76" t="b">
         <v>0</v>
@@ -7968,7 +7968,7 @@
         <v>170</v>
       </c>
       <c r="J77" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="K77" t="s">
         <v>148</v>
@@ -7989,10 +7989,10 @@
         <v>1</v>
       </c>
       <c r="Q77" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="R77" t="s">
-        <v>328</v>
+        <v>278</v>
       </c>
       <c r="S77" t="b">
         <v>0</v>
@@ -8072,10 +8072,10 @@
         <v>0</v>
       </c>
       <c r="Q78" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="R78" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="S78" t="b">
         <v>0</v>
@@ -8161,10 +8161,10 @@
         <v>1</v>
       </c>
       <c r="Q79" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="R79" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="S79" t="b">
         <v>0</v>
@@ -8250,10 +8250,10 @@
         <v>1</v>
       </c>
       <c r="Q80" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="R80" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="S80" t="b">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>160</v>
       </c>
       <c r="J81" t="s">
-        <v>160</v>
+        <v>182</v>
       </c>
       <c r="K81" t="s">
         <v>157</v>
@@ -8339,10 +8339,10 @@
         <v>1</v>
       </c>
       <c r="Q81" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="R81" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="S81" t="b">
         <v>0</v>
@@ -8401,7 +8401,7 @@
         <v>171</v>
       </c>
       <c r="J82" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="K82" t="s">
         <v>148</v>
@@ -8422,10 +8422,10 @@
         <v>0</v>
       </c>
       <c r="Q82" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="R82" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="S82" t="b">
         <v>0</v>
@@ -8484,7 +8484,7 @@
         <v>171</v>
       </c>
       <c r="J83" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="K83" t="s">
         <v>148</v>
@@ -8505,10 +8505,10 @@
         <v>0</v>
       </c>
       <c r="Q83" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="R83" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="S83" t="b">
         <v>0</v>
@@ -8567,7 +8567,7 @@
         <v>172</v>
       </c>
       <c r="J84" t="s">
-        <v>203</v>
+        <v>172</v>
       </c>
       <c r="K84" t="s">
         <v>148</v>
@@ -8588,10 +8588,10 @@
         <v>0</v>
       </c>
       <c r="Q84" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="R84" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="S84" t="b">
         <v>0</v>
@@ -8671,10 +8671,10 @@
         <v>0</v>
       </c>
       <c r="Q85" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="R85" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="S85" t="b">
         <v>0</v>
@@ -8733,13 +8733,13 @@
         <v>167</v>
       </c>
       <c r="J86" t="s">
-        <v>167</v>
+        <v>202</v>
       </c>
       <c r="K86" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="L86" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="M86">
         <v>0</v>
@@ -8754,10 +8754,10 @@
         <v>0</v>
       </c>
       <c r="Q86" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="R86" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="S86" t="b">
         <v>0</v>
@@ -8837,10 +8837,10 @@
         <v>0</v>
       </c>
       <c r="Q87" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="R87" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="S87" t="b">
         <v>0</v>
@@ -8905,7 +8905,7 @@
         <v>161</v>
       </c>
       <c r="J88" t="s">
-        <v>182</v>
+        <v>207</v>
       </c>
       <c r="K88" t="s">
         <v>148</v>
@@ -8926,10 +8926,10 @@
         <v>1</v>
       </c>
       <c r="Q88" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="R88" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="S88" t="b">
         <v>0</v>
@@ -8994,13 +8994,13 @@
         <v>165</v>
       </c>
       <c r="J89" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="K89" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="L89" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="M89">
         <v>0</v>
@@ -9015,10 +9015,10 @@
         <v>1</v>
       </c>
       <c r="Q89" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="R89" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="S89" t="b">
         <v>0</v>
@@ -9083,13 +9083,13 @@
         <v>165</v>
       </c>
       <c r="J90" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="K90" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="L90" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="M90">
         <v>0</v>
@@ -9104,10 +9104,10 @@
         <v>1</v>
       </c>
       <c r="Q90" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="R90" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="S90" t="b">
         <v>1</v>
@@ -9172,7 +9172,7 @@
         <v>173</v>
       </c>
       <c r="J91" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="K91" t="s">
         <v>148</v>
@@ -9193,10 +9193,10 @@
         <v>1</v>
       </c>
       <c r="Q91" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="R91" t="s">
-        <v>335</v>
+        <v>267</v>
       </c>
       <c r="S91" t="b">
         <v>0</v>
@@ -9255,13 +9255,13 @@
         <v>158</v>
       </c>
       <c r="J92" t="s">
-        <v>158</v>
+        <v>194</v>
       </c>
       <c r="K92" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="L92" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="M92">
         <v>0</v>
@@ -9276,7 +9276,7 @@
         <v>0</v>
       </c>
       <c r="Q92" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="R92" t="s">
         <v>336</v>
@@ -9344,7 +9344,7 @@
         <v>153</v>
       </c>
       <c r="J93" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K93" t="s">
         <v>148</v>
@@ -9365,7 +9365,7 @@
         <v>1</v>
       </c>
       <c r="Q93" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="R93" t="s">
         <v>337</v>
@@ -9427,13 +9427,13 @@
         <v>158</v>
       </c>
       <c r="J94" t="s">
-        <v>158</v>
+        <v>194</v>
       </c>
       <c r="K94" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="L94" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="M94">
         <v>0</v>
@@ -9448,7 +9448,7 @@
         <v>0</v>
       </c>
       <c r="Q94" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="R94" t="s">
         <v>336</v>
@@ -9516,13 +9516,13 @@
         <v>174</v>
       </c>
       <c r="J95" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="K95" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="L95" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="M95">
         <v>0</v>
@@ -9537,7 +9537,7 @@
         <v>1</v>
       </c>
       <c r="Q95" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="R95" t="s">
         <v>338</v>
@@ -9605,7 +9605,7 @@
         <v>173</v>
       </c>
       <c r="J96" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="K96" t="s">
         <v>148</v>
@@ -9626,10 +9626,10 @@
         <v>1</v>
       </c>
       <c r="Q96" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="R96" t="s">
-        <v>335</v>
+        <v>267</v>
       </c>
       <c r="S96" t="b">
         <v>0</v>
@@ -9694,7 +9694,7 @@
         <v>160</v>
       </c>
       <c r="J97" t="s">
-        <v>160</v>
+        <v>182</v>
       </c>
       <c r="K97" t="s">
         <v>157</v>
@@ -9715,10 +9715,10 @@
         <v>1</v>
       </c>
       <c r="Q97" t="s">
-        <v>253</v>
+        <v>228</v>
       </c>
       <c r="R97" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="S97" t="b">
         <v>0</v>
@@ -9783,13 +9783,13 @@
         <v>174</v>
       </c>
       <c r="J98" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="K98" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="L98" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="M98">
         <v>0</v>
@@ -9804,7 +9804,7 @@
         <v>1</v>
       </c>
       <c r="Q98" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="R98" t="s">
         <v>338</v>
@@ -9869,10 +9869,10 @@
         <v>165</v>
       </c>
       <c r="K99" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="L99" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="M99">
         <v>0</v>
@@ -9887,7 +9887,7 @@
         <v>0</v>
       </c>
       <c r="Q99" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="R99" t="s">
         <v>339</v>
@@ -9958,10 +9958,10 @@
         <v>149</v>
       </c>
       <c r="K100" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="L100" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="M100">
         <v>0</v>
@@ -9976,7 +9976,7 @@
         <v>1</v>
       </c>
       <c r="Q100" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="R100" t="s">
         <v>340</v>
@@ -10047,10 +10047,10 @@
         <v>149</v>
       </c>
       <c r="K101" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="L101" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="M101">
         <v>0</v>
@@ -10065,7 +10065,7 @@
         <v>1</v>
       </c>
       <c r="Q101" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="R101" t="s">
         <v>340</v>
@@ -10130,10 +10130,10 @@
         <v>165</v>
       </c>
       <c r="K102" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="L102" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="M102">
         <v>0</v>
@@ -10148,7 +10148,7 @@
         <v>0</v>
       </c>
       <c r="Q102" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="R102" t="s">
         <v>339</v>
@@ -10219,10 +10219,10 @@
         <v>149</v>
       </c>
       <c r="K103" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="L103" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="M103">
         <v>0</v>
@@ -10237,7 +10237,7 @@
         <v>1</v>
       </c>
       <c r="Q103" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="R103" t="s">
         <v>340</v>
@@ -10326,10 +10326,10 @@
         <v>1</v>
       </c>
       <c r="Q104" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="R104" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="S104" t="b">
         <v>1</v>
@@ -10415,10 +10415,10 @@
         <v>1</v>
       </c>
       <c r="Q105" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="R105" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="S105" t="b">
         <v>1</v>
@@ -10504,10 +10504,10 @@
         <v>1</v>
       </c>
       <c r="Q106" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="R106" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="S106" t="b">
         <v>1</v>
@@ -10572,7 +10572,7 @@
         <v>175</v>
       </c>
       <c r="J107" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="K107" t="s">
         <v>148</v>
@@ -10593,7 +10593,7 @@
         <v>1</v>
       </c>
       <c r="Q107" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="R107" t="s">
         <v>341</v>
@@ -10661,7 +10661,7 @@
         <v>175</v>
       </c>
       <c r="J108" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="K108" t="s">
         <v>148</v>
@@ -10682,7 +10682,7 @@
         <v>1</v>
       </c>
       <c r="Q108" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="R108" t="s">
         <v>341</v>
@@ -10771,10 +10771,10 @@
         <v>1</v>
       </c>
       <c r="Q109" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="R109" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="S109" t="b">
         <v>1</v>
@@ -10839,7 +10839,7 @@
         <v>175</v>
       </c>
       <c r="J110" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="K110" t="s">
         <v>148</v>
@@ -10860,7 +10860,7 @@
         <v>1</v>
       </c>
       <c r="Q110" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="R110" t="s">
         <v>341</v>
@@ -10949,10 +10949,10 @@
         <v>1</v>
       </c>
       <c r="Q111" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="R111" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="S111" t="b">
         <v>1</v>
@@ -11017,13 +11017,13 @@
         <v>176</v>
       </c>
       <c r="J112" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="K112" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="L112" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="M112">
         <v>0</v>
@@ -11038,7 +11038,7 @@
         <v>1</v>
       </c>
       <c r="Q112" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="R112" t="s">
         <v>342</v>
@@ -11106,13 +11106,13 @@
         <v>176</v>
       </c>
       <c r="J113" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="K113" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="L113" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="M113">
         <v>0</v>
@@ -11127,7 +11127,7 @@
         <v>1</v>
       </c>
       <c r="Q113" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="R113" t="s">
         <v>342</v>
@@ -11195,13 +11195,13 @@
         <v>176</v>
       </c>
       <c r="J114" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="K114" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="L114" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="M114">
         <v>0</v>
@@ -11216,7 +11216,7 @@
         <v>1</v>
       </c>
       <c r="Q114" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="R114" t="s">
         <v>342</v>
@@ -11278,7 +11278,7 @@
         <v>177</v>
       </c>
       <c r="J115" t="s">
-        <v>182</v>
+        <v>212</v>
       </c>
       <c r="K115" t="s">
         <v>148</v>
@@ -11299,7 +11299,7 @@
         <v>0</v>
       </c>
       <c r="Q115" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="R115" t="s">
         <v>343</v>
@@ -11361,7 +11361,7 @@
         <v>177</v>
       </c>
       <c r="J116" t="s">
-        <v>182</v>
+        <v>212</v>
       </c>
       <c r="K116" t="s">
         <v>148</v>
@@ -11382,7 +11382,7 @@
         <v>0</v>
       </c>
       <c r="Q116" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="R116" t="s">
         <v>343</v>
@@ -11450,13 +11450,13 @@
         <v>176</v>
       </c>
       <c r="J117" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="K117" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="L117" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="M117">
         <v>0</v>
@@ -11471,7 +11471,7 @@
         <v>1</v>
       </c>
       <c r="Q117" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="R117" t="s">
         <v>342</v>
@@ -11533,7 +11533,7 @@
         <v>177</v>
       </c>
       <c r="J118" t="s">
-        <v>182</v>
+        <v>212</v>
       </c>
       <c r="K118" t="s">
         <v>148</v>
@@ -11554,7 +11554,7 @@
         <v>0</v>
       </c>
       <c r="Q118" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="R118" t="s">
         <v>343</v>
@@ -11616,7 +11616,7 @@
         <v>177</v>
       </c>
       <c r="J119" t="s">
-        <v>182</v>
+        <v>212</v>
       </c>
       <c r="K119" t="s">
         <v>148</v>
@@ -11637,7 +11637,7 @@
         <v>0</v>
       </c>
       <c r="Q119" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="R119" t="s">
         <v>343</v>
@@ -11705,13 +11705,13 @@
         <v>176</v>
       </c>
       <c r="J120" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="K120" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="L120" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="M120">
         <v>0</v>
@@ -11726,7 +11726,7 @@
         <v>1</v>
       </c>
       <c r="Q120" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="R120" t="s">
         <v>342</v>

--- a/tests/integration/out/ai-and-nanotech-applicants.xlsx
+++ b/tests/integration/out/ai-and-nanotech-applicants.xlsx
@@ -642,7 +642,7 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>ASKER MICHAEL ALBERT;;LEIPOLD DIRK ROBERT WALTER;;MAXIM GEORGE ADRIAN</t>
+          <t>ASKER MICHAEL ALBERT;;MAXIM GEORGE ADRIAN;;LEIPOLD DIRK ROBERT WALTER</t>
         </is>
       </c>
       <c r="S2" t="b">
@@ -713,7 +713,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>GB;;US;;WO;;DE;;CN;;JP</t>
+          <t>CN;;WO;;DE;;GB;;JP;;US</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -740,12 +740,12 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>インターナショナル・ビジネス・マシーンズ・コーポレーションＩＮＴＥＲＮＡＴＩＯＮＡＬ ＢＵＳＩＮＥＳＳ ＭＡＣＨＩＮＥＳ ＣＯＲＰＯＲＡＴＩＯＮ;;IBM UK;;IBM (CHINA) INVEST COMPANY LTD;;国际商业机器公司;;IBM</t>
+          <t>IBM (CHINA) INVEST COMPANY LTD;;国际商业机器公司;;IBM UK;;インターナショナル・ビジネス・マシーンズ・コーポレーションＩＮＴＥＲＮＡＴＩＯＮＡＬ ＢＵＳＩＮＥＳＳ ＭＡＣＨＩＮＥＳ ＣＯＲＰＯＲＡＴＩＯＮ;;IBM</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>NEUMAN-HORN DEBRA A;;TEMME PAUL;;NANNICINI GIACOMO;;PHAN ANNA T;;PRISCO JOSEPH F;;BISHOP LEV SAMUEL;;OLIVADESE SALVATORE BERNARDO;;MCCLURE III DOUGLAS TEMPLETON;;ダイアル、オリバー;;GREENBERG DON;;O·蒂亚尔;;MATTHIAS STEFFEN;;MISGEN MARVIN M;;GAMBETTA JAY M;;ステファン、マティアス;;HEKMATSHOARTABARI BAHMAN;;KUCZYNSKI JOSEPH;;REZNICEK ALEXANDER;;JAY GAMBETTA;;TEMME PAUL KRISTAN;;HASHEMI POUYA;;BISHOP LEV;;MARTIN FERNANDEZ FRANCISCO JOSE;;DOUGLAS TEMPLETON MCCLURE III;;PRZYBYLSKI KEVIN J;;LIU PENG;;OLIVER DIAL;;PHAN ANNA;;ZHANG JINGYUN;;STEFFEN MATTHIAS;;CHEN RICHARD;;DIAL OLIVER;;OLIVADESE SALVATORE;;ガンベッタ、ジェイ;;J·加姆贝塔;;FARO SERTAGE ISMAEL;;JAVADIABHARI ALI;;M·斯蒂芬;;PISTOIA MARCO;;LEE CHOONGHYUN;;ANDO TAKASHI;;GAMBETTA JAY;;D·T·麦克鲁尔三世;;CORCOLES-GONZALEZ ANTONIO;;マクルーア ザ サード、ダグラス、テンプルトン;;MCCLURE III DOUGLAS T</t>
+          <t>NANNICINI GIACOMO;;GAMBETTA JAY;;GREENBERG DON;;BISHOP LEV;;M·斯蒂芬;;PRZYBYLSKI KEVIN J;;TEMME PAUL KRISTAN;;STEFFEN MATTHIAS;;PHAN ANNA T;;O·蒂亚尔;;REZNICEK ALEXANDER;;OLIVER DIAL;;PHAN ANNA;;LIU PENG;;マクルーア ザ サード、ダグラス、テンプルトン;;ステファン、マティアス;;ダイアル、オリバー;;OLIVADESE SALVATORE;;MCCLURE III DOUGLAS T;;MISGEN MARVIN M;;D·T·麦克鲁尔三世;;MARTIN FERNANDEZ FRANCISCO JOSE;;KUCZYNSKI JOSEPH;;OLIVADESE SALVATORE BERNARDO;;GAMBETTA JAY M;;ガンベッタ、ジェイ;;JAY GAMBETTA;;TEMME PAUL;;DIAL OLIVER;;PRISCO JOSEPH F;;NEUMAN-HORN DEBRA A;;LEE CHOONGHYUN;;PISTOIA MARCO;;DOUGLAS TEMPLETON MCCLURE III;;ANDO TAKASHI;;J·加姆贝塔;;CORCOLES-GONZALEZ ANTONIO;;HEKMATSHOARTABARI BAHMAN;;BISHOP LEV SAMUEL;;MATTHIAS STEFFEN;;HASHEMI POUYA;;CHEN RICHARD;;ZHANG JINGYUN;;MCCLURE III DOUGLAS TEMPLETON;;FARO SERTAGE ISMAEL;;JAVADIABHARI ALI</t>
         </is>
       </c>
       <c r="S3" t="b">
@@ -816,7 +816,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>US;;WO;;CN;;JP;;KR;;AU;;SG;;CA;;EP</t>
+          <t>CN;;WO;;KR;;CA;;EP;;JP;;US;;SG;;AU</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -826,7 +826,7 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>US;;CA;;AU</t>
+          <t>CA;;US;;AU</t>
         </is>
       </c>
       <c r="M4" t="n">
@@ -843,12 +843,12 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>NEVEN HARTMUT;;NIU YUEZHEN;;ラミ・バレントス;;GOOGLE INC;;SMELYANSKIY VADIM;;구글 엘엘씨;;GOOGLE LLC;;CASTRILLO SERGIO BOIXO;;グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;BARENDS RAMI;;グーグル エルエルシー</t>
+          <t>GOOGLE INC;;구글 엘엘씨;;グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;NIU YUEZHEN;;ラミ・バレントス;;グーグル エルエルシー;;SMELYANSKIY VADIM;;BARENDS RAMI;;GOOGLE LLC;;NEVEN HARTMUT;;CASTRILLO SERGIO BOIXO</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>NEVEN HARTMUT;;BABBUSH RYAN;;NIU YUEZHEN;;바엔즈 라미;;ハルトムート・ネーフェン;;SMELYANSKIY VADIM;;ラミ・バレントス;;セルジオ・バイショ・カストリージョ;;NEVEN HELMUT;;ヴァディム・スメリャンスキー;;エドワード・ヘンリー・ファーリ;;FARHI EDWARD HENRY;;CASTRILLO SERGIO BOIXO;;ライアン・バブシュ;;BOIXO CASTRILLO SERGIO;;BARENDS RAMI;;ユエゼン・ニウ;;ハルトムート・ネーヴェン</t>
+          <t>바엔즈 라미;;BOIXO CASTRILLO SERGIO;;ライアン・バブシュ;;SMELYANSKIY VADIM;;NIU YUEZHEN;;ラミ・バレントス;;ヴァディム・スメリャンスキー;;NEVEN HELMUT;;FARHI EDWARD HENRY;;NEVEN HARTMUT;;BARENDS RAMI;;ハルトムート・ネーヴェン;;セルジオ・バイショ・カストリージョ;;エドワード・ヘンリー・ファーリ;;ユエゼン・ニウ;;ハルトムート・ネーフェン;;BABBUSH RYAN;;CASTRILLO SERGIO BOIXO</t>
         </is>
       </c>
       <c r="S4" t="b">
@@ -919,7 +919,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>US;;WO;;EP</t>
+          <t>US;;EP;;WO</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -951,7 +951,7 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>TEZAK NIKOLAS ANTON;;PETERSON ERIC CHRISTOPHER;;DAVIS ERIK JOSEPH;;RUST MICHAEL;;REAGOR MATTHEW J;;CURTIS MICHAEL J;;JONES GLENN;;JOHNSON BLAKE ROBERT;;ZENG WILLIAM;;DA SILVA MARCUS PALMER;;OSBORN CHRISTOPHER BUTLER;;DESAI ANAND;;SMITH ROBERT STANLEY;;HEIDEL STEVEN;;MCKIERNAN KERI ANN;;RIGETTI CHAD TYLER;;LYNCH ADAM DAVID;;ALAM MUHAMMAD SOHAIB;;WILSON CHRISTOPHER MOGAN;;CURTIS MICHAEL;;SETE EYOB;;ZENG WILLIAM J;;KARALEKAS PETER JONATHAN;;SETE EYOB A</t>
+          <t>CURTIS MICHAEL;;REAGOR MATTHEW J;;KARALEKAS PETER JONATHAN;;SETE EYOB A;;ZENG WILLIAM J;;WILSON CHRISTOPHER MOGAN;;JOHNSON BLAKE ROBERT;;DA SILVA MARCUS PALMER;;MCKIERNAN KERI ANN;;HEIDEL STEVEN;;TEZAK NIKOLAS ANTON;;ALAM MUHAMMAD SOHAIB;;SMITH ROBERT STANLEY;;PETERSON ERIC CHRISTOPHER;;ZENG WILLIAM;;OSBORN CHRISTOPHER BUTLER;;RUST MICHAEL;;RIGETTI CHAD TYLER;;JONES GLENN;;SETE EYOB;;DESAI ANAND;;CURTIS MICHAEL J;;LYNCH ADAM DAVID;;DAVIS ERIK JOSEPH</t>
         </is>
       </c>
       <c r="S5" t="b">
@@ -1022,7 +1022,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>US;;CN;;EP</t>
+          <t>CN;;US;;EP</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -1054,7 +1054,7 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>YARKONI SHEIR;;AMIN MOHAMMAD H S;;MACREADY WILLIAM G;;ROLFE JASON;;LANTING TREVOR MICHAEL;;BOOTHBY THOMAS J;;BOOTHBY KELLY T R;;KING ANDREW DOUGLAS;;XUE YANBO;;ANDRIYASH EVGENY A;;AMIN MOHAMMAD H;;ANDRIYASH EVGENY</t>
+          <t>BOOTHBY THOMAS J;;XUE YANBO;;YARKONI SHEIR;;AMIN MOHAMMAD H;;KING ANDREW DOUGLAS;;ANDRIYASH EVGENY A;;MACREADY WILLIAM G;;ANDRIYASH EVGENY;;AMIN MOHAMMAD H S;;BOOTHBY KELLY T R;;LANTING TREVOR MICHAEL;;ROLFE JASON</t>
         </is>
       </c>
       <c r="S6" t="b">
@@ -1125,7 +1125,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>US;;CN</t>
+          <t>CN;;US</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1135,7 +1135,7 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>US;;CN</t>
+          <t>CN;;US</t>
         </is>
       </c>
       <c r="M7" t="n">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>亨利·H·阿达姆松;;王桂磊;;朱慧珑;;朱正勇;;ZHANG YANBO;;ZHU HUILONG;;张严波;;HENRY H ADAMSON;;RADAMSON HENRY H;;ZHU ZHENGYONG;;WANG GUILEI</t>
+          <t>RADAMSON HENRY H;;朱慧珑;;朱正勇;;亨利·H·阿达姆松;;HENRY H ADAMSON;;WANG GUILEI;;ZHU HUILONG;;张严波;;ZHU ZHENGYONG;;ZHANG YANBO;;王桂磊</t>
         </is>
       </c>
       <c r="S7" t="b">
@@ -1228,7 +1228,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>US;;WO;;CN;;JP;;KR;;AU;;CA;;EP</t>
+          <t>CN;;WO;;KR;;CA;;EP;;JP;;US;;AU</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -1255,12 +1255,12 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>킨디 인코포레이티드;;キンダイ、インコーポレイテッドＫＹＮＤＩ， ＩＮＣ．;;KYNDI INC</t>
+          <t>킨디 인코포레이티드;;KYNDI INC;;キンダイ、インコーポレイテッドＫＹＮＤＩ， ＩＮＣ．</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>마줌다 아룬;;アルン、マジュムダール;;MAJUMDAR ARUN</t>
+          <t>アルン、マジュムダール;;MAJUMDAR ARUN;;마줌다 아룬</t>
         </is>
       </c>
       <c r="S8" t="b">
@@ -1327,7 +1327,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>US;;CA;;WO;;EP</t>
+          <t>CA;;US;;WO;;EP</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -1359,7 +1359,7 @@
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>KHOMAMI ABADI MOJTABA;;GAHROOSI AMIR;;MASILAMANI ASHOK;;GOULD MATTHEW;;GOULD MATTHEW V;;MASILAMANI ASHOK PRABHU;;GAHROOSI AMIR BAHADOR</t>
+          <t>MASILAMANI ASHOK;;GOULD MATTHEW V;;KHOMAMI ABADI MOJTABA;;MASILAMANI ASHOK PRABHU;;GAHROOSI AMIR;;GAHROOSI AMIR BAHADOR;;GOULD MATTHEW</t>
         </is>
       </c>
       <c r="S9" t="b">
@@ -1430,7 +1430,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>US;;TW;;WO;;EP</t>
+          <t>TW;;EP;;US;;WO</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1462,7 +1462,7 @@
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>SIGNAEVSKY MAXIM;;YAROSLAVSKY IGOR YEHUDA;;SIGNAEVSKI MAXIM M;;YAROSLAVSKY IGOR</t>
+          <t>YAROSLAVSKY IGOR;;SIGNAEVSKI MAXIM M;;SIGNAEVSKY MAXIM;;YAROSLAVSKY IGOR YEHUDA</t>
         </is>
       </c>
       <c r="S10" t="b">
@@ -1529,7 +1529,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>KR;;US;;CA;;WO</t>
+          <t>CA;;US;;KR;;WO</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1539,7 +1539,7 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>US;;CA</t>
+          <t>CA;;US</t>
         </is>
       </c>
       <c r="M11" t="n">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>DIENEL THOMAS;;WOLKOW ROBERT A;;RASHIDI MOHAMMAD;;CROSHAW JEREMIAH;;WALUS CONRAD;;LIVADARU LUCIAN;;VINE WYATT;;WALUS KONRAD;;RETALLICK JACOB;;HUFF TALEANA;;WOLKOW ROBERT</t>
+          <t>CROSHAW JEREMIAH;;WALUS CONRAD;;WOLKOW ROBERT;;HUFF TALEANA;;WALUS KONRAD;;WOLKOW ROBERT A;;DIENEL THOMAS;;RETALLICK JACOB;;LIVADARU LUCIAN;;RASHIDI MOHAMMAD;;VINE WYATT</t>
         </is>
       </c>
       <c r="S11" t="b">
@@ -1628,7 +1628,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>US;;CA;;WO;;EP</t>
+          <t>CA;;US;;EP;;WO</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1660,7 +1660,7 @@
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>SUKACHEV DENIS D;;WANG SHENGTAO;;LUKIN MIKHAIL D;;PICHLER HANNES;;LUKIN MIKHAIL;;BHASKAR MIHIR;;EVANS RUFFIN;;ZHOU LEO;;ZHOU LEO XIANGYU;;SIPAHIGIL ALP;;BHASKAR MIHIR KESHAV;;CHOI SOONWON;;LUNKIN MIKHAIL;;NGUYEN CHRISTIAN;;NGUYEN CHRISTIAN THIEU;;EVANS RUFFIN E;;SUKACHEV DENIS</t>
+          <t>PICHLER HANNES;;BHASKAR MIHIR KESHAV;;EVANS RUFFIN;;EVANS RUFFIN E;;NGUYEN CHRISTIAN;;CHOI SOONWON;;LUNKIN MIKHAIL;;ZHOU LEO XIANGYU;;BHASKAR MIHIR;;ZHOU LEO;;WANG SHENGTAO;;SUKACHEV DENIS;;SIPAHIGIL ALP;;LUKIN MIKHAIL D;;LUKIN MIKHAIL;;NGUYEN CHRISTIAN THIEU;;SUKACHEV DENIS D</t>
         </is>
       </c>
       <c r="S12" t="b">
@@ -1727,7 +1727,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>US;;WO;;KR;;AU;;CA;;EP</t>
+          <t>WO;;KR;;CA;;EP;;US;;AU</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1754,12 +1754,12 @@
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>CATALOG TECH INC;;CATALOG TECHNOLOGIES INC</t>
+          <t>CATALOG TECHNOLOGIES INC;;CATALOG TECH INC</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>LEAKE DEVIN;;ROQUET NATHANIEL;;BHATIA SWAPNIL P;;PARK HYUNJUN;;BHATIA SWAPNIL</t>
+          <t>PARK HYUNJUN;;BHATIA SWAPNIL P;;LEAKE DEVIN;;BHATIA SWAPNIL;;ROQUET NATHANIEL</t>
         </is>
       </c>
       <c r="S13" t="b">
@@ -1857,12 +1857,12 @@
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>DUNST MICHAEL J;;MOLINSKY BRADLEY DEAN;;HARTFORD FIRE INSURANCE COMP;;BATTAGLINI JOSEPH S;;TIPTON THOMAS ANDREW;;CARROLL WILLIAM JOSEPH</t>
+          <t>MOLINSKY BRADLEY DEAN;;HARTFORD FIRE INSURANCE COMP;;TIPTON THOMAS ANDREW;;CARROLL WILLIAM JOSEPH;;DUNST MICHAEL J;;BATTAGLINI JOSEPH S</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>DUNST MICHAEL J;;MOLINSKY BRADLEY DEAN;;BATTAGLINI JOSEPH S;;TIPTON THOMAS ANDREW;;CARROLL WILLIAM JOSEPH</t>
+          <t>MOLINSKY BRADLEY DEAN;;TIPTON THOMAS ANDREW;;CARROLL WILLIAM JOSEPH;;DUNST MICHAEL J;;BATTAGLINI JOSEPH S</t>
         </is>
       </c>
       <c r="S14" t="b">
@@ -2032,7 +2032,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>US;;CA;;WO</t>
+          <t>CA;;US;;WO</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -2135,7 +2135,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>US;;KR;;WO;;CN</t>
+          <t>CN;;US;;KR;;WO</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -2167,7 +2167,7 @@
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>CHO JIN SUN;;SOHN IL KWON;;KIM SANG SIG;;CHO JIN-SUN;;LIM DOO HYEOK;;LIM DOO-HYEOK;;CHO KYOUNG-AH;;CHO KYOUNG AH;;WOO SOL-A;;PARK YOUNG-SOO;;WOO SOL A;;HEO JUN;;PARK YOUNG SOO;;KIM SANG-SIK</t>
+          <t>KIM SANG-SIK;;CHO JIN SUN;;LIM DOO-HYEOK;;HEO JUN;;WOO SOL-A;;PARK YOUNG-SOO;;CHO KYOUNG-AH;;CHO JIN-SUN;;SOHN IL KWON;;WOO SOL A;;LIM DOO HYEOK;;KIM SANG SIG;;PARK YOUNG SOO;;CHO KYOUNG AH</t>
         </is>
       </c>
       <c r="S17" t="b">
@@ -2238,7 +2238,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>US;;WO;;CN;;JP;;KR;;TW;;EP</t>
+          <t>CN;;WO;;KR;;TW;;EP;;JP;;US</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -2265,12 +2265,12 @@
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>ラム リサーチ コーポレーションＬＡＭ ＲＥＳＥＡＲＣＨ ＣＯＲＰＯＲＡＴＩＯＮ;;LAM RES CORP</t>
+          <t>LAM RES CORP;;ラム リサーチ コーポレーションＬＡＭ ＲＥＳＥＡＲＣＨ ＣＯＲＰＯＲＡＴＩＯＮ</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>GUHA JOYDEEP;;バヘディ・バヘド;;グーハ・ジョイディープ;;DAUGHERTY JOHN;;ゴットショ・リチャード・アラン;;VAHEDI VAHID;;ダウガティ・ジョン;;GOTTSCHO RICHARD ALAN</t>
+          <t>バヘディ・バヘド;;ダウガティ・ジョン;;DAUGHERTY JOHN;;ゴットショ・リチャード・アラン;;VAHEDI VAHID;;グーハ・ジョイディープ;;GUHA JOYDEEP;;GOTTSCHO RICHARD ALAN</t>
         </is>
       </c>
       <c r="S18" t="b">
@@ -2337,7 +2337,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>US;;WO;;CN;;EP</t>
+          <t>CN;;US;;EP;;WO</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -2364,12 +2364,12 @@
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>微软技术许可有限责任公司;;MICROSOFT TECHNOLOGY LICENSING LLC</t>
+          <t>MICROSOFT TECHNOLOGY LICENSING LLC;;微软技术许可有限责任公司</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>NGUYEN BICHLIEN HOANG;;A·X·C·科尔;;R·格拉斯;;GAMBLE IV JOHN KING;;B·H·阮;;WIEBE NATHAN O;;K·施特劳斯;;CHEN WEIDA;;GRANADE CHRISTOPHER EVAN;;W·陈;;STRAUSS KARIN;;KOHLL ALEXANDER XAVIER CHRISTOF;;GRASS ROBERT;;GAMBLE JOHN KING</t>
+          <t>K·施特劳斯;;GAMBLE JOHN KING;;CHEN WEIDA;;R·格拉斯;;A·X·C·科尔;;GAMBLE IV JOHN KING;;WIEBE NATHAN O;;KOHLL ALEXANDER XAVIER CHRISTOF;;GRANADE CHRISTOPHER EVAN;;STRAUSS KARIN;;GRASS ROBERT;;B·H·阮;;W·陈;;NGUYEN BICHLIEN HOANG</t>
         </is>
       </c>
       <c r="S19" t="b">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>US;;CN;;JP;;KR;;CA;;EP</t>
+          <t>CN;;KR;;CA;;EP;;JP;;US</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -2467,12 +2467,12 @@
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>DODO OMNIDATA INC;;イリディア・インコーポレイテッドＩｒｉｄｉａ， Ｉｎｃ．;;IRIDIA INC</t>
+          <t>イリディア・インコーポレイテッドＩｒｉｄｉａ， Ｉｎｃ．;;IRIDIA INC;;DODO OMNIDATA INC</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>ポール・エフ・プレドキ;;マジャ・キャシディ;;CASSIDY MAJA;;PREDKI PAUL F</t>
+          <t>ポール・エフ・プレドキ;;PREDKI PAUL F;;CASSIDY MAJA;;マジャ・キャシディ</t>
         </is>
       </c>
       <c r="S20" t="b">
@@ -2575,7 +2575,7 @@
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>MREJEN MICHAEL;;NAGLER ACHIYA;;MALKIEL ITZIK;;WOLF LIOR;;SUCHOWSKI HAIM;;ARIELI URI</t>
+          <t>NAGLER ACHIYA;;MREJEN MICHAEL;;SUCHOWSKI HAIM;;MALKIEL ITZIK;;WOLF LIOR;;ARIELI URI</t>
         </is>
       </c>
       <c r="S21" t="b">
@@ -2652,7 +2652,7 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>US;;CA</t>
+          <t>CA;;US</t>
         </is>
       </c>
       <c r="M22" t="n">
@@ -2674,7 +2674,7 @@
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>NABAVI SEYEDFAKHREDDIN;;ZHANG LIHONG</t>
+          <t>ZHANG LIHONG;;NABAVI SEYEDFAKHREDDIN</t>
         </is>
       </c>
       <c r="S22" t="b">
@@ -2773,7 +2773,7 @@
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>JOHNSON PETER D;;CAO YUDONG;;ANSCHUETZ ERIC R;;GONTHIER JEROME FLORIAN;;KATABARWA AMARA;;DALLAIRE-DEMERS PIERRE-LUC</t>
+          <t>CAO YUDONG;;DALLAIRE-DEMERS PIERRE-LUC;;ANSCHUETZ ERIC R;;KATABARWA AMARA;;GONTHIER JEROME FLORIAN;;JOHNSON PETER D</t>
         </is>
       </c>
       <c r="S23" t="b">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>CAVANAGH PETER;;VARGO EMMA;;MCFARLAND KIRSTY;;BYRNES STEVEN;;ROSENBERGER ERIN;;DUBAY RYAN;;MAGYAR ANDREW;;HUANG HAIYAO;;FRANK IAN WARD;;DUBAY RYAN A;;KOTZ KENNETH;;SPRACHMAN MELISSA;;FRANK IAN;;MARKOVIC STACEY;;MCFARLAND KIRSTY A;;MAGYAR ANDREW P;;SPRACHMAN MELISSA M;;FAVALORA GREGG;;KOTZ KENNETH T;;BYRNES STEVEN J;;FAVALORA GREGG E</t>
+          <t>ROSENBERGER ERIN;;MCFARLAND KIRSTY;;FRANK IAN WARD;;FAVALORA GREGG E;;KOTZ KENNETH;;FRANK IAN;;MCFARLAND KIRSTY A;;MAGYAR ANDREW;;BYRNES STEVEN J;;BYRNES STEVEN;;SPRACHMAN MELISSA;;MARKOVIC STACEY;;VARGO EMMA;;SPRACHMAN MELISSA M;;FAVALORA GREGG;;CAVANAGH PETER;;KOTZ KENNETH T;;MAGYAR ANDREW P;;HUANG HAIYAO;;DUBAY RYAN A;;DUBAY RYAN</t>
         </is>
       </c>
       <c r="S24" t="b">
@@ -3078,7 +3078,7 @@
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>GUILLOU DAVID FRANCOIS;;SINHA RAJARISHI;;GUILLOU DAVID</t>
+          <t>SINHA RAJARISHI;;GUILLOU DAVID FRANCOIS;;GUILLOU DAVID</t>
         </is>
       </c>
       <c r="S26" t="b">
@@ -3181,7 +3181,7 @@
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>LANDIS STEPHAN;;CONSTANCIAS CHRISTOPHE;;LANDIS STÉPHAN</t>
+          <t>LANDIS STÉPHAN;;CONSTANCIAS CHRISTOPHE;;LANDIS STEPHAN</t>
         </is>
       </c>
       <c r="S27" t="b">
@@ -3252,7 +3252,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>GB;;WO;;EP;;SG;;TW;;CA</t>
+          <t>WO;;CA;;TW;;EP;;GB;;SG</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -3284,7 +3284,7 @@
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>SANCHES-KUIPER RAQUEL MARIA;;HAYES MATTHEW JAMES;;RAQUEL MARIA SANCHES-KUIPER;;MATTHEW JAMES HAYES</t>
+          <t>RAQUEL MARIA SANCHES-KUIPER;;HAYES MATTHEW JAMES;;MATTHEW JAMES HAYES;;SANCHES-KUIPER RAQUEL MARIA</t>
         </is>
       </c>
       <c r="S28" t="b">
@@ -3382,12 +3382,12 @@
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>IBM UK;;IBM (CHINA) INVEST COMPANY LTD;;IBM</t>
+          <t>IBM (CHINA) INVEST COMPANY LTD;;IBM;;IBM UK</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>TEMME PAUL;;NANNICINI GIACOMO;;PHAN ANNA T;;BISHOP LEV SAMUEL;;OLIVADESE SALVATORE BERNARDO;;MCCLURE III DOUGLAS TEMPLETON;;GREENBERG DON;;GAMBETTA JAY M;;TEMME PAUL KRISTAN;;BISHOP LEV;;PHAN ANNA;;CHEN RICHARD;;STEFFEN MATTHIAS;;DIAL OLIVER;;OLIVADESE SALVATORE;;PISTOIA MARCO;;GAMBETTA JAY;;CORCOLES-GONZALEZ ANTONIO;;MCCLURE III DOUGLAS T</t>
+          <t>NANNICINI GIACOMO;;GAMBETTA JAY;;BISHOP LEV;;GREENBERG DON;;TEMME PAUL KRISTAN;;STEFFEN MATTHIAS;;PHAN ANNA T;;PHAN ANNA;;OLIVADESE SALVATORE;;MCCLURE III DOUGLAS T;;OLIVADESE SALVATORE BERNARDO;;GAMBETTA JAY M;;TEMME PAUL;;DIAL OLIVER;;PISTOIA MARCO;;CORCOLES-GONZALEZ ANTONIO;;BISHOP LEV SAMUEL;;CHEN RICHARD;;MCCLURE III DOUGLAS TEMPLETON</t>
         </is>
       </c>
       <c r="S29" t="b">
@@ -3458,7 +3458,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>US;;CN</t>
+          <t>CN;;US</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -3485,12 +3485,12 @@
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>中国科学院微电子研究所;;INST OF MICROELECTRONICS CAS;;INST MICROELECTRONICS CAS</t>
+          <t>中国科学院微电子研究所;;INST MICROELECTRONICS CAS;;INST OF MICROELECTRONICS CAS</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>亨利·H·阿达姆松;;王桂磊;;朱慧珑;;朱正勇;;ZHANG YANBO;;ZHU HUILONG;;张严波;;HENRY H ADAMSON;;ZHU ZHENGYONG;;WANG GUILEI</t>
+          <t>朱正勇;;朱慧珑;;亨利·H·阿达姆松;;HENRY H ADAMSON;;WANG GUILEI;;ZHU HUILONG;;张严波;;ZHU ZHENGYONG;;ZHANG YANBO;;王桂磊</t>
         </is>
       </c>
       <c r="S30" t="b">
@@ -3588,12 +3588,12 @@
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>DODO OMNIDATA INC;;IRIDIA INC</t>
+          <t>IRIDIA INC;;DODO OMNIDATA INC</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>CASSIDY MAJA;;PREDKI PAUL F</t>
+          <t>PREDKI PAUL F;;CASSIDY MAJA</t>
         </is>
       </c>
       <c r="S31" t="b">
@@ -3691,12 +3691,12 @@
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>D-WAVE SYSTEMS INC;;YARKONI SHEIR</t>
+          <t>YARKONI SHEIR;;D-WAVE SYSTEMS INC</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>YARKONI SHEIR;;AMIN MOHAMMAD H S;;ROLFE JASON;;LANTING TREVOR MICHAEL;;BOOTHBY THOMAS J;;KING ANDREW DOUGLAS;;ANDRIYASH EVGENY A;;AMIN MOHAMMAD H;;ANDRIYASH EVGENY</t>
+          <t>BOOTHBY THOMAS J;;YARKONI SHEIR;;AMIN MOHAMMAD H;;KING ANDREW DOUGLAS;;ANDRIYASH EVGENY A;;ANDRIYASH EVGENY;;AMIN MOHAMMAD H S;;LANTING TREVOR MICHAEL;;ROLFE JASON</t>
         </is>
       </c>
       <c r="S32" t="b">
@@ -3790,12 +3790,12 @@
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>IMEC VZW;;UNIV LEUVEN KATH;;KATHOLIEKE UNIV LEUVEN KU LEUVEN RESEARCH &amp; DEVELOPMENT</t>
+          <t>UNIV LEUVEN KATH;;IMEC VZW;;KATHOLIEKE UNIV LEUVEN KU LEUVEN RESEARCH &amp; DEVELOPMENT</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>CHEN CHANG;;COSTA JOSE DIOGO;;ADELMANN HANNS CHRISTOPH;;FAUVART MAARTEN;;CIUBOTARU FLORIN;;CAI QING;;STAKENBORG TIM;;COVENS KRIS</t>
+          <t>CAI QING;;ADELMANN HANNS CHRISTOPH;;CIUBOTARU FLORIN;;COSTA JOSE DIOGO;;CHEN CHANG;;STAKENBORG TIM;;FAUVART MAARTEN;;COVENS KRIS</t>
         </is>
       </c>
       <c r="S33" t="b">
@@ -3993,7 +3993,7 @@
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>MAKSYMOVYCH PETRO;;LAWRIE BENJAMIN J;;POOSER RAPHAEL C</t>
+          <t>LAWRIE BENJAMIN J;;MAKSYMOVYCH PETRO;;POOSER RAPHAEL C</t>
         </is>
       </c>
       <c r="S35" t="b">
@@ -4289,7 +4289,7 @@
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>서울시립대학교 산학협력단;;UNIV SEOUL IND COOP FOUND</t>
+          <t>UNIV SEOUL IND COOP FOUND;;서울시립대학교 산학협력단</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
@@ -4492,7 +4492,7 @@
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>CHEN CHANGSHENG;;WU SHUO;;CHENG RUNHONG;;ZHOU WENLI;;WANG YUNBO;;GAO JUNXIONG;;ZHU YU</t>
+          <t>ZHOU WENLI;;GAO JUNXIONG;;ZHU YU;;WU SHUO;;CHENG RUNHONG;;CHEN CHANGSHENG;;WANG YUNBO</t>
         </is>
       </c>
       <c r="S40" t="b">
@@ -4559,7 +4559,7 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>US;;CN</t>
+          <t>CN;;US</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -4591,7 +4591,7 @@
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>REN DELIANG;;WANG KAIYANG;;YAN XIAOBING</t>
+          <t>YAN XIAOBING;;WANG KAIYANG;;REN DELIANG</t>
         </is>
       </c>
       <c r="S41" t="b">
@@ -4690,7 +4690,7 @@
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>MAGAR KAMAN THAPA;;PANKONIEN ALEXANDER M;;BAUR JEFFREY W;;DICKINSON BENJAMIN T;;KONDASH COREY R;;REICH GREGORY W;;SLINKER KEITH</t>
+          <t>REICH GREGORY W;;PANKONIEN ALEXANDER M;;MAGAR KAMAN THAPA;;BAUR JEFFREY W;;SLINKER KEITH;;DICKINSON BENJAMIN T;;KONDASH COREY R</t>
         </is>
       </c>
       <c r="S42" t="b">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>YU DAN;;CHEN YIXIANG;;WANG WEI;;WANG ZEHONG</t>
+          <t>WANG WEI;;WANG ZEHONG;;CHEN YIXIANG;;YU DAN</t>
         </is>
       </c>
       <c r="S44" t="b">
@@ -4987,7 +4987,7 @@
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>LEE HONG-SUB;;HERSAM MARK C;;SANGWAN VINOD K</t>
+          <t>SANGWAN VINOD K;;HERSAM MARK C;;LEE HONG-SUB</t>
         </is>
       </c>
       <c r="S45" t="b">
@@ -5086,7 +5086,7 @@
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>SIU MAN-HUNG;;JIANG ZHUOLIN;;FONG KIN CHUNG</t>
+          <t>FONG KIN CHUNG;;SIU MAN-HUNG;;JIANG ZHUOLIN</t>
         </is>
       </c>
       <c r="S46" t="b">
@@ -5189,7 +5189,7 @@
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>MANSSON ALF;;DIEZ STEFAN;;REUTHER CORDULA;;KORTEN TILL;;TAKATSUKI HIDEYO</t>
+          <t>MANSSON ALF;;KORTEN TILL;;REUTHER CORDULA;;DIEZ STEFAN;;TAKATSUKI HIDEYO</t>
         </is>
       </c>
       <c r="S47" t="b">
@@ -5387,7 +5387,7 @@
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>XU JUN;;LIANG RENRONG;;LIU YU;;ZHAO LINYUAN</t>
+          <t>XU JUN;;LIU YU;;LIANG RENRONG;;ZHAO LINYUAN</t>
         </is>
       </c>
       <c r="S49" t="b">
@@ -5589,7 +5589,7 @@
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>LEE HYUNG DONG;;HEO KEUN;;CHOI YONG-SOO;;LEE HYUNG-DONG;;CHOI YONG SOO</t>
+          <t>HEO KEUN;;LEE HYUNG-DONG;;CHOI YONG-SOO;;LEE HYUNG DONG;;CHOI YONG SOO</t>
         </is>
       </c>
       <c r="S51" t="b">
@@ -5688,7 +5688,7 @@
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>WU QING;;XIA QIANGFEI;;YANG JIANHUA;;MCLEAN MARK</t>
+          <t>WU QING;;XIA QIANGFEI;;MCLEAN MARK;;YANG JIANHUA</t>
         </is>
       </c>
       <c r="S52" t="b">
@@ -5786,12 +5786,12 @@
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>D WAVE SYSTEMS INC;;D-WAVE SYSTEMS INC;;YARKONI SHEIR</t>
+          <t>D WAVE SYSTEMS INC;;YARKONI SHEIR;;D-WAVE SYSTEMS INC</t>
         </is>
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>YARKONI SHEIR;;BOOTHBY KELLY T R;;LANTING TREVOR MICHAEL;;BOOTHBY THOMAS J;;KING ANDREW DOUGLAS;;ANDRIYASH EVGENY A;;AMIN MOHAMMAD H</t>
+          <t>BOOTHBY THOMAS J;;YARKONI SHEIR;;KING ANDREW DOUGLAS;;ANDRIYASH EVGENY A;;BOOTHBY KELLY T R;;LANTING TREVOR MICHAEL;;AMIN MOHAMMAD H</t>
         </is>
       </c>
       <c r="S53" t="b">
@@ -5890,7 +5890,7 @@
       </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>ZHANG XIANGCHENG;;WU JIAN</t>
+          <t>WU JIAN;;ZHANG XIANGCHENG</t>
         </is>
       </c>
       <c r="S54" t="b">
@@ -6088,7 +6088,7 @@
       </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>Huilong Zhu;;Zhengyong Zhu</t>
+          <t>Zhengyong Zhu;;Huilong Zhu</t>
         </is>
       </c>
       <c r="S56" t="b">
@@ -6186,7 +6186,7 @@
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>서울시립대학교 산학협력단;;UNIV SEOUL IND COOP FOUND</t>
+          <t>UNIV SEOUL IND COOP FOUND;;서울시립대학교 산학협력단</t>
         </is>
       </c>
       <c r="R57" t="inlineStr">
@@ -6294,7 +6294,7 @@
       </c>
       <c r="R58" t="inlineStr">
         <is>
-          <t>YOUNG IAN A;;NIKONOV DMITRI E;;MANIPATRUNI SASIKANTH</t>
+          <t>NIKONOV DMITRI E;;YOUNG IAN A;;MANIPATRUNI SASIKANTH</t>
         </is>
       </c>
       <c r="S58" t="b">
@@ -6464,7 +6464,7 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>US;;WO;;CN;;JP;;KR;;AU;;SG;;CA;;EP</t>
+          <t>CN;;WO;;KR;;CA;;EP;;JP;;US;;SG;;AU</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -6491,12 +6491,12 @@
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>ラミ・バレントス;;GOOGLE INC;;구글 엘엘씨;;GOOGLE LLC;;グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;BARENDS RAMI;;グーグル エルエルシー</t>
+          <t>GOOGLE INC;;구글 엘엘씨;;グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;ラミ・バレントス;;グーグル エルエルシー;;BARENDS RAMI;;GOOGLE LLC</t>
         </is>
       </c>
       <c r="R60" t="inlineStr">
         <is>
-          <t>NEVEN HARTMUT;;BABBUSH RYAN;;BARENDS RAMI;;바엔즈 라미;;ラミ・バレントス;;エドワード・ヘンリー・ファーリ;;FARHI EDWARD HENRY;;ライアン・バブシュ;;ハルトムート・ネーヴェン</t>
+          <t>바엔즈 라미;;ライアン・バブシュ;;ラミ・バレントス;;ハルトムート・ネーヴェン;;FARHI EDWARD HENRY;;NEVEN HARTMUT;;BARENDS RAMI;;エドワード・ヘンリー・ファーリ;;BABBUSH RYAN</t>
         </is>
       </c>
       <c r="S60" t="b">
@@ -6694,7 +6694,7 @@
       </c>
       <c r="R62" t="inlineStr">
         <is>
-          <t>WANG GANG;;VASTAREY NIKHIL SURESH;;KOUL RAMAN;;BHAT SUMRITA;;WANG GANG (A K A JOSEPH);;SALAHANDISH RAZIEH;;KAPOOR ANMOL SINGH</t>
+          <t>BHAT SUMRITA;;KAPOOR ANMOL SINGH;;VASTAREY NIKHIL SURESH;;WANG GANG;;KOUL RAMAN;;SALAHANDISH RAZIEH;;WANG GANG (A K A JOSEPH)</t>
         </is>
       </c>
       <c r="S62" t="b">
@@ -6761,7 +6761,7 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>JP;;US;;CN</t>
+          <t>CN;;US;;JP</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -6963,7 +6963,7 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>US;;WO;;CN;;JP;;KR;;AU;;SG;;CA;;EP</t>
+          <t>CN;;WO;;KR;;CA;;EP;;JP;;US;;SG;;AU</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -6990,12 +6990,12 @@
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>NEVEN HARTMUT;;NIU YUEZHEN;;ラミ・バレントス;;GOOGLE INC;;SMELYANSKIY VADIM;;구글 엘엘씨;;GOOGLE LLC;;CASTRILLO SERGIO BOIXO;;グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;BARENDS RAMI;;グーグル エルエルシー</t>
+          <t>GOOGLE INC;;구글 엘엘씨;;グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;NIU YUEZHEN;;ラミ・バレントス;;グーグル エルエルシー;;SMELYANSKIY VADIM;;BARENDS RAMI;;GOOGLE LLC;;NEVEN HARTMUT;;CASTRILLO SERGIO BOIXO</t>
         </is>
       </c>
       <c r="R65" t="inlineStr">
         <is>
-          <t>NEVEN HARTMUT;;바엔즈 라미;;BABBUSH RYAN;;NIU YUEZHEN;;ハルトムート・ネーフェン;;ラミ・バレントス;;SMELYANSKIY VADIM;;セルジオ・バイショ・カストリージョ;;ヴァディム・スメリャンスキー;;CASTRILLO SERGIO BOIXO;;BOIXO CASTRILLO SERGIO;;BARENDS RAMI;;ユエゼン・ニウ</t>
+          <t>바엔즈 라미;;BOIXO CASTRILLO SERGIO;;NIU YUEZHEN;;SMELYANSKIY VADIM;;ラミ・バレントス;;ヴァディム・スメリャンスキー;;セルジオ・バイショ・カストリージョ;;BARENDS RAMI;;NEVEN HARTMUT;;ユエゼン・ニウ;;ハルトムート・ネーフェン;;BABBUSH RYAN;;CASTRILLO SERGIO BOIXO</t>
         </is>
       </c>
       <c r="S65" t="b">
@@ -7066,7 +7066,7 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>US;;WO;;CN;;JP;;KR;;EP</t>
+          <t>CN;;WO;;KR;;EP;;JP;;US</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -7093,12 +7093,12 @@
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>THE UNIV OF CANTERBURY;;ザ ユニバーシティー オブ カンタベリー;;FOSTNER SHAWN;;BROWN SIMON ANTHONY;;BOSE SAURABH KUMAR</t>
+          <t>BROWN SIMON ANTHONY;;ザ ユニバーシティー オブ カンタベリー;;THE UNIV OF CANTERBURY;;BOSE SAURABH KUMAR;;FOSTNER SHAWN</t>
         </is>
       </c>
       <c r="R66" t="inlineStr">
         <is>
-          <t>FOSTNER SHAWN;;BROWN SIMON ANTHONY;;フォスナー ショーン;;ボーズ サウラブ クマー;;BOSE SAURABH KUMAR;;ブラウン シモン アンソニー</t>
+          <t>BROWN SIMON ANTHONY;;ブラウン シモン アンソニー;;ボーズ サウラブ クマー;;BOSE SAURABH KUMAR;;フォスナー ショーン;;FOSTNER SHAWN</t>
         </is>
       </c>
       <c r="S66" t="b">
@@ -7201,7 +7201,7 @@
       </c>
       <c r="R67" t="inlineStr">
         <is>
-          <t>정용호;;CHUNG YONG HO;;CHOI JEONG WOO;;최정우</t>
+          <t>CHUNG YONG HO;;최정우;;정용호;;CHOI JEONG WOO</t>
         </is>
       </c>
       <c r="S67" t="b">
@@ -7304,7 +7304,7 @@
       </c>
       <c r="R68" t="inlineStr">
         <is>
-          <t>ZHANG HUI;;幸研;;张辉;;李源;;张晋;;LI YUAN;;ZHANG JIN;;XING YAN</t>
+          <t>李源;;张辉;;张晋;;XING YAN;;LI YUAN;;ZHANG HUI;;幸研;;ZHANG JIN</t>
         </is>
       </c>
       <c r="S68" t="b">
@@ -7407,7 +7407,7 @@
       </c>
       <c r="R69" t="inlineStr">
         <is>
-          <t>ZHANG HUI;;幸研;;张辉;;李源;;张晋;;LI YUAN;;ZHANG JIN;;XING YAN</t>
+          <t>李源;;张辉;;张晋;;XING YAN;;LI YUAN;;ZHANG HUI;;幸研;;ZHANG JIN</t>
         </is>
       </c>
       <c r="S69" t="b">
@@ -7501,12 +7501,12 @@
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>微软技术许可有限责任公司;;MICROSOFT TECHNOLOGY LICENSING LLC</t>
+          <t>MICROSOFT TECHNOLOGY LICENSING LLC;;微软技术许可有限责任公司</t>
         </is>
       </c>
       <c r="R70" t="inlineStr">
         <is>
-          <t>KOHLL ALEXANDER XAVIER CHRISTOF;;NGUYEN BICHLIEN HOANG;;A·X·C·科尔;;R·格拉斯;;B·H·阮;;CHEN WEIDA;;W·陈;;STRAUSS KARIN;;K·施特劳斯;;GRASS ROBERT</t>
+          <t>K·施特劳斯;;CHEN WEIDA;;R·格拉斯;;A·X·C·科尔;;NGUYEN BICHLIEN HOANG;;KOHLL ALEXANDER XAVIER CHRISTOF;;STRAUSS KARIN;;B·H·阮;;W·陈;;GRASS ROBERT</t>
         </is>
       </c>
       <c r="S70" t="b">
@@ -7573,7 +7573,7 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>JP;;US</t>
+          <t>US;;JP</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
@@ -7605,7 +7605,7 @@
       </c>
       <c r="R71" t="inlineStr">
         <is>
-          <t>新海 剛;;SHINKAI GOU</t>
+          <t>SHINKAI GOU;;新海 剛</t>
         </is>
       </c>
       <c r="S71" t="b">
@@ -7676,7 +7676,7 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>US;;CN</t>
+          <t>CN;;US</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
@@ -7708,7 +7708,7 @@
       </c>
       <c r="R72" t="inlineStr">
         <is>
-          <t>钟豪;;顾德恩;;蒋亚东;;LI DONGYANG;;CHEN YICHENG;;李东阳;;李伟;;LI WEI;;GU DE'EN;;ZHONG HAO;;陈奕丞;;GU DEEN;;JIANG YADONG</t>
+          <t>LI DONGYANG;;GU DEEN;;顾德恩;;钟豪;;ZHONG HAO;;CHEN YICHENG;;LI WEI;;李伟;;GU DE'EN;;JIANG YADONG;;蒋亚东;;陈奕丞;;李东阳</t>
         </is>
       </c>
       <c r="S72" t="b">
@@ -7807,7 +7807,7 @@
       </c>
       <c r="R73" t="inlineStr">
         <is>
-          <t>정영민;;신현동;;파쿼 아마드;;SHIN HYUN DONG;;FAROOQ AHMAD;;JEONG YOUNG MIN</t>
+          <t>SHIN HYUN DONG;;신현동;;JEONG YOUNG MIN;;FAROOQ AHMAD;;정영민;;파쿼 아마드</t>
         </is>
       </c>
       <c r="S73" t="b">
@@ -7874,7 +7874,7 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>JP;;KR;;CN;;EP</t>
+          <t>CN;;KR;;EP;;JP</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
@@ -7901,12 +7901,12 @@
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>ラム リサーチ コーポレーションＬＡＭ ＲＥＳＥＡＲＣＨ ＣＯＲＰＯＲＡＴＩＯＮ;;LAM RES CORP</t>
+          <t>LAM RES CORP;;ラム リサーチ コーポレーションＬＡＭ ＲＥＳＥＡＲＣＨ ＣＯＲＰＯＲＡＴＩＯＮ</t>
         </is>
       </c>
       <c r="R74" t="inlineStr">
         <is>
-          <t>GUHA JOYDEEP;;バヘディ・バヘド;;グーハ・ジョイディープ;;DAUGHERTY JOHN;;ゴットショ・リチャード・アラン;;VAHEDI VAHID;;ダウガティ・ジョン;;GOTTSCHO RICHARD ALAN</t>
+          <t>バヘディ・バヘド;;ダウガティ・ジョン;;DAUGHERTY JOHN;;ゴットショ・リチャード・アラン;;VAHEDI VAHID;;グーハ・ジョイディープ;;GUHA JOYDEEP;;GOTTSCHO RICHARD ALAN</t>
         </is>
       </c>
       <c r="S74" t="b">
@@ -8009,7 +8009,7 @@
       </c>
       <c r="R75" t="inlineStr">
         <is>
-          <t>정용호;;CHUNG YONG HO;;CHOI JEONG WOO;;최정우</t>
+          <t>CHUNG YONG HO;;최정우;;정용호;;CHOI JEONG WOO</t>
         </is>
       </c>
       <c r="S75" t="b">
@@ -8080,7 +8080,7 @@
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>US;;CN;;JP;;KR;;EP</t>
+          <t>CN;;KR;;EP;;JP;;US</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
@@ -8107,12 +8107,12 @@
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>THE UNIV OF CANTERBURY;;ザ ユニバーシティー オブ カンタベリー</t>
+          <t>ザ ユニバーシティー オブ カンタベリー;;THE UNIV OF CANTERBURY</t>
         </is>
       </c>
       <c r="R76" t="inlineStr">
         <is>
-          <t>FOSTNER SHAWN;;BROWN SIMON ANTHONY;;フォスナー ショーン;;ボーズ サウラブ クマー;;BOSE SAURABH KUMAR;;ブラウン シモン アンソニー</t>
+          <t>BROWN SIMON ANTHONY;;ブラウン シモン アンソニー;;ボーズ サウラブ クマー;;BOSE SAURABH KUMAR;;フォスナー ショーン;;FOSTNER SHAWN</t>
         </is>
       </c>
       <c r="S76" t="b">
@@ -8183,7 +8183,7 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>CN;;JP;;KR;;CA;;EP</t>
+          <t>CN;;KR;;CA;;EP;;JP</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
@@ -8210,12 +8210,12 @@
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>イリディア・インコーポレイテッドＩｒｉｄｉａ， Ｉｎｃ．;;IRIDIA INC</t>
+          <t>IRIDIA INC;;イリディア・インコーポレイテッドＩｒｉｄｉａ， Ｉｎｃ．</t>
         </is>
       </c>
       <c r="R77" t="inlineStr">
         <is>
-          <t>ポール・エフ・プレドキ;;マジャ・キャシディ;;CASSIDY MAJA;;PREDKI PAUL F</t>
+          <t>ポール・エフ・プレドキ;;PREDKI PAUL F;;CASSIDY MAJA;;マジャ・キャシディ</t>
         </is>
       </c>
       <c r="S77" t="b">
@@ -8309,7 +8309,7 @@
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>ICLEAGUE TECH CO LTD;;YANGTZE DELTA REGION INST TSINGHUA UNIV ZHEJIANG</t>
+          <t>YANGTZE DELTA REGION INST TSINGHUA UNIV ZHEJIANG;;ICLEAGUE TECH CO LTD</t>
         </is>
       </c>
       <c r="R78" t="inlineStr">
@@ -8412,12 +8412,12 @@
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>IUCF HYU;;한양대학교 산학협력단</t>
+          <t>한양대학교 산학협력단;;IUCF HYU</t>
         </is>
       </c>
       <c r="R79" t="inlineStr">
         <is>
-          <t>하키우;;YOON TAE HYUN;;윤태현;;HA KIEU MY;;TRINH XUAN TUNG;;김진배;;KIM JIN BAE;;트린수안텅</t>
+          <t>김진배;;윤태현;;HA KIEU MY;;트린수안텅;;하키우;;TRINH XUAN TUNG;;KIM JIN BAE;;YOON TAE HYUN</t>
         </is>
       </c>
       <c r="S79" t="b">
@@ -8515,12 +8515,12 @@
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>IUCF HYU;;한양대학교 산학협력단</t>
+          <t>한양대학교 산학협력단;;IUCF HYU</t>
         </is>
       </c>
       <c r="R80" t="inlineStr">
         <is>
-          <t>하키우;;YOON TAE HYUN;;윤태현;;HA KIEU MY;;TRINH XUAN TUNG;;김진배;;KIM JIN BAE;;트린수안텅</t>
+          <t>김진배;;윤태현;;HA KIEU MY;;트린수안텅;;하키우;;TRINH XUAN TUNG;;KIM JIN BAE;;YOON TAE HYUN</t>
         </is>
       </c>
       <c r="S80" t="b">
@@ -8591,7 +8591,7 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>US;;CN</t>
+          <t>CN;;US</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -8623,7 +8623,7 @@
       </c>
       <c r="R81" t="inlineStr">
         <is>
-          <t>钟豪;;顾德恩;;蒋亚东;;LI DONGYANG;;CHEN YICHENG;;李东阳;;李伟;;LI WEI;;GU DE'EN;;ZHONG HAO;;陈奕丞;;GU DEEN;;JIANG YADONG</t>
+          <t>LI DONGYANG;;GU DEEN;;顾德恩;;钟豪;;ZHONG HAO;;CHEN YICHENG;;LI WEI;;李伟;;GU DE'EN;;JIANG YADONG;;蒋亚东;;陈奕丞;;李东阳</t>
         </is>
       </c>
       <c r="S81" t="b">
@@ -8690,7 +8690,7 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>US;;TW;;CN</t>
+          <t>CN;;US;;TW</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
@@ -8722,7 +8722,7 @@
       </c>
       <c r="R82" t="inlineStr">
         <is>
-          <t>DOORNBOS GERBEN;;GERBEN DOORNBOS;;MARCUS JOHANNES HENRICUS VAN DAL;;MAURICIO MANFRINI;;MANFRINI MAURICIO;;VAN DAL MARCUS JOHANNES HENRICUS</t>
+          <t>VAN DAL MARCUS JOHANNES HENRICUS;;DOORNBOS GERBEN;;MARCUS JOHANNES HENRICUS VAN DAL;;MAURICIO MANFRINI;;MANFRINI MAURICIO;;GERBEN DOORNBOS</t>
         </is>
       </c>
       <c r="S82" t="b">
@@ -8789,7 +8789,7 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>US;;TW;;CN</t>
+          <t>CN;;US;;TW</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
@@ -8821,7 +8821,7 @@
       </c>
       <c r="R83" t="inlineStr">
         <is>
-          <t>DOORNBOS GERBEN;;GERBEN DOORNBOS;;MARCUS JOHANNES HENRICUS VAN DAL;;MAURICIO MANFRINI;;MANFRINI MAURICIO;;VAN DAL MARCUS JOHANNES HENRICUS</t>
+          <t>VAN DAL MARCUS JOHANNES HENRICUS;;DOORNBOS GERBEN;;MARCUS JOHANNES HENRICUS VAN DAL;;MAURICIO MANFRINI;;MANFRINI MAURICIO;;GERBEN DOORNBOS</t>
         </is>
       </c>
       <c r="S83" t="b">
@@ -8888,7 +8888,7 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>KR;;CA;;EP;;AU</t>
+          <t>CA;;EP;;KR;;AU</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
@@ -8915,12 +8915,12 @@
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>CATALOG TECH INC;;CATALOG TECHNOLOGIES INC</t>
+          <t>CATALOG TECHNOLOGIES INC;;CATALOG TECH INC</t>
         </is>
       </c>
       <c r="R84" t="inlineStr">
         <is>
-          <t>BHATIA SWAPNIL P;;PARK HYUNJUN;;LEAKE DEVIN;;ROQUET NATHANIEL</t>
+          <t>ROQUET NATHANIEL;;LEAKE DEVIN;;BHATIA SWAPNIL P;;PARK HYUNJUN</t>
         </is>
       </c>
       <c r="S84" t="b">
@@ -9019,7 +9019,7 @@
       </c>
       <c r="R85" t="inlineStr">
         <is>
-          <t>정영민;;신현동;;파쿼 아마드;;SHIN HYUN DONG;;FAROOQ AHMAD;;JEONG YOUNG MIN</t>
+          <t>SHIN HYUN DONG;;신현동;;JEONG YOUNG MIN;;FAROOQ AHMAD;;정영민;;파쿼 아마드</t>
         </is>
       </c>
       <c r="S85" t="b">
@@ -9086,7 +9086,7 @@
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>JP;;US</t>
+          <t>US;;JP</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
@@ -9118,7 +9118,7 @@
       </c>
       <c r="R86" t="inlineStr">
         <is>
-          <t>新海 剛;;SHINKAI GOU</t>
+          <t>SHINKAI GOU;;新海 剛</t>
         </is>
       </c>
       <c r="S86" t="b">
@@ -9212,7 +9212,7 @@
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>ICLEAGUE TECH CO LTD;;YANGTZE DELTA REGION INST TSINGHUA UNIV ZHEJIANG</t>
+          <t>YANGTZE DELTA REGION INST TSINGHUA UNIV ZHEJIANG;;ICLEAGUE TECH CO LTD</t>
         </is>
       </c>
       <c r="R87" t="inlineStr">
@@ -9288,7 +9288,7 @@
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>US;;WO;;CN;;JP;;KR;;AU;;CA;;EP</t>
+          <t>CN;;WO;;KR;;CA;;EP;;JP;;US;;AU</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
@@ -9315,12 +9315,12 @@
       </c>
       <c r="Q88" t="inlineStr">
         <is>
-          <t>NEVEN HARTMUT;;NIU YUEZHEN;;SMELYANSKIY VADIM;;GOOGLE INC;;GOOGLE LLC;;CASTRILLO SERGIO BOIXO;;グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;グーグル エルエルシー</t>
+          <t>GOOGLE INC;;NIU YUEZHEN;;グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;SMELYANSKIY VADIM;;グーグル エルエルシー;;GOOGLE LLC;;NEVEN HARTMUT;;CASTRILLO SERGIO BOIXO</t>
         </is>
       </c>
       <c r="R88" t="inlineStr">
         <is>
-          <t>NEVEN HARTMUT;;NIU YUEZHEN;;ハルトムート・ネーフェン;;SMELYANSKIY VADIM;;セルジオ・バイショ・カストリージョ;;ヴァディム・スメリャンスキー;;エドワード・ヘンリー・ファーリ;;FARHI EDWARD HENRY;;CASTRILLO SERGIO BOIXO;;BOIXO CASTRILLO SERGIO;;ハルトムート・ネーヴェン;;ユエゼン・ニウ</t>
+          <t>BOIXO CASTRILLO SERGIO;;NIU YUEZHEN;;SMELYANSKIY VADIM;;ヴァディム・スメリャンスキー;;ハルトムート・ネーヴェン;;FARHI EDWARD HENRY;;NEVEN HARTMUT;;セルジオ・バイショ・カストリージョ;;エドワード・ヘンリー・ファーリ;;ユエゼン・ニウ;;ハルトムート・ネーフェン;;CASTRILLO SERGIO BOIXO</t>
         </is>
       </c>
       <c r="S88" t="b">
@@ -9391,7 +9391,7 @@
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>US;;WO;;CN;;RU;;JP;;ZA;;KR;;AU;;EP;;CA;;IL;;TW</t>
+          <t>CN;;ZA;;WO;;RU;;KR;;IL;;CA;;TW;;EP;;JP;;US;;AU</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
@@ -9418,12 +9418,12 @@
       </c>
       <c r="Q89" t="inlineStr">
         <is>
-          <t>OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD;;스미르노브, 세르게이 니콜라예비치;;SMIRNOV SERGEY NIIKOLAYEVICH;;LANDIGRAD LTD LIABILITY CO;;LANDIGRAD LLC;;LANDIGRAD LIMITED LIABILITY COMPANY;;SMIRNOV SERGEY;;SMIRNOV SERGEY NIKOLAYEVICH;;란디그레드, 리미티드 라이어빌리티 컴퍼니</t>
+          <t>SMIRNOV SERGEY NIKOLAYEVICH;;SMIRNOV SERGEY;;스미르노브, 세르게이 니콜라예비치;;LANDIGRAD LIMITED LIABILITY COMPANY;;SMIRNOV SERGEY NIIKOLAYEVICH;;LANDIGRAD LLC;;LANDIGRAD LTD LIABILITY CO;;OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD;;란디그레드, 리미티드 라이어빌리티 컴퍼니</t>
         </is>
       </c>
       <c r="R89" t="inlineStr">
         <is>
-          <t>SMIRNOV SERGEY NIKOLAYEVICH;;스미르노브, 세르게이 니콜라예비치;;SMIRNOV SERGEJ NIKOLAEVICH;;SMIRNOV SERGEY NIIKOLAYEVICH</t>
+          <t>SMIRNOV SERGEY NIKOLAYEVICH;;SMIRNOV SERGEY NIIKOLAYEVICH;;SMIRNOV SERGEJ NIKOLAEVICH;;스미르노브, 세르게이 니콜라예비치</t>
         </is>
       </c>
       <c r="S89" t="b">
@@ -9494,7 +9494,7 @@
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>US;;WO;;CN;;RU;;JP;;ZA;;KR;;AU;;EP;;CA;;IL;;TW</t>
+          <t>CN;;ZA;;WO;;RU;;KR;;IL;;CA;;TW;;EP;;JP;;US;;AU</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
@@ -9521,12 +9521,12 @@
       </c>
       <c r="Q90" t="inlineStr">
         <is>
-          <t>OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD;;스미르노브, 세르게이 니콜라예비치;;SMIRNOV SERGEY NIIKOLAYEVICH;;LANDIGRAD LTD LIABILITY CO;;LANDIGRAD LLC;;LANDIGRAD LIMITED LIABILITY COMPANY;;SMIRNOV SERGEY;;SMIRNOV SERGEY NIKOLAYEVICH;;란디그레드, 리미티드 라이어빌리티 컴퍼니</t>
+          <t>SMIRNOV SERGEY NIKOLAYEVICH;;SMIRNOV SERGEY;;스미르노브, 세르게이 니콜라예비치;;LANDIGRAD LIMITED LIABILITY COMPANY;;SMIRNOV SERGEY NIIKOLAYEVICH;;LANDIGRAD LLC;;LANDIGRAD LTD LIABILITY CO;;OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD;;란디그레드, 리미티드 라이어빌리티 컴퍼니</t>
         </is>
       </c>
       <c r="R90" t="inlineStr">
         <is>
-          <t>SMIRNOV SERGEY NIKOLAYEVICH;;스미르노브, 세르게이 니콜라예비치;;SMIRNOV SERGEJ NIKOLAEVICH;;SMIRNOV SERGEY NIIKOLAYEVICH</t>
+          <t>SMIRNOV SERGEY NIKOLAYEVICH;;SMIRNOV SERGEY NIIKOLAYEVICH;;SMIRNOV SERGEJ NIKOLAEVICH;;스미르노브, 세르게이 니콜라예비치</t>
         </is>
       </c>
       <c r="S90" t="b">
@@ -9597,7 +9597,7 @@
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>CN;;JP;;KR;;AU;;CA;;EP</t>
+          <t>CN;;KR;;CA;;EP;;JP;;AU</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
@@ -9624,12 +9624,12 @@
       </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>킨디 인코포레이티드;;キンダイ、インコーポレイテッドＫＹＮＤＩ， ＩＮＣ．;;KYNDI INC</t>
+          <t>킨디 인코포레이티드;;KYNDI INC;;キンダイ、インコーポレイテッドＫＹＮＤＩ， ＩＮＣ．</t>
         </is>
       </c>
       <c r="R91" t="inlineStr">
         <is>
-          <t>마줌다 아룬;;アルン、マジュムダール;;MAJUMDAR ARUN</t>
+          <t>アルン、マジュムダール;;MAJUMDAR ARUN;;마줌다 아룬</t>
         </is>
       </c>
       <c r="S91" t="b">
@@ -9723,12 +9723,12 @@
       </c>
       <c r="Q92" t="inlineStr">
         <is>
-          <t>IMEC VZW;;UNIV LEUVEN KATH;;KATHOLIEKE UNIV LEUVEN KU LEUVEN RESEARCH &amp; DEVELOPMENT</t>
+          <t>UNIV LEUVEN KATH;;IMEC VZW;;KATHOLIEKE UNIV LEUVEN KU LEUVEN RESEARCH &amp; DEVELOPMENT</t>
         </is>
       </c>
       <c r="R92" t="inlineStr">
         <is>
-          <t>COSTA JOSE DIOGO;;CIUBOTARU FLORIN;;ADELMANN HANNS CHRISTOPH</t>
+          <t>CIUBOTARU FLORIN;;COSTA JOSE DIOGO;;ADELMANN HANNS CHRISTOPH</t>
         </is>
       </c>
       <c r="S92" t="b">
@@ -9826,12 +9826,12 @@
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>IBM UK;;IBM (CHINA) INVEST COMPANY LTD;;IBM</t>
+          <t>IBM (CHINA) INVEST COMPANY LTD;;IBM;;IBM UK</t>
         </is>
       </c>
       <c r="R93" t="inlineStr">
         <is>
-          <t>MCCLURE III DOUGLAS TEMPLETON;;GAMBETTA JAY M;;GAMBETTA JAY;;STEFFEN MATTHIAS;;MCCLURE III DOUGLAS T;;DIAL OLIVER</t>
+          <t>GAMBETTA JAY;;DIAL OLIVER;;STEFFEN MATTHIAS;;MCCLURE III DOUGLAS TEMPLETON;;MCCLURE III DOUGLAS T;;GAMBETTA JAY M</t>
         </is>
       </c>
       <c r="S93" t="b">
@@ -9925,12 +9925,12 @@
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>IMEC VZW;;UNIV LEUVEN KATH;;KATHOLIEKE UNIV LEUVEN KU LEUVEN RESEARCH &amp; DEVELOPMENT</t>
+          <t>UNIV LEUVEN KATH;;IMEC VZW;;KATHOLIEKE UNIV LEUVEN KU LEUVEN RESEARCH &amp; DEVELOPMENT</t>
         </is>
       </c>
       <c r="R94" t="inlineStr">
         <is>
-          <t>COSTA JOSE DIOGO;;CIUBOTARU FLORIN;;ADELMANN HANNS CHRISTOPH</t>
+          <t>CIUBOTARU FLORIN;;COSTA JOSE DIOGO;;ADELMANN HANNS CHRISTOPH</t>
         </is>
       </c>
       <c r="S94" t="b">
@@ -10001,7 +10001,7 @@
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>JP;;GB;;DE;;CN</t>
+          <t>CN;;GB;;DE;;JP</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
@@ -10033,7 +10033,7 @@
       </c>
       <c r="R95" t="inlineStr">
         <is>
-          <t>MCCLURE III DOUGLAS TEMPLETON;;ガンベッタ、ジェイ;;J·加姆贝塔;;ダイアル、オリバー;;M·斯蒂芬;;O·蒂亚尔;;MATTHIAS STEFFEN;;DOUGLAS TEMPLETON MCCLURE III;;JAY GAMBETTA;;GAMBETTA JAY;;OLIVER DIAL;;D·T·麦克鲁尔三世;;ステファン、マティアス;;マクルーア ザ サード、ダグラス、テンプルトン;;STEFFEN MATTHIAS;;DIAL OLIVER</t>
+          <t>GAMBETTA JAY;;J·加姆贝塔;;OLIVER DIAL;;DIAL OLIVER;;O·蒂亚尔;;M·斯蒂芬;;MATTHIAS STEFFEN;;マクルーア ザ サード、ダグラス、テンプルトン;;ステファン、マティアス;;STEFFEN MATTHIAS;;ダイアル、オリバー;;MCCLURE III DOUGLAS TEMPLETON;;DOUGLAS TEMPLETON MCCLURE III;;JAY GAMBETTA;;ガンベッタ、ジェイ;;D·T·麦克鲁尔三世</t>
         </is>
       </c>
       <c r="S95" t="b">
@@ -10104,7 +10104,7 @@
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>CN;;JP;;KR;;AU;;CA;;EP</t>
+          <t>CN;;KR;;CA;;EP;;JP;;AU</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
@@ -10131,12 +10131,12 @@
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>킨디 인코포레이티드;;キンダイ、インコーポレイテッドＫＹＮＤＩ， ＩＮＣ．;;KYNDI INC</t>
+          <t>킨디 인코포레이티드;;KYNDI INC;;キンダイ、インコーポレイテッドＫＹＮＤＩ， ＩＮＣ．</t>
         </is>
       </c>
       <c r="R96" t="inlineStr">
         <is>
-          <t>마줌다 아룬;;アルン、マジュムダール;;MAJUMDAR ARUN</t>
+          <t>アルン、マジュムダール;;MAJUMDAR ARUN;;마줌다 아룬</t>
         </is>
       </c>
       <c r="S96" t="b">
@@ -10207,7 +10207,7 @@
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>US;;CN</t>
+          <t>CN;;US</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
@@ -10234,12 +10234,12 @@
       </c>
       <c r="Q97" t="inlineStr">
         <is>
-          <t>中国科学院微电子研究所;;INST OF MICROELECTRONICS CAS;;INST MICROELECTRONICS CAS</t>
+          <t>中国科学院微电子研究所;;INST MICROELECTRONICS CAS;;INST OF MICROELECTRONICS CAS</t>
         </is>
       </c>
       <c r="R97" t="inlineStr">
         <is>
-          <t>亨利·H·阿达姆松;;王桂磊;;朱慧珑;;朱正勇;;ZHANG YANBO;;ZHU HUILONG;;张严波;;HENRY H ADAMSON;;ZHU ZHENGYONG;;WANG GUILEI</t>
+          <t>朱正勇;;朱慧珑;;亨利·H·阿达姆松;;HENRY H ADAMSON;;WANG GUILEI;;ZHU HUILONG;;张严波;;ZHU ZHENGYONG;;ZHANG YANBO;;王桂磊</t>
         </is>
       </c>
       <c r="S97" t="b">
@@ -10310,7 +10310,7 @@
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>JP;;GB;;DE;;CN</t>
+          <t>CN;;GB;;DE;;JP</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
@@ -10342,7 +10342,7 @@
       </c>
       <c r="R98" t="inlineStr">
         <is>
-          <t>MCCLURE III DOUGLAS TEMPLETON;;ガンベッタ、ジェイ;;J·加姆贝塔;;ダイアル、オリバー;;M·斯蒂芬;;O·蒂亚尔;;MATTHIAS STEFFEN;;DOUGLAS TEMPLETON MCCLURE III;;JAY GAMBETTA;;GAMBETTA JAY;;OLIVER DIAL;;D·T·麦克鲁尔三世;;ステファン、マティアス;;マクルーア ザ サード、ダグラス、テンプルトン;;STEFFEN MATTHIAS;;DIAL OLIVER</t>
+          <t>GAMBETTA JAY;;J·加姆贝塔;;OLIVER DIAL;;DIAL OLIVER;;O·蒂亚尔;;M·斯蒂芬;;MATTHIAS STEFFEN;;マクルーア ザ サード、ダグラス、テンプルトン;;ステファン、マティアス;;STEFFEN MATTHIAS;;ダイアル、オリバー;;MCCLURE III DOUGLAS TEMPLETON;;DOUGLAS TEMPLETON MCCLURE III;;JAY GAMBETTA;;ガンベッタ、ジェイ;;D·T·麦克鲁尔三世</t>
         </is>
       </c>
       <c r="S98" t="b">
@@ -10436,7 +10436,7 @@
       </c>
       <c r="Q99" t="inlineStr">
         <is>
-          <t>LANDIGRAD LLC;;SMIRNOV SERGEY NIKOLAYEVICH;;스미르노브, 세르게이 니콜라예비치;;란디그레드, 리미티드 라이어빌리티 컴퍼니</t>
+          <t>SMIRNOV SERGEY NIKOLAYEVICH;;스미르노브, 세르게이 니콜라예비치;;란디그레드, 리미티드 라이어빌리티 컴퍼니;;LANDIGRAD LLC</t>
         </is>
       </c>
       <c r="R99" t="inlineStr">
@@ -10539,12 +10539,12 @@
       </c>
       <c r="Q100" t="inlineStr">
         <is>
-          <t>THE UNIV OF CANTERBURY;;FOSTNER SHAWN;;BOSE SAURABH KUMAR;;BROWN SIMON ANTHONY</t>
+          <t>BOSE SAURABH KUMAR;;BROWN SIMON ANTHONY;;FOSTNER SHAWN;;THE UNIV OF CANTERBURY</t>
         </is>
       </c>
       <c r="R100" t="inlineStr">
         <is>
-          <t>FOSTNER SHAWN;;BOSE SAURABH KUMAR;;BROWN SIMON ANTHONY</t>
+          <t>BOSE SAURABH KUMAR;;BROWN SIMON ANTHONY;;FOSTNER SHAWN</t>
         </is>
       </c>
       <c r="S100" t="b">
@@ -10642,12 +10642,12 @@
       </c>
       <c r="Q101" t="inlineStr">
         <is>
-          <t>THE UNIV OF CANTERBURY;;FOSTNER SHAWN;;BOSE SAURABH KUMAR;;BROWN SIMON ANTHONY</t>
+          <t>BOSE SAURABH KUMAR;;BROWN SIMON ANTHONY;;FOSTNER SHAWN;;THE UNIV OF CANTERBURY</t>
         </is>
       </c>
       <c r="R101" t="inlineStr">
         <is>
-          <t>FOSTNER SHAWN;;BOSE SAURABH KUMAR;;BROWN SIMON ANTHONY</t>
+          <t>BOSE SAURABH KUMAR;;BROWN SIMON ANTHONY;;FOSTNER SHAWN</t>
         </is>
       </c>
       <c r="S101" t="b">
@@ -10741,7 +10741,7 @@
       </c>
       <c r="Q102" t="inlineStr">
         <is>
-          <t>LANDIGRAD LLC;;SMIRNOV SERGEY NIKOLAYEVICH;;스미르노브, 세르게이 니콜라예비치;;란디그레드, 리미티드 라이어빌리티 컴퍼니</t>
+          <t>SMIRNOV SERGEY NIKOLAYEVICH;;스미르노브, 세르게이 니콜라예비치;;란디그레드, 리미티드 라이어빌리티 컴퍼니;;LANDIGRAD LLC</t>
         </is>
       </c>
       <c r="R102" t="inlineStr">
@@ -10844,12 +10844,12 @@
       </c>
       <c r="Q103" t="inlineStr">
         <is>
-          <t>THE UNIV OF CANTERBURY;;FOSTNER SHAWN;;BOSE SAURABH KUMAR;;BROWN SIMON ANTHONY</t>
+          <t>BOSE SAURABH KUMAR;;BROWN SIMON ANTHONY;;FOSTNER SHAWN;;THE UNIV OF CANTERBURY</t>
         </is>
       </c>
       <c r="R103" t="inlineStr">
         <is>
-          <t>FOSTNER SHAWN;;BOSE SAURABH KUMAR;;BROWN SIMON ANTHONY</t>
+          <t>BOSE SAURABH KUMAR;;BROWN SIMON ANTHONY;;FOSTNER SHAWN</t>
         </is>
       </c>
       <c r="S103" t="b">
@@ -10947,12 +10947,12 @@
       </c>
       <c r="Q104" t="inlineStr">
         <is>
-          <t>DUNST MICHAEL J;;MOLINSKY BRADLEY DEAN;;HARTFORD FIRE INSURANCE COMP;;BATTAGLINI JOSEPH S;;TIPTON THOMAS ANDREW;;CARROLL WILLIAM JOSEPH</t>
+          <t>MOLINSKY BRADLEY DEAN;;HARTFORD FIRE INSURANCE COMP;;TIPTON THOMAS ANDREW;;CARROLL WILLIAM JOSEPH;;DUNST MICHAEL J;;BATTAGLINI JOSEPH S</t>
         </is>
       </c>
       <c r="R104" t="inlineStr">
         <is>
-          <t>DUNST MICHAEL J;;MOLINSKY BRADLEY DEAN;;BATTAGLINI JOSEPH S;;TIPTON THOMAS ANDREW;;CARROLL WILLIAM JOSEPH</t>
+          <t>MOLINSKY BRADLEY DEAN;;TIPTON THOMAS ANDREW;;CARROLL WILLIAM JOSEPH;;DUNST MICHAEL J;;BATTAGLINI JOSEPH S</t>
         </is>
       </c>
       <c r="S104" t="b">
@@ -11050,12 +11050,12 @@
       </c>
       <c r="Q105" t="inlineStr">
         <is>
-          <t>DUNST MICHAEL J;;MOLINSKY BRADLEY DEAN;;HARTFORD FIRE INSURANCE COMP;;BATTAGLINI JOSEPH S;;TIPTON THOMAS ANDREW;;CARROLL WILLIAM JOSEPH</t>
+          <t>MOLINSKY BRADLEY DEAN;;HARTFORD FIRE INSURANCE COMP;;TIPTON THOMAS ANDREW;;CARROLL WILLIAM JOSEPH;;DUNST MICHAEL J;;BATTAGLINI JOSEPH S</t>
         </is>
       </c>
       <c r="R105" t="inlineStr">
         <is>
-          <t>DUNST MICHAEL J;;MOLINSKY BRADLEY DEAN;;BATTAGLINI JOSEPH S;;TIPTON THOMAS ANDREW;;CARROLL WILLIAM JOSEPH</t>
+          <t>MOLINSKY BRADLEY DEAN;;TIPTON THOMAS ANDREW;;CARROLL WILLIAM JOSEPH;;DUNST MICHAEL J;;BATTAGLINI JOSEPH S</t>
         </is>
       </c>
       <c r="S105" t="b">
@@ -11153,12 +11153,12 @@
       </c>
       <c r="Q106" t="inlineStr">
         <is>
-          <t>DUNST MICHAEL J;;MOLINSKY BRADLEY DEAN;;HARTFORD FIRE INSURANCE COMP;;BATTAGLINI JOSEPH S;;TIPTON THOMAS ANDREW;;CARROLL WILLIAM JOSEPH</t>
+          <t>MOLINSKY BRADLEY DEAN;;HARTFORD FIRE INSURANCE COMP;;TIPTON THOMAS ANDREW;;CARROLL WILLIAM JOSEPH;;DUNST MICHAEL J;;BATTAGLINI JOSEPH S</t>
         </is>
       </c>
       <c r="R106" t="inlineStr">
         <is>
-          <t>DUNST MICHAEL J;;MOLINSKY BRADLEY DEAN;;BATTAGLINI JOSEPH S;;TIPTON THOMAS ANDREW;;CARROLL WILLIAM JOSEPH</t>
+          <t>MOLINSKY BRADLEY DEAN;;TIPTON THOMAS ANDREW;;CARROLL WILLIAM JOSEPH;;DUNST MICHAEL J;;BATTAGLINI JOSEPH S</t>
         </is>
       </c>
       <c r="S106" t="b">
@@ -11229,7 +11229,7 @@
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>US;;WO;;CN;;JP;;KR;;AU;;SG;;CA;;EP</t>
+          <t>CN;;WO;;KR;;CA;;EP;;JP;;US;;SG;;AU</t>
         </is>
       </c>
       <c r="K107" t="inlineStr">
@@ -11256,7 +11256,7 @@
       </c>
       <c r="Q107" t="inlineStr">
         <is>
-          <t>ラミ・バレントス;;GOOGLE INC;;구글 엘엘씨;;GOOGLE LLC;;BARENDS RAMI;;グーグル エルエルシー</t>
+          <t>GOOGLE INC;;구글 엘엘씨;;ラミ・バレントス;;グーグル エルエルシー;;BARENDS RAMI;;GOOGLE LLC</t>
         </is>
       </c>
       <c r="R107" t="inlineStr">
@@ -11332,7 +11332,7 @@
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>US;;WO;;CN;;JP;;KR;;AU;;SG;;CA;;EP</t>
+          <t>CN;;WO;;KR;;CA;;EP;;JP;;US;;SG;;AU</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
@@ -11359,7 +11359,7 @@
       </c>
       <c r="Q108" t="inlineStr">
         <is>
-          <t>ラミ・バレントス;;GOOGLE INC;;구글 엘엘씨;;GOOGLE LLC;;BARENDS RAMI;;グーグル エルエルシー</t>
+          <t>GOOGLE INC;;구글 엘엘씨;;ラミ・バレントス;;グーグル エルエルシー;;BARENDS RAMI;;GOOGLE LLC</t>
         </is>
       </c>
       <c r="R108" t="inlineStr">
@@ -11462,12 +11462,12 @@
       </c>
       <c r="Q109" t="inlineStr">
         <is>
-          <t>DUNST MICHAEL J;;MOLINSKY BRADLEY DEAN;;HARTFORD FIRE INSURANCE COMP;;BATTAGLINI JOSEPH S;;TIPTON THOMAS ANDREW;;CARROLL WILLIAM JOSEPH</t>
+          <t>MOLINSKY BRADLEY DEAN;;HARTFORD FIRE INSURANCE COMP;;TIPTON THOMAS ANDREW;;CARROLL WILLIAM JOSEPH;;DUNST MICHAEL J;;BATTAGLINI JOSEPH S</t>
         </is>
       </c>
       <c r="R109" t="inlineStr">
         <is>
-          <t>DUNST MICHAEL J;;MOLINSKY BRADLEY DEAN;;BATTAGLINI JOSEPH S;;TIPTON THOMAS ANDREW;;CARROLL WILLIAM JOSEPH</t>
+          <t>MOLINSKY BRADLEY DEAN;;TIPTON THOMAS ANDREW;;CARROLL WILLIAM JOSEPH;;DUNST MICHAEL J;;BATTAGLINI JOSEPH S</t>
         </is>
       </c>
       <c r="S109" t="b">
@@ -11538,7 +11538,7 @@
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>US;;WO;;CN;;JP;;KR;;AU;;SG;;CA;;EP</t>
+          <t>CN;;WO;;KR;;CA;;EP;;JP;;US;;SG;;AU</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
@@ -11565,7 +11565,7 @@
       </c>
       <c r="Q110" t="inlineStr">
         <is>
-          <t>ラミ・バレントス;;GOOGLE INC;;구글 엘엘씨;;GOOGLE LLC;;BARENDS RAMI;;グーグル エルエルシー</t>
+          <t>GOOGLE INC;;구글 엘엘씨;;ラミ・バレントス;;グーグル エルエルシー;;BARENDS RAMI;;GOOGLE LLC</t>
         </is>
       </c>
       <c r="R110" t="inlineStr">
@@ -11668,12 +11668,12 @@
       </c>
       <c r="Q111" t="inlineStr">
         <is>
-          <t>DUNST MICHAEL J;;MOLINSKY BRADLEY DEAN;;HARTFORD FIRE INSURANCE COMP;;BATTAGLINI JOSEPH S;;TIPTON THOMAS ANDREW;;CARROLL WILLIAM JOSEPH</t>
+          <t>MOLINSKY BRADLEY DEAN;;HARTFORD FIRE INSURANCE COMP;;TIPTON THOMAS ANDREW;;CARROLL WILLIAM JOSEPH;;DUNST MICHAEL J;;BATTAGLINI JOSEPH S</t>
         </is>
       </c>
       <c r="R111" t="inlineStr">
         <is>
-          <t>DUNST MICHAEL J;;MOLINSKY BRADLEY DEAN;;BATTAGLINI JOSEPH S;;TIPTON THOMAS ANDREW;;CARROLL WILLIAM JOSEPH</t>
+          <t>MOLINSKY BRADLEY DEAN;;TIPTON THOMAS ANDREW;;CARROLL WILLIAM JOSEPH;;DUNST MICHAEL J;;BATTAGLINI JOSEPH S</t>
         </is>
       </c>
       <c r="S111" t="b">
@@ -11744,7 +11744,7 @@
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>US;;WO;;CN;;RU;;JP;;ZA;;KR;;AU;;EP;;CA;;IL;;TW</t>
+          <t>CN;;ZA;;WO;;RU;;KR;;IL;;CA;;TW;;EP;;JP;;US;;AU</t>
         </is>
       </c>
       <c r="K112" t="inlineStr">
@@ -11771,12 +11771,12 @@
       </c>
       <c r="Q112" t="inlineStr">
         <is>
-          <t>OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD;;SMIRNOV SERGEY NIIKOLAYEVICH;;LANDIGRAD LTD LIABILITY CO;;LANDIGRAD LLC;;LANDIGRAD LIMITED LIABILITY COMPANY;;SMIRNOV SERGEY;;SMIRNOV SERGEY NIKOLAYEVICH</t>
+          <t>SMIRNOV SERGEY NIKOLAYEVICH;;SMIRNOV SERGEY;;SMIRNOV SERGEY NIIKOLAYEVICH;;LANDIGRAD LLC;;LANDIGRAD LTD LIABILITY CO;;OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD;;LANDIGRAD LIMITED LIABILITY COMPANY</t>
         </is>
       </c>
       <c r="R112" t="inlineStr">
         <is>
-          <t>SMIRNOV SERGEY NIKOLAYEVICH;;SMIRNOV SERGEY NIIKOLAYEVICH;;SMIRNOV SERGEJ NIKOLAEVICH</t>
+          <t>SMIRNOV SERGEY NIKOLAYEVICH;;SMIRNOV SERGEJ NIKOLAEVICH;;SMIRNOV SERGEY NIIKOLAYEVICH</t>
         </is>
       </c>
       <c r="S112" t="b">
@@ -11847,7 +11847,7 @@
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>US;;WO;;CN;;RU;;JP;;ZA;;KR;;AU;;EP;;CA;;IL;;TW</t>
+          <t>CN;;ZA;;WO;;RU;;KR;;IL;;CA;;TW;;EP;;JP;;US;;AU</t>
         </is>
       </c>
       <c r="K113" t="inlineStr">
@@ -11874,12 +11874,12 @@
       </c>
       <c r="Q113" t="inlineStr">
         <is>
-          <t>OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD;;SMIRNOV SERGEY NIIKOLAYEVICH;;LANDIGRAD LTD LIABILITY CO;;LANDIGRAD LLC;;LANDIGRAD LIMITED LIABILITY COMPANY;;SMIRNOV SERGEY;;SMIRNOV SERGEY NIKOLAYEVICH</t>
+          <t>SMIRNOV SERGEY NIKOLAYEVICH;;SMIRNOV SERGEY;;SMIRNOV SERGEY NIIKOLAYEVICH;;LANDIGRAD LLC;;LANDIGRAD LTD LIABILITY CO;;OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD;;LANDIGRAD LIMITED LIABILITY COMPANY</t>
         </is>
       </c>
       <c r="R113" t="inlineStr">
         <is>
-          <t>SMIRNOV SERGEY NIKOLAYEVICH;;SMIRNOV SERGEY NIIKOLAYEVICH;;SMIRNOV SERGEJ NIKOLAEVICH</t>
+          <t>SMIRNOV SERGEY NIKOLAYEVICH;;SMIRNOV SERGEJ NIKOLAEVICH;;SMIRNOV SERGEY NIIKOLAYEVICH</t>
         </is>
       </c>
       <c r="S113" t="b">
@@ -11950,7 +11950,7 @@
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>US;;WO;;CN;;RU;;JP;;ZA;;KR;;AU;;EP;;CA;;IL;;TW</t>
+          <t>CN;;ZA;;WO;;RU;;KR;;IL;;CA;;TW;;EP;;JP;;US;;AU</t>
         </is>
       </c>
       <c r="K114" t="inlineStr">
@@ -11977,12 +11977,12 @@
       </c>
       <c r="Q114" t="inlineStr">
         <is>
-          <t>OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD;;SMIRNOV SERGEY NIIKOLAYEVICH;;LANDIGRAD LTD LIABILITY CO;;LANDIGRAD LLC;;LANDIGRAD LIMITED LIABILITY COMPANY;;SMIRNOV SERGEY;;SMIRNOV SERGEY NIKOLAYEVICH</t>
+          <t>SMIRNOV SERGEY NIKOLAYEVICH;;SMIRNOV SERGEY;;SMIRNOV SERGEY NIIKOLAYEVICH;;LANDIGRAD LLC;;LANDIGRAD LTD LIABILITY CO;;OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD;;LANDIGRAD LIMITED LIABILITY COMPANY</t>
         </is>
       </c>
       <c r="R114" t="inlineStr">
         <is>
-          <t>SMIRNOV SERGEY NIKOLAYEVICH;;SMIRNOV SERGEY NIIKOLAYEVICH;;SMIRNOV SERGEJ NIKOLAEVICH</t>
+          <t>SMIRNOV SERGEY NIKOLAYEVICH;;SMIRNOV SERGEJ NIKOLAEVICH;;SMIRNOV SERGEY NIIKOLAYEVICH</t>
         </is>
       </c>
       <c r="S114" t="b">
@@ -12049,7 +12049,7 @@
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>US;;WO;;CN;;JP;;KR;;AU;;CA;;EP</t>
+          <t>CN;;WO;;KR;;CA;;EP;;JP;;US;;AU</t>
         </is>
       </c>
       <c r="K115" t="inlineStr">
@@ -12076,12 +12076,12 @@
       </c>
       <c r="Q115" t="inlineStr">
         <is>
-          <t>NEVEN HARTMUT;;NIU YUEZHEN;;SMELYANSKIY VADIM;;GOOGLE INC;;GOOGLE LLC;;CASTRILLO SERGIO BOIXO;;グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ</t>
+          <t>GOOGLE INC;;NIU YUEZHEN;;グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;SMELYANSKIY VADIM;;GOOGLE LLC;;NEVEN HARTMUT;;CASTRILLO SERGIO BOIXO</t>
         </is>
       </c>
       <c r="R115" t="inlineStr">
         <is>
-          <t>NEVEN HARTMUT;;NIU YUEZHEN;;SMELYANSKIY VADIM;;セルジオ・バイショ・カストリージョ;;ヴァディム・スメリャンスキー;;CASTRILLO SERGIO BOIXO;;BOIXO CASTRILLO SERGIO;;ハルトムート・ネーフェン;;ユエゼン・ニウ</t>
+          <t>BOIXO CASTRILLO SERGIO;;SMELYANSKIY VADIM;;NIU YUEZHEN;;ヴァディム・スメリャンスキー;;セルジオ・バイショ・カストリージョ;;NEVEN HARTMUT;;ユエゼン・ニウ;;ハルトムート・ネーフェン;;CASTRILLO SERGIO BOIXO</t>
         </is>
       </c>
       <c r="S115" t="b">
@@ -12148,7 +12148,7 @@
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>US;;WO;;CN;;JP;;KR;;AU;;CA;;EP</t>
+          <t>CN;;WO;;KR;;CA;;EP;;JP;;US;;AU</t>
         </is>
       </c>
       <c r="K116" t="inlineStr">
@@ -12175,12 +12175,12 @@
       </c>
       <c r="Q116" t="inlineStr">
         <is>
-          <t>NEVEN HARTMUT;;NIU YUEZHEN;;SMELYANSKIY VADIM;;GOOGLE INC;;GOOGLE LLC;;CASTRILLO SERGIO BOIXO;;グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ</t>
+          <t>GOOGLE INC;;NIU YUEZHEN;;グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;SMELYANSKIY VADIM;;GOOGLE LLC;;NEVEN HARTMUT;;CASTRILLO SERGIO BOIXO</t>
         </is>
       </c>
       <c r="R116" t="inlineStr">
         <is>
-          <t>NEVEN HARTMUT;;NIU YUEZHEN;;SMELYANSKIY VADIM;;セルジオ・バイショ・カストリージョ;;ヴァディム・スメリャンスキー;;CASTRILLO SERGIO BOIXO;;BOIXO CASTRILLO SERGIO;;ハルトムート・ネーフェン;;ユエゼン・ニウ</t>
+          <t>BOIXO CASTRILLO SERGIO;;SMELYANSKIY VADIM;;NIU YUEZHEN;;ヴァディム・スメリャンスキー;;セルジオ・バイショ・カストリージョ;;NEVEN HARTMUT;;ユエゼン・ニウ;;ハルトムート・ネーフェン;;CASTRILLO SERGIO BOIXO</t>
         </is>
       </c>
       <c r="S116" t="b">
@@ -12251,7 +12251,7 @@
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>US;;WO;;CN;;RU;;JP;;ZA;;KR;;AU;;EP;;CA;;IL;;TW</t>
+          <t>CN;;ZA;;WO;;RU;;KR;;IL;;CA;;TW;;EP;;JP;;US;;AU</t>
         </is>
       </c>
       <c r="K117" t="inlineStr">
@@ -12278,12 +12278,12 @@
       </c>
       <c r="Q117" t="inlineStr">
         <is>
-          <t>OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD;;SMIRNOV SERGEY NIIKOLAYEVICH;;LANDIGRAD LTD LIABILITY CO;;LANDIGRAD LLC;;LANDIGRAD LIMITED LIABILITY COMPANY;;SMIRNOV SERGEY;;SMIRNOV SERGEY NIKOLAYEVICH</t>
+          <t>SMIRNOV SERGEY NIKOLAYEVICH;;SMIRNOV SERGEY;;SMIRNOV SERGEY NIIKOLAYEVICH;;LANDIGRAD LLC;;LANDIGRAD LTD LIABILITY CO;;OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD;;LANDIGRAD LIMITED LIABILITY COMPANY</t>
         </is>
       </c>
       <c r="R117" t="inlineStr">
         <is>
-          <t>SMIRNOV SERGEY NIKOLAYEVICH;;SMIRNOV SERGEY NIIKOLAYEVICH;;SMIRNOV SERGEJ NIKOLAEVICH</t>
+          <t>SMIRNOV SERGEY NIKOLAYEVICH;;SMIRNOV SERGEJ NIKOLAEVICH;;SMIRNOV SERGEY NIIKOLAYEVICH</t>
         </is>
       </c>
       <c r="S117" t="b">
@@ -12350,7 +12350,7 @@
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>US;;WO;;CN;;JP;;KR;;AU;;CA;;EP</t>
+          <t>CN;;WO;;KR;;CA;;EP;;JP;;US;;AU</t>
         </is>
       </c>
       <c r="K118" t="inlineStr">
@@ -12377,12 +12377,12 @@
       </c>
       <c r="Q118" t="inlineStr">
         <is>
-          <t>NEVEN HARTMUT;;NIU YUEZHEN;;SMELYANSKIY VADIM;;GOOGLE INC;;GOOGLE LLC;;CASTRILLO SERGIO BOIXO;;グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ</t>
+          <t>GOOGLE INC;;NIU YUEZHEN;;グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;SMELYANSKIY VADIM;;GOOGLE LLC;;NEVEN HARTMUT;;CASTRILLO SERGIO BOIXO</t>
         </is>
       </c>
       <c r="R118" t="inlineStr">
         <is>
-          <t>NEVEN HARTMUT;;NIU YUEZHEN;;SMELYANSKIY VADIM;;セルジオ・バイショ・カストリージョ;;ヴァディム・スメリャンスキー;;CASTRILLO SERGIO BOIXO;;BOIXO CASTRILLO SERGIO;;ハルトムート・ネーフェン;;ユエゼン・ニウ</t>
+          <t>BOIXO CASTRILLO SERGIO;;SMELYANSKIY VADIM;;NIU YUEZHEN;;ヴァディム・スメリャンスキー;;セルジオ・バイショ・カストリージョ;;NEVEN HARTMUT;;ユエゼン・ニウ;;ハルトムート・ネーフェン;;CASTRILLO SERGIO BOIXO</t>
         </is>
       </c>
       <c r="S118" t="b">
@@ -12449,7 +12449,7 @@
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>US;;WO;;CN;;JP;;KR;;AU;;CA;;EP</t>
+          <t>CN;;WO;;KR;;CA;;EP;;JP;;US;;AU</t>
         </is>
       </c>
       <c r="K119" t="inlineStr">
@@ -12476,12 +12476,12 @@
       </c>
       <c r="Q119" t="inlineStr">
         <is>
-          <t>NEVEN HARTMUT;;NIU YUEZHEN;;SMELYANSKIY VADIM;;GOOGLE INC;;GOOGLE LLC;;CASTRILLO SERGIO BOIXO;;グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ</t>
+          <t>GOOGLE INC;;NIU YUEZHEN;;グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;SMELYANSKIY VADIM;;GOOGLE LLC;;NEVEN HARTMUT;;CASTRILLO SERGIO BOIXO</t>
         </is>
       </c>
       <c r="R119" t="inlineStr">
         <is>
-          <t>NEVEN HARTMUT;;NIU YUEZHEN;;SMELYANSKIY VADIM;;セルジオ・バイショ・カストリージョ;;ヴァディム・スメリャンスキー;;CASTRILLO SERGIO BOIXO;;BOIXO CASTRILLO SERGIO;;ハルトムート・ネーフェン;;ユエゼン・ニウ</t>
+          <t>BOIXO CASTRILLO SERGIO;;SMELYANSKIY VADIM;;NIU YUEZHEN;;ヴァディム・スメリャンスキー;;セルジオ・バイショ・カストリージョ;;NEVEN HARTMUT;;ユエゼン・ニウ;;ハルトムート・ネーフェン;;CASTRILLO SERGIO BOIXO</t>
         </is>
       </c>
       <c r="S119" t="b">
@@ -12552,7 +12552,7 @@
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>US;;WO;;CN;;RU;;JP;;ZA;;KR;;AU;;EP;;CA;;IL;;TW</t>
+          <t>CN;;ZA;;WO;;RU;;KR;;IL;;CA;;TW;;EP;;JP;;US;;AU</t>
         </is>
       </c>
       <c r="K120" t="inlineStr">
@@ -12579,12 +12579,12 @@
       </c>
       <c r="Q120" t="inlineStr">
         <is>
-          <t>OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD;;SMIRNOV SERGEY NIIKOLAYEVICH;;LANDIGRAD LTD LIABILITY CO;;LANDIGRAD LLC;;LANDIGRAD LIMITED LIABILITY COMPANY;;SMIRNOV SERGEY;;SMIRNOV SERGEY NIKOLAYEVICH</t>
+          <t>SMIRNOV SERGEY NIKOLAYEVICH;;SMIRNOV SERGEY;;SMIRNOV SERGEY NIIKOLAYEVICH;;LANDIGRAD LLC;;LANDIGRAD LTD LIABILITY CO;;OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD;;LANDIGRAD LIMITED LIABILITY COMPANY</t>
         </is>
       </c>
       <c r="R120" t="inlineStr">
         <is>
-          <t>SMIRNOV SERGEY NIKOLAYEVICH;;SMIRNOV SERGEY NIIKOLAYEVICH;;SMIRNOV SERGEJ NIKOLAEVICH</t>
+          <t>SMIRNOV SERGEY NIKOLAYEVICH;;SMIRNOV SERGEJ NIKOLAEVICH;;SMIRNOV SERGEY NIIKOLAYEVICH</t>
         </is>
       </c>
       <c r="S120" t="b">

--- a/tests/integration/out/ai-and-nanotech-applicants.xlsx
+++ b/tests/integration/out/ai-and-nanotech-applicants.xlsx
@@ -610,7 +610,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>US;;WO</t>
+          <t>WO;;US</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -642,7 +642,7 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>ASKER MICHAEL ALBERT;;MAXIM GEORGE ADRIAN;;LEIPOLD DIRK ROBERT WALTER</t>
+          <t>LEIPOLD DIRK ROBERT WALTER;;ASKER MICHAEL ALBERT;;MAXIM GEORGE ADRIAN</t>
         </is>
       </c>
       <c r="S2" t="b">
@@ -713,7 +713,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>CN;;WO;;DE;;GB;;JP;;US</t>
+          <t>WO;;JP;;US;;GB;;DE;;CN</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -740,12 +740,12 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>IBM (CHINA) INVEST COMPANY LTD;;国际商业机器公司;;IBM UK;;インターナショナル・ビジネス・マシーンズ・コーポレーションＩＮＴＥＲＮＡＴＩＯＮＡＬ ＢＵＳＩＮＥＳＳ ＭＡＣＨＩＮＥＳ ＣＯＲＰＯＲＡＴＩＯＮ;;IBM</t>
+          <t>インターナショナル・ビジネス・マシーンズ・コーポレーションＩＮＴＥＲＮＡＴＩＯＮＡＬ ＢＵＳＩＮＥＳＳ ＭＡＣＨＩＮＥＳ ＣＯＲＰＯＲＡＴＩＯＮ;;IBM;;IBM UK;;IBM (CHINA) INVEST COMPANY LTD;;国际商业机器公司</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>NANNICINI GIACOMO;;GAMBETTA JAY;;GREENBERG DON;;BISHOP LEV;;M·斯蒂芬;;PRZYBYLSKI KEVIN J;;TEMME PAUL KRISTAN;;STEFFEN MATTHIAS;;PHAN ANNA T;;O·蒂亚尔;;REZNICEK ALEXANDER;;OLIVER DIAL;;PHAN ANNA;;LIU PENG;;マクルーア ザ サード、ダグラス、テンプルトン;;ステファン、マティアス;;ダイアル、オリバー;;OLIVADESE SALVATORE;;MCCLURE III DOUGLAS T;;MISGEN MARVIN M;;D·T·麦克鲁尔三世;;MARTIN FERNANDEZ FRANCISCO JOSE;;KUCZYNSKI JOSEPH;;OLIVADESE SALVATORE BERNARDO;;GAMBETTA JAY M;;ガンベッタ、ジェイ;;JAY GAMBETTA;;TEMME PAUL;;DIAL OLIVER;;PRISCO JOSEPH F;;NEUMAN-HORN DEBRA A;;LEE CHOONGHYUN;;PISTOIA MARCO;;DOUGLAS TEMPLETON MCCLURE III;;ANDO TAKASHI;;J·加姆贝塔;;CORCOLES-GONZALEZ ANTONIO;;HEKMATSHOARTABARI BAHMAN;;BISHOP LEV SAMUEL;;MATTHIAS STEFFEN;;HASHEMI POUYA;;CHEN RICHARD;;ZHANG JINGYUN;;MCCLURE III DOUGLAS TEMPLETON;;FARO SERTAGE ISMAEL;;JAVADIABHARI ALI</t>
+          <t>HASHEMI POUYA;;ZHANG JINGYUN;;DIAL OLIVER;;D·T·麦克鲁尔三世;;OLIVADESE SALVATORE;;CORCOLES-GONZALEZ ANTONIO;;LIU PENG;;マクルーア ザ サード、ダグラス、テンプルトン;;BISHOP LEV;;PRZYBYLSKI KEVIN J;;PHAN ANNA T;;ダイアル、オリバー;;STEFFEN MATTHIAS;;JAY GAMBETTA;;J·加姆贝塔;;MARTIN FERNANDEZ FRANCISCO JOSE;;MISGEN MARVIN M;;GAMBETTA JAY;;M·斯蒂芬;;TEMME PAUL KRISTAN;;NANNICINI GIACOMO;;JAVADIABHARI ALI;;MATTHIAS STEFFEN;;ステファン、マティアス;;TEMME PAUL;;REZNICEK ALEXANDER;;PHAN ANNA;;BISHOP LEV SAMUEL;;DOUGLAS TEMPLETON MCCLURE III;;PRISCO JOSEPH F;;KUCZYNSKI JOSEPH;;LEE CHOONGHYUN;;NEUMAN-HORN DEBRA A;;GAMBETTA JAY M;;OLIVADESE SALVATORE BERNARDO;;HEKMATSHOARTABARI BAHMAN;;O·蒂亚尔;;GREENBERG DON;;PISTOIA MARCO;;ANDO TAKASHI;;CHEN RICHARD;;MCCLURE III DOUGLAS TEMPLETON;;FARO SERTAGE ISMAEL;;ガンベッタ、ジェイ;;MCCLURE III DOUGLAS T;;OLIVER DIAL</t>
         </is>
       </c>
       <c r="S3" t="b">
@@ -816,7 +816,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>CN;;WO;;KR;;CA;;EP;;JP;;US;;SG;;AU</t>
+          <t>WO;;AU;;JP;;US;;CA;;EP;;SG;;KR;;CN</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -826,7 +826,7 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>CA;;US;;AU</t>
+          <t>AU;;US;;CA</t>
         </is>
       </c>
       <c r="M4" t="n">
@@ -843,12 +843,12 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>GOOGLE INC;;구글 엘엘씨;;グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;NIU YUEZHEN;;ラミ・バレントス;;グーグル エルエルシー;;SMELYANSKIY VADIM;;BARENDS RAMI;;GOOGLE LLC;;NEVEN HARTMUT;;CASTRILLO SERGIO BOIXO</t>
+          <t>GOOGLE LLC;;ラミ・バレントス;;CASTRILLO SERGIO BOIXO;;グーグル エルエルシー;;NIU YUEZHEN;;GOOGLE INC;;구글 엘엘씨;;SMELYANSKIY VADIM;;NEVEN HARTMUT;;BARENDS RAMI;;グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>바엔즈 라미;;BOIXO CASTRILLO SERGIO;;ライアン・バブシュ;;SMELYANSKIY VADIM;;NIU YUEZHEN;;ラミ・バレントス;;ヴァディム・スメリャンスキー;;NEVEN HELMUT;;FARHI EDWARD HENRY;;NEVEN HARTMUT;;BARENDS RAMI;;ハルトムート・ネーヴェン;;セルジオ・バイショ・カストリージョ;;エドワード・ヘンリー・ファーリ;;ユエゼン・ニウ;;ハルトムート・ネーフェン;;BABBUSH RYAN;;CASTRILLO SERGIO BOIXO</t>
+          <t>CASTRILLO SERGIO BOIXO;;ラミ・バレントス;;NIU YUEZHEN;;FARHI EDWARD HENRY;;ヴァディム・スメリャンスキー;;セルジオ・バイショ・カストリージョ;;바엔즈 라미;;ユエゼン・ニウ;;BABBUSH RYAN;;BOIXO CASTRILLO SERGIO;;NEVEN HARTMUT;;SMELYANSKIY VADIM;;エドワード・ヘンリー・ファーリ;;NEVEN HELMUT;;ハルトムート・ネーヴェン;;BARENDS RAMI;;ハルトムート・ネーフェン;;ライアン・バブシュ</t>
         </is>
       </c>
       <c r="S4" t="b">
@@ -919,7 +919,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>US;;EP;;WO</t>
+          <t>WO;;US;;EP</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -951,7 +951,7 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>CURTIS MICHAEL;;REAGOR MATTHEW J;;KARALEKAS PETER JONATHAN;;SETE EYOB A;;ZENG WILLIAM J;;WILSON CHRISTOPHER MOGAN;;JOHNSON BLAKE ROBERT;;DA SILVA MARCUS PALMER;;MCKIERNAN KERI ANN;;HEIDEL STEVEN;;TEZAK NIKOLAS ANTON;;ALAM MUHAMMAD SOHAIB;;SMITH ROBERT STANLEY;;PETERSON ERIC CHRISTOPHER;;ZENG WILLIAM;;OSBORN CHRISTOPHER BUTLER;;RUST MICHAEL;;RIGETTI CHAD TYLER;;JONES GLENN;;SETE EYOB;;DESAI ANAND;;CURTIS MICHAEL J;;LYNCH ADAM DAVID;;DAVIS ERIK JOSEPH</t>
+          <t>OSBORN CHRISTOPHER BUTLER;;ZENG WILLIAM J;;ZENG WILLIAM;;MCKIERNAN KERI ANN;;DAVIS ERIK JOSEPH;;HEIDEL STEVEN;;RIGETTI CHAD TYLER;;DA SILVA MARCUS PALMER;;SETE EYOB;;CURTIS MICHAEL J;;REAGOR MATTHEW J;;WILSON CHRISTOPHER MOGAN;;TEZAK NIKOLAS ANTON;;RUST MICHAEL;;DESAI ANAND;;SETE EYOB A;;LYNCH ADAM DAVID;;JOHNSON BLAKE ROBERT;;ALAM MUHAMMAD SOHAIB;;KARALEKAS PETER JONATHAN;;JONES GLENN;;SMITH ROBERT STANLEY;;CURTIS MICHAEL;;PETERSON ERIC CHRISTOPHER</t>
         </is>
       </c>
       <c r="S5" t="b">
@@ -1022,7 +1022,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>CN;;US;;EP</t>
+          <t>US;;CN;;EP</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -1049,12 +1049,12 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>D WAVE SYSTEMS INC;;YARKONI SHEIR</t>
+          <t>YARKONI SHEIR;;D WAVE SYSTEMS INC</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>BOOTHBY THOMAS J;;XUE YANBO;;YARKONI SHEIR;;AMIN MOHAMMAD H;;KING ANDREW DOUGLAS;;ANDRIYASH EVGENY A;;MACREADY WILLIAM G;;ANDRIYASH EVGENY;;AMIN MOHAMMAD H S;;BOOTHBY KELLY T R;;LANTING TREVOR MICHAEL;;ROLFE JASON</t>
+          <t>ANDRIYASH EVGENY;;BOOTHBY KELLY T R;;ROLFE JASON;;LANTING TREVOR MICHAEL;;ANDRIYASH EVGENY A;;BOOTHBY THOMAS J;;YARKONI SHEIR;;KING ANDREW DOUGLAS;;AMIN MOHAMMAD H S;;AMIN MOHAMMAD H;;MACREADY WILLIAM G;;XUE YANBO</t>
         </is>
       </c>
       <c r="S6" t="b">
@@ -1125,7 +1125,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>CN;;US</t>
+          <t>US;;CN</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1135,7 +1135,7 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>CN;;US</t>
+          <t>US;;CN</t>
         </is>
       </c>
       <c r="M7" t="n">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>RADAMSON HENRY H;;朱慧珑;;朱正勇;;亨利·H·阿达姆松;;HENRY H ADAMSON;;WANG GUILEI;;ZHU HUILONG;;张严波;;ZHU ZHENGYONG;;ZHANG YANBO;;王桂磊</t>
+          <t>ZHANG YANBO;;朱慧珑;;王桂磊;;HENRY H ADAMSON;;RADAMSON HENRY H;;朱正勇;;ZHU HUILONG;;张严波;;WANG GUILEI;;ZHU ZHENGYONG;;亨利·H·阿达姆松</t>
         </is>
       </c>
       <c r="S7" t="b">
@@ -1228,7 +1228,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>CN;;WO;;KR;;CA;;EP;;JP;;US;;AU</t>
+          <t>WO;;AU;;JP;;US;;CA;;EP;;KR;;CN</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -1238,7 +1238,7 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>US;;AU</t>
+          <t>AU;;US</t>
         </is>
       </c>
       <c r="M8" t="n">
@@ -1255,12 +1255,12 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>킨디 인코포레이티드;;KYNDI INC;;キンダイ、インコーポレイテッドＫＹＮＤＩ， ＩＮＣ．</t>
+          <t>キンダイ、インコーポレイテッドＫＹＮＤＩ， ＩＮＣ．;;KYNDI INC;;킨디 인코포레이티드</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>アルン、マジュムダール;;MAJUMDAR ARUN;;마줌다 아룬</t>
+          <t>MAJUMDAR ARUN;;アルン、マジュムダール;;마줌다 아룬</t>
         </is>
       </c>
       <c r="S8" t="b">
@@ -1327,7 +1327,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>CA;;US;;WO;;EP</t>
+          <t>WO;;US;;CA;;EP</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -1359,7 +1359,7 @@
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>MASILAMANI ASHOK;;GOULD MATTHEW V;;KHOMAMI ABADI MOJTABA;;MASILAMANI ASHOK PRABHU;;GAHROOSI AMIR;;GAHROOSI AMIR BAHADOR;;GOULD MATTHEW</t>
+          <t>KHOMAMI ABADI MOJTABA;;MASILAMANI ASHOK PRABHU;;GOULD MATTHEW V;;GOULD MATTHEW;;MASILAMANI ASHOK;;GAHROOSI AMIR BAHADOR;;GAHROOSI AMIR</t>
         </is>
       </c>
       <c r="S9" t="b">
@@ -1430,7 +1430,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>TW;;EP;;US;;WO</t>
+          <t>WO;;TW;;US;;EP</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1462,7 +1462,7 @@
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>YAROSLAVSKY IGOR;;SIGNAEVSKI MAXIM M;;SIGNAEVSKY MAXIM;;YAROSLAVSKY IGOR YEHUDA</t>
+          <t>YAROSLAVSKY IGOR YEHUDA;;SIGNAEVSKY MAXIM;;YAROSLAVSKY IGOR;;SIGNAEVSKI MAXIM M</t>
         </is>
       </c>
       <c r="S10" t="b">
@@ -1529,7 +1529,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>CA;;US;;KR;;WO</t>
+          <t>WO;;US;;KR;;CA</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1539,7 +1539,7 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>CA;;US</t>
+          <t>US;;CA</t>
         </is>
       </c>
       <c r="M11" t="n">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>CROSHAW JEREMIAH;;WALUS CONRAD;;WOLKOW ROBERT;;HUFF TALEANA;;WALUS KONRAD;;WOLKOW ROBERT A;;DIENEL THOMAS;;RETALLICK JACOB;;LIVADARU LUCIAN;;RASHIDI MOHAMMAD;;VINE WYATT</t>
+          <t>CROSHAW JEREMIAH;;WOLKOW ROBERT;;RASHIDI MOHAMMAD;;WOLKOW ROBERT A;;WALUS KONRAD;;VINE WYATT;;DIENEL THOMAS;;WALUS CONRAD;;HUFF TALEANA;;LIVADARU LUCIAN;;RETALLICK JACOB</t>
         </is>
       </c>
       <c r="S11" t="b">
@@ -1628,7 +1628,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>CA;;US;;EP;;WO</t>
+          <t>WO;;US;;CA;;EP</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1660,7 +1660,7 @@
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>PICHLER HANNES;;BHASKAR MIHIR KESHAV;;EVANS RUFFIN;;EVANS RUFFIN E;;NGUYEN CHRISTIAN;;CHOI SOONWON;;LUNKIN MIKHAIL;;ZHOU LEO XIANGYU;;BHASKAR MIHIR;;ZHOU LEO;;WANG SHENGTAO;;SUKACHEV DENIS;;SIPAHIGIL ALP;;LUKIN MIKHAIL D;;LUKIN MIKHAIL;;NGUYEN CHRISTIAN THIEU;;SUKACHEV DENIS D</t>
+          <t>SIPAHIGIL ALP;;BHASKAR MIHIR;;NGUYEN CHRISTIAN THIEU;;ZHOU LEO XIANGYU;;CHOI SOONWON;;WANG SHENGTAO;;BHASKAR MIHIR KESHAV;;EVANS RUFFIN E;;NGUYEN CHRISTIAN;;SUKACHEV DENIS D;;ZHOU LEO;;SUKACHEV DENIS;;LUKIN MIKHAIL D;;EVANS RUFFIN;;PICHLER HANNES;;LUNKIN MIKHAIL;;LUKIN MIKHAIL</t>
         </is>
       </c>
       <c r="S12" t="b">
@@ -1727,7 +1727,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>WO;;KR;;CA;;EP;;US;;AU</t>
+          <t>WO;;AU;;US;;CA;;EP;;KR</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1754,7 +1754,7 @@
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>CATALOG TECHNOLOGIES INC;;CATALOG TECH INC</t>
+          <t>CATALOG TECH INC;;CATALOG TECHNOLOGIES INC</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
@@ -1857,12 +1857,12 @@
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>MOLINSKY BRADLEY DEAN;;HARTFORD FIRE INSURANCE COMP;;TIPTON THOMAS ANDREW;;CARROLL WILLIAM JOSEPH;;DUNST MICHAEL J;;BATTAGLINI JOSEPH S</t>
+          <t>TIPTON THOMAS ANDREW;;HARTFORD FIRE INSURANCE COMP;;CARROLL WILLIAM JOSEPH;;MOLINSKY BRADLEY DEAN;;BATTAGLINI JOSEPH S;;DUNST MICHAEL J</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>MOLINSKY BRADLEY DEAN;;TIPTON THOMAS ANDREW;;CARROLL WILLIAM JOSEPH;;DUNST MICHAEL J;;BATTAGLINI JOSEPH S</t>
+          <t>TIPTON THOMAS ANDREW;;CARROLL WILLIAM JOSEPH;;MOLINSKY BRADLEY DEAN;;BATTAGLINI JOSEPH S;;DUNST MICHAEL J</t>
         </is>
       </c>
       <c r="S14" t="b">
@@ -2032,7 +2032,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>CA;;US;;WO</t>
+          <t>WO;;US;;CA</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -2135,7 +2135,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>CN;;US;;KR;;WO</t>
+          <t>WO;;KR;;US;;CN</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -2167,7 +2167,7 @@
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>KIM SANG-SIK;;CHO JIN SUN;;LIM DOO-HYEOK;;HEO JUN;;WOO SOL-A;;PARK YOUNG-SOO;;CHO KYOUNG-AH;;CHO JIN-SUN;;SOHN IL KWON;;WOO SOL A;;LIM DOO HYEOK;;KIM SANG SIG;;PARK YOUNG SOO;;CHO KYOUNG AH</t>
+          <t>CHO JIN SUN;;CHO KYOUNG AH;;HEO JUN;;SOHN IL KWON;;KIM SANG-SIK;;LIM DOO-HYEOK;;LIM DOO HYEOK;;KIM SANG SIG;;CHO JIN-SUN;;WOO SOL-A;;WOO SOL A;;CHO KYOUNG-AH;;PARK YOUNG-SOO;;PARK YOUNG SOO</t>
         </is>
       </c>
       <c r="S17" t="b">
@@ -2238,7 +2238,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>CN;;WO;;KR;;TW;;EP;;JP;;US</t>
+          <t>WO;;TW;;JP;;US;;EP;;KR;;CN</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -2265,12 +2265,12 @@
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>LAM RES CORP;;ラム リサーチ コーポレーションＬＡＭ ＲＥＳＥＡＲＣＨ ＣＯＲＰＯＲＡＴＩＯＮ</t>
+          <t>ラム リサーチ コーポレーションＬＡＭ ＲＥＳＥＡＲＣＨ ＣＯＲＰＯＲＡＴＩＯＮ;;LAM RES CORP</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>バヘディ・バヘド;;ダウガティ・ジョン;;DAUGHERTY JOHN;;ゴットショ・リチャード・アラン;;VAHEDI VAHID;;グーハ・ジョイディープ;;GUHA JOYDEEP;;GOTTSCHO RICHARD ALAN</t>
+          <t>グーハ・ジョイディープ;;DAUGHERTY JOHN;;ダウガティ・ジョン;;GUHA JOYDEEP;;バヘディ・バヘド;;GOTTSCHO RICHARD ALAN;;VAHEDI VAHID;;ゴットショ・リチャード・アラン</t>
         </is>
       </c>
       <c r="S18" t="b">
@@ -2337,7 +2337,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>CN;;US;;EP;;WO</t>
+          <t>WO;;US;;CN;;EP</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -2369,7 +2369,7 @@
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>K·施特劳斯;;GAMBLE JOHN KING;;CHEN WEIDA;;R·格拉斯;;A·X·C·科尔;;GAMBLE IV JOHN KING;;WIEBE NATHAN O;;KOHLL ALEXANDER XAVIER CHRISTOF;;GRANADE CHRISTOPHER EVAN;;STRAUSS KARIN;;GRASS ROBERT;;B·H·阮;;W·陈;;NGUYEN BICHLIEN HOANG</t>
+          <t>A·X·C·科尔;;WIEBE NATHAN O;;GRANADE CHRISTOPHER EVAN;;R·格拉斯;;GRASS ROBERT;;KOHLL ALEXANDER XAVIER CHRISTOF;;GAMBLE IV JOHN KING;;W·陈;;B·H·阮;;CHEN WEIDA;;STRAUSS KARIN;;GAMBLE JOHN KING;;NGUYEN BICHLIEN HOANG;;K·施特劳斯</t>
         </is>
       </c>
       <c r="S19" t="b">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>CN;;KR;;CA;;EP;;JP;;US</t>
+          <t>JP;;US;;CA;;EP;;KR;;CN</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -2467,12 +2467,12 @@
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>イリディア・インコーポレイテッドＩｒｉｄｉａ， Ｉｎｃ．;;IRIDIA INC;;DODO OMNIDATA INC</t>
+          <t>イリディア・インコーポレイテッドＩｒｉｄｉａ， Ｉｎｃ．;;DODO OMNIDATA INC;;IRIDIA INC</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>ポール・エフ・プレドキ;;PREDKI PAUL F;;CASSIDY MAJA;;マジャ・キャシディ</t>
+          <t>マジャ・キャシディ;;PREDKI PAUL F;;ポール・エフ・プレドキ;;CASSIDY MAJA</t>
         </is>
       </c>
       <c r="S20" t="b">
@@ -2543,7 +2543,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>US;;WO</t>
+          <t>WO;;US</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -2575,7 +2575,7 @@
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>NAGLER ACHIYA;;MREJEN MICHAEL;;SUCHOWSKI HAIM;;MALKIEL ITZIK;;WOLF LIOR;;ARIELI URI</t>
+          <t>SUCHOWSKI HAIM;;WOLF LIOR;;ARIELI URI;;MALKIEL ITZIK;;NAGLER ACHIYA;;MREJEN MICHAEL</t>
         </is>
       </c>
       <c r="S21" t="b">
@@ -2642,7 +2642,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>US;;WO</t>
+          <t>WO;;US</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -2652,7 +2652,7 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>CA;;US</t>
+          <t>US;;CA</t>
         </is>
       </c>
       <c r="M22" t="n">
@@ -2674,7 +2674,7 @@
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>ZHANG LIHONG;;NABAVI SEYEDFAKHREDDIN</t>
+          <t>NABAVI SEYEDFAKHREDDIN;;ZHANG LIHONG</t>
         </is>
       </c>
       <c r="S22" t="b">
@@ -2773,7 +2773,7 @@
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>CAO YUDONG;;DALLAIRE-DEMERS PIERRE-LUC;;ANSCHUETZ ERIC R;;KATABARWA AMARA;;GONTHIER JEROME FLORIAN;;JOHNSON PETER D</t>
+          <t>ANSCHUETZ ERIC R;;KATABARWA AMARA;;GONTHIER JEROME FLORIAN;;DALLAIRE-DEMERS PIERRE-LUC;;CAO YUDONG;;JOHNSON PETER D</t>
         </is>
       </c>
       <c r="S23" t="b">
@@ -2840,7 +2840,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>US;;WO</t>
+          <t>WO;;US</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>ROSENBERGER ERIN;;MCFARLAND KIRSTY;;FRANK IAN WARD;;FAVALORA GREGG E;;KOTZ KENNETH;;FRANK IAN;;MCFARLAND KIRSTY A;;MAGYAR ANDREW;;BYRNES STEVEN J;;BYRNES STEVEN;;SPRACHMAN MELISSA;;MARKOVIC STACEY;;VARGO EMMA;;SPRACHMAN MELISSA M;;FAVALORA GREGG;;CAVANAGH PETER;;KOTZ KENNETH T;;MAGYAR ANDREW P;;HUANG HAIYAO;;DUBAY RYAN A;;DUBAY RYAN</t>
+          <t>MCFARLAND KIRSTY;;MCFARLAND KIRSTY A;;SPRACHMAN MELISSA;;CAVANAGH PETER;;DUBAY RYAN A;;VARGO EMMA;;MAGYAR ANDREW;;ROSENBERGER ERIN;;SPRACHMAN MELISSA M;;FRANK IAN;;HUANG HAIYAO;;FAVALORA GREGG;;MAGYAR ANDREW P;;BYRNES STEVEN;;MARKOVIC STACEY;;KOTZ KENNETH;;BYRNES STEVEN J;;KOTZ KENNETH T;;DUBAY RYAN;;FRANK IAN WARD;;FAVALORA GREGG E</t>
         </is>
       </c>
       <c r="S24" t="b">
@@ -3046,7 +3046,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>US;;WO</t>
+          <t>WO;;US</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -3078,7 +3078,7 @@
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>SINHA RAJARISHI;;GUILLOU DAVID FRANCOIS;;GUILLOU DAVID</t>
+          <t>GUILLOU DAVID;;GUILLOU DAVID FRANCOIS;;SINHA RAJARISHI</t>
         </is>
       </c>
       <c r="S26" t="b">
@@ -3149,7 +3149,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>WO;;EP;;FR</t>
+          <t>WO;;FR;;EP</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -3159,7 +3159,7 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>EP;;FR</t>
+          <t>FR;;EP</t>
         </is>
       </c>
       <c r="M27" t="n">
@@ -3181,7 +3181,7 @@
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>LANDIS STÉPHAN;;CONSTANCIAS CHRISTOPHE;;LANDIS STEPHAN</t>
+          <t>LANDIS STÉPHAN;;LANDIS STEPHAN;;CONSTANCIAS CHRISTOPHE</t>
         </is>
       </c>
       <c r="S27" t="b">
@@ -3252,7 +3252,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>WO;;CA;;TW;;EP;;GB;;SG</t>
+          <t>WO;;TW;;GB;;CA;;EP;;SG</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -3284,7 +3284,7 @@
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>RAQUEL MARIA SANCHES-KUIPER;;HAYES MATTHEW JAMES;;MATTHEW JAMES HAYES;;SANCHES-KUIPER RAQUEL MARIA</t>
+          <t>HAYES MATTHEW JAMES;;MATTHEW JAMES HAYES;;RAQUEL MARIA SANCHES-KUIPER;;SANCHES-KUIPER RAQUEL MARIA</t>
         </is>
       </c>
       <c r="S28" t="b">
@@ -3355,7 +3355,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>US;;WO</t>
+          <t>WO;;US</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -3387,7 +3387,7 @@
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>NANNICINI GIACOMO;;GAMBETTA JAY;;BISHOP LEV;;GREENBERG DON;;TEMME PAUL KRISTAN;;STEFFEN MATTHIAS;;PHAN ANNA T;;PHAN ANNA;;OLIVADESE SALVATORE;;MCCLURE III DOUGLAS T;;OLIVADESE SALVATORE BERNARDO;;GAMBETTA JAY M;;TEMME PAUL;;DIAL OLIVER;;PISTOIA MARCO;;CORCOLES-GONZALEZ ANTONIO;;BISHOP LEV SAMUEL;;CHEN RICHARD;;MCCLURE III DOUGLAS TEMPLETON</t>
+          <t>DIAL OLIVER;;OLIVADESE SALVATORE;;CORCOLES-GONZALEZ ANTONIO;;BISHOP LEV;;PHAN ANNA T;;STEFFEN MATTHIAS;;GAMBETTA JAY;;TEMME PAUL KRISTAN;;NANNICINI GIACOMO;;TEMME PAUL;;PHAN ANNA;;BISHOP LEV SAMUEL;;GAMBETTA JAY M;;OLIVADESE SALVATORE BERNARDO;;GREENBERG DON;;PISTOIA MARCO;;MCCLURE III DOUGLAS TEMPLETON;;CHEN RICHARD;;MCCLURE III DOUGLAS T</t>
         </is>
       </c>
       <c r="S29" t="b">
@@ -3458,7 +3458,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>CN;;US</t>
+          <t>US;;CN</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -3485,12 +3485,12 @@
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>中国科学院微电子研究所;;INST MICROELECTRONICS CAS;;INST OF MICROELECTRONICS CAS</t>
+          <t>中国科学院微电子研究所;;INST OF MICROELECTRONICS CAS;;INST MICROELECTRONICS CAS</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>朱正勇;;朱慧珑;;亨利·H·阿达姆松;;HENRY H ADAMSON;;WANG GUILEI;;ZHU HUILONG;;张严波;;ZHU ZHENGYONG;;ZHANG YANBO;;王桂磊</t>
+          <t>ZHANG YANBO;;朱慧珑;;王桂磊;;HENRY H ADAMSON;;朱正勇;;张严波;;ZHU HUILONG;;WANG GUILEI;;ZHU ZHENGYONG;;亨利·H·阿达姆松</t>
         </is>
       </c>
       <c r="S30" t="b">
@@ -3561,7 +3561,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>US;;WO</t>
+          <t>WO;;US</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -3696,7 +3696,7 @@
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>BOOTHBY THOMAS J;;YARKONI SHEIR;;AMIN MOHAMMAD H;;KING ANDREW DOUGLAS;;ANDRIYASH EVGENY A;;ANDRIYASH EVGENY;;AMIN MOHAMMAD H S;;LANTING TREVOR MICHAEL;;ROLFE JASON</t>
+          <t>ANDRIYASH EVGENY;;ROLFE JASON;;LANTING TREVOR MICHAEL;;ANDRIYASH EVGENY A;;BOOTHBY THOMAS J;;YARKONI SHEIR;;KING ANDREW DOUGLAS;;AMIN MOHAMMAD H S;;AMIN MOHAMMAD H</t>
         </is>
       </c>
       <c r="S32" t="b">
@@ -3763,7 +3763,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>US;;KR;;EP</t>
+          <t>KR;;US;;EP</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -3790,12 +3790,12 @@
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>UNIV LEUVEN KATH;;IMEC VZW;;KATHOLIEKE UNIV LEUVEN KU LEUVEN RESEARCH &amp; DEVELOPMENT</t>
+          <t>IMEC VZW;;UNIV LEUVEN KATH;;KATHOLIEKE UNIV LEUVEN KU LEUVEN RESEARCH &amp; DEVELOPMENT</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>CAI QING;;ADELMANN HANNS CHRISTOPH;;CIUBOTARU FLORIN;;COSTA JOSE DIOGO;;CHEN CHANG;;STAKENBORG TIM;;FAUVART MAARTEN;;COVENS KRIS</t>
+          <t>CAI QING;;COVENS KRIS;;FAUVART MAARTEN;;ADELMANN HANNS CHRISTOPH;;COSTA JOSE DIOGO;;CHEN CHANG;;CIUBOTARU FLORIN;;STAKENBORG TIM</t>
         </is>
       </c>
       <c r="S33" t="b">
@@ -3993,7 +3993,7 @@
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>LAWRIE BENJAMIN J;;MAKSYMOVYCH PETRO;;POOSER RAPHAEL C</t>
+          <t>POOSER RAPHAEL C;;LAWRIE BENJAMIN J;;MAKSYMOVYCH PETRO</t>
         </is>
       </c>
       <c r="S35" t="b">
@@ -4092,7 +4092,7 @@
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>RIZIK LUNA;;DANIEL RAMEZ</t>
+          <t>DANIEL RAMEZ;;RIZIK LUNA</t>
         </is>
       </c>
       <c r="S36" t="b">
@@ -4191,7 +4191,7 @@
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>MILENKOVIC OLGICA;;GABRYS RYAN;;YAZDI S M HOSSEIN TABATABAEI</t>
+          <t>MILENKOVIC OLGICA;;YAZDI S M HOSSEIN TABATABAEI;;GABRYS RYAN</t>
         </is>
       </c>
       <c r="S37" t="b">
@@ -4262,7 +4262,7 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>US;;KR</t>
+          <t>KR;;US</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -4289,12 +4289,12 @@
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>UNIV SEOUL IND COOP FOUND;;서울시립대학교 산학협력단</t>
+          <t>서울시립대학교 산학협력단;;UNIV SEOUL IND COOP FOUND</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>AHN DO YEOL;;안도열</t>
+          <t>안도열;;AHN DO YEOL</t>
         </is>
       </c>
       <c r="S38" t="b">
@@ -4492,7 +4492,7 @@
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>ZHOU WENLI;;GAO JUNXIONG;;ZHU YU;;WU SHUO;;CHENG RUNHONG;;CHEN CHANGSHENG;;WANG YUNBO</t>
+          <t>GAO JUNXIONG;;CHENG RUNHONG;;CHEN CHANGSHENG;;WANG YUNBO;;ZHOU WENLI;;ZHU YU;;WU SHUO</t>
         </is>
       </c>
       <c r="S40" t="b">
@@ -4559,7 +4559,7 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>CN;;US</t>
+          <t>US;;CN</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -4591,7 +4591,7 @@
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>YAN XIAOBING;;WANG KAIYANG;;REN DELIANG</t>
+          <t>YAN XIAOBING;;REN DELIANG;;WANG KAIYANG</t>
         </is>
       </c>
       <c r="S41" t="b">
@@ -4690,7 +4690,7 @@
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>REICH GREGORY W;;PANKONIEN ALEXANDER M;;MAGAR KAMAN THAPA;;BAUR JEFFREY W;;SLINKER KEITH;;DICKINSON BENJAMIN T;;KONDASH COREY R</t>
+          <t>SLINKER KEITH;;MAGAR KAMAN THAPA;;PANKONIEN ALEXANDER M;;KONDASH COREY R;;REICH GREGORY W;;BAUR JEFFREY W;;DICKINSON BENJAMIN T</t>
         </is>
       </c>
       <c r="S42" t="b">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>WANG WEI;;WANG ZEHONG;;CHEN YIXIANG;;YU DAN</t>
+          <t>YU DAN;;CHEN YIXIANG;;WANG WEI;;WANG ZEHONG</t>
         </is>
       </c>
       <c r="S44" t="b">
@@ -4987,7 +4987,7 @@
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>SANGWAN VINOD K;;HERSAM MARK C;;LEE HONG-SUB</t>
+          <t>SANGWAN VINOD K;;LEE HONG-SUB;;HERSAM MARK C</t>
         </is>
       </c>
       <c r="S45" t="b">
@@ -5086,7 +5086,7 @@
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>FONG KIN CHUNG;;SIU MAN-HUNG;;JIANG ZHUOLIN</t>
+          <t>FONG KIN CHUNG;;JIANG ZHUOLIN;;SIU MAN-HUNG</t>
         </is>
       </c>
       <c r="S46" t="b">
@@ -5189,7 +5189,7 @@
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>MANSSON ALF;;KORTEN TILL;;REUTHER CORDULA;;DIEZ STEFAN;;TAKATSUKI HIDEYO</t>
+          <t>MANSSON ALF;;KORTEN TILL;;DIEZ STEFAN;;REUTHER CORDULA;;TAKATSUKI HIDEYO</t>
         </is>
       </c>
       <c r="S47" t="b">
@@ -5387,7 +5387,7 @@
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>XU JUN;;LIU YU;;LIANG RENRONG;;ZHAO LINYUAN</t>
+          <t>XU JUN;;LIU YU;;ZHAO LINYUAN;;LIANG RENRONG</t>
         </is>
       </c>
       <c r="S49" t="b">
@@ -5486,7 +5486,7 @@
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>CHODAVARAPU VAMSY;;AGGARWAL PRIYANKA</t>
+          <t>AGGARWAL PRIYANKA;;CHODAVARAPU VAMSY</t>
         </is>
       </c>
       <c r="S50" t="b">
@@ -5557,7 +5557,7 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>US;;KR</t>
+          <t>KR;;US</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -5589,7 +5589,7 @@
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>HEO KEUN;;LEE HYUNG-DONG;;CHOI YONG-SOO;;LEE HYUNG DONG;;CHOI YONG SOO</t>
+          <t>HEO KEUN;;LEE HYUNG-DONG;;CHOI YONG SOO;;CHOI YONG-SOO;;LEE HYUNG DONG</t>
         </is>
       </c>
       <c r="S51" t="b">
@@ -5688,7 +5688,7 @@
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>WU QING;;XIA QIANGFEI;;MCLEAN MARK;;YANG JIANHUA</t>
+          <t>WU QING;;MCLEAN MARK;;XIA QIANGFEI;;YANG JIANHUA</t>
         </is>
       </c>
       <c r="S52" t="b">
@@ -5759,7 +5759,7 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>US;;WO</t>
+          <t>WO;;US</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -5786,12 +5786,12 @@
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>D WAVE SYSTEMS INC;;YARKONI SHEIR;;D-WAVE SYSTEMS INC</t>
+          <t>YARKONI SHEIR;;D WAVE SYSTEMS INC;;D-WAVE SYSTEMS INC</t>
         </is>
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>BOOTHBY THOMAS J;;YARKONI SHEIR;;KING ANDREW DOUGLAS;;ANDRIYASH EVGENY A;;BOOTHBY KELLY T R;;LANTING TREVOR MICHAEL;;AMIN MOHAMMAD H</t>
+          <t>BOOTHBY KELLY T R;;LANTING TREVOR MICHAEL;;ANDRIYASH EVGENY A;;BOOTHBY THOMAS J;;KING ANDREW DOUGLAS;;YARKONI SHEIR;;AMIN MOHAMMAD H</t>
         </is>
       </c>
       <c r="S53" t="b">
@@ -6159,7 +6159,7 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>US;;KR</t>
+          <t>KR;;US</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -6186,12 +6186,12 @@
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>UNIV SEOUL IND COOP FOUND;;서울시립대학교 산학협력단</t>
+          <t>서울시립대학교 산학협력단;;UNIV SEOUL IND COOP FOUND</t>
         </is>
       </c>
       <c r="R57" t="inlineStr">
         <is>
-          <t>AHN DO YEOL;;안도열</t>
+          <t>안도열;;AHN DO YEOL</t>
         </is>
       </c>
       <c r="S57" t="b">
@@ -6294,7 +6294,7 @@
       </c>
       <c r="R58" t="inlineStr">
         <is>
-          <t>NIKONOV DMITRI E;;YOUNG IAN A;;MANIPATRUNI SASIKANTH</t>
+          <t>NIKONOV DMITRI E;;MANIPATRUNI SASIKANTH;;YOUNG IAN A</t>
         </is>
       </c>
       <c r="S58" t="b">
@@ -6464,7 +6464,7 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>CN;;WO;;KR;;CA;;EP;;JP;;US;;SG;;AU</t>
+          <t>WO;;AU;;JP;;US;;CA;;EP;;SG;;KR;;CN</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -6491,12 +6491,12 @@
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>GOOGLE INC;;구글 엘엘씨;;グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;ラミ・バレントス;;グーグル エルエルシー;;BARENDS RAMI;;GOOGLE LLC</t>
+          <t>GOOGLE LLC;;ラミ・バレントス;;グーグル エルエルシー;;GOOGLE INC;;구글 엘엘씨;;BARENDS RAMI;;グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ</t>
         </is>
       </c>
       <c r="R60" t="inlineStr">
         <is>
-          <t>바엔즈 라미;;ライアン・バブシュ;;ラミ・バレントス;;ハルトムート・ネーヴェン;;FARHI EDWARD HENRY;;NEVEN HARTMUT;;BARENDS RAMI;;エドワード・ヘンリー・ファーリ;;BABBUSH RYAN</t>
+          <t>ラミ・バレントス;;FARHI EDWARD HENRY;;바엔즈 라미;;BABBUSH RYAN;;NEVEN HARTMUT;;エドワード・ヘンリー・ファーリ;;ハルトムート・ネーヴェン;;BARENDS RAMI;;ライアン・バブシュ</t>
         </is>
       </c>
       <c r="S60" t="b">
@@ -6595,7 +6595,7 @@
       </c>
       <c r="R61" t="inlineStr">
         <is>
-          <t>MAHMOUDI MORTEZA;;FAROKHZAD OMID;;CORBO CLAUDIA</t>
+          <t>FAROKHZAD OMID;;MAHMOUDI MORTEZA;;CORBO CLAUDIA</t>
         </is>
       </c>
       <c r="S61" t="b">
@@ -6662,7 +6662,7 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>CA;;WO</t>
+          <t>WO;;CA</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -6694,7 +6694,7 @@
       </c>
       <c r="R62" t="inlineStr">
         <is>
-          <t>BHAT SUMRITA;;KAPOOR ANMOL SINGH;;VASTAREY NIKHIL SURESH;;WANG GANG;;KOUL RAMAN;;SALAHANDISH RAZIEH;;WANG GANG (A K A JOSEPH)</t>
+          <t>KOUL RAMAN;;WANG GANG;;KAPOOR ANMOL SINGH;;SALAHANDISH RAZIEH;;WANG GANG (A K A JOSEPH);;BHAT SUMRITA;;VASTAREY NIKHIL SURESH</t>
         </is>
       </c>
       <c r="S62" t="b">
@@ -6761,7 +6761,7 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>CN;;US;;JP</t>
+          <t>JP;;US;;CN</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -6892,7 +6892,7 @@
       </c>
       <c r="R64" t="inlineStr">
         <is>
-          <t>KIM CHIHO;;RAMPRASAD RAMPI;;CHANDRASEKARAN ANAND</t>
+          <t>KIM CHIHO;;CHANDRASEKARAN ANAND;;RAMPRASAD RAMPI</t>
         </is>
       </c>
       <c r="S64" t="b">
@@ -6963,7 +6963,7 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>CN;;WO;;KR;;CA;;EP;;JP;;US;;SG;;AU</t>
+          <t>WO;;AU;;JP;;US;;CA;;EP;;SG;;KR;;CN</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -6990,12 +6990,12 @@
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>GOOGLE INC;;구글 엘엘씨;;グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;NIU YUEZHEN;;ラミ・バレントス;;グーグル エルエルシー;;SMELYANSKIY VADIM;;BARENDS RAMI;;GOOGLE LLC;;NEVEN HARTMUT;;CASTRILLO SERGIO BOIXO</t>
+          <t>GOOGLE LLC;;ラミ・バレントス;;CASTRILLO SERGIO BOIXO;;グーグル エルエルシー;;NIU YUEZHEN;;GOOGLE INC;;구글 엘엘씨;;SMELYANSKIY VADIM;;NEVEN HARTMUT;;BARENDS RAMI;;グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ</t>
         </is>
       </c>
       <c r="R65" t="inlineStr">
         <is>
-          <t>바엔즈 라미;;BOIXO CASTRILLO SERGIO;;NIU YUEZHEN;;SMELYANSKIY VADIM;;ラミ・バレントス;;ヴァディム・スメリャンスキー;;セルジオ・バイショ・カストリージョ;;BARENDS RAMI;;NEVEN HARTMUT;;ユエゼン・ニウ;;ハルトムート・ネーフェン;;BABBUSH RYAN;;CASTRILLO SERGIO BOIXO</t>
+          <t>ラミ・バレントス;;CASTRILLO SERGIO BOIXO;;NIU YUEZHEN;;ユエゼン・ニウ;;ヴァディム・スメリャンスキー;;セルジオ・バイショ・カストリージョ;;바엔즈 라미;;BABBUSH RYAN;;BOIXO CASTRILLO SERGIO;;NEVEN HARTMUT;;SMELYANSKIY VADIM;;BARENDS RAMI;;ハルトムート・ネーフェン</t>
         </is>
       </c>
       <c r="S65" t="b">
@@ -7066,7 +7066,7 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>CN;;WO;;KR;;EP;;JP;;US</t>
+          <t>WO;;JP;;US;;EP;;KR;;CN</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -7093,12 +7093,12 @@
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>BROWN SIMON ANTHONY;;ザ ユニバーシティー オブ カンタベリー;;THE UNIV OF CANTERBURY;;BOSE SAURABH KUMAR;;FOSTNER SHAWN</t>
+          <t>ザ ユニバーシティー オブ カンタベリー;;BOSE SAURABH KUMAR;;FOSTNER SHAWN;;BROWN SIMON ANTHONY;;THE UNIV OF CANTERBURY</t>
         </is>
       </c>
       <c r="R66" t="inlineStr">
         <is>
-          <t>BROWN SIMON ANTHONY;;ブラウン シモン アンソニー;;ボーズ サウラブ クマー;;BOSE SAURABH KUMAR;;フォスナー ショーン;;FOSTNER SHAWN</t>
+          <t>フォスナー ショーン;;BOSE SAURABH KUMAR;;FOSTNER SHAWN;;BROWN SIMON ANTHONY;;ボーズ サウラブ クマー;;ブラウン シモン アンソニー</t>
         </is>
       </c>
       <c r="S66" t="b">
@@ -7201,7 +7201,7 @@
       </c>
       <c r="R67" t="inlineStr">
         <is>
-          <t>CHUNG YONG HO;;최정우;;정용호;;CHOI JEONG WOO</t>
+          <t>최정우;;CHOI JEONG WOO;;정용호;;CHUNG YONG HO</t>
         </is>
       </c>
       <c r="S67" t="b">
@@ -7299,12 +7299,12 @@
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>UNIV SOUTHEAST;;东南大学</t>
+          <t>东南大学;;UNIV SOUTHEAST</t>
         </is>
       </c>
       <c r="R68" t="inlineStr">
         <is>
-          <t>李源;;张辉;;张晋;;XING YAN;;LI YUAN;;ZHANG HUI;;幸研;;ZHANG JIN</t>
+          <t>LI YUAN;;张晋;;XING YAN;;ZHANG JIN;;李源;;ZHANG HUI;;张辉;;幸研</t>
         </is>
       </c>
       <c r="S68" t="b">
@@ -7402,12 +7402,12 @@
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>UNIV SOUTHEAST;;东南大学</t>
+          <t>东南大学;;UNIV SOUTHEAST</t>
         </is>
       </c>
       <c r="R69" t="inlineStr">
         <is>
-          <t>李源;;张辉;;张晋;;XING YAN;;LI YUAN;;ZHANG HUI;;幸研;;ZHANG JIN</t>
+          <t>LI YUAN;;张晋;;XING YAN;;ZHANG JIN;;李源;;ZHANG HUI;;张辉;;幸研</t>
         </is>
       </c>
       <c r="S69" t="b">
@@ -7506,7 +7506,7 @@
       </c>
       <c r="R70" t="inlineStr">
         <is>
-          <t>K·施特劳斯;;CHEN WEIDA;;R·格拉斯;;A·X·C·科尔;;NGUYEN BICHLIEN HOANG;;KOHLL ALEXANDER XAVIER CHRISTOF;;STRAUSS KARIN;;B·H·阮;;W·陈;;GRASS ROBERT</t>
+          <t>A·X·C·科尔;;R·格拉斯;;NGUYEN BICHLIEN HOANG;;GRASS ROBERT;;KOHLL ALEXANDER XAVIER CHRISTOF;;W·陈;;B·H·阮;;CHEN WEIDA;;STRAUSS KARIN;;K·施特劳斯</t>
         </is>
       </c>
       <c r="S70" t="b">
@@ -7573,7 +7573,7 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>US;;JP</t>
+          <t>JP;;US</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
@@ -7676,7 +7676,7 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>CN;;US</t>
+          <t>US;;CN</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
@@ -7703,12 +7703,12 @@
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>电子科技大学;;UNIV ELECTRONIC SCI &amp; TECH CHINA</t>
+          <t>UNIV ELECTRONIC SCI &amp; TECH CHINA;;电子科技大学</t>
         </is>
       </c>
       <c r="R72" t="inlineStr">
         <is>
-          <t>LI DONGYANG;;GU DEEN;;顾德恩;;钟豪;;ZHONG HAO;;CHEN YICHENG;;LI WEI;;李伟;;GU DE'EN;;JIANG YADONG;;蒋亚东;;陈奕丞;;李东阳</t>
+          <t>蒋亚东;;LI DONGYANG;;LI WEI;;陈奕丞;;GU DEEN;;ZHONG HAO;;CHEN YICHENG;;顾德恩;;李伟;;钟豪;;GU DE'EN;;JIANG YADONG;;李东阳</t>
         </is>
       </c>
       <c r="S72" t="b">
@@ -7802,12 +7802,12 @@
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>경희대학교 산학협력단;;UNIV INDUSTRY COOPERATION GROUP KYUNG HEE UNIV</t>
+          <t>UNIV INDUSTRY COOPERATION GROUP KYUNG HEE UNIV;;경희대학교 산학협력단</t>
         </is>
       </c>
       <c r="R73" t="inlineStr">
         <is>
-          <t>SHIN HYUN DONG;;신현동;;JEONG YOUNG MIN;;FAROOQ AHMAD;;정영민;;파쿼 아마드</t>
+          <t>정영민;;SHIN HYUN DONG;;신현동;;파쿼 아마드;;JEONG YOUNG MIN;;FAROOQ AHMAD</t>
         </is>
       </c>
       <c r="S73" t="b">
@@ -7874,7 +7874,7 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>CN;;KR;;EP;;JP</t>
+          <t>JP;;KR;;CN;;EP</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
@@ -7901,12 +7901,12 @@
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>LAM RES CORP;;ラム リサーチ コーポレーションＬＡＭ ＲＥＳＥＡＲＣＨ ＣＯＲＰＯＲＡＴＩＯＮ</t>
+          <t>ラム リサーチ コーポレーションＬＡＭ ＲＥＳＥＡＲＣＨ ＣＯＲＰＯＲＡＴＩＯＮ;;LAM RES CORP</t>
         </is>
       </c>
       <c r="R74" t="inlineStr">
         <is>
-          <t>バヘディ・バヘド;;ダウガティ・ジョン;;DAUGHERTY JOHN;;ゴットショ・リチャード・アラン;;VAHEDI VAHID;;グーハ・ジョイディープ;;GUHA JOYDEEP;;GOTTSCHO RICHARD ALAN</t>
+          <t>グーハ・ジョイディープ;;DAUGHERTY JOHN;;ダウガティ・ジョン;;GUHA JOYDEEP;;バヘディ・バヘド;;GOTTSCHO RICHARD ALAN;;VAHEDI VAHID;;ゴットショ・リチャード・アラン</t>
         </is>
       </c>
       <c r="S74" t="b">
@@ -8009,7 +8009,7 @@
       </c>
       <c r="R75" t="inlineStr">
         <is>
-          <t>CHUNG YONG HO;;최정우;;정용호;;CHOI JEONG WOO</t>
+          <t>최정우;;CHOI JEONG WOO;;정용호;;CHUNG YONG HO</t>
         </is>
       </c>
       <c r="S75" t="b">
@@ -8080,7 +8080,7 @@
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>CN;;KR;;EP;;JP;;US</t>
+          <t>JP;;US;;EP;;KR;;CN</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
@@ -8112,7 +8112,7 @@
       </c>
       <c r="R76" t="inlineStr">
         <is>
-          <t>BROWN SIMON ANTHONY;;ブラウン シモン アンソニー;;ボーズ サウラブ クマー;;BOSE SAURABH KUMAR;;フォスナー ショーン;;FOSTNER SHAWN</t>
+          <t>フォスナー ショーン;;BOSE SAURABH KUMAR;;FOSTNER SHAWN;;BROWN SIMON ANTHONY;;ボーズ サウラブ クマー;;ブラウン シモン アンソニー</t>
         </is>
       </c>
       <c r="S76" t="b">
@@ -8183,7 +8183,7 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>CN;;KR;;CA;;EP;;JP</t>
+          <t>JP;;CA;;EP;;KR;;CN</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
@@ -8210,12 +8210,12 @@
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>IRIDIA INC;;イリディア・インコーポレイテッドＩｒｉｄｉａ， Ｉｎｃ．</t>
+          <t>イリディア・インコーポレイテッドＩｒｉｄｉａ， Ｉｎｃ．;;IRIDIA INC</t>
         </is>
       </c>
       <c r="R77" t="inlineStr">
         <is>
-          <t>ポール・エフ・プレドキ;;PREDKI PAUL F;;CASSIDY MAJA;;マジャ・キャシディ</t>
+          <t>マジャ・キャシディ;;PREDKI PAUL F;;ポール・エフ・プレドキ;;CASSIDY MAJA</t>
         </is>
       </c>
       <c r="S77" t="b">
@@ -8309,7 +8309,7 @@
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>YANGTZE DELTA REGION INST TSINGHUA UNIV ZHEJIANG;;ICLEAGUE TECH CO LTD</t>
+          <t>ICLEAGUE TECH CO LTD;;YANGTZE DELTA REGION INST TSINGHUA UNIV ZHEJIANG</t>
         </is>
       </c>
       <c r="R78" t="inlineStr">
@@ -8417,7 +8417,7 @@
       </c>
       <c r="R79" t="inlineStr">
         <is>
-          <t>김진배;;윤태현;;HA KIEU MY;;트린수안텅;;하키우;;TRINH XUAN TUNG;;KIM JIN BAE;;YOON TAE HYUN</t>
+          <t>TRINH XUAN TUNG;;HA KIEU MY;;윤태현;;트린수안텅;;KIM JIN BAE;;YOON TAE HYUN;;하키우;;김진배</t>
         </is>
       </c>
       <c r="S79" t="b">
@@ -8520,7 +8520,7 @@
       </c>
       <c r="R80" t="inlineStr">
         <is>
-          <t>김진배;;윤태현;;HA KIEU MY;;트린수안텅;;하키우;;TRINH XUAN TUNG;;KIM JIN BAE;;YOON TAE HYUN</t>
+          <t>TRINH XUAN TUNG;;HA KIEU MY;;윤태현;;트린수안텅;;KIM JIN BAE;;YOON TAE HYUN;;하키우;;김진배</t>
         </is>
       </c>
       <c r="S80" t="b">
@@ -8591,7 +8591,7 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>CN;;US</t>
+          <t>US;;CN</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -8618,12 +8618,12 @@
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>电子科技大学;;UNIV ELECTRONIC SCI &amp; TECH CHINA</t>
+          <t>UNIV ELECTRONIC SCI &amp; TECH CHINA;;电子科技大学</t>
         </is>
       </c>
       <c r="R81" t="inlineStr">
         <is>
-          <t>LI DONGYANG;;GU DEEN;;顾德恩;;钟豪;;ZHONG HAO;;CHEN YICHENG;;LI WEI;;李伟;;GU DE'EN;;JIANG YADONG;;蒋亚东;;陈奕丞;;李东阳</t>
+          <t>蒋亚东;;LI DONGYANG;;LI WEI;;陈奕丞;;GU DEEN;;ZHONG HAO;;CHEN YICHENG;;顾德恩;;李伟;;钟豪;;GU DE'EN;;JIANG YADONG;;李东阳</t>
         </is>
       </c>
       <c r="S81" t="b">
@@ -8690,7 +8690,7 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>CN;;US;;TW</t>
+          <t>TW;;US;;CN</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
@@ -8717,12 +8717,12 @@
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>TAIWAN SEMICONDUCTOR MFG;;TAIWAN SEMICONDUCTOR MFG CO LTD</t>
+          <t>TAIWAN SEMICONDUCTOR MFG CO LTD;;TAIWAN SEMICONDUCTOR MFG</t>
         </is>
       </c>
       <c r="R82" t="inlineStr">
         <is>
-          <t>VAN DAL MARCUS JOHANNES HENRICUS;;DOORNBOS GERBEN;;MARCUS JOHANNES HENRICUS VAN DAL;;MAURICIO MANFRINI;;MANFRINI MAURICIO;;GERBEN DOORNBOS</t>
+          <t>DOORNBOS GERBEN;;VAN DAL MARCUS JOHANNES HENRICUS;;MANFRINI MAURICIO;;MAURICIO MANFRINI;;MARCUS JOHANNES HENRICUS VAN DAL;;GERBEN DOORNBOS</t>
         </is>
       </c>
       <c r="S82" t="b">
@@ -8789,7 +8789,7 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>CN;;US;;TW</t>
+          <t>TW;;US;;CN</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
@@ -8816,12 +8816,12 @@
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>TAIWAN SEMICONDUCTOR MFG;;TAIWAN SEMICONDUCTOR MFG CO LTD</t>
+          <t>TAIWAN SEMICONDUCTOR MFG CO LTD;;TAIWAN SEMICONDUCTOR MFG</t>
         </is>
       </c>
       <c r="R83" t="inlineStr">
         <is>
-          <t>VAN DAL MARCUS JOHANNES HENRICUS;;DOORNBOS GERBEN;;MARCUS JOHANNES HENRICUS VAN DAL;;MAURICIO MANFRINI;;MANFRINI MAURICIO;;GERBEN DOORNBOS</t>
+          <t>DOORNBOS GERBEN;;VAN DAL MARCUS JOHANNES HENRICUS;;MANFRINI MAURICIO;;MAURICIO MANFRINI;;MARCUS JOHANNES HENRICUS VAN DAL;;GERBEN DOORNBOS</t>
         </is>
       </c>
       <c r="S83" t="b">
@@ -8888,7 +8888,7 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>CA;;EP;;KR;;AU</t>
+          <t>AU;;KR;;CA;;EP</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
@@ -8915,12 +8915,12 @@
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>CATALOG TECHNOLOGIES INC;;CATALOG TECH INC</t>
+          <t>CATALOG TECH INC;;CATALOG TECHNOLOGIES INC</t>
         </is>
       </c>
       <c r="R84" t="inlineStr">
         <is>
-          <t>ROQUET NATHANIEL;;LEAKE DEVIN;;BHATIA SWAPNIL P;;PARK HYUNJUN</t>
+          <t>ROQUET NATHANIEL;;BHATIA SWAPNIL P;;PARK HYUNJUN;;LEAKE DEVIN</t>
         </is>
       </c>
       <c r="S84" t="b">
@@ -9014,12 +9014,12 @@
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>경희대학교 산학협력단;;UNIV INDUSTRY COOPERATION GROUP KYUNG HEE UNIV</t>
+          <t>UNIV INDUSTRY COOPERATION GROUP KYUNG HEE UNIV;;경희대학교 산학협력단</t>
         </is>
       </c>
       <c r="R85" t="inlineStr">
         <is>
-          <t>SHIN HYUN DONG;;신현동;;JEONG YOUNG MIN;;FAROOQ AHMAD;;정영민;;파쿼 아마드</t>
+          <t>정영민;;SHIN HYUN DONG;;신현동;;파쿼 아마드;;JEONG YOUNG MIN;;FAROOQ AHMAD</t>
         </is>
       </c>
       <c r="S85" t="b">
@@ -9086,7 +9086,7 @@
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>US;;JP</t>
+          <t>JP;;US</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
@@ -9212,7 +9212,7 @@
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>YANGTZE DELTA REGION INST TSINGHUA UNIV ZHEJIANG;;ICLEAGUE TECH CO LTD</t>
+          <t>ICLEAGUE TECH CO LTD;;YANGTZE DELTA REGION INST TSINGHUA UNIV ZHEJIANG</t>
         </is>
       </c>
       <c r="R87" t="inlineStr">
@@ -9288,7 +9288,7 @@
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>CN;;WO;;KR;;CA;;EP;;JP;;US;;AU</t>
+          <t>WO;;AU;;JP;;US;;CA;;EP;;KR;;CN</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
@@ -9315,12 +9315,12 @@
       </c>
       <c r="Q88" t="inlineStr">
         <is>
-          <t>GOOGLE INC;;NIU YUEZHEN;;グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;SMELYANSKIY VADIM;;グーグル エルエルシー;;GOOGLE LLC;;NEVEN HARTMUT;;CASTRILLO SERGIO BOIXO</t>
+          <t>GOOGLE LLC;;CASTRILLO SERGIO BOIXO;;NIU YUEZHEN;;グーグル エルエルシー;;GOOGLE INC;;SMELYANSKIY VADIM;;NEVEN HARTMUT;;グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ</t>
         </is>
       </c>
       <c r="R88" t="inlineStr">
         <is>
-          <t>BOIXO CASTRILLO SERGIO;;NIU YUEZHEN;;SMELYANSKIY VADIM;;ヴァディム・スメリャンスキー;;ハルトムート・ネーヴェン;;FARHI EDWARD HENRY;;NEVEN HARTMUT;;セルジオ・バイショ・カストリージョ;;エドワード・ヘンリー・ファーリ;;ユエゼン・ニウ;;ハルトムート・ネーフェン;;CASTRILLO SERGIO BOIXO</t>
+          <t>CASTRILLO SERGIO BOIXO;;NIU YUEZHEN;;FARHI EDWARD HENRY;;ヴァディム・スメリャンスキー;;セルジオ・バイショ・カストリージョ;;ユエゼン・ニウ;;BOIXO CASTRILLO SERGIO;;エドワード・ヘンリー・ファーリ;;NEVEN HARTMUT;;SMELYANSKIY VADIM;;ハルトムート・ネーヴェン;;ハルトムート・ネーフェン</t>
         </is>
       </c>
       <c r="S88" t="b">
@@ -9391,7 +9391,7 @@
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>CN;;ZA;;WO;;RU;;KR;;IL;;CA;;TW;;EP;;JP;;US;;AU</t>
+          <t>ZA;;IL;;WO;;AU;;TW;;JP;;US;;EP;;CA;;RU;;KR;;CN</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
@@ -9418,12 +9418,12 @@
       </c>
       <c r="Q89" t="inlineStr">
         <is>
-          <t>SMIRNOV SERGEY NIKOLAYEVICH;;SMIRNOV SERGEY;;스미르노브, 세르게이 니콜라예비치;;LANDIGRAD LIMITED LIABILITY COMPANY;;SMIRNOV SERGEY NIIKOLAYEVICH;;LANDIGRAD LLC;;LANDIGRAD LTD LIABILITY CO;;OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD;;란디그레드, 리미티드 라이어빌리티 컴퍼니</t>
+          <t>SMIRNOV SERGEY;;SMIRNOV SERGEY NIKOLAYEVICH;;LANDIGRAD LTD LIABILITY CO;;OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD;;LANDIGRAD LLC;;LANDIGRAD LIMITED LIABILITY COMPANY;;란디그레드, 리미티드 라이어빌리티 컴퍼니;;스미르노브, 세르게이 니콜라예비치;;SMIRNOV SERGEY NIIKOLAYEVICH</t>
         </is>
       </c>
       <c r="R89" t="inlineStr">
         <is>
-          <t>SMIRNOV SERGEY NIKOLAYEVICH;;SMIRNOV SERGEY NIIKOLAYEVICH;;SMIRNOV SERGEJ NIKOLAEVICH;;스미르노브, 세르게이 니콜라예비치</t>
+          <t>SMIRNOV SERGEY NIIKOLAYEVICH;;SMIRNOV SERGEY NIKOLAYEVICH;;SMIRNOV SERGEJ NIKOLAEVICH;;스미르노브, 세르게이 니콜라예비치</t>
         </is>
       </c>
       <c r="S89" t="b">
@@ -9494,7 +9494,7 @@
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>CN;;ZA;;WO;;RU;;KR;;IL;;CA;;TW;;EP;;JP;;US;;AU</t>
+          <t>ZA;;IL;;WO;;AU;;TW;;JP;;US;;EP;;CA;;RU;;KR;;CN</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
@@ -9521,12 +9521,12 @@
       </c>
       <c r="Q90" t="inlineStr">
         <is>
-          <t>SMIRNOV SERGEY NIKOLAYEVICH;;SMIRNOV SERGEY;;스미르노브, 세르게이 니콜라예비치;;LANDIGRAD LIMITED LIABILITY COMPANY;;SMIRNOV SERGEY NIIKOLAYEVICH;;LANDIGRAD LLC;;LANDIGRAD LTD LIABILITY CO;;OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD;;란디그레드, 리미티드 라이어빌리티 컴퍼니</t>
+          <t>SMIRNOV SERGEY;;SMIRNOV SERGEY NIKOLAYEVICH;;LANDIGRAD LTD LIABILITY CO;;OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD;;LANDIGRAD LLC;;LANDIGRAD LIMITED LIABILITY COMPANY;;란디그레드, 리미티드 라이어빌리티 컴퍼니;;스미르노브, 세르게이 니콜라예비치;;SMIRNOV SERGEY NIIKOLAYEVICH</t>
         </is>
       </c>
       <c r="R90" t="inlineStr">
         <is>
-          <t>SMIRNOV SERGEY NIKOLAYEVICH;;SMIRNOV SERGEY NIIKOLAYEVICH;;SMIRNOV SERGEJ NIKOLAEVICH;;스미르노브, 세르게이 니콜라예비치</t>
+          <t>SMIRNOV SERGEY NIIKOLAYEVICH;;SMIRNOV SERGEY NIKOLAYEVICH;;SMIRNOV SERGEJ NIKOLAEVICH;;스미르노브, 세르게이 니콜라예비치</t>
         </is>
       </c>
       <c r="S90" t="b">
@@ -9597,7 +9597,7 @@
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>CN;;KR;;CA;;EP;;JP;;AU</t>
+          <t>AU;;JP;;CA;;EP;;KR;;CN</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
@@ -9624,12 +9624,12 @@
       </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>킨디 인코포레이티드;;KYNDI INC;;キンダイ、インコーポレイテッドＫＹＮＤＩ， ＩＮＣ．</t>
+          <t>キンダイ、インコーポレイテッドＫＹＮＤＩ， ＩＮＣ．;;KYNDI INC;;킨디 인코포레이티드</t>
         </is>
       </c>
       <c r="R91" t="inlineStr">
         <is>
-          <t>アルン、マジュムダール;;MAJUMDAR ARUN;;마줌다 아룬</t>
+          <t>MAJUMDAR ARUN;;アルン、マジュムダール;;마줌다 아룬</t>
         </is>
       </c>
       <c r="S91" t="b">
@@ -9723,12 +9723,12 @@
       </c>
       <c r="Q92" t="inlineStr">
         <is>
-          <t>UNIV LEUVEN KATH;;IMEC VZW;;KATHOLIEKE UNIV LEUVEN KU LEUVEN RESEARCH &amp; DEVELOPMENT</t>
+          <t>IMEC VZW;;UNIV LEUVEN KATH;;KATHOLIEKE UNIV LEUVEN KU LEUVEN RESEARCH &amp; DEVELOPMENT</t>
         </is>
       </c>
       <c r="R92" t="inlineStr">
         <is>
-          <t>CIUBOTARU FLORIN;;COSTA JOSE DIOGO;;ADELMANN HANNS CHRISTOPH</t>
+          <t>ADELMANN HANNS CHRISTOPH;;COSTA JOSE DIOGO;;CIUBOTARU FLORIN</t>
         </is>
       </c>
       <c r="S92" t="b">
@@ -9799,7 +9799,7 @@
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>US;;WO</t>
+          <t>WO;;US</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
@@ -9831,7 +9831,7 @@
       </c>
       <c r="R93" t="inlineStr">
         <is>
-          <t>GAMBETTA JAY;;DIAL OLIVER;;STEFFEN MATTHIAS;;MCCLURE III DOUGLAS TEMPLETON;;MCCLURE III DOUGLAS T;;GAMBETTA JAY M</t>
+          <t>MCCLURE III DOUGLAS TEMPLETON;;DIAL OLIVER;;STEFFEN MATTHIAS;;GAMBETTA JAY;;MCCLURE III DOUGLAS T;;GAMBETTA JAY M</t>
         </is>
       </c>
       <c r="S93" t="b">
@@ -9925,12 +9925,12 @@
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>UNIV LEUVEN KATH;;IMEC VZW;;KATHOLIEKE UNIV LEUVEN KU LEUVEN RESEARCH &amp; DEVELOPMENT</t>
+          <t>IMEC VZW;;UNIV LEUVEN KATH;;KATHOLIEKE UNIV LEUVEN KU LEUVEN RESEARCH &amp; DEVELOPMENT</t>
         </is>
       </c>
       <c r="R94" t="inlineStr">
         <is>
-          <t>CIUBOTARU FLORIN;;COSTA JOSE DIOGO;;ADELMANN HANNS CHRISTOPH</t>
+          <t>ADELMANN HANNS CHRISTOPH;;COSTA JOSE DIOGO;;CIUBOTARU FLORIN</t>
         </is>
       </c>
       <c r="S94" t="b">
@@ -10001,7 +10001,7 @@
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>CN;;GB;;DE;;JP</t>
+          <t>GB;;DE;;CN;;JP</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
@@ -10028,12 +10028,12 @@
       </c>
       <c r="Q95" t="inlineStr">
         <is>
-          <t>インターナショナル・ビジネス・マシーンズ・コーポレーションＩＮＴＥＲＮＡＴＩＯＮＡＬ ＢＵＳＩＮＥＳＳ ＭＡＣＨＩＮＥＳ ＣＯＲＰＯＲＡＴＩＯＮ;;国际商业机器公司;;IBM</t>
+          <t>IBM;;インターナショナル・ビジネス・マシーンズ・コーポレーションＩＮＴＥＲＮＡＴＩＯＮＡＬ ＢＵＳＩＮＥＳＳ ＭＡＣＨＩＮＥＳ ＣＯＲＰＯＲＡＴＩＯＮ;;国际商业机器公司</t>
         </is>
       </c>
       <c r="R95" t="inlineStr">
         <is>
-          <t>GAMBETTA JAY;;J·加姆贝塔;;OLIVER DIAL;;DIAL OLIVER;;O·蒂亚尔;;M·斯蒂芬;;MATTHIAS STEFFEN;;マクルーア ザ サード、ダグラス、テンプルトン;;ステファン、マティアス;;STEFFEN MATTHIAS;;ダイアル、オリバー;;MCCLURE III DOUGLAS TEMPLETON;;DOUGLAS TEMPLETON MCCLURE III;;JAY GAMBETTA;;ガンベッタ、ジェイ;;D·T·麦克鲁尔三世</t>
+          <t>ステファン、マティアス;;ダイアル、オリバー;;MCCLURE III DOUGLAS TEMPLETON;;DIAL OLIVER;;STEFFEN MATTHIAS;;JAY GAMBETTA;;J·加姆贝塔;;D·T·麦克鲁尔三世;;GAMBETTA JAY;;M·斯蒂芬;;マクルーア ザ サード、ダグラス、テンプルトン;;MATTHIAS STEFFEN;;DOUGLAS TEMPLETON MCCLURE III;;ガンベッタ、ジェイ;;OLIVER DIAL;;O·蒂亚尔</t>
         </is>
       </c>
       <c r="S95" t="b">
@@ -10104,7 +10104,7 @@
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>CN;;KR;;CA;;EP;;JP;;AU</t>
+          <t>AU;;JP;;CA;;EP;;KR;;CN</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
@@ -10131,12 +10131,12 @@
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>킨디 인코포레이티드;;KYNDI INC;;キンダイ、インコーポレイテッドＫＹＮＤＩ， ＩＮＣ．</t>
+          <t>キンダイ、インコーポレイテッドＫＹＮＤＩ， ＩＮＣ．;;KYNDI INC;;킨디 인코포레이티드</t>
         </is>
       </c>
       <c r="R96" t="inlineStr">
         <is>
-          <t>アルン、マジュムダール;;MAJUMDAR ARUN;;마줌다 아룬</t>
+          <t>MAJUMDAR ARUN;;アルン、マジュムダール;;마줌다 아룬</t>
         </is>
       </c>
       <c r="S96" t="b">
@@ -10207,7 +10207,7 @@
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>CN;;US</t>
+          <t>US;;CN</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
@@ -10234,12 +10234,12 @@
       </c>
       <c r="Q97" t="inlineStr">
         <is>
-          <t>中国科学院微电子研究所;;INST MICROELECTRONICS CAS;;INST OF MICROELECTRONICS CAS</t>
+          <t>中国科学院微电子研究所;;INST OF MICROELECTRONICS CAS;;INST MICROELECTRONICS CAS</t>
         </is>
       </c>
       <c r="R97" t="inlineStr">
         <is>
-          <t>朱正勇;;朱慧珑;;亨利·H·阿达姆松;;HENRY H ADAMSON;;WANG GUILEI;;ZHU HUILONG;;张严波;;ZHU ZHENGYONG;;ZHANG YANBO;;王桂磊</t>
+          <t>ZHANG YANBO;;朱慧珑;;王桂磊;;HENRY H ADAMSON;;朱正勇;;张严波;;ZHU HUILONG;;WANG GUILEI;;ZHU ZHENGYONG;;亨利·H·阿达姆松</t>
         </is>
       </c>
       <c r="S97" t="b">
@@ -10310,7 +10310,7 @@
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>CN;;GB;;DE;;JP</t>
+          <t>GB;;DE;;CN;;JP</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
@@ -10337,12 +10337,12 @@
       </c>
       <c r="Q98" t="inlineStr">
         <is>
-          <t>インターナショナル・ビジネス・マシーンズ・コーポレーションＩＮＴＥＲＮＡＴＩＯＮＡＬ ＢＵＳＩＮＥＳＳ ＭＡＣＨＩＮＥＳ ＣＯＲＰＯＲＡＴＩＯＮ;;国际商业机器公司;;IBM</t>
+          <t>IBM;;インターナショナル・ビジネス・マシーンズ・コーポレーションＩＮＴＥＲＮＡＴＩＯＮＡＬ ＢＵＳＩＮＥＳＳ ＭＡＣＨＩＮＥＳ ＣＯＲＰＯＲＡＴＩＯＮ;;国际商业机器公司</t>
         </is>
       </c>
       <c r="R98" t="inlineStr">
         <is>
-          <t>GAMBETTA JAY;;J·加姆贝塔;;OLIVER DIAL;;DIAL OLIVER;;O·蒂亚尔;;M·斯蒂芬;;MATTHIAS STEFFEN;;マクルーア ザ サード、ダグラス、テンプルトン;;ステファン、マティアス;;STEFFEN MATTHIAS;;ダイアル、オリバー;;MCCLURE III DOUGLAS TEMPLETON;;DOUGLAS TEMPLETON MCCLURE III;;JAY GAMBETTA;;ガンベッタ、ジェイ;;D·T·麦克鲁尔三世</t>
+          <t>ステファン、マティアス;;ダイアル、オリバー;;MCCLURE III DOUGLAS TEMPLETON;;DIAL OLIVER;;STEFFEN MATTHIAS;;JAY GAMBETTA;;J·加姆贝塔;;D·T·麦克鲁尔三世;;GAMBETTA JAY;;M·斯蒂芬;;マクルーア ザ サード、ダグラス、テンプルトン;;MATTHIAS STEFFEN;;DOUGLAS TEMPLETON MCCLURE III;;ガンベッタ、ジェイ;;OLIVER DIAL;;O·蒂亚尔</t>
         </is>
       </c>
       <c r="S98" t="b">
@@ -10436,7 +10436,7 @@
       </c>
       <c r="Q99" t="inlineStr">
         <is>
-          <t>SMIRNOV SERGEY NIKOLAYEVICH;;스미르노브, 세르게이 니콜라예비치;;란디그레드, 리미티드 라이어빌리티 컴퍼니;;LANDIGRAD LLC</t>
+          <t>LANDIGRAD LLC;;SMIRNOV SERGEY NIKOLAYEVICH;;란디그레드, 리미티드 라이어빌리티 컴퍼니;;스미르노브, 세르게이 니콜라예비치</t>
         </is>
       </c>
       <c r="R99" t="inlineStr">
@@ -10539,12 +10539,12 @@
       </c>
       <c r="Q100" t="inlineStr">
         <is>
-          <t>BOSE SAURABH KUMAR;;BROWN SIMON ANTHONY;;FOSTNER SHAWN;;THE UNIV OF CANTERBURY</t>
+          <t>BROWN SIMON ANTHONY;;FOSTNER SHAWN;;BOSE SAURABH KUMAR;;THE UNIV OF CANTERBURY</t>
         </is>
       </c>
       <c r="R100" t="inlineStr">
         <is>
-          <t>BOSE SAURABH KUMAR;;BROWN SIMON ANTHONY;;FOSTNER SHAWN</t>
+          <t>BROWN SIMON ANTHONY;;FOSTNER SHAWN;;BOSE SAURABH KUMAR</t>
         </is>
       </c>
       <c r="S100" t="b">
@@ -10642,12 +10642,12 @@
       </c>
       <c r="Q101" t="inlineStr">
         <is>
-          <t>BOSE SAURABH KUMAR;;BROWN SIMON ANTHONY;;FOSTNER SHAWN;;THE UNIV OF CANTERBURY</t>
+          <t>BROWN SIMON ANTHONY;;FOSTNER SHAWN;;BOSE SAURABH KUMAR;;THE UNIV OF CANTERBURY</t>
         </is>
       </c>
       <c r="R101" t="inlineStr">
         <is>
-          <t>BOSE SAURABH KUMAR;;BROWN SIMON ANTHONY;;FOSTNER SHAWN</t>
+          <t>BROWN SIMON ANTHONY;;FOSTNER SHAWN;;BOSE SAURABH KUMAR</t>
         </is>
       </c>
       <c r="S101" t="b">
@@ -10741,7 +10741,7 @@
       </c>
       <c r="Q102" t="inlineStr">
         <is>
-          <t>SMIRNOV SERGEY NIKOLAYEVICH;;스미르노브, 세르게이 니콜라예비치;;란디그레드, 리미티드 라이어빌리티 컴퍼니;;LANDIGRAD LLC</t>
+          <t>LANDIGRAD LLC;;SMIRNOV SERGEY NIKOLAYEVICH;;란디그레드, 리미티드 라이어빌리티 컴퍼니;;스미르노브, 세르게이 니콜라예비치</t>
         </is>
       </c>
       <c r="R102" t="inlineStr">
@@ -10844,12 +10844,12 @@
       </c>
       <c r="Q103" t="inlineStr">
         <is>
-          <t>BOSE SAURABH KUMAR;;BROWN SIMON ANTHONY;;FOSTNER SHAWN;;THE UNIV OF CANTERBURY</t>
+          <t>BROWN SIMON ANTHONY;;FOSTNER SHAWN;;BOSE SAURABH KUMAR;;THE UNIV OF CANTERBURY</t>
         </is>
       </c>
       <c r="R103" t="inlineStr">
         <is>
-          <t>BOSE SAURABH KUMAR;;BROWN SIMON ANTHONY;;FOSTNER SHAWN</t>
+          <t>BROWN SIMON ANTHONY;;FOSTNER SHAWN;;BOSE SAURABH KUMAR</t>
         </is>
       </c>
       <c r="S103" t="b">
@@ -10947,12 +10947,12 @@
       </c>
       <c r="Q104" t="inlineStr">
         <is>
-          <t>MOLINSKY BRADLEY DEAN;;HARTFORD FIRE INSURANCE COMP;;TIPTON THOMAS ANDREW;;CARROLL WILLIAM JOSEPH;;DUNST MICHAEL J;;BATTAGLINI JOSEPH S</t>
+          <t>TIPTON THOMAS ANDREW;;HARTFORD FIRE INSURANCE COMP;;CARROLL WILLIAM JOSEPH;;MOLINSKY BRADLEY DEAN;;BATTAGLINI JOSEPH S;;DUNST MICHAEL J</t>
         </is>
       </c>
       <c r="R104" t="inlineStr">
         <is>
-          <t>MOLINSKY BRADLEY DEAN;;TIPTON THOMAS ANDREW;;CARROLL WILLIAM JOSEPH;;DUNST MICHAEL J;;BATTAGLINI JOSEPH S</t>
+          <t>TIPTON THOMAS ANDREW;;CARROLL WILLIAM JOSEPH;;MOLINSKY BRADLEY DEAN;;BATTAGLINI JOSEPH S;;DUNST MICHAEL J</t>
         </is>
       </c>
       <c r="S104" t="b">
@@ -11050,12 +11050,12 @@
       </c>
       <c r="Q105" t="inlineStr">
         <is>
-          <t>MOLINSKY BRADLEY DEAN;;HARTFORD FIRE INSURANCE COMP;;TIPTON THOMAS ANDREW;;CARROLL WILLIAM JOSEPH;;DUNST MICHAEL J;;BATTAGLINI JOSEPH S</t>
+          <t>TIPTON THOMAS ANDREW;;HARTFORD FIRE INSURANCE COMP;;CARROLL WILLIAM JOSEPH;;MOLINSKY BRADLEY DEAN;;BATTAGLINI JOSEPH S;;DUNST MICHAEL J</t>
         </is>
       </c>
       <c r="R105" t="inlineStr">
         <is>
-          <t>MOLINSKY BRADLEY DEAN;;TIPTON THOMAS ANDREW;;CARROLL WILLIAM JOSEPH;;DUNST MICHAEL J;;BATTAGLINI JOSEPH S</t>
+          <t>TIPTON THOMAS ANDREW;;CARROLL WILLIAM JOSEPH;;MOLINSKY BRADLEY DEAN;;BATTAGLINI JOSEPH S;;DUNST MICHAEL J</t>
         </is>
       </c>
       <c r="S105" t="b">
@@ -11153,12 +11153,12 @@
       </c>
       <c r="Q106" t="inlineStr">
         <is>
-          <t>MOLINSKY BRADLEY DEAN;;HARTFORD FIRE INSURANCE COMP;;TIPTON THOMAS ANDREW;;CARROLL WILLIAM JOSEPH;;DUNST MICHAEL J;;BATTAGLINI JOSEPH S</t>
+          <t>TIPTON THOMAS ANDREW;;HARTFORD FIRE INSURANCE COMP;;CARROLL WILLIAM JOSEPH;;MOLINSKY BRADLEY DEAN;;BATTAGLINI JOSEPH S;;DUNST MICHAEL J</t>
         </is>
       </c>
       <c r="R106" t="inlineStr">
         <is>
-          <t>MOLINSKY BRADLEY DEAN;;TIPTON THOMAS ANDREW;;CARROLL WILLIAM JOSEPH;;DUNST MICHAEL J;;BATTAGLINI JOSEPH S</t>
+          <t>TIPTON THOMAS ANDREW;;CARROLL WILLIAM JOSEPH;;MOLINSKY BRADLEY DEAN;;BATTAGLINI JOSEPH S;;DUNST MICHAEL J</t>
         </is>
       </c>
       <c r="S106" t="b">
@@ -11229,7 +11229,7 @@
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>CN;;WO;;KR;;CA;;EP;;JP;;US;;SG;;AU</t>
+          <t>WO;;AU;;JP;;US;;CA;;EP;;SG;;KR;;CN</t>
         </is>
       </c>
       <c r="K107" t="inlineStr">
@@ -11256,12 +11256,12 @@
       </c>
       <c r="Q107" t="inlineStr">
         <is>
-          <t>GOOGLE INC;;구글 엘엘씨;;ラミ・バレントス;;グーグル エルエルシー;;BARENDS RAMI;;GOOGLE LLC</t>
+          <t>GOOGLE LLC;;ラミ・バレントス;;グーグル エルエルシー;;GOOGLE INC;;구글 엘엘씨;;BARENDS RAMI</t>
         </is>
       </c>
       <c r="R107" t="inlineStr">
         <is>
-          <t>바엔즈 라미;;BARENDS RAMI;;ラミ・バレントス</t>
+          <t>바엔즈 라미;;ラミ・バレントス;;BARENDS RAMI</t>
         </is>
       </c>
       <c r="S107" t="b">
@@ -11332,7 +11332,7 @@
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>CN;;WO;;KR;;CA;;EP;;JP;;US;;SG;;AU</t>
+          <t>WO;;AU;;JP;;US;;CA;;EP;;SG;;KR;;CN</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
@@ -11359,12 +11359,12 @@
       </c>
       <c r="Q108" t="inlineStr">
         <is>
-          <t>GOOGLE INC;;구글 엘엘씨;;ラミ・バレントス;;グーグル エルエルシー;;BARENDS RAMI;;GOOGLE LLC</t>
+          <t>GOOGLE LLC;;ラミ・バレントス;;グーグル エルエルシー;;GOOGLE INC;;구글 엘엘씨;;BARENDS RAMI</t>
         </is>
       </c>
       <c r="R108" t="inlineStr">
         <is>
-          <t>바엔즈 라미;;BARENDS RAMI;;ラミ・バレントス</t>
+          <t>바엔즈 라미;;ラミ・バレントス;;BARENDS RAMI</t>
         </is>
       </c>
       <c r="S108" t="b">
@@ -11462,12 +11462,12 @@
       </c>
       <c r="Q109" t="inlineStr">
         <is>
-          <t>MOLINSKY BRADLEY DEAN;;HARTFORD FIRE INSURANCE COMP;;TIPTON THOMAS ANDREW;;CARROLL WILLIAM JOSEPH;;DUNST MICHAEL J;;BATTAGLINI JOSEPH S</t>
+          <t>TIPTON THOMAS ANDREW;;HARTFORD FIRE INSURANCE COMP;;CARROLL WILLIAM JOSEPH;;MOLINSKY BRADLEY DEAN;;BATTAGLINI JOSEPH S;;DUNST MICHAEL J</t>
         </is>
       </c>
       <c r="R109" t="inlineStr">
         <is>
-          <t>MOLINSKY BRADLEY DEAN;;TIPTON THOMAS ANDREW;;CARROLL WILLIAM JOSEPH;;DUNST MICHAEL J;;BATTAGLINI JOSEPH S</t>
+          <t>TIPTON THOMAS ANDREW;;CARROLL WILLIAM JOSEPH;;MOLINSKY BRADLEY DEAN;;BATTAGLINI JOSEPH S;;DUNST MICHAEL J</t>
         </is>
       </c>
       <c r="S109" t="b">
@@ -11538,7 +11538,7 @@
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>CN;;WO;;KR;;CA;;EP;;JP;;US;;SG;;AU</t>
+          <t>WO;;AU;;JP;;US;;CA;;EP;;SG;;KR;;CN</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
@@ -11565,12 +11565,12 @@
       </c>
       <c r="Q110" t="inlineStr">
         <is>
-          <t>GOOGLE INC;;구글 엘엘씨;;ラミ・バレントス;;グーグル エルエルシー;;BARENDS RAMI;;GOOGLE LLC</t>
+          <t>GOOGLE LLC;;ラミ・バレントス;;グーグル エルエルシー;;GOOGLE INC;;구글 엘엘씨;;BARENDS RAMI</t>
         </is>
       </c>
       <c r="R110" t="inlineStr">
         <is>
-          <t>바엔즈 라미;;BARENDS RAMI;;ラミ・バレントス</t>
+          <t>바엔즈 라미;;ラミ・バレントス;;BARENDS RAMI</t>
         </is>
       </c>
       <c r="S110" t="b">
@@ -11668,12 +11668,12 @@
       </c>
       <c r="Q111" t="inlineStr">
         <is>
-          <t>MOLINSKY BRADLEY DEAN;;HARTFORD FIRE INSURANCE COMP;;TIPTON THOMAS ANDREW;;CARROLL WILLIAM JOSEPH;;DUNST MICHAEL J;;BATTAGLINI JOSEPH S</t>
+          <t>TIPTON THOMAS ANDREW;;HARTFORD FIRE INSURANCE COMP;;CARROLL WILLIAM JOSEPH;;MOLINSKY BRADLEY DEAN;;BATTAGLINI JOSEPH S;;DUNST MICHAEL J</t>
         </is>
       </c>
       <c r="R111" t="inlineStr">
         <is>
-          <t>MOLINSKY BRADLEY DEAN;;TIPTON THOMAS ANDREW;;CARROLL WILLIAM JOSEPH;;DUNST MICHAEL J;;BATTAGLINI JOSEPH S</t>
+          <t>TIPTON THOMAS ANDREW;;CARROLL WILLIAM JOSEPH;;MOLINSKY BRADLEY DEAN;;BATTAGLINI JOSEPH S;;DUNST MICHAEL J</t>
         </is>
       </c>
       <c r="S111" t="b">
@@ -11744,7 +11744,7 @@
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>CN;;ZA;;WO;;RU;;KR;;IL;;CA;;TW;;EP;;JP;;US;;AU</t>
+          <t>ZA;;IL;;WO;;AU;;TW;;JP;;US;;EP;;CA;;RU;;KR;;CN</t>
         </is>
       </c>
       <c r="K112" t="inlineStr">
@@ -11771,12 +11771,12 @@
       </c>
       <c r="Q112" t="inlineStr">
         <is>
-          <t>SMIRNOV SERGEY NIKOLAYEVICH;;SMIRNOV SERGEY;;SMIRNOV SERGEY NIIKOLAYEVICH;;LANDIGRAD LLC;;LANDIGRAD LTD LIABILITY CO;;OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD;;LANDIGRAD LIMITED LIABILITY COMPANY</t>
+          <t>SMIRNOV SERGEY;;SMIRNOV SERGEY NIKOLAYEVICH;;LANDIGRAD LTD LIABILITY CO;;OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD;;LANDIGRAD LLC;;LANDIGRAD LIMITED LIABILITY COMPANY;;SMIRNOV SERGEY NIIKOLAYEVICH</t>
         </is>
       </c>
       <c r="R112" t="inlineStr">
         <is>
-          <t>SMIRNOV SERGEY NIKOLAYEVICH;;SMIRNOV SERGEJ NIKOLAEVICH;;SMIRNOV SERGEY NIIKOLAYEVICH</t>
+          <t>SMIRNOV SERGEY NIIKOLAYEVICH;;SMIRNOV SERGEY NIKOLAYEVICH;;SMIRNOV SERGEJ NIKOLAEVICH</t>
         </is>
       </c>
       <c r="S112" t="b">
@@ -11847,7 +11847,7 @@
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>CN;;ZA;;WO;;RU;;KR;;IL;;CA;;TW;;EP;;JP;;US;;AU</t>
+          <t>ZA;;IL;;WO;;AU;;TW;;JP;;US;;EP;;CA;;RU;;KR;;CN</t>
         </is>
       </c>
       <c r="K113" t="inlineStr">
@@ -11874,12 +11874,12 @@
       </c>
       <c r="Q113" t="inlineStr">
         <is>
-          <t>SMIRNOV SERGEY NIKOLAYEVICH;;SMIRNOV SERGEY;;SMIRNOV SERGEY NIIKOLAYEVICH;;LANDIGRAD LLC;;LANDIGRAD LTD LIABILITY CO;;OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD;;LANDIGRAD LIMITED LIABILITY COMPANY</t>
+          <t>SMIRNOV SERGEY;;SMIRNOV SERGEY NIKOLAYEVICH;;LANDIGRAD LTD LIABILITY CO;;OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD;;LANDIGRAD LLC;;LANDIGRAD LIMITED LIABILITY COMPANY;;SMIRNOV SERGEY NIIKOLAYEVICH</t>
         </is>
       </c>
       <c r="R113" t="inlineStr">
         <is>
-          <t>SMIRNOV SERGEY NIKOLAYEVICH;;SMIRNOV SERGEJ NIKOLAEVICH;;SMIRNOV SERGEY NIIKOLAYEVICH</t>
+          <t>SMIRNOV SERGEY NIIKOLAYEVICH;;SMIRNOV SERGEY NIKOLAYEVICH;;SMIRNOV SERGEJ NIKOLAEVICH</t>
         </is>
       </c>
       <c r="S113" t="b">
@@ -11950,7 +11950,7 @@
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>CN;;ZA;;WO;;RU;;KR;;IL;;CA;;TW;;EP;;JP;;US;;AU</t>
+          <t>ZA;;IL;;WO;;AU;;TW;;JP;;US;;EP;;CA;;RU;;KR;;CN</t>
         </is>
       </c>
       <c r="K114" t="inlineStr">
@@ -11977,12 +11977,12 @@
       </c>
       <c r="Q114" t="inlineStr">
         <is>
-          <t>SMIRNOV SERGEY NIKOLAYEVICH;;SMIRNOV SERGEY;;SMIRNOV SERGEY NIIKOLAYEVICH;;LANDIGRAD LLC;;LANDIGRAD LTD LIABILITY CO;;OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD;;LANDIGRAD LIMITED LIABILITY COMPANY</t>
+          <t>SMIRNOV SERGEY;;SMIRNOV SERGEY NIKOLAYEVICH;;LANDIGRAD LTD LIABILITY CO;;OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD;;LANDIGRAD LLC;;LANDIGRAD LIMITED LIABILITY COMPANY;;SMIRNOV SERGEY NIIKOLAYEVICH</t>
         </is>
       </c>
       <c r="R114" t="inlineStr">
         <is>
-          <t>SMIRNOV SERGEY NIKOLAYEVICH;;SMIRNOV SERGEJ NIKOLAEVICH;;SMIRNOV SERGEY NIIKOLAYEVICH</t>
+          <t>SMIRNOV SERGEY NIIKOLAYEVICH;;SMIRNOV SERGEY NIKOLAYEVICH;;SMIRNOV SERGEJ NIKOLAEVICH</t>
         </is>
       </c>
       <c r="S114" t="b">
@@ -12049,7 +12049,7 @@
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>CN;;WO;;KR;;CA;;EP;;JP;;US;;AU</t>
+          <t>WO;;AU;;JP;;US;;CA;;EP;;KR;;CN</t>
         </is>
       </c>
       <c r="K115" t="inlineStr">
@@ -12076,12 +12076,12 @@
       </c>
       <c r="Q115" t="inlineStr">
         <is>
-          <t>GOOGLE INC;;NIU YUEZHEN;;グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;SMELYANSKIY VADIM;;GOOGLE LLC;;NEVEN HARTMUT;;CASTRILLO SERGIO BOIXO</t>
+          <t>GOOGLE LLC;;CASTRILLO SERGIO BOIXO;;NIU YUEZHEN;;GOOGLE INC;;SMELYANSKIY VADIM;;NEVEN HARTMUT;;グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ</t>
         </is>
       </c>
       <c r="R115" t="inlineStr">
         <is>
-          <t>BOIXO CASTRILLO SERGIO;;SMELYANSKIY VADIM;;NIU YUEZHEN;;ヴァディム・スメリャンスキー;;セルジオ・バイショ・カストリージョ;;NEVEN HARTMUT;;ユエゼン・ニウ;;ハルトムート・ネーフェン;;CASTRILLO SERGIO BOIXO</t>
+          <t>CASTRILLO SERGIO BOIXO;;NIU YUEZHEN;;ユエゼン・ニウ;;ヴァディム・スメリャンスキー;;セルジオ・バイショ・カストリージョ;;BOIXO CASTRILLO SERGIO;;SMELYANSKIY VADIM;;NEVEN HARTMUT;;ハルトムート・ネーフェン</t>
         </is>
       </c>
       <c r="S115" t="b">
@@ -12148,7 +12148,7 @@
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>CN;;WO;;KR;;CA;;EP;;JP;;US;;AU</t>
+          <t>WO;;AU;;JP;;US;;CA;;EP;;KR;;CN</t>
         </is>
       </c>
       <c r="K116" t="inlineStr">
@@ -12175,12 +12175,12 @@
       </c>
       <c r="Q116" t="inlineStr">
         <is>
-          <t>GOOGLE INC;;NIU YUEZHEN;;グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;SMELYANSKIY VADIM;;GOOGLE LLC;;NEVEN HARTMUT;;CASTRILLO SERGIO BOIXO</t>
+          <t>GOOGLE LLC;;CASTRILLO SERGIO BOIXO;;NIU YUEZHEN;;GOOGLE INC;;SMELYANSKIY VADIM;;NEVEN HARTMUT;;グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ</t>
         </is>
       </c>
       <c r="R116" t="inlineStr">
         <is>
-          <t>BOIXO CASTRILLO SERGIO;;SMELYANSKIY VADIM;;NIU YUEZHEN;;ヴァディム・スメリャンスキー;;セルジオ・バイショ・カストリージョ;;NEVEN HARTMUT;;ユエゼン・ニウ;;ハルトムート・ネーフェン;;CASTRILLO SERGIO BOIXO</t>
+          <t>CASTRILLO SERGIO BOIXO;;NIU YUEZHEN;;ユエゼン・ニウ;;ヴァディム・スメリャンスキー;;セルジオ・バイショ・カストリージョ;;BOIXO CASTRILLO SERGIO;;SMELYANSKIY VADIM;;NEVEN HARTMUT;;ハルトムート・ネーフェン</t>
         </is>
       </c>
       <c r="S116" t="b">
@@ -12251,7 +12251,7 @@
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>CN;;ZA;;WO;;RU;;KR;;IL;;CA;;TW;;EP;;JP;;US;;AU</t>
+          <t>ZA;;IL;;WO;;AU;;TW;;JP;;US;;EP;;CA;;RU;;KR;;CN</t>
         </is>
       </c>
       <c r="K117" t="inlineStr">
@@ -12278,12 +12278,12 @@
       </c>
       <c r="Q117" t="inlineStr">
         <is>
-          <t>SMIRNOV SERGEY NIKOLAYEVICH;;SMIRNOV SERGEY;;SMIRNOV SERGEY NIIKOLAYEVICH;;LANDIGRAD LLC;;LANDIGRAD LTD LIABILITY CO;;OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD;;LANDIGRAD LIMITED LIABILITY COMPANY</t>
+          <t>SMIRNOV SERGEY;;SMIRNOV SERGEY NIKOLAYEVICH;;LANDIGRAD LTD LIABILITY CO;;OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD;;LANDIGRAD LLC;;LANDIGRAD LIMITED LIABILITY COMPANY;;SMIRNOV SERGEY NIIKOLAYEVICH</t>
         </is>
       </c>
       <c r="R117" t="inlineStr">
         <is>
-          <t>SMIRNOV SERGEY NIKOLAYEVICH;;SMIRNOV SERGEJ NIKOLAEVICH;;SMIRNOV SERGEY NIIKOLAYEVICH</t>
+          <t>SMIRNOV SERGEY NIIKOLAYEVICH;;SMIRNOV SERGEY NIKOLAYEVICH;;SMIRNOV SERGEJ NIKOLAEVICH</t>
         </is>
       </c>
       <c r="S117" t="b">
@@ -12350,7 +12350,7 @@
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>CN;;WO;;KR;;CA;;EP;;JP;;US;;AU</t>
+          <t>WO;;AU;;JP;;US;;CA;;EP;;KR;;CN</t>
         </is>
       </c>
       <c r="K118" t="inlineStr">
@@ -12377,12 +12377,12 @@
       </c>
       <c r="Q118" t="inlineStr">
         <is>
-          <t>GOOGLE INC;;NIU YUEZHEN;;グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;SMELYANSKIY VADIM;;GOOGLE LLC;;NEVEN HARTMUT;;CASTRILLO SERGIO BOIXO</t>
+          <t>GOOGLE LLC;;CASTRILLO SERGIO BOIXO;;NIU YUEZHEN;;GOOGLE INC;;SMELYANSKIY VADIM;;NEVEN HARTMUT;;グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ</t>
         </is>
       </c>
       <c r="R118" t="inlineStr">
         <is>
-          <t>BOIXO CASTRILLO SERGIO;;SMELYANSKIY VADIM;;NIU YUEZHEN;;ヴァディム・スメリャンスキー;;セルジオ・バイショ・カストリージョ;;NEVEN HARTMUT;;ユエゼン・ニウ;;ハルトムート・ネーフェン;;CASTRILLO SERGIO BOIXO</t>
+          <t>CASTRILLO SERGIO BOIXO;;NIU YUEZHEN;;ユエゼン・ニウ;;ヴァディム・スメリャンスキー;;セルジオ・バイショ・カストリージョ;;BOIXO CASTRILLO SERGIO;;SMELYANSKIY VADIM;;NEVEN HARTMUT;;ハルトムート・ネーフェン</t>
         </is>
       </c>
       <c r="S118" t="b">
@@ -12449,7 +12449,7 @@
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>CN;;WO;;KR;;CA;;EP;;JP;;US;;AU</t>
+          <t>WO;;AU;;JP;;US;;CA;;EP;;KR;;CN</t>
         </is>
       </c>
       <c r="K119" t="inlineStr">
@@ -12476,12 +12476,12 @@
       </c>
       <c r="Q119" t="inlineStr">
         <is>
-          <t>GOOGLE INC;;NIU YUEZHEN;;グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;SMELYANSKIY VADIM;;GOOGLE LLC;;NEVEN HARTMUT;;CASTRILLO SERGIO BOIXO</t>
+          <t>GOOGLE LLC;;CASTRILLO SERGIO BOIXO;;NIU YUEZHEN;;GOOGLE INC;;SMELYANSKIY VADIM;;NEVEN HARTMUT;;グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ</t>
         </is>
       </c>
       <c r="R119" t="inlineStr">
         <is>
-          <t>BOIXO CASTRILLO SERGIO;;SMELYANSKIY VADIM;;NIU YUEZHEN;;ヴァディム・スメリャンスキー;;セルジオ・バイショ・カストリージョ;;NEVEN HARTMUT;;ユエゼン・ニウ;;ハルトムート・ネーフェン;;CASTRILLO SERGIO BOIXO</t>
+          <t>CASTRILLO SERGIO BOIXO;;NIU YUEZHEN;;ユエゼン・ニウ;;ヴァディム・スメリャンスキー;;セルジオ・バイショ・カストリージョ;;BOIXO CASTRILLO SERGIO;;SMELYANSKIY VADIM;;NEVEN HARTMUT;;ハルトムート・ネーフェン</t>
         </is>
       </c>
       <c r="S119" t="b">
@@ -12552,7 +12552,7 @@
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>CN;;ZA;;WO;;RU;;KR;;IL;;CA;;TW;;EP;;JP;;US;;AU</t>
+          <t>ZA;;IL;;WO;;AU;;TW;;JP;;US;;EP;;CA;;RU;;KR;;CN</t>
         </is>
       </c>
       <c r="K120" t="inlineStr">
@@ -12579,12 +12579,12 @@
       </c>
       <c r="Q120" t="inlineStr">
         <is>
-          <t>SMIRNOV SERGEY NIKOLAYEVICH;;SMIRNOV SERGEY;;SMIRNOV SERGEY NIIKOLAYEVICH;;LANDIGRAD LLC;;LANDIGRAD LTD LIABILITY CO;;OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD;;LANDIGRAD LIMITED LIABILITY COMPANY</t>
+          <t>SMIRNOV SERGEY;;SMIRNOV SERGEY NIKOLAYEVICH;;LANDIGRAD LTD LIABILITY CO;;OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD;;LANDIGRAD LLC;;LANDIGRAD LIMITED LIABILITY COMPANY;;SMIRNOV SERGEY NIIKOLAYEVICH</t>
         </is>
       </c>
       <c r="R120" t="inlineStr">
         <is>
-          <t>SMIRNOV SERGEY NIKOLAYEVICH;;SMIRNOV SERGEJ NIKOLAEVICH;;SMIRNOV SERGEY NIIKOLAYEVICH</t>
+          <t>SMIRNOV SERGEY NIIKOLAYEVICH;;SMIRNOV SERGEY NIKOLAYEVICH;;SMIRNOV SERGEJ NIKOLAEVICH</t>
         </is>
       </c>
       <c r="S120" t="b">

--- a/tests/integration/out/ai-and-nanotech-applicants.xlsx
+++ b/tests/integration/out/ai-and-nanotech-applicants.xlsx
@@ -642,7 +642,7 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>LEIPOLD DIRK ROBERT WALTER;;ASKER MICHAEL ALBERT;;MAXIM GEORGE ADRIAN</t>
+          <t>MAXIM GEORGE ADRIAN;;ASKER MICHAEL ALBERT;;LEIPOLD DIRK ROBERT WALTER</t>
         </is>
       </c>
       <c r="S2" t="b">
@@ -713,7 +713,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>WO;;JP;;US;;GB;;DE;;CN</t>
+          <t>WO;;US;;DE;;GB;;CN;;JP</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>US;;IB</t>
+          <t>IB;;US</t>
         </is>
       </c>
       <c r="M3" t="n">
@@ -740,12 +740,12 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>インターナショナル・ビジネス・マシーンズ・コーポレーションＩＮＴＥＲＮＡＴＩＯＮＡＬ ＢＵＳＩＮＥＳＳ ＭＡＣＨＩＮＥＳ ＣＯＲＰＯＲＡＴＩＯＮ;;IBM;;IBM UK;;IBM (CHINA) INVEST COMPANY LTD;;国际商业机器公司</t>
+          <t>IBM (CHINA) INVEST COMPANY LTD;;IBM;;IBM UK;;国际商业机器公司;;インターナショナル・ビジネス・マシーンズ・コーポレーションＩＮＴＥＲＮＡＴＩＯＮＡＬ ＢＵＳＩＮＥＳＳ ＭＡＣＨＩＮＥＳ ＣＯＲＰＯＲＡＴＩＯＮ</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>HASHEMI POUYA;;ZHANG JINGYUN;;DIAL OLIVER;;D·T·麦克鲁尔三世;;OLIVADESE SALVATORE;;CORCOLES-GONZALEZ ANTONIO;;LIU PENG;;マクルーア ザ サード、ダグラス、テンプルトン;;BISHOP LEV;;PRZYBYLSKI KEVIN J;;PHAN ANNA T;;ダイアル、オリバー;;STEFFEN MATTHIAS;;JAY GAMBETTA;;J·加姆贝塔;;MARTIN FERNANDEZ FRANCISCO JOSE;;MISGEN MARVIN M;;GAMBETTA JAY;;M·斯蒂芬;;TEMME PAUL KRISTAN;;NANNICINI GIACOMO;;JAVADIABHARI ALI;;MATTHIAS STEFFEN;;ステファン、マティアス;;TEMME PAUL;;REZNICEK ALEXANDER;;PHAN ANNA;;BISHOP LEV SAMUEL;;DOUGLAS TEMPLETON MCCLURE III;;PRISCO JOSEPH F;;KUCZYNSKI JOSEPH;;LEE CHOONGHYUN;;NEUMAN-HORN DEBRA A;;GAMBETTA JAY M;;OLIVADESE SALVATORE BERNARDO;;HEKMATSHOARTABARI BAHMAN;;O·蒂亚尔;;GREENBERG DON;;PISTOIA MARCO;;ANDO TAKASHI;;CHEN RICHARD;;MCCLURE III DOUGLAS TEMPLETON;;FARO SERTAGE ISMAEL;;ガンベッタ、ジェイ;;MCCLURE III DOUGLAS T;;OLIVER DIAL</t>
+          <t>NANNICINI GIACOMO;;BISHOP LEV;;PRZYBYLSKI KEVIN J;;LIU PENG;;ZHANG JINGYUN;;OLIVADESE SALVATORE;;マクルーア ザ サード、ダグラス、テンプルトン;;FARO SERTAGE ISMAEL;;D·T·麦克鲁尔三世;;ANDO TAKASHI;;GREENBERG DON;;MISGEN MARVIN M;;GAMBETTA JAY;;O·蒂亚尔;;KUCZYNSKI JOSEPH;;GAMBETTA JAY M;;MCCLURE III DOUGLAS TEMPLETON;;TEMME PAUL;;DIAL OLIVER;;PHAN ANNA;;OLIVADESE SALVATORE BERNARDO;;DOUGLAS TEMPLETON MCCLURE III;;LEE CHOONGHYUN;;ガンベッタ、ジェイ;;MCCLURE III DOUGLAS T;;PHAN ANNA T;;HEKMATSHOARTABARI BAHMAN;;ステファン、マティアス;;REZNICEK ALEXANDER;;PISTOIA MARCO;;MARTIN FERNANDEZ FRANCISCO JOSE;;TEMME PAUL KRISTAN;;JAVADIABHARI ALI;;OLIVER DIAL;;PRISCO JOSEPH F;;HASHEMI POUYA;;CHEN RICHARD;;NEUMAN-HORN DEBRA A;;CORCOLES-GONZALEZ ANTONIO;;BISHOP LEV SAMUEL;;ダイアル、オリバー;;M·斯蒂芬;;STEFFEN MATTHIAS;;JAY GAMBETTA;;J·加姆贝塔;;MATTHIAS STEFFEN</t>
         </is>
       </c>
       <c r="S3" t="b">
@@ -816,7 +816,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>WO;;AU;;JP;;US;;CA;;EP;;SG;;KR;;CN</t>
+          <t>WO;;US;;KR;;EP;;AU;;SG;;CA;;CN;;JP</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -826,7 +826,7 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>AU;;US;;CA</t>
+          <t>CA;;US;;AU</t>
         </is>
       </c>
       <c r="M4" t="n">
@@ -843,12 +843,12 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>GOOGLE LLC;;ラミ・バレントス;;CASTRILLO SERGIO BOIXO;;グーグル エルエルシー;;NIU YUEZHEN;;GOOGLE INC;;구글 엘엘씨;;SMELYANSKIY VADIM;;NEVEN HARTMUT;;BARENDS RAMI;;グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ</t>
+          <t>ラミ・バレントス;;グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;グーグル エルエルシー;;SMELYANSKIY VADIM;;NEVEN HARTMUT;;CASTRILLO SERGIO BOIXO;;NIU YUEZHEN;;구글 엘엘씨;;BARENDS RAMI;;GOOGLE INC;;GOOGLE LLC</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>CASTRILLO SERGIO BOIXO;;ラミ・バレントス;;NIU YUEZHEN;;FARHI EDWARD HENRY;;ヴァディム・スメリャンスキー;;セルジオ・バイショ・カストリージョ;;바엔즈 라미;;ユエゼン・ニウ;;BABBUSH RYAN;;BOIXO CASTRILLO SERGIO;;NEVEN HARTMUT;;SMELYANSKIY VADIM;;エドワード・ヘンリー・ファーリ;;NEVEN HELMUT;;ハルトムート・ネーヴェン;;BARENDS RAMI;;ハルトムート・ネーフェン;;ライアン・バブシュ</t>
+          <t>ラミ・バレントス;;ヴァディム・スメリャンスキー;;ハルトムート・ネーヴェン;;NEVEN HELMUT;;BOIXO CASTRILLO SERGIO;;ユエゼン・ニウ;;NEVEN HARTMUT;;SMELYANSKIY VADIM;;ライアン・バブシュ;;セルジオ・バイショ・カストリージョ;;CASTRILLO SERGIO BOIXO;;NIU YUEZHEN;;바엔즈 라미;;FARHI EDWARD HENRY;;BARENDS RAMI;;エドワード・ヘンリー・ファーリ;;ハルトムート・ネーフェン;;BABBUSH RYAN</t>
         </is>
       </c>
       <c r="S4" t="b">
@@ -919,7 +919,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>WO;;US;;EP</t>
+          <t>US;;WO;;EP</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -951,7 +951,7 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>OSBORN CHRISTOPHER BUTLER;;ZENG WILLIAM J;;ZENG WILLIAM;;MCKIERNAN KERI ANN;;DAVIS ERIK JOSEPH;;HEIDEL STEVEN;;RIGETTI CHAD TYLER;;DA SILVA MARCUS PALMER;;SETE EYOB;;CURTIS MICHAEL J;;REAGOR MATTHEW J;;WILSON CHRISTOPHER MOGAN;;TEZAK NIKOLAS ANTON;;RUST MICHAEL;;DESAI ANAND;;SETE EYOB A;;LYNCH ADAM DAVID;;JOHNSON BLAKE ROBERT;;ALAM MUHAMMAD SOHAIB;;KARALEKAS PETER JONATHAN;;JONES GLENN;;SMITH ROBERT STANLEY;;CURTIS MICHAEL;;PETERSON ERIC CHRISTOPHER</t>
+          <t>WILSON CHRISTOPHER MOGAN;;DA SILVA MARCUS PALMER;;PETERSON ERIC CHRISTOPHER;;CURTIS MICHAEL J;;OSBORN CHRISTOPHER BUTLER;;JOHNSON BLAKE ROBERT;;ZENG WILLIAM J;;ZENG WILLIAM;;DAVIS ERIK JOSEPH;;MCKIERNAN KERI ANN;;CURTIS MICHAEL;;SETE EYOB A;;HEIDEL STEVEN;;TEZAK NIKOLAS ANTON;;JONES GLENN;;RUST MICHAEL;;SMITH ROBERT STANLEY;;REAGOR MATTHEW J;;ALAM MUHAMMAD SOHAIB;;SETE EYOB;;RIGETTI CHAD TYLER;;KARALEKAS PETER JONATHAN;;DESAI ANAND;;LYNCH ADAM DAVID</t>
         </is>
       </c>
       <c r="S5" t="b">
@@ -1022,7 +1022,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>US;;CN;;EP</t>
+          <t>CN;;US;;EP</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -1054,7 +1054,7 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>ANDRIYASH EVGENY;;BOOTHBY KELLY T R;;ROLFE JASON;;LANTING TREVOR MICHAEL;;ANDRIYASH EVGENY A;;BOOTHBY THOMAS J;;YARKONI SHEIR;;KING ANDREW DOUGLAS;;AMIN MOHAMMAD H S;;AMIN MOHAMMAD H;;MACREADY WILLIAM G;;XUE YANBO</t>
+          <t>BOOTHBY THOMAS J;;AMIN MOHAMMAD H S;;ANDRIYASH EVGENY A;;AMIN MOHAMMAD H;;ROLFE JASON;;LANTING TREVOR MICHAEL;;KING ANDREW DOUGLAS;;MACREADY WILLIAM G;;ANDRIYASH EVGENY;;XUE YANBO;;BOOTHBY KELLY T R;;YARKONI SHEIR</t>
         </is>
       </c>
       <c r="S6" t="b">
@@ -1125,7 +1125,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>US;;CN</t>
+          <t>CN;;US</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1135,7 +1135,7 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>US;;CN</t>
+          <t>CN;;US</t>
         </is>
       </c>
       <c r="M7" t="n">
@@ -1152,12 +1152,12 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>中国科学院微电子研究所;;INST OF MICROELECTRONICS CAS;;INST MICROELECTRONICS CAS</t>
+          <t>中国科学院微电子研究所;;INST MICROELECTRONICS CAS;;INST OF MICROELECTRONICS CAS</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>ZHANG YANBO;;朱慧珑;;王桂磊;;HENRY H ADAMSON;;RADAMSON HENRY H;;朱正勇;;ZHU HUILONG;;张严波;;WANG GUILEI;;ZHU ZHENGYONG;;亨利·H·阿达姆松</t>
+          <t>朱正勇;;RADAMSON HENRY H;;张严波;;WANG GUILEI;;ZHANG YANBO;;ZHU HUILONG;;王桂磊;;亨利·H·阿达姆松;;ZHU ZHENGYONG;;朱慧珑;;HENRY H ADAMSON</t>
         </is>
       </c>
       <c r="S7" t="b">
@@ -1228,7 +1228,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>WO;;AU;;JP;;US;;CA;;EP;;KR;;CN</t>
+          <t>WO;;US;;KR;;EP;;AU;;CA;;CN;;JP</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -1238,7 +1238,7 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>AU;;US</t>
+          <t>US;;AU</t>
         </is>
       </c>
       <c r="M8" t="n">
@@ -1255,12 +1255,12 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>キンダイ、インコーポレイテッドＫＹＮＤＩ， ＩＮＣ．;;KYNDI INC;;킨디 인코포레이티드</t>
+          <t>KYNDI INC;;キンダイ、インコーポレイテッドＫＹＮＤＩ， ＩＮＣ．;;킨디 인코포레이티드</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>MAJUMDAR ARUN;;アルン、マジュムダール;;마줌다 아룬</t>
+          <t>アルン、マジュムダール;;MAJUMDAR ARUN;;마줌다 아룬</t>
         </is>
       </c>
       <c r="S8" t="b">
@@ -1327,7 +1327,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>WO;;US;;CA;;EP</t>
+          <t>CA;;US;;WO;;EP</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -1337,7 +1337,7 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>US;;IB</t>
+          <t>IB;;US</t>
         </is>
       </c>
       <c r="M9" t="n">
@@ -1359,7 +1359,7 @@
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>KHOMAMI ABADI MOJTABA;;MASILAMANI ASHOK PRABHU;;GOULD MATTHEW V;;GOULD MATTHEW;;MASILAMANI ASHOK;;GAHROOSI AMIR BAHADOR;;GAHROOSI AMIR</t>
+          <t>GAHROOSI AMIR;;GOULD MATTHEW V;;MASILAMANI ASHOK PRABHU;;MASILAMANI ASHOK;;GOULD MATTHEW;;GAHROOSI AMIR BAHADOR;;KHOMAMI ABADI MOJTABA</t>
         </is>
       </c>
       <c r="S9" t="b">
@@ -1430,7 +1430,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>WO;;TW;;US;;EP</t>
+          <t>TW;;US;;WO;;EP</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1462,7 +1462,7 @@
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>YAROSLAVSKY IGOR YEHUDA;;SIGNAEVSKY MAXIM;;YAROSLAVSKY IGOR;;SIGNAEVSKI MAXIM M</t>
+          <t>SIGNAEVSKY MAXIM;;YAROSLAVSKY IGOR YEHUDA;;SIGNAEVSKI MAXIM M;;YAROSLAVSKY IGOR</t>
         </is>
       </c>
       <c r="S10" t="b">
@@ -1529,7 +1529,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>WO;;US;;KR;;CA</t>
+          <t>CA;;WO;;US;;KR</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1539,7 +1539,7 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>US;;CA</t>
+          <t>CA;;US</t>
         </is>
       </c>
       <c r="M11" t="n">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>CROSHAW JEREMIAH;;WOLKOW ROBERT;;RASHIDI MOHAMMAD;;WOLKOW ROBERT A;;WALUS KONRAD;;VINE WYATT;;DIENEL THOMAS;;WALUS CONRAD;;HUFF TALEANA;;LIVADARU LUCIAN;;RETALLICK JACOB</t>
+          <t>LIVADARU LUCIAN;;WALUS KONRAD;;DIENEL THOMAS;;WOLKOW ROBERT;;RASHIDI MOHAMMAD;;WOLKOW ROBERT A;;VINE WYATT;;RETALLICK JACOB;;CROSHAW JEREMIAH;;HUFF TALEANA;;WALUS CONRAD</t>
         </is>
       </c>
       <c r="S11" t="b">
@@ -1628,7 +1628,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>WO;;US;;CA;;EP</t>
+          <t>CA;;US;;WO;;EP</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1660,7 +1660,7 @@
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>SIPAHIGIL ALP;;BHASKAR MIHIR;;NGUYEN CHRISTIAN THIEU;;ZHOU LEO XIANGYU;;CHOI SOONWON;;WANG SHENGTAO;;BHASKAR MIHIR KESHAV;;EVANS RUFFIN E;;NGUYEN CHRISTIAN;;SUKACHEV DENIS D;;ZHOU LEO;;SUKACHEV DENIS;;LUKIN MIKHAIL D;;EVANS RUFFIN;;PICHLER HANNES;;LUNKIN MIKHAIL;;LUKIN MIKHAIL</t>
+          <t>PICHLER HANNES;;NGUYEN CHRISTIAN THIEU;;WANG SHENGTAO;;LUKIN MIKHAIL D;;BHASKAR MIHIR;;SUKACHEV DENIS;;EVANS RUFFIN;;LUNKIN MIKHAIL;;SUKACHEV DENIS D;;NGUYEN CHRISTIAN;;EVANS RUFFIN E;;BHASKAR MIHIR KESHAV;;ZHOU LEO XIANGYU;;ZHOU LEO;;CHOI SOONWON;;SIPAHIGIL ALP;;LUKIN MIKHAIL</t>
         </is>
       </c>
       <c r="S12" t="b">
@@ -1727,7 +1727,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>WO;;AU;;US;;CA;;EP;;KR</t>
+          <t>WO;;US;;KR;;EP;;AU;;CA</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1754,12 +1754,12 @@
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>CATALOG TECH INC;;CATALOG TECHNOLOGIES INC</t>
+          <t>CATALOG TECHNOLOGIES INC;;CATALOG TECH INC</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>PARK HYUNJUN;;BHATIA SWAPNIL P;;LEAKE DEVIN;;BHATIA SWAPNIL;;ROQUET NATHANIEL</t>
+          <t>PARK HYUNJUN;;BHATIA SWAPNIL P;;ROQUET NATHANIEL;;LEAKE DEVIN;;BHATIA SWAPNIL</t>
         </is>
       </c>
       <c r="S13" t="b">
@@ -1857,12 +1857,12 @@
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>TIPTON THOMAS ANDREW;;HARTFORD FIRE INSURANCE COMP;;CARROLL WILLIAM JOSEPH;;MOLINSKY BRADLEY DEAN;;BATTAGLINI JOSEPH S;;DUNST MICHAEL J</t>
+          <t>MOLINSKY BRADLEY DEAN;;TIPTON THOMAS ANDREW;;DUNST MICHAEL J;;HARTFORD FIRE INSURANCE COMP;;CARROLL WILLIAM JOSEPH;;BATTAGLINI JOSEPH S</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>TIPTON THOMAS ANDREW;;CARROLL WILLIAM JOSEPH;;MOLINSKY BRADLEY DEAN;;BATTAGLINI JOSEPH S;;DUNST MICHAEL J</t>
+          <t>MOLINSKY BRADLEY DEAN;;TIPTON THOMAS ANDREW;;DUNST MICHAEL J;;CARROLL WILLIAM JOSEPH;;BATTAGLINI JOSEPH S</t>
         </is>
       </c>
       <c r="S14" t="b">
@@ -2032,7 +2032,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>WO;;US;;CA</t>
+          <t>CA;;US;;WO</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -2135,7 +2135,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>WO;;KR;;US;;CN</t>
+          <t>WO;;CN;;US;;KR</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -2167,7 +2167,7 @@
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>CHO JIN SUN;;CHO KYOUNG AH;;HEO JUN;;SOHN IL KWON;;KIM SANG-SIK;;LIM DOO-HYEOK;;LIM DOO HYEOK;;KIM SANG SIG;;CHO JIN-SUN;;WOO SOL-A;;WOO SOL A;;CHO KYOUNG-AH;;PARK YOUNG-SOO;;PARK YOUNG SOO</t>
+          <t>LIM DOO-HYEOK;;WOO SOL-A;;CHO JIN SUN;;CHO KYOUNG AH;;KIM SANG SIG;;WOO SOL A;;CHO JIN-SUN;;LIM DOO HYEOK;;PARK YOUNG-SOO;;HEO JUN;;PARK YOUNG SOO;;CHO KYOUNG-AH;;KIM SANG-SIK;;SOHN IL KWON</t>
         </is>
       </c>
       <c r="S17" t="b">
@@ -2238,7 +2238,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>WO;;TW;;JP;;US;;EP;;KR;;CN</t>
+          <t>WO;;US;;KR;;EP;;TW;;CN;;JP</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -2265,12 +2265,12 @@
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>ラム リサーチ コーポレーションＬＡＭ ＲＥＳＥＡＲＣＨ ＣＯＲＰＯＲＡＴＩＯＮ;;LAM RES CORP</t>
+          <t>LAM RES CORP;;ラム リサーチ コーポレーションＬＡＭ ＲＥＳＥＡＲＣＨ ＣＯＲＰＯＲＡＴＩＯＮ</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>グーハ・ジョイディープ;;DAUGHERTY JOHN;;ダウガティ・ジョン;;GUHA JOYDEEP;;バヘディ・バヘド;;GOTTSCHO RICHARD ALAN;;VAHEDI VAHID;;ゴットショ・リチャード・アラン</t>
+          <t>VAHEDI VAHID;;GOTTSCHO RICHARD ALAN;;グーハ・ジョイディープ;;GUHA JOYDEEP;;ゴットショ・リチャード・アラン;;バヘディ・バヘド;;DAUGHERTY JOHN;;ダウガティ・ジョン</t>
         </is>
       </c>
       <c r="S18" t="b">
@@ -2337,7 +2337,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>WO;;US;;CN;;EP</t>
+          <t>US;;CN;;WO;;EP</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -2369,7 +2369,7 @@
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>A·X·C·科尔;;WIEBE NATHAN O;;GRANADE CHRISTOPHER EVAN;;R·格拉斯;;GRASS ROBERT;;KOHLL ALEXANDER XAVIER CHRISTOF;;GAMBLE IV JOHN KING;;W·陈;;B·H·阮;;CHEN WEIDA;;STRAUSS KARIN;;GAMBLE JOHN KING;;NGUYEN BICHLIEN HOANG;;K·施特劳斯</t>
+          <t>W·陈;;GAMBLE JOHN KING;;K·施特劳斯;;KOHLL ALEXANDER XAVIER CHRISTOF;;GRANADE CHRISTOPHER EVAN;;WIEBE NATHAN O;;CHEN WEIDA;;A·X·C·科尔;;GAMBLE IV JOHN KING;;STRAUSS KARIN;;R·格拉斯;;NGUYEN BICHLIEN HOANG;;B·H·阮;;GRASS ROBERT</t>
         </is>
       </c>
       <c r="S19" t="b">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>JP;;US;;CA;;EP;;KR;;CN</t>
+          <t>US;;KR;;EP;;CA;;CN;;JP</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -2472,7 +2472,7 @@
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>マジャ・キャシディ;;PREDKI PAUL F;;ポール・エフ・プレドキ;;CASSIDY MAJA</t>
+          <t>ポール・エフ・プレドキ;;CASSIDY MAJA;;PREDKI PAUL F;;マジャ・キャシディ</t>
         </is>
       </c>
       <c r="S20" t="b">
@@ -2575,7 +2575,7 @@
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>SUCHOWSKI HAIM;;WOLF LIOR;;ARIELI URI;;MALKIEL ITZIK;;NAGLER ACHIYA;;MREJEN MICHAEL</t>
+          <t>SUCHOWSKI HAIM;;NAGLER ACHIYA;;ARIELI URI;;MALKIEL ITZIK;;MREJEN MICHAEL;;WOLF LIOR</t>
         </is>
       </c>
       <c r="S21" t="b">
@@ -2652,7 +2652,7 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>US;;CA</t>
+          <t>CA;;US</t>
         </is>
       </c>
       <c r="M22" t="n">
@@ -2674,7 +2674,7 @@
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>NABAVI SEYEDFAKHREDDIN;;ZHANG LIHONG</t>
+          <t>ZHANG LIHONG;;NABAVI SEYEDFAKHREDDIN</t>
         </is>
       </c>
       <c r="S22" t="b">
@@ -2773,7 +2773,7 @@
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>ANSCHUETZ ERIC R;;KATABARWA AMARA;;GONTHIER JEROME FLORIAN;;DALLAIRE-DEMERS PIERRE-LUC;;CAO YUDONG;;JOHNSON PETER D</t>
+          <t>DALLAIRE-DEMERS PIERRE-LUC;;ANSCHUETZ ERIC R;;GONTHIER JEROME FLORIAN;;KATABARWA AMARA;;JOHNSON PETER D;;CAO YUDONG</t>
         </is>
       </c>
       <c r="S23" t="b">
@@ -2840,7 +2840,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>WO;;US</t>
+          <t>US;;WO</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>MCFARLAND KIRSTY;;MCFARLAND KIRSTY A;;SPRACHMAN MELISSA;;CAVANAGH PETER;;DUBAY RYAN A;;VARGO EMMA;;MAGYAR ANDREW;;ROSENBERGER ERIN;;SPRACHMAN MELISSA M;;FRANK IAN;;HUANG HAIYAO;;FAVALORA GREGG;;MAGYAR ANDREW P;;BYRNES STEVEN;;MARKOVIC STACEY;;KOTZ KENNETH;;BYRNES STEVEN J;;KOTZ KENNETH T;;DUBAY RYAN;;FRANK IAN WARD;;FAVALORA GREGG E</t>
+          <t>MCFARLAND KIRSTY A;;BYRNES STEVEN;;KOTZ KENNETH;;SPRACHMAN MELISSA M;;FAVALORA GREGG;;SPRACHMAN MELISSA;;MAGYAR ANDREW P;;MCFARLAND KIRSTY;;CAVANAGH PETER;;BYRNES STEVEN J;;VARGO EMMA;;DUBAY RYAN A;;FAVALORA GREGG E;;MARKOVIC STACEY;;FRANK IAN WARD;;MAGYAR ANDREW;;FRANK IAN;;ROSENBERGER ERIN;;HUANG HAIYAO;;KOTZ KENNETH T;;DUBAY RYAN</t>
         </is>
       </c>
       <c r="S24" t="b">
@@ -3046,7 +3046,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>WO;;US</t>
+          <t>US;;WO</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -3078,7 +3078,7 @@
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>GUILLOU DAVID;;GUILLOU DAVID FRANCOIS;;SINHA RAJARISHI</t>
+          <t>SINHA RAJARISHI;;GUILLOU DAVID;;GUILLOU DAVID FRANCOIS</t>
         </is>
       </c>
       <c r="S26" t="b">
@@ -3149,7 +3149,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>WO;;FR;;EP</t>
+          <t>FR;;WO;;EP</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -3181,7 +3181,7 @@
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>LANDIS STÉPHAN;;LANDIS STEPHAN;;CONSTANCIAS CHRISTOPHE</t>
+          <t>LANDIS STÉPHAN;;CONSTANCIAS CHRISTOPHE;;LANDIS STEPHAN</t>
         </is>
       </c>
       <c r="S27" t="b">
@@ -3252,7 +3252,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>WO;;TW;;GB;;CA;;EP;;SG</t>
+          <t>WO;;EP;;GB;;CA;;TW;;SG</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -3284,7 +3284,7 @@
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>HAYES MATTHEW JAMES;;MATTHEW JAMES HAYES;;RAQUEL MARIA SANCHES-KUIPER;;SANCHES-KUIPER RAQUEL MARIA</t>
+          <t>HAYES MATTHEW JAMES;;MATTHEW JAMES HAYES;;SANCHES-KUIPER RAQUEL MARIA;;RAQUEL MARIA SANCHES-KUIPER</t>
         </is>
       </c>
       <c r="S28" t="b">
@@ -3355,7 +3355,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>WO;;US</t>
+          <t>US;;WO</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -3382,12 +3382,12 @@
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>IBM (CHINA) INVEST COMPANY LTD;;IBM;;IBM UK</t>
+          <t>IBM (CHINA) INVEST COMPANY LTD;;IBM UK;;IBM</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>DIAL OLIVER;;OLIVADESE SALVATORE;;CORCOLES-GONZALEZ ANTONIO;;BISHOP LEV;;PHAN ANNA T;;STEFFEN MATTHIAS;;GAMBETTA JAY;;TEMME PAUL KRISTAN;;NANNICINI GIACOMO;;TEMME PAUL;;PHAN ANNA;;BISHOP LEV SAMUEL;;GAMBETTA JAY M;;OLIVADESE SALVATORE BERNARDO;;GREENBERG DON;;PISTOIA MARCO;;MCCLURE III DOUGLAS TEMPLETON;;CHEN RICHARD;;MCCLURE III DOUGLAS T</t>
+          <t>BISHOP LEV;;NANNICINI GIACOMO;;OLIVADESE SALVATORE;;GREENBERG DON;;GAMBETTA JAY;;GAMBETTA JAY M;;MCCLURE III DOUGLAS TEMPLETON;;TEMME PAUL;;DIAL OLIVER;;PHAN ANNA;;OLIVADESE SALVATORE BERNARDO;;MCCLURE III DOUGLAS T;;PHAN ANNA T;;PISTOIA MARCO;;TEMME PAUL KRISTAN;;CHEN RICHARD;;CORCOLES-GONZALEZ ANTONIO;;BISHOP LEV SAMUEL;;STEFFEN MATTHIAS</t>
         </is>
       </c>
       <c r="S29" t="b">
@@ -3458,7 +3458,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>US;;CN</t>
+          <t>CN;;US</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -3485,12 +3485,12 @@
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>中国科学院微电子研究所;;INST OF MICROELECTRONICS CAS;;INST MICROELECTRONICS CAS</t>
+          <t>中国科学院微电子研究所;;INST MICROELECTRONICS CAS;;INST OF MICROELECTRONICS CAS</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>ZHANG YANBO;;朱慧珑;;王桂磊;;HENRY H ADAMSON;;朱正勇;;张严波;;ZHU HUILONG;;WANG GUILEI;;ZHU ZHENGYONG;;亨利·H·阿达姆松</t>
+          <t>朱正勇;;张严波;;WANG GUILEI;;ZHANG YANBO;;ZHU HUILONG;;王桂磊;;亨利·H·阿达姆松;;ZHU ZHENGYONG;;朱慧珑;;HENRY H ADAMSON</t>
         </is>
       </c>
       <c r="S30" t="b">
@@ -3561,7 +3561,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>WO;;US</t>
+          <t>US;;WO</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -3588,12 +3588,12 @@
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>IRIDIA INC;;DODO OMNIDATA INC</t>
+          <t>DODO OMNIDATA INC;;IRIDIA INC</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>PREDKI PAUL F;;CASSIDY MAJA</t>
+          <t>CASSIDY MAJA;;PREDKI PAUL F</t>
         </is>
       </c>
       <c r="S31" t="b">
@@ -3696,7 +3696,7 @@
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>ANDRIYASH EVGENY;;ROLFE JASON;;LANTING TREVOR MICHAEL;;ANDRIYASH EVGENY A;;BOOTHBY THOMAS J;;YARKONI SHEIR;;KING ANDREW DOUGLAS;;AMIN MOHAMMAD H S;;AMIN MOHAMMAD H</t>
+          <t>BOOTHBY THOMAS J;;AMIN MOHAMMAD H S;;ANDRIYASH EVGENY A;;AMIN MOHAMMAD H;;ROLFE JASON;;LANTING TREVOR MICHAEL;;KING ANDREW DOUGLAS;;ANDRIYASH EVGENY;;YARKONI SHEIR</t>
         </is>
       </c>
       <c r="S32" t="b">
@@ -3763,7 +3763,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>KR;;US;;EP</t>
+          <t>US;;KR;;EP</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -3790,12 +3790,12 @@
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>IMEC VZW;;UNIV LEUVEN KATH;;KATHOLIEKE UNIV LEUVEN KU LEUVEN RESEARCH &amp; DEVELOPMENT</t>
+          <t>UNIV LEUVEN KATH;;IMEC VZW;;KATHOLIEKE UNIV LEUVEN KU LEUVEN RESEARCH &amp; DEVELOPMENT</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>CAI QING;;COVENS KRIS;;FAUVART MAARTEN;;ADELMANN HANNS CHRISTOPH;;COSTA JOSE DIOGO;;CHEN CHANG;;CIUBOTARU FLORIN;;STAKENBORG TIM</t>
+          <t>COVENS KRIS;;CIUBOTARU FLORIN;;CHEN CHANG;;CAI QING;;ADELMANN HANNS CHRISTOPH;;COSTA JOSE DIOGO;;STAKENBORG TIM;;FAUVART MAARTEN</t>
         </is>
       </c>
       <c r="S33" t="b">
@@ -3993,7 +3993,7 @@
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>POOSER RAPHAEL C;;LAWRIE BENJAMIN J;;MAKSYMOVYCH PETRO</t>
+          <t>MAKSYMOVYCH PETRO;;LAWRIE BENJAMIN J;;POOSER RAPHAEL C</t>
         </is>
       </c>
       <c r="S35" t="b">
@@ -4092,7 +4092,7 @@
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>DANIEL RAMEZ;;RIZIK LUNA</t>
+          <t>RIZIK LUNA;;DANIEL RAMEZ</t>
         </is>
       </c>
       <c r="S36" t="b">
@@ -4191,7 +4191,7 @@
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>MILENKOVIC OLGICA;;YAZDI S M HOSSEIN TABATABAEI;;GABRYS RYAN</t>
+          <t>YAZDI S M HOSSEIN TABATABAEI;;GABRYS RYAN;;MILENKOVIC OLGICA</t>
         </is>
       </c>
       <c r="S37" t="b">
@@ -4262,7 +4262,7 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>KR;;US</t>
+          <t>US;;KR</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -4289,7 +4289,7 @@
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>서울시립대학교 산학협력단;;UNIV SEOUL IND COOP FOUND</t>
+          <t>UNIV SEOUL IND COOP FOUND;;서울시립대학교 산학협력단</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
@@ -4492,7 +4492,7 @@
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>GAO JUNXIONG;;CHENG RUNHONG;;CHEN CHANGSHENG;;WANG YUNBO;;ZHOU WENLI;;ZHU YU;;WU SHUO</t>
+          <t>CHENG RUNHONG;;WANG YUNBO;;WU SHUO;;ZHU YU;;CHEN CHANGSHENG;;ZHOU WENLI;;GAO JUNXIONG</t>
         </is>
       </c>
       <c r="S40" t="b">
@@ -4559,7 +4559,7 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>US;;CN</t>
+          <t>CN;;US</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -4591,7 +4591,7 @@
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>YAN XIAOBING;;REN DELIANG;;WANG KAIYANG</t>
+          <t>WANG KAIYANG;;REN DELIANG;;YAN XIAOBING</t>
         </is>
       </c>
       <c r="S41" t="b">
@@ -4690,7 +4690,7 @@
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>SLINKER KEITH;;MAGAR KAMAN THAPA;;PANKONIEN ALEXANDER M;;KONDASH COREY R;;REICH GREGORY W;;BAUR JEFFREY W;;DICKINSON BENJAMIN T</t>
+          <t>KONDASH COREY R;;SLINKER KEITH;;DICKINSON BENJAMIN T;;PANKONIEN ALEXANDER M;;MAGAR KAMAN THAPA;;REICH GREGORY W;;BAUR JEFFREY W</t>
         </is>
       </c>
       <c r="S42" t="b">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>YU DAN;;CHEN YIXIANG;;WANG WEI;;WANG ZEHONG</t>
+          <t>CHEN YIXIANG;;WANG ZEHONG;;WANG WEI;;YU DAN</t>
         </is>
       </c>
       <c r="S44" t="b">
@@ -4987,7 +4987,7 @@
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>SANGWAN VINOD K;;LEE HONG-SUB;;HERSAM MARK C</t>
+          <t>LEE HONG-SUB;;SANGWAN VINOD K;;HERSAM MARK C</t>
         </is>
       </c>
       <c r="S45" t="b">
@@ -5086,7 +5086,7 @@
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>FONG KIN CHUNG;;JIANG ZHUOLIN;;SIU MAN-HUNG</t>
+          <t>FONG KIN CHUNG;;SIU MAN-HUNG;;JIANG ZHUOLIN</t>
         </is>
       </c>
       <c r="S46" t="b">
@@ -5189,7 +5189,7 @@
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>MANSSON ALF;;KORTEN TILL;;DIEZ STEFAN;;REUTHER CORDULA;;TAKATSUKI HIDEYO</t>
+          <t>REUTHER CORDULA;;TAKATSUKI HIDEYO;;MANSSON ALF;;KORTEN TILL;;DIEZ STEFAN</t>
         </is>
       </c>
       <c r="S47" t="b">
@@ -5387,7 +5387,7 @@
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>XU JUN;;LIU YU;;ZHAO LINYUAN;;LIANG RENRONG</t>
+          <t>LIU YU;;LIANG RENRONG;;ZHAO LINYUAN;;XU JUN</t>
         </is>
       </c>
       <c r="S49" t="b">
@@ -5557,7 +5557,7 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>KR;;US</t>
+          <t>US;;KR</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -5589,7 +5589,7 @@
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>HEO KEUN;;LEE HYUNG-DONG;;CHOI YONG SOO;;CHOI YONG-SOO;;LEE HYUNG DONG</t>
+          <t>CHOI YONG SOO;;LEE HYUNG DONG;;CHOI YONG-SOO;;HEO KEUN;;LEE HYUNG-DONG</t>
         </is>
       </c>
       <c r="S51" t="b">
@@ -5688,7 +5688,7 @@
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>WU QING;;MCLEAN MARK;;XIA QIANGFEI;;YANG JIANHUA</t>
+          <t>XIA QIANGFEI;;WU QING;;MCLEAN MARK;;YANG JIANHUA</t>
         </is>
       </c>
       <c r="S52" t="b">
@@ -5786,12 +5786,12 @@
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>YARKONI SHEIR;;D WAVE SYSTEMS INC;;D-WAVE SYSTEMS INC</t>
+          <t>D-WAVE SYSTEMS INC;;YARKONI SHEIR;;D WAVE SYSTEMS INC</t>
         </is>
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>BOOTHBY KELLY T R;;LANTING TREVOR MICHAEL;;ANDRIYASH EVGENY A;;BOOTHBY THOMAS J;;KING ANDREW DOUGLAS;;YARKONI SHEIR;;AMIN MOHAMMAD H</t>
+          <t>BOOTHBY THOMAS J;;ANDRIYASH EVGENY A;;AMIN MOHAMMAD H;;LANTING TREVOR MICHAEL;;KING ANDREW DOUGLAS;;BOOTHBY KELLY T R;;YARKONI SHEIR</t>
         </is>
       </c>
       <c r="S53" t="b">
@@ -6088,7 +6088,7 @@
       </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>Zhengyong Zhu;;Huilong Zhu</t>
+          <t>Huilong Zhu;;Zhengyong Zhu</t>
         </is>
       </c>
       <c r="S56" t="b">
@@ -6159,7 +6159,7 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>KR;;US</t>
+          <t>US;;KR</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -6186,7 +6186,7 @@
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>서울시립대학교 산학협력단;;UNIV SEOUL IND COOP FOUND</t>
+          <t>UNIV SEOUL IND COOP FOUND;;서울시립대학교 산학협력단</t>
         </is>
       </c>
       <c r="R57" t="inlineStr">
@@ -6294,7 +6294,7 @@
       </c>
       <c r="R58" t="inlineStr">
         <is>
-          <t>NIKONOV DMITRI E;;MANIPATRUNI SASIKANTH;;YOUNG IAN A</t>
+          <t>YOUNG IAN A;;NIKONOV DMITRI E;;MANIPATRUNI SASIKANTH</t>
         </is>
       </c>
       <c r="S58" t="b">
@@ -6464,7 +6464,7 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>WO;;AU;;JP;;US;;CA;;EP;;SG;;KR;;CN</t>
+          <t>WO;;US;;KR;;EP;;AU;;SG;;CA;;CN;;JP</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -6491,12 +6491,12 @@
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>GOOGLE LLC;;ラミ・バレントス;;グーグル エルエルシー;;GOOGLE INC;;구글 엘엘씨;;BARENDS RAMI;;グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ</t>
+          <t>ラミ・バレントス;;グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;グーグル エルエルシー;;구글 엘엘씨;;BARENDS RAMI;;GOOGLE INC;;GOOGLE LLC</t>
         </is>
       </c>
       <c r="R60" t="inlineStr">
         <is>
-          <t>ラミ・バレントス;;FARHI EDWARD HENRY;;바엔즈 라미;;BABBUSH RYAN;;NEVEN HARTMUT;;エドワード・ヘンリー・ファーリ;;ハルトムート・ネーヴェン;;BARENDS RAMI;;ライアン・バブシュ</t>
+          <t>ラミ・バレントス;;ハルトムート・ネーヴェン;;NEVEN HARTMUT;;ライアン・バブシュ;;바엔즈 라미;;FARHI EDWARD HENRY;;BARENDS RAMI;;エドワード・ヘンリー・ファーリ;;BABBUSH RYAN</t>
         </is>
       </c>
       <c r="S60" t="b">
@@ -6662,7 +6662,7 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>WO;;CA</t>
+          <t>CA;;WO</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -6694,7 +6694,7 @@
       </c>
       <c r="R62" t="inlineStr">
         <is>
-          <t>KOUL RAMAN;;WANG GANG;;KAPOOR ANMOL SINGH;;SALAHANDISH RAZIEH;;WANG GANG (A K A JOSEPH);;BHAT SUMRITA;;VASTAREY NIKHIL SURESH</t>
+          <t>KOUL RAMAN;;WANG GANG (A K A JOSEPH);;SALAHANDISH RAZIEH;;BHAT SUMRITA;;VASTAREY NIKHIL SURESH;;KAPOOR ANMOL SINGH;;WANG GANG</t>
         </is>
       </c>
       <c r="S62" t="b">
@@ -6761,7 +6761,7 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>JP;;US;;CN</t>
+          <t>CN;;US;;JP</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -6892,7 +6892,7 @@
       </c>
       <c r="R64" t="inlineStr">
         <is>
-          <t>KIM CHIHO;;CHANDRASEKARAN ANAND;;RAMPRASAD RAMPI</t>
+          <t>RAMPRASAD RAMPI;;KIM CHIHO;;CHANDRASEKARAN ANAND</t>
         </is>
       </c>
       <c r="S64" t="b">
@@ -6963,7 +6963,7 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>WO;;AU;;JP;;US;;CA;;EP;;SG;;KR;;CN</t>
+          <t>WO;;CN;;US;;KR;;EP;;AU;;CA;;SG;;JP</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -6990,12 +6990,12 @@
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>GOOGLE LLC;;ラミ・バレントス;;CASTRILLO SERGIO BOIXO;;グーグル エルエルシー;;NIU YUEZHEN;;GOOGLE INC;;구글 엘엘씨;;SMELYANSKIY VADIM;;NEVEN HARTMUT;;BARENDS RAMI;;グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ</t>
+          <t>ラミ・バレントス;;グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;グーグル エルエルシー;;SMELYANSKIY VADIM;;NEVEN HARTMUT;;CASTRILLO SERGIO BOIXO;;NIU YUEZHEN;;구글 엘엘씨;;BARENDS RAMI;;GOOGLE INC;;GOOGLE LLC</t>
         </is>
       </c>
       <c r="R65" t="inlineStr">
         <is>
-          <t>ラミ・バレントス;;CASTRILLO SERGIO BOIXO;;NIU YUEZHEN;;ユエゼン・ニウ;;ヴァディム・スメリャンスキー;;セルジオ・バイショ・カストリージョ;;바엔즈 라미;;BABBUSH RYAN;;BOIXO CASTRILLO SERGIO;;NEVEN HARTMUT;;SMELYANSKIY VADIM;;BARENDS RAMI;;ハルトムート・ネーフェン</t>
+          <t>ラミ・バレントス;;ヴァディム・スメリャンスキー;;ユエゼン・ニウ;;BOIXO CASTRILLO SERGIO;;NEVEN HARTMUT;;SMELYANSKIY VADIM;;セルジオ・バイショ・カストリージョ;;CASTRILLO SERGIO BOIXO;;NIU YUEZHEN;;BARENDS RAMI;;바엔즈 라미;;ハルトムート・ネーフェン;;BABBUSH RYAN</t>
         </is>
       </c>
       <c r="S65" t="b">
@@ -7066,7 +7066,7 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>WO;;JP;;US;;EP;;KR;;CN</t>
+          <t>WO;;US;;KR;;EP;;CN;;JP</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -7093,12 +7093,12 @@
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>ザ ユニバーシティー オブ カンタベリー;;BOSE SAURABH KUMAR;;FOSTNER SHAWN;;BROWN SIMON ANTHONY;;THE UNIV OF CANTERBURY</t>
+          <t>FOSTNER SHAWN;;BROWN SIMON ANTHONY;;ザ ユニバーシティー オブ カンタベリー;;BOSE SAURABH KUMAR;;THE UNIV OF CANTERBURY</t>
         </is>
       </c>
       <c r="R66" t="inlineStr">
         <is>
-          <t>フォスナー ショーン;;BOSE SAURABH KUMAR;;FOSTNER SHAWN;;BROWN SIMON ANTHONY;;ボーズ サウラブ クマー;;ブラウン シモン アンソニー</t>
+          <t>FOSTNER SHAWN;;BROWN SIMON ANTHONY;;ブラウン シモン アンソニー;;フォスナー ショーン;;BOSE SAURABH KUMAR;;ボーズ サウラブ クマー</t>
         </is>
       </c>
       <c r="S66" t="b">
@@ -7196,12 +7196,12 @@
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>UNIV SOGANG RES FOUNDATION;;서강대학교산학협력단</t>
+          <t>서강대학교산학협력단;;UNIV SOGANG RES FOUNDATION</t>
         </is>
       </c>
       <c r="R67" t="inlineStr">
         <is>
-          <t>최정우;;CHOI JEONG WOO;;정용호;;CHUNG YONG HO</t>
+          <t>정용호;;CHOI JEONG WOO;;CHUNG YONG HO;;최정우</t>
         </is>
       </c>
       <c r="S67" t="b">
@@ -7299,12 +7299,12 @@
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>东南大学;;UNIV SOUTHEAST</t>
+          <t>UNIV SOUTHEAST;;东南大学</t>
         </is>
       </c>
       <c r="R68" t="inlineStr">
         <is>
-          <t>LI YUAN;;张晋;;XING YAN;;ZHANG JIN;;李源;;ZHANG HUI;;张辉;;幸研</t>
+          <t>张辉;;ZHANG JIN;;XING YAN;;幸研;;李源;;ZHANG HUI;;张晋;;LI YUAN</t>
         </is>
       </c>
       <c r="S68" t="b">
@@ -7402,12 +7402,12 @@
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>东南大学;;UNIV SOUTHEAST</t>
+          <t>UNIV SOUTHEAST;;东南大学</t>
         </is>
       </c>
       <c r="R69" t="inlineStr">
         <is>
-          <t>LI YUAN;;张晋;;XING YAN;;ZHANG JIN;;李源;;ZHANG HUI;;张辉;;幸研</t>
+          <t>张辉;;ZHANG JIN;;XING YAN;;幸研;;李源;;ZHANG HUI;;张晋;;LI YUAN</t>
         </is>
       </c>
       <c r="S69" t="b">
@@ -7506,7 +7506,7 @@
       </c>
       <c r="R70" t="inlineStr">
         <is>
-          <t>A·X·C·科尔;;R·格拉斯;;NGUYEN BICHLIEN HOANG;;GRASS ROBERT;;KOHLL ALEXANDER XAVIER CHRISTOF;;W·陈;;B·H·阮;;CHEN WEIDA;;STRAUSS KARIN;;K·施特劳斯</t>
+          <t>W·陈;;KOHLL ALEXANDER XAVIER CHRISTOF;;A·X·C·科尔;;CHEN WEIDA;;STRAUSS KARIN;;R·格拉斯;;K·施特劳斯;;B·H·阮;;GRASS ROBERT;;NGUYEN BICHLIEN HOANG</t>
         </is>
       </c>
       <c r="S70" t="b">
@@ -7573,7 +7573,7 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>JP;;US</t>
+          <t>US;;JP</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
@@ -7600,7 +7600,7 @@
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>HITACHI LTD;;株式会社日立製作所</t>
+          <t>株式会社日立製作所;;HITACHI LTD</t>
         </is>
       </c>
       <c r="R71" t="inlineStr">
@@ -7676,7 +7676,7 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>US;;CN</t>
+          <t>CN;;US</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
@@ -7708,7 +7708,7 @@
       </c>
       <c r="R72" t="inlineStr">
         <is>
-          <t>蒋亚东;;LI DONGYANG;;LI WEI;;陈奕丞;;GU DEEN;;ZHONG HAO;;CHEN YICHENG;;顾德恩;;李伟;;钟豪;;GU DE'EN;;JIANG YADONG;;李东阳</t>
+          <t>李伟;;蒋亚东;;GU DE'EN;;顾德恩;;李东阳;;LI DONGYANG;;JIANG YADONG;;GU DEEN;;钟豪;;陈奕丞;;LI WEI;;CHEN YICHENG;;ZHONG HAO</t>
         </is>
       </c>
       <c r="S72" t="b">
@@ -7802,12 +7802,12 @@
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>UNIV INDUSTRY COOPERATION GROUP KYUNG HEE UNIV;;경희대학교 산학협력단</t>
+          <t>경희대학교 산학협력단;;UNIV INDUSTRY COOPERATION GROUP KYUNG HEE UNIV</t>
         </is>
       </c>
       <c r="R73" t="inlineStr">
         <is>
-          <t>정영민;;SHIN HYUN DONG;;신현동;;파쿼 아마드;;JEONG YOUNG MIN;;FAROOQ AHMAD</t>
+          <t>FAROOQ AHMAD;;정영민;;JEONG YOUNG MIN;;SHIN HYUN DONG;;신현동;;파쿼 아마드</t>
         </is>
       </c>
       <c r="S73" t="b">
@@ -7874,7 +7874,7 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>JP;;KR;;CN;;EP</t>
+          <t>KR;;CN;;JP;;EP</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
@@ -7901,12 +7901,12 @@
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>ラム リサーチ コーポレーションＬＡＭ ＲＥＳＥＡＲＣＨ ＣＯＲＰＯＲＡＴＩＯＮ;;LAM RES CORP</t>
+          <t>LAM RES CORP;;ラム リサーチ コーポレーションＬＡＭ ＲＥＳＥＡＲＣＨ ＣＯＲＰＯＲＡＴＩＯＮ</t>
         </is>
       </c>
       <c r="R74" t="inlineStr">
         <is>
-          <t>グーハ・ジョイディープ;;DAUGHERTY JOHN;;ダウガティ・ジョン;;GUHA JOYDEEP;;バヘディ・バヘド;;GOTTSCHO RICHARD ALAN;;VAHEDI VAHID;;ゴットショ・リチャード・アラン</t>
+          <t>VAHEDI VAHID;;GOTTSCHO RICHARD ALAN;;グーハ・ジョイディープ;;GUHA JOYDEEP;;ゴットショ・リチャード・アラン;;バヘディ・バヘド;;DAUGHERTY JOHN;;ダウガティ・ジョン</t>
         </is>
       </c>
       <c r="S74" t="b">
@@ -8004,12 +8004,12 @@
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>UNIV SOGANG RES FOUNDATION;;서강대학교산학협력단</t>
+          <t>서강대학교산학협력단;;UNIV SOGANG RES FOUNDATION</t>
         </is>
       </c>
       <c r="R75" t="inlineStr">
         <is>
-          <t>최정우;;CHOI JEONG WOO;;정용호;;CHUNG YONG HO</t>
+          <t>정용호;;CHOI JEONG WOO;;CHUNG YONG HO;;최정우</t>
         </is>
       </c>
       <c r="S75" t="b">
@@ -8080,7 +8080,7 @@
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>JP;;US;;EP;;KR;;CN</t>
+          <t>US;;KR;;EP;;CN;;JP</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
@@ -8112,7 +8112,7 @@
       </c>
       <c r="R76" t="inlineStr">
         <is>
-          <t>フォスナー ショーン;;BOSE SAURABH KUMAR;;FOSTNER SHAWN;;BROWN SIMON ANTHONY;;ボーズ サウラブ クマー;;ブラウン シモン アンソニー</t>
+          <t>FOSTNER SHAWN;;BROWN SIMON ANTHONY;;ブラウン シモン アンソニー;;フォスナー ショーン;;BOSE SAURABH KUMAR;;ボーズ サウラブ クマー</t>
         </is>
       </c>
       <c r="S76" t="b">
@@ -8183,7 +8183,7 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>JP;;CA;;EP;;KR;;CN</t>
+          <t>KR;;EP;;CA;;CN;;JP</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
@@ -8215,7 +8215,7 @@
       </c>
       <c r="R77" t="inlineStr">
         <is>
-          <t>マジャ・キャシディ;;PREDKI PAUL F;;ポール・エフ・プレドキ;;CASSIDY MAJA</t>
+          <t>CASSIDY MAJA;;ポール・エフ・プレドキ;;マジャ・キャシディ;;PREDKI PAUL F</t>
         </is>
       </c>
       <c r="S77" t="b">
@@ -8412,12 +8412,12 @@
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>한양대학교 산학협력단;;IUCF HYU</t>
+          <t>IUCF HYU;;한양대학교 산학협력단</t>
         </is>
       </c>
       <c r="R79" t="inlineStr">
         <is>
-          <t>TRINH XUAN TUNG;;HA KIEU MY;;윤태현;;트린수안텅;;KIM JIN BAE;;YOON TAE HYUN;;하키우;;김진배</t>
+          <t>윤태현;;트린수안텅;;김진배;;YOON TAE HYUN;;KIM JIN BAE;;TRINH XUAN TUNG;;HA KIEU MY;;하키우</t>
         </is>
       </c>
       <c r="S79" t="b">
@@ -8515,12 +8515,12 @@
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>한양대학교 산학협력단;;IUCF HYU</t>
+          <t>IUCF HYU;;한양대학교 산학협력단</t>
         </is>
       </c>
       <c r="R80" t="inlineStr">
         <is>
-          <t>TRINH XUAN TUNG;;HA KIEU MY;;윤태현;;트린수안텅;;KIM JIN BAE;;YOON TAE HYUN;;하키우;;김진배</t>
+          <t>윤태현;;트린수안텅;;김진배;;YOON TAE HYUN;;KIM JIN BAE;;TRINH XUAN TUNG;;HA KIEU MY;;하키우</t>
         </is>
       </c>
       <c r="S80" t="b">
@@ -8591,7 +8591,7 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>US;;CN</t>
+          <t>CN;;US</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -8623,7 +8623,7 @@
       </c>
       <c r="R81" t="inlineStr">
         <is>
-          <t>蒋亚东;;LI DONGYANG;;LI WEI;;陈奕丞;;GU DEEN;;ZHONG HAO;;CHEN YICHENG;;顾德恩;;李伟;;钟豪;;GU DE'EN;;JIANG YADONG;;李东阳</t>
+          <t>李伟;;蒋亚东;;GU DE'EN;;顾德恩;;李东阳;;LI DONGYANG;;JIANG YADONG;;GU DEEN;;钟豪;;陈奕丞;;LI WEI;;CHEN YICHENG;;ZHONG HAO</t>
         </is>
       </c>
       <c r="S81" t="b">
@@ -8690,7 +8690,7 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>TW;;US;;CN</t>
+          <t>TW;;CN;;US</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
@@ -8717,12 +8717,12 @@
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>TAIWAN SEMICONDUCTOR MFG CO LTD;;TAIWAN SEMICONDUCTOR MFG</t>
+          <t>TAIWAN SEMICONDUCTOR MFG;;TAIWAN SEMICONDUCTOR MFG CO LTD</t>
         </is>
       </c>
       <c r="R82" t="inlineStr">
         <is>
-          <t>DOORNBOS GERBEN;;VAN DAL MARCUS JOHANNES HENRICUS;;MANFRINI MAURICIO;;MAURICIO MANFRINI;;MARCUS JOHANNES HENRICUS VAN DAL;;GERBEN DOORNBOS</t>
+          <t>MANFRINI MAURICIO;;MAURICIO MANFRINI;;VAN DAL MARCUS JOHANNES HENRICUS;;DOORNBOS GERBEN;;MARCUS JOHANNES HENRICUS VAN DAL;;GERBEN DOORNBOS</t>
         </is>
       </c>
       <c r="S82" t="b">
@@ -8789,7 +8789,7 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>TW;;US;;CN</t>
+          <t>TW;;CN;;US</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
@@ -8816,12 +8816,12 @@
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>TAIWAN SEMICONDUCTOR MFG CO LTD;;TAIWAN SEMICONDUCTOR MFG</t>
+          <t>TAIWAN SEMICONDUCTOR MFG;;TAIWAN SEMICONDUCTOR MFG CO LTD</t>
         </is>
       </c>
       <c r="R83" t="inlineStr">
         <is>
-          <t>DOORNBOS GERBEN;;VAN DAL MARCUS JOHANNES HENRICUS;;MANFRINI MAURICIO;;MAURICIO MANFRINI;;MARCUS JOHANNES HENRICUS VAN DAL;;GERBEN DOORNBOS</t>
+          <t>MANFRINI MAURICIO;;MAURICIO MANFRINI;;VAN DAL MARCUS JOHANNES HENRICUS;;DOORNBOS GERBEN;;MARCUS JOHANNES HENRICUS VAN DAL;;GERBEN DOORNBOS</t>
         </is>
       </c>
       <c r="S83" t="b">
@@ -8888,7 +8888,7 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>AU;;KR;;CA;;EP</t>
+          <t>CA;;KR;;AU;;EP</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
@@ -8915,12 +8915,12 @@
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>CATALOG TECH INC;;CATALOG TECHNOLOGIES INC</t>
+          <t>CATALOG TECHNOLOGIES INC;;CATALOG TECH INC</t>
         </is>
       </c>
       <c r="R84" t="inlineStr">
         <is>
-          <t>ROQUET NATHANIEL;;BHATIA SWAPNIL P;;PARK HYUNJUN;;LEAKE DEVIN</t>
+          <t>BHATIA SWAPNIL P;;LEAKE DEVIN;;PARK HYUNJUN;;ROQUET NATHANIEL</t>
         </is>
       </c>
       <c r="S84" t="b">
@@ -9014,12 +9014,12 @@
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>UNIV INDUSTRY COOPERATION GROUP KYUNG HEE UNIV;;경희대학교 산학협력단</t>
+          <t>경희대학교 산학협력단;;UNIV INDUSTRY COOPERATION GROUP KYUNG HEE UNIV</t>
         </is>
       </c>
       <c r="R85" t="inlineStr">
         <is>
-          <t>정영민;;SHIN HYUN DONG;;신현동;;파쿼 아마드;;JEONG YOUNG MIN;;FAROOQ AHMAD</t>
+          <t>FAROOQ AHMAD;;정영민;;JEONG YOUNG MIN;;SHIN HYUN DONG;;신현동;;파쿼 아마드</t>
         </is>
       </c>
       <c r="S85" t="b">
@@ -9086,7 +9086,7 @@
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>JP;;US</t>
+          <t>US;;JP</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
@@ -9113,7 +9113,7 @@
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>HITACHI LTD;;株式会社日立製作所</t>
+          <t>株式会社日立製作所;;HITACHI LTD</t>
         </is>
       </c>
       <c r="R86" t="inlineStr">
@@ -9288,7 +9288,7 @@
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>WO;;AU;;JP;;US;;CA;;EP;;KR;;CN</t>
+          <t>WO;;US;;KR;;EP;;AU;;CA;;CN;;JP</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
@@ -9315,12 +9315,12 @@
       </c>
       <c r="Q88" t="inlineStr">
         <is>
-          <t>GOOGLE LLC;;CASTRILLO SERGIO BOIXO;;NIU YUEZHEN;;グーグル エルエルシー;;GOOGLE INC;;SMELYANSKIY VADIM;;NEVEN HARTMUT;;グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ</t>
+          <t>グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;グーグル エルエルシー;;SMELYANSKIY VADIM;;NEVEN HARTMUT;;CASTRILLO SERGIO BOIXO;;NIU YUEZHEN;;GOOGLE INC;;GOOGLE LLC</t>
         </is>
       </c>
       <c r="R88" t="inlineStr">
         <is>
-          <t>CASTRILLO SERGIO BOIXO;;NIU YUEZHEN;;FARHI EDWARD HENRY;;ヴァディム・スメリャンスキー;;セルジオ・バイショ・カストリージョ;;ユエゼン・ニウ;;BOIXO CASTRILLO SERGIO;;エドワード・ヘンリー・ファーリ;;NEVEN HARTMUT;;SMELYANSKIY VADIM;;ハルトムート・ネーヴェン;;ハルトムート・ネーフェン</t>
+          <t>ハルトムート・ネーヴェン;;BOIXO CASTRILLO SERGIO;;ユエゼン・ニウ;;NEVEN HARTMUT;;SMELYANSKIY VADIM;;セルジオ・バイショ・カストリージョ;;CASTRILLO SERGIO BOIXO;;NIU YUEZHEN;;FARHI EDWARD HENRY;;ヴァディム・スメリャンスキー;;エドワード・ヘンリー・ファーリ;;ハルトムート・ネーフェン</t>
         </is>
       </c>
       <c r="S88" t="b">
@@ -9391,7 +9391,7 @@
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>ZA;;IL;;WO;;AU;;TW;;JP;;US;;EP;;CA;;RU;;KR;;CN</t>
+          <t>WO;;RU;;US;;KR;;EP;;JP;;AU;;IL;;CA;;TW;;CN;;ZA</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
@@ -9418,12 +9418,12 @@
       </c>
       <c r="Q89" t="inlineStr">
         <is>
-          <t>SMIRNOV SERGEY;;SMIRNOV SERGEY NIKOLAYEVICH;;LANDIGRAD LTD LIABILITY CO;;OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD;;LANDIGRAD LLC;;LANDIGRAD LIMITED LIABILITY COMPANY;;란디그레드, 리미티드 라이어빌리티 컴퍼니;;스미르노브, 세르게이 니콜라예비치;;SMIRNOV SERGEY NIIKOLAYEVICH</t>
+          <t>OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD;;SMIRNOV SERGEY;;SMIRNOV SERGEY NIIKOLAYEVICH;;LANDIGRAD LLC;;LANDIGRAD LIMITED LIABILITY COMPANY;;란디그레드, 리미티드 라이어빌리티 컴퍼니;;LANDIGRAD LTD LIABILITY CO;;SMIRNOV SERGEY NIKOLAYEVICH;;스미르노브, 세르게이 니콜라예비치</t>
         </is>
       </c>
       <c r="R89" t="inlineStr">
         <is>
-          <t>SMIRNOV SERGEY NIIKOLAYEVICH;;SMIRNOV SERGEY NIKOLAYEVICH;;SMIRNOV SERGEJ NIKOLAEVICH;;스미르노브, 세르게이 니콜라예비치</t>
+          <t>SMIRNOV SERGEY NIKOLAYEVICH;;SMIRNOV SERGEJ NIKOLAEVICH;;SMIRNOV SERGEY NIIKOLAYEVICH;;스미르노브, 세르게이 니콜라예비치</t>
         </is>
       </c>
       <c r="S89" t="b">
@@ -9494,7 +9494,7 @@
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>ZA;;IL;;WO;;AU;;TW;;JP;;US;;EP;;CA;;RU;;KR;;CN</t>
+          <t>WO;;RU;;US;;KR;;EP;;JP;;AU;;IL;;CA;;TW;;CN;;ZA</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
@@ -9521,12 +9521,12 @@
       </c>
       <c r="Q90" t="inlineStr">
         <is>
-          <t>SMIRNOV SERGEY;;SMIRNOV SERGEY NIKOLAYEVICH;;LANDIGRAD LTD LIABILITY CO;;OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD;;LANDIGRAD LLC;;LANDIGRAD LIMITED LIABILITY COMPANY;;란디그레드, 리미티드 라이어빌리티 컴퍼니;;스미르노브, 세르게이 니콜라예비치;;SMIRNOV SERGEY NIIKOLAYEVICH</t>
+          <t>OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD;;SMIRNOV SERGEY;;SMIRNOV SERGEY NIIKOLAYEVICH;;LANDIGRAD LLC;;LANDIGRAD LIMITED LIABILITY COMPANY;;란디그레드, 리미티드 라이어빌리티 컴퍼니;;LANDIGRAD LTD LIABILITY CO;;SMIRNOV SERGEY NIKOLAYEVICH;;스미르노브, 세르게이 니콜라예비치</t>
         </is>
       </c>
       <c r="R90" t="inlineStr">
         <is>
-          <t>SMIRNOV SERGEY NIIKOLAYEVICH;;SMIRNOV SERGEY NIKOLAYEVICH;;SMIRNOV SERGEJ NIKOLAEVICH;;스미르노브, 세르게이 니콜라예비치</t>
+          <t>SMIRNOV SERGEY NIKOLAYEVICH;;SMIRNOV SERGEJ NIKOLAEVICH;;SMIRNOV SERGEY NIIKOLAYEVICH;;스미르노브, 세르게이 니콜라예비치</t>
         </is>
       </c>
       <c r="S90" t="b">
@@ -9597,7 +9597,7 @@
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>AU;;JP;;CA;;EP;;KR;;CN</t>
+          <t>KR;;EP;;AU;;CA;;CN;;JP</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
@@ -9624,12 +9624,12 @@
       </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>キンダイ、インコーポレイテッドＫＹＮＤＩ， ＩＮＣ．;;KYNDI INC;;킨디 인코포레이티드</t>
+          <t>KYNDI INC;;キンダイ、インコーポレイテッドＫＹＮＤＩ， ＩＮＣ．;;킨디 인코포레이티드</t>
         </is>
       </c>
       <c r="R91" t="inlineStr">
         <is>
-          <t>MAJUMDAR ARUN;;アルン、マジュムダール;;마줌다 아룬</t>
+          <t>アルン、マジュムダール;;MAJUMDAR ARUN;;마줌다 아룬</t>
         </is>
       </c>
       <c r="S91" t="b">
@@ -9723,12 +9723,12 @@
       </c>
       <c r="Q92" t="inlineStr">
         <is>
-          <t>IMEC VZW;;UNIV LEUVEN KATH;;KATHOLIEKE UNIV LEUVEN KU LEUVEN RESEARCH &amp; DEVELOPMENT</t>
+          <t>UNIV LEUVEN KATH;;IMEC VZW;;KATHOLIEKE UNIV LEUVEN KU LEUVEN RESEARCH &amp; DEVELOPMENT</t>
         </is>
       </c>
       <c r="R92" t="inlineStr">
         <is>
-          <t>ADELMANN HANNS CHRISTOPH;;COSTA JOSE DIOGO;;CIUBOTARU FLORIN</t>
+          <t>CIUBOTARU FLORIN;;COSTA JOSE DIOGO;;ADELMANN HANNS CHRISTOPH</t>
         </is>
       </c>
       <c r="S92" t="b">
@@ -9799,7 +9799,7 @@
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>WO;;US</t>
+          <t>US;;WO</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
@@ -9826,12 +9826,12 @@
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>IBM (CHINA) INVEST COMPANY LTD;;IBM;;IBM UK</t>
+          <t>IBM (CHINA) INVEST COMPANY LTD;;IBM UK;;IBM</t>
         </is>
       </c>
       <c r="R93" t="inlineStr">
         <is>
-          <t>MCCLURE III DOUGLAS TEMPLETON;;DIAL OLIVER;;STEFFEN MATTHIAS;;GAMBETTA JAY;;MCCLURE III DOUGLAS T;;GAMBETTA JAY M</t>
+          <t>DIAL OLIVER;;MCCLURE III DOUGLAS T;;GAMBETTA JAY;;STEFFEN MATTHIAS;;GAMBETTA JAY M;;MCCLURE III DOUGLAS TEMPLETON</t>
         </is>
       </c>
       <c r="S93" t="b">
@@ -9925,12 +9925,12 @@
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>IMEC VZW;;UNIV LEUVEN KATH;;KATHOLIEKE UNIV LEUVEN KU LEUVEN RESEARCH &amp; DEVELOPMENT</t>
+          <t>UNIV LEUVEN KATH;;IMEC VZW;;KATHOLIEKE UNIV LEUVEN KU LEUVEN RESEARCH &amp; DEVELOPMENT</t>
         </is>
       </c>
       <c r="R94" t="inlineStr">
         <is>
-          <t>ADELMANN HANNS CHRISTOPH;;COSTA JOSE DIOGO;;CIUBOTARU FLORIN</t>
+          <t>CIUBOTARU FLORIN;;COSTA JOSE DIOGO;;ADELMANN HANNS CHRISTOPH</t>
         </is>
       </c>
       <c r="S94" t="b">
@@ -10001,7 +10001,7 @@
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>GB;;DE;;CN;;JP</t>
+          <t>DE;;CN;;JP;;GB</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
@@ -10011,7 +10011,7 @@
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>US;;IB</t>
+          <t>IB;;US</t>
         </is>
       </c>
       <c r="M95" t="n">
@@ -10033,7 +10033,7 @@
       </c>
       <c r="R95" t="inlineStr">
         <is>
-          <t>ステファン、マティアス;;ダイアル、オリバー;;MCCLURE III DOUGLAS TEMPLETON;;DIAL OLIVER;;STEFFEN MATTHIAS;;JAY GAMBETTA;;J·加姆贝塔;;D·T·麦克鲁尔三世;;GAMBETTA JAY;;M·斯蒂芬;;マクルーア ザ サード、ダグラス、テンプルトン;;MATTHIAS STEFFEN;;DOUGLAS TEMPLETON MCCLURE III;;ガンベッタ、ジェイ;;OLIVER DIAL;;O·蒂亚尔</t>
+          <t>MCCLURE III DOUGLAS TEMPLETON;;DIAL OLIVER;;DOUGLAS TEMPLETON MCCLURE III;;マクルーア ザ サード、ダグラス、テンプルトン;;OLIVER DIAL;;ガンベッタ、ジェイ;;ダイアル、オリバー;;D·T·麦克鲁尔三世;;M·斯蒂芬;;GAMBETTA JAY;;STEFFEN MATTHIAS;;JAY GAMBETTA;;J·加姆贝塔;;O·蒂亚尔;;ステファン、マティアス;;MATTHIAS STEFFEN</t>
         </is>
       </c>
       <c r="S95" t="b">
@@ -10104,7 +10104,7 @@
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>AU;;JP;;CA;;EP;;KR;;CN</t>
+          <t>KR;;EP;;AU;;CA;;CN;;JP</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
@@ -10131,12 +10131,12 @@
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>キンダイ、インコーポレイテッドＫＹＮＤＩ， ＩＮＣ．;;KYNDI INC;;킨디 인코포레이티드</t>
+          <t>KYNDI INC;;キンダイ、インコーポレイテッドＫＹＮＤＩ， ＩＮＣ．;;킨디 인코포레이티드</t>
         </is>
       </c>
       <c r="R96" t="inlineStr">
         <is>
-          <t>MAJUMDAR ARUN;;アルン、マジュムダール;;마줌다 아룬</t>
+          <t>アルン、マジュムダール;;MAJUMDAR ARUN;;마줌다 아룬</t>
         </is>
       </c>
       <c r="S96" t="b">
@@ -10207,7 +10207,7 @@
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>US;;CN</t>
+          <t>CN;;US</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
@@ -10234,12 +10234,12 @@
       </c>
       <c r="Q97" t="inlineStr">
         <is>
-          <t>中国科学院微电子研究所;;INST OF MICROELECTRONICS CAS;;INST MICROELECTRONICS CAS</t>
+          <t>中国科学院微电子研究所;;INST MICROELECTRONICS CAS;;INST OF MICROELECTRONICS CAS</t>
         </is>
       </c>
       <c r="R97" t="inlineStr">
         <is>
-          <t>ZHANG YANBO;;朱慧珑;;王桂磊;;HENRY H ADAMSON;;朱正勇;;张严波;;ZHU HUILONG;;WANG GUILEI;;ZHU ZHENGYONG;;亨利·H·阿达姆松</t>
+          <t>朱正勇;;张严波;;WANG GUILEI;;ZHANG YANBO;;ZHU HUILONG;;王桂磊;;亨利·H·阿达姆松;;ZHU ZHENGYONG;;朱慧珑;;HENRY H ADAMSON</t>
         </is>
       </c>
       <c r="S97" t="b">
@@ -10310,7 +10310,7 @@
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>GB;;DE;;CN;;JP</t>
+          <t>DE;;CN;;JP;;GB</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
@@ -10320,7 +10320,7 @@
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>US;;IB</t>
+          <t>IB;;US</t>
         </is>
       </c>
       <c r="M98" t="n">
@@ -10342,7 +10342,7 @@
       </c>
       <c r="R98" t="inlineStr">
         <is>
-          <t>ステファン、マティアス;;ダイアル、オリバー;;MCCLURE III DOUGLAS TEMPLETON;;DIAL OLIVER;;STEFFEN MATTHIAS;;JAY GAMBETTA;;J·加姆贝塔;;D·T·麦克鲁尔三世;;GAMBETTA JAY;;M·斯蒂芬;;マクルーア ザ サード、ダグラス、テンプルトン;;MATTHIAS STEFFEN;;DOUGLAS TEMPLETON MCCLURE III;;ガンベッタ、ジェイ;;OLIVER DIAL;;O·蒂亚尔</t>
+          <t>MCCLURE III DOUGLAS TEMPLETON;;DIAL OLIVER;;DOUGLAS TEMPLETON MCCLURE III;;マクルーア ザ サード、ダグラス、テンプルトン;;OLIVER DIAL;;ガンベッタ、ジェイ;;ダイアル、オリバー;;D·T·麦克鲁尔三世;;M·斯蒂芬;;GAMBETTA JAY;;STEFFEN MATTHIAS;;JAY GAMBETTA;;J·加姆贝塔;;O·蒂亚尔;;ステファン、マティアス;;MATTHIAS STEFFEN</t>
         </is>
       </c>
       <c r="S98" t="b">
@@ -10539,12 +10539,12 @@
       </c>
       <c r="Q100" t="inlineStr">
         <is>
-          <t>BROWN SIMON ANTHONY;;FOSTNER SHAWN;;BOSE SAURABH KUMAR;;THE UNIV OF CANTERBURY</t>
+          <t>BOSE SAURABH KUMAR;;FOSTNER SHAWN;;BROWN SIMON ANTHONY;;THE UNIV OF CANTERBURY</t>
         </is>
       </c>
       <c r="R100" t="inlineStr">
         <is>
-          <t>BROWN SIMON ANTHONY;;FOSTNER SHAWN;;BOSE SAURABH KUMAR</t>
+          <t>BOSE SAURABH KUMAR;;FOSTNER SHAWN;;BROWN SIMON ANTHONY</t>
         </is>
       </c>
       <c r="S100" t="b">
@@ -10642,12 +10642,12 @@
       </c>
       <c r="Q101" t="inlineStr">
         <is>
-          <t>BROWN SIMON ANTHONY;;FOSTNER SHAWN;;BOSE SAURABH KUMAR;;THE UNIV OF CANTERBURY</t>
+          <t>BOSE SAURABH KUMAR;;FOSTNER SHAWN;;BROWN SIMON ANTHONY;;THE UNIV OF CANTERBURY</t>
         </is>
       </c>
       <c r="R101" t="inlineStr">
         <is>
-          <t>BROWN SIMON ANTHONY;;FOSTNER SHAWN;;BOSE SAURABH KUMAR</t>
+          <t>BOSE SAURABH KUMAR;;FOSTNER SHAWN;;BROWN SIMON ANTHONY</t>
         </is>
       </c>
       <c r="S101" t="b">
@@ -10844,12 +10844,12 @@
       </c>
       <c r="Q103" t="inlineStr">
         <is>
-          <t>BROWN SIMON ANTHONY;;FOSTNER SHAWN;;BOSE SAURABH KUMAR;;THE UNIV OF CANTERBURY</t>
+          <t>BOSE SAURABH KUMAR;;FOSTNER SHAWN;;BROWN SIMON ANTHONY;;THE UNIV OF CANTERBURY</t>
         </is>
       </c>
       <c r="R103" t="inlineStr">
         <is>
-          <t>BROWN SIMON ANTHONY;;FOSTNER SHAWN;;BOSE SAURABH KUMAR</t>
+          <t>BOSE SAURABH KUMAR;;FOSTNER SHAWN;;BROWN SIMON ANTHONY</t>
         </is>
       </c>
       <c r="S103" t="b">
@@ -10947,12 +10947,12 @@
       </c>
       <c r="Q104" t="inlineStr">
         <is>
-          <t>TIPTON THOMAS ANDREW;;HARTFORD FIRE INSURANCE COMP;;CARROLL WILLIAM JOSEPH;;MOLINSKY BRADLEY DEAN;;BATTAGLINI JOSEPH S;;DUNST MICHAEL J</t>
+          <t>MOLINSKY BRADLEY DEAN;;TIPTON THOMAS ANDREW;;DUNST MICHAEL J;;HARTFORD FIRE INSURANCE COMP;;CARROLL WILLIAM JOSEPH;;BATTAGLINI JOSEPH S</t>
         </is>
       </c>
       <c r="R104" t="inlineStr">
         <is>
-          <t>TIPTON THOMAS ANDREW;;CARROLL WILLIAM JOSEPH;;MOLINSKY BRADLEY DEAN;;BATTAGLINI JOSEPH S;;DUNST MICHAEL J</t>
+          <t>MOLINSKY BRADLEY DEAN;;TIPTON THOMAS ANDREW;;DUNST MICHAEL J;;CARROLL WILLIAM JOSEPH;;BATTAGLINI JOSEPH S</t>
         </is>
       </c>
       <c r="S104" t="b">
@@ -11050,12 +11050,12 @@
       </c>
       <c r="Q105" t="inlineStr">
         <is>
-          <t>TIPTON THOMAS ANDREW;;HARTFORD FIRE INSURANCE COMP;;CARROLL WILLIAM JOSEPH;;MOLINSKY BRADLEY DEAN;;BATTAGLINI JOSEPH S;;DUNST MICHAEL J</t>
+          <t>MOLINSKY BRADLEY DEAN;;TIPTON THOMAS ANDREW;;DUNST MICHAEL J;;HARTFORD FIRE INSURANCE COMP;;CARROLL WILLIAM JOSEPH;;BATTAGLINI JOSEPH S</t>
         </is>
       </c>
       <c r="R105" t="inlineStr">
         <is>
-          <t>TIPTON THOMAS ANDREW;;CARROLL WILLIAM JOSEPH;;MOLINSKY BRADLEY DEAN;;BATTAGLINI JOSEPH S;;DUNST MICHAEL J</t>
+          <t>MOLINSKY BRADLEY DEAN;;TIPTON THOMAS ANDREW;;DUNST MICHAEL J;;CARROLL WILLIAM JOSEPH;;BATTAGLINI JOSEPH S</t>
         </is>
       </c>
       <c r="S105" t="b">
@@ -11153,12 +11153,12 @@
       </c>
       <c r="Q106" t="inlineStr">
         <is>
-          <t>TIPTON THOMAS ANDREW;;HARTFORD FIRE INSURANCE COMP;;CARROLL WILLIAM JOSEPH;;MOLINSKY BRADLEY DEAN;;BATTAGLINI JOSEPH S;;DUNST MICHAEL J</t>
+          <t>MOLINSKY BRADLEY DEAN;;TIPTON THOMAS ANDREW;;DUNST MICHAEL J;;HARTFORD FIRE INSURANCE COMP;;CARROLL WILLIAM JOSEPH;;BATTAGLINI JOSEPH S</t>
         </is>
       </c>
       <c r="R106" t="inlineStr">
         <is>
-          <t>TIPTON THOMAS ANDREW;;CARROLL WILLIAM JOSEPH;;MOLINSKY BRADLEY DEAN;;BATTAGLINI JOSEPH S;;DUNST MICHAEL J</t>
+          <t>MOLINSKY BRADLEY DEAN;;TIPTON THOMAS ANDREW;;DUNST MICHAEL J;;CARROLL WILLIAM JOSEPH;;BATTAGLINI JOSEPH S</t>
         </is>
       </c>
       <c r="S106" t="b">
@@ -11229,7 +11229,7 @@
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>WO;;AU;;JP;;US;;CA;;EP;;SG;;KR;;CN</t>
+          <t>WO;;CN;;US;;KR;;EP;;AU;;CA;;SG;;JP</t>
         </is>
       </c>
       <c r="K107" t="inlineStr">
@@ -11256,12 +11256,12 @@
       </c>
       <c r="Q107" t="inlineStr">
         <is>
-          <t>GOOGLE LLC;;ラミ・バレントス;;グーグル エルエルシー;;GOOGLE INC;;구글 엘엘씨;;BARENDS RAMI</t>
+          <t>ラミ・バレントス;;グーグル エルエルシー;;구글 엘엘씨;;BARENDS RAMI;;GOOGLE INC;;GOOGLE LLC</t>
         </is>
       </c>
       <c r="R107" t="inlineStr">
         <is>
-          <t>바엔즈 라미;;ラミ・バレントス;;BARENDS RAMI</t>
+          <t>ラミ・バレントス;;바엔즈 라미;;BARENDS RAMI</t>
         </is>
       </c>
       <c r="S107" t="b">
@@ -11332,7 +11332,7 @@
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>WO;;AU;;JP;;US;;CA;;EP;;SG;;KR;;CN</t>
+          <t>WO;;CN;;US;;KR;;EP;;AU;;CA;;SG;;JP</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
@@ -11359,12 +11359,12 @@
       </c>
       <c r="Q108" t="inlineStr">
         <is>
-          <t>GOOGLE LLC;;ラミ・バレントス;;グーグル エルエルシー;;GOOGLE INC;;구글 엘엘씨;;BARENDS RAMI</t>
+          <t>ラミ・バレントス;;グーグル エルエルシー;;구글 엘엘씨;;BARENDS RAMI;;GOOGLE INC;;GOOGLE LLC</t>
         </is>
       </c>
       <c r="R108" t="inlineStr">
         <is>
-          <t>바엔즈 라미;;ラミ・バレントス;;BARENDS RAMI</t>
+          <t>ラミ・バレントス;;바엔즈 라미;;BARENDS RAMI</t>
         </is>
       </c>
       <c r="S108" t="b">
@@ -11462,12 +11462,12 @@
       </c>
       <c r="Q109" t="inlineStr">
         <is>
-          <t>TIPTON THOMAS ANDREW;;HARTFORD FIRE INSURANCE COMP;;CARROLL WILLIAM JOSEPH;;MOLINSKY BRADLEY DEAN;;BATTAGLINI JOSEPH S;;DUNST MICHAEL J</t>
+          <t>MOLINSKY BRADLEY DEAN;;TIPTON THOMAS ANDREW;;DUNST MICHAEL J;;HARTFORD FIRE INSURANCE COMP;;CARROLL WILLIAM JOSEPH;;BATTAGLINI JOSEPH S</t>
         </is>
       </c>
       <c r="R109" t="inlineStr">
         <is>
-          <t>TIPTON THOMAS ANDREW;;CARROLL WILLIAM JOSEPH;;MOLINSKY BRADLEY DEAN;;BATTAGLINI JOSEPH S;;DUNST MICHAEL J</t>
+          <t>MOLINSKY BRADLEY DEAN;;TIPTON THOMAS ANDREW;;DUNST MICHAEL J;;CARROLL WILLIAM JOSEPH;;BATTAGLINI JOSEPH S</t>
         </is>
       </c>
       <c r="S109" t="b">
@@ -11538,7 +11538,7 @@
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>WO;;AU;;JP;;US;;CA;;EP;;SG;;KR;;CN</t>
+          <t>WO;;CN;;US;;KR;;EP;;AU;;CA;;SG;;JP</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
@@ -11565,12 +11565,12 @@
       </c>
       <c r="Q110" t="inlineStr">
         <is>
-          <t>GOOGLE LLC;;ラミ・バレントス;;グーグル エルエルシー;;GOOGLE INC;;구글 엘엘씨;;BARENDS RAMI</t>
+          <t>ラミ・バレントス;;グーグル エルエルシー;;구글 엘엘씨;;BARENDS RAMI;;GOOGLE INC;;GOOGLE LLC</t>
         </is>
       </c>
       <c r="R110" t="inlineStr">
         <is>
-          <t>바엔즈 라미;;ラミ・バレントス;;BARENDS RAMI</t>
+          <t>ラミ・バレントス;;바엔즈 라미;;BARENDS RAMI</t>
         </is>
       </c>
       <c r="S110" t="b">
@@ -11668,12 +11668,12 @@
       </c>
       <c r="Q111" t="inlineStr">
         <is>
-          <t>TIPTON THOMAS ANDREW;;HARTFORD FIRE INSURANCE COMP;;CARROLL WILLIAM JOSEPH;;MOLINSKY BRADLEY DEAN;;BATTAGLINI JOSEPH S;;DUNST MICHAEL J</t>
+          <t>MOLINSKY BRADLEY DEAN;;TIPTON THOMAS ANDREW;;DUNST MICHAEL J;;HARTFORD FIRE INSURANCE COMP;;CARROLL WILLIAM JOSEPH;;BATTAGLINI JOSEPH S</t>
         </is>
       </c>
       <c r="R111" t="inlineStr">
         <is>
-          <t>TIPTON THOMAS ANDREW;;CARROLL WILLIAM JOSEPH;;MOLINSKY BRADLEY DEAN;;BATTAGLINI JOSEPH S;;DUNST MICHAEL J</t>
+          <t>MOLINSKY BRADLEY DEAN;;TIPTON THOMAS ANDREW;;DUNST MICHAEL J;;CARROLL WILLIAM JOSEPH;;BATTAGLINI JOSEPH S</t>
         </is>
       </c>
       <c r="S111" t="b">
@@ -11744,7 +11744,7 @@
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>ZA;;IL;;WO;;AU;;TW;;JP;;US;;EP;;CA;;RU;;KR;;CN</t>
+          <t>WO;;RU;;US;;KR;;EP;;JP;;AU;;IL;;CA;;TW;;CN;;ZA</t>
         </is>
       </c>
       <c r="K112" t="inlineStr">
@@ -11771,12 +11771,12 @@
       </c>
       <c r="Q112" t="inlineStr">
         <is>
-          <t>SMIRNOV SERGEY;;SMIRNOV SERGEY NIKOLAYEVICH;;LANDIGRAD LTD LIABILITY CO;;OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD;;LANDIGRAD LLC;;LANDIGRAD LIMITED LIABILITY COMPANY;;SMIRNOV SERGEY NIIKOLAYEVICH</t>
+          <t>OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD;;SMIRNOV SERGEY;;SMIRNOV SERGEY NIIKOLAYEVICH;;LANDIGRAD LLC;;LANDIGRAD LIMITED LIABILITY COMPANY;;LANDIGRAD LTD LIABILITY CO;;SMIRNOV SERGEY NIKOLAYEVICH</t>
         </is>
       </c>
       <c r="R112" t="inlineStr">
         <is>
-          <t>SMIRNOV SERGEY NIIKOLAYEVICH;;SMIRNOV SERGEY NIKOLAYEVICH;;SMIRNOV SERGEJ NIKOLAEVICH</t>
+          <t>SMIRNOV SERGEY NIKOLAYEVICH;;SMIRNOV SERGEJ NIKOLAEVICH;;SMIRNOV SERGEY NIIKOLAYEVICH</t>
         </is>
       </c>
       <c r="S112" t="b">
@@ -11847,7 +11847,7 @@
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>ZA;;IL;;WO;;AU;;TW;;JP;;US;;EP;;CA;;RU;;KR;;CN</t>
+          <t>WO;;RU;;US;;KR;;EP;;JP;;AU;;IL;;CA;;TW;;CN;;ZA</t>
         </is>
       </c>
       <c r="K113" t="inlineStr">
@@ -11874,12 +11874,12 @@
       </c>
       <c r="Q113" t="inlineStr">
         <is>
-          <t>SMIRNOV SERGEY;;SMIRNOV SERGEY NIKOLAYEVICH;;LANDIGRAD LTD LIABILITY CO;;OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD;;LANDIGRAD LLC;;LANDIGRAD LIMITED LIABILITY COMPANY;;SMIRNOV SERGEY NIIKOLAYEVICH</t>
+          <t>OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD;;SMIRNOV SERGEY;;SMIRNOV SERGEY NIIKOLAYEVICH;;LANDIGRAD LLC;;LANDIGRAD LIMITED LIABILITY COMPANY;;LANDIGRAD LTD LIABILITY CO;;SMIRNOV SERGEY NIKOLAYEVICH</t>
         </is>
       </c>
       <c r="R113" t="inlineStr">
         <is>
-          <t>SMIRNOV SERGEY NIIKOLAYEVICH;;SMIRNOV SERGEY NIKOLAYEVICH;;SMIRNOV SERGEJ NIKOLAEVICH</t>
+          <t>SMIRNOV SERGEY NIKOLAYEVICH;;SMIRNOV SERGEJ NIKOLAEVICH;;SMIRNOV SERGEY NIIKOLAYEVICH</t>
         </is>
       </c>
       <c r="S113" t="b">
@@ -11950,7 +11950,7 @@
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>ZA;;IL;;WO;;AU;;TW;;JP;;US;;EP;;CA;;RU;;KR;;CN</t>
+          <t>WO;;RU;;US;;KR;;EP;;JP;;AU;;IL;;CA;;TW;;CN;;ZA</t>
         </is>
       </c>
       <c r="K114" t="inlineStr">
@@ -11977,12 +11977,12 @@
       </c>
       <c r="Q114" t="inlineStr">
         <is>
-          <t>SMIRNOV SERGEY;;SMIRNOV SERGEY NIKOLAYEVICH;;LANDIGRAD LTD LIABILITY CO;;OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD;;LANDIGRAD LLC;;LANDIGRAD LIMITED LIABILITY COMPANY;;SMIRNOV SERGEY NIIKOLAYEVICH</t>
+          <t>OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD;;SMIRNOV SERGEY;;SMIRNOV SERGEY NIIKOLAYEVICH;;LANDIGRAD LLC;;LANDIGRAD LIMITED LIABILITY COMPANY;;LANDIGRAD LTD LIABILITY CO;;SMIRNOV SERGEY NIKOLAYEVICH</t>
         </is>
       </c>
       <c r="R114" t="inlineStr">
         <is>
-          <t>SMIRNOV SERGEY NIIKOLAYEVICH;;SMIRNOV SERGEY NIKOLAYEVICH;;SMIRNOV SERGEJ NIKOLAEVICH</t>
+          <t>SMIRNOV SERGEY NIKOLAYEVICH;;SMIRNOV SERGEJ NIKOLAEVICH;;SMIRNOV SERGEY NIIKOLAYEVICH</t>
         </is>
       </c>
       <c r="S114" t="b">
@@ -12049,7 +12049,7 @@
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>WO;;AU;;JP;;US;;CA;;EP;;KR;;CN</t>
+          <t>WO;;US;;KR;;EP;;AU;;CA;;CN;;JP</t>
         </is>
       </c>
       <c r="K115" t="inlineStr">
@@ -12076,12 +12076,12 @@
       </c>
       <c r="Q115" t="inlineStr">
         <is>
-          <t>GOOGLE LLC;;CASTRILLO SERGIO BOIXO;;NIU YUEZHEN;;GOOGLE INC;;SMELYANSKIY VADIM;;NEVEN HARTMUT;;グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ</t>
+          <t>グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;SMELYANSKIY VADIM;;NEVEN HARTMUT;;CASTRILLO SERGIO BOIXO;;NIU YUEZHEN;;GOOGLE INC;;GOOGLE LLC</t>
         </is>
       </c>
       <c r="R115" t="inlineStr">
         <is>
-          <t>CASTRILLO SERGIO BOIXO;;NIU YUEZHEN;;ユエゼン・ニウ;;ヴァディム・スメリャンスキー;;セルジオ・バイショ・カストリージョ;;BOIXO CASTRILLO SERGIO;;SMELYANSKIY VADIM;;NEVEN HARTMUT;;ハルトムート・ネーフェン</t>
+          <t>ユエゼン・ニウ;;BOIXO CASTRILLO SERGIO;;SMELYANSKIY VADIM;;NEVEN HARTMUT;;セルジオ・バイショ・カストリージョ;;CASTRILLO SERGIO BOIXO;;NIU YUEZHEN;;ヴァディム・スメリャンスキー;;ハルトムート・ネーフェン</t>
         </is>
       </c>
       <c r="S115" t="b">
@@ -12148,7 +12148,7 @@
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>WO;;AU;;JP;;US;;CA;;EP;;KR;;CN</t>
+          <t>WO;;US;;KR;;EP;;AU;;CA;;CN;;JP</t>
         </is>
       </c>
       <c r="K116" t="inlineStr">
@@ -12175,12 +12175,12 @@
       </c>
       <c r="Q116" t="inlineStr">
         <is>
-          <t>GOOGLE LLC;;CASTRILLO SERGIO BOIXO;;NIU YUEZHEN;;GOOGLE INC;;SMELYANSKIY VADIM;;NEVEN HARTMUT;;グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ</t>
+          <t>グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;SMELYANSKIY VADIM;;NEVEN HARTMUT;;CASTRILLO SERGIO BOIXO;;NIU YUEZHEN;;GOOGLE INC;;GOOGLE LLC</t>
         </is>
       </c>
       <c r="R116" t="inlineStr">
         <is>
-          <t>CASTRILLO SERGIO BOIXO;;NIU YUEZHEN;;ユエゼン・ニウ;;ヴァディム・スメリャンスキー;;セルジオ・バイショ・カストリージョ;;BOIXO CASTRILLO SERGIO;;SMELYANSKIY VADIM;;NEVEN HARTMUT;;ハルトムート・ネーフェン</t>
+          <t>ユエゼン・ニウ;;BOIXO CASTRILLO SERGIO;;SMELYANSKIY VADIM;;NEVEN HARTMUT;;セルジオ・バイショ・カストリージョ;;CASTRILLO SERGIO BOIXO;;NIU YUEZHEN;;ヴァディム・スメリャンスキー;;ハルトムート・ネーフェン</t>
         </is>
       </c>
       <c r="S116" t="b">
@@ -12251,7 +12251,7 @@
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>ZA;;IL;;WO;;AU;;TW;;JP;;US;;EP;;CA;;RU;;KR;;CN</t>
+          <t>WO;;RU;;US;;KR;;EP;;JP;;AU;;IL;;CA;;TW;;CN;;ZA</t>
         </is>
       </c>
       <c r="K117" t="inlineStr">
@@ -12278,12 +12278,12 @@
       </c>
       <c r="Q117" t="inlineStr">
         <is>
-          <t>SMIRNOV SERGEY;;SMIRNOV SERGEY NIKOLAYEVICH;;LANDIGRAD LTD LIABILITY CO;;OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD;;LANDIGRAD LLC;;LANDIGRAD LIMITED LIABILITY COMPANY;;SMIRNOV SERGEY NIIKOLAYEVICH</t>
+          <t>OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD;;SMIRNOV SERGEY;;SMIRNOV SERGEY NIIKOLAYEVICH;;LANDIGRAD LLC;;LANDIGRAD LIMITED LIABILITY COMPANY;;LANDIGRAD LTD LIABILITY CO;;SMIRNOV SERGEY NIKOLAYEVICH</t>
         </is>
       </c>
       <c r="R117" t="inlineStr">
         <is>
-          <t>SMIRNOV SERGEY NIIKOLAYEVICH;;SMIRNOV SERGEY NIKOLAYEVICH;;SMIRNOV SERGEJ NIKOLAEVICH</t>
+          <t>SMIRNOV SERGEY NIKOLAYEVICH;;SMIRNOV SERGEJ NIKOLAEVICH;;SMIRNOV SERGEY NIIKOLAYEVICH</t>
         </is>
       </c>
       <c r="S117" t="b">
@@ -12350,7 +12350,7 @@
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>WO;;AU;;JP;;US;;CA;;EP;;KR;;CN</t>
+          <t>WO;;US;;KR;;EP;;AU;;CA;;CN;;JP</t>
         </is>
       </c>
       <c r="K118" t="inlineStr">
@@ -12377,12 +12377,12 @@
       </c>
       <c r="Q118" t="inlineStr">
         <is>
-          <t>GOOGLE LLC;;CASTRILLO SERGIO BOIXO;;NIU YUEZHEN;;GOOGLE INC;;SMELYANSKIY VADIM;;NEVEN HARTMUT;;グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ</t>
+          <t>グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;SMELYANSKIY VADIM;;NEVEN HARTMUT;;CASTRILLO SERGIO BOIXO;;NIU YUEZHEN;;GOOGLE INC;;GOOGLE LLC</t>
         </is>
       </c>
       <c r="R118" t="inlineStr">
         <is>
-          <t>CASTRILLO SERGIO BOIXO;;NIU YUEZHEN;;ユエゼン・ニウ;;ヴァディム・スメリャンスキー;;セルジオ・バイショ・カストリージョ;;BOIXO CASTRILLO SERGIO;;SMELYANSKIY VADIM;;NEVEN HARTMUT;;ハルトムート・ネーフェン</t>
+          <t>ユエゼン・ニウ;;BOIXO CASTRILLO SERGIO;;SMELYANSKIY VADIM;;NEVEN HARTMUT;;セルジオ・バイショ・カストリージョ;;CASTRILLO SERGIO BOIXO;;NIU YUEZHEN;;ヴァディム・スメリャンスキー;;ハルトムート・ネーフェン</t>
         </is>
       </c>
       <c r="S118" t="b">
@@ -12449,7 +12449,7 @@
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>WO;;AU;;JP;;US;;CA;;EP;;KR;;CN</t>
+          <t>WO;;US;;KR;;EP;;AU;;CA;;CN;;JP</t>
         </is>
       </c>
       <c r="K119" t="inlineStr">
@@ -12476,12 +12476,12 @@
       </c>
       <c r="Q119" t="inlineStr">
         <is>
-          <t>GOOGLE LLC;;CASTRILLO SERGIO BOIXO;;NIU YUEZHEN;;GOOGLE INC;;SMELYANSKIY VADIM;;NEVEN HARTMUT;;グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ</t>
+          <t>グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;SMELYANSKIY VADIM;;NEVEN HARTMUT;;CASTRILLO SERGIO BOIXO;;NIU YUEZHEN;;GOOGLE INC;;GOOGLE LLC</t>
         </is>
       </c>
       <c r="R119" t="inlineStr">
         <is>
-          <t>CASTRILLO SERGIO BOIXO;;NIU YUEZHEN;;ユエゼン・ニウ;;ヴァディム・スメリャンスキー;;セルジオ・バイショ・カストリージョ;;BOIXO CASTRILLO SERGIO;;SMELYANSKIY VADIM;;NEVEN HARTMUT;;ハルトムート・ネーフェン</t>
+          <t>ユエゼン・ニウ;;BOIXO CASTRILLO SERGIO;;SMELYANSKIY VADIM;;NEVEN HARTMUT;;セルジオ・バイショ・カストリージョ;;CASTRILLO SERGIO BOIXO;;NIU YUEZHEN;;ヴァディム・スメリャンスキー;;ハルトムート・ネーフェン</t>
         </is>
       </c>
       <c r="S119" t="b">
@@ -12552,7 +12552,7 @@
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>ZA;;IL;;WO;;AU;;TW;;JP;;US;;EP;;CA;;RU;;KR;;CN</t>
+          <t>WO;;RU;;US;;KR;;EP;;JP;;AU;;IL;;CA;;TW;;CN;;ZA</t>
         </is>
       </c>
       <c r="K120" t="inlineStr">
@@ -12579,12 +12579,12 @@
       </c>
       <c r="Q120" t="inlineStr">
         <is>
-          <t>SMIRNOV SERGEY;;SMIRNOV SERGEY NIKOLAYEVICH;;LANDIGRAD LTD LIABILITY CO;;OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD;;LANDIGRAD LLC;;LANDIGRAD LIMITED LIABILITY COMPANY;;SMIRNOV SERGEY NIIKOLAYEVICH</t>
+          <t>OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD;;SMIRNOV SERGEY;;SMIRNOV SERGEY NIIKOLAYEVICH;;LANDIGRAD LLC;;LANDIGRAD LIMITED LIABILITY COMPANY;;LANDIGRAD LTD LIABILITY CO;;SMIRNOV SERGEY NIKOLAYEVICH</t>
         </is>
       </c>
       <c r="R120" t="inlineStr">
         <is>
-          <t>SMIRNOV SERGEY NIIKOLAYEVICH;;SMIRNOV SERGEY NIKOLAYEVICH;;SMIRNOV SERGEJ NIKOLAEVICH</t>
+          <t>SMIRNOV SERGEY NIKOLAYEVICH;;SMIRNOV SERGEJ NIKOLAEVICH;;SMIRNOV SERGEY NIIKOLAYEVICH</t>
         </is>
       </c>
       <c r="S120" t="b">

--- a/tests/integration/out/ai-and-nanotech-applicants.xlsx
+++ b/tests/integration/out/ai-and-nanotech-applicants.xlsx
@@ -610,7 +610,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>WO;;US</t>
+          <t>US;;WO</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -642,7 +642,7 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>MAXIM GEORGE ADRIAN;;ASKER MICHAEL ALBERT;;LEIPOLD DIRK ROBERT WALTER</t>
+          <t>MAXIM GEORGE ADRIAN;;LEIPOLD DIRK ROBERT WALTER;;ASKER MICHAEL ALBERT</t>
         </is>
       </c>
       <c r="S2" t="b">
@@ -713,7 +713,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>WO;;US;;DE;;GB;;CN;;JP</t>
+          <t>DE;;US;;CN;;WO;;GB;;JP</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>IB;;US</t>
+          <t>US;;IB</t>
         </is>
       </c>
       <c r="M3" t="n">
@@ -740,12 +740,12 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>IBM (CHINA) INVEST COMPANY LTD;;IBM;;IBM UK;;国际商业机器公司;;インターナショナル・ビジネス・マシーンズ・コーポレーションＩＮＴＥＲＮＡＴＩＯＮＡＬ ＢＵＳＩＮＥＳＳ ＭＡＣＨＩＮＥＳ ＣＯＲＰＯＲＡＴＩＯＮ</t>
+          <t>IBM;;インターナショナル・ビジネス・マシーンズ・コーポレーションＩＮＴＥＲＮＡＴＩＯＮＡＬ ＢＵＳＩＮＥＳＳ ＭＡＣＨＩＮＥＳ ＣＯＲＰＯＲＡＴＩＯＮ;;IBM (CHINA) INVEST COMPANY LTD;;国际商业机器公司;;IBM UK</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>NANNICINI GIACOMO;;BISHOP LEV;;PRZYBYLSKI KEVIN J;;LIU PENG;;ZHANG JINGYUN;;OLIVADESE SALVATORE;;マクルーア ザ サード、ダグラス、テンプルトン;;FARO SERTAGE ISMAEL;;D·T·麦克鲁尔三世;;ANDO TAKASHI;;GREENBERG DON;;MISGEN MARVIN M;;GAMBETTA JAY;;O·蒂亚尔;;KUCZYNSKI JOSEPH;;GAMBETTA JAY M;;MCCLURE III DOUGLAS TEMPLETON;;TEMME PAUL;;DIAL OLIVER;;PHAN ANNA;;OLIVADESE SALVATORE BERNARDO;;DOUGLAS TEMPLETON MCCLURE III;;LEE CHOONGHYUN;;ガンベッタ、ジェイ;;MCCLURE III DOUGLAS T;;PHAN ANNA T;;HEKMATSHOARTABARI BAHMAN;;ステファン、マティアス;;REZNICEK ALEXANDER;;PISTOIA MARCO;;MARTIN FERNANDEZ FRANCISCO JOSE;;TEMME PAUL KRISTAN;;JAVADIABHARI ALI;;OLIVER DIAL;;PRISCO JOSEPH F;;HASHEMI POUYA;;CHEN RICHARD;;NEUMAN-HORN DEBRA A;;CORCOLES-GONZALEZ ANTONIO;;BISHOP LEV SAMUEL;;ダイアル、オリバー;;M·斯蒂芬;;STEFFEN MATTHIAS;;JAY GAMBETTA;;J·加姆贝塔;;MATTHIAS STEFFEN</t>
+          <t>OLIVADESE SALVATORE;;GAMBETTA JAY M;;MCCLURE III DOUGLAS T;;PRISCO JOSEPH F;;MISGEN MARVIN M;;M·斯蒂芬;;MATTHIAS STEFFEN;;JAY GAMBETTA;;ダイアル、オリバー;;ステファン、マティアス;;LEE CHOONGHYUN;;J·加姆贝塔;;ガンベッタ、ジェイ;;PHAN ANNA;;ANDO TAKASHI;;FARO SERTAGE ISMAEL;;BISHOP LEV;;DIAL OLIVER;;PRZYBYLSKI KEVIN J;;GAMBETTA JAY;;PHAN ANNA T;;OLIVER DIAL;;TEMME PAUL KRISTAN;;O·蒂亚尔;;マクルーア ザ サード、ダグラス、テンプルトン;;CORCOLES-GONZALEZ ANTONIO;;MARTIN FERNANDEZ FRANCISCO JOSE;;HEKMATSHOARTABARI BAHMAN;;DOUGLAS TEMPLETON MCCLURE III;;OLIVADESE SALVATORE BERNARDO;;REZNICEK ALEXANDER;;KUCZYNSKI JOSEPH;;ZHANG JINGYUN;;STEFFEN MATTHIAS;;TEMME PAUL;;BISHOP LEV SAMUEL;;HASHEMI POUYA;;D·T·麦克鲁尔三世;;NEUMAN-HORN DEBRA A;;GREENBERG DON;;LIU PENG;;PISTOIA MARCO;;MCCLURE III DOUGLAS TEMPLETON;;CHEN RICHARD;;JAVADIABHARI ALI;;NANNICINI GIACOMO</t>
         </is>
       </c>
       <c r="S3" t="b">
@@ -816,7 +816,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>WO;;US;;KR;;EP;;AU;;SG;;CA;;CN;;JP</t>
+          <t>SG;;EP;;US;;CN;;WO;;KR;;JP;;AU;;CA</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -826,7 +826,7 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>CA;;US;;AU</t>
+          <t>CA;;AU;;US</t>
         </is>
       </c>
       <c r="M4" t="n">
@@ -843,12 +843,12 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>ラミ・バレントス;;グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;グーグル エルエルシー;;SMELYANSKIY VADIM;;NEVEN HARTMUT;;CASTRILLO SERGIO BOIXO;;NIU YUEZHEN;;구글 엘엘씨;;BARENDS RAMI;;GOOGLE INC;;GOOGLE LLC</t>
+          <t>グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;NEVEN HARTMUT;;NIU YUEZHEN;;ラミ・バレントス;;グーグル エルエルシー;;GOOGLE LLC;;BARENDS RAMI;;SMELYANSKIY VADIM;;구글 엘엘씨;;CASTRILLO SERGIO BOIXO;;GOOGLE INC</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>ラミ・バレントス;;ヴァディム・スメリャンスキー;;ハルトムート・ネーヴェン;;NEVEN HELMUT;;BOIXO CASTRILLO SERGIO;;ユエゼン・ニウ;;NEVEN HARTMUT;;SMELYANSKIY VADIM;;ライアン・バブシュ;;セルジオ・バイショ・カストリージョ;;CASTRILLO SERGIO BOIXO;;NIU YUEZHEN;;바엔즈 라미;;FARHI EDWARD HENRY;;BARENDS RAMI;;エドワード・ヘンリー・ファーリ;;ハルトムート・ネーフェン;;BABBUSH RYAN</t>
+          <t>BABBUSH RYAN;;NEVEN HARTMUT;;NIU YUEZHEN;;ラミ・バレントス;;ライアン・バブシュ;;ハルトムート・ネーフェン;;BARENDS RAMI;;바엔즈 라미;;BOIXO CASTRILLO SERGIO;;NEVEN HELMUT;;SMELYANSKIY VADIM;;エドワード・ヘンリー・ファーリ;;CASTRILLO SERGIO BOIXO;;ハルトムート・ネーヴェン;;セルジオ・バイショ・カストリージョ;;ヴァディム・スメリャンスキー;;ユエゼン・ニウ;;FARHI EDWARD HENRY</t>
         </is>
       </c>
       <c r="S4" t="b">
@@ -919,7 +919,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>US;;WO;;EP</t>
+          <t>EP;;US;;WO</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -951,7 +951,7 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>WILSON CHRISTOPHER MOGAN;;DA SILVA MARCUS PALMER;;PETERSON ERIC CHRISTOPHER;;CURTIS MICHAEL J;;OSBORN CHRISTOPHER BUTLER;;JOHNSON BLAKE ROBERT;;ZENG WILLIAM J;;ZENG WILLIAM;;DAVIS ERIK JOSEPH;;MCKIERNAN KERI ANN;;CURTIS MICHAEL;;SETE EYOB A;;HEIDEL STEVEN;;TEZAK NIKOLAS ANTON;;JONES GLENN;;RUST MICHAEL;;SMITH ROBERT STANLEY;;REAGOR MATTHEW J;;ALAM MUHAMMAD SOHAIB;;SETE EYOB;;RIGETTI CHAD TYLER;;KARALEKAS PETER JONATHAN;;DESAI ANAND;;LYNCH ADAM DAVID</t>
+          <t>MCKIERNAN KERI ANN;;REAGOR MATTHEW J;;ZENG WILLIAM J;;WILSON CHRISTOPHER MOGAN;;OSBORN CHRISTOPHER BUTLER;;TEZAK NIKOLAS ANTON;;RUST MICHAEL;;JOHNSON BLAKE ROBERT;;LYNCH ADAM DAVID;;KARALEKAS PETER JONATHAN;;ZENG WILLIAM;;DESAI ANAND;;PETERSON ERIC CHRISTOPHER;;SETE EYOB A;;ALAM MUHAMMAD SOHAIB;;CURTIS MICHAEL J;;DAVIS ERIK JOSEPH;;DA SILVA MARCUS PALMER;;SETE EYOB;;CURTIS MICHAEL;;JONES GLENN;;HEIDEL STEVEN;;SMITH ROBERT STANLEY;;RIGETTI CHAD TYLER</t>
         </is>
       </c>
       <c r="S5" t="b">
@@ -1022,7 +1022,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>CN;;US;;EP</t>
+          <t>US;;CN;;EP</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -1049,12 +1049,12 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>YARKONI SHEIR;;D WAVE SYSTEMS INC</t>
+          <t>D WAVE SYSTEMS INC;;YARKONI SHEIR</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>BOOTHBY THOMAS J;;AMIN MOHAMMAD H S;;ANDRIYASH EVGENY A;;AMIN MOHAMMAD H;;ROLFE JASON;;LANTING TREVOR MICHAEL;;KING ANDREW DOUGLAS;;MACREADY WILLIAM G;;ANDRIYASH EVGENY;;XUE YANBO;;BOOTHBY KELLY T R;;YARKONI SHEIR</t>
+          <t>YARKONI SHEIR;;AMIN MOHAMMAD H;;AMIN MOHAMMAD H S;;ROLFE JASON;;XUE YANBO;;ANDRIYASH EVGENY;;ANDRIYASH EVGENY A;;KING ANDREW DOUGLAS;;MACREADY WILLIAM G;;BOOTHBY THOMAS J;;LANTING TREVOR MICHAEL;;BOOTHBY KELLY T R</t>
         </is>
       </c>
       <c r="S6" t="b">
@@ -1152,12 +1152,12 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>中国科学院微电子研究所;;INST MICROELECTRONICS CAS;;INST OF MICROELECTRONICS CAS</t>
+          <t>INST OF MICROELECTRONICS CAS;;INST MICROELECTRONICS CAS;;中国科学院微电子研究所</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>朱正勇;;RADAMSON HENRY H;;张严波;;WANG GUILEI;;ZHANG YANBO;;ZHU HUILONG;;王桂磊;;亨利·H·阿达姆松;;ZHU ZHENGYONG;;朱慧珑;;HENRY H ADAMSON</t>
+          <t>王桂磊;;WANG GUILEI;;ZHANG YANBO;;RADAMSON HENRY H;;ZHU ZHENGYONG;;ZHU HUILONG;;朱慧珑;;朱正勇;;张严波;;HENRY H ADAMSON;;亨利·H·阿达姆松</t>
         </is>
       </c>
       <c r="S7" t="b">
@@ -1228,7 +1228,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>WO;;US;;KR;;EP;;AU;;CA;;CN;;JP</t>
+          <t>EP;;US;;CN;;WO;;KR;;JP;;AU;;CA</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -1238,7 +1238,7 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>US;;AU</t>
+          <t>AU;;US</t>
         </is>
       </c>
       <c r="M8" t="n">
@@ -1255,12 +1255,12 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>KYNDI INC;;キンダイ、インコーポレイテッドＫＹＮＤＩ， ＩＮＣ．;;킨디 인코포레이티드</t>
+          <t>キンダイ、インコーポレイテッドＫＹＮＤＩ， ＩＮＣ．;;킨디 인코포레이티드;;KYNDI INC</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>アルン、マジュムダール;;MAJUMDAR ARUN;;마줌다 아룬</t>
+          <t>アルン、マジュムダール;;마줌다 아룬;;MAJUMDAR ARUN</t>
         </is>
       </c>
       <c r="S8" t="b">
@@ -1327,7 +1327,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>CA;;US;;WO;;EP</t>
+          <t>CA;;US;;EP;;WO</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -1337,7 +1337,7 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>IB;;US</t>
+          <t>US;;IB</t>
         </is>
       </c>
       <c r="M9" t="n">
@@ -1359,7 +1359,7 @@
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>GAHROOSI AMIR;;GOULD MATTHEW V;;MASILAMANI ASHOK PRABHU;;MASILAMANI ASHOK;;GOULD MATTHEW;;GAHROOSI AMIR BAHADOR;;KHOMAMI ABADI MOJTABA</t>
+          <t>MASILAMANI ASHOK PRABHU;;GOULD MATTHEW V;;MASILAMANI ASHOK;;GAHROOSI AMIR;;KHOMAMI ABADI MOJTABA;;GOULD MATTHEW;;GAHROOSI AMIR BAHADOR</t>
         </is>
       </c>
       <c r="S9" t="b">
@@ -1430,7 +1430,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>TW;;US;;WO;;EP</t>
+          <t>EP;;TW;;US;;WO</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1462,7 +1462,7 @@
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>SIGNAEVSKY MAXIM;;YAROSLAVSKY IGOR YEHUDA;;SIGNAEVSKI MAXIM M;;YAROSLAVSKY IGOR</t>
+          <t>SIGNAEVSKI MAXIM M;;SIGNAEVSKY MAXIM;;YAROSLAVSKY IGOR;;YAROSLAVSKY IGOR YEHUDA</t>
         </is>
       </c>
       <c r="S10" t="b">
@@ -1529,7 +1529,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>CA;;WO;;US;;KR</t>
+          <t>CA;;US;;WO;;KR</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>LIVADARU LUCIAN;;WALUS KONRAD;;DIENEL THOMAS;;WOLKOW ROBERT;;RASHIDI MOHAMMAD;;WOLKOW ROBERT A;;VINE WYATT;;RETALLICK JACOB;;CROSHAW JEREMIAH;;HUFF TALEANA;;WALUS CONRAD</t>
+          <t>WOLKOW ROBERT A;;HUFF TALEANA;;LIVADARU LUCIAN;;VINE WYATT;;RETALLICK JACOB;;WALUS KONRAD;;RASHIDI MOHAMMAD;;WALUS CONRAD;;CROSHAW JEREMIAH;;WOLKOW ROBERT;;DIENEL THOMAS</t>
         </is>
       </c>
       <c r="S11" t="b">
@@ -1628,7 +1628,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>CA;;US;;WO;;EP</t>
+          <t>EP;;CA;;US;;WO</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1660,7 +1660,7 @@
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>PICHLER HANNES;;NGUYEN CHRISTIAN THIEU;;WANG SHENGTAO;;LUKIN MIKHAIL D;;BHASKAR MIHIR;;SUKACHEV DENIS;;EVANS RUFFIN;;LUNKIN MIKHAIL;;SUKACHEV DENIS D;;NGUYEN CHRISTIAN;;EVANS RUFFIN E;;BHASKAR MIHIR KESHAV;;ZHOU LEO XIANGYU;;ZHOU LEO;;CHOI SOONWON;;SIPAHIGIL ALP;;LUKIN MIKHAIL</t>
+          <t>LUKIN MIKHAIL D;;EVANS RUFFIN;;LUNKIN MIKHAIL;;BHASKAR MIHIR KESHAV;;ZHOU LEO;;BHASKAR MIHIR;;CHOI SOONWON;;NGUYEN CHRISTIAN THIEU;;LUKIN MIKHAIL;;SUKACHEV DENIS D;;ZHOU LEO XIANGYU;;SUKACHEV DENIS;;NGUYEN CHRISTIAN;;WANG SHENGTAO;;EVANS RUFFIN E;;SIPAHIGIL ALP;;PICHLER HANNES</t>
         </is>
       </c>
       <c r="S12" t="b">
@@ -1727,7 +1727,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>WO;;US;;KR;;EP;;AU;;CA</t>
+          <t>EP;;US;;WO;;KR;;AU;;CA</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1759,7 +1759,7 @@
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>PARK HYUNJUN;;BHATIA SWAPNIL P;;ROQUET NATHANIEL;;LEAKE DEVIN;;BHATIA SWAPNIL</t>
+          <t>LEAKE DEVIN;;BHATIA SWAPNIL P;;BHATIA SWAPNIL;;PARK HYUNJUN;;ROQUET NATHANIEL</t>
         </is>
       </c>
       <c r="S13" t="b">
@@ -1857,12 +1857,12 @@
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>MOLINSKY BRADLEY DEAN;;TIPTON THOMAS ANDREW;;DUNST MICHAEL J;;HARTFORD FIRE INSURANCE COMP;;CARROLL WILLIAM JOSEPH;;BATTAGLINI JOSEPH S</t>
+          <t>CARROLL WILLIAM JOSEPH;;DUNST MICHAEL J;;BATTAGLINI JOSEPH S;;HARTFORD FIRE INSURANCE COMP;;TIPTON THOMAS ANDREW;;MOLINSKY BRADLEY DEAN</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>MOLINSKY BRADLEY DEAN;;TIPTON THOMAS ANDREW;;DUNST MICHAEL J;;CARROLL WILLIAM JOSEPH;;BATTAGLINI JOSEPH S</t>
+          <t>CARROLL WILLIAM JOSEPH;;DUNST MICHAEL J;;BATTAGLINI JOSEPH S;;TIPTON THOMAS ANDREW;;MOLINSKY BRADLEY DEAN</t>
         </is>
       </c>
       <c r="S14" t="b">
@@ -2135,7 +2135,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>WO;;CN;;US;;KR</t>
+          <t>CN;;US;;WO;;KR</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -2167,7 +2167,7 @@
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>LIM DOO-HYEOK;;WOO SOL-A;;CHO JIN SUN;;CHO KYOUNG AH;;KIM SANG SIG;;WOO SOL A;;CHO JIN-SUN;;LIM DOO HYEOK;;PARK YOUNG-SOO;;HEO JUN;;PARK YOUNG SOO;;CHO KYOUNG-AH;;KIM SANG-SIK;;SOHN IL KWON</t>
+          <t>LIM DOO HYEOK;;CHO JIN-SUN;;SOHN IL KWON;;HEO JUN;;KIM SANG-SIK;;LIM DOO-HYEOK;;PARK YOUNG SOO;;CHO JIN SUN;;WOO SOL-A;;CHO KYOUNG AH;;KIM SANG SIG;;WOO SOL A;;CHO KYOUNG-AH;;PARK YOUNG-SOO</t>
         </is>
       </c>
       <c r="S17" t="b">
@@ -2238,7 +2238,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>WO;;US;;KR;;EP;;TW;;CN;;JP</t>
+          <t>US;;EP;;CN;;WO;;KR;;JP;;TW</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -2265,12 +2265,12 @@
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>LAM RES CORP;;ラム リサーチ コーポレーションＬＡＭ ＲＥＳＥＡＲＣＨ ＣＯＲＰＯＲＡＴＩＯＮ</t>
+          <t>ラム リサーチ コーポレーションＬＡＭ ＲＥＳＥＡＲＣＨ ＣＯＲＰＯＲＡＴＩＯＮ;;LAM RES CORP</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>VAHEDI VAHID;;GOTTSCHO RICHARD ALAN;;グーハ・ジョイディープ;;GUHA JOYDEEP;;ゴットショ・リチャード・アラン;;バヘディ・バヘド;;DAUGHERTY JOHN;;ダウガティ・ジョン</t>
+          <t>GUHA JOYDEEP;;ゴットショ・リチャード・アラン;;バヘディ・バヘド;;VAHEDI VAHID;;GOTTSCHO RICHARD ALAN;;グーハ・ジョイディープ;;ダウガティ・ジョン;;DAUGHERTY JOHN</t>
         </is>
       </c>
       <c r="S18" t="b">
@@ -2337,7 +2337,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>US;;CN;;WO;;EP</t>
+          <t>EP;;US;;WO;;CN</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -2369,7 +2369,7 @@
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>W·陈;;GAMBLE JOHN KING;;K·施特劳斯;;KOHLL ALEXANDER XAVIER CHRISTOF;;GRANADE CHRISTOPHER EVAN;;WIEBE NATHAN O;;CHEN WEIDA;;A·X·C·科尔;;GAMBLE IV JOHN KING;;STRAUSS KARIN;;R·格拉斯;;NGUYEN BICHLIEN HOANG;;B·H·阮;;GRASS ROBERT</t>
+          <t>W·陈;;CHEN WEIDA;;KOHLL ALEXANDER XAVIER CHRISTOF;;GAMBLE JOHN KING;;GRANADE CHRISTOPHER EVAN;;WIEBE NATHAN O;;K·施特劳斯;;A·X·C·科尔;;NGUYEN BICHLIEN HOANG;;STRAUSS KARIN;;GRASS ROBERT;;R·格拉斯;;B·H·阮;;GAMBLE IV JOHN KING</t>
         </is>
       </c>
       <c r="S19" t="b">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>US;;KR;;EP;;CA;;CN;;JP</t>
+          <t>EP;;US;;CN;;KR;;JP;;CA</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -2467,12 +2467,12 @@
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>イリディア・インコーポレイテッドＩｒｉｄｉａ， Ｉｎｃ．;;DODO OMNIDATA INC;;IRIDIA INC</t>
+          <t>DODO OMNIDATA INC;;IRIDIA INC;;イリディア・インコーポレイテッドＩｒｉｄｉａ， Ｉｎｃ．</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>ポール・エフ・プレドキ;;CASSIDY MAJA;;PREDKI PAUL F;;マジャ・キャシディ</t>
+          <t>マジャ・キャシディ;;PREDKI PAUL F;;ポール・エフ・プレドキ;;CASSIDY MAJA</t>
         </is>
       </c>
       <c r="S20" t="b">
@@ -2543,7 +2543,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>WO;;US</t>
+          <t>US;;WO</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -2553,7 +2553,7 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>US;;IL</t>
+          <t>IL;;US</t>
         </is>
       </c>
       <c r="M21" t="n">
@@ -2575,7 +2575,7 @@
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>SUCHOWSKI HAIM;;NAGLER ACHIYA;;ARIELI URI;;MALKIEL ITZIK;;MREJEN MICHAEL;;WOLF LIOR</t>
+          <t>WOLF LIOR;;MALKIEL ITZIK;;MREJEN MICHAEL;;NAGLER ACHIYA;;ARIELI URI;;SUCHOWSKI HAIM</t>
         </is>
       </c>
       <c r="S21" t="b">
@@ -2642,7 +2642,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>WO;;US</t>
+          <t>US;;WO</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -2674,7 +2674,7 @@
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>ZHANG LIHONG;;NABAVI SEYEDFAKHREDDIN</t>
+          <t>NABAVI SEYEDFAKHREDDIN;;ZHANG LIHONG</t>
         </is>
       </c>
       <c r="S22" t="b">
@@ -2773,7 +2773,7 @@
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>DALLAIRE-DEMERS PIERRE-LUC;;ANSCHUETZ ERIC R;;GONTHIER JEROME FLORIAN;;KATABARWA AMARA;;JOHNSON PETER D;;CAO YUDONG</t>
+          <t>DALLAIRE-DEMERS PIERRE-LUC;;JOHNSON PETER D;;GONTHIER JEROME FLORIAN;;KATABARWA AMARA;;ANSCHUETZ ERIC R;;CAO YUDONG</t>
         </is>
       </c>
       <c r="S23" t="b">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>MCFARLAND KIRSTY A;;BYRNES STEVEN;;KOTZ KENNETH;;SPRACHMAN MELISSA M;;FAVALORA GREGG;;SPRACHMAN MELISSA;;MAGYAR ANDREW P;;MCFARLAND KIRSTY;;CAVANAGH PETER;;BYRNES STEVEN J;;VARGO EMMA;;DUBAY RYAN A;;FAVALORA GREGG E;;MARKOVIC STACEY;;FRANK IAN WARD;;MAGYAR ANDREW;;FRANK IAN;;ROSENBERGER ERIN;;HUANG HAIYAO;;KOTZ KENNETH T;;DUBAY RYAN</t>
+          <t>MCFARLAND KIRSTY A;;KOTZ KENNETH T;;FAVALORA GREGG;;BYRNES STEVEN J;;VARGO EMMA;;BYRNES STEVEN;;HUANG HAIYAO;;MARKOVIC STACEY;;MCFARLAND KIRSTY;;FAVALORA GREGG E;;DUBAY RYAN A;;SPRACHMAN MELISSA M;;MAGYAR ANDREW P;;MAGYAR ANDREW;;SPRACHMAN MELISSA;;ROSENBERGER ERIN;;CAVANAGH PETER;;FRANK IAN;;KOTZ KENNETH;;DUBAY RYAN;;FRANK IAN WARD</t>
         </is>
       </c>
       <c r="S24" t="b">
@@ -3149,7 +3149,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>FR;;WO;;EP</t>
+          <t>FR;;EP;;WO</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -3181,7 +3181,7 @@
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>LANDIS STÉPHAN;;CONSTANCIAS CHRISTOPHE;;LANDIS STEPHAN</t>
+          <t>CONSTANCIAS CHRISTOPHE;;LANDIS STÉPHAN;;LANDIS STEPHAN</t>
         </is>
       </c>
       <c r="S27" t="b">
@@ -3252,7 +3252,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>WO;;EP;;GB;;CA;;TW;;SG</t>
+          <t>SG;;EP;;WO;;GB;;CA;;TW</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -3284,7 +3284,7 @@
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>HAYES MATTHEW JAMES;;MATTHEW JAMES HAYES;;SANCHES-KUIPER RAQUEL MARIA;;RAQUEL MARIA SANCHES-KUIPER</t>
+          <t>MATTHEW JAMES HAYES;;SANCHES-KUIPER RAQUEL MARIA;;HAYES MATTHEW JAMES;;RAQUEL MARIA SANCHES-KUIPER</t>
         </is>
       </c>
       <c r="S28" t="b">
@@ -3382,12 +3382,12 @@
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>IBM (CHINA) INVEST COMPANY LTD;;IBM UK;;IBM</t>
+          <t>IBM;;IBM UK;;IBM (CHINA) INVEST COMPANY LTD</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>BISHOP LEV;;NANNICINI GIACOMO;;OLIVADESE SALVATORE;;GREENBERG DON;;GAMBETTA JAY;;GAMBETTA JAY M;;MCCLURE III DOUGLAS TEMPLETON;;TEMME PAUL;;DIAL OLIVER;;PHAN ANNA;;OLIVADESE SALVATORE BERNARDO;;MCCLURE III DOUGLAS T;;PHAN ANNA T;;PISTOIA MARCO;;TEMME PAUL KRISTAN;;CHEN RICHARD;;CORCOLES-GONZALEZ ANTONIO;;BISHOP LEV SAMUEL;;STEFFEN MATTHIAS</t>
+          <t>OLIVADESE SALVATORE;;GAMBETTA JAY M;;MCCLURE III DOUGLAS T;;PHAN ANNA;;BISHOP LEV;;DIAL OLIVER;;PHAN ANNA T;;GAMBETTA JAY;;TEMME PAUL KRISTAN;;CORCOLES-GONZALEZ ANTONIO;;OLIVADESE SALVATORE BERNARDO;;STEFFEN MATTHIAS;;TEMME PAUL;;BISHOP LEV SAMUEL;;GREENBERG DON;;MCCLURE III DOUGLAS TEMPLETON;;PISTOIA MARCO;;CHEN RICHARD;;NANNICINI GIACOMO</t>
         </is>
       </c>
       <c r="S29" t="b">
@@ -3485,12 +3485,12 @@
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>中国科学院微电子研究所;;INST MICROELECTRONICS CAS;;INST OF MICROELECTRONICS CAS</t>
+          <t>INST OF MICROELECTRONICS CAS;;INST MICROELECTRONICS CAS;;中国科学院微电子研究所</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>朱正勇;;张严波;;WANG GUILEI;;ZHANG YANBO;;ZHU HUILONG;;王桂磊;;亨利·H·阿达姆松;;ZHU ZHENGYONG;;朱慧珑;;HENRY H ADAMSON</t>
+          <t>王桂磊;;WANG GUILEI;;ZHANG YANBO;;朱正勇;;ZHU ZHENGYONG;;朱慧珑;;ZHU HUILONG;;张严波;;HENRY H ADAMSON;;亨利·H·阿达姆松</t>
         </is>
       </c>
       <c r="S30" t="b">
@@ -3593,7 +3593,7 @@
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>CASSIDY MAJA;;PREDKI PAUL F</t>
+          <t>PREDKI PAUL F;;CASSIDY MAJA</t>
         </is>
       </c>
       <c r="S31" t="b">
@@ -3696,7 +3696,7 @@
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>BOOTHBY THOMAS J;;AMIN MOHAMMAD H S;;ANDRIYASH EVGENY A;;AMIN MOHAMMAD H;;ROLFE JASON;;LANTING TREVOR MICHAEL;;KING ANDREW DOUGLAS;;ANDRIYASH EVGENY;;YARKONI SHEIR</t>
+          <t>YARKONI SHEIR;;AMIN MOHAMMAD H;;AMIN MOHAMMAD H S;;ROLFE JASON;;ANDRIYASH EVGENY;;ANDRIYASH EVGENY A;;KING ANDREW DOUGLAS;;BOOTHBY THOMAS J;;LANTING TREVOR MICHAEL</t>
         </is>
       </c>
       <c r="S32" t="b">
@@ -3763,7 +3763,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>US;;KR;;EP</t>
+          <t>US;;EP;;KR</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -3795,7 +3795,7 @@
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>COVENS KRIS;;CIUBOTARU FLORIN;;CHEN CHANG;;CAI QING;;ADELMANN HANNS CHRISTOPH;;COSTA JOSE DIOGO;;STAKENBORG TIM;;FAUVART MAARTEN</t>
+          <t>FAUVART MAARTEN;;CHEN CHANG;;COVENS KRIS;;COSTA JOSE DIOGO;;ADELMANN HANNS CHRISTOPH;;STAKENBORG TIM;;CIUBOTARU FLORIN;;CAI QING</t>
         </is>
       </c>
       <c r="S33" t="b">
@@ -3993,7 +3993,7 @@
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>MAKSYMOVYCH PETRO;;LAWRIE BENJAMIN J;;POOSER RAPHAEL C</t>
+          <t>LAWRIE BENJAMIN J;;POOSER RAPHAEL C;;MAKSYMOVYCH PETRO</t>
         </is>
       </c>
       <c r="S35" t="b">
@@ -4191,7 +4191,7 @@
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>YAZDI S M HOSSEIN TABATABAEI;;GABRYS RYAN;;MILENKOVIC OLGICA</t>
+          <t>MILENKOVIC OLGICA;;YAZDI S M HOSSEIN TABATABAEI;;GABRYS RYAN</t>
         </is>
       </c>
       <c r="S37" t="b">
@@ -4289,7 +4289,7 @@
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>UNIV SEOUL IND COOP FOUND;;서울시립대학교 산학협력단</t>
+          <t>서울시립대학교 산학협력단;;UNIV SEOUL IND COOP FOUND</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
@@ -4492,7 +4492,7 @@
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>CHENG RUNHONG;;WANG YUNBO;;WU SHUO;;ZHU YU;;CHEN CHANGSHENG;;ZHOU WENLI;;GAO JUNXIONG</t>
+          <t>CHENG RUNHONG;;WU SHUO;;CHEN CHANGSHENG;;GAO JUNXIONG;;WANG YUNBO;;ZHOU WENLI;;ZHU YU</t>
         </is>
       </c>
       <c r="S40" t="b">
@@ -4591,7 +4591,7 @@
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>WANG KAIYANG;;REN DELIANG;;YAN XIAOBING</t>
+          <t>REN DELIANG;;YAN XIAOBING;;WANG KAIYANG</t>
         </is>
       </c>
       <c r="S41" t="b">
@@ -4690,7 +4690,7 @@
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>KONDASH COREY R;;SLINKER KEITH;;DICKINSON BENJAMIN T;;PANKONIEN ALEXANDER M;;MAGAR KAMAN THAPA;;REICH GREGORY W;;BAUR JEFFREY W</t>
+          <t>REICH GREGORY W;;MAGAR KAMAN THAPA;;PANKONIEN ALEXANDER M;;BAUR JEFFREY W;;KONDASH COREY R;;SLINKER KEITH;;DICKINSON BENJAMIN T</t>
         </is>
       </c>
       <c r="S42" t="b">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>CHEN YIXIANG;;WANG ZEHONG;;WANG WEI;;YU DAN</t>
+          <t>WANG WEI;;YU DAN;;CHEN YIXIANG;;WANG ZEHONG</t>
         </is>
       </c>
       <c r="S44" t="b">
@@ -4987,7 +4987,7 @@
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>LEE HONG-SUB;;SANGWAN VINOD K;;HERSAM MARK C</t>
+          <t>HERSAM MARK C;;LEE HONG-SUB;;SANGWAN VINOD K</t>
         </is>
       </c>
       <c r="S45" t="b">
@@ -5086,7 +5086,7 @@
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>FONG KIN CHUNG;;SIU MAN-HUNG;;JIANG ZHUOLIN</t>
+          <t>JIANG ZHUOLIN;;SIU MAN-HUNG;;FONG KIN CHUNG</t>
         </is>
       </c>
       <c r="S46" t="b">
@@ -5189,7 +5189,7 @@
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>REUTHER CORDULA;;TAKATSUKI HIDEYO;;MANSSON ALF;;KORTEN TILL;;DIEZ STEFAN</t>
+          <t>KORTEN TILL;;MANSSON ALF;;TAKATSUKI HIDEYO;;REUTHER CORDULA;;DIEZ STEFAN</t>
         </is>
       </c>
       <c r="S47" t="b">
@@ -5387,7 +5387,7 @@
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>LIU YU;;LIANG RENRONG;;ZHAO LINYUAN;;XU JUN</t>
+          <t>ZHAO LINYUAN;;LIU YU;;XU JUN;;LIANG RENRONG</t>
         </is>
       </c>
       <c r="S49" t="b">
@@ -5589,7 +5589,7 @@
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>CHOI YONG SOO;;LEE HYUNG DONG;;CHOI YONG-SOO;;HEO KEUN;;LEE HYUNG-DONG</t>
+          <t>LEE HYUNG-DONG;;CHOI YONG-SOO;;LEE HYUNG DONG;;HEO KEUN;;CHOI YONG SOO</t>
         </is>
       </c>
       <c r="S51" t="b">
@@ -5688,7 +5688,7 @@
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>XIA QIANGFEI;;WU QING;;MCLEAN MARK;;YANG JIANHUA</t>
+          <t>YANG JIANHUA;;MCLEAN MARK;;XIA QIANGFEI;;WU QING</t>
         </is>
       </c>
       <c r="S52" t="b">
@@ -5759,7 +5759,7 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>WO;;US</t>
+          <t>US;;WO</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -5786,12 +5786,12 @@
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>D-WAVE SYSTEMS INC;;YARKONI SHEIR;;D WAVE SYSTEMS INC</t>
+          <t>D WAVE SYSTEMS INC;;YARKONI SHEIR;;D-WAVE SYSTEMS INC</t>
         </is>
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>BOOTHBY THOMAS J;;ANDRIYASH EVGENY A;;AMIN MOHAMMAD H;;LANTING TREVOR MICHAEL;;KING ANDREW DOUGLAS;;BOOTHBY KELLY T R;;YARKONI SHEIR</t>
+          <t>AMIN MOHAMMAD H;;LANTING TREVOR MICHAEL;;ANDRIYASH EVGENY A;;KING ANDREW DOUGLAS;;BOOTHBY THOMAS J;;YARKONI SHEIR;;BOOTHBY KELLY T R</t>
         </is>
       </c>
       <c r="S53" t="b">
@@ -6088,7 +6088,7 @@
       </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>Huilong Zhu;;Zhengyong Zhu</t>
+          <t>Zhengyong Zhu;;Huilong Zhu</t>
         </is>
       </c>
       <c r="S56" t="b">
@@ -6186,7 +6186,7 @@
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>UNIV SEOUL IND COOP FOUND;;서울시립대학교 산학협력단</t>
+          <t>서울시립대학교 산학협력단;;UNIV SEOUL IND COOP FOUND</t>
         </is>
       </c>
       <c r="R57" t="inlineStr">
@@ -6464,7 +6464,7 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>WO;;US;;KR;;EP;;AU;;SG;;CA;;CN;;JP</t>
+          <t>SG;;EP;;US;;CN;;WO;;KR;;JP;;AU;;CA</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -6491,12 +6491,12 @@
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>ラミ・バレントス;;グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;グーグル エルエルシー;;구글 엘엘씨;;BARENDS RAMI;;GOOGLE INC;;GOOGLE LLC</t>
+          <t>グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;ラミ・バレントス;;グーグル エルエルシー;;GOOGLE LLC;;BARENDS RAMI;;구글 엘엘씨;;GOOGLE INC</t>
         </is>
       </c>
       <c r="R60" t="inlineStr">
         <is>
-          <t>ラミ・バレントス;;ハルトムート・ネーヴェン;;NEVEN HARTMUT;;ライアン・バブシュ;;바엔즈 라미;;FARHI EDWARD HENRY;;BARENDS RAMI;;エドワード・ヘンリー・ファーリ;;BABBUSH RYAN</t>
+          <t>NEVEN HARTMUT;;BABBUSH RYAN;;ラミ・バレントス;;ライアン・バブシュ;;BARENDS RAMI;;바엔즈 라미;;エドワード・ヘンリー・ファーリ;;ハルトムート・ネーヴェン;;FARHI EDWARD HENRY</t>
         </is>
       </c>
       <c r="S60" t="b">
@@ -6595,7 +6595,7 @@
       </c>
       <c r="R61" t="inlineStr">
         <is>
-          <t>FAROKHZAD OMID;;MAHMOUDI MORTEZA;;CORBO CLAUDIA</t>
+          <t>CORBO CLAUDIA;;MAHMOUDI MORTEZA;;FAROKHZAD OMID</t>
         </is>
       </c>
       <c r="S61" t="b">
@@ -6694,7 +6694,7 @@
       </c>
       <c r="R62" t="inlineStr">
         <is>
-          <t>KOUL RAMAN;;WANG GANG (A K A JOSEPH);;SALAHANDISH RAZIEH;;BHAT SUMRITA;;VASTAREY NIKHIL SURESH;;KAPOOR ANMOL SINGH;;WANG GANG</t>
+          <t>VASTAREY NIKHIL SURESH;;SALAHANDISH RAZIEH;;WANG GANG (A K A JOSEPH);;BHAT SUMRITA;;KAPOOR ANMOL SINGH;;KOUL RAMAN;;WANG GANG</t>
         </is>
       </c>
       <c r="S62" t="b">
@@ -6761,7 +6761,7 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>CN;;US;;JP</t>
+          <t>JP;;CN;;US</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -6892,7 +6892,7 @@
       </c>
       <c r="R64" t="inlineStr">
         <is>
-          <t>RAMPRASAD RAMPI;;KIM CHIHO;;CHANDRASEKARAN ANAND</t>
+          <t>CHANDRASEKARAN ANAND;;RAMPRASAD RAMPI;;KIM CHIHO</t>
         </is>
       </c>
       <c r="S64" t="b">
@@ -6963,7 +6963,7 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>WO;;CN;;US;;KR;;EP;;AU;;CA;;SG;;JP</t>
+          <t>SG;;US;;EP;;CN;;WO;;KR;;JP;;AU;;CA</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -6990,12 +6990,12 @@
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>ラミ・バレントス;;グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;グーグル エルエルシー;;SMELYANSKIY VADIM;;NEVEN HARTMUT;;CASTRILLO SERGIO BOIXO;;NIU YUEZHEN;;구글 엘엘씨;;BARENDS RAMI;;GOOGLE INC;;GOOGLE LLC</t>
+          <t>グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;NEVEN HARTMUT;;NIU YUEZHEN;;ラミ・バレントス;;グーグル エルエルシー;;GOOGLE LLC;;BARENDS RAMI;;SMELYANSKIY VADIM;;구글 엘엘씨;;CASTRILLO SERGIO BOIXO;;GOOGLE INC</t>
         </is>
       </c>
       <c r="R65" t="inlineStr">
         <is>
-          <t>ラミ・バレントス;;ヴァディム・スメリャンスキー;;ユエゼン・ニウ;;BOIXO CASTRILLO SERGIO;;NEVEN HARTMUT;;SMELYANSKIY VADIM;;セルジオ・バイショ・カストリージョ;;CASTRILLO SERGIO BOIXO;;NIU YUEZHEN;;BARENDS RAMI;;바엔즈 라미;;ハルトムート・ネーフェン;;BABBUSH RYAN</t>
+          <t>BABBUSH RYAN;;NEVEN HARTMUT;;NIU YUEZHEN;;ラミ・バレントス;;ハルトムート・ネーフェン;;BARENDS RAMI;;바엔즈 라미;;BOIXO CASTRILLO SERGIO;;SMELYANSKIY VADIM;;CASTRILLO SERGIO BOIXO;;セルジオ・バイショ・カストリージョ;;ヴァディム・スメリャンスキー;;ユエゼン・ニウ</t>
         </is>
       </c>
       <c r="S65" t="b">
@@ -7066,7 +7066,7 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>WO;;US;;KR;;EP;;CN;;JP</t>
+          <t>US;;EP;;CN;;WO;;KR;;JP</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -7093,12 +7093,12 @@
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>FOSTNER SHAWN;;BROWN SIMON ANTHONY;;ザ ユニバーシティー オブ カンタベリー;;BOSE SAURABH KUMAR;;THE UNIV OF CANTERBURY</t>
+          <t>BROWN SIMON ANTHONY;;BOSE SAURABH KUMAR;;ザ ユニバーシティー オブ カンタベリー;;FOSTNER SHAWN;;THE UNIV OF CANTERBURY</t>
         </is>
       </c>
       <c r="R66" t="inlineStr">
         <is>
-          <t>FOSTNER SHAWN;;BROWN SIMON ANTHONY;;ブラウン シモン アンソニー;;フォスナー ショーン;;BOSE SAURABH KUMAR;;ボーズ サウラブ クマー</t>
+          <t>フォスナー ショーン;;BROWN SIMON ANTHONY;;BOSE SAURABH KUMAR;;FOSTNER SHAWN;;ブラウン シモン アンソニー;;ボーズ サウラブ クマー</t>
         </is>
       </c>
       <c r="S66" t="b">
@@ -7196,12 +7196,12 @@
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>서강대학교산학협력단;;UNIV SOGANG RES FOUNDATION</t>
+          <t>UNIV SOGANG RES FOUNDATION;;서강대학교산학협력단</t>
         </is>
       </c>
       <c r="R67" t="inlineStr">
         <is>
-          <t>정용호;;CHOI JEONG WOO;;CHUNG YONG HO;;최정우</t>
+          <t>CHOI JEONG WOO;;CHUNG YONG HO;;정용호;;최정우</t>
         </is>
       </c>
       <c r="S67" t="b">
@@ -7299,12 +7299,12 @@
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>UNIV SOUTHEAST;;东南大学</t>
+          <t>东南大学;;UNIV SOUTHEAST</t>
         </is>
       </c>
       <c r="R68" t="inlineStr">
         <is>
-          <t>张辉;;ZHANG JIN;;XING YAN;;幸研;;李源;;ZHANG HUI;;张晋;;LI YUAN</t>
+          <t>李源;;XING YAN;;LI YUAN;;张晋;;幸研;;ZHANG HUI;;ZHANG JIN;;张辉</t>
         </is>
       </c>
       <c r="S68" t="b">
@@ -7402,12 +7402,12 @@
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>UNIV SOUTHEAST;;东南大学</t>
+          <t>东南大学;;UNIV SOUTHEAST</t>
         </is>
       </c>
       <c r="R69" t="inlineStr">
         <is>
-          <t>张辉;;ZHANG JIN;;XING YAN;;幸研;;李源;;ZHANG HUI;;张晋;;LI YUAN</t>
+          <t>李源;;XING YAN;;LI YUAN;;张晋;;幸研;;ZHANG HUI;;ZHANG JIN;;张辉</t>
         </is>
       </c>
       <c r="S69" t="b">
@@ -7506,7 +7506,7 @@
       </c>
       <c r="R70" t="inlineStr">
         <is>
-          <t>W·陈;;KOHLL ALEXANDER XAVIER CHRISTOF;;A·X·C·科尔;;CHEN WEIDA;;STRAUSS KARIN;;R·格拉斯;;K·施特劳斯;;B·H·阮;;GRASS ROBERT;;NGUYEN BICHLIEN HOANG</t>
+          <t>W·陈;;CHEN WEIDA;;KOHLL ALEXANDER XAVIER CHRISTOF;;K·施特劳斯;;A·X·C·科尔;;NGUYEN BICHLIEN HOANG;;R·格拉斯;;GRASS ROBERT;;STRAUSS KARIN;;B·H·阮</t>
         </is>
       </c>
       <c r="S70" t="b">
@@ -7573,7 +7573,7 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>US;;JP</t>
+          <t>JP;;US</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
@@ -7605,7 +7605,7 @@
       </c>
       <c r="R71" t="inlineStr">
         <is>
-          <t>SHINKAI GOU;;新海 剛</t>
+          <t>新海 剛;;SHINKAI GOU</t>
         </is>
       </c>
       <c r="S71" t="b">
@@ -7708,7 +7708,7 @@
       </c>
       <c r="R72" t="inlineStr">
         <is>
-          <t>李伟;;蒋亚东;;GU DE'EN;;顾德恩;;李东阳;;LI DONGYANG;;JIANG YADONG;;GU DEEN;;钟豪;;陈奕丞;;LI WEI;;CHEN YICHENG;;ZHONG HAO</t>
+          <t>CHEN YICHENG;;JIANG YADONG;;LI DONGYANG;;钟豪;;GU DE'EN;;李东阳;;蒋亚东;;GU DEEN;;顾德恩;;LI WEI;;陈奕丞;;ZHONG HAO;;李伟</t>
         </is>
       </c>
       <c r="S72" t="b">
@@ -7807,7 +7807,7 @@
       </c>
       <c r="R73" t="inlineStr">
         <is>
-          <t>FAROOQ AHMAD;;정영민;;JEONG YOUNG MIN;;SHIN HYUN DONG;;신현동;;파쿼 아마드</t>
+          <t>SHIN HYUN DONG;;JEONG YOUNG MIN;;FAROOQ AHMAD;;신현동;;정영민;;파쿼 아마드</t>
         </is>
       </c>
       <c r="S73" t="b">
@@ -7874,7 +7874,7 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>KR;;CN;;JP;;EP</t>
+          <t>JP;;CN;;EP;;KR</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
@@ -7901,12 +7901,12 @@
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>LAM RES CORP;;ラム リサーチ コーポレーションＬＡＭ ＲＥＳＥＡＲＣＨ ＣＯＲＰＯＲＡＴＩＯＮ</t>
+          <t>ラム リサーチ コーポレーションＬＡＭ ＲＥＳＥＡＲＣＨ ＣＯＲＰＯＲＡＴＩＯＮ;;LAM RES CORP</t>
         </is>
       </c>
       <c r="R74" t="inlineStr">
         <is>
-          <t>VAHEDI VAHID;;GOTTSCHO RICHARD ALAN;;グーハ・ジョイディープ;;GUHA JOYDEEP;;ゴットショ・リチャード・アラン;;バヘディ・バヘド;;DAUGHERTY JOHN;;ダウガティ・ジョン</t>
+          <t>GUHA JOYDEEP;;ゴットショ・リチャード・アラン;;バヘディ・バヘド;;VAHEDI VAHID;;GOTTSCHO RICHARD ALAN;;グーハ・ジョイディープ;;ダウガティ・ジョン;;DAUGHERTY JOHN</t>
         </is>
       </c>
       <c r="S74" t="b">
@@ -8004,12 +8004,12 @@
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>서강대학교산학협력단;;UNIV SOGANG RES FOUNDATION</t>
+          <t>UNIV SOGANG RES FOUNDATION;;서강대학교산학협력단</t>
         </is>
       </c>
       <c r="R75" t="inlineStr">
         <is>
-          <t>정용호;;CHOI JEONG WOO;;CHUNG YONG HO;;최정우</t>
+          <t>CHOI JEONG WOO;;CHUNG YONG HO;;정용호;;최정우</t>
         </is>
       </c>
       <c r="S75" t="b">
@@ -8080,7 +8080,7 @@
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>US;;KR;;EP;;CN;;JP</t>
+          <t>US;;EP;;CN;;KR;;JP</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
@@ -8112,7 +8112,7 @@
       </c>
       <c r="R76" t="inlineStr">
         <is>
-          <t>FOSTNER SHAWN;;BROWN SIMON ANTHONY;;ブラウン シモン アンソニー;;フォスナー ショーン;;BOSE SAURABH KUMAR;;ボーズ サウラブ クマー</t>
+          <t>フォスナー ショーン;;BROWN SIMON ANTHONY;;BOSE SAURABH KUMAR;;FOSTNER SHAWN;;ブラウン シモン アンソニー;;ボーズ サウラブ クマー</t>
         </is>
       </c>
       <c r="S76" t="b">
@@ -8183,7 +8183,7 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>KR;;EP;;CA;;CN;;JP</t>
+          <t>EP;;CN;;KR;;JP;;CA</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
@@ -8215,7 +8215,7 @@
       </c>
       <c r="R77" t="inlineStr">
         <is>
-          <t>CASSIDY MAJA;;ポール・エフ・プレドキ;;マジャ・キャシディ;;PREDKI PAUL F</t>
+          <t>マジャ・キャシディ;;PREDKI PAUL F;;ポール・エフ・プレドキ;;CASSIDY MAJA</t>
         </is>
       </c>
       <c r="S77" t="b">
@@ -8309,12 +8309,12 @@
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>ICLEAGUE TECH CO LTD;;YANGTZE DELTA REGION INST TSINGHUA UNIV ZHEJIANG</t>
+          <t>YANGTZE DELTA REGION INST TSINGHUA UNIV ZHEJIANG;;ICLEAGUE TECH CO LTD</t>
         </is>
       </c>
       <c r="R78" t="inlineStr">
         <is>
-          <t>YU XING;;JIANG WEINAN</t>
+          <t>JIANG WEINAN;;YU XING</t>
         </is>
       </c>
       <c r="S78" t="b">
@@ -8412,12 +8412,12 @@
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>IUCF HYU;;한양대학교 산학협력단</t>
+          <t>한양대학교 산학협력단;;IUCF HYU</t>
         </is>
       </c>
       <c r="R79" t="inlineStr">
         <is>
-          <t>윤태현;;트린수안텅;;김진배;;YOON TAE HYUN;;KIM JIN BAE;;TRINH XUAN TUNG;;HA KIEU MY;;하키우</t>
+          <t>김진배;;KIM JIN BAE;;YOON TAE HYUN;;HA KIEU MY;;윤태현;;TRINH XUAN TUNG;;하키우;;트린수안텅</t>
         </is>
       </c>
       <c r="S79" t="b">
@@ -8515,12 +8515,12 @@
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>IUCF HYU;;한양대학교 산학협력단</t>
+          <t>한양대학교 산학협력단;;IUCF HYU</t>
         </is>
       </c>
       <c r="R80" t="inlineStr">
         <is>
-          <t>윤태현;;트린수안텅;;김진배;;YOON TAE HYUN;;KIM JIN BAE;;TRINH XUAN TUNG;;HA KIEU MY;;하키우</t>
+          <t>김진배;;KIM JIN BAE;;YOON TAE HYUN;;HA KIEU MY;;윤태현;;TRINH XUAN TUNG;;하키우;;트린수안텅</t>
         </is>
       </c>
       <c r="S80" t="b">
@@ -8623,7 +8623,7 @@
       </c>
       <c r="R81" t="inlineStr">
         <is>
-          <t>李伟;;蒋亚东;;GU DE'EN;;顾德恩;;李东阳;;LI DONGYANG;;JIANG YADONG;;GU DEEN;;钟豪;;陈奕丞;;LI WEI;;CHEN YICHENG;;ZHONG HAO</t>
+          <t>CHEN YICHENG;;JIANG YADONG;;LI DONGYANG;;钟豪;;GU DE'EN;;李东阳;;蒋亚东;;GU DEEN;;顾德恩;;LI WEI;;陈奕丞;;ZHONG HAO;;李伟</t>
         </is>
       </c>
       <c r="S81" t="b">
@@ -8722,7 +8722,7 @@
       </c>
       <c r="R82" t="inlineStr">
         <is>
-          <t>MANFRINI MAURICIO;;MAURICIO MANFRINI;;VAN DAL MARCUS JOHANNES HENRICUS;;DOORNBOS GERBEN;;MARCUS JOHANNES HENRICUS VAN DAL;;GERBEN DOORNBOS</t>
+          <t>MANFRINI MAURICIO;;GERBEN DOORNBOS;;DOORNBOS GERBEN;;MAURICIO MANFRINI;;MARCUS JOHANNES HENRICUS VAN DAL;;VAN DAL MARCUS JOHANNES HENRICUS</t>
         </is>
       </c>
       <c r="S82" t="b">
@@ -8821,7 +8821,7 @@
       </c>
       <c r="R83" t="inlineStr">
         <is>
-          <t>MANFRINI MAURICIO;;MAURICIO MANFRINI;;VAN DAL MARCUS JOHANNES HENRICUS;;DOORNBOS GERBEN;;MARCUS JOHANNES HENRICUS VAN DAL;;GERBEN DOORNBOS</t>
+          <t>MANFRINI MAURICIO;;GERBEN DOORNBOS;;DOORNBOS GERBEN;;MAURICIO MANFRINI;;MARCUS JOHANNES HENRICUS VAN DAL;;VAN DAL MARCUS JOHANNES HENRICUS</t>
         </is>
       </c>
       <c r="S83" t="b">
@@ -8888,7 +8888,7 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>CA;;KR;;AU;;EP</t>
+          <t>CA;;AU;;EP;;KR</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
@@ -8920,7 +8920,7 @@
       </c>
       <c r="R84" t="inlineStr">
         <is>
-          <t>BHATIA SWAPNIL P;;LEAKE DEVIN;;PARK HYUNJUN;;ROQUET NATHANIEL</t>
+          <t>PARK HYUNJUN;;BHATIA SWAPNIL P;;LEAKE DEVIN;;ROQUET NATHANIEL</t>
         </is>
       </c>
       <c r="S84" t="b">
@@ -9019,7 +9019,7 @@
       </c>
       <c r="R85" t="inlineStr">
         <is>
-          <t>FAROOQ AHMAD;;정영민;;JEONG YOUNG MIN;;SHIN HYUN DONG;;신현동;;파쿼 아마드</t>
+          <t>SHIN HYUN DONG;;JEONG YOUNG MIN;;FAROOQ AHMAD;;신현동;;정영민;;파쿼 아마드</t>
         </is>
       </c>
       <c r="S85" t="b">
@@ -9086,7 +9086,7 @@
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>US;;JP</t>
+          <t>JP;;US</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
@@ -9118,7 +9118,7 @@
       </c>
       <c r="R86" t="inlineStr">
         <is>
-          <t>SHINKAI GOU;;新海 剛</t>
+          <t>新海 剛;;SHINKAI GOU</t>
         </is>
       </c>
       <c r="S86" t="b">
@@ -9212,12 +9212,12 @@
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>ICLEAGUE TECH CO LTD;;YANGTZE DELTA REGION INST TSINGHUA UNIV ZHEJIANG</t>
+          <t>YANGTZE DELTA REGION INST TSINGHUA UNIV ZHEJIANG;;ICLEAGUE TECH CO LTD</t>
         </is>
       </c>
       <c r="R87" t="inlineStr">
         <is>
-          <t>YU XING;;JIANG WEINAN</t>
+          <t>JIANG WEINAN;;YU XING</t>
         </is>
       </c>
       <c r="S87" t="b">
@@ -9288,7 +9288,7 @@
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>WO;;US;;KR;;EP;;AU;;CA;;CN;;JP</t>
+          <t>EP;;US;;CN;;WO;;KR;;JP;;AU;;CA</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
@@ -9315,12 +9315,12 @@
       </c>
       <c r="Q88" t="inlineStr">
         <is>
-          <t>グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;グーグル エルエルシー;;SMELYANSKIY VADIM;;NEVEN HARTMUT;;CASTRILLO SERGIO BOIXO;;NIU YUEZHEN;;GOOGLE INC;;GOOGLE LLC</t>
+          <t>グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;NEVEN HARTMUT;;NIU YUEZHEN;;グーグル エルエルシー;;GOOGLE LLC;;SMELYANSKIY VADIM;;CASTRILLO SERGIO BOIXO;;GOOGLE INC</t>
         </is>
       </c>
       <c r="R88" t="inlineStr">
         <is>
-          <t>ハルトムート・ネーヴェン;;BOIXO CASTRILLO SERGIO;;ユエゼン・ニウ;;NEVEN HARTMUT;;SMELYANSKIY VADIM;;セルジオ・バイショ・カストリージョ;;CASTRILLO SERGIO BOIXO;;NIU YUEZHEN;;FARHI EDWARD HENRY;;ヴァディム・スメリャンスキー;;エドワード・ヘンリー・ファーリ;;ハルトムート・ネーフェン</t>
+          <t>NEVEN HARTMUT;;NIU YUEZHEN;;ハルトムート・ネーフェン;;BOIXO CASTRILLO SERGIO;;SMELYANSKIY VADIM;;エドワード・ヘンリー・ファーリ;;CASTRILLO SERGIO BOIXO;;ハルトムート・ネーヴェン;;セルジオ・バイショ・カストリージョ;;ヴァディム・スメリャンスキー;;ユエゼン・ニウ;;FARHI EDWARD HENRY</t>
         </is>
       </c>
       <c r="S88" t="b">
@@ -9391,7 +9391,7 @@
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>WO;;RU;;US;;KR;;EP;;JP;;AU;;IL;;CA;;TW;;CN;;ZA</t>
+          <t>EP;;ZA;;US;;CN;;WO;;KR;;JP;;AU;;IL;;RU;;CA;;TW</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
@@ -9418,12 +9418,12 @@
       </c>
       <c r="Q89" t="inlineStr">
         <is>
-          <t>OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD;;SMIRNOV SERGEY;;SMIRNOV SERGEY NIIKOLAYEVICH;;LANDIGRAD LLC;;LANDIGRAD LIMITED LIABILITY COMPANY;;란디그레드, 리미티드 라이어빌리티 컴퍼니;;LANDIGRAD LTD LIABILITY CO;;SMIRNOV SERGEY NIKOLAYEVICH;;스미르노브, 세르게이 니콜라예비치</t>
+          <t>SMIRNOV SERGEY NIKOLAYEVICH;;SMIRNOV SERGEY NIIKOLAYEVICH;;SMIRNOV SERGEY;;LANDIGRAD LTD LIABILITY CO;;란디그레드, 리미티드 라이어빌리티 컴퍼니;;LANDIGRAD LIMITED LIABILITY COMPANY;;LANDIGRAD LLC;;스미르노브, 세르게이 니콜라예비치;;OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD</t>
         </is>
       </c>
       <c r="R89" t="inlineStr">
         <is>
-          <t>SMIRNOV SERGEY NIKOLAYEVICH;;SMIRNOV SERGEJ NIKOLAEVICH;;SMIRNOV SERGEY NIIKOLAYEVICH;;스미르노브, 세르게이 니콜라예비치</t>
+          <t>스미르노브, 세르게이 니콜라예비치;;SMIRNOV SERGEY NIKOLAYEVICH;;SMIRNOV SERGEJ NIKOLAEVICH;;SMIRNOV SERGEY NIIKOLAYEVICH</t>
         </is>
       </c>
       <c r="S89" t="b">
@@ -9494,7 +9494,7 @@
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>WO;;RU;;US;;KR;;EP;;JP;;AU;;IL;;CA;;TW;;CN;;ZA</t>
+          <t>EP;;ZA;;US;;CN;;WO;;KR;;JP;;AU;;IL;;RU;;CA;;TW</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
@@ -9521,12 +9521,12 @@
       </c>
       <c r="Q90" t="inlineStr">
         <is>
-          <t>OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD;;SMIRNOV SERGEY;;SMIRNOV SERGEY NIIKOLAYEVICH;;LANDIGRAD LLC;;LANDIGRAD LIMITED LIABILITY COMPANY;;란디그레드, 리미티드 라이어빌리티 컴퍼니;;LANDIGRAD LTD LIABILITY CO;;SMIRNOV SERGEY NIKOLAYEVICH;;스미르노브, 세르게이 니콜라예비치</t>
+          <t>SMIRNOV SERGEY NIKOLAYEVICH;;SMIRNOV SERGEY NIIKOLAYEVICH;;SMIRNOV SERGEY;;LANDIGRAD LTD LIABILITY CO;;란디그레드, 리미티드 라이어빌리티 컴퍼니;;LANDIGRAD LIMITED LIABILITY COMPANY;;LANDIGRAD LLC;;스미르노브, 세르게이 니콜라예비치;;OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD</t>
         </is>
       </c>
       <c r="R90" t="inlineStr">
         <is>
-          <t>SMIRNOV SERGEY NIKOLAYEVICH;;SMIRNOV SERGEJ NIKOLAEVICH;;SMIRNOV SERGEY NIIKOLAYEVICH;;스미르노브, 세르게이 니콜라예비치</t>
+          <t>스미르노브, 세르게이 니콜라예비치;;SMIRNOV SERGEY NIKOLAYEVICH;;SMIRNOV SERGEJ NIKOLAEVICH;;SMIRNOV SERGEY NIIKOLAYEVICH</t>
         </is>
       </c>
       <c r="S90" t="b">
@@ -9597,7 +9597,7 @@
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>KR;;EP;;AU;;CA;;CN;;JP</t>
+          <t>EP;;CN;;KR;;JP;;AU;;CA</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
@@ -9624,12 +9624,12 @@
       </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>KYNDI INC;;キンダイ、インコーポレイテッドＫＹＮＤＩ， ＩＮＣ．;;킨디 인코포레이티드</t>
+          <t>キンダイ、インコーポレイテッドＫＹＮＤＩ， ＩＮＣ．;;킨디 인코포레이티드;;KYNDI INC</t>
         </is>
       </c>
       <c r="R91" t="inlineStr">
         <is>
-          <t>アルン、マジュムダール;;MAJUMDAR ARUN;;마줌다 아룬</t>
+          <t>アルン、マジュムダール;;마줌다 아룬;;MAJUMDAR ARUN</t>
         </is>
       </c>
       <c r="S91" t="b">
@@ -9826,12 +9826,12 @@
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>IBM (CHINA) INVEST COMPANY LTD;;IBM UK;;IBM</t>
+          <t>IBM;;IBM UK;;IBM (CHINA) INVEST COMPANY LTD</t>
         </is>
       </c>
       <c r="R93" t="inlineStr">
         <is>
-          <t>DIAL OLIVER;;MCCLURE III DOUGLAS T;;GAMBETTA JAY;;STEFFEN MATTHIAS;;GAMBETTA JAY M;;MCCLURE III DOUGLAS TEMPLETON</t>
+          <t>GAMBETTA JAY M;;MCCLURE III DOUGLAS T;;MCCLURE III DOUGLAS TEMPLETON;;DIAL OLIVER;;STEFFEN MATTHIAS;;GAMBETTA JAY</t>
         </is>
       </c>
       <c r="S93" t="b">
@@ -10001,7 +10001,7 @@
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>DE;;CN;;JP;;GB</t>
+          <t>JP;;DE;;CN;;GB</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
@@ -10011,7 +10011,7 @@
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>IB;;US</t>
+          <t>US;;IB</t>
         </is>
       </c>
       <c r="M95" t="n">
@@ -10028,12 +10028,12 @@
       </c>
       <c r="Q95" t="inlineStr">
         <is>
-          <t>IBM;;インターナショナル・ビジネス・マシーンズ・コーポレーションＩＮＴＥＲＮＡＴＩＯＮＡＬ ＢＵＳＩＮＥＳＳ ＭＡＣＨＩＮＥＳ ＣＯＲＰＯＲＡＴＩＯＮ;;国际商业机器公司</t>
+          <t>インターナショナル・ビジネス・マシーンズ・コーポレーションＩＮＴＥＲＮＡＴＩＯＮＡＬ ＢＵＳＩＮＥＳＳ ＭＡＣＨＩＮＥＳ ＣＯＲＰＯＲＡＴＩＯＮ;;IBM;;国际商业机器公司</t>
         </is>
       </c>
       <c r="R95" t="inlineStr">
         <is>
-          <t>MCCLURE III DOUGLAS TEMPLETON;;DIAL OLIVER;;DOUGLAS TEMPLETON MCCLURE III;;マクルーア ザ サード、ダグラス、テンプルトン;;OLIVER DIAL;;ガンベッタ、ジェイ;;ダイアル、オリバー;;D·T·麦克鲁尔三世;;M·斯蒂芬;;GAMBETTA JAY;;STEFFEN MATTHIAS;;JAY GAMBETTA;;J·加姆贝塔;;O·蒂亚尔;;ステファン、マティアス;;MATTHIAS STEFFEN</t>
+          <t>D·T·麦克鲁尔三世;;J·加姆贝塔;;OLIVER DIAL;;O·蒂亚尔;;DIAL OLIVER;;マクルーア ザ サード、ダグラス、テンプルトン;;ガンベッタ、ジェイ;;DOUGLAS TEMPLETON MCCLURE III;;M·斯蒂芬;;MATTHIAS STEFFEN;;MCCLURE III DOUGLAS TEMPLETON;;JAY GAMBETTA;;ダイアル、オリバー;;ステファン、マティアス;;STEFFEN MATTHIAS;;GAMBETTA JAY</t>
         </is>
       </c>
       <c r="S95" t="b">
@@ -10104,7 +10104,7 @@
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>KR;;EP;;AU;;CA;;CN;;JP</t>
+          <t>EP;;CN;;KR;;JP;;AU;;CA</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
@@ -10131,12 +10131,12 @@
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>KYNDI INC;;キンダイ、インコーポレイテッドＫＹＮＤＩ， ＩＮＣ．;;킨디 인코포레이티드</t>
+          <t>キンダイ、インコーポレイテッドＫＹＮＤＩ， ＩＮＣ．;;킨디 인코포레이티드;;KYNDI INC</t>
         </is>
       </c>
       <c r="R96" t="inlineStr">
         <is>
-          <t>アルン、マジュムダール;;MAJUMDAR ARUN;;마줌다 아룬</t>
+          <t>アルン、マジュムダール;;마줌다 아룬;;MAJUMDAR ARUN</t>
         </is>
       </c>
       <c r="S96" t="b">
@@ -10234,12 +10234,12 @@
       </c>
       <c r="Q97" t="inlineStr">
         <is>
-          <t>中国科学院微电子研究所;;INST MICROELECTRONICS CAS;;INST OF MICROELECTRONICS CAS</t>
+          <t>INST OF MICROELECTRONICS CAS;;INST MICROELECTRONICS CAS;;中国科学院微电子研究所</t>
         </is>
       </c>
       <c r="R97" t="inlineStr">
         <is>
-          <t>朱正勇;;张严波;;WANG GUILEI;;ZHANG YANBO;;ZHU HUILONG;;王桂磊;;亨利·H·阿达姆松;;ZHU ZHENGYONG;;朱慧珑;;HENRY H ADAMSON</t>
+          <t>王桂磊;;WANG GUILEI;;ZHANG YANBO;;朱正勇;;ZHU ZHENGYONG;;朱慧珑;;ZHU HUILONG;;张严波;;HENRY H ADAMSON;;亨利·H·阿达姆松</t>
         </is>
       </c>
       <c r="S97" t="b">
@@ -10310,7 +10310,7 @@
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>DE;;CN;;JP;;GB</t>
+          <t>JP;;DE;;CN;;GB</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
@@ -10320,7 +10320,7 @@
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>IB;;US</t>
+          <t>US;;IB</t>
         </is>
       </c>
       <c r="M98" t="n">
@@ -10337,12 +10337,12 @@
       </c>
       <c r="Q98" t="inlineStr">
         <is>
-          <t>IBM;;インターナショナル・ビジネス・マシーンズ・コーポレーションＩＮＴＥＲＮＡＴＩＯＮＡＬ ＢＵＳＩＮＥＳＳ ＭＡＣＨＩＮＥＳ ＣＯＲＰＯＲＡＴＩＯＮ;;国际商业机器公司</t>
+          <t>インターナショナル・ビジネス・マシーンズ・コーポレーションＩＮＴＥＲＮＡＴＩＯＮＡＬ ＢＵＳＩＮＥＳＳ ＭＡＣＨＩＮＥＳ ＣＯＲＰＯＲＡＴＩＯＮ;;IBM;;国际商业机器公司</t>
         </is>
       </c>
       <c r="R98" t="inlineStr">
         <is>
-          <t>MCCLURE III DOUGLAS TEMPLETON;;DIAL OLIVER;;DOUGLAS TEMPLETON MCCLURE III;;マクルーア ザ サード、ダグラス、テンプルトン;;OLIVER DIAL;;ガンベッタ、ジェイ;;ダイアル、オリバー;;D·T·麦克鲁尔三世;;M·斯蒂芬;;GAMBETTA JAY;;STEFFEN MATTHIAS;;JAY GAMBETTA;;J·加姆贝塔;;O·蒂亚尔;;ステファン、マティアス;;MATTHIAS STEFFEN</t>
+          <t>D·T·麦克鲁尔三世;;J·加姆贝塔;;OLIVER DIAL;;O·蒂亚尔;;DIAL OLIVER;;マクルーア ザ サード、ダグラス、テンプルトン;;ガンベッタ、ジェイ;;DOUGLAS TEMPLETON MCCLURE III;;M·斯蒂芬;;MATTHIAS STEFFEN;;MCCLURE III DOUGLAS TEMPLETON;;JAY GAMBETTA;;ダイアル、オリバー;;ステファン、マティアス;;STEFFEN MATTHIAS;;GAMBETTA JAY</t>
         </is>
       </c>
       <c r="S98" t="b">
@@ -10436,12 +10436,12 @@
       </c>
       <c r="Q99" t="inlineStr">
         <is>
-          <t>LANDIGRAD LLC;;SMIRNOV SERGEY NIKOLAYEVICH;;란디그레드, 리미티드 라이어빌리티 컴퍼니;;스미르노브, 세르게이 니콜라예비치</t>
+          <t>스미르노브, 세르게이 니콜라예비치;;LANDIGRAD LLC;;SMIRNOV SERGEY NIKOLAYEVICH;;란디그레드, 리미티드 라이어빌리티 컴퍼니</t>
         </is>
       </c>
       <c r="R99" t="inlineStr">
         <is>
-          <t>SMIRNOV SERGEY NIKOLAYEVICH;;스미르노브, 세르게이 니콜라예비치</t>
+          <t>스미르노브, 세르게이 니콜라예비치;;SMIRNOV SERGEY NIKOLAYEVICH</t>
         </is>
       </c>
       <c r="S99" t="b">
@@ -10539,12 +10539,12 @@
       </c>
       <c r="Q100" t="inlineStr">
         <is>
-          <t>BOSE SAURABH KUMAR;;FOSTNER SHAWN;;BROWN SIMON ANTHONY;;THE UNIV OF CANTERBURY</t>
+          <t>BROWN SIMON ANTHONY;;BOSE SAURABH KUMAR;;FOSTNER SHAWN;;THE UNIV OF CANTERBURY</t>
         </is>
       </c>
       <c r="R100" t="inlineStr">
         <is>
-          <t>BOSE SAURABH KUMAR;;FOSTNER SHAWN;;BROWN SIMON ANTHONY</t>
+          <t>BROWN SIMON ANTHONY;;BOSE SAURABH KUMAR;;FOSTNER SHAWN</t>
         </is>
       </c>
       <c r="S100" t="b">
@@ -10642,12 +10642,12 @@
       </c>
       <c r="Q101" t="inlineStr">
         <is>
-          <t>BOSE SAURABH KUMAR;;FOSTNER SHAWN;;BROWN SIMON ANTHONY;;THE UNIV OF CANTERBURY</t>
+          <t>BROWN SIMON ANTHONY;;BOSE SAURABH KUMAR;;FOSTNER SHAWN;;THE UNIV OF CANTERBURY</t>
         </is>
       </c>
       <c r="R101" t="inlineStr">
         <is>
-          <t>BOSE SAURABH KUMAR;;FOSTNER SHAWN;;BROWN SIMON ANTHONY</t>
+          <t>BROWN SIMON ANTHONY;;BOSE SAURABH KUMAR;;FOSTNER SHAWN</t>
         </is>
       </c>
       <c r="S101" t="b">
@@ -10741,12 +10741,12 @@
       </c>
       <c r="Q102" t="inlineStr">
         <is>
-          <t>LANDIGRAD LLC;;SMIRNOV SERGEY NIKOLAYEVICH;;란디그레드, 리미티드 라이어빌리티 컴퍼니;;스미르노브, 세르게이 니콜라예비치</t>
+          <t>스미르노브, 세르게이 니콜라예비치;;LANDIGRAD LLC;;SMIRNOV SERGEY NIKOLAYEVICH;;란디그레드, 리미티드 라이어빌리티 컴퍼니</t>
         </is>
       </c>
       <c r="R102" t="inlineStr">
         <is>
-          <t>SMIRNOV SERGEY NIKOLAYEVICH;;스미르노브, 세르게이 니콜라예비치</t>
+          <t>스미르노브, 세르게이 니콜라예비치;;SMIRNOV SERGEY NIKOLAYEVICH</t>
         </is>
       </c>
       <c r="S102" t="b">
@@ -10844,12 +10844,12 @@
       </c>
       <c r="Q103" t="inlineStr">
         <is>
-          <t>BOSE SAURABH KUMAR;;FOSTNER SHAWN;;BROWN SIMON ANTHONY;;THE UNIV OF CANTERBURY</t>
+          <t>BROWN SIMON ANTHONY;;BOSE SAURABH KUMAR;;FOSTNER SHAWN;;THE UNIV OF CANTERBURY</t>
         </is>
       </c>
       <c r="R103" t="inlineStr">
         <is>
-          <t>BOSE SAURABH KUMAR;;FOSTNER SHAWN;;BROWN SIMON ANTHONY</t>
+          <t>BROWN SIMON ANTHONY;;BOSE SAURABH KUMAR;;FOSTNER SHAWN</t>
         </is>
       </c>
       <c r="S103" t="b">
@@ -10947,12 +10947,12 @@
       </c>
       <c r="Q104" t="inlineStr">
         <is>
-          <t>MOLINSKY BRADLEY DEAN;;TIPTON THOMAS ANDREW;;DUNST MICHAEL J;;HARTFORD FIRE INSURANCE COMP;;CARROLL WILLIAM JOSEPH;;BATTAGLINI JOSEPH S</t>
+          <t>CARROLL WILLIAM JOSEPH;;DUNST MICHAEL J;;BATTAGLINI JOSEPH S;;HARTFORD FIRE INSURANCE COMP;;TIPTON THOMAS ANDREW;;MOLINSKY BRADLEY DEAN</t>
         </is>
       </c>
       <c r="R104" t="inlineStr">
         <is>
-          <t>MOLINSKY BRADLEY DEAN;;TIPTON THOMAS ANDREW;;DUNST MICHAEL J;;CARROLL WILLIAM JOSEPH;;BATTAGLINI JOSEPH S</t>
+          <t>CARROLL WILLIAM JOSEPH;;DUNST MICHAEL J;;BATTAGLINI JOSEPH S;;TIPTON THOMAS ANDREW;;MOLINSKY BRADLEY DEAN</t>
         </is>
       </c>
       <c r="S104" t="b">
@@ -11050,12 +11050,12 @@
       </c>
       <c r="Q105" t="inlineStr">
         <is>
-          <t>MOLINSKY BRADLEY DEAN;;TIPTON THOMAS ANDREW;;DUNST MICHAEL J;;HARTFORD FIRE INSURANCE COMP;;CARROLL WILLIAM JOSEPH;;BATTAGLINI JOSEPH S</t>
+          <t>CARROLL WILLIAM JOSEPH;;DUNST MICHAEL J;;BATTAGLINI JOSEPH S;;HARTFORD FIRE INSURANCE COMP;;TIPTON THOMAS ANDREW;;MOLINSKY BRADLEY DEAN</t>
         </is>
       </c>
       <c r="R105" t="inlineStr">
         <is>
-          <t>MOLINSKY BRADLEY DEAN;;TIPTON THOMAS ANDREW;;DUNST MICHAEL J;;CARROLL WILLIAM JOSEPH;;BATTAGLINI JOSEPH S</t>
+          <t>CARROLL WILLIAM JOSEPH;;DUNST MICHAEL J;;BATTAGLINI JOSEPH S;;TIPTON THOMAS ANDREW;;MOLINSKY BRADLEY DEAN</t>
         </is>
       </c>
       <c r="S105" t="b">
@@ -11153,12 +11153,12 @@
       </c>
       <c r="Q106" t="inlineStr">
         <is>
-          <t>MOLINSKY BRADLEY DEAN;;TIPTON THOMAS ANDREW;;DUNST MICHAEL J;;HARTFORD FIRE INSURANCE COMP;;CARROLL WILLIAM JOSEPH;;BATTAGLINI JOSEPH S</t>
+          <t>CARROLL WILLIAM JOSEPH;;DUNST MICHAEL J;;BATTAGLINI JOSEPH S;;HARTFORD FIRE INSURANCE COMP;;TIPTON THOMAS ANDREW;;MOLINSKY BRADLEY DEAN</t>
         </is>
       </c>
       <c r="R106" t="inlineStr">
         <is>
-          <t>MOLINSKY BRADLEY DEAN;;TIPTON THOMAS ANDREW;;DUNST MICHAEL J;;CARROLL WILLIAM JOSEPH;;BATTAGLINI JOSEPH S</t>
+          <t>CARROLL WILLIAM JOSEPH;;DUNST MICHAEL J;;BATTAGLINI JOSEPH S;;TIPTON THOMAS ANDREW;;MOLINSKY BRADLEY DEAN</t>
         </is>
       </c>
       <c r="S106" t="b">
@@ -11229,7 +11229,7 @@
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>WO;;CN;;US;;KR;;EP;;AU;;CA;;SG;;JP</t>
+          <t>SG;;EP;;US;;CN;;WO;;KR;;JP;;AU;;CA</t>
         </is>
       </c>
       <c r="K107" t="inlineStr">
@@ -11256,12 +11256,12 @@
       </c>
       <c r="Q107" t="inlineStr">
         <is>
-          <t>ラミ・バレントス;;グーグル エルエルシー;;구글 엘엘씨;;BARENDS RAMI;;GOOGLE INC;;GOOGLE LLC</t>
+          <t>ラミ・バレントス;;グーグル エルエルシー;;GOOGLE LLC;;BARENDS RAMI;;구글 엘엘씨;;GOOGLE INC</t>
         </is>
       </c>
       <c r="R107" t="inlineStr">
         <is>
-          <t>ラミ・バレントス;;바엔즈 라미;;BARENDS RAMI</t>
+          <t>BARENDS RAMI;;바엔즈 라미;;ラミ・バレントス</t>
         </is>
       </c>
       <c r="S107" t="b">
@@ -11332,7 +11332,7 @@
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>WO;;CN;;US;;KR;;EP;;AU;;CA;;SG;;JP</t>
+          <t>SG;;EP;;US;;CN;;WO;;KR;;JP;;AU;;CA</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
@@ -11359,12 +11359,12 @@
       </c>
       <c r="Q108" t="inlineStr">
         <is>
-          <t>ラミ・バレントス;;グーグル エルエルシー;;구글 엘엘씨;;BARENDS RAMI;;GOOGLE INC;;GOOGLE LLC</t>
+          <t>ラミ・バレントス;;グーグル エルエルシー;;GOOGLE LLC;;BARENDS RAMI;;구글 엘엘씨;;GOOGLE INC</t>
         </is>
       </c>
       <c r="R108" t="inlineStr">
         <is>
-          <t>ラミ・バレントス;;바엔즈 라미;;BARENDS RAMI</t>
+          <t>BARENDS RAMI;;바엔즈 라미;;ラミ・バレントス</t>
         </is>
       </c>
       <c r="S108" t="b">
@@ -11462,12 +11462,12 @@
       </c>
       <c r="Q109" t="inlineStr">
         <is>
-          <t>MOLINSKY BRADLEY DEAN;;TIPTON THOMAS ANDREW;;DUNST MICHAEL J;;HARTFORD FIRE INSURANCE COMP;;CARROLL WILLIAM JOSEPH;;BATTAGLINI JOSEPH S</t>
+          <t>CARROLL WILLIAM JOSEPH;;DUNST MICHAEL J;;BATTAGLINI JOSEPH S;;HARTFORD FIRE INSURANCE COMP;;TIPTON THOMAS ANDREW;;MOLINSKY BRADLEY DEAN</t>
         </is>
       </c>
       <c r="R109" t="inlineStr">
         <is>
-          <t>MOLINSKY BRADLEY DEAN;;TIPTON THOMAS ANDREW;;DUNST MICHAEL J;;CARROLL WILLIAM JOSEPH;;BATTAGLINI JOSEPH S</t>
+          <t>CARROLL WILLIAM JOSEPH;;DUNST MICHAEL J;;BATTAGLINI JOSEPH S;;TIPTON THOMAS ANDREW;;MOLINSKY BRADLEY DEAN</t>
         </is>
       </c>
       <c r="S109" t="b">
@@ -11538,7 +11538,7 @@
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>WO;;CN;;US;;KR;;EP;;AU;;CA;;SG;;JP</t>
+          <t>SG;;EP;;US;;CN;;WO;;KR;;JP;;AU;;CA</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
@@ -11565,12 +11565,12 @@
       </c>
       <c r="Q110" t="inlineStr">
         <is>
-          <t>ラミ・バレントス;;グーグル エルエルシー;;구글 엘엘씨;;BARENDS RAMI;;GOOGLE INC;;GOOGLE LLC</t>
+          <t>ラミ・バレントス;;グーグル エルエルシー;;GOOGLE LLC;;BARENDS RAMI;;구글 엘엘씨;;GOOGLE INC</t>
         </is>
       </c>
       <c r="R110" t="inlineStr">
         <is>
-          <t>ラミ・バレントス;;바엔즈 라미;;BARENDS RAMI</t>
+          <t>BARENDS RAMI;;바엔즈 라미;;ラミ・バレントス</t>
         </is>
       </c>
       <c r="S110" t="b">
@@ -11668,12 +11668,12 @@
       </c>
       <c r="Q111" t="inlineStr">
         <is>
-          <t>MOLINSKY BRADLEY DEAN;;TIPTON THOMAS ANDREW;;DUNST MICHAEL J;;HARTFORD FIRE INSURANCE COMP;;CARROLL WILLIAM JOSEPH;;BATTAGLINI JOSEPH S</t>
+          <t>CARROLL WILLIAM JOSEPH;;DUNST MICHAEL J;;BATTAGLINI JOSEPH S;;HARTFORD FIRE INSURANCE COMP;;TIPTON THOMAS ANDREW;;MOLINSKY BRADLEY DEAN</t>
         </is>
       </c>
       <c r="R111" t="inlineStr">
         <is>
-          <t>MOLINSKY BRADLEY DEAN;;TIPTON THOMAS ANDREW;;DUNST MICHAEL J;;CARROLL WILLIAM JOSEPH;;BATTAGLINI JOSEPH S</t>
+          <t>CARROLL WILLIAM JOSEPH;;DUNST MICHAEL J;;BATTAGLINI JOSEPH S;;TIPTON THOMAS ANDREW;;MOLINSKY BRADLEY DEAN</t>
         </is>
       </c>
       <c r="S111" t="b">
@@ -11744,7 +11744,7 @@
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>WO;;RU;;US;;KR;;EP;;JP;;AU;;IL;;CA;;TW;;CN;;ZA</t>
+          <t>EP;;ZA;;US;;CN;;WO;;KR;;JP;;AU;;IL;;RU;;CA;;TW</t>
         </is>
       </c>
       <c r="K112" t="inlineStr">
@@ -11771,7 +11771,7 @@
       </c>
       <c r="Q112" t="inlineStr">
         <is>
-          <t>OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD;;SMIRNOV SERGEY;;SMIRNOV SERGEY NIIKOLAYEVICH;;LANDIGRAD LLC;;LANDIGRAD LIMITED LIABILITY COMPANY;;LANDIGRAD LTD LIABILITY CO;;SMIRNOV SERGEY NIKOLAYEVICH</t>
+          <t>SMIRNOV SERGEY NIKOLAYEVICH;;SMIRNOV SERGEY NIIKOLAYEVICH;;SMIRNOV SERGEY;;LANDIGRAD LTD LIABILITY CO;;LANDIGRAD LIMITED LIABILITY COMPANY;;LANDIGRAD LLC;;OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD</t>
         </is>
       </c>
       <c r="R112" t="inlineStr">
@@ -11847,7 +11847,7 @@
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>WO;;RU;;US;;KR;;EP;;JP;;AU;;IL;;CA;;TW;;CN;;ZA</t>
+          <t>EP;;ZA;;US;;CN;;WO;;KR;;JP;;AU;;IL;;RU;;CA;;TW</t>
         </is>
       </c>
       <c r="K113" t="inlineStr">
@@ -11874,7 +11874,7 @@
       </c>
       <c r="Q113" t="inlineStr">
         <is>
-          <t>OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD;;SMIRNOV SERGEY;;SMIRNOV SERGEY NIIKOLAYEVICH;;LANDIGRAD LLC;;LANDIGRAD LIMITED LIABILITY COMPANY;;LANDIGRAD LTD LIABILITY CO;;SMIRNOV SERGEY NIKOLAYEVICH</t>
+          <t>SMIRNOV SERGEY NIKOLAYEVICH;;SMIRNOV SERGEY NIIKOLAYEVICH;;SMIRNOV SERGEY;;LANDIGRAD LTD LIABILITY CO;;LANDIGRAD LIMITED LIABILITY COMPANY;;LANDIGRAD LLC;;OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD</t>
         </is>
       </c>
       <c r="R113" t="inlineStr">
@@ -11950,7 +11950,7 @@
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>WO;;RU;;US;;KR;;EP;;JP;;AU;;IL;;CA;;TW;;CN;;ZA</t>
+          <t>EP;;ZA;;US;;CN;;WO;;KR;;JP;;AU;;IL;;RU;;CA;;TW</t>
         </is>
       </c>
       <c r="K114" t="inlineStr">
@@ -11977,7 +11977,7 @@
       </c>
       <c r="Q114" t="inlineStr">
         <is>
-          <t>OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD;;SMIRNOV SERGEY;;SMIRNOV SERGEY NIIKOLAYEVICH;;LANDIGRAD LLC;;LANDIGRAD LIMITED LIABILITY COMPANY;;LANDIGRAD LTD LIABILITY CO;;SMIRNOV SERGEY NIKOLAYEVICH</t>
+          <t>SMIRNOV SERGEY NIKOLAYEVICH;;SMIRNOV SERGEY NIIKOLAYEVICH;;SMIRNOV SERGEY;;LANDIGRAD LTD LIABILITY CO;;LANDIGRAD LIMITED LIABILITY COMPANY;;LANDIGRAD LLC;;OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD</t>
         </is>
       </c>
       <c r="R114" t="inlineStr">
@@ -12049,7 +12049,7 @@
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>WO;;US;;KR;;EP;;AU;;CA;;CN;;JP</t>
+          <t>EP;;US;;CN;;WO;;KR;;JP;;AU;;CA</t>
         </is>
       </c>
       <c r="K115" t="inlineStr">
@@ -12076,12 +12076,12 @@
       </c>
       <c r="Q115" t="inlineStr">
         <is>
-          <t>グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;SMELYANSKIY VADIM;;NEVEN HARTMUT;;CASTRILLO SERGIO BOIXO;;NIU YUEZHEN;;GOOGLE INC;;GOOGLE LLC</t>
+          <t>グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;NEVEN HARTMUT;;NIU YUEZHEN;;GOOGLE LLC;;SMELYANSKIY VADIM;;CASTRILLO SERGIO BOIXO;;GOOGLE INC</t>
         </is>
       </c>
       <c r="R115" t="inlineStr">
         <is>
-          <t>ユエゼン・ニウ;;BOIXO CASTRILLO SERGIO;;SMELYANSKIY VADIM;;NEVEN HARTMUT;;セルジオ・バイショ・カストリージョ;;CASTRILLO SERGIO BOIXO;;NIU YUEZHEN;;ヴァディム・スメリャンスキー;;ハルトムート・ネーフェン</t>
+          <t>NEVEN HARTMUT;;NIU YUEZHEN;;ハルトムート・ネーフェン;;BOIXO CASTRILLO SERGIO;;SMELYANSKIY VADIM;;CASTRILLO SERGIO BOIXO;;セルジオ・バイショ・カストリージョ;;ヴァディム・スメリャンスキー;;ユエゼン・ニウ</t>
         </is>
       </c>
       <c r="S115" t="b">
@@ -12148,7 +12148,7 @@
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>WO;;US;;KR;;EP;;AU;;CA;;CN;;JP</t>
+          <t>EP;;US;;CN;;WO;;KR;;JP;;AU;;CA</t>
         </is>
       </c>
       <c r="K116" t="inlineStr">
@@ -12175,12 +12175,12 @@
       </c>
       <c r="Q116" t="inlineStr">
         <is>
-          <t>グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;SMELYANSKIY VADIM;;NEVEN HARTMUT;;CASTRILLO SERGIO BOIXO;;NIU YUEZHEN;;GOOGLE INC;;GOOGLE LLC</t>
+          <t>グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;NEVEN HARTMUT;;NIU YUEZHEN;;GOOGLE LLC;;SMELYANSKIY VADIM;;CASTRILLO SERGIO BOIXO;;GOOGLE INC</t>
         </is>
       </c>
       <c r="R116" t="inlineStr">
         <is>
-          <t>ユエゼン・ニウ;;BOIXO CASTRILLO SERGIO;;SMELYANSKIY VADIM;;NEVEN HARTMUT;;セルジオ・バイショ・カストリージョ;;CASTRILLO SERGIO BOIXO;;NIU YUEZHEN;;ヴァディム・スメリャンスキー;;ハルトムート・ネーフェン</t>
+          <t>NEVEN HARTMUT;;NIU YUEZHEN;;ハルトムート・ネーフェン;;BOIXO CASTRILLO SERGIO;;SMELYANSKIY VADIM;;CASTRILLO SERGIO BOIXO;;セルジオ・バイショ・カストリージョ;;ヴァディム・スメリャンスキー;;ユエゼン・ニウ</t>
         </is>
       </c>
       <c r="S116" t="b">
@@ -12251,7 +12251,7 @@
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>WO;;RU;;US;;KR;;EP;;JP;;AU;;IL;;CA;;TW;;CN;;ZA</t>
+          <t>EP;;ZA;;US;;CN;;WO;;KR;;JP;;AU;;IL;;RU;;CA;;TW</t>
         </is>
       </c>
       <c r="K117" t="inlineStr">
@@ -12278,7 +12278,7 @@
       </c>
       <c r="Q117" t="inlineStr">
         <is>
-          <t>OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD;;SMIRNOV SERGEY;;SMIRNOV SERGEY NIIKOLAYEVICH;;LANDIGRAD LLC;;LANDIGRAD LIMITED LIABILITY COMPANY;;LANDIGRAD LTD LIABILITY CO;;SMIRNOV SERGEY NIKOLAYEVICH</t>
+          <t>SMIRNOV SERGEY NIKOLAYEVICH;;SMIRNOV SERGEY NIIKOLAYEVICH;;SMIRNOV SERGEY;;LANDIGRAD LTD LIABILITY CO;;LANDIGRAD LIMITED LIABILITY COMPANY;;LANDIGRAD LLC;;OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD</t>
         </is>
       </c>
       <c r="R117" t="inlineStr">
@@ -12350,7 +12350,7 @@
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>WO;;US;;KR;;EP;;AU;;CA;;CN;;JP</t>
+          <t>EP;;US;;CN;;WO;;KR;;JP;;AU;;CA</t>
         </is>
       </c>
       <c r="K118" t="inlineStr">
@@ -12377,12 +12377,12 @@
       </c>
       <c r="Q118" t="inlineStr">
         <is>
-          <t>グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;SMELYANSKIY VADIM;;NEVEN HARTMUT;;CASTRILLO SERGIO BOIXO;;NIU YUEZHEN;;GOOGLE INC;;GOOGLE LLC</t>
+          <t>グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;NEVEN HARTMUT;;NIU YUEZHEN;;GOOGLE LLC;;SMELYANSKIY VADIM;;CASTRILLO SERGIO BOIXO;;GOOGLE INC</t>
         </is>
       </c>
       <c r="R118" t="inlineStr">
         <is>
-          <t>ユエゼン・ニウ;;BOIXO CASTRILLO SERGIO;;SMELYANSKIY VADIM;;NEVEN HARTMUT;;セルジオ・バイショ・カストリージョ;;CASTRILLO SERGIO BOIXO;;NIU YUEZHEN;;ヴァディム・スメリャンスキー;;ハルトムート・ネーフェン</t>
+          <t>NEVEN HARTMUT;;NIU YUEZHEN;;ハルトムート・ネーフェン;;BOIXO CASTRILLO SERGIO;;SMELYANSKIY VADIM;;CASTRILLO SERGIO BOIXO;;セルジオ・バイショ・カストリージョ;;ヴァディム・スメリャンスキー;;ユエゼン・ニウ</t>
         </is>
       </c>
       <c r="S118" t="b">
@@ -12449,7 +12449,7 @@
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>WO;;US;;KR;;EP;;AU;;CA;;CN;;JP</t>
+          <t>EP;;US;;CN;;WO;;KR;;JP;;AU;;CA</t>
         </is>
       </c>
       <c r="K119" t="inlineStr">
@@ -12476,12 +12476,12 @@
       </c>
       <c r="Q119" t="inlineStr">
         <is>
-          <t>グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;SMELYANSKIY VADIM;;NEVEN HARTMUT;;CASTRILLO SERGIO BOIXO;;NIU YUEZHEN;;GOOGLE INC;;GOOGLE LLC</t>
+          <t>グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;NEVEN HARTMUT;;NIU YUEZHEN;;GOOGLE LLC;;SMELYANSKIY VADIM;;CASTRILLO SERGIO BOIXO;;GOOGLE INC</t>
         </is>
       </c>
       <c r="R119" t="inlineStr">
         <is>
-          <t>ユエゼン・ニウ;;BOIXO CASTRILLO SERGIO;;SMELYANSKIY VADIM;;NEVEN HARTMUT;;セルジオ・バイショ・カストリージョ;;CASTRILLO SERGIO BOIXO;;NIU YUEZHEN;;ヴァディム・スメリャンスキー;;ハルトムート・ネーフェン</t>
+          <t>NEVEN HARTMUT;;NIU YUEZHEN;;ハルトムート・ネーフェン;;BOIXO CASTRILLO SERGIO;;SMELYANSKIY VADIM;;CASTRILLO SERGIO BOIXO;;セルジオ・バイショ・カストリージョ;;ヴァディム・スメリャンスキー;;ユエゼン・ニウ</t>
         </is>
       </c>
       <c r="S119" t="b">
@@ -12552,7 +12552,7 @@
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>WO;;RU;;US;;KR;;EP;;JP;;AU;;IL;;CA;;TW;;CN;;ZA</t>
+          <t>EP;;ZA;;US;;CN;;WO;;KR;;JP;;AU;;IL;;RU;;CA;;TW</t>
         </is>
       </c>
       <c r="K120" t="inlineStr">
@@ -12579,7 +12579,7 @@
       </c>
       <c r="Q120" t="inlineStr">
         <is>
-          <t>OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD;;SMIRNOV SERGEY;;SMIRNOV SERGEY NIIKOLAYEVICH;;LANDIGRAD LLC;;LANDIGRAD LIMITED LIABILITY COMPANY;;LANDIGRAD LTD LIABILITY CO;;SMIRNOV SERGEY NIKOLAYEVICH</t>
+          <t>SMIRNOV SERGEY NIKOLAYEVICH;;SMIRNOV SERGEY NIIKOLAYEVICH;;SMIRNOV SERGEY;;LANDIGRAD LTD LIABILITY CO;;LANDIGRAD LIMITED LIABILITY COMPANY;;LANDIGRAD LLC;;OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD</t>
         </is>
       </c>
       <c r="R120" t="inlineStr">
